--- a/Other Files/PastResults.xlsx
+++ b/Other Files/PastResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\011445\Documents\GitHub\LTBO\Other Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83D633BE-ED22-4176-8F15-3351A25DB5D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF94200-7D03-4CFB-AE0E-8F7EB948F63D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="1" xr2:uid="{9CA52F10-A8DE-413C-A178-2430F032102C}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{9CA52F10-A8DE-413C-A178-2430F032102C}"/>
   </bookViews>
   <sheets>
     <sheet name="SfW" sheetId="2" r:id="rId1"/>
@@ -1127,14 +1127,14 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="16" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="16" fontId="12" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8406,8 +8406,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:X1000"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -9548,19 +9548,19 @@
       </c>
     </row>
     <row r="21" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="115" t="s">
+      <c r="B21" s="120" t="s">
         <v>120</v>
       </c>
-      <c r="C21" s="115"/>
-      <c r="D21" s="115"/>
+      <c r="C21" s="120"/>
+      <c r="D21" s="120"/>
       <c r="X21" s="2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="22" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="115"/>
-      <c r="C22" s="115"/>
-      <c r="D22" s="115"/>
+      <c r="B22" s="120"/>
+      <c r="C22" s="120"/>
+      <c r="D22" s="120"/>
       <c r="X22" s="2" t="s">
         <v>71</v>
       </c>
@@ -12605,8 +12605,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:AT1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AA31" sqref="AA31"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -12644,52 +12644,52 @@
     </row>
     <row r="3" spans="2:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="4" spans="2:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="116" t="s">
+      <c r="B4" s="115" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="116" t="s">
+      <c r="C4" s="115" t="s">
         <v>77</v>
       </c>
-      <c r="D4" s="116" t="s">
+      <c r="D4" s="115" t="s">
         <v>78</v>
       </c>
-      <c r="E4" s="116" t="s">
+      <c r="E4" s="115" t="s">
         <v>79</v>
       </c>
-      <c r="F4" s="116" t="s">
+      <c r="F4" s="115" t="s">
         <v>177</v>
       </c>
-      <c r="G4" s="116" t="s">
+      <c r="G4" s="115" t="s">
         <v>183</v>
       </c>
-      <c r="H4" s="116" t="s">
+      <c r="H4" s="115" t="s">
         <v>184</v>
       </c>
-      <c r="I4" s="116" t="s">
+      <c r="I4" s="115" t="s">
         <v>178</v>
       </c>
-      <c r="J4" s="116" t="s">
+      <c r="J4" s="115" t="s">
         <v>185</v>
       </c>
-      <c r="K4" s="116" t="s">
+      <c r="K4" s="115" t="s">
         <v>186</v>
       </c>
-      <c r="L4" s="116" t="s">
+      <c r="L4" s="115" t="s">
         <v>179</v>
       </c>
-      <c r="M4" s="116" t="s">
+      <c r="M4" s="115" t="s">
         <v>187</v>
       </c>
-      <c r="N4" s="116" t="s">
+      <c r="N4" s="115" t="s">
         <v>188</v>
       </c>
-      <c r="O4" s="116" t="s">
+      <c r="O4" s="115" t="s">
         <v>180</v>
       </c>
-      <c r="P4" s="116" t="s">
+      <c r="P4" s="115" t="s">
         <v>181</v>
       </c>
-      <c r="Q4" s="116" t="s">
+      <c r="Q4" s="115" t="s">
         <v>182</v>
       </c>
       <c r="S4" s="3" t="s">
@@ -12697,22 +12697,22 @@
       </c>
     </row>
     <row r="5" spans="2:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="117"/>
-      <c r="C5" s="118"/>
-      <c r="D5" s="118"/>
-      <c r="E5" s="118"/>
-      <c r="F5" s="118"/>
-      <c r="G5" s="119"/>
-      <c r="H5" s="119"/>
-      <c r="I5" s="119"/>
-      <c r="J5" s="119"/>
-      <c r="K5" s="119"/>
-      <c r="L5" s="119"/>
-      <c r="M5" s="119"/>
-      <c r="N5" s="119"/>
-      <c r="O5" s="119"/>
-      <c r="P5" s="119"/>
-      <c r="Q5" s="119"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="118"/>
+      <c r="H5" s="118"/>
+      <c r="I5" s="118"/>
+      <c r="J5" s="118"/>
+      <c r="K5" s="118"/>
+      <c r="L5" s="118"/>
+      <c r="M5" s="118"/>
+      <c r="N5" s="118"/>
+      <c r="O5" s="118"/>
+      <c r="P5" s="118"/>
+      <c r="Q5" s="118"/>
       <c r="S5" s="1" t="s">
         <v>81</v>
       </c>
@@ -12730,22 +12730,22 @@
       <c r="AT5" s="65"/>
     </row>
     <row r="6" spans="2:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="117"/>
-      <c r="C6" s="118"/>
-      <c r="D6" s="118"/>
-      <c r="E6" s="118"/>
-      <c r="F6" s="118"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="119"/>
-      <c r="I6" s="119"/>
-      <c r="J6" s="119"/>
-      <c r="K6" s="119"/>
-      <c r="L6" s="119"/>
-      <c r="M6" s="119"/>
-      <c r="N6" s="119"/>
-      <c r="O6" s="119"/>
-      <c r="P6" s="119"/>
-      <c r="Q6" s="119"/>
+      <c r="B6" s="116"/>
+      <c r="C6" s="117"/>
+      <c r="D6" s="117"/>
+      <c r="E6" s="117"/>
+      <c r="F6" s="117"/>
+      <c r="G6" s="118"/>
+      <c r="H6" s="118"/>
+      <c r="I6" s="118"/>
+      <c r="J6" s="118"/>
+      <c r="K6" s="118"/>
+      <c r="L6" s="118"/>
+      <c r="M6" s="118"/>
+      <c r="N6" s="118"/>
+      <c r="O6" s="118"/>
+      <c r="P6" s="118"/>
+      <c r="Q6" s="118"/>
       <c r="S6" s="5" t="e">
         <f>AVERAGE(C5:C30)</f>
         <v>#DIV/0!</v>
@@ -12779,22 +12779,22 @@
       <c r="AT6" s="65"/>
     </row>
     <row r="7" spans="2:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="117"/>
-      <c r="C7" s="118"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="119"/>
-      <c r="K7" s="119"/>
-      <c r="L7" s="119"/>
-      <c r="M7" s="119"/>
-      <c r="N7" s="119"/>
-      <c r="O7" s="119"/>
-      <c r="P7" s="119"/>
-      <c r="Q7" s="119"/>
+      <c r="B7" s="116"/>
+      <c r="C7" s="117"/>
+      <c r="D7" s="117"/>
+      <c r="E7" s="117"/>
+      <c r="F7" s="117"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="118"/>
+      <c r="K7" s="118"/>
+      <c r="L7" s="118"/>
+      <c r="M7" s="118"/>
+      <c r="N7" s="118"/>
+      <c r="O7" s="118"/>
+      <c r="P7" s="118"/>
+      <c r="Q7" s="118"/>
       <c r="S7" s="3" t="s">
         <v>83</v>
       </c>
@@ -12852,22 +12852,22 @@
       <c r="AT7" s="61"/>
     </row>
     <row r="8" spans="2:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="117"/>
-      <c r="C8" s="118"/>
-      <c r="D8" s="118"/>
-      <c r="E8" s="118"/>
-      <c r="F8" s="118"/>
-      <c r="G8" s="119"/>
-      <c r="H8" s="119"/>
-      <c r="I8" s="119"/>
-      <c r="J8" s="119"/>
-      <c r="K8" s="119"/>
-      <c r="L8" s="119"/>
-      <c r="M8" s="119"/>
-      <c r="N8" s="119"/>
-      <c r="O8" s="119"/>
-      <c r="P8" s="119"/>
-      <c r="Q8" s="119"/>
+      <c r="B8" s="116"/>
+      <c r="C8" s="117"/>
+      <c r="D8" s="117"/>
+      <c r="E8" s="117"/>
+      <c r="F8" s="117"/>
+      <c r="G8" s="118"/>
+      <c r="H8" s="118"/>
+      <c r="I8" s="118"/>
+      <c r="J8" s="118"/>
+      <c r="K8" s="118"/>
+      <c r="L8" s="118"/>
+      <c r="M8" s="118"/>
+      <c r="N8" s="118"/>
+      <c r="O8" s="118"/>
+      <c r="P8" s="118"/>
+      <c r="Q8" s="118"/>
       <c r="Z8" s="68" t="s">
         <v>45</v>
       </c>
@@ -12921,22 +12921,22 @@
       <c r="AT8" s="40"/>
     </row>
     <row r="9" spans="2:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="117"/>
-      <c r="C9" s="118"/>
-      <c r="D9" s="118"/>
-      <c r="E9" s="118"/>
-      <c r="F9" s="118"/>
-      <c r="G9" s="119"/>
-      <c r="H9" s="119"/>
-      <c r="I9" s="119"/>
-      <c r="J9" s="119"/>
-      <c r="K9" s="119"/>
-      <c r="L9" s="119"/>
-      <c r="M9" s="119"/>
-      <c r="N9" s="119"/>
-      <c r="O9" s="119"/>
-      <c r="P9" s="119"/>
-      <c r="Q9" s="119"/>
+      <c r="B9" s="116"/>
+      <c r="C9" s="117"/>
+      <c r="D9" s="117"/>
+      <c r="E9" s="117"/>
+      <c r="F9" s="117"/>
+      <c r="G9" s="118"/>
+      <c r="H9" s="118"/>
+      <c r="I9" s="118"/>
+      <c r="J9" s="118"/>
+      <c r="K9" s="118"/>
+      <c r="L9" s="118"/>
+      <c r="M9" s="118"/>
+      <c r="N9" s="118"/>
+      <c r="O9" s="118"/>
+      <c r="P9" s="118"/>
+      <c r="Q9" s="118"/>
       <c r="Z9" s="68" t="s">
         <v>49</v>
       </c>
@@ -12990,22 +12990,22 @@
       <c r="AT9" s="40"/>
     </row>
     <row r="10" spans="2:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="117"/>
-      <c r="C10" s="118"/>
-      <c r="D10" s="118"/>
-      <c r="E10" s="118"/>
-      <c r="F10" s="118"/>
-      <c r="G10" s="119"/>
-      <c r="H10" s="119"/>
-      <c r="I10" s="119"/>
-      <c r="J10" s="119"/>
-      <c r="K10" s="119"/>
-      <c r="L10" s="119"/>
-      <c r="M10" s="119"/>
-      <c r="N10" s="119"/>
-      <c r="O10" s="119"/>
-      <c r="P10" s="119"/>
-      <c r="Q10" s="119"/>
+      <c r="B10" s="116"/>
+      <c r="C10" s="117"/>
+      <c r="D10" s="117"/>
+      <c r="E10" s="117"/>
+      <c r="F10" s="117"/>
+      <c r="G10" s="118"/>
+      <c r="H10" s="118"/>
+      <c r="I10" s="118"/>
+      <c r="J10" s="118"/>
+      <c r="K10" s="118"/>
+      <c r="L10" s="118"/>
+      <c r="M10" s="118"/>
+      <c r="N10" s="118"/>
+      <c r="O10" s="118"/>
+      <c r="P10" s="118"/>
+      <c r="Q10" s="118"/>
       <c r="Z10" s="68" t="s">
         <v>51</v>
       </c>
@@ -13059,22 +13059,22 @@
       <c r="AT10" s="40"/>
     </row>
     <row r="11" spans="2:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="117"/>
-      <c r="C11" s="118"/>
-      <c r="D11" s="118"/>
-      <c r="E11" s="118"/>
-      <c r="F11" s="118"/>
-      <c r="G11" s="119"/>
-      <c r="H11" s="119"/>
-      <c r="I11" s="119"/>
-      <c r="J11" s="119"/>
-      <c r="K11" s="119"/>
-      <c r="L11" s="119"/>
-      <c r="M11" s="119"/>
-      <c r="N11" s="119"/>
-      <c r="O11" s="119"/>
-      <c r="P11" s="119"/>
-      <c r="Q11" s="119"/>
+      <c r="B11" s="116"/>
+      <c r="C11" s="117"/>
+      <c r="D11" s="117"/>
+      <c r="E11" s="117"/>
+      <c r="F11" s="117"/>
+      <c r="G11" s="118"/>
+      <c r="H11" s="118"/>
+      <c r="I11" s="118"/>
+      <c r="J11" s="118"/>
+      <c r="K11" s="118"/>
+      <c r="L11" s="118"/>
+      <c r="M11" s="118"/>
+      <c r="N11" s="118"/>
+      <c r="O11" s="118"/>
+      <c r="P11" s="118"/>
+      <c r="Q11" s="118"/>
       <c r="Z11" s="68" t="s">
         <v>54</v>
       </c>
@@ -13127,22 +13127,22 @@
       <c r="AT11" s="40"/>
     </row>
     <row r="12" spans="2:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="117"/>
-      <c r="C12" s="118"/>
-      <c r="D12" s="118"/>
-      <c r="E12" s="118"/>
-      <c r="F12" s="118"/>
-      <c r="G12" s="119"/>
-      <c r="H12" s="119"/>
-      <c r="I12" s="119"/>
-      <c r="J12" s="119"/>
-      <c r="K12" s="119"/>
-      <c r="L12" s="119"/>
-      <c r="M12" s="119"/>
-      <c r="N12" s="119"/>
-      <c r="O12" s="119"/>
-      <c r="P12" s="119"/>
-      <c r="Q12" s="119"/>
+      <c r="B12" s="116"/>
+      <c r="C12" s="117"/>
+      <c r="D12" s="117"/>
+      <c r="E12" s="117"/>
+      <c r="F12" s="117"/>
+      <c r="G12" s="118"/>
+      <c r="H12" s="118"/>
+      <c r="I12" s="118"/>
+      <c r="J12" s="118"/>
+      <c r="K12" s="118"/>
+      <c r="L12" s="118"/>
+      <c r="M12" s="118"/>
+      <c r="N12" s="118"/>
+      <c r="O12" s="118"/>
+      <c r="P12" s="118"/>
+      <c r="Q12" s="118"/>
       <c r="Z12" s="68" t="s">
         <v>57</v>
       </c>
@@ -13195,22 +13195,22 @@
       <c r="AT12" s="40"/>
     </row>
     <row r="13" spans="2:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="117"/>
-      <c r="C13" s="118"/>
-      <c r="D13" s="118"/>
-      <c r="E13" s="118"/>
-      <c r="F13" s="118"/>
-      <c r="G13" s="119"/>
-      <c r="H13" s="119"/>
-      <c r="I13" s="119"/>
-      <c r="J13" s="119"/>
-      <c r="K13" s="119"/>
-      <c r="L13" s="119"/>
-      <c r="M13" s="119"/>
-      <c r="N13" s="119"/>
-      <c r="O13" s="119"/>
-      <c r="P13" s="119"/>
-      <c r="Q13" s="119"/>
+      <c r="B13" s="116"/>
+      <c r="C13" s="117"/>
+      <c r="D13" s="117"/>
+      <c r="E13" s="117"/>
+      <c r="F13" s="117"/>
+      <c r="G13" s="118"/>
+      <c r="H13" s="118"/>
+      <c r="I13" s="118"/>
+      <c r="J13" s="118"/>
+      <c r="K13" s="118"/>
+      <c r="L13" s="118"/>
+      <c r="M13" s="118"/>
+      <c r="N13" s="118"/>
+      <c r="O13" s="118"/>
+      <c r="P13" s="118"/>
+      <c r="Q13" s="118"/>
       <c r="Z13" s="68" t="s">
         <v>60</v>
       </c>
@@ -13263,22 +13263,22 @@
       <c r="AT13" s="40"/>
     </row>
     <row r="14" spans="2:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="117"/>
-      <c r="C14" s="118"/>
-      <c r="D14" s="118"/>
-      <c r="E14" s="118"/>
-      <c r="F14" s="118"/>
-      <c r="G14" s="119"/>
-      <c r="H14" s="119"/>
-      <c r="I14" s="119"/>
-      <c r="J14" s="119"/>
-      <c r="K14" s="119"/>
-      <c r="L14" s="119"/>
-      <c r="M14" s="119"/>
-      <c r="N14" s="119"/>
-      <c r="O14" s="119"/>
-      <c r="P14" s="119"/>
-      <c r="Q14" s="119"/>
+      <c r="B14" s="116"/>
+      <c r="C14" s="117"/>
+      <c r="D14" s="117"/>
+      <c r="E14" s="117"/>
+      <c r="F14" s="117"/>
+      <c r="G14" s="118"/>
+      <c r="H14" s="118"/>
+      <c r="I14" s="118"/>
+      <c r="J14" s="118"/>
+      <c r="K14" s="118"/>
+      <c r="L14" s="118"/>
+      <c r="M14" s="118"/>
+      <c r="N14" s="118"/>
+      <c r="O14" s="118"/>
+      <c r="P14" s="118"/>
+      <c r="Q14" s="118"/>
       <c r="Z14" s="78" t="s">
         <v>93</v>
       </c>
@@ -13331,22 +13331,22 @@
       <c r="AT14" s="40"/>
     </row>
     <row r="15" spans="2:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="117"/>
-      <c r="C15" s="118"/>
-      <c r="D15" s="118"/>
-      <c r="E15" s="118"/>
-      <c r="F15" s="118"/>
-      <c r="G15" s="119"/>
-      <c r="H15" s="119"/>
-      <c r="I15" s="119"/>
-      <c r="J15" s="119"/>
-      <c r="K15" s="119"/>
-      <c r="L15" s="119"/>
-      <c r="M15" s="119"/>
-      <c r="N15" s="119"/>
-      <c r="O15" s="119"/>
-      <c r="P15" s="119"/>
-      <c r="Q15" s="119"/>
+      <c r="B15" s="116"/>
+      <c r="C15" s="117"/>
+      <c r="D15" s="117"/>
+      <c r="E15" s="117"/>
+      <c r="F15" s="117"/>
+      <c r="G15" s="118"/>
+      <c r="H15" s="118"/>
+      <c r="I15" s="118"/>
+      <c r="J15" s="118"/>
+      <c r="K15" s="118"/>
+      <c r="L15" s="118"/>
+      <c r="M15" s="118"/>
+      <c r="N15" s="118"/>
+      <c r="O15" s="118"/>
+      <c r="P15" s="118"/>
+      <c r="Q15" s="118"/>
       <c r="Z15" s="78" t="s">
         <v>63</v>
       </c>
@@ -13399,22 +13399,22 @@
       <c r="AT15" s="40"/>
     </row>
     <row r="16" spans="2:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="117"/>
-      <c r="C16" s="118"/>
-      <c r="D16" s="118"/>
-      <c r="E16" s="118"/>
-      <c r="F16" s="118"/>
-      <c r="G16" s="119"/>
-      <c r="H16" s="119"/>
-      <c r="I16" s="119"/>
-      <c r="J16" s="119"/>
-      <c r="K16" s="119"/>
-      <c r="L16" s="119"/>
-      <c r="M16" s="119"/>
-      <c r="N16" s="119"/>
-      <c r="O16" s="119"/>
-      <c r="P16" s="119"/>
-      <c r="Q16" s="119"/>
+      <c r="B16" s="116"/>
+      <c r="C16" s="117"/>
+      <c r="D16" s="117"/>
+      <c r="E16" s="117"/>
+      <c r="F16" s="117"/>
+      <c r="G16" s="118"/>
+      <c r="H16" s="118"/>
+      <c r="I16" s="118"/>
+      <c r="J16" s="118"/>
+      <c r="K16" s="118"/>
+      <c r="L16" s="118"/>
+      <c r="M16" s="118"/>
+      <c r="N16" s="118"/>
+      <c r="O16" s="118"/>
+      <c r="P16" s="118"/>
+      <c r="Q16" s="118"/>
       <c r="Z16" s="78" t="s">
         <v>66</v>
       </c>
@@ -13467,22 +13467,22 @@
       <c r="AT16" s="40"/>
     </row>
     <row r="17" spans="2:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="117"/>
-      <c r="C17" s="118"/>
-      <c r="D17" s="118"/>
-      <c r="E17" s="118"/>
-      <c r="F17" s="118"/>
-      <c r="G17" s="119"/>
-      <c r="H17" s="119"/>
-      <c r="I17" s="119"/>
-      <c r="J17" s="119"/>
-      <c r="K17" s="119"/>
-      <c r="L17" s="119"/>
-      <c r="M17" s="119"/>
-      <c r="N17" s="119"/>
-      <c r="O17" s="119"/>
-      <c r="P17" s="119"/>
-      <c r="Q17" s="119"/>
+      <c r="B17" s="116"/>
+      <c r="C17" s="117"/>
+      <c r="D17" s="117"/>
+      <c r="E17" s="117"/>
+      <c r="F17" s="117"/>
+      <c r="G17" s="118"/>
+      <c r="H17" s="118"/>
+      <c r="I17" s="118"/>
+      <c r="J17" s="118"/>
+      <c r="K17" s="118"/>
+      <c r="L17" s="118"/>
+      <c r="M17" s="118"/>
+      <c r="N17" s="118"/>
+      <c r="O17" s="118"/>
+      <c r="P17" s="118"/>
+      <c r="Q17" s="118"/>
       <c r="Z17" s="78" t="s">
         <v>68</v>
       </c>
@@ -13535,22 +13535,22 @@
       <c r="AT17" s="40"/>
     </row>
     <row r="18" spans="2:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="117"/>
-      <c r="C18" s="118"/>
-      <c r="D18" s="118"/>
-      <c r="E18" s="118"/>
-      <c r="F18" s="118"/>
-      <c r="G18" s="119"/>
-      <c r="H18" s="119"/>
-      <c r="I18" s="119"/>
-      <c r="J18" s="119"/>
-      <c r="K18" s="119"/>
-      <c r="L18" s="119"/>
-      <c r="M18" s="119"/>
-      <c r="N18" s="119"/>
-      <c r="O18" s="119"/>
-      <c r="P18" s="119"/>
-      <c r="Q18" s="119"/>
+      <c r="B18" s="116"/>
+      <c r="C18" s="117"/>
+      <c r="D18" s="117"/>
+      <c r="E18" s="117"/>
+      <c r="F18" s="117"/>
+      <c r="G18" s="118"/>
+      <c r="H18" s="118"/>
+      <c r="I18" s="118"/>
+      <c r="J18" s="118"/>
+      <c r="K18" s="118"/>
+      <c r="L18" s="118"/>
+      <c r="M18" s="118"/>
+      <c r="N18" s="118"/>
+      <c r="O18" s="118"/>
+      <c r="P18" s="118"/>
+      <c r="Q18" s="118"/>
       <c r="Z18" s="78" t="s">
         <v>69</v>
       </c>
@@ -13603,22 +13603,22 @@
       <c r="AT18" s="40"/>
     </row>
     <row r="19" spans="2:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="120"/>
-      <c r="C19" s="119"/>
-      <c r="D19" s="119"/>
-      <c r="E19" s="119"/>
-      <c r="F19" s="119"/>
-      <c r="G19" s="119"/>
-      <c r="H19" s="119"/>
-      <c r="I19" s="119"/>
-      <c r="J19" s="119"/>
-      <c r="K19" s="119"/>
-      <c r="L19" s="119"/>
-      <c r="M19" s="119"/>
-      <c r="N19" s="119"/>
-      <c r="O19" s="119"/>
-      <c r="P19" s="119"/>
-      <c r="Q19" s="119"/>
+      <c r="B19" s="119"/>
+      <c r="C19" s="118"/>
+      <c r="D19" s="118"/>
+      <c r="E19" s="118"/>
+      <c r="F19" s="118"/>
+      <c r="G19" s="118"/>
+      <c r="H19" s="118"/>
+      <c r="I19" s="118"/>
+      <c r="J19" s="118"/>
+      <c r="K19" s="118"/>
+      <c r="L19" s="118"/>
+      <c r="M19" s="118"/>
+      <c r="N19" s="118"/>
+      <c r="O19" s="118"/>
+      <c r="P19" s="118"/>
+      <c r="Q19" s="118"/>
       <c r="Z19" s="78" t="s">
         <v>130</v>
       </c>
@@ -13671,22 +13671,22 @@
       <c r="AT19" s="40"/>
     </row>
     <row r="20" spans="2:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="120"/>
-      <c r="C20" s="119"/>
-      <c r="D20" s="119"/>
-      <c r="E20" s="119"/>
-      <c r="F20" s="119"/>
-      <c r="G20" s="119"/>
-      <c r="H20" s="119"/>
-      <c r="I20" s="119"/>
-      <c r="J20" s="119"/>
-      <c r="K20" s="119"/>
-      <c r="L20" s="119"/>
-      <c r="M20" s="119"/>
-      <c r="N20" s="119"/>
-      <c r="O20" s="119"/>
-      <c r="P20" s="119"/>
-      <c r="Q20" s="119"/>
+      <c r="B20" s="119"/>
+      <c r="C20" s="118"/>
+      <c r="D20" s="118"/>
+      <c r="E20" s="118"/>
+      <c r="F20" s="118"/>
+      <c r="G20" s="118"/>
+      <c r="H20" s="118"/>
+      <c r="I20" s="118"/>
+      <c r="J20" s="118"/>
+      <c r="K20" s="118"/>
+      <c r="L20" s="118"/>
+      <c r="M20" s="118"/>
+      <c r="N20" s="118"/>
+      <c r="O20" s="118"/>
+      <c r="P20" s="118"/>
+      <c r="Q20" s="118"/>
       <c r="Z20" s="78" t="s">
         <v>129</v>
       </c>
@@ -13739,22 +13739,22 @@
       <c r="AT20" s="40"/>
     </row>
     <row r="21" spans="2:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="120"/>
-      <c r="C21" s="119"/>
-      <c r="D21" s="119"/>
-      <c r="E21" s="119"/>
-      <c r="F21" s="119"/>
-      <c r="G21" s="119"/>
-      <c r="H21" s="119"/>
-      <c r="I21" s="119"/>
-      <c r="J21" s="119"/>
-      <c r="K21" s="119"/>
-      <c r="L21" s="119"/>
-      <c r="M21" s="119"/>
-      <c r="N21" s="119"/>
-      <c r="O21" s="119"/>
-      <c r="P21" s="119"/>
-      <c r="Q21" s="119"/>
+      <c r="B21" s="119"/>
+      <c r="C21" s="118"/>
+      <c r="D21" s="118"/>
+      <c r="E21" s="118"/>
+      <c r="F21" s="118"/>
+      <c r="G21" s="118"/>
+      <c r="H21" s="118"/>
+      <c r="I21" s="118"/>
+      <c r="J21" s="118"/>
+      <c r="K21" s="118"/>
+      <c r="L21" s="118"/>
+      <c r="M21" s="118"/>
+      <c r="N21" s="118"/>
+      <c r="O21" s="118"/>
+      <c r="P21" s="118"/>
+      <c r="Q21" s="118"/>
       <c r="Z21" s="78" t="s">
         <v>73</v>
       </c>
@@ -13807,22 +13807,22 @@
       <c r="AT21" s="40"/>
     </row>
     <row r="22" spans="2:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="119"/>
-      <c r="C22" s="119"/>
-      <c r="D22" s="119"/>
-      <c r="E22" s="119"/>
-      <c r="F22" s="119"/>
-      <c r="G22" s="119"/>
-      <c r="H22" s="119"/>
-      <c r="I22" s="119"/>
-      <c r="J22" s="119"/>
-      <c r="K22" s="119"/>
-      <c r="L22" s="119"/>
-      <c r="M22" s="119"/>
-      <c r="N22" s="119"/>
-      <c r="O22" s="119"/>
-      <c r="P22" s="119"/>
-      <c r="Q22" s="119"/>
+      <c r="B22" s="118"/>
+      <c r="C22" s="118"/>
+      <c r="D22" s="118"/>
+      <c r="E22" s="118"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="118"/>
+      <c r="J22" s="118"/>
+      <c r="K22" s="118"/>
+      <c r="L22" s="118"/>
+      <c r="M22" s="118"/>
+      <c r="N22" s="118"/>
+      <c r="O22" s="118"/>
+      <c r="P22" s="118"/>
+      <c r="Q22" s="118"/>
       <c r="Z22" s="78" t="s">
         <v>74</v>
       </c>
@@ -13875,22 +13875,22 @@
       <c r="AT22" s="40"/>
     </row>
     <row r="23" spans="2:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="119"/>
-      <c r="C23" s="119"/>
-      <c r="D23" s="119"/>
-      <c r="E23" s="119"/>
-      <c r="F23" s="119"/>
-      <c r="G23" s="119"/>
-      <c r="H23" s="119"/>
-      <c r="I23" s="119"/>
-      <c r="J23" s="119"/>
-      <c r="K23" s="119"/>
-      <c r="L23" s="119"/>
-      <c r="M23" s="119"/>
-      <c r="N23" s="119"/>
-      <c r="O23" s="119"/>
-      <c r="P23" s="119"/>
-      <c r="Q23" s="119"/>
+      <c r="B23" s="118"/>
+      <c r="C23" s="118"/>
+      <c r="D23" s="118"/>
+      <c r="E23" s="118"/>
+      <c r="F23" s="118"/>
+      <c r="G23" s="118"/>
+      <c r="H23" s="118"/>
+      <c r="I23" s="118"/>
+      <c r="J23" s="118"/>
+      <c r="K23" s="118"/>
+      <c r="L23" s="118"/>
+      <c r="M23" s="118"/>
+      <c r="N23" s="118"/>
+      <c r="O23" s="118"/>
+      <c r="P23" s="118"/>
+      <c r="Q23" s="118"/>
       <c r="Z23" s="68" t="s">
         <v>75</v>
       </c>
@@ -13942,22 +13942,22 @@
       <c r="AT23" s="4"/>
     </row>
     <row r="24" spans="2:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="119"/>
-      <c r="C24" s="119"/>
-      <c r="D24" s="119"/>
-      <c r="E24" s="119"/>
-      <c r="F24" s="119"/>
-      <c r="G24" s="119"/>
-      <c r="H24" s="119"/>
-      <c r="I24" s="119"/>
-      <c r="J24" s="119"/>
-      <c r="K24" s="119"/>
-      <c r="L24" s="119"/>
-      <c r="M24" s="119"/>
-      <c r="N24" s="119"/>
-      <c r="O24" s="119"/>
-      <c r="P24" s="119"/>
-      <c r="Q24" s="119"/>
+      <c r="B24" s="118"/>
+      <c r="C24" s="118"/>
+      <c r="D24" s="118"/>
+      <c r="E24" s="118"/>
+      <c r="F24" s="118"/>
+      <c r="G24" s="118"/>
+      <c r="H24" s="118"/>
+      <c r="I24" s="118"/>
+      <c r="J24" s="118"/>
+      <c r="K24" s="118"/>
+      <c r="L24" s="118"/>
+      <c r="M24" s="118"/>
+      <c r="N24" s="118"/>
+      <c r="O24" s="118"/>
+      <c r="P24" s="118"/>
+      <c r="Q24" s="118"/>
       <c r="AB24" s="5"/>
       <c r="AF24" s="5"/>
       <c r="AJ24" s="5"/>
@@ -13967,41 +13967,41 @@
       <c r="AT24" s="4"/>
     </row>
     <row r="25" spans="2:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="119"/>
-      <c r="C25" s="119"/>
-      <c r="D25" s="119"/>
-      <c r="E25" s="119"/>
-      <c r="F25" s="119"/>
-      <c r="G25" s="119"/>
-      <c r="H25" s="119"/>
-      <c r="I25" s="119"/>
-      <c r="J25" s="119"/>
-      <c r="K25" s="119"/>
-      <c r="L25" s="119"/>
-      <c r="M25" s="119"/>
-      <c r="N25" s="119"/>
-      <c r="O25" s="119"/>
-      <c r="P25" s="119"/>
-      <c r="Q25" s="119"/>
+      <c r="B25" s="118"/>
+      <c r="C25" s="118"/>
+      <c r="D25" s="118"/>
+      <c r="E25" s="118"/>
+      <c r="F25" s="118"/>
+      <c r="G25" s="118"/>
+      <c r="H25" s="118"/>
+      <c r="I25" s="118"/>
+      <c r="J25" s="118"/>
+      <c r="K25" s="118"/>
+      <c r="L25" s="118"/>
+      <c r="M25" s="118"/>
+      <c r="N25" s="118"/>
+      <c r="O25" s="118"/>
+      <c r="P25" s="118"/>
+      <c r="Q25" s="118"/>
       <c r="AB25" s="18"/>
     </row>
     <row r="26" spans="2:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="119"/>
-      <c r="C26" s="119"/>
-      <c r="D26" s="119"/>
-      <c r="E26" s="119"/>
-      <c r="F26" s="119"/>
-      <c r="G26" s="119"/>
-      <c r="H26" s="119"/>
-      <c r="I26" s="119"/>
-      <c r="J26" s="119"/>
-      <c r="K26" s="119"/>
-      <c r="L26" s="119"/>
-      <c r="M26" s="119"/>
-      <c r="N26" s="119"/>
-      <c r="O26" s="119"/>
-      <c r="P26" s="119"/>
-      <c r="Q26" s="119"/>
+      <c r="B26" s="118"/>
+      <c r="C26" s="118"/>
+      <c r="D26" s="118"/>
+      <c r="E26" s="118"/>
+      <c r="F26" s="118"/>
+      <c r="G26" s="118"/>
+      <c r="H26" s="118"/>
+      <c r="I26" s="118"/>
+      <c r="J26" s="118"/>
+      <c r="K26" s="118"/>
+      <c r="L26" s="118"/>
+      <c r="M26" s="118"/>
+      <c r="N26" s="118"/>
+      <c r="O26" s="118"/>
+      <c r="P26" s="118"/>
+      <c r="Q26" s="118"/>
       <c r="AM26" s="17"/>
       <c r="AN26" s="17"/>
       <c r="AO26" s="17"/>
@@ -14012,22 +14012,22 @@
       <c r="AT26" s="17"/>
     </row>
     <row r="27" spans="2:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="119"/>
-      <c r="C27" s="119"/>
-      <c r="D27" s="119"/>
-      <c r="E27" s="119"/>
-      <c r="F27" s="119"/>
-      <c r="G27" s="119"/>
-      <c r="H27" s="119"/>
-      <c r="I27" s="119"/>
-      <c r="J27" s="119"/>
-      <c r="K27" s="119"/>
-      <c r="L27" s="119"/>
-      <c r="M27" s="119"/>
-      <c r="N27" s="119"/>
-      <c r="O27" s="119"/>
-      <c r="P27" s="119"/>
-      <c r="Q27" s="119"/>
+      <c r="B27" s="118"/>
+      <c r="C27" s="118"/>
+      <c r="D27" s="118"/>
+      <c r="E27" s="118"/>
+      <c r="F27" s="118"/>
+      <c r="G27" s="118"/>
+      <c r="H27" s="118"/>
+      <c r="I27" s="118"/>
+      <c r="J27" s="118"/>
+      <c r="K27" s="118"/>
+      <c r="L27" s="118"/>
+      <c r="M27" s="118"/>
+      <c r="N27" s="118"/>
+      <c r="O27" s="118"/>
+      <c r="P27" s="118"/>
+      <c r="Q27" s="118"/>
       <c r="Z27" s="49" t="s">
         <v>170</v>
       </c>
@@ -14051,22 +14051,22 @@
       <c r="AT27" s="3"/>
     </row>
     <row r="28" spans="2:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="119"/>
-      <c r="C28" s="119"/>
-      <c r="D28" s="119"/>
-      <c r="E28" s="119"/>
-      <c r="F28" s="119"/>
-      <c r="G28" s="119"/>
-      <c r="H28" s="119"/>
-      <c r="I28" s="119"/>
-      <c r="J28" s="119"/>
-      <c r="K28" s="119"/>
-      <c r="L28" s="119"/>
-      <c r="M28" s="119"/>
-      <c r="N28" s="119"/>
-      <c r="O28" s="119"/>
-      <c r="P28" s="119"/>
-      <c r="Q28" s="119"/>
+      <c r="B28" s="118"/>
+      <c r="C28" s="118"/>
+      <c r="D28" s="118"/>
+      <c r="E28" s="118"/>
+      <c r="F28" s="118"/>
+      <c r="G28" s="118"/>
+      <c r="H28" s="118"/>
+      <c r="I28" s="118"/>
+      <c r="J28" s="118"/>
+      <c r="K28" s="118"/>
+      <c r="L28" s="118"/>
+      <c r="M28" s="118"/>
+      <c r="N28" s="118"/>
+      <c r="O28" s="118"/>
+      <c r="P28" s="118"/>
+      <c r="Q28" s="118"/>
       <c r="R28" s="3"/>
       <c r="S28" s="3" t="s">
         <v>113</v>
@@ -14140,22 +14140,22 @@
       </c>
     </row>
     <row r="29" spans="2:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="119"/>
-      <c r="C29" s="119"/>
-      <c r="D29" s="119"/>
-      <c r="E29" s="119"/>
-      <c r="F29" s="119"/>
-      <c r="G29" s="119"/>
-      <c r="H29" s="119"/>
-      <c r="I29" s="119"/>
-      <c r="J29" s="119"/>
-      <c r="K29" s="119"/>
-      <c r="L29" s="119"/>
-      <c r="M29" s="119"/>
-      <c r="N29" s="119"/>
-      <c r="O29" s="119"/>
-      <c r="P29" s="119"/>
-      <c r="Q29" s="119"/>
+      <c r="B29" s="118"/>
+      <c r="C29" s="118"/>
+      <c r="D29" s="118"/>
+      <c r="E29" s="118"/>
+      <c r="F29" s="118"/>
+      <c r="G29" s="118"/>
+      <c r="H29" s="118"/>
+      <c r="I29" s="118"/>
+      <c r="J29" s="118"/>
+      <c r="K29" s="118"/>
+      <c r="L29" s="118"/>
+      <c r="M29" s="118"/>
+      <c r="N29" s="118"/>
+      <c r="O29" s="118"/>
+      <c r="P29" s="118"/>
+      <c r="Q29" s="118"/>
       <c r="R29" s="3"/>
       <c r="S29" t="s">
         <v>114</v>
@@ -14216,22 +14216,22 @@
       <c r="AT29" s="36"/>
     </row>
     <row r="30" spans="2:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="119"/>
-      <c r="C30" s="119"/>
-      <c r="D30" s="119"/>
-      <c r="E30" s="119"/>
-      <c r="F30" s="119"/>
-      <c r="G30" s="119"/>
-      <c r="H30" s="119"/>
-      <c r="I30" s="119"/>
-      <c r="J30" s="119"/>
-      <c r="K30" s="119"/>
-      <c r="L30" s="119"/>
-      <c r="M30" s="119"/>
-      <c r="N30" s="119"/>
-      <c r="O30" s="119"/>
-      <c r="P30" s="119"/>
-      <c r="Q30" s="119"/>
+      <c r="B30" s="118"/>
+      <c r="C30" s="118"/>
+      <c r="D30" s="118"/>
+      <c r="E30" s="118"/>
+      <c r="F30" s="118"/>
+      <c r="G30" s="118"/>
+      <c r="H30" s="118"/>
+      <c r="I30" s="118"/>
+      <c r="J30" s="118"/>
+      <c r="K30" s="118"/>
+      <c r="L30" s="118"/>
+      <c r="M30" s="118"/>
+      <c r="N30" s="118"/>
+      <c r="O30" s="118"/>
+      <c r="P30" s="118"/>
+      <c r="Q30" s="118"/>
       <c r="R30" s="3"/>
       <c r="S30" s="106" t="s">
         <v>189</v>
@@ -14290,22 +14290,22 @@
       <c r="AT30" s="36"/>
     </row>
     <row r="31" spans="2:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="119"/>
-      <c r="C31" s="119"/>
-      <c r="D31" s="119"/>
-      <c r="E31" s="119"/>
-      <c r="F31" s="119"/>
-      <c r="G31" s="119"/>
-      <c r="H31" s="119"/>
-      <c r="I31" s="119"/>
-      <c r="J31" s="119"/>
-      <c r="K31" s="119"/>
-      <c r="L31" s="119"/>
-      <c r="M31" s="119"/>
-      <c r="N31" s="119"/>
-      <c r="O31" s="119"/>
-      <c r="P31" s="119"/>
-      <c r="Q31" s="119"/>
+      <c r="B31" s="118"/>
+      <c r="C31" s="118"/>
+      <c r="D31" s="118"/>
+      <c r="E31" s="118"/>
+      <c r="F31" s="118"/>
+      <c r="G31" s="118"/>
+      <c r="H31" s="118"/>
+      <c r="I31" s="118"/>
+      <c r="J31" s="118"/>
+      <c r="K31" s="118"/>
+      <c r="L31" s="118"/>
+      <c r="M31" s="118"/>
+      <c r="N31" s="118"/>
+      <c r="O31" s="118"/>
+      <c r="P31" s="118"/>
+      <c r="Q31" s="118"/>
       <c r="R31" s="3"/>
       <c r="S31" s="106" t="s">
         <v>190</v>
@@ -14364,22 +14364,22 @@
       <c r="AT31" s="36"/>
     </row>
     <row r="32" spans="2:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="119"/>
-      <c r="C32" s="119"/>
-      <c r="D32" s="119"/>
-      <c r="E32" s="119"/>
-      <c r="F32" s="119"/>
-      <c r="G32" s="119"/>
-      <c r="H32" s="119"/>
-      <c r="I32" s="119"/>
-      <c r="J32" s="119"/>
-      <c r="K32" s="119"/>
-      <c r="L32" s="119"/>
-      <c r="M32" s="119"/>
-      <c r="N32" s="119"/>
-      <c r="O32" s="119"/>
-      <c r="P32" s="119"/>
-      <c r="Q32" s="119"/>
+      <c r="B32" s="118"/>
+      <c r="C32" s="118"/>
+      <c r="D32" s="118"/>
+      <c r="E32" s="118"/>
+      <c r="F32" s="118"/>
+      <c r="G32" s="118"/>
+      <c r="H32" s="118"/>
+      <c r="I32" s="118"/>
+      <c r="J32" s="118"/>
+      <c r="K32" s="118"/>
+      <c r="L32" s="118"/>
+      <c r="M32" s="118"/>
+      <c r="N32" s="118"/>
+      <c r="O32" s="118"/>
+      <c r="P32" s="118"/>
+      <c r="Q32" s="118"/>
       <c r="S32" s="106" t="s">
         <v>191</v>
       </c>
@@ -14438,22 +14438,22 @@
       <c r="AT32" s="36"/>
     </row>
     <row r="33" spans="2:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="119"/>
-      <c r="C33" s="119"/>
-      <c r="D33" s="119"/>
-      <c r="E33" s="119"/>
-      <c r="F33" s="119"/>
-      <c r="G33" s="119"/>
-      <c r="H33" s="119"/>
-      <c r="I33" s="119"/>
-      <c r="J33" s="119"/>
-      <c r="K33" s="119"/>
-      <c r="L33" s="119"/>
-      <c r="M33" s="119"/>
-      <c r="N33" s="119"/>
-      <c r="O33" s="119"/>
-      <c r="P33" s="119"/>
-      <c r="Q33" s="119"/>
+      <c r="B33" s="118"/>
+      <c r="C33" s="118"/>
+      <c r="D33" s="118"/>
+      <c r="E33" s="118"/>
+      <c r="F33" s="118"/>
+      <c r="G33" s="118"/>
+      <c r="H33" s="118"/>
+      <c r="I33" s="118"/>
+      <c r="J33" s="118"/>
+      <c r="K33" s="118"/>
+      <c r="L33" s="118"/>
+      <c r="M33" s="118"/>
+      <c r="N33" s="118"/>
+      <c r="O33" s="118"/>
+      <c r="P33" s="118"/>
+      <c r="Q33" s="118"/>
       <c r="S33" s="106" t="s">
         <v>192</v>
       </c>
@@ -14511,22 +14511,22 @@
       <c r="AT33" s="36"/>
     </row>
     <row r="34" spans="2:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="119"/>
-      <c r="C34" s="119"/>
-      <c r="D34" s="119"/>
-      <c r="E34" s="119"/>
-      <c r="F34" s="119"/>
-      <c r="G34" s="119"/>
-      <c r="H34" s="119"/>
-      <c r="I34" s="119"/>
-      <c r="J34" s="119"/>
-      <c r="K34" s="119"/>
-      <c r="L34" s="119"/>
-      <c r="M34" s="119"/>
-      <c r="N34" s="119"/>
-      <c r="O34" s="119"/>
-      <c r="P34" s="119"/>
-      <c r="Q34" s="119"/>
+      <c r="B34" s="118"/>
+      <c r="C34" s="118"/>
+      <c r="D34" s="118"/>
+      <c r="E34" s="118"/>
+      <c r="F34" s="118"/>
+      <c r="G34" s="118"/>
+      <c r="H34" s="118"/>
+      <c r="I34" s="118"/>
+      <c r="J34" s="118"/>
+      <c r="K34" s="118"/>
+      <c r="L34" s="118"/>
+      <c r="M34" s="118"/>
+      <c r="N34" s="118"/>
+      <c r="O34" s="118"/>
+      <c r="P34" s="118"/>
+      <c r="Q34" s="118"/>
       <c r="S34" s="106" t="s">
         <v>193</v>
       </c>
@@ -14584,22 +14584,22 @@
       <c r="AT34" s="36"/>
     </row>
     <row r="35" spans="2:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="119"/>
-      <c r="C35" s="119"/>
-      <c r="D35" s="119"/>
-      <c r="E35" s="119"/>
-      <c r="F35" s="119"/>
-      <c r="G35" s="119"/>
-      <c r="H35" s="119"/>
-      <c r="I35" s="119"/>
-      <c r="J35" s="119"/>
-      <c r="K35" s="119"/>
-      <c r="L35" s="119"/>
-      <c r="M35" s="119"/>
-      <c r="N35" s="119"/>
-      <c r="O35" s="119"/>
-      <c r="P35" s="119"/>
-      <c r="Q35" s="119"/>
+      <c r="B35" s="118"/>
+      <c r="C35" s="118"/>
+      <c r="D35" s="118"/>
+      <c r="E35" s="118"/>
+      <c r="F35" s="118"/>
+      <c r="G35" s="118"/>
+      <c r="H35" s="118"/>
+      <c r="I35" s="118"/>
+      <c r="J35" s="118"/>
+      <c r="K35" s="118"/>
+      <c r="L35" s="118"/>
+      <c r="M35" s="118"/>
+      <c r="N35" s="118"/>
+      <c r="O35" s="118"/>
+      <c r="P35" s="118"/>
+      <c r="Q35" s="118"/>
       <c r="S35" s="106" t="s">
         <v>194</v>
       </c>
@@ -14657,22 +14657,22 @@
       <c r="AT35" s="36"/>
     </row>
     <row r="36" spans="2:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="119"/>
-      <c r="C36" s="119"/>
-      <c r="D36" s="119"/>
-      <c r="E36" s="119"/>
-      <c r="F36" s="119"/>
-      <c r="G36" s="119"/>
-      <c r="H36" s="119"/>
-      <c r="I36" s="119"/>
-      <c r="J36" s="119"/>
-      <c r="K36" s="119"/>
-      <c r="L36" s="119"/>
-      <c r="M36" s="119"/>
-      <c r="N36" s="119"/>
-      <c r="O36" s="119"/>
-      <c r="P36" s="119"/>
-      <c r="Q36" s="119"/>
+      <c r="B36" s="118"/>
+      <c r="C36" s="118"/>
+      <c r="D36" s="118"/>
+      <c r="E36" s="118"/>
+      <c r="F36" s="118"/>
+      <c r="G36" s="118"/>
+      <c r="H36" s="118"/>
+      <c r="I36" s="118"/>
+      <c r="J36" s="118"/>
+      <c r="K36" s="118"/>
+      <c r="L36" s="118"/>
+      <c r="M36" s="118"/>
+      <c r="N36" s="118"/>
+      <c r="O36" s="118"/>
+      <c r="P36" s="118"/>
+      <c r="Q36" s="118"/>
       <c r="S36" s="106" t="s">
         <v>195</v>
       </c>
@@ -14730,22 +14730,22 @@
       <c r="AT36" s="36"/>
     </row>
     <row r="37" spans="2:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="119"/>
-      <c r="C37" s="119"/>
-      <c r="D37" s="119"/>
-      <c r="E37" s="119"/>
-      <c r="F37" s="119"/>
-      <c r="G37" s="119"/>
-      <c r="H37" s="119"/>
-      <c r="I37" s="119"/>
-      <c r="J37" s="119"/>
-      <c r="K37" s="119"/>
-      <c r="L37" s="119"/>
-      <c r="M37" s="119"/>
-      <c r="N37" s="119"/>
-      <c r="O37" s="119"/>
-      <c r="P37" s="119"/>
-      <c r="Q37" s="119"/>
+      <c r="B37" s="118"/>
+      <c r="C37" s="118"/>
+      <c r="D37" s="118"/>
+      <c r="E37" s="118"/>
+      <c r="F37" s="118"/>
+      <c r="G37" s="118"/>
+      <c r="H37" s="118"/>
+      <c r="I37" s="118"/>
+      <c r="J37" s="118"/>
+      <c r="K37" s="118"/>
+      <c r="L37" s="118"/>
+      <c r="M37" s="118"/>
+      <c r="N37" s="118"/>
+      <c r="O37" s="118"/>
+      <c r="P37" s="118"/>
+      <c r="Q37" s="118"/>
       <c r="Z37" s="49" t="s">
         <v>66</v>
       </c>
@@ -14800,22 +14800,22 @@
       <c r="AT37" s="36"/>
     </row>
     <row r="38" spans="2:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="119"/>
-      <c r="C38" s="119"/>
-      <c r="D38" s="119"/>
-      <c r="E38" s="119"/>
-      <c r="F38" s="119"/>
-      <c r="G38" s="119"/>
-      <c r="H38" s="119"/>
-      <c r="I38" s="119"/>
-      <c r="J38" s="119"/>
-      <c r="K38" s="119"/>
-      <c r="L38" s="119"/>
-      <c r="M38" s="119"/>
-      <c r="N38" s="119"/>
-      <c r="O38" s="119"/>
-      <c r="P38" s="119"/>
-      <c r="Q38" s="119"/>
+      <c r="B38" s="118"/>
+      <c r="C38" s="118"/>
+      <c r="D38" s="118"/>
+      <c r="E38" s="118"/>
+      <c r="F38" s="118"/>
+      <c r="G38" s="118"/>
+      <c r="H38" s="118"/>
+      <c r="I38" s="118"/>
+      <c r="J38" s="118"/>
+      <c r="K38" s="118"/>
+      <c r="L38" s="118"/>
+      <c r="M38" s="118"/>
+      <c r="N38" s="118"/>
+      <c r="O38" s="118"/>
+      <c r="P38" s="118"/>
+      <c r="Q38" s="118"/>
       <c r="Z38" s="49" t="s">
         <v>68</v>
       </c>
@@ -14870,22 +14870,22 @@
       <c r="AT38" s="36"/>
     </row>
     <row r="39" spans="2:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="119"/>
-      <c r="C39" s="119"/>
-      <c r="D39" s="119"/>
-      <c r="E39" s="119"/>
-      <c r="F39" s="119"/>
-      <c r="G39" s="119"/>
-      <c r="H39" s="119"/>
-      <c r="I39" s="119"/>
-      <c r="J39" s="119"/>
-      <c r="K39" s="119"/>
-      <c r="L39" s="119"/>
-      <c r="M39" s="119"/>
-      <c r="N39" s="119"/>
-      <c r="O39" s="119"/>
-      <c r="P39" s="119"/>
-      <c r="Q39" s="119"/>
+      <c r="B39" s="118"/>
+      <c r="C39" s="118"/>
+      <c r="D39" s="118"/>
+      <c r="E39" s="118"/>
+      <c r="F39" s="118"/>
+      <c r="G39" s="118"/>
+      <c r="H39" s="118"/>
+      <c r="I39" s="118"/>
+      <c r="J39" s="118"/>
+      <c r="K39" s="118"/>
+      <c r="L39" s="118"/>
+      <c r="M39" s="118"/>
+      <c r="N39" s="118"/>
+      <c r="O39" s="118"/>
+      <c r="P39" s="118"/>
+      <c r="Q39" s="118"/>
       <c r="Z39" s="49" t="s">
         <v>69</v>
       </c>
@@ -14940,22 +14940,22 @@
       <c r="AT39" s="36"/>
     </row>
     <row r="40" spans="2:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="119"/>
-      <c r="C40" s="119"/>
-      <c r="D40" s="119"/>
-      <c r="E40" s="119"/>
-      <c r="F40" s="119"/>
-      <c r="G40" s="119"/>
-      <c r="H40" s="119"/>
-      <c r="I40" s="119"/>
-      <c r="J40" s="119"/>
-      <c r="K40" s="119"/>
-      <c r="L40" s="119"/>
-      <c r="M40" s="119"/>
-      <c r="N40" s="119"/>
-      <c r="O40" s="119"/>
-      <c r="P40" s="119"/>
-      <c r="Q40" s="119"/>
+      <c r="B40" s="118"/>
+      <c r="C40" s="118"/>
+      <c r="D40" s="118"/>
+      <c r="E40" s="118"/>
+      <c r="F40" s="118"/>
+      <c r="G40" s="118"/>
+      <c r="H40" s="118"/>
+      <c r="I40" s="118"/>
+      <c r="J40" s="118"/>
+      <c r="K40" s="118"/>
+      <c r="L40" s="118"/>
+      <c r="M40" s="118"/>
+      <c r="N40" s="118"/>
+      <c r="O40" s="118"/>
+      <c r="P40" s="118"/>
+      <c r="Q40" s="118"/>
       <c r="S40" s="14" t="s">
         <v>117</v>
       </c>
@@ -27645,18 +27645,18 @@
     <row r="41" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.9">
       <c r="R41" s="105"/>
       <c r="S41" s="105"/>
-      <c r="T41" s="115" t="s">
+      <c r="T41" s="120" t="s">
         <v>120</v>
       </c>
-      <c r="U41" s="115"/>
-      <c r="V41" s="115"/>
+      <c r="U41" s="120"/>
+      <c r="V41" s="120"/>
     </row>
     <row r="42" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.9">
       <c r="R42" s="105"/>
       <c r="S42" s="105"/>
-      <c r="T42" s="115"/>
-      <c r="U42" s="115"/>
-      <c r="V42" s="115"/>
+      <c r="T42" s="120"/>
+      <c r="U42" s="120"/>
+      <c r="V42" s="120"/>
     </row>
     <row r="43" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B43" s="17" t="s">

--- a/Other Files/PastResults.xlsx
+++ b/Other Files/PastResults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\011445\Documents\GitHub\LTBO\Other Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF94200-7D03-4CFB-AE0E-8F7EB948F63D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B12C8AD-4859-4BF7-95E4-528E66DE0A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{9CA52F10-A8DE-413C-A178-2430F032102C}"/>
   </bookViews>
@@ -21,6 +21,7 @@
     <sheet name="Template" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="203">
   <si>
     <t>Points</t>
   </si>
@@ -637,6 +638,15 @@
   <si>
     <t>Players</t>
   </si>
+  <si>
+    <t>Retained by 5 Musketeers</t>
+  </si>
+  <si>
+    <t>Retained by Wet Willies</t>
+  </si>
+  <si>
+    <t>Retained by Loose Gooses</t>
+  </si>
 </sst>
 </file>
 
@@ -646,11 +656,18 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -932,26 +949,26 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="16" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -959,50 +976,50 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="16" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1013,64 +1030,67 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="16" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="13" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1082,19 +1102,16 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1103,38 +1120,39 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="16" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="16" fontId="12" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="13" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8407,7 +8425,7 @@
   <dimension ref="B1:X1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -8608,8 +8626,8 @@
       <c r="B5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="74" t="s">
-        <v>172</v>
+      <c r="C5" s="121" t="s">
+        <v>26</v>
       </c>
       <c r="D5" s="8" t="e">
         <f>'Stats Global'!AB10</f>
@@ -8655,10 +8673,12 @@
       <c r="O5" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="T5" s="1"/>
+      <c r="T5" s="1" t="s">
+        <v>200</v>
+      </c>
       <c r="U5" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>../Images/Logo.png</v>
+        <v>../Images/5M_Final.png</v>
       </c>
       <c r="V5" s="1" t="str">
         <f t="shared" si="0"/>
@@ -8747,8 +8767,8 @@
       <c r="B7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="74" t="s">
-        <v>172</v>
+      <c r="C7" s="121" t="s">
+        <v>31</v>
       </c>
       <c r="D7" s="8" t="e">
         <f>'Stats Global'!AB12</f>
@@ -8794,10 +8814,12 @@
       <c r="O7" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="T7" s="12"/>
+      <c r="T7" s="121" t="s">
+        <v>201</v>
+      </c>
       <c r="U7" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>../Images/Logo.png</v>
+        <v>../Images/WW_Final.png</v>
       </c>
       <c r="V7" s="1" t="str">
         <f t="shared" si="0"/>
@@ -8994,8 +9016,8 @@
       <c r="B11" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="74" t="s">
-        <v>172</v>
+      <c r="C11" s="121" t="s">
+        <v>47</v>
       </c>
       <c r="D11" s="8" t="e">
         <f>'Stats Global'!AB16</f>
@@ -9050,10 +9072,12 @@
       <c r="R11" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="T11" s="12"/>
+      <c r="T11" s="12" t="s">
+        <v>202</v>
+      </c>
       <c r="U11" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>../Images/Logo.png</v>
+        <v>../Images/LG_Final.png</v>
       </c>
       <c r="V11" s="1" t="str">
         <f t="shared" si="0"/>
@@ -9605,7 +9629,7 @@
     <row r="25" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.9">
       <c r="B25" s="18" t="str">
         <f>C48&amp;":["&amp;C49&amp;C50&amp;C51&amp;C52&amp;C53&amp;C54&amp;C55&amp;C56&amp;C57&amp;C58&amp;C59&amp;C60&amp;C61&amp;C62&amp;C63&amp;C64&amp;"],"</f>
-        <v>"Team":[" "," "," ","Wet Willies"," "," "," "," "," ","5 Musketeers"," "," "," ","Loose Gooses"," "," "],</v>
+        <v>"Team":[" "," ","5 Musketeers","Wet Willies","Wet Willies"," "," "," ","Loose Gooses","5 Musketeers"," "," "," ","Loose Gooses"," "," "],</v>
       </c>
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
@@ -10050,7 +10074,7 @@
     <row r="42" spans="2:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B42" s="17" t="str">
         <f>T48&amp;":["&amp;T49&amp;T50&amp;T51&amp;T52&amp;T53&amp;T54&amp;T55&amp;T56&amp;T57&amp;T58&amp;T59&amp;T60&amp;T61&amp;T62&amp;T63&amp;T64&amp;"],"</f>
-        <v>"History":["","","","GM of Wet Willies","","","","","","GM of 5 Musketeers","","","","GM of Loose Gooses","",""],</v>
+        <v>"History":["","","Retained by 5 Musketeers","GM of Wet Willies","Retained by Wet Willies","","","","Retained by Loose Gooses","GM of 5 Musketeers","","","","GM of Loose Gooses","",""],</v>
       </c>
       <c r="C42" s="17"/>
       <c r="D42" s="17"/>
@@ -10076,7 +10100,7 @@
     <row r="43" spans="2:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B43" s="17" t="str">
         <f>U48&amp;":["&amp;U49&amp;U50&amp;U51&amp;U52&amp;U53&amp;U54&amp;U55&amp;U56&amp;U57&amp;U58&amp;U59&amp;U60&amp;U61&amp;U62&amp;U63&amp;U64&amp;"],"</f>
-        <v>"TeamImage":["../Images/Logo.png","../Images/Logo.png","../Images/Logo.png","../Images/WW_Final.png","../Images/Logo.png","../Images/Logo.png","../Images/Logo.png","../Images/Logo.png","../Images/Logo.png","../Images/5M_Final.png","../Images/Logo.png","../Images/Logo.png","../Images/Logo.png","../Images/LG_Final.png","../Images/Logo.png","../Images/Logo.png"],</v>
+        <v>"TeamImage":["../Images/Logo.png","../Images/Logo.png","../Images/5M_Final.png","../Images/WW_Final.png","../Images/WW_Final.png","../Images/Logo.png","../Images/Logo.png","../Images/Logo.png","../Images/LG_Final.png","../Images/5M_Final.png","../Images/Logo.png","../Images/Logo.png","../Images/Logo.png","../Images/LG_Final.png","../Images/Logo.png","../Images/Logo.png"],</v>
       </c>
       <c r="C43" s="17"/>
       <c r="D43" s="17"/>
@@ -10458,7 +10482,7 @@
       </c>
       <c r="C51" s="18" t="str">
         <f t="shared" si="3"/>
-        <v>" ",</v>
+        <v>"5 Musketeers",</v>
       </c>
       <c r="D51" s="18" t="e">
         <f t="shared" si="4"/>
@@ -10526,11 +10550,11 @@
       </c>
       <c r="T51" s="18" t="str">
         <f t="shared" ref="T51:V51" si="16">CHAR(34)&amp;T5&amp;CHAR(34)&amp;","</f>
-        <v>"",</v>
+        <v>"Retained by 5 Musketeers",</v>
       </c>
       <c r="U51" s="18" t="str">
         <f t="shared" si="16"/>
-        <v>"../Images/Logo.png",</v>
+        <v>"../Images/5M_Final.png",</v>
       </c>
       <c r="V51" s="18" t="str">
         <f t="shared" si="16"/>
@@ -10630,7 +10654,7 @@
       </c>
       <c r="C53" s="18" t="str">
         <f t="shared" si="3"/>
-        <v>" ",</v>
+        <v>"Wet Willies",</v>
       </c>
       <c r="D53" s="18" t="e">
         <f t="shared" si="4"/>
@@ -10698,11 +10722,11 @@
       </c>
       <c r="T53" s="18" t="str">
         <f t="shared" ref="T53:V53" si="18">CHAR(34)&amp;T7&amp;CHAR(34)&amp;","</f>
-        <v>"",</v>
+        <v>"Retained by Wet Willies",</v>
       </c>
       <c r="U53" s="18" t="str">
         <f t="shared" si="18"/>
-        <v>"../Images/Logo.png",</v>
+        <v>"../Images/WW_Final.png",</v>
       </c>
       <c r="V53" s="18" t="str">
         <f t="shared" si="18"/>
@@ -10974,7 +10998,7 @@
       </c>
       <c r="C57" s="18" t="str">
         <f t="shared" si="3"/>
-        <v>" ",</v>
+        <v>"Loose Gooses",</v>
       </c>
       <c r="D57" s="18" t="e">
         <f t="shared" si="4"/>
@@ -11042,11 +11066,11 @@
       </c>
       <c r="T57" s="18" t="str">
         <f t="shared" ref="T57:V57" si="22">CHAR(34)&amp;T11&amp;CHAR(34)&amp;","</f>
-        <v>"",</v>
+        <v>"Retained by Loose Gooses",</v>
       </c>
       <c r="U57" s="18" t="str">
         <f t="shared" si="22"/>
-        <v>"../Images/Logo.png",</v>
+        <v>"../Images/LG_Final.png",</v>
       </c>
       <c r="V57" s="18" t="str">
         <f t="shared" si="22"/>
@@ -13043,7 +13067,7 @@
       </c>
       <c r="AI10" s="68" t="str">
         <f>SfW!C5</f>
-        <v xml:space="preserve"> </v>
+        <v>5 Musketeers</v>
       </c>
       <c r="AJ10" s="73">
         <f t="shared" si="3"/>
@@ -13180,7 +13204,7 @@
       </c>
       <c r="AI12" s="68" t="str">
         <f>SfW!C7</f>
-        <v xml:space="preserve"> </v>
+        <v>Wet Willies</v>
       </c>
       <c r="AJ12" s="73">
         <f t="shared" si="3"/>
@@ -13452,7 +13476,7 @@
       </c>
       <c r="AI16" s="68" t="str">
         <f>SfW!C11</f>
-        <v xml:space="preserve"> </v>
+        <v>Loose Gooses</v>
       </c>
       <c r="AJ16" s="73">
         <f t="shared" si="3"/>
@@ -18501,7 +18525,7 @@
     <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
+  <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="AO11:AO23">
     <cfRule type="cellIs" dxfId="153" priority="11" operator="lessThan">
       <formula>$AO$6</formula>

--- a/Other Files/PastResults.xlsx
+++ b/Other Files/PastResults.xlsx
@@ -8,9 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\011445\Documents\GitHub\LTBO\Other Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB6D4912-4883-4C07-8061-D1924E08EA72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E49D98AA-31D4-4D19-8040-402E1C1B75A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" firstSheet="2" activeTab="3" xr2:uid="{97F38C25-8AFB-41A5-8DBE-363B3D903D4E}"/>
+    <workbookView xWindow="10515" yWindow="7748" windowWidth="12323" windowHeight="6990" activeTab="1" xr2:uid="{97F38C25-8AFB-41A5-8DBE-363B3D903D4E}"/>
+    <workbookView xWindow="10853" yWindow="8085" windowWidth="12322" windowHeight="6990" firstSheet="2" activeTab="4" xr2:uid="{1E3275F7-0219-46B7-B9B0-3246E28631A6}"/>
   </bookViews>
   <sheets>
     <sheet name="SfW" sheetId="2" r:id="rId1"/>
@@ -19,6 +20,7 @@
     <sheet name="Statistics WW" sheetId="5" r:id="rId4"/>
     <sheet name="Statistics 5M" sheetId="6" r:id="rId5"/>
     <sheet name="Template" sheetId="7" r:id="rId6"/>
+    <sheet name="Preseason 1" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="211">
   <si>
     <t>Points</t>
   </si>
@@ -655,6 +657,21 @@
   <si>
     <t>Will Weekes</t>
   </si>
+  <si>
+    <t>11-July</t>
+  </si>
+  <si>
+    <t>Finish</t>
+  </si>
+  <si>
+    <t>Three Pointer</t>
+  </si>
+  <si>
+    <t>William Kim, Christopher Tomkinson, Conor Farrington</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
 </sst>
 </file>
 
@@ -980,7 +997,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1"/>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1184,12 +1201,14 @@
     <xf numFmtId="2" fontId="14" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1211,15 +1230,105 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <scheme val="none"/>
+        <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1237,13 +1346,27 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1259,16 +1382,16 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <scheme val="none"/>
+        <scheme val="minor"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1406,6 +1529,30 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1800,6 +1947,30 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -1964,6 +2135,31 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -4075,31 +4271,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -4216,13 +4387,14 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="1" formatCode="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor auto="1"/>
         </patternFill>
       </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -4293,44 +4465,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="1" formatCode="0"/>
       <fill>
         <patternFill patternType="none">
@@ -4339,121 +4473,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -4902,10 +4921,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.41666666666666669</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -5233,49 +5252,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5437,49 +5456,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5641,49 +5660,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7904,31 +7923,31 @@
     <tableColumn id="2" xr3:uid="{6662CE93-E9C4-47DE-9476-E46126825B0A}" name="Points" dataDxfId="141">
       <calculatedColumnFormula>SUM(AA29,AL29,AA49,AL49,AA69,AL69,AA89,AL89)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{8FDDFCB0-2692-4EB0-948C-7B877263B55B}" name="Average" dataDxfId="140">
-      <calculatedColumnFormula>Table1[[#This Row],[Points]]/($AA$6-Table1[[#This Row],[Missed Games]])</calculatedColumnFormula>
+    <tableColumn id="3" xr3:uid="{8FDDFCB0-2692-4EB0-948C-7B877263B55B}" name="Average" dataDxfId="3">
+      <calculatedColumnFormula>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Points]]/($AA$6-Table1[[#This Row],[Missed Games]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{CC3F9B31-1857-48FB-A18B-CBC82C117BF4}" name="Finishes" dataDxfId="139">
+    <tableColumn id="4" xr3:uid="{CC3F9B31-1857-48FB-A18B-CBC82C117BF4}" name="Finishes" dataDxfId="140">
       <calculatedColumnFormula>SUM(AB29,AM29,AB49,AM49,AB69,AM69,AB89,AM89)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{5F324C66-956D-4EDC-870F-8EDE96C328C8}" name="Averages" dataDxfId="138">
-      <calculatedColumnFormula>Table1[[#This Row],[Finishes]]/($AA$6-Table1[[#This Row],[Missed Games]])</calculatedColumnFormula>
+    <tableColumn id="5" xr3:uid="{5F324C66-956D-4EDC-870F-8EDE96C328C8}" name="Averages" dataDxfId="2">
+      <calculatedColumnFormula>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Finishes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{80C6E15E-675D-4F58-AA26-27226F1CE373}" name="Midranges" dataDxfId="137">
+    <tableColumn id="6" xr3:uid="{80C6E15E-675D-4F58-AA26-27226F1CE373}" name="Midranges" dataDxfId="139">
       <calculatedColumnFormula>SUM(AC29,AN29,AC49,AN49,AC69,AN69,AC89,AN89)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{8E7E6B37-23A0-4556-8839-B9D7834E3E68}" name="Averages2" dataDxfId="136">
-      <calculatedColumnFormula>Table1[[#This Row],[Midranges]]/($AA$6-Table1[[#This Row],[Missed Games]])</calculatedColumnFormula>
+    <tableColumn id="7" xr3:uid="{8E7E6B37-23A0-4556-8839-B9D7834E3E68}" name="Averages2" dataDxfId="1">
+      <calculatedColumnFormula>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Midranges]]/($AA$6-Table1[[#This Row],[Missed Games]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{8B28715D-E310-4E1F-B9F0-F58F7C70E830}" name="Threes" dataDxfId="135">
+    <tableColumn id="8" xr3:uid="{8B28715D-E310-4E1F-B9F0-F58F7C70E830}" name="Threes" dataDxfId="138">
       <calculatedColumnFormula>SUM(AD29,AO29,AD49,AO49,AD69,AO69,AD89,AO89)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{E0C0BF1C-40E8-4137-8E0F-BB238D651DAE}" name="Averages3" dataDxfId="134">
-      <calculatedColumnFormula>Table1[[#This Row],[Threes]]/($AA$6-Table1[[#This Row],[Missed Games]])</calculatedColumnFormula>
+    <tableColumn id="9" xr3:uid="{E0C0BF1C-40E8-4137-8E0F-BB238D651DAE}" name="Averages3" dataDxfId="0">
+      <calculatedColumnFormula>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Threes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{1C75F230-74E0-47EE-BF13-C22289FE0F87}" name="Team" dataDxfId="133">
+    <tableColumn id="10" xr3:uid="{1C75F230-74E0-47EE-BF13-C22289FE0F87}" name="Team" dataDxfId="137">
       <calculatedColumnFormula>SfW!C3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{E167D7FA-56F9-4571-B292-FF3869585F59}" name="Missed Games" dataDxfId="132">
+    <tableColumn id="11" xr3:uid="{E167D7FA-56F9-4571-B292-FF3869585F59}" name="Missed Games" dataDxfId="136">
       <calculatedColumnFormula>SUM(AI29,AT29,AI49,AT49,AI69,AT69,AI89,AT89)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7937,94 +7956,94 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{744FF78C-74B5-4798-AD3D-741E3ACB43CF}" name="Table1114" displayName="Table1114" ref="R3:AA8" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{744FF78C-74B5-4798-AD3D-741E3ACB43CF}" name="Table1114" displayName="Table1114" ref="R3:AA8" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
   <autoFilter ref="R3:AA8" xr:uid="{744FF78C-74B5-4798-AD3D-741E3ACB43CF}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{B3B5C08C-655A-460A-A171-B3B0C826FF04}" name="Name" dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{427944B0-44CA-4325-A406-29F83026BA5E}" name="Points" dataDxfId="2">
+    <tableColumn id="1" xr3:uid="{B3B5C08C-655A-460A-A171-B3B0C826FF04}" name="Name" dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{427944B0-44CA-4325-A406-29F83026BA5E}" name="Points" dataDxfId="37">
       <calculatedColumnFormula>'Stats Global'!AA22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{5E06D173-4DBE-4045-9072-0A0A77D19C84}" name="Average" dataDxfId="32"/>
-    <tableColumn id="4" xr3:uid="{E74131A4-1DCA-4A89-8989-A4CF80175582}" name="Finishes" dataDxfId="31"/>
-    <tableColumn id="5" xr3:uid="{FC3336D4-2CB5-4673-A345-7C9CCED7ADEE}" name="Averages" dataDxfId="30"/>
-    <tableColumn id="6" xr3:uid="{BD6313A7-5D92-4B66-9B85-7ABC12DE9691}" name="Midranges" dataDxfId="29"/>
-    <tableColumn id="7" xr3:uid="{6D0293BC-7E06-45CE-9D4B-FE4769DF9D9F}" name="Averages2" dataDxfId="28"/>
-    <tableColumn id="8" xr3:uid="{89C1C64B-DD66-482C-BCDE-8B912D2676EF}" name="Threes" dataDxfId="27"/>
-    <tableColumn id="9" xr3:uid="{7748B87C-1833-4BD6-9162-76373407E655}" name="Averages3" dataDxfId="26"/>
-    <tableColumn id="10" xr3:uid="{D870E191-A52F-442E-AA52-A42CFAD05573}" name="Missed Games" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{5E06D173-4DBE-4045-9072-0A0A77D19C84}" name="Average" dataDxfId="36"/>
+    <tableColumn id="4" xr3:uid="{E74131A4-1DCA-4A89-8989-A4CF80175582}" name="Finishes" dataDxfId="35"/>
+    <tableColumn id="5" xr3:uid="{FC3336D4-2CB5-4673-A345-7C9CCED7ADEE}" name="Averages" dataDxfId="34"/>
+    <tableColumn id="6" xr3:uid="{BD6313A7-5D92-4B66-9B85-7ABC12DE9691}" name="Midranges" dataDxfId="33"/>
+    <tableColumn id="7" xr3:uid="{6D0293BC-7E06-45CE-9D4B-FE4769DF9D9F}" name="Averages2" dataDxfId="32"/>
+    <tableColumn id="8" xr3:uid="{89C1C64B-DD66-482C-BCDE-8B912D2676EF}" name="Threes" dataDxfId="31"/>
+    <tableColumn id="9" xr3:uid="{7748B87C-1833-4BD6-9162-76373407E655}" name="Averages3" dataDxfId="30"/>
+    <tableColumn id="10" xr3:uid="{D870E191-A52F-442E-AA52-A42CFAD05573}" name="Missed Games" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{54759C84-3153-4DC9-9240-E2749AA0D92B}" name="Table1113" displayName="Table1113" ref="O3:X10" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{54759C84-3153-4DC9-9240-E2749AA0D92B}" name="Table1113" displayName="Table1113" ref="O3:X10" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
   <autoFilter ref="O3:X10" xr:uid="{54759C84-3153-4DC9-9240-E2749AA0D92B}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{7790729E-C8E5-45C1-8784-25212A2654AA}" name="Name" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{52A67B2B-967C-4970-8D83-8F8E9CC61522}" name="Points" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{BA1FA2C8-AEC0-4644-83DB-5097750D7188}" name="Average" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{4CF66F5D-BF10-4CBD-88FF-CCD38730E1CD}" name="Finishes" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{BC246D5B-7E78-41A6-B796-C93ED8E53DF9}" name="Averages" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{AB819419-CC06-4A40-8DED-E231125129C0}" name="Midranges" dataDxfId="18"/>
-    <tableColumn id="7" xr3:uid="{064AA562-C451-4362-805E-D12DC76C3530}" name="Averages2" dataDxfId="17"/>
-    <tableColumn id="8" xr3:uid="{BD0D8BAE-15E4-4B38-87FE-B682D7BAEE75}" name="Threes" dataDxfId="16"/>
-    <tableColumn id="9" xr3:uid="{541E391B-4B08-4E98-A63F-753C11193269}" name="Averages3" dataDxfId="15"/>
-    <tableColumn id="10" xr3:uid="{999BB5D2-D6FB-4EB9-A268-D62EA72F939D}" name="Missed Games" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{7790729E-C8E5-45C1-8784-25212A2654AA}" name="Name" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{52A67B2B-967C-4970-8D83-8F8E9CC61522}" name="Points" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{BA1FA2C8-AEC0-4644-83DB-5097750D7188}" name="Average" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{4CF66F5D-BF10-4CBD-88FF-CCD38730E1CD}" name="Finishes" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{BC246D5B-7E78-41A6-B796-C93ED8E53DF9}" name="Averages" dataDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{AB819419-CC06-4A40-8DED-E231125129C0}" name="Midranges" dataDxfId="21"/>
+    <tableColumn id="7" xr3:uid="{064AA562-C451-4362-805E-D12DC76C3530}" name="Averages2" dataDxfId="20"/>
+    <tableColumn id="8" xr3:uid="{BD0D8BAE-15E4-4B38-87FE-B682D7BAEE75}" name="Threes" dataDxfId="19"/>
+    <tableColumn id="9" xr3:uid="{541E391B-4B08-4E98-A63F-753C11193269}" name="Averages3" dataDxfId="18"/>
+    <tableColumn id="10" xr3:uid="{999BB5D2-D6FB-4EB9-A268-D62EA72F939D}" name="Missed Games" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{C12CFC3F-7D59-4C0F-8D43-3F8ACD58C2BD}" name="Table11" displayName="Table11" ref="L4:U9" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{C12CFC3F-7D59-4C0F-8D43-3F8ACD58C2BD}" name="Table11" displayName="Table11" ref="L4:U9" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <autoFilter ref="L4:U9" xr:uid="{C12CFC3F-7D59-4C0F-8D43-3F8ACD58C2BD}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{CE15C23D-9493-4B21-9D40-1A25D210C18E}" name="Name" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{6BB170B1-AA38-4699-9B96-400D2947EE9C}" name="Points" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{EC8B6CBB-FCC9-416C-AEA6-738419DFE531}" name="Average" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{315DA055-9A43-468A-A501-1092626F523F}" name="Finishes" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{56B6FF4D-95D4-4550-88E4-C781ABDA83A6}" name="Averages" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{F7B5C0B8-FBE2-44B0-A372-112C7776FCCF}" name="Midranges" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{1A1C2126-FEB1-408F-8523-049E53028B4E}" name="Averages2" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{AE94036B-3777-4C1B-97D5-7BFA1037C0BF}" name="Threes" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{448B0903-7F66-40BA-809F-74ADBF397B45}" name="Averages3" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{E0CAC55D-8398-4928-A219-C01706996D48}" name="Missed Games" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{CE15C23D-9493-4B21-9D40-1A25D210C18E}" name="Name" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{6BB170B1-AA38-4699-9B96-400D2947EE9C}" name="Points" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{EC8B6CBB-FCC9-416C-AEA6-738419DFE531}" name="Average" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{315DA055-9A43-468A-A501-1092626F523F}" name="Finishes" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{56B6FF4D-95D4-4550-88E4-C781ABDA83A6}" name="Averages" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{F7B5C0B8-FBE2-44B0-A372-112C7776FCCF}" name="Midranges" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{1A1C2126-FEB1-408F-8523-049E53028B4E}" name="Averages2" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{AE94036B-3777-4C1B-97D5-7BFA1037C0BF}" name="Threes" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{448B0903-7F66-40BA-809F-74ADBF397B45}" name="Averages3" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{E0CAC55D-8398-4928-A219-C01706996D48}" name="Missed Games" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{84D0C431-52CF-4ABD-AA3E-D31975A289B1}" name="Table2" displayName="Table2" ref="Z28:AI45" totalsRowShown="0" headerRowDxfId="131" dataDxfId="130">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{84D0C431-52CF-4ABD-AA3E-D31975A289B1}" name="Table2" displayName="Table2" ref="Z28:AI45" totalsRowShown="0" headerRowDxfId="135" dataDxfId="134">
   <autoFilter ref="Z28:AI45" xr:uid="{84D0C431-52CF-4ABD-AA3E-D31975A289B1}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{4DB7A2B8-7BD8-4BD7-8F53-2A7873A4EAAE}" name="Scoring" dataDxfId="129"/>
-    <tableColumn id="2" xr3:uid="{BE8EBD49-660A-4C9F-970E-230EBB942EF1}" name="Points" dataDxfId="128">
-      <calculatedColumnFormula>Template!R3</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{4DB7A2B8-7BD8-4BD7-8F53-2A7873A4EAAE}" name="Scoring" dataDxfId="133"/>
+    <tableColumn id="2" xr3:uid="{BE8EBD49-660A-4C9F-970E-230EBB942EF1}" name="Points" dataDxfId="4">
+      <calculatedColumnFormula>'Preseason 1'!R3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{C2C49EF0-4D8C-4F8C-8D19-CDD1481D9568}" name="Finishes" dataDxfId="127">
-      <calculatedColumnFormula>Template!S3</calculatedColumnFormula>
+    <tableColumn id="3" xr3:uid="{C2C49EF0-4D8C-4F8C-8D19-CDD1481D9568}" name="Finishes" dataDxfId="132">
+      <calculatedColumnFormula>'Preseason 1'!S3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{7E789F8C-B8F3-4D6E-AB6C-C9454835B062}" name="Midranges" dataDxfId="126">
-      <calculatedColumnFormula>Template!T3</calculatedColumnFormula>
+    <tableColumn id="4" xr3:uid="{7E789F8C-B8F3-4D6E-AB6C-C9454835B062}" name="Midranges" dataDxfId="131">
+      <calculatedColumnFormula>'Preseason 1'!T3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{18C990F2-A6D0-4F57-B96A-D00066DCC8D8}" name="Threes" dataDxfId="125">
-      <calculatedColumnFormula>Template!U3</calculatedColumnFormula>
+    <tableColumn id="5" xr3:uid="{18C990F2-A6D0-4F57-B96A-D00066DCC8D8}" name="Threes" dataDxfId="130">
+      <calculatedColumnFormula>'Preseason 1'!U3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{40526534-76CA-42BA-A8B6-AB092D9CE18F}" name="Avg P" dataDxfId="124">
+    <tableColumn id="6" xr3:uid="{40526534-76CA-42BA-A8B6-AB092D9CE18F}" name="Avg P" dataDxfId="129">
       <calculatedColumnFormula>AA29/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{693AF117-21F6-4887-B78D-D59235BABA44}" name="Avg F" dataDxfId="123">
+    <tableColumn id="7" xr3:uid="{693AF117-21F6-4887-B78D-D59235BABA44}" name="Avg F" dataDxfId="128">
       <calculatedColumnFormula>AB29/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{02AC8FBF-EBB3-4AFC-BAC5-B773E33B7279}" name="Avg M" dataDxfId="122">
+    <tableColumn id="8" xr3:uid="{02AC8FBF-EBB3-4AFC-BAC5-B773E33B7279}" name="Avg M" dataDxfId="127">
       <calculatedColumnFormula>AC29/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{CCF75EB4-34C4-4D47-9D51-E8D85C07E38B}" name="Avg T" dataDxfId="121">
+    <tableColumn id="9" xr3:uid="{CCF75EB4-34C4-4D47-9D51-E8D85C07E38B}" name="Avg T" dataDxfId="126">
       <calculatedColumnFormula>AD29/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{1A786A5C-D0C2-4ABC-904C-983180542D5F}" name="Missed Games" dataDxfId="120">
+    <tableColumn id="10" xr3:uid="{1A786A5C-D0C2-4ABC-904C-983180542D5F}" name="Missed Games" dataDxfId="125">
       <calculatedColumnFormula>COUNTIF(Template!V3, "TRUE")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8033,35 +8052,35 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{46F39EBA-1E74-46F4-A6E5-473672128124}" name="Table211" displayName="Table211" ref="AK28:AT45" totalsRowShown="0" headerRowDxfId="119" dataDxfId="118">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{46F39EBA-1E74-46F4-A6E5-473672128124}" name="Table211" displayName="Table211" ref="AK28:AT45" totalsRowShown="0" headerRowDxfId="124" dataDxfId="123">
   <autoFilter ref="AK28:AT45" xr:uid="{46F39EBA-1E74-46F4-A6E5-473672128124}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{5D003608-C1C2-4694-9447-8632FB8D7348}" name="Scoring" dataDxfId="117"/>
-    <tableColumn id="2" xr3:uid="{D15F4085-CED5-4CDD-B43B-BF7EB59B45A3}" name="Points" dataDxfId="116">
+    <tableColumn id="1" xr3:uid="{5D003608-C1C2-4694-9447-8632FB8D7348}" name="Scoring" dataDxfId="122"/>
+    <tableColumn id="2" xr3:uid="{D15F4085-CED5-4CDD-B43B-BF7EB59B45A3}" name="Points" dataDxfId="121">
       <calculatedColumnFormula>Template!AC3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{2D436F37-54B6-4820-9145-F48B4EF9B294}" name="Finishes" dataDxfId="115">
+    <tableColumn id="3" xr3:uid="{2D436F37-54B6-4820-9145-F48B4EF9B294}" name="Finishes" dataDxfId="120">
       <calculatedColumnFormula>Template!AD3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{1D9B6A22-B682-47F3-B738-7C138F317A41}" name="Midranges" dataDxfId="114">
+    <tableColumn id="4" xr3:uid="{1D9B6A22-B682-47F3-B738-7C138F317A41}" name="Midranges" dataDxfId="119">
       <calculatedColumnFormula>Template!AE3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{9966C9A0-3872-44E9-BB39-05DE197EAA68}" name="Threes" dataDxfId="113">
+    <tableColumn id="5" xr3:uid="{9966C9A0-3872-44E9-BB39-05DE197EAA68}" name="Threes" dataDxfId="118">
       <calculatedColumnFormula>Template!AF3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{CC4AB646-735F-425F-8528-C5EFE7FE11DC}" name="Avg P" dataDxfId="112">
+    <tableColumn id="6" xr3:uid="{CC4AB646-735F-425F-8528-C5EFE7FE11DC}" name="Avg P" dataDxfId="117">
       <calculatedColumnFormula>AL29/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{F8D0247E-C6F7-467A-9F38-46084D44F8AB}" name="Avg F" dataDxfId="111">
+    <tableColumn id="7" xr3:uid="{F8D0247E-C6F7-467A-9F38-46084D44F8AB}" name="Avg F" dataDxfId="116">
       <calculatedColumnFormula>AM29/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{7CCF1C77-9DB0-4EB2-B7D0-FD0BDBEBFA0E}" name="Avg M" dataDxfId="110">
+    <tableColumn id="8" xr3:uid="{7CCF1C77-9DB0-4EB2-B7D0-FD0BDBEBFA0E}" name="Avg M" dataDxfId="115">
       <calculatedColumnFormula>AN29/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{582A1A4E-5383-4383-A480-735408867046}" name="Avg T" dataDxfId="109">
+    <tableColumn id="9" xr3:uid="{582A1A4E-5383-4383-A480-735408867046}" name="Avg T" dataDxfId="114">
       <calculatedColumnFormula>AO29/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{E547AEB5-F9BA-4C5F-8DCE-34B6A8FF303A}" name="Missed Games" dataDxfId="108">
+    <tableColumn id="10" xr3:uid="{E547AEB5-F9BA-4C5F-8DCE-34B6A8FF303A}" name="Missed Games" dataDxfId="113">
       <calculatedColumnFormula>COUNTIF(Template!AG3, "TRUE")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8070,35 +8089,35 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{D27C125F-71B2-44D9-9F7A-9BED67755DD3}" name="Table21123" displayName="Table21123" ref="Z48:AI65" totalsRowShown="0" headerRowDxfId="107" dataDxfId="106">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{D27C125F-71B2-44D9-9F7A-9BED67755DD3}" name="Table21123" displayName="Table21123" ref="Z48:AI65" totalsRowShown="0" headerRowDxfId="112" dataDxfId="111">
   <autoFilter ref="Z48:AI65" xr:uid="{D27C125F-71B2-44D9-9F7A-9BED67755DD3}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{0B0344E8-2677-4FAB-9B03-4745991FB5AE}" name="Scoring" dataDxfId="105"/>
-    <tableColumn id="2" xr3:uid="{58CA1107-8BB4-4A5D-BA00-31619C8D3973}" name="Points" dataDxfId="104">
+    <tableColumn id="1" xr3:uid="{0B0344E8-2677-4FAB-9B03-4745991FB5AE}" name="Scoring" dataDxfId="110"/>
+    <tableColumn id="2" xr3:uid="{58CA1107-8BB4-4A5D-BA00-31619C8D3973}" name="Points" dataDxfId="109">
       <calculatedColumnFormula>Template!R23</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{8090861E-1FDF-44F4-9DB6-BB814E32C754}" name="Finishes" dataDxfId="103">
+    <tableColumn id="3" xr3:uid="{8090861E-1FDF-44F4-9DB6-BB814E32C754}" name="Finishes" dataDxfId="108">
       <calculatedColumnFormula>Template!S23</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{972D0347-DAB3-4985-A738-E5D78740D498}" name="Midranges" dataDxfId="102">
+    <tableColumn id="4" xr3:uid="{972D0347-DAB3-4985-A738-E5D78740D498}" name="Midranges" dataDxfId="107">
       <calculatedColumnFormula>Template!T23</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{48F5F884-1753-4988-9056-632B5EB6BBCB}" name="Threes" dataDxfId="101">
+    <tableColumn id="5" xr3:uid="{48F5F884-1753-4988-9056-632B5EB6BBCB}" name="Threes" dataDxfId="106">
       <calculatedColumnFormula>Template!U23</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{6953B627-EA05-418F-A758-FD59263EA60D}" name="Avg P" dataDxfId="100">
+    <tableColumn id="6" xr3:uid="{6953B627-EA05-418F-A758-FD59263EA60D}" name="Avg P" dataDxfId="105">
       <calculatedColumnFormula>AA49/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{BE057C9C-5ECD-4AC2-A9C0-18C89CFB52BC}" name="Avg F" dataDxfId="99">
+    <tableColumn id="7" xr3:uid="{BE057C9C-5ECD-4AC2-A9C0-18C89CFB52BC}" name="Avg F" dataDxfId="104">
       <calculatedColumnFormula>AB49/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{0FDEBEE7-CD5E-4A44-A0AE-74F044F1FF46}" name="Avg M" dataDxfId="98">
+    <tableColumn id="8" xr3:uid="{0FDEBEE7-CD5E-4A44-A0AE-74F044F1FF46}" name="Avg M" dataDxfId="103">
       <calculatedColumnFormula>AC49/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{76975BB6-3677-41A8-BC24-7536B1D876D3}" name="Avg T" dataDxfId="97">
+    <tableColumn id="9" xr3:uid="{76975BB6-3677-41A8-BC24-7536B1D876D3}" name="Avg T" dataDxfId="102">
       <calculatedColumnFormula>AD49/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{E5ADB69B-3BA2-4019-8C83-8B02221F187E}" name="Missed Games" dataDxfId="96">
+    <tableColumn id="10" xr3:uid="{E5ADB69B-3BA2-4019-8C83-8B02221F187E}" name="Missed Games" dataDxfId="101">
       <calculatedColumnFormula>COUNTIF(Template!V23, "TRUE")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8107,35 +8126,35 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{22B89D2C-1B74-4036-A4ED-A5E61F1B3AAC}" name="Table21124" displayName="Table21124" ref="AK48:AT65" totalsRowShown="0" headerRowDxfId="95" dataDxfId="94">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{22B89D2C-1B74-4036-A4ED-A5E61F1B3AAC}" name="Table21124" displayName="Table21124" ref="AK48:AT65" totalsRowShown="0" headerRowDxfId="100" dataDxfId="99">
   <autoFilter ref="AK48:AT65" xr:uid="{22B89D2C-1B74-4036-A4ED-A5E61F1B3AAC}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{3D35891E-3654-497A-8DB2-BF0BD916CA29}" name="Scoring" dataDxfId="93"/>
-    <tableColumn id="2" xr3:uid="{54B5B6AF-372A-4E07-B4D6-DFC66F7E20C5}" name="Points" dataDxfId="92">
+    <tableColumn id="1" xr3:uid="{3D35891E-3654-497A-8DB2-BF0BD916CA29}" name="Scoring" dataDxfId="98"/>
+    <tableColumn id="2" xr3:uid="{54B5B6AF-372A-4E07-B4D6-DFC66F7E20C5}" name="Points" dataDxfId="97">
       <calculatedColumnFormula>Template!AC23</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{6CA15B41-F560-4B43-8836-163F5BB5689C}" name="Finishes" dataDxfId="91">
+    <tableColumn id="3" xr3:uid="{6CA15B41-F560-4B43-8836-163F5BB5689C}" name="Finishes" dataDxfId="96">
       <calculatedColumnFormula>Template!AD23</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{8FF05262-0051-44F7-966E-8D405318BA69}" name="Midranges" dataDxfId="90">
+    <tableColumn id="4" xr3:uid="{8FF05262-0051-44F7-966E-8D405318BA69}" name="Midranges" dataDxfId="95">
       <calculatedColumnFormula>Template!AE23</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{F0D843FC-7A93-4C9A-BCCF-E789F7811B3B}" name="Threes" dataDxfId="89">
+    <tableColumn id="5" xr3:uid="{F0D843FC-7A93-4C9A-BCCF-E789F7811B3B}" name="Threes" dataDxfId="94">
       <calculatedColumnFormula>Template!AF23</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{F0498F8A-F646-4C1F-A3CF-E89E73750FC1}" name="Avg P" dataDxfId="88">
+    <tableColumn id="6" xr3:uid="{F0498F8A-F646-4C1F-A3CF-E89E73750FC1}" name="Avg P" dataDxfId="93">
       <calculatedColumnFormula>AL49/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{A387BC88-F45C-4386-8503-EFEA33BDAC38}" name="Avg F" dataDxfId="87">
+    <tableColumn id="7" xr3:uid="{A387BC88-F45C-4386-8503-EFEA33BDAC38}" name="Avg F" dataDxfId="92">
       <calculatedColumnFormula>AM49/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{BEA82919-0828-4351-A01A-D72E13E63FAB}" name="Avg M" dataDxfId="86">
+    <tableColumn id="8" xr3:uid="{BEA82919-0828-4351-A01A-D72E13E63FAB}" name="Avg M" dataDxfId="91">
       <calculatedColumnFormula>AN49/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{ABEBCE01-BCA4-4342-966C-27301889B607}" name="Avg T" dataDxfId="85">
+    <tableColumn id="9" xr3:uid="{ABEBCE01-BCA4-4342-966C-27301889B607}" name="Avg T" dataDxfId="90">
       <calculatedColumnFormula>AO49/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{65E7A8E7-4C51-42E4-AB0F-B7FF6099D70A}" name="Missed Games" dataDxfId="84">
+    <tableColumn id="10" xr3:uid="{65E7A8E7-4C51-42E4-AB0F-B7FF6099D70A}" name="Missed Games" dataDxfId="89">
       <calculatedColumnFormula>COUNTIF(Template!AG23, "TRUE")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8144,35 +8163,35 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{18C7D514-96DE-4BA6-B019-3E860ED143EC}" name="Table21125" displayName="Table21125" ref="AK68:AT85" totalsRowShown="0" headerRowDxfId="83" dataDxfId="82">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{18C7D514-96DE-4BA6-B019-3E860ED143EC}" name="Table21125" displayName="Table21125" ref="AK68:AT85" totalsRowShown="0" headerRowDxfId="88" dataDxfId="87">
   <autoFilter ref="AK68:AT85" xr:uid="{18C7D514-96DE-4BA6-B019-3E860ED143EC}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{D144EF14-69FD-4E71-90C7-56F49F45FAE5}" name="Scoring" dataDxfId="81"/>
-    <tableColumn id="2" xr3:uid="{34D1D392-F3E0-4C36-9EED-849D5B1149E6}" name="Points" dataDxfId="80">
+    <tableColumn id="1" xr3:uid="{D144EF14-69FD-4E71-90C7-56F49F45FAE5}" name="Scoring" dataDxfId="86"/>
+    <tableColumn id="2" xr3:uid="{34D1D392-F3E0-4C36-9EED-849D5B1149E6}" name="Points" dataDxfId="85">
       <calculatedColumnFormula>Template!AC43</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{E91D98A2-80BD-4E5C-9036-2FCC8185369F}" name="Finishes" dataDxfId="79">
+    <tableColumn id="3" xr3:uid="{E91D98A2-80BD-4E5C-9036-2FCC8185369F}" name="Finishes" dataDxfId="84">
       <calculatedColumnFormula>Template!AD43</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{D2E5029E-4811-4E9B-9A2D-5F5F8F322B0D}" name="Midranges" dataDxfId="78">
+    <tableColumn id="4" xr3:uid="{D2E5029E-4811-4E9B-9A2D-5F5F8F322B0D}" name="Midranges" dataDxfId="83">
       <calculatedColumnFormula>Template!AE43</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{B3E76CEE-33DA-4B18-8DCE-8EBC7EE592D7}" name="Threes" dataDxfId="77">
+    <tableColumn id="5" xr3:uid="{B3E76CEE-33DA-4B18-8DCE-8EBC7EE592D7}" name="Threes" dataDxfId="82">
       <calculatedColumnFormula>Template!AF43</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{6ABE1879-8018-4498-A9A1-22CF831F0364}" name="Avg P" dataDxfId="76">
+    <tableColumn id="6" xr3:uid="{6ABE1879-8018-4498-A9A1-22CF831F0364}" name="Avg P" dataDxfId="81">
       <calculatedColumnFormula>AL69/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{8DA4DD79-8A2A-49E4-996F-C1ACCED3C565}" name="Avg F" dataDxfId="75">
+    <tableColumn id="7" xr3:uid="{8DA4DD79-8A2A-49E4-996F-C1ACCED3C565}" name="Avg F" dataDxfId="80">
       <calculatedColumnFormula>AM69/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{256EA4BC-BA61-49E2-969F-0786AA9AA6EA}" name="Avg M" dataDxfId="74">
+    <tableColumn id="8" xr3:uid="{256EA4BC-BA61-49E2-969F-0786AA9AA6EA}" name="Avg M" dataDxfId="79">
       <calculatedColumnFormula>AN69/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{0E5566B2-99EC-4B03-A074-8705C4EDA484}" name="Avg T" dataDxfId="73">
+    <tableColumn id="9" xr3:uid="{0E5566B2-99EC-4B03-A074-8705C4EDA484}" name="Avg T" dataDxfId="78">
       <calculatedColumnFormula>AO69/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{3E2357F0-493E-401D-AC75-9AAB260F684E}" name="Missed Games" dataDxfId="72">
+    <tableColumn id="10" xr3:uid="{3E2357F0-493E-401D-AC75-9AAB260F684E}" name="Missed Games" dataDxfId="77">
       <calculatedColumnFormula>COUNTIF(Template!AG43, "TRUE")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8181,35 +8200,35 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{F118BED8-7AAF-4E55-A61F-C75C69A64AAE}" name="Table21126" displayName="Table21126" ref="Z68:AI85" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{F118BED8-7AAF-4E55-A61F-C75C69A64AAE}" name="Table21126" displayName="Table21126" ref="Z68:AI85" totalsRowShown="0" headerRowDxfId="76" dataDxfId="75">
   <autoFilter ref="Z68:AI85" xr:uid="{F118BED8-7AAF-4E55-A61F-C75C69A64AAE}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{7723929D-65B3-40BB-8FDD-C4533243706C}" name="Scoring" dataDxfId="69"/>
-    <tableColumn id="2" xr3:uid="{EC28DE3D-619E-4930-A3AF-7AD1BE1D4843}" name="Points" dataDxfId="68">
+    <tableColumn id="1" xr3:uid="{7723929D-65B3-40BB-8FDD-C4533243706C}" name="Scoring" dataDxfId="74"/>
+    <tableColumn id="2" xr3:uid="{EC28DE3D-619E-4930-A3AF-7AD1BE1D4843}" name="Points" dataDxfId="73">
       <calculatedColumnFormula>Template!R43</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{9537269D-8C1D-42B5-866F-D03CE61A8512}" name="Finishes" dataDxfId="67">
+    <tableColumn id="3" xr3:uid="{9537269D-8C1D-42B5-866F-D03CE61A8512}" name="Finishes" dataDxfId="72">
       <calculatedColumnFormula>Template!S43</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{AC590DDB-BE19-4A14-8B98-1E5E2430AA45}" name="Midranges" dataDxfId="66">
+    <tableColumn id="4" xr3:uid="{AC590DDB-BE19-4A14-8B98-1E5E2430AA45}" name="Midranges" dataDxfId="71">
       <calculatedColumnFormula>Template!T43</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C96D3ACD-F34D-477E-86DE-4650EE56BC94}" name="Threes" dataDxfId="65">
+    <tableColumn id="5" xr3:uid="{C96D3ACD-F34D-477E-86DE-4650EE56BC94}" name="Threes" dataDxfId="70">
       <calculatedColumnFormula>Template!U43</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{A43DE5E9-BB01-49FA-A204-66EE7BAA2E9F}" name="Avg P" dataDxfId="64">
+    <tableColumn id="6" xr3:uid="{A43DE5E9-BB01-49FA-A204-66EE7BAA2E9F}" name="Avg P" dataDxfId="69">
       <calculatedColumnFormula>AA69/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{C75A19FF-6041-45C2-BACB-E347F06B6329}" name="Avg F" dataDxfId="63">
+    <tableColumn id="7" xr3:uid="{C75A19FF-6041-45C2-BACB-E347F06B6329}" name="Avg F" dataDxfId="68">
       <calculatedColumnFormula>AB69/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00D3FCFC-C9C5-4C96-BE0E-8E1FDC95D07C}" name="Avg M" dataDxfId="62">
+    <tableColumn id="8" xr3:uid="{00D3FCFC-C9C5-4C96-BE0E-8E1FDC95D07C}" name="Avg M" dataDxfId="67">
       <calculatedColumnFormula>AC69/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{0448FF4E-9D2D-47F6-89B7-F17D36B05E8A}" name="Avg T" dataDxfId="61">
+    <tableColumn id="9" xr3:uid="{0448FF4E-9D2D-47F6-89B7-F17D36B05E8A}" name="Avg T" dataDxfId="66">
       <calculatedColumnFormula>AD69/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{D5BDFA2D-095B-44F8-8567-15B3B1520E5A}" name="Missed Games" dataDxfId="60">
+    <tableColumn id="10" xr3:uid="{D5BDFA2D-095B-44F8-8567-15B3B1520E5A}" name="Missed Games" dataDxfId="65">
       <calculatedColumnFormula>COUNTIF(Template!V43, "TRUE")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8218,35 +8237,35 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{BDD2E472-3925-41A7-BECD-3315E6E71ECC}" name="Table21127" displayName="Table21127" ref="Z88:AI105" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{BDD2E472-3925-41A7-BECD-3315E6E71ECC}" name="Table21127" displayName="Table21127" ref="Z88:AI105" totalsRowShown="0" headerRowDxfId="64" dataDxfId="63">
   <autoFilter ref="Z88:AI105" xr:uid="{BDD2E472-3925-41A7-BECD-3315E6E71ECC}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{9DBD966D-620C-4B97-A502-29D00ABE150B}" name="Scoring" dataDxfId="57"/>
-    <tableColumn id="2" xr3:uid="{F8F81F0E-16B3-4472-9D90-A92149C763E4}" name="Points" dataDxfId="56">
+    <tableColumn id="1" xr3:uid="{9DBD966D-620C-4B97-A502-29D00ABE150B}" name="Scoring" dataDxfId="62"/>
+    <tableColumn id="2" xr3:uid="{F8F81F0E-16B3-4472-9D90-A92149C763E4}" name="Points" dataDxfId="61">
       <calculatedColumnFormula>Template!R63</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{09859CE1-290D-4977-B02C-46F4E5A6FDC2}" name="Finishes" dataDxfId="55">
+    <tableColumn id="3" xr3:uid="{09859CE1-290D-4977-B02C-46F4E5A6FDC2}" name="Finishes" dataDxfId="60">
       <calculatedColumnFormula>Template!S63</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{7D751A0E-2895-46DF-B5E2-5A8AA5531CD2}" name="Midranges" dataDxfId="54">
+    <tableColumn id="4" xr3:uid="{7D751A0E-2895-46DF-B5E2-5A8AA5531CD2}" name="Midranges" dataDxfId="59">
       <calculatedColumnFormula>Template!T63</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{591CDC71-B0EA-413B-B6C1-77884E7E50D4}" name="Threes" dataDxfId="53">
+    <tableColumn id="5" xr3:uid="{591CDC71-B0EA-413B-B6C1-77884E7E50D4}" name="Threes" dataDxfId="58">
       <calculatedColumnFormula>Template!U63</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{52ED768C-5557-42DC-9824-7A4D9B547153}" name="Avg P" dataDxfId="52">
+    <tableColumn id="6" xr3:uid="{52ED768C-5557-42DC-9824-7A4D9B547153}" name="Avg P" dataDxfId="57">
       <calculatedColumnFormula>AA89/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{FC79BE87-72E2-4F5E-83D6-CDCE645EB943}" name="Avg F" dataDxfId="51">
+    <tableColumn id="7" xr3:uid="{FC79BE87-72E2-4F5E-83D6-CDCE645EB943}" name="Avg F" dataDxfId="56">
       <calculatedColumnFormula>AB89/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{BA012C22-0D65-4C11-98A7-4F958703D04B}" name="Avg M" dataDxfId="50">
+    <tableColumn id="8" xr3:uid="{BA012C22-0D65-4C11-98A7-4F958703D04B}" name="Avg M" dataDxfId="55">
       <calculatedColumnFormula>AC89/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{63344F2B-5D94-417D-85E2-C2BFBACE3E7E}" name="Avg T" dataDxfId="49">
+    <tableColumn id="9" xr3:uid="{63344F2B-5D94-417D-85E2-C2BFBACE3E7E}" name="Avg T" dataDxfId="54">
       <calculatedColumnFormula>AD89/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{1AD5A604-8909-45B3-8E43-11D407451CEA}" name="Missed Games" dataDxfId="48">
+    <tableColumn id="10" xr3:uid="{1AD5A604-8909-45B3-8E43-11D407451CEA}" name="Missed Games" dataDxfId="53">
       <calculatedColumnFormula>COUNTIF(Template!V63, "TRUE")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8255,35 +8274,35 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{F9183685-60DE-4163-AA62-BE4F563EE570}" name="Table21128" displayName="Table21128" ref="AK88:AT105" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{F9183685-60DE-4163-AA62-BE4F563EE570}" name="Table21128" displayName="Table21128" ref="AK88:AT105" totalsRowShown="0" headerRowDxfId="52" dataDxfId="51">
   <autoFilter ref="AK88:AT105" xr:uid="{F9183685-60DE-4163-AA62-BE4F563EE570}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{E62FBAA0-D6F6-4997-96C9-B6B13FAA9B6E}" name="Scoring" dataDxfId="45"/>
-    <tableColumn id="2" xr3:uid="{0A655F6F-9A21-4167-85B6-B9F7DC2070CA}" name="Points" dataDxfId="44">
+    <tableColumn id="1" xr3:uid="{E62FBAA0-D6F6-4997-96C9-B6B13FAA9B6E}" name="Scoring" dataDxfId="50"/>
+    <tableColumn id="2" xr3:uid="{0A655F6F-9A21-4167-85B6-B9F7DC2070CA}" name="Points" dataDxfId="49">
       <calculatedColumnFormula>Template!AC63</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{460771D3-3BD8-4DA3-AF1B-1A0F98EF1499}" name="Finishes" dataDxfId="43">
+    <tableColumn id="3" xr3:uid="{460771D3-3BD8-4DA3-AF1B-1A0F98EF1499}" name="Finishes" dataDxfId="48">
       <calculatedColumnFormula>Template!AD63</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{3C08B2D7-823D-49C3-A627-A5848E664B2F}" name="Midranges" dataDxfId="42">
+    <tableColumn id="4" xr3:uid="{3C08B2D7-823D-49C3-A627-A5848E664B2F}" name="Midranges" dataDxfId="47">
       <calculatedColumnFormula>Template!AE63</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{E88F45FB-4C46-4674-86D5-74808E7E5368}" name="Threes" dataDxfId="41">
+    <tableColumn id="5" xr3:uid="{E88F45FB-4C46-4674-86D5-74808E7E5368}" name="Threes" dataDxfId="46">
       <calculatedColumnFormula>Template!AF63</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{0C0E8016-1E6E-4F25-9675-4EE061FFD0F7}" name="Avg P" dataDxfId="40">
+    <tableColumn id="6" xr3:uid="{0C0E8016-1E6E-4F25-9675-4EE061FFD0F7}" name="Avg P" dataDxfId="45">
       <calculatedColumnFormula>AL89/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{F7AC350B-AE4B-4912-B21D-16D99E2AE8BF}" name="Avg F" dataDxfId="39">
+    <tableColumn id="7" xr3:uid="{F7AC350B-AE4B-4912-B21D-16D99E2AE8BF}" name="Avg F" dataDxfId="44">
       <calculatedColumnFormula>AM89/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{F451E5CA-B9C4-4EFA-A647-CEDB2FB39550}" name="Avg M" dataDxfId="38">
+    <tableColumn id="8" xr3:uid="{F451E5CA-B9C4-4EFA-A647-CEDB2FB39550}" name="Avg M" dataDxfId="43">
       <calculatedColumnFormula>AN89/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{ED1D92B5-05F1-40CE-A89F-E6627FAB4A59}" name="Avg T" dataDxfId="37">
+    <tableColumn id="9" xr3:uid="{ED1D92B5-05F1-40CE-A89F-E6627FAB4A59}" name="Avg T" dataDxfId="42">
       <calculatedColumnFormula>AO89/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{48A4808A-3DE6-4644-83F5-C2AEDDFC3E5E}" name="Missed Games" dataDxfId="36">
+    <tableColumn id="10" xr3:uid="{48A4808A-3DE6-4644-83F5-C2AEDDFC3E5E}" name="Missed Games" dataDxfId="41">
       <calculatedColumnFormula>COUNTIF(Template!AG63, "TRUE")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8492,7 +8511,10 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:X1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
+    </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
@@ -8591,33 +8613,33 @@
       <c r="C3" s="120" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="8" t="e">
+      <c r="D3" s="8">
         <f>'Stats Global'!AB8</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1">
         <f>'Stats Global'!AA8</f>
         <v>0</v>
       </c>
-      <c r="F3" s="8" t="e">
+      <c r="F3" s="8">
         <f>'Stats Global'!AD8</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="G3" s="12">
         <f>'Stats Global'!AC8</f>
         <v>0</v>
       </c>
-      <c r="H3" s="8" t="e">
+      <c r="H3" s="8">
         <f>'Stats Global'!AF8</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="I3" s="12">
         <f>'Stats Global'!AE8</f>
         <v>0</v>
       </c>
-      <c r="J3" s="8" t="e">
+      <c r="J3" s="8">
         <f>'Stats Global'!AH8</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K3" s="12">
         <f>'Stats Global'!AG8</f>
@@ -8645,33 +8667,33 @@
       <c r="C4" s="120" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="8" t="e">
+      <c r="D4" s="8">
         <f>'Stats Global'!AB9</f>
-        <v>#DIV/0!</v>
+        <v>2</v>
       </c>
       <c r="E4" s="12">
         <f>'Stats Global'!AA9</f>
-        <v>0</v>
-      </c>
-      <c r="F4" s="8" t="e">
+        <v>2</v>
+      </c>
+      <c r="F4" s="8">
         <f>'Stats Global'!AD9</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="G4" s="12">
         <f>'Stats Global'!AC9</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="8" t="e">
+        <v>1</v>
+      </c>
+      <c r="H4" s="8">
         <f>'Stats Global'!AF9</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="I4" s="12">
         <f>'Stats Global'!AE9</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="8" t="e">
+        <v>1</v>
+      </c>
+      <c r="J4" s="8">
         <f>'Stats Global'!AH9</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K4" s="12">
         <f>'Stats Global'!AG9</f>
@@ -8699,37 +8721,37 @@
       <c r="C5" s="119" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="8" t="e">
+      <c r="D5" s="8">
         <f>'Stats Global'!AB10</f>
-        <v>#DIV/0!</v>
+        <v>5</v>
       </c>
       <c r="E5" s="12">
         <f>'Stats Global'!AA10</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="8" t="e">
+        <v>5</v>
+      </c>
+      <c r="F5" s="8">
         <f>'Stats Global'!AD10</f>
-        <v>#DIV/0!</v>
+        <v>3</v>
       </c>
       <c r="G5" s="12">
         <f>'Stats Global'!AC10</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="8" t="e">
+        <v>3</v>
+      </c>
+      <c r="H5" s="8">
         <f>'Stats Global'!AF10</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="I5" s="12">
         <f>'Stats Global'!AE10</f>
         <v>0</v>
       </c>
-      <c r="J5" s="8" t="e">
+      <c r="J5" s="8">
         <f>'Stats Global'!AH10</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="K5" s="12">
         <f>'Stats Global'!AG10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>32</v>
@@ -8765,33 +8787,33 @@
       <c r="C6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="8" t="e">
+      <c r="D6" s="8">
         <f>'Stats Global'!AB11</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="E6" s="12">
         <f>'Stats Global'!AA11</f>
         <v>0</v>
       </c>
-      <c r="F6" s="8" t="e">
+      <c r="F6" s="8">
         <f>'Stats Global'!AD11</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="G6" s="12">
         <f>'Stats Global'!AC11</f>
         <v>0</v>
       </c>
-      <c r="H6" s="8" t="e">
+      <c r="H6" s="8">
         <f>'Stats Global'!AF11</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="I6" s="12">
         <f>'Stats Global'!AE11</f>
         <v>0</v>
       </c>
-      <c r="J6" s="8" t="e">
+      <c r="J6" s="8">
         <f>'Stats Global'!AH11</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K6" s="12">
         <f>'Stats Global'!AG11</f>
@@ -8840,33 +8862,33 @@
       <c r="C7" s="119" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="8" t="e">
+      <c r="D7" s="8">
         <f>'Stats Global'!AB12</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="E7" s="12">
         <f>'Stats Global'!AA12</f>
         <v>0</v>
       </c>
-      <c r="F7" s="8" t="e">
+      <c r="F7" s="8">
         <f>'Stats Global'!AD12</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="G7" s="12">
         <f>'Stats Global'!AC12</f>
         <v>0</v>
       </c>
-      <c r="H7" s="8" t="e">
+      <c r="H7" s="8">
         <f>'Stats Global'!AF12</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="I7" s="12">
         <f>'Stats Global'!AE12</f>
         <v>0</v>
       </c>
-      <c r="J7" s="8" t="e">
+      <c r="J7" s="8">
         <f>'Stats Global'!AH12</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K7" s="12">
         <f>'Stats Global'!AG12</f>
@@ -8903,33 +8925,33 @@
       <c r="C8" s="120" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="8" t="e">
+      <c r="D8" s="8">
         <f>'Stats Global'!AB13</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="E8" s="12">
         <f>'Stats Global'!AA13</f>
         <v>0</v>
       </c>
-      <c r="F8" s="8" t="e">
+      <c r="F8" s="8">
         <f>'Stats Global'!AD13</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="G8" s="12">
         <f>'Stats Global'!AC13</f>
         <v>0</v>
       </c>
-      <c r="H8" s="8" t="e">
+      <c r="H8" s="8">
         <f>'Stats Global'!AF13</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="I8" s="12">
         <f>'Stats Global'!AE13</f>
         <v>0</v>
       </c>
-      <c r="J8" s="8" t="e">
+      <c r="J8" s="8">
         <f>'Stats Global'!AH13</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K8" s="12">
         <f>'Stats Global'!AG13</f>
@@ -8966,33 +8988,33 @@
       <c r="C9" s="120" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="8" t="e">
+      <c r="D9" s="8">
         <f>'Stats Global'!AB14</f>
-        <v>#DIV/0!</v>
+        <v>2</v>
       </c>
       <c r="E9" s="12">
         <f>'Stats Global'!AA14</f>
-        <v>0</v>
-      </c>
-      <c r="F9" s="8" t="e">
+        <v>2</v>
+      </c>
+      <c r="F9" s="8">
         <f>'Stats Global'!AD14</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="G9" s="12">
         <f>'Stats Global'!AC14</f>
-        <v>0</v>
-      </c>
-      <c r="H9" s="8" t="e">
+        <v>1</v>
+      </c>
+      <c r="H9" s="8">
         <f>'Stats Global'!AF14</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="I9" s="12">
         <f>'Stats Global'!AE14</f>
-        <v>0</v>
-      </c>
-      <c r="J9" s="8" t="e">
+        <v>1</v>
+      </c>
+      <c r="J9" s="8">
         <f>'Stats Global'!AH14</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K9" s="12">
         <f>'Stats Global'!AG14</f>
@@ -9095,37 +9117,37 @@
       <c r="C11" s="119" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="8" t="e">
+      <c r="D11" s="8">
         <f>'Stats Global'!AB16</f>
-        <v>#DIV/0!</v>
+        <v>3</v>
       </c>
       <c r="E11" s="12">
         <f>'Stats Global'!AA16</f>
-        <v>0</v>
-      </c>
-      <c r="F11" s="8" t="e">
+        <v>3</v>
+      </c>
+      <c r="F11" s="8">
         <f>'Stats Global'!AD16</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="G11" s="12">
         <f>'Stats Global'!AC16</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="8" t="e">
+        <v>1</v>
+      </c>
+      <c r="H11" s="8">
         <f>'Stats Global'!AF16</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="I11" s="12">
         <f>'Stats Global'!AE16</f>
         <v>0</v>
       </c>
-      <c r="J11" s="8" t="e">
+      <c r="J11" s="8">
         <f>'Stats Global'!AH16</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="K11" s="12">
         <f>'Stats Global'!AG16</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>48</v>
@@ -9170,37 +9192,37 @@
       <c r="C12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="8" t="e">
+      <c r="D12" s="8">
         <f>'Stats Global'!AB17</f>
-        <v>#DIV/0!</v>
+        <v>6</v>
       </c>
       <c r="E12" s="12">
         <f>'Stats Global'!AA17</f>
-        <v>0</v>
-      </c>
-      <c r="F12" s="8" t="e">
+        <v>6</v>
+      </c>
+      <c r="F12" s="8">
         <f>'Stats Global'!AD17</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="G12" s="12">
         <f>'Stats Global'!AC17</f>
         <v>0</v>
       </c>
-      <c r="H12" s="8" t="e">
+      <c r="H12" s="8">
         <f>'Stats Global'!AF17</f>
-        <v>#DIV/0!</v>
+        <v>4</v>
       </c>
       <c r="I12" s="12">
         <f>'Stats Global'!AE17</f>
-        <v>0</v>
-      </c>
-      <c r="J12" s="8" t="e">
+        <v>4</v>
+      </c>
+      <c r="J12" s="8">
         <f>'Stats Global'!AH17</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="K12" s="12">
         <f>'Stats Global'!AG17</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>40</v>
@@ -9239,33 +9261,33 @@
       <c r="C13" s="120" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="8" t="e">
+      <c r="D13" s="8">
         <f>'Stats Global'!AB18</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="E13" s="12">
         <f>'Stats Global'!AA18</f>
         <v>0</v>
       </c>
-      <c r="F13" s="8" t="e">
+      <c r="F13" s="8">
         <f>'Stats Global'!AD18</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="G13" s="12">
         <f>'Stats Global'!AC18</f>
         <v>0</v>
       </c>
-      <c r="H13" s="8" t="e">
+      <c r="H13" s="8">
         <f>'Stats Global'!AF18</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="I13" s="12">
         <f>'Stats Global'!AE18</f>
         <v>0</v>
       </c>
-      <c r="J13" s="8" t="e">
+      <c r="J13" s="8">
         <f>'Stats Global'!AH18</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K13" s="12">
         <f>'Stats Global'!AG18</f>
@@ -9300,37 +9322,37 @@
       <c r="C14" s="120" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="8" t="e">
+      <c r="D14" s="8">
         <f>'Stats Global'!AB20</f>
-        <v>#DIV/0!</v>
+        <v>2</v>
       </c>
       <c r="E14" s="12">
         <f>'Stats Global'!AA20</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="8" t="e">
+        <v>2</v>
+      </c>
+      <c r="F14" s="8">
         <f>'Stats Global'!AD20</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="G14" s="12">
         <f>'Stats Global'!AC20</f>
         <v>0</v>
       </c>
-      <c r="H14" s="8" t="e">
+      <c r="H14" s="8">
         <f>'Stats Global'!AF20</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="I14" s="12">
         <f>'Stats Global'!AE20</f>
         <v>0</v>
       </c>
-      <c r="J14" s="8" t="e">
+      <c r="J14" s="8">
         <f>'Stats Global'!AH20</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="K14" s="12">
         <f>'Stats Global'!AG20</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>56</v>
@@ -9372,33 +9394,33 @@
       <c r="C15" s="120" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="8" t="e">
+      <c r="D15" s="8">
         <f>'Stats Global'!AB21</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="E15" s="12">
         <f>'Stats Global'!AA21</f>
-        <v>0</v>
-      </c>
-      <c r="F15" s="8" t="e">
+        <v>1</v>
+      </c>
+      <c r="F15" s="8">
         <f>'Stats Global'!AD21</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="G15" s="12">
         <f>'Stats Global'!AC21</f>
         <v>0</v>
       </c>
-      <c r="H15" s="8" t="e">
+      <c r="H15" s="8">
         <f>'Stats Global'!AF21</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="I15" s="12">
         <f>'Stats Global'!AE21</f>
-        <v>0</v>
-      </c>
-      <c r="J15" s="8" t="e">
+        <v>1</v>
+      </c>
+      <c r="J15" s="8">
         <f>'Stats Global'!AH21</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K15" s="12">
         <f>'Stats Global'!AG21</f>
@@ -9444,33 +9466,33 @@
       <c r="C16" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="8" t="e">
+      <c r="D16" s="8">
         <f>'Stats Global'!AB22</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="E16" s="12">
         <f>'Stats Global'!AA22</f>
         <v>0</v>
       </c>
-      <c r="F16" s="8" t="e">
+      <c r="F16" s="8">
         <f>'Stats Global'!AD22</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="G16" s="12">
         <f>'Stats Global'!AC22</f>
         <v>0</v>
       </c>
-      <c r="H16" s="8" t="e">
+      <c r="H16" s="8">
         <f>'Stats Global'!AF22</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="I16" s="12">
         <f>'Stats Global'!AE22</f>
         <v>0</v>
       </c>
-      <c r="J16" s="8" t="e">
+      <c r="J16" s="8">
         <f>'Stats Global'!AH22</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K16" s="12">
         <f>'Stats Global'!AG22</f>
@@ -9522,33 +9544,33 @@
       <c r="C17" s="120" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="8" t="e">
+      <c r="D17" s="8">
         <f>'Stats Global'!AB23</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="E17" s="12">
         <f>'Stats Global'!AA23</f>
         <v>0</v>
       </c>
-      <c r="F17" s="8" t="e">
+      <c r="F17" s="8">
         <f>'Stats Global'!AD23</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="G17" s="12">
         <f>'Stats Global'!AC23</f>
         <v>0</v>
       </c>
-      <c r="H17" s="8" t="e">
+      <c r="H17" s="8">
         <f>'Stats Global'!AF23</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="I17" s="12">
         <f>'Stats Global'!AE23</f>
         <v>0</v>
       </c>
-      <c r="J17" s="8" t="e">
+      <c r="J17" s="8">
         <f>'Stats Global'!AH23</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K17" s="12">
         <f>'Stats Global'!AG23</f>
@@ -9585,33 +9607,33 @@
       <c r="C18" s="120" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="8" t="e">
+      <c r="D18" s="8">
         <f>'Stats Global'!AB24</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="E18" s="12">
         <f>'Stats Global'!AA24</f>
         <v>0</v>
       </c>
-      <c r="F18" s="8" t="e">
+      <c r="F18" s="8">
         <f>'Stats Global'!AD24</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="G18" s="12">
         <f>'Stats Global'!AC24</f>
         <v>0</v>
       </c>
-      <c r="H18" s="8" t="e">
+      <c r="H18" s="8">
         <f>'Stats Global'!AF24</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="I18" s="12">
         <f>'Stats Global'!AE24</f>
         <v>0</v>
       </c>
-      <c r="J18" s="8" t="e">
+      <c r="J18" s="8">
         <f>'Stats Global'!AH24</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K18" s="12">
         <f>'Stats Global'!AG24</f>
@@ -9658,19 +9680,19 @@
       </c>
     </row>
     <row r="21" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="127" t="s">
+      <c r="B21" s="128" t="s">
         <v>119</v>
       </c>
-      <c r="C21" s="127"/>
-      <c r="D21" s="127"/>
+      <c r="C21" s="128"/>
+      <c r="D21" s="128"/>
       <c r="X21" s="2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="22" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="127"/>
-      <c r="C22" s="127"/>
-      <c r="D22" s="127"/>
+      <c r="B22" s="128"/>
+      <c r="C22" s="128"/>
+      <c r="D22" s="128"/>
       <c r="X22" s="2" t="s">
         <v>71</v>
       </c>
@@ -9742,9 +9764,9 @@
       </c>
     </row>
     <row r="26" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="18" t="e">
+      <c r="B26" s="18" t="str">
         <f>D48&amp;":["&amp;D49&amp;D50&amp;D51&amp;D52&amp;D53&amp;D54&amp;D55&amp;D56&amp;D57&amp;D58&amp;D59&amp;D60&amp;D61&amp;D62&amp;D63&amp;D64&amp;"],"</f>
-        <v>#DIV/0!</v>
+        <v>"PPG":[0,2,5,0,0,0,2,0,3,6,0,2,1,0,0,0],</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
@@ -9770,7 +9792,7 @@
     <row r="27" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B27" s="17" t="str">
         <f>E48&amp;":["&amp;E49&amp;E50&amp;E51&amp;E52&amp;E53&amp;E54&amp;E55&amp;E56&amp;E57&amp;E58&amp;E59&amp;E60&amp;E61&amp;E62&amp;E63&amp;E64&amp;"],"</f>
-        <v>"TP":[0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0],</v>
+        <v>"TP":[0,2,5,0,0,0,2,0,3,6,0,2,1,0,0,0],</v>
       </c>
       <c r="C27" s="17"/>
       <c r="D27" s="17"/>
@@ -9794,9 +9816,9 @@
       <c r="W27" s="17"/>
     </row>
     <row r="28" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="17" t="e">
+      <c r="B28" s="17" t="str">
         <f>F48&amp;":["&amp;F49&amp;F50&amp;F51&amp;F52&amp;F53&amp;F54&amp;F55&amp;F56&amp;F57&amp;F58&amp;F59&amp;F60&amp;F61&amp;F62&amp;F63&amp;F64&amp;"],"</f>
-        <v>#DIV/0!</v>
+        <v>"FPG":[0,1,3,0,0,0,1,0,1,0,0,0,0,0,0,0],</v>
       </c>
       <c r="C28" s="17"/>
       <c r="D28" s="17"/>
@@ -9822,7 +9844,7 @@
     <row r="29" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B29" s="17" t="str">
         <f>G48&amp;":["&amp;G49&amp;G50&amp;G51&amp;G52&amp;G53&amp;G54&amp;G55&amp;G56&amp;G57&amp;G58&amp;G59&amp;G60&amp;G61&amp;G62&amp;G63&amp;G64&amp;"],"</f>
-        <v>"TF":[0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0],</v>
+        <v>"TF":[0,1,3,0,0,0,1,0,1,0,0,0,0,0,0,0],</v>
       </c>
       <c r="C29" s="17"/>
       <c r="D29" s="17"/>
@@ -9846,9 +9868,9 @@
       <c r="W29" s="17"/>
     </row>
     <row r="30" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="17" t="e">
+      <c r="B30" s="17" t="str">
         <f>H48&amp;":["&amp;H49&amp;H50&amp;H51&amp;H52&amp;H53&amp;H54&amp;H55&amp;H56&amp;H57&amp;H58&amp;H59&amp;H60&amp;H61&amp;H62&amp;H63&amp;H64&amp;"],"</f>
-        <v>#DIV/0!</v>
+        <v>"MPG":[0,1,0,0,0,0,1,0,0,4,0,0,1,0,0,0],</v>
       </c>
       <c r="C30" s="17"/>
       <c r="D30" s="17"/>
@@ -9874,7 +9896,7 @@
     <row r="31" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B31" s="17" t="str">
         <f>I48&amp;":["&amp;I49&amp;I50&amp;I51&amp;I52&amp;I53&amp;I54&amp;I55&amp;I56&amp;I57&amp;I58&amp;I59&amp;I60&amp;I61&amp;I62&amp;I63&amp;I64&amp;"],"</f>
-        <v>"TM":[0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0],</v>
+        <v>"TM":[0,1,0,0,0,0,1,0,0,4,0,0,1,0,0,0],</v>
       </c>
       <c r="C31" s="17"/>
       <c r="D31" s="17"/>
@@ -9898,9 +9920,9 @@
       <c r="W31" s="17"/>
     </row>
     <row r="32" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="17" t="e">
+      <c r="B32" s="17" t="str">
         <f>J48&amp;":["&amp;J49&amp;J50&amp;J51&amp;J52&amp;J53&amp;J54&amp;J55&amp;J56&amp;J57&amp;J58&amp;J59&amp;J60&amp;J61&amp;J62&amp;J63&amp;J64&amp;"],"</f>
-        <v>#DIV/0!</v>
+        <v>"TPG":[0,0,1,0,0,0,0,0,1,1,0,1,0,0,0,0],</v>
       </c>
       <c r="C32" s="17"/>
       <c r="D32" s="17"/>
@@ -9926,7 +9948,7 @@
     <row r="33" spans="2:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B33" s="17" t="str">
         <f>K48&amp;":["&amp;K49&amp;K50&amp;K51&amp;K52&amp;K53&amp;K54&amp;K55&amp;K56&amp;K57&amp;K58&amp;K59&amp;K60&amp;K61&amp;K62&amp;K63&amp;K64&amp;"],"</f>
-        <v>"TT":[0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0],</v>
+        <v>"TT":[0,0,1,0,0,0,0,0,1,1,0,1,0,0,0,0],</v>
       </c>
       <c r="C33" s="17"/>
       <c r="D33" s="17"/>
@@ -10397,33 +10419,33 @@
         <f t="shared" si="3"/>
         <v>"Loose Gooses",</v>
       </c>
-      <c r="D49" s="18" t="e">
+      <c r="D49" s="18" t="str">
         <f t="shared" ref="D49:D63" si="4">ROUND(D3,2)&amp;","</f>
-        <v>#DIV/0!</v>
+        <v>0,</v>
       </c>
       <c r="E49" s="18" t="str">
         <f t="shared" ref="E49:E63" si="5">E3&amp;","</f>
         <v>0,</v>
       </c>
-      <c r="F49" s="18" t="e">
+      <c r="F49" s="18" t="str">
         <f t="shared" ref="F49:F63" si="6">ROUND(F3,2)&amp;","</f>
-        <v>#DIV/0!</v>
+        <v>0,</v>
       </c>
       <c r="G49" s="18" t="str">
         <f t="shared" ref="G49:G63" si="7">G3&amp;","</f>
         <v>0,</v>
       </c>
-      <c r="H49" s="18" t="e">
+      <c r="H49" s="18" t="str">
         <f t="shared" ref="H49:H63" si="8">ROUND(H3,2)&amp;","</f>
-        <v>#DIV/0!</v>
+        <v>0,</v>
       </c>
       <c r="I49" s="18" t="str">
         <f t="shared" ref="I49:I63" si="9">I3&amp;","</f>
         <v>0,</v>
       </c>
-      <c r="J49" s="18" t="e">
+      <c r="J49" s="18" t="str">
         <f t="shared" ref="J49:J63" si="10">ROUND(J3,2)&amp;","</f>
-        <v>#DIV/0!</v>
+        <v>0,</v>
       </c>
       <c r="K49" s="18" t="str">
         <f t="shared" ref="K49:K63" si="11">K3&amp;","</f>
@@ -10484,33 +10506,33 @@
         <f t="shared" si="3"/>
         <v>"Loose Gooses",</v>
       </c>
-      <c r="D50" s="18" t="e">
+      <c r="D50" s="18" t="str">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>2,</v>
       </c>
       <c r="E50" s="18" t="str">
         <f t="shared" si="5"/>
-        <v>0,</v>
-      </c>
-      <c r="F50" s="18" t="e">
+        <v>2,</v>
+      </c>
+      <c r="F50" s="18" t="str">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>1,</v>
       </c>
       <c r="G50" s="18" t="str">
         <f t="shared" si="7"/>
-        <v>0,</v>
-      </c>
-      <c r="H50" s="18" t="e">
+        <v>1,</v>
+      </c>
+      <c r="H50" s="18" t="str">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>1,</v>
       </c>
       <c r="I50" s="18" t="str">
         <f t="shared" si="9"/>
+        <v>1,</v>
+      </c>
+      <c r="J50" s="18" t="str">
+        <f t="shared" si="10"/>
         <v>0,</v>
-      </c>
-      <c r="J50" s="18" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
       </c>
       <c r="K50" s="18" t="str">
         <f t="shared" si="11"/>
@@ -10570,37 +10592,37 @@
         <f t="shared" si="3"/>
         <v>"5 Musketeers",</v>
       </c>
-      <c r="D51" s="18" t="e">
+      <c r="D51" s="18" t="str">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>5,</v>
       </c>
       <c r="E51" s="18" t="str">
         <f t="shared" si="5"/>
-        <v>0,</v>
-      </c>
-      <c r="F51" s="18" t="e">
+        <v>5,</v>
+      </c>
+      <c r="F51" s="18" t="str">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>3,</v>
       </c>
       <c r="G51" s="18" t="str">
         <f t="shared" si="7"/>
+        <v>3,</v>
+      </c>
+      <c r="H51" s="18" t="str">
+        <f t="shared" si="8"/>
         <v>0,</v>
-      </c>
-      <c r="H51" s="18" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
       </c>
       <c r="I51" s="18" t="str">
         <f t="shared" si="9"/>
         <v>0,</v>
       </c>
-      <c r="J51" s="18" t="e">
+      <c r="J51" s="18" t="str">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+        <v>1,</v>
       </c>
       <c r="K51" s="18" t="str">
         <f t="shared" si="11"/>
-        <v>0,</v>
+        <v>1,</v>
       </c>
       <c r="L51" s="18" t="str">
         <f t="shared" si="14"/>
@@ -10656,33 +10678,33 @@
         <f t="shared" si="3"/>
         <v>"Wet Willies",</v>
       </c>
-      <c r="D52" s="18" t="e">
+      <c r="D52" s="18" t="str">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>0,</v>
       </c>
       <c r="E52" s="18" t="str">
         <f t="shared" si="5"/>
         <v>0,</v>
       </c>
-      <c r="F52" s="18" t="e">
+      <c r="F52" s="18" t="str">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>0,</v>
       </c>
       <c r="G52" s="18" t="str">
         <f t="shared" si="7"/>
         <v>0,</v>
       </c>
-      <c r="H52" s="18" t="e">
+      <c r="H52" s="18" t="str">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>0,</v>
       </c>
       <c r="I52" s="18" t="str">
         <f t="shared" si="9"/>
         <v>0,</v>
       </c>
-      <c r="J52" s="18" t="e">
+      <c r="J52" s="18" t="str">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+        <v>0,</v>
       </c>
       <c r="K52" s="18" t="str">
         <f t="shared" si="11"/>
@@ -10742,33 +10764,33 @@
         <f t="shared" si="3"/>
         <v>"Wet Willies",</v>
       </c>
-      <c r="D53" s="18" t="e">
+      <c r="D53" s="18" t="str">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>0,</v>
       </c>
       <c r="E53" s="18" t="str">
         <f t="shared" si="5"/>
         <v>0,</v>
       </c>
-      <c r="F53" s="18" t="e">
+      <c r="F53" s="18" t="str">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>0,</v>
       </c>
       <c r="G53" s="18" t="str">
         <f t="shared" si="7"/>
         <v>0,</v>
       </c>
-      <c r="H53" s="18" t="e">
+      <c r="H53" s="18" t="str">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>0,</v>
       </c>
       <c r="I53" s="18" t="str">
         <f t="shared" si="9"/>
         <v>0,</v>
       </c>
-      <c r="J53" s="18" t="e">
+      <c r="J53" s="18" t="str">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+        <v>0,</v>
       </c>
       <c r="K53" s="18" t="str">
         <f t="shared" si="11"/>
@@ -10828,33 +10850,33 @@
         <f t="shared" si="3"/>
         <v>"Wet Willies",</v>
       </c>
-      <c r="D54" s="18" t="e">
+      <c r="D54" s="18" t="str">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>0,</v>
       </c>
       <c r="E54" s="18" t="str">
         <f t="shared" si="5"/>
         <v>0,</v>
       </c>
-      <c r="F54" s="18" t="e">
+      <c r="F54" s="18" t="str">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>0,</v>
       </c>
       <c r="G54" s="18" t="str">
         <f t="shared" si="7"/>
         <v>0,</v>
       </c>
-      <c r="H54" s="18" t="e">
+      <c r="H54" s="18" t="str">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>0,</v>
       </c>
       <c r="I54" s="18" t="str">
         <f t="shared" si="9"/>
         <v>0,</v>
       </c>
-      <c r="J54" s="18" t="e">
+      <c r="J54" s="18" t="str">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+        <v>0,</v>
       </c>
       <c r="K54" s="18" t="str">
         <f t="shared" si="11"/>
@@ -10914,33 +10936,33 @@
         <f t="shared" si="3"/>
         <v>"5 Musketeers",</v>
       </c>
-      <c r="D55" s="18" t="e">
+      <c r="D55" s="18" t="str">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>2,</v>
       </c>
       <c r="E55" s="18" t="str">
         <f t="shared" si="5"/>
-        <v>0,</v>
-      </c>
-      <c r="F55" s="18" t="e">
+        <v>2,</v>
+      </c>
+      <c r="F55" s="18" t="str">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>1,</v>
       </c>
       <c r="G55" s="18" t="str">
         <f t="shared" si="7"/>
-        <v>0,</v>
-      </c>
-      <c r="H55" s="18" t="e">
+        <v>1,</v>
+      </c>
+      <c r="H55" s="18" t="str">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>1,</v>
       </c>
       <c r="I55" s="18" t="str">
         <f t="shared" si="9"/>
+        <v>1,</v>
+      </c>
+      <c r="J55" s="18" t="str">
+        <f t="shared" si="10"/>
         <v>0,</v>
-      </c>
-      <c r="J55" s="18" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
       </c>
       <c r="K55" s="18" t="str">
         <f t="shared" si="11"/>
@@ -11086,37 +11108,37 @@
         <f t="shared" si="3"/>
         <v>"Loose Gooses",</v>
       </c>
-      <c r="D57" s="18" t="e">
+      <c r="D57" s="18" t="str">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>3,</v>
       </c>
       <c r="E57" s="18" t="str">
         <f t="shared" si="5"/>
-        <v>0,</v>
-      </c>
-      <c r="F57" s="18" t="e">
+        <v>3,</v>
+      </c>
+      <c r="F57" s="18" t="str">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>1,</v>
       </c>
       <c r="G57" s="18" t="str">
         <f t="shared" si="7"/>
+        <v>1,</v>
+      </c>
+      <c r="H57" s="18" t="str">
+        <f t="shared" si="8"/>
         <v>0,</v>
-      </c>
-      <c r="H57" s="18" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
       </c>
       <c r="I57" s="18" t="str">
         <f t="shared" si="9"/>
         <v>0,</v>
       </c>
-      <c r="J57" s="18" t="e">
+      <c r="J57" s="18" t="str">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+        <v>1,</v>
       </c>
       <c r="K57" s="18" t="str">
         <f t="shared" si="11"/>
-        <v>0,</v>
+        <v>1,</v>
       </c>
       <c r="L57" s="18" t="str">
         <f t="shared" si="14"/>
@@ -11172,37 +11194,37 @@
         <f t="shared" si="3"/>
         <v>"5 Musketeers",</v>
       </c>
-      <c r="D58" s="18" t="e">
+      <c r="D58" s="18" t="str">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>6,</v>
       </c>
       <c r="E58" s="18" t="str">
         <f t="shared" si="5"/>
+        <v>6,</v>
+      </c>
+      <c r="F58" s="18" t="str">
+        <f t="shared" si="6"/>
         <v>0,</v>
-      </c>
-      <c r="F58" s="18" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
       </c>
       <c r="G58" s="18" t="str">
         <f t="shared" si="7"/>
         <v>0,</v>
       </c>
-      <c r="H58" s="18" t="e">
+      <c r="H58" s="18" t="str">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>4,</v>
       </c>
       <c r="I58" s="18" t="str">
         <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="J58" s="18" t="e">
+        <v>4,</v>
+      </c>
+      <c r="J58" s="18" t="str">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+        <v>1,</v>
       </c>
       <c r="K58" s="18" t="str">
         <f t="shared" si="11"/>
-        <v>0,</v>
+        <v>1,</v>
       </c>
       <c r="L58" s="18" t="str">
         <f t="shared" si="14"/>
@@ -11258,33 +11280,33 @@
         <f t="shared" si="3"/>
         <v>"Wet Willies",</v>
       </c>
-      <c r="D59" s="18" t="e">
+      <c r="D59" s="18" t="str">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>0,</v>
       </c>
       <c r="E59" s="18" t="str">
         <f t="shared" si="5"/>
         <v>0,</v>
       </c>
-      <c r="F59" s="18" t="e">
+      <c r="F59" s="18" t="str">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>0,</v>
       </c>
       <c r="G59" s="18" t="str">
         <f t="shared" si="7"/>
         <v>0,</v>
       </c>
-      <c r="H59" s="18" t="e">
+      <c r="H59" s="18" t="str">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>0,</v>
       </c>
       <c r="I59" s="18" t="str">
         <f t="shared" si="9"/>
         <v>0,</v>
       </c>
-      <c r="J59" s="18" t="e">
+      <c r="J59" s="18" t="str">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+        <v>0,</v>
       </c>
       <c r="K59" s="18" t="str">
         <f t="shared" si="11"/>
@@ -11344,37 +11366,37 @@
         <f t="shared" si="3"/>
         <v>"5 Musketeers",</v>
       </c>
-      <c r="D60" s="18" t="e">
+      <c r="D60" s="18" t="str">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>2,</v>
       </c>
       <c r="E60" s="18" t="str">
         <f t="shared" si="5"/>
+        <v>2,</v>
+      </c>
+      <c r="F60" s="18" t="str">
+        <f t="shared" si="6"/>
         <v>0,</v>
-      </c>
-      <c r="F60" s="18" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
       </c>
       <c r="G60" s="18" t="str">
         <f t="shared" si="7"/>
         <v>0,</v>
       </c>
-      <c r="H60" s="18" t="e">
+      <c r="H60" s="18" t="str">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>0,</v>
       </c>
       <c r="I60" s="18" t="str">
         <f t="shared" si="9"/>
         <v>0,</v>
       </c>
-      <c r="J60" s="18" t="e">
+      <c r="J60" s="18" t="str">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+        <v>1,</v>
       </c>
       <c r="K60" s="18" t="str">
         <f t="shared" si="11"/>
-        <v>0,</v>
+        <v>1,</v>
       </c>
       <c r="L60" s="18" t="str">
         <f t="shared" si="14"/>
@@ -11430,33 +11452,33 @@
         <f t="shared" si="3"/>
         <v>"Loose Gooses",</v>
       </c>
-      <c r="D61" s="18" t="e">
+      <c r="D61" s="18" t="str">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>1,</v>
       </c>
       <c r="E61" s="18" t="str">
         <f t="shared" si="5"/>
+        <v>1,</v>
+      </c>
+      <c r="F61" s="18" t="str">
+        <f t="shared" si="6"/>
         <v>0,</v>
-      </c>
-      <c r="F61" s="18" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
       </c>
       <c r="G61" s="18" t="str">
         <f t="shared" si="7"/>
         <v>0,</v>
       </c>
-      <c r="H61" s="18" t="e">
+      <c r="H61" s="18" t="str">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>1,</v>
       </c>
       <c r="I61" s="18" t="str">
         <f t="shared" si="9"/>
+        <v>1,</v>
+      </c>
+      <c r="J61" s="18" t="str">
+        <f t="shared" si="10"/>
         <v>0,</v>
-      </c>
-      <c r="J61" s="18" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
       </c>
       <c r="K61" s="18" t="str">
         <f t="shared" si="11"/>
@@ -11516,33 +11538,33 @@
         <f t="shared" si="3"/>
         <v>"Loose Gooses",</v>
       </c>
-      <c r="D62" s="18" t="e">
+      <c r="D62" s="18" t="str">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>0,</v>
       </c>
       <c r="E62" s="18" t="str">
         <f t="shared" si="5"/>
         <v>0,</v>
       </c>
-      <c r="F62" s="18" t="e">
+      <c r="F62" s="18" t="str">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>0,</v>
       </c>
       <c r="G62" s="18" t="str">
         <f t="shared" si="7"/>
         <v>0,</v>
       </c>
-      <c r="H62" s="18" t="e">
+      <c r="H62" s="18" t="str">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>0,</v>
       </c>
       <c r="I62" s="18" t="str">
         <f t="shared" si="9"/>
         <v>0,</v>
       </c>
-      <c r="J62" s="18" t="e">
+      <c r="J62" s="18" t="str">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+        <v>0,</v>
       </c>
       <c r="K62" s="18" t="str">
         <f t="shared" si="11"/>
@@ -11602,33 +11624,33 @@
         <f t="shared" si="3"/>
         <v>"Wet Willies",</v>
       </c>
-      <c r="D63" s="18" t="e">
+      <c r="D63" s="18" t="str">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>0,</v>
       </c>
       <c r="E63" s="18" t="str">
         <f t="shared" si="5"/>
         <v>0,</v>
       </c>
-      <c r="F63" s="18" t="e">
+      <c r="F63" s="18" t="str">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>0,</v>
       </c>
       <c r="G63" s="18" t="str">
         <f t="shared" si="7"/>
         <v>0,</v>
       </c>
-      <c r="H63" s="18" t="e">
+      <c r="H63" s="18" t="str">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>0,</v>
       </c>
       <c r="I63" s="18" t="str">
         <f t="shared" si="9"/>
         <v>0,</v>
       </c>
-      <c r="J63" s="18" t="e">
+      <c r="J63" s="18" t="str">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+        <v>0,</v>
       </c>
       <c r="K63" s="18" t="str">
         <f t="shared" si="11"/>
@@ -11688,33 +11710,33 @@
         <f>CHAR(34)&amp;C18&amp;CHAR(34)</f>
         <v>"5 Musketeers"</v>
       </c>
-      <c r="D64" s="18" t="e">
+      <c r="D64" s="18">
         <f>ROUND(D18,2)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="E64" s="18">
         <f>E18</f>
         <v>0</v>
       </c>
-      <c r="F64" s="18" t="e">
+      <c r="F64" s="18">
         <f>ROUND(F18,2)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="G64" s="18">
         <f>G18</f>
         <v>0</v>
       </c>
-      <c r="H64" s="18" t="e">
+      <c r="H64" s="18">
         <f>ROUND(H18,2)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="I64" s="18">
         <f>I18</f>
         <v>0</v>
       </c>
-      <c r="J64" s="18" t="e">
+      <c r="J64" s="18">
         <f>ROUND(J18,2)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K64" s="18">
         <f>K18</f>
@@ -12715,7 +12737,10 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:AT1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
@@ -12805,22 +12830,70 @@
       </c>
     </row>
     <row r="5" spans="2:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="115"/>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="117"/>
-      <c r="H5" s="117"/>
-      <c r="I5" s="117"/>
-      <c r="J5" s="117"/>
-      <c r="K5" s="117"/>
-      <c r="L5" s="117"/>
-      <c r="M5" s="117"/>
-      <c r="N5" s="117"/>
-      <c r="O5" s="117"/>
-      <c r="P5" s="117"/>
-      <c r="Q5" s="117"/>
+      <c r="B5" s="129" t="str">
+        <f>'Preseason 1'!B45</f>
+        <v>11-July</v>
+      </c>
+      <c r="C5" s="129">
+        <f>'Preseason 1'!C45</f>
+        <v>12</v>
+      </c>
+      <c r="D5" s="129">
+        <f>'Preseason 1'!D45</f>
+        <v>5</v>
+      </c>
+      <c r="E5" s="129">
+        <f>'Preseason 1'!E45</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="129">
+        <f>'Preseason 1'!F45</f>
+        <v>5</v>
+      </c>
+      <c r="G5" s="129">
+        <f>'Preseason 1'!G45</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="129">
+        <f>'Preseason 1'!H45</f>
+        <v>6</v>
+      </c>
+      <c r="I5" s="129">
+        <f>'Preseason 1'!I45</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="129">
+        <f>'Preseason 1'!J45</f>
+        <v>2</v>
+      </c>
+      <c r="K5" s="129">
+        <f>'Preseason 1'!K45</f>
+        <v>6</v>
+      </c>
+      <c r="L5" s="129">
+        <f>'Preseason 1'!L45</f>
+        <v>12</v>
+      </c>
+      <c r="M5" s="129">
+        <f>'Preseason 1'!M45</f>
+        <v>3</v>
+      </c>
+      <c r="N5" s="129">
+        <f>'Preseason 1'!N45</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="129">
+        <f>'Preseason 1'!O45</f>
+        <v>2</v>
+      </c>
+      <c r="P5" s="129">
+        <f>'Preseason 1'!P45</f>
+        <v>1</v>
+      </c>
+      <c r="Q5" s="129">
+        <f>'Preseason 1'!Q45</f>
+        <v>3</v>
+      </c>
       <c r="S5" s="1" t="s">
         <v>81</v>
       </c>
@@ -12854,28 +12927,28 @@
       <c r="O6" s="117"/>
       <c r="P6" s="117"/>
       <c r="Q6" s="117"/>
-      <c r="S6" s="5" t="e">
+      <c r="S6" s="5">
         <f>AVERAGE(C5:C30)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T6" s="1" t="e">
+        <v>12</v>
+      </c>
+      <c r="T6" s="130">
+        <f>AVERAGE(C5:C30)</f>
+        <v>12</v>
+      </c>
+      <c r="U6" s="130">
         <f>AVERAGE(D5:D30)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U6" s="1" t="e">
+        <v>5</v>
+      </c>
+      <c r="V6" s="130">
         <f>AVERAGE(E5:E30)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V6" s="1" t="e">
-        <f>AVERAGE(F5:F30)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="74" t="s">
         <v>169</v>
       </c>
       <c r="AA6" s="1">
         <f>AA27+AA46+AA65+AL27+AL46+AL65+AA84+AL84</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK6" s="30"/>
       <c r="AL6" s="30"/>
@@ -12906,17 +12979,17 @@
       <c r="S7" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="T7" s="6" t="e">
+      <c r="T7" s="6">
         <f>T6/$S$6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U7" s="6" t="e">
+        <v>1</v>
+      </c>
+      <c r="U7" s="6">
         <f>U6/$S$6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V7" s="6" t="e">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="V7" s="6">
         <f>V6/$S$6</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="21" t="s">
         <v>84</v>
@@ -12983,33 +13056,33 @@
         <f>SUM(AA29,AL29,AA49,AL49,AA69,AL69,AA89,AL89)</f>
         <v>0</v>
       </c>
-      <c r="AB8" s="70" t="e">
-        <f>Table1[[#This Row],[Points]]/($AA$6-Table1[[#This Row],[Missed Games]])</f>
-        <v>#DIV/0!</v>
+      <c r="AB8" s="70">
+        <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Points]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
+        <v>0</v>
       </c>
       <c r="AC8" s="71">
         <f>SUM(AB29,AM29,AB49,AM49,AB69,AM69,AB89,AM89)</f>
         <v>0</v>
       </c>
-      <c r="AD8" s="72" t="e">
-        <f>Table1[[#This Row],[Finishes]]/($AA$6-Table1[[#This Row],[Missed Games]])</f>
-        <v>#DIV/0!</v>
+      <c r="AD8" s="72">
+        <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Finishes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
+        <v>0</v>
       </c>
       <c r="AE8" s="71">
         <f>SUM(AC29,AN29,AC49,AN49,AC69,AN69,AC89,AN89)</f>
         <v>0</v>
       </c>
-      <c r="AF8" s="72" t="e">
-        <f>Table1[[#This Row],[Midranges]]/($AA$6-Table1[[#This Row],[Missed Games]])</f>
-        <v>#DIV/0!</v>
+      <c r="AF8" s="72">
+        <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Midranges]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
+        <v>0</v>
       </c>
       <c r="AG8" s="71">
         <f>SUM(AD29,AO29,AD49,AO49,AD69,AO69,AD89,AO89)</f>
         <v>0</v>
       </c>
-      <c r="AH8" s="72" t="e">
-        <f>Table1[[#This Row],[Threes]]/($AA$6-Table1[[#This Row],[Missed Games]])</f>
-        <v>#DIV/0!</v>
+      <c r="AH8" s="72">
+        <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Threes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
+        <v>0</v>
       </c>
       <c r="AI8" s="68" t="str">
         <f>SfW!C3</f>
@@ -13050,35 +13123,35 @@
       </c>
       <c r="AA9" s="69">
         <f t="shared" ref="AA9:AA24" si="0">SUM(AA30,AL30,AA50,AL50,AA70,AL70,AA90,AL90)</f>
-        <v>0</v>
-      </c>
-      <c r="AB9" s="70" t="e">
-        <f>Table1[[#This Row],[Points]]/($AA$6-Table1[[#This Row],[Missed Games]])</f>
-        <v>#DIV/0!</v>
+        <v>2</v>
+      </c>
+      <c r="AB9" s="70">
+        <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Points]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
+        <v>2</v>
       </c>
       <c r="AC9" s="71">
         <f t="shared" ref="AC9:AC24" si="1">SUM(AB30,AM30,AB50,AM50,AB70,AM70,AB90,AM90)</f>
-        <v>0</v>
-      </c>
-      <c r="AD9" s="72" t="e">
-        <f>Table1[[#This Row],[Finishes]]/($AA$6-Table1[[#This Row],[Missed Games]])</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
+      </c>
+      <c r="AD9" s="72">
+        <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Finishes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
+        <v>1</v>
       </c>
       <c r="AE9" s="71">
         <f t="shared" ref="AE9:AE24" si="2">SUM(AC30,AN30,AC50,AN50,AC70,AN70,AC90,AN90)</f>
-        <v>0</v>
-      </c>
-      <c r="AF9" s="72" t="e">
-        <f>Table1[[#This Row],[Midranges]]/($AA$6-Table1[[#This Row],[Missed Games]])</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
+      </c>
+      <c r="AF9" s="72">
+        <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Midranges]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
+        <v>1</v>
       </c>
       <c r="AG9" s="71">
         <f t="shared" ref="AG9:AG24" si="3">SUM(AD30,AO30,AD50,AO50,AD70,AO70,AD90,AO90)</f>
         <v>0</v>
       </c>
-      <c r="AH9" s="72" t="e">
-        <f>Table1[[#This Row],[Threes]]/($AA$6-Table1[[#This Row],[Missed Games]])</f>
-        <v>#DIV/0!</v>
+      <c r="AH9" s="72">
+        <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Threes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
+        <v>0</v>
       </c>
       <c r="AI9" s="68" t="str">
         <f>SfW!C4</f>
@@ -13119,35 +13192,35 @@
       </c>
       <c r="AA10" s="69">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB10" s="70" t="e">
-        <f>Table1[[#This Row],[Points]]/($AA$6-Table1[[#This Row],[Missed Games]])</f>
-        <v>#DIV/0!</v>
+        <v>5</v>
+      </c>
+      <c r="AB10" s="70">
+        <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Points]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
+        <v>5</v>
       </c>
       <c r="AC10" s="71">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD10" s="72" t="e">
-        <f>Table1[[#This Row],[Finishes]]/($AA$6-Table1[[#This Row],[Missed Games]])</f>
-        <v>#DIV/0!</v>
+        <v>3</v>
+      </c>
+      <c r="AD10" s="72">
+        <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Finishes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
+        <v>3</v>
       </c>
       <c r="AE10" s="71">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AF10" s="72" t="e">
-        <f>Table1[[#This Row],[Midranges]]/($AA$6-Table1[[#This Row],[Missed Games]])</f>
-        <v>#DIV/0!</v>
+      <c r="AF10" s="72">
+        <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Midranges]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
+        <v>0</v>
       </c>
       <c r="AG10" s="71">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AH10" s="72" t="e">
-        <f>Table1[[#This Row],[Threes]]/($AA$6-Table1[[#This Row],[Missed Games]])</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
+      </c>
+      <c r="AH10" s="72">
+        <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Threes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
+        <v>1</v>
       </c>
       <c r="AI10" s="68" t="str">
         <f>SfW!C5</f>
@@ -13190,33 +13263,33 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB11" s="70" t="e">
-        <f>Table1[[#This Row],[Points]]/($AA$6-Table1[[#This Row],[Missed Games]])</f>
-        <v>#DIV/0!</v>
+      <c r="AB11" s="70">
+        <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Points]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
+        <v>0</v>
       </c>
       <c r="AC11" s="71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD11" s="72" t="e">
-        <f>Table1[[#This Row],[Finishes]]/($AA$6-Table1[[#This Row],[Missed Games]])</f>
-        <v>#DIV/0!</v>
+      <c r="AD11" s="72">
+        <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Finishes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
+        <v>0</v>
       </c>
       <c r="AE11" s="71">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AF11" s="72" t="e">
-        <f>Table1[[#This Row],[Midranges]]/($AA$6-Table1[[#This Row],[Missed Games]])</f>
-        <v>#DIV/0!</v>
+      <c r="AF11" s="72">
+        <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Midranges]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
+        <v>0</v>
       </c>
       <c r="AG11" s="71">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AH11" s="72" t="e">
-        <f>Table1[[#This Row],[Threes]]/($AA$6-Table1[[#This Row],[Missed Games]])</f>
-        <v>#DIV/0!</v>
+      <c r="AH11" s="72">
+        <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Threes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
+        <v>0</v>
       </c>
       <c r="AI11" s="68" t="str">
         <f>SfW!C6</f>
@@ -13224,7 +13297,7 @@
       </c>
       <c r="AJ11" s="73">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK11" s="67"/>
       <c r="AL11" s="67"/>
@@ -13258,33 +13331,33 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB12" s="70" t="e">
-        <f>Table1[[#This Row],[Points]]/($AA$6-Table1[[#This Row],[Missed Games]])</f>
-        <v>#DIV/0!</v>
+      <c r="AB12" s="70">
+        <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Points]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
+        <v>0</v>
       </c>
       <c r="AC12" s="71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD12" s="72" t="e">
-        <f>Table1[[#This Row],[Finishes]]/($AA$6-Table1[[#This Row],[Missed Games]])</f>
-        <v>#DIV/0!</v>
+      <c r="AD12" s="72">
+        <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Finishes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
+        <v>0</v>
       </c>
       <c r="AE12" s="71">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AF12" s="72" t="e">
-        <f>Table1[[#This Row],[Midranges]]/($AA$6-Table1[[#This Row],[Missed Games]])</f>
-        <v>#DIV/0!</v>
+      <c r="AF12" s="72">
+        <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Midranges]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
+        <v>0</v>
       </c>
       <c r="AG12" s="71">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AH12" s="72" t="e">
-        <f>Table1[[#This Row],[Threes]]/($AA$6-Table1[[#This Row],[Missed Games]])</f>
-        <v>#DIV/0!</v>
+      <c r="AH12" s="72">
+        <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Threes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
+        <v>0</v>
       </c>
       <c r="AI12" s="68" t="str">
         <f>SfW!C7</f>
@@ -13326,33 +13399,33 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB13" s="70" t="e">
-        <f>Table1[[#This Row],[Points]]/($AA$6-Table1[[#This Row],[Missed Games]])</f>
-        <v>#DIV/0!</v>
+      <c r="AB13" s="70">
+        <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Points]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
+        <v>0</v>
       </c>
       <c r="AC13" s="71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD13" s="72" t="e">
-        <f>Table1[[#This Row],[Finishes]]/($AA$6-Table1[[#This Row],[Missed Games]])</f>
-        <v>#DIV/0!</v>
+      <c r="AD13" s="72">
+        <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Finishes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
+        <v>0</v>
       </c>
       <c r="AE13" s="71">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AF13" s="72" t="e">
-        <f>Table1[[#This Row],[Midranges]]/($AA$6-Table1[[#This Row],[Missed Games]])</f>
-        <v>#DIV/0!</v>
+      <c r="AF13" s="72">
+        <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Midranges]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
+        <v>0</v>
       </c>
       <c r="AG13" s="71">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AH13" s="72" t="e">
-        <f>Table1[[#This Row],[Threes]]/($AA$6-Table1[[#This Row],[Missed Games]])</f>
-        <v>#DIV/0!</v>
+      <c r="AH13" s="72">
+        <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Threes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
+        <v>0</v>
       </c>
       <c r="AI13" s="68" t="str">
         <f>SfW!C8</f>
@@ -13392,35 +13465,35 @@
       </c>
       <c r="AA14" s="69">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB14" s="70" t="e">
-        <f>Table1[[#This Row],[Points]]/($AA$6-Table1[[#This Row],[Missed Games]])</f>
-        <v>#DIV/0!</v>
+        <v>2</v>
+      </c>
+      <c r="AB14" s="70">
+        <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Points]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
+        <v>2</v>
       </c>
       <c r="AC14" s="71">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD14" s="72" t="e">
-        <f>Table1[[#This Row],[Finishes]]/($AA$6-Table1[[#This Row],[Missed Games]])</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
+      </c>
+      <c r="AD14" s="72">
+        <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Finishes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
+        <v>1</v>
       </c>
       <c r="AE14" s="71">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AF14" s="72" t="e">
-        <f>Table1[[#This Row],[Midranges]]/($AA$6-Table1[[#This Row],[Missed Games]])</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
+      </c>
+      <c r="AF14" s="72">
+        <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Midranges]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
+        <v>1</v>
       </c>
       <c r="AG14" s="71">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AH14" s="72" t="e">
-        <f>Table1[[#This Row],[Threes]]/($AA$6-Table1[[#This Row],[Missed Games]])</f>
-        <v>#DIV/0!</v>
+      <c r="AH14" s="72">
+        <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Threes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
+        <v>0</v>
       </c>
       <c r="AI14" s="68" t="str">
         <f>SfW!C9</f>
@@ -13463,7 +13536,7 @@
         <v>0</v>
       </c>
       <c r="AB15" s="70">
-        <f>Table1[[#This Row],[Points]]/($AA$6-Table1[[#This Row],[Missed Games]])</f>
+        <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Points]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
         <v>0</v>
       </c>
       <c r="AC15" s="71">
@@ -13471,7 +13544,7 @@
         <v>0</v>
       </c>
       <c r="AD15" s="72">
-        <f>Table1[[#This Row],[Finishes]]/($AA$6-Table1[[#This Row],[Missed Games]])</f>
+        <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Finishes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
         <v>0</v>
       </c>
       <c r="AE15" s="71">
@@ -13479,7 +13552,7 @@
         <v>0</v>
       </c>
       <c r="AF15" s="72">
-        <f>Table1[[#This Row],[Midranges]]/($AA$6-Table1[[#This Row],[Missed Games]])</f>
+        <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Midranges]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
         <v>0</v>
       </c>
       <c r="AG15" s="71">
@@ -13487,7 +13560,7 @@
         <v>0</v>
       </c>
       <c r="AH15" s="72">
-        <f>Table1[[#This Row],[Threes]]/($AA$6-Table1[[#This Row],[Missed Games]])</f>
+        <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Threes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
         <v>0</v>
       </c>
       <c r="AI15" s="68" t="str">
@@ -13496,7 +13569,7 @@
       </c>
       <c r="AJ15" s="73">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK15" s="67"/>
       <c r="AL15" s="67"/>
@@ -13528,35 +13601,35 @@
       </c>
       <c r="AA16" s="69">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB16" s="70" t="e">
-        <f>Table1[[#This Row],[Points]]/($AA$6-Table1[[#This Row],[Missed Games]])</f>
-        <v>#DIV/0!</v>
+        <v>3</v>
+      </c>
+      <c r="AB16" s="70">
+        <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Points]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
+        <v>3</v>
       </c>
       <c r="AC16" s="71">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD16" s="72" t="e">
-        <f>Table1[[#This Row],[Finishes]]/($AA$6-Table1[[#This Row],[Missed Games]])</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
+      </c>
+      <c r="AD16" s="72">
+        <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Finishes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
+        <v>1</v>
       </c>
       <c r="AE16" s="71">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AF16" s="72" t="e">
-        <f>Table1[[#This Row],[Midranges]]/($AA$6-Table1[[#This Row],[Missed Games]])</f>
-        <v>#DIV/0!</v>
+      <c r="AF16" s="72">
+        <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Midranges]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
+        <v>0</v>
       </c>
       <c r="AG16" s="71">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AH16" s="72" t="e">
-        <f>Table1[[#This Row],[Threes]]/($AA$6-Table1[[#This Row],[Missed Games]])</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
+      </c>
+      <c r="AH16" s="72">
+        <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Threes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
+        <v>1</v>
       </c>
       <c r="AI16" s="68" t="str">
         <f>SfW!C11</f>
@@ -13596,35 +13669,35 @@
       </c>
       <c r="AA17" s="69">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB17" s="70" t="e">
-        <f>Table1[[#This Row],[Points]]/($AA$6-Table1[[#This Row],[Missed Games]])</f>
-        <v>#DIV/0!</v>
+        <v>6</v>
+      </c>
+      <c r="AB17" s="70">
+        <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Points]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
+        <v>6</v>
       </c>
       <c r="AC17" s="71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD17" s="72" t="e">
-        <f>Table1[[#This Row],[Finishes]]/($AA$6-Table1[[#This Row],[Missed Games]])</f>
-        <v>#DIV/0!</v>
+      <c r="AD17" s="72">
+        <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Finishes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
+        <v>0</v>
       </c>
       <c r="AE17" s="71">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AF17" s="72" t="e">
-        <f>Table1[[#This Row],[Midranges]]/($AA$6-Table1[[#This Row],[Missed Games]])</f>
-        <v>#DIV/0!</v>
+        <v>4</v>
+      </c>
+      <c r="AF17" s="72">
+        <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Midranges]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
+        <v>4</v>
       </c>
       <c r="AG17" s="71">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AH17" s="72" t="e">
-        <f>Table1[[#This Row],[Threes]]/($AA$6-Table1[[#This Row],[Missed Games]])</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
+      </c>
+      <c r="AH17" s="72">
+        <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Threes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
+        <v>1</v>
       </c>
       <c r="AI17" s="68" t="str">
         <f>SfW!C12</f>
@@ -13666,33 +13739,33 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB18" s="70" t="e">
-        <f>Table1[[#This Row],[Points]]/($AA$6-Table1[[#This Row],[Missed Games]])</f>
-        <v>#DIV/0!</v>
+      <c r="AB18" s="70">
+        <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Points]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
+        <v>0</v>
       </c>
       <c r="AC18" s="71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD18" s="72" t="e">
-        <f>Table1[[#This Row],[Finishes]]/($AA$6-Table1[[#This Row],[Missed Games]])</f>
-        <v>#DIV/0!</v>
+      <c r="AD18" s="72">
+        <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Finishes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
+        <v>0</v>
       </c>
       <c r="AE18" s="71">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AF18" s="72" t="e">
-        <f>Table1[[#This Row],[Midranges]]/($AA$6-Table1[[#This Row],[Missed Games]])</f>
-        <v>#DIV/0!</v>
+      <c r="AF18" s="72">
+        <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Midranges]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
+        <v>0</v>
       </c>
       <c r="AG18" s="71">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AH18" s="72" t="e">
-        <f>Table1[[#This Row],[Threes]]/($AA$6-Table1[[#This Row],[Missed Games]])</f>
-        <v>#DIV/0!</v>
+      <c r="AH18" s="72">
+        <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Threes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
+        <v>0</v>
       </c>
       <c r="AI18" s="68" t="str">
         <f>SfW!C13</f>
@@ -13734,40 +13807,40 @@
         <f t="shared" ref="AA19" si="5">SUM(AA40,AL40,AA60,AL60,AA80,AL80,AA100,AL100)</f>
         <v>0</v>
       </c>
-      <c r="AB19" s="70" t="e">
-        <f>Table1[[#This Row],[Points]]/($AA$6-Table1[[#This Row],[Missed Games]])</f>
-        <v>#DIV/0!</v>
+      <c r="AB19" s="70">
+        <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Points]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
+        <v>0</v>
       </c>
       <c r="AC19" s="71">
         <f t="shared" ref="AC19" si="6">SUM(AB40,AM40,AB60,AM60,AB80,AM80,AB100,AM100)</f>
         <v>0</v>
       </c>
-      <c r="AD19" s="72" t="e">
-        <f>Table1[[#This Row],[Finishes]]/($AA$6-Table1[[#This Row],[Missed Games]])</f>
-        <v>#DIV/0!</v>
+      <c r="AD19" s="72">
+        <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Finishes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
+        <v>0</v>
       </c>
       <c r="AE19" s="71">
         <f t="shared" ref="AE19" si="7">SUM(AC40,AN40,AC60,AN60,AC80,AN80,AC100,AN100)</f>
         <v>0</v>
       </c>
-      <c r="AF19" s="72" t="e">
-        <f>Table1[[#This Row],[Midranges]]/($AA$6-Table1[[#This Row],[Missed Games]])</f>
-        <v>#DIV/0!</v>
+      <c r="AF19" s="72">
+        <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Midranges]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
+        <v>0</v>
       </c>
       <c r="AG19" s="71">
         <f t="shared" ref="AG19" si="8">SUM(AD40,AO40,AD60,AO60,AD80,AO80,AD100,AO100)</f>
         <v>0</v>
       </c>
-      <c r="AH19" s="72" t="e">
-        <f>Table1[[#This Row],[Threes]]/($AA$6-Table1[[#This Row],[Missed Games]])</f>
-        <v>#DIV/0!</v>
+      <c r="AH19" s="72">
+        <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Threes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
+        <v>0</v>
       </c>
       <c r="AI19" s="68" t="s">
         <v>31</v>
       </c>
       <c r="AJ19" s="73">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK19" s="67"/>
       <c r="AL19" s="67"/>
@@ -13799,35 +13872,35 @@
       </c>
       <c r="AA20" s="69">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB20" s="70" t="e">
-        <f>Table1[[#This Row],[Points]]/($AA$6-Table1[[#This Row],[Missed Games]])</f>
-        <v>#DIV/0!</v>
+        <v>2</v>
+      </c>
+      <c r="AB20" s="70">
+        <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Points]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
+        <v>2</v>
       </c>
       <c r="AC20" s="71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD20" s="125" t="e">
-        <f>Table1[[#This Row],[Finishes]]/($AA$6-Table1[[#This Row],[Missed Games]])</f>
-        <v>#DIV/0!</v>
+      <c r="AD20" s="125">
+        <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Finishes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
+        <v>0</v>
       </c>
       <c r="AE20" s="71">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AF20" s="125" t="e">
-        <f>Table1[[#This Row],[Midranges]]/($AA$6-Table1[[#This Row],[Missed Games]])</f>
-        <v>#DIV/0!</v>
+      <c r="AF20" s="125">
+        <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Midranges]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
+        <v>0</v>
       </c>
       <c r="AG20" s="71">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AH20" s="125" t="e">
-        <f>Table1[[#This Row],[Threes]]/($AA$6-Table1[[#This Row],[Missed Games]])</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
+      </c>
+      <c r="AH20" s="125">
+        <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Threes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
+        <v>1</v>
       </c>
       <c r="AI20" s="122" t="str">
         <f>SfW!C14</f>
@@ -13867,35 +13940,35 @@
       </c>
       <c r="AA21" s="69">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB21" s="70" t="e">
-        <f>Table1[[#This Row],[Points]]/($AA$6-Table1[[#This Row],[Missed Games]])</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
+      </c>
+      <c r="AB21" s="70">
+        <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Points]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
+        <v>1</v>
       </c>
       <c r="AC21" s="71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD21" s="125" t="e">
-        <f>Table1[[#This Row],[Finishes]]/($AA$6-Table1[[#This Row],[Missed Games]])</f>
-        <v>#DIV/0!</v>
+      <c r="AD21" s="125">
+        <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Finishes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
+        <v>0</v>
       </c>
       <c r="AE21" s="71">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AF21" s="125" t="e">
-        <f>Table1[[#This Row],[Midranges]]/($AA$6-Table1[[#This Row],[Missed Games]])</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
+      </c>
+      <c r="AF21" s="125">
+        <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Midranges]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
+        <v>1</v>
       </c>
       <c r="AG21" s="71">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AH21" s="125" t="e">
-        <f>Table1[[#This Row],[Threes]]/($AA$6-Table1[[#This Row],[Missed Games]])</f>
-        <v>#DIV/0!</v>
+      <c r="AH21" s="125">
+        <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Threes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
+        <v>0</v>
       </c>
       <c r="AI21" s="122" t="str">
         <f>SfW!C15</f>
@@ -13937,33 +14010,33 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB22" s="70" t="e">
-        <f>Table1[[#This Row],[Points]]/($AA$6-Table1[[#This Row],[Missed Games]])</f>
-        <v>#DIV/0!</v>
+      <c r="AB22" s="70">
+        <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Points]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
+        <v>0</v>
       </c>
       <c r="AC22" s="71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD22" s="125" t="e">
-        <f>Table1[[#This Row],[Finishes]]/($AA$6-Table1[[#This Row],[Missed Games]])</f>
-        <v>#DIV/0!</v>
+      <c r="AD22" s="125">
+        <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Finishes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
+        <v>0</v>
       </c>
       <c r="AE22" s="71">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AF22" s="125" t="e">
-        <f>Table1[[#This Row],[Midranges]]/($AA$6-Table1[[#This Row],[Missed Games]])</f>
-        <v>#DIV/0!</v>
+      <c r="AF22" s="125">
+        <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Midranges]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
+        <v>0</v>
       </c>
       <c r="AG22" s="71">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AH22" s="125" t="e">
-        <f>Table1[[#This Row],[Threes]]/($AA$6-Table1[[#This Row],[Missed Games]])</f>
-        <v>#DIV/0!</v>
+      <c r="AH22" s="125">
+        <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Threes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
+        <v>0</v>
       </c>
       <c r="AI22" s="122" t="str">
         <f>SfW!C16</f>
@@ -14005,33 +14078,33 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB23" s="124" t="e">
-        <f>Table1[[#This Row],[Points]]/($AA$6-Table1[[#This Row],[Missed Games]])</f>
-        <v>#DIV/0!</v>
+      <c r="AB23" s="124">
+        <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Points]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
+        <v>0</v>
       </c>
       <c r="AC23" s="71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD23" s="126" t="e">
-        <f>Table1[[#This Row],[Finishes]]/($AA$6-Table1[[#This Row],[Missed Games]])</f>
-        <v>#DIV/0!</v>
+      <c r="AD23" s="126">
+        <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Finishes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
+        <v>0</v>
       </c>
       <c r="AE23" s="71">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AF23" s="126" t="e">
-        <f>Table1[[#This Row],[Midranges]]/($AA$6-Table1[[#This Row],[Missed Games]])</f>
-        <v>#DIV/0!</v>
+      <c r="AF23" s="126">
+        <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Midranges]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
+        <v>0</v>
       </c>
       <c r="AG23" s="71">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AH23" s="126" t="e">
-        <f>Table1[[#This Row],[Threes]]/($AA$6-Table1[[#This Row],[Missed Games]])</f>
-        <v>#DIV/0!</v>
+      <c r="AH23" s="126">
+        <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Threes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
+        <v>0</v>
       </c>
       <c r="AI23" s="123" t="str">
         <f>SfW!C17</f>
@@ -14072,33 +14145,33 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB24" s="70" t="e">
-        <f>Table1[[#This Row],[Points]]/($AA$6-Table1[[#This Row],[Missed Games]])</f>
-        <v>#DIV/0!</v>
+      <c r="AB24" s="70">
+        <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Points]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
+        <v>0</v>
       </c>
       <c r="AC24" s="71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD24" s="72" t="e">
-        <f>Table1[[#This Row],[Finishes]]/($AA$6-Table1[[#This Row],[Missed Games]])</f>
-        <v>#DIV/0!</v>
+      <c r="AD24" s="72">
+        <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Finishes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
+        <v>0</v>
       </c>
       <c r="AE24" s="71">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AF24" s="72" t="e">
-        <f>Table1[[#This Row],[Midranges]]/($AA$6-Table1[[#This Row],[Missed Games]])</f>
-        <v>#DIV/0!</v>
+      <c r="AF24" s="72">
+        <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Midranges]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
+        <v>0</v>
       </c>
       <c r="AG24" s="71">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AH24" s="72" t="e">
-        <f>Table1[[#This Row],[Threes]]/($AA$6-Table1[[#This Row],[Missed Games]])</f>
-        <v>#DIV/0!</v>
+      <c r="AH24" s="72">
+        <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Threes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
+        <v>0</v>
       </c>
       <c r="AI24" s="68" t="str">
         <f>SfW!C18</f>
@@ -14179,7 +14252,7 @@
         <v>167</v>
       </c>
       <c r="AA27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI27" s="3"/>
       <c r="AK27" s="49" t="s">
@@ -14313,36 +14386,36 @@
         <v>45</v>
       </c>
       <c r="AA29" s="32">
-        <f>Template!R3</f>
+        <f>'Preseason 1'!R3</f>
         <v>0</v>
       </c>
       <c r="AB29" s="32">
-        <f>Template!S3</f>
+        <f>'Preseason 1'!S3</f>
         <v>0</v>
       </c>
       <c r="AC29" s="32">
-        <f>Template!T3</f>
+        <f>'Preseason 1'!T3</f>
         <v>0</v>
       </c>
       <c r="AD29" s="32">
-        <f>Template!U3</f>
-        <v>0</v>
-      </c>
-      <c r="AE29" s="34" t="e">
+        <f>'Preseason 1'!U3</f>
+        <v>0</v>
+      </c>
+      <c r="AE29" s="34">
         <f t="shared" ref="AE29:AE39" si="9">AA29/$AA$27</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF29" s="35" t="e">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="35">
         <f t="shared" ref="AF29:AF39" si="10">AB29/$AA$27</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG29" s="34" t="e">
+        <v>0</v>
+      </c>
+      <c r="AG29" s="34">
         <f t="shared" ref="AG29:AG39" si="11">AC29/$AA$27</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH29" s="35" t="e">
+        <v>0</v>
+      </c>
+      <c r="AH29" s="35">
         <f t="shared" ref="AH29:AH39" si="12">AD29/$AA$27</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="AI29" s="36">
         <f>COUNTIF(Template!V3, "TRUE")</f>
@@ -14387,36 +14460,36 @@
         <v>49</v>
       </c>
       <c r="AA30" s="32">
-        <f>Template!R4</f>
-        <v>0</v>
+        <f>'Preseason 1'!R4</f>
+        <v>2</v>
       </c>
       <c r="AB30" s="32">
-        <f>Template!S4</f>
-        <v>0</v>
+        <f>'Preseason 1'!S4</f>
+        <v>1</v>
       </c>
       <c r="AC30" s="32">
-        <f>Template!T4</f>
-        <v>0</v>
+        <f>'Preseason 1'!T4</f>
+        <v>1</v>
       </c>
       <c r="AD30" s="32">
-        <f>Template!U4</f>
-        <v>0</v>
-      </c>
-      <c r="AE30" s="34" t="e">
+        <f>'Preseason 1'!U4</f>
+        <v>0</v>
+      </c>
+      <c r="AE30" s="34">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF30" s="35" t="e">
+        <v>2</v>
+      </c>
+      <c r="AF30" s="35">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG30" s="34" t="e">
+        <v>1</v>
+      </c>
+      <c r="AG30" s="34">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH30" s="35" t="e">
+        <v>1</v>
+      </c>
+      <c r="AH30" s="35">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="AI30" s="36">
         <f>COUNTIF(Template!V4, "TRUE")</f>
@@ -14461,36 +14534,36 @@
         <v>51</v>
       </c>
       <c r="AA31" s="32">
-        <f>Template!R5</f>
-        <v>0</v>
+        <f>'Preseason 1'!R5</f>
+        <v>5</v>
       </c>
       <c r="AB31" s="32">
-        <f>Template!S5</f>
-        <v>0</v>
+        <f>'Preseason 1'!S5</f>
+        <v>3</v>
       </c>
       <c r="AC31" s="32">
-        <f>Template!T5</f>
+        <f>'Preseason 1'!T5</f>
         <v>0</v>
       </c>
       <c r="AD31" s="32">
-        <f>Template!U5</f>
-        <v>0</v>
-      </c>
-      <c r="AE31" s="34" t="e">
+        <f>'Preseason 1'!U5</f>
+        <v>1</v>
+      </c>
+      <c r="AE31" s="34">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF31" s="35" t="e">
+        <v>5</v>
+      </c>
+      <c r="AF31" s="35">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG31" s="34" t="e">
+        <v>3</v>
+      </c>
+      <c r="AG31" s="34">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH31" s="35" t="e">
+        <v>0</v>
+      </c>
+      <c r="AH31" s="35">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="AI31" s="36">
         <f>COUNTIF(Template!V5, "TRUE")</f>
@@ -14535,40 +14608,39 @@
         <v>54</v>
       </c>
       <c r="AA32" s="32">
-        <f>Template!R6</f>
+        <f>'Preseason 1'!R6</f>
         <v>0</v>
       </c>
       <c r="AB32" s="32">
-        <f>Template!S6</f>
+        <f>'Preseason 1'!S6</f>
         <v>0</v>
       </c>
       <c r="AC32" s="32">
-        <f>Template!T6</f>
+        <f>'Preseason 1'!T6</f>
         <v>0</v>
       </c>
       <c r="AD32" s="32">
-        <f>Template!U6</f>
-        <v>0</v>
-      </c>
-      <c r="AE32" s="34" t="e">
+        <f>'Preseason 1'!U6</f>
+        <v>0</v>
+      </c>
+      <c r="AE32" s="34">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF32" s="35" t="e">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="35">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG32" s="34" t="e">
+        <v>0</v>
+      </c>
+      <c r="AG32" s="34">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH32" s="35" t="e">
+        <v>0</v>
+      </c>
+      <c r="AH32" s="35">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="AI32" s="36">
-        <f>COUNTIF(Template!V6, "TRUE")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ32" s="36"/>
       <c r="AK32" s="49" t="s">
@@ -14608,36 +14680,36 @@
         <v>57</v>
       </c>
       <c r="AA33" s="32">
-        <f>Template!R7</f>
+        <f>'Preseason 1'!R7</f>
         <v>0</v>
       </c>
       <c r="AB33" s="32">
-        <f>Template!S7</f>
+        <f>'Preseason 1'!S7</f>
         <v>0</v>
       </c>
       <c r="AC33" s="32">
-        <f>Template!T7</f>
+        <f>'Preseason 1'!T7</f>
         <v>0</v>
       </c>
       <c r="AD33" s="32">
-        <f>Template!U7</f>
-        <v>0</v>
-      </c>
-      <c r="AE33" s="34" t="e">
+        <f>'Preseason 1'!U7</f>
+        <v>0</v>
+      </c>
+      <c r="AE33" s="34">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF33" s="35" t="e">
+        <v>0</v>
+      </c>
+      <c r="AF33" s="35">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG33" s="34" t="e">
+        <v>0</v>
+      </c>
+      <c r="AG33" s="34">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH33" s="35" t="e">
+        <v>0</v>
+      </c>
+      <c r="AH33" s="35">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="AI33" s="36">
         <f>COUNTIF(Template!V7, "TRUE")</f>
@@ -14681,36 +14753,36 @@
         <v>60</v>
       </c>
       <c r="AA34" s="32">
-        <f>Template!R8</f>
+        <f>'Preseason 1'!R8</f>
         <v>0</v>
       </c>
       <c r="AB34" s="32">
-        <f>Template!S8</f>
+        <f>'Preseason 1'!S8</f>
         <v>0</v>
       </c>
       <c r="AC34" s="32">
-        <f>Template!T8</f>
+        <f>'Preseason 1'!T8</f>
         <v>0</v>
       </c>
       <c r="AD34" s="32">
-        <f>Template!U8</f>
-        <v>0</v>
-      </c>
-      <c r="AE34" s="34" t="e">
+        <f>'Preseason 1'!U8</f>
+        <v>0</v>
+      </c>
+      <c r="AE34" s="34">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF34" s="35" t="e">
+        <v>0</v>
+      </c>
+      <c r="AF34" s="35">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG34" s="34" t="e">
+        <v>0</v>
+      </c>
+      <c r="AG34" s="34">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH34" s="35" t="e">
+        <v>0</v>
+      </c>
+      <c r="AH34" s="35">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="AI34" s="36">
         <f>COUNTIF(Template!V8, "TRUE")</f>
@@ -14754,36 +14826,36 @@
         <v>93</v>
       </c>
       <c r="AA35" s="32">
-        <f>Template!R9</f>
-        <v>0</v>
+        <f>'Preseason 1'!R9</f>
+        <v>2</v>
       </c>
       <c r="AB35" s="32">
-        <f>Template!S9</f>
-        <v>0</v>
+        <f>'Preseason 1'!S9</f>
+        <v>1</v>
       </c>
       <c r="AC35" s="32">
-        <f>Template!T9</f>
-        <v>0</v>
+        <f>'Preseason 1'!T9</f>
+        <v>1</v>
       </c>
       <c r="AD35" s="32">
-        <f>Template!U9</f>
-        <v>0</v>
-      </c>
-      <c r="AE35" s="34" t="e">
+        <f>'Preseason 1'!U9</f>
+        <v>0</v>
+      </c>
+      <c r="AE35" s="34">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF35" s="35" t="e">
+        <v>2</v>
+      </c>
+      <c r="AF35" s="35">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG35" s="34" t="e">
+        <v>1</v>
+      </c>
+      <c r="AG35" s="34">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH35" s="35" t="e">
+        <v>1</v>
+      </c>
+      <c r="AH35" s="35">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="AI35" s="36">
         <f>COUNTIF(Template!V9, "TRUE")</f>
@@ -14827,40 +14899,39 @@
         <v>63</v>
       </c>
       <c r="AA36" s="32">
-        <f>Template!R10</f>
+        <f>'Preseason 1'!R10</f>
         <v>0</v>
       </c>
       <c r="AB36" s="32">
-        <f>Template!S10</f>
+        <f>'Preseason 1'!S10</f>
         <v>0</v>
       </c>
       <c r="AC36" s="32">
-        <f>Template!T10</f>
+        <f>'Preseason 1'!T10</f>
         <v>0</v>
       </c>
       <c r="AD36" s="32">
-        <f>Template!U10</f>
-        <v>0</v>
-      </c>
-      <c r="AE36" s="34" t="e">
+        <f>'Preseason 1'!U10</f>
+        <v>0</v>
+      </c>
+      <c r="AE36" s="34">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF36" s="35" t="e">
+        <v>0</v>
+      </c>
+      <c r="AF36" s="35">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG36" s="34" t="e">
+        <v>0</v>
+      </c>
+      <c r="AG36" s="34">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH36" s="35" t="e">
+        <v>0</v>
+      </c>
+      <c r="AH36" s="35">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="AI36" s="36">
-        <f>COUNTIF(Template!V10, "TRUE")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ36" s="36"/>
       <c r="AK36" s="49" t="s">
@@ -14897,36 +14968,36 @@
         <v>66</v>
       </c>
       <c r="AA37" s="32">
-        <f>Template!R11</f>
-        <v>0</v>
+        <f>'Preseason 1'!R11</f>
+        <v>3</v>
       </c>
       <c r="AB37" s="32">
-        <f>Template!S11</f>
-        <v>0</v>
+        <f>'Preseason 1'!S11</f>
+        <v>1</v>
       </c>
       <c r="AC37" s="32">
-        <f>Template!T11</f>
+        <f>'Preseason 1'!T11</f>
         <v>0</v>
       </c>
       <c r="AD37" s="32">
-        <f>Template!U11</f>
-        <v>0</v>
-      </c>
-      <c r="AE37" s="34" t="e">
+        <f>'Preseason 1'!U11</f>
+        <v>1</v>
+      </c>
+      <c r="AE37" s="34">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF37" s="35" t="e">
+        <v>3</v>
+      </c>
+      <c r="AF37" s="35">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG37" s="34" t="e">
+        <v>1</v>
+      </c>
+      <c r="AG37" s="34">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH37" s="35" t="e">
+        <v>0</v>
+      </c>
+      <c r="AH37" s="35">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="AI37" s="36">
         <f>COUNTIF(Template!V11, "TRUE")</f>
@@ -14967,36 +15038,36 @@
         <v>68</v>
       </c>
       <c r="AA38" s="32">
-        <f>Template!R12</f>
-        <v>0</v>
+        <f>'Preseason 1'!R12</f>
+        <v>6</v>
       </c>
       <c r="AB38" s="32">
-        <f>Template!S12</f>
+        <f>'Preseason 1'!S12</f>
         <v>0</v>
       </c>
       <c r="AC38" s="32">
-        <f>Template!T12</f>
-        <v>0</v>
+        <f>'Preseason 1'!T12</f>
+        <v>4</v>
       </c>
       <c r="AD38" s="32">
-        <f>Template!U12</f>
-        <v>0</v>
-      </c>
-      <c r="AE38" s="34" t="e">
+        <f>'Preseason 1'!U12</f>
+        <v>1</v>
+      </c>
+      <c r="AE38" s="34">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF38" s="35" t="e">
+        <v>6</v>
+      </c>
+      <c r="AF38" s="35">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG38" s="34" t="e">
+        <v>0</v>
+      </c>
+      <c r="AG38" s="34">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH38" s="35" t="e">
+        <v>4</v>
+      </c>
+      <c r="AH38" s="35">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="AI38" s="36">
         <f>COUNTIF(Template!V12, "TRUE")</f>
@@ -15037,36 +15108,36 @@
         <v>69</v>
       </c>
       <c r="AA39" s="32">
-        <f>Template!R13</f>
+        <f>'Preseason 1'!R13</f>
         <v>0</v>
       </c>
       <c r="AB39" s="32">
-        <f>Template!S13</f>
+        <f>'Preseason 1'!S13</f>
         <v>0</v>
       </c>
       <c r="AC39" s="32">
-        <f>Template!T13</f>
+        <f>'Preseason 1'!T13</f>
         <v>0</v>
       </c>
       <c r="AD39" s="32">
-        <f>Template!U13</f>
-        <v>0</v>
-      </c>
-      <c r="AE39" s="34" t="e">
+        <f>'Preseason 1'!U13</f>
+        <v>0</v>
+      </c>
+      <c r="AE39" s="34">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF39" s="35" t="e">
+        <v>0</v>
+      </c>
+      <c r="AF39" s="35">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG39" s="34" t="e">
+        <v>0</v>
+      </c>
+      <c r="AG39" s="34">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH39" s="35" t="e">
+        <v>0</v>
+      </c>
+      <c r="AH39" s="35">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="AI39" s="36">
         <f>COUNTIF(Template!V13, "TRUE")</f>
@@ -15110,40 +15181,39 @@
         <v>203</v>
       </c>
       <c r="AA40" s="32">
-        <f>Template!R14</f>
+        <f>'Preseason 1'!R14</f>
         <v>0</v>
       </c>
       <c r="AB40" s="32">
-        <f>Template!S14</f>
+        <f>'Preseason 1'!S14</f>
         <v>0</v>
       </c>
       <c r="AC40" s="32">
-        <f>Template!T14</f>
+        <f>'Preseason 1'!T14</f>
         <v>0</v>
       </c>
       <c r="AD40" s="32">
-        <f>Template!U14</f>
-        <v>0</v>
-      </c>
-      <c r="AE40" s="34" t="e">
+        <f>'Preseason 1'!U14</f>
+        <v>0</v>
+      </c>
+      <c r="AE40" s="34">
         <f t="shared" ref="AE40:AE45" si="13">AA40/$AA$27</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF40" s="35" t="e">
+        <v>0</v>
+      </c>
+      <c r="AF40" s="35">
         <f t="shared" ref="AF40:AF45" si="14">AB40/$AA$27</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG40" s="34" t="e">
+        <v>0</v>
+      </c>
+      <c r="AG40" s="34">
         <f t="shared" ref="AG40:AG45" si="15">AC40/$AA$27</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH40" s="35" t="e">
+        <v>0</v>
+      </c>
+      <c r="AH40" s="35">
         <f t="shared" ref="AH40:AH45" si="16">AD40/$AA$27</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="AI40" s="36">
-        <f>COUNTIF(Template!V14, "TRUE")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ40" s="36"/>
       <c r="AK40" s="36" t="s">
@@ -15165,43 +15235,43 @@
       </c>
       <c r="T41">
         <f>'Statistics LG'!J3</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V41" s="28"/>
       <c r="Z41" s="36" t="s">
         <v>128</v>
       </c>
       <c r="AA41" s="32">
-        <f>Template!R15</f>
-        <v>0</v>
+        <f>'Preseason 1'!R15</f>
+        <v>2</v>
       </c>
       <c r="AB41" s="32">
-        <f>Template!S15</f>
+        <f>'Preseason 1'!S15</f>
         <v>0</v>
       </c>
       <c r="AC41" s="32">
-        <f>Template!T15</f>
+        <f>'Preseason 1'!T15</f>
         <v>0</v>
       </c>
       <c r="AD41" s="32">
-        <f>Template!U15</f>
-        <v>0</v>
-      </c>
-      <c r="AE41" s="34" t="e">
+        <f>'Preseason 1'!U15</f>
+        <v>1</v>
+      </c>
+      <c r="AE41" s="34">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF41" s="35" t="e">
+        <v>2</v>
+      </c>
+      <c r="AF41" s="35">
         <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG41" s="34" t="e">
+        <v>0</v>
+      </c>
+      <c r="AG41" s="34">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH41" s="35" t="e">
+        <v>0</v>
+      </c>
+      <c r="AH41" s="35">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="AI41" s="36">
         <f>COUNTIF(Template!V15, "TRUE")</f>
@@ -15227,43 +15297,43 @@
       </c>
       <c r="T42">
         <f>'Statistics WW'!J4</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V42" s="28"/>
       <c r="Z42" s="36" t="s">
         <v>127</v>
       </c>
       <c r="AA42" s="32">
-        <f>Template!R16</f>
-        <v>0</v>
+        <f>'Preseason 1'!R16</f>
+        <v>1</v>
       </c>
       <c r="AB42" s="32">
-        <f>Template!S16</f>
+        <f>'Preseason 1'!S16</f>
         <v>0</v>
       </c>
       <c r="AC42" s="32">
-        <f>Template!T16</f>
-        <v>0</v>
+        <f>'Preseason 1'!T16</f>
+        <v>1</v>
       </c>
       <c r="AD42" s="32">
-        <f>Template!U16</f>
-        <v>0</v>
-      </c>
-      <c r="AE42" s="34" t="e">
+        <f>'Preseason 1'!U16</f>
+        <v>0</v>
+      </c>
+      <c r="AE42" s="34">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF42" s="35" t="e">
+        <v>1</v>
+      </c>
+      <c r="AF42" s="35">
         <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG42" s="34" t="e">
+        <v>0</v>
+      </c>
+      <c r="AG42" s="34">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH42" s="35" t="e">
+        <v>1</v>
+      </c>
+      <c r="AH42" s="35">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="AI42" s="36">
         <f>COUNTIF(Template!V16, "TRUE")</f>
@@ -15289,43 +15359,43 @@
       </c>
       <c r="T43">
         <f>'Statistics 5M'!J4</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V43" s="28"/>
       <c r="Z43" s="36" t="s">
         <v>73</v>
       </c>
       <c r="AA43" s="32">
-        <f>Template!R17</f>
+        <f>'Preseason 1'!R17</f>
         <v>0</v>
       </c>
       <c r="AB43" s="32">
-        <f>Template!S17</f>
+        <f>'Preseason 1'!S17</f>
         <v>0</v>
       </c>
       <c r="AC43" s="32">
-        <f>Template!T17</f>
+        <f>'Preseason 1'!T17</f>
         <v>0</v>
       </c>
       <c r="AD43" s="32">
-        <f>Template!U17</f>
-        <v>0</v>
-      </c>
-      <c r="AE43" s="34" t="e">
+        <f>'Preseason 1'!U17</f>
+        <v>0</v>
+      </c>
+      <c r="AE43" s="34">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF43" s="35" t="e">
+        <v>0</v>
+      </c>
+      <c r="AF43" s="35">
         <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG43" s="34" t="e">
+        <v>0</v>
+      </c>
+      <c r="AG43" s="34">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH43" s="35" t="e">
+        <v>0</v>
+      </c>
+      <c r="AH43" s="35">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="AI43" s="36">
         <f>COUNTIF(Template!V17, "TRUE")</f>
@@ -15350,36 +15420,36 @@
         <v>74</v>
       </c>
       <c r="AA44" s="32">
-        <f>Template!R18</f>
+        <f>'Preseason 1'!R18</f>
         <v>0</v>
       </c>
       <c r="AB44" s="32">
-        <f>Template!S18</f>
+        <f>'Preseason 1'!S18</f>
         <v>0</v>
       </c>
       <c r="AC44" s="32">
-        <f>Template!T18</f>
+        <f>'Preseason 1'!T18</f>
         <v>0</v>
       </c>
       <c r="AD44" s="32">
-        <f>Template!U18</f>
-        <v>0</v>
-      </c>
-      <c r="AE44" s="34" t="e">
+        <f>'Preseason 1'!U18</f>
+        <v>0</v>
+      </c>
+      <c r="AE44" s="34">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF44" s="35" t="e">
+        <v>0</v>
+      </c>
+      <c r="AF44" s="35">
         <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG44" s="34" t="e">
+        <v>0</v>
+      </c>
+      <c r="AG44" s="34">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH44" s="35" t="e">
+        <v>0</v>
+      </c>
+      <c r="AH44" s="35">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="AI44" s="36">
         <f>COUNTIF(Template!V18, "TRUE")</f>
@@ -15417,36 +15487,36 @@
         <v>75</v>
       </c>
       <c r="AA45" s="32">
-        <f>Template!R19</f>
+        <f>'Preseason 1'!R19</f>
         <v>0</v>
       </c>
       <c r="AB45" s="32">
-        <f>Template!S19</f>
+        <f>'Preseason 1'!S19</f>
         <v>0</v>
       </c>
       <c r="AC45" s="32">
-        <f>Template!T19</f>
+        <f>'Preseason 1'!T19</f>
         <v>0</v>
       </c>
       <c r="AD45" s="32">
-        <f>Template!U19</f>
-        <v>0</v>
-      </c>
-      <c r="AE45" s="34" t="e">
+        <f>'Preseason 1'!U19</f>
+        <v>0</v>
+      </c>
+      <c r="AE45" s="34">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF45" s="35" t="e">
+        <v>0</v>
+      </c>
+      <c r="AF45" s="35">
         <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG45" s="34" t="e">
+        <v>0</v>
+      </c>
+      <c r="AG45" s="34">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH45" s="35" t="e">
+        <v>0</v>
+      </c>
+      <c r="AH45" s="35">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="AI45" s="36">
         <f>COUNTIF(Template!V19, "TRUE")</f>
@@ -15472,15 +15542,15 @@
       </c>
       <c r="U46" s="19">
         <f>SUM(Table1[Finishes])</f>
-        <v>0</v>
-      </c>
-      <c r="V46" s="18" t="e">
+        <v>6</v>
+      </c>
+      <c r="V46" s="18">
         <f>U46/AA6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W46" s="28" t="e">
+        <v>6</v>
+      </c>
+      <c r="W46" s="28">
         <f>U46/SUM($U$46:$U$48)</f>
-        <v>#DIV/0!</v>
+        <v>0.35294117647058826</v>
       </c>
       <c r="Z46" s="36"/>
       <c r="AA46" s="35"/>
@@ -15510,15 +15580,15 @@
       </c>
       <c r="U47" s="19">
         <f>SUM(Table1[Midranges])</f>
-        <v>0</v>
-      </c>
-      <c r="V47" s="18" t="e">
+        <v>7</v>
+      </c>
+      <c r="V47" s="18">
         <f>U47/AA6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W47" s="28" t="e">
+        <v>7</v>
+      </c>
+      <c r="W47" s="28">
         <f>U47/SUM($U$46:$U$48)</f>
-        <v>#DIV/0!</v>
+        <v>0.41176470588235292</v>
       </c>
       <c r="Z47" s="49" t="s">
         <v>126</v>
@@ -15556,15 +15626,15 @@
       </c>
       <c r="U48" s="19">
         <f>SUM(Table1[Threes])</f>
-        <v>0</v>
-      </c>
-      <c r="V48" s="18" t="e">
+        <v>4</v>
+      </c>
+      <c r="V48" s="18">
         <f>U48/AA6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W48" s="28" t="e">
+        <v>4</v>
+      </c>
+      <c r="W48" s="28">
         <f>U48/SUM($U$46:$U$48)</f>
-        <v>#DIV/0!</v>
+        <v>0.23529411764705882</v>
       </c>
       <c r="Z48" s="29" t="s">
         <v>84</v>
@@ -15755,17 +15825,17 @@
       <c r="T53" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="U53" s="39" t="e">
+      <c r="U53" s="39">
         <f>'Statistics LG'!L42</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V53" s="39" t="e">
+        <v>1</v>
+      </c>
+      <c r="V53" s="39">
         <f>'Statistics LG'!O42</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W53" s="39" t="e">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="W53" s="39">
         <f>AVERAGE(U53:V53)</f>
-        <v>#DIV/0!</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="Z53" s="49" t="s">
         <v>57</v>
@@ -15797,20 +15867,20 @@
       <c r="S54" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="T54" s="39" t="e">
+      <c r="T54" s="39">
         <f>1-'Statistics LG'!L42</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="U54" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="V54" s="39" t="e">
+      <c r="V54" s="39">
         <f>'Statistics WW'!L42</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W54" s="39" t="e">
+        <v>0</v>
+      </c>
+      <c r="W54" s="39">
         <f>AVERAGE(T54:V54)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="Z54" s="49" t="s">
         <v>60</v>
@@ -15842,20 +15912,20 @@
       <c r="S55" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="T55" s="39" t="e">
+      <c r="T55" s="39">
         <f>1-V53</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U55" s="39" t="e">
+        <v>0.66666666666666674</v>
+      </c>
+      <c r="U55" s="39">
         <f>1-V54</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="V55" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="W55" s="39" t="e">
+      <c r="W55" s="39">
         <f>AVERAGE(T55:V55)</f>
-        <v>#DIV/0!</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="Z55" s="36" t="s">
         <v>93</v>
@@ -16484,21 +16554,21 @@
       <c r="R76">
         <v>1</v>
       </c>
-      <c r="S76" s="48">
+      <c r="S76" s="48" t="str">
         <f>'Statistics LG'!A4</f>
-        <v>0</v>
+        <v>11-July</v>
       </c>
       <c r="T76">
         <f>'Statistics LG'!D4</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U76">
         <f>'Statistics WW'!D4</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V76">
         <f>'Statistics 5M'!D4</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z76" s="49" t="s">
         <v>63</v>
@@ -16536,15 +16606,15 @@
       </c>
       <c r="T77">
         <f>T76+'Statistics LG'!D5</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U77">
         <f>U76+'Statistics WW'!D5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V77">
         <f>V76+'Statistics 5M'!D5</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z77" s="49" t="s">
         <v>66</v>
@@ -16582,15 +16652,15 @@
       </c>
       <c r="T78" s="17">
         <f>T77+'Statistics LG'!D6</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U78" s="17">
         <f>U77+'Statistics WW'!D6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V78" s="17">
         <f>V77+'Statistics 5M'!D6</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z78" s="49" t="s">
         <v>68</v>
@@ -16628,15 +16698,15 @@
       </c>
       <c r="T79" s="17">
         <f>T78+'Statistics LG'!D7</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U79" s="17">
         <f>U78+'Statistics WW'!D7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V79" s="17">
         <f>V78+'Statistics 5M'!D7</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z79" s="49" t="s">
         <v>69</v>
@@ -16674,15 +16744,15 @@
       </c>
       <c r="T80" s="17">
         <f>T79+'Statistics LG'!D8</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U80" s="17">
         <f>U79+'Statistics WW'!D8</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V80" s="17">
         <f>V79+'Statistics 5M'!D8</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z80" s="36" t="s">
         <v>203</v>
@@ -16720,15 +16790,15 @@
       </c>
       <c r="T81" s="17">
         <f>T80+'Statistics LG'!D9</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U81" s="17">
         <f>U80+'Statistics WW'!D9</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V81" s="17">
         <f>V80+'Statistics 5M'!D9</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z81" s="36" t="s">
         <v>128</v>
@@ -16766,15 +16836,15 @@
       </c>
       <c r="T82" s="17">
         <f>T81+'Statistics LG'!D10</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U82" s="17">
         <f>U81+'Statistics WW'!D10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V82" s="17">
         <f>V81+'Statistics 5M'!D10</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z82" s="36" t="s">
         <v>127</v>
@@ -16812,15 +16882,15 @@
       </c>
       <c r="T83" s="17">
         <f>T82+'Statistics LG'!D11</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U83" s="17">
         <f>U82+'Statistics WW'!D11</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V83" s="17">
         <f>V82+'Statistics 5M'!D11</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z83" s="36" t="s">
         <v>73</v>
@@ -16858,15 +16928,15 @@
       </c>
       <c r="T84" s="17">
         <f>T83+'Statistics LG'!D12</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U84" s="17">
         <f>U83+'Statistics WW'!D12</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V84" s="17">
         <f>V83+'Statistics 5M'!D12</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z84" s="36" t="s">
         <v>74</v>
@@ -16904,15 +16974,15 @@
       </c>
       <c r="T85" s="17">
         <f>T84+'Statistics LG'!D13</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U85" s="17">
         <f>U84+'Statistics WW'!D13</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V85" s="17">
         <f>V84+'Statistics 5M'!D13</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z85" s="49" t="s">
         <v>75</v>
@@ -16950,15 +17020,15 @@
       </c>
       <c r="T86" s="17">
         <f>T85+'Statistics LG'!D14</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U86" s="17">
         <f>U85+'Statistics WW'!D14</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V86" s="17">
         <f>V85+'Statistics 5M'!D14</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z86" s="68"/>
       <c r="AA86" s="32"/>
@@ -16992,15 +17062,15 @@
       </c>
       <c r="T87" s="17">
         <f>T86+'Statistics LG'!D15</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U87" s="17">
         <f>U86+'Statistics WW'!D15</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V87" s="17">
         <f>V86+'Statistics 5M'!D15</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z87" s="49" t="s">
         <v>168</v>
@@ -17042,15 +17112,15 @@
       </c>
       <c r="T88" s="17">
         <f>T87+'Statistics LG'!D16</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U88" s="17">
         <f>U87+'Statistics WW'!D16</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V88" s="17">
         <f>V87+'Statistics 5M'!D16</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z88" s="29" t="s">
         <v>84</v>
@@ -17124,15 +17194,15 @@
       </c>
       <c r="T89" s="17">
         <f>T88+'Statistics LG'!D17</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U89" s="17">
         <f>U88+'Statistics WW'!D17</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V89" s="17">
         <f>V88+'Statistics 5M'!D17</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z89" s="49" t="s">
         <v>45</v>
@@ -17170,15 +17240,15 @@
       </c>
       <c r="T90" s="17">
         <f>T89+'Statistics LG'!D18</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U90" s="17">
         <f>U89+'Statistics WW'!D18</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V90" s="17">
         <f>V89+'Statistics 5M'!D18</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z90" s="49" t="s">
         <v>49</v>
@@ -18820,8 +18890,11 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AD1000"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AA9" sqref="AA9"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43:I46"/>
+    </sheetView>
+    <sheetView topLeftCell="D25" workbookViewId="1">
+      <selection activeCell="I43" sqref="I43:I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -18893,15 +18966,15 @@
       </c>
       <c r="H3" s="86">
         <f>SUM(B4:B40)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I3" s="86">
         <f>SUM(C4:C40)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J3" s="83">
         <f>SUM(D4:D40)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L3" s="86" t="s">
         <v>88</v>
@@ -18949,28 +19022,32 @@
       <c r="AD3" s="87"/>
     </row>
     <row r="4" spans="1:30" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="80">
+      <c r="A4" s="80" t="str">
         <f>'Stats Global'!B5</f>
-        <v>0</v>
+        <v>11-July</v>
       </c>
       <c r="B4" s="88">
         <f>'Stats Global'!F5</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C4" s="88">
         <f>'Stats Global'!G5+'Stats Global'!H5</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D4" s="88">
         <f>'Stats Global'!O5</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
+        <v>2</v>
+      </c>
+      <c r="E4" s="85" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="85" t="s">
+        <v>209</v>
+      </c>
       <c r="J4" s="89"/>
       <c r="L4" s="90">
         <f>'Stats Global'!J5</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M4" s="90">
         <f>'Stats Global'!G5</f>
@@ -18979,11 +19056,11 @@
       <c r="N4" s="91"/>
       <c r="O4" s="90">
         <f>'Stats Global'!M5</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P4" s="90">
         <f>'Stats Global'!H5</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R4" s="113" t="s">
         <v>61</v>
@@ -18992,33 +19069,33 @@
         <f>'Stats Global'!AA22</f>
         <v>0</v>
       </c>
-      <c r="T4" s="103" t="e">
+      <c r="T4" s="103">
         <f>'Stats Global'!AB22</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="U4" s="103">
         <f>'Stats Global'!AC22</f>
         <v>0</v>
       </c>
-      <c r="V4" s="103" t="e">
+      <c r="V4" s="103">
         <f>'Stats Global'!AD22</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="W4" s="103">
         <f>'Stats Global'!AE22</f>
         <v>0</v>
       </c>
-      <c r="X4" s="103" t="e">
+      <c r="X4" s="103">
         <f>'Stats Global'!AF22</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="103">
         <f>'Stats Global'!AG22</f>
         <v>0</v>
       </c>
-      <c r="Z4" s="103" t="e">
+      <c r="Z4" s="103">
         <f>'Stats Global'!AH22</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="AA4" s="103">
         <f>'Stats Global'!AJ22</f>
@@ -19068,35 +19145,35 @@
       </c>
       <c r="S5" s="103">
         <f>'Stats Global'!AA16</f>
-        <v>0</v>
-      </c>
-      <c r="T5" s="103" t="e">
+        <v>3</v>
+      </c>
+      <c r="T5" s="103">
         <f>'Stats Global'!AB16</f>
-        <v>#DIV/0!</v>
+        <v>3</v>
       </c>
       <c r="U5" s="103">
         <f>'Stats Global'!AC16</f>
-        <v>0</v>
-      </c>
-      <c r="V5" s="103" t="e">
+        <v>1</v>
+      </c>
+      <c r="V5" s="103">
         <f>'Stats Global'!AD16</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="W5" s="103">
         <f>'Stats Global'!AE16</f>
         <v>0</v>
       </c>
-      <c r="X5" s="103" t="e">
+      <c r="X5" s="103">
         <f>'Stats Global'!AF16</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="Y5" s="103">
         <f>'Stats Global'!AG16</f>
-        <v>0</v>
-      </c>
-      <c r="Z5" s="103" t="e">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="103">
         <f>'Stats Global'!AH16</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="AA5" s="103">
         <f>'Stats Global'!AJ16</f>
@@ -19146,35 +19223,35 @@
       </c>
       <c r="S6" s="103">
         <f>'Stats Global'!AA21</f>
-        <v>0</v>
-      </c>
-      <c r="T6" s="103" t="e">
+        <v>1</v>
+      </c>
+      <c r="T6" s="103">
         <f>'Stats Global'!AB21</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="U6" s="103">
         <f>'Stats Global'!AC21</f>
         <v>0</v>
       </c>
-      <c r="V6" s="103" t="e">
+      <c r="V6" s="103">
         <f>'Stats Global'!AD21</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="W6" s="103">
         <f>'Stats Global'!AE21</f>
-        <v>0</v>
-      </c>
-      <c r="X6" s="103" t="e">
+        <v>1</v>
+      </c>
+      <c r="X6" s="103">
         <f>'Stats Global'!AF21</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="Y6" s="103">
         <f>'Stats Global'!AG21</f>
         <v>0</v>
       </c>
-      <c r="Z6" s="103" t="e">
+      <c r="Z6" s="103">
         <f>'Stats Global'!AH21</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="AA6" s="103">
         <f>'Stats Global'!AJ21</f>
@@ -19226,33 +19303,33 @@
         <f>'Stats Global'!AA8</f>
         <v>0</v>
       </c>
-      <c r="T7" s="103" t="e">
+      <c r="T7" s="103">
         <f>'Stats Global'!AB8</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="U7" s="103">
         <f>'Stats Global'!AC8</f>
         <v>0</v>
       </c>
-      <c r="V7" s="103" t="e">
+      <c r="V7" s="103">
         <f>'Stats Global'!AD8</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="W7" s="103">
         <f>'Stats Global'!AE8</f>
         <v>0</v>
       </c>
-      <c r="X7" s="103" t="e">
+      <c r="X7" s="103">
         <f>'Stats Global'!AF8</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="Y7" s="103">
         <f>'Stats Global'!AG8</f>
         <v>0</v>
       </c>
-      <c r="Z7" s="103" t="e">
+      <c r="Z7" s="103">
         <f>'Stats Global'!AH8</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="AA7" s="103">
         <f>'Stats Global'!AJ8</f>
@@ -19302,35 +19379,35 @@
       </c>
       <c r="S8" s="103">
         <f>'Stats Global'!AA9</f>
-        <v>0</v>
-      </c>
-      <c r="T8" s="103" t="e">
+        <v>2</v>
+      </c>
+      <c r="T8" s="103">
         <f>'Stats Global'!AB9</f>
-        <v>#DIV/0!</v>
+        <v>2</v>
       </c>
       <c r="U8" s="103">
         <f>'Stats Global'!AC9</f>
-        <v>0</v>
-      </c>
-      <c r="V8" s="103" t="e">
+        <v>1</v>
+      </c>
+      <c r="V8" s="103">
         <f>'Stats Global'!AD9</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="W8" s="103">
         <f>'Stats Global'!AE9</f>
-        <v>0</v>
-      </c>
-      <c r="X8" s="103" t="e">
+        <v>1</v>
+      </c>
+      <c r="X8" s="103">
         <f>'Stats Global'!AF9</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="Y8" s="103">
         <f>'Stats Global'!AG9</f>
         <v>0</v>
       </c>
-      <c r="Z8" s="103" t="e">
+      <c r="Z8" s="103">
         <f>'Stats Global'!AH9</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="AA8" s="103">
         <f>'Stats Global'!AJ9</f>
@@ -20608,7 +20685,7 @@
       </c>
       <c r="L41" s="107">
         <f>SUM(L4:L40)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M41" s="107">
         <f>SUM(M4:M40)</f>
@@ -20617,27 +20694,27 @@
       <c r="N41" s="89"/>
       <c r="O41" s="107">
         <f>SUM(O4:O40)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P41" s="107">
         <f>SUM(P4:P40)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="L42" s="98" t="e">
+      <c r="L42" s="98">
         <f>L41/(M41+L41)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O42" s="98" t="e">
+        <v>1</v>
+      </c>
+      <c r="O42" s="98">
         <f>O41/(P41+O41)</f>
-        <v>#DIV/0!</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="43" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I43" s="99" t="str">
         <f>K43&amp;H3&amp;","&amp;I3&amp;"],"</f>
-        <v>"PartA":[0,0],</v>
+        <v>"PartA":[5,6],</v>
       </c>
       <c r="K43" s="81" t="s">
         <v>135</v>
@@ -20646,91 +20723,91 @@
         <v>139</v>
       </c>
       <c r="O43" s="100">
-        <f>ROUND(SUM('Stats Global'!AA14:AA15,'Stats Global'!AA20:AA21,'Stats Global'!AA23:AA24)/COUNT(B4:B40),1)</f>
-        <v>0</v>
+        <f>ROUND(SUM('Stats Global'!AA8,'Stats Global'!AA9,'Stats Global'!AA16,'Stats Global'!AA21,'Stats Global'!AA22),1)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I44" s="81" t="str">
         <f>K44&amp;M44&amp;","&amp;CHAR(34)&amp;N44&amp;CHAR(34)&amp;","&amp;M45&amp;","&amp;CHAR(34)&amp;N45&amp;CHAR(34)&amp;","&amp;M46&amp;","&amp;CHAR(34)&amp;N46&amp;CHAR(34)&amp;","&amp;M47&amp;","&amp;CHAR(34)&amp;N47&amp;CHAR(34)&amp;"],"</f>
-        <v>"PartB":[0,"N/A",0,"N/A",0,"N/A",0,"N/A"],</v>
+        <v>"PartB":[3,"William Kim",1,"William Kim",1,"Christopher Tomkinson",1,"William Kim"],</v>
       </c>
       <c r="K44" s="81" t="s">
         <v>136</v>
       </c>
       <c r="M44" s="101">
         <f>MAX(Table1114[Points])</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N44" s="81" t="str">
         <f>IF(M44&lt;&gt;0,IF(M44=S4,R4,IF(M44=S5,R5,IF(S6=M44,R6,IF(S7=M44,R7,R8)))),"N/A")</f>
-        <v>N/A</v>
+        <v>William Kim</v>
       </c>
       <c r="O44" s="100">
-        <f>ROUND(SUM('Stats Global'!AC14:AC15,'Stats Global'!AC20:AC21,'Stats Global'!AC23:AC24)/COUNT(B4:B40),1)</f>
-        <v>0</v>
+        <f>ROUND(SUM('Stats Global'!AC8,'Stats Global'!AC9,'Stats Global'!AC16,'Stats Global'!AC21,'Stats Global'!AC22),1)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I45" s="81" t="str">
         <f>K45&amp;O43&amp;","&amp;O44&amp;","&amp;O45&amp;","&amp;O46&amp;","&amp;O47&amp;","&amp;O48&amp;"],"</f>
-        <v>"PartC":[0,0,0,0,0,0],</v>
+        <v>"PartC":[6,2,2,1,5,6],</v>
       </c>
       <c r="K45" s="81" t="s">
         <v>137</v>
       </c>
       <c r="M45" s="101">
         <f>MAX(Table1114[Finishes])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N45" s="108" t="str">
-        <f>IF(M45&lt;&gt;0,IF(M44=U4,R4,IF(M44=U5,R5,IF(U6=M44,R6,IF(U7=M44,R7,R8)))),"N/A")</f>
-        <v>N/A</v>
+        <f>IF(M45&lt;&gt;0,IF(M45=U4,R4,IF(M45=U5,R5,IF(U6=M45,R6,IF(U7=M45,R7,R8)))),"N/A")</f>
+        <v>William Kim</v>
       </c>
       <c r="O45" s="100">
-        <f>ROUND(SUM('Stats Global'!AE14:AE15,'Stats Global'!AE20:AE21,'Stats Global'!AE23:AE24)/COUNT(B4:B40),1)</f>
-        <v>0</v>
+        <f>ROUND(SUM('Stats Global'!AE8,'Stats Global'!AE9,'Stats Global'!AE16,'Stats Global'!AE21,'Stats Global'!AE22),1)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I46" s="81" t="e">
+      <c r="I46" s="81" t="str">
         <f>K46&amp;L41&amp;","&amp;M41&amp;","&amp;ROUND(L42*100,1)&amp;","&amp;O41&amp;","&amp;P41&amp;","&amp;ROUND(O42*100,1)&amp;"],"</f>
-        <v>#DIV/0!</v>
+        <v>"PartD":[2,0,100,3,6,33.3],</v>
       </c>
       <c r="K46" s="81" t="s">
         <v>138</v>
       </c>
       <c r="M46" s="101">
         <f>MAX(Table1114[Midranges])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N46" s="108" t="str">
-        <f>IF(M46&lt;&gt;0,IF(M44=W4,R4,IF(M44=W5,R5,IF(W6=M44,R6,IF(W7=M44,R7,R8)))),"N/A")</f>
-        <v>N/A</v>
+        <f>IF(M46&lt;&gt;0,IF(M46=W4,R4,IF(M46=W5,R5,IF(W6=M46,R6,IF(W7=M46,R7,R8)))),"N/A")</f>
+        <v>Christopher Tomkinson</v>
       </c>
       <c r="O46" s="100">
-        <f>ROUND(SUM('Stats Global'!AG14:AG15,'Stats Global'!AG20:AG21,'Stats Global'!AG23:AG24)/COUNT(B4:B40),1)</f>
-        <v>0</v>
+        <f>ROUND(SUM('Stats Global'!AG8,'Stats Global'!AG9,'Stats Global'!AG16,'Stats Global'!AG21,'Stats Global'!AG22),1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="M47" s="101">
         <f>MAX(Table1114[Threes])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N47" s="81" t="str">
-        <f>IF(M47&lt;&gt;0,IF(M44=Y4,R4,IF(M44=Y5,R5,IF(Y6=M44,R6,IF(Y7=M44,R7,R8)))),"N/A")</f>
-        <v>N/A</v>
+        <f>IF(M47&lt;&gt;0,IF(M47=Y4,R4,IF(M47=Y5,R5,IF(Y6=M47,R6,IF(Y7=M47,R7,R8)))),"N/A")</f>
+        <v>William Kim</v>
       </c>
       <c r="O47" s="81">
-        <f>ROUND(H3/COUNT(B4:B40),1)</f>
-        <v>0</v>
+        <f>ROUND(H3/'Stats Global'!AA6,1)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="O48" s="81">
-        <f>ROUND(I3/COUNT(B4:B40),1)</f>
-        <v>0</v>
+        <f>ROUND(I3/'Stats Global'!AA6,1)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -21699,8 +21776,11 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O47" sqref="O47"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P43" sqref="P43"/>
+    </sheetView>
+    <sheetView topLeftCell="G30" workbookViewId="1">
+      <selection activeCell="J43" sqref="J43:J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -21791,9 +21871,9 @@
       </c>
     </row>
     <row r="4" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="80">
+      <c r="A4" s="80" t="str">
         <f>'Stats Global'!B5</f>
-        <v>0</v>
+        <v>11-July</v>
       </c>
       <c r="B4" s="88">
         <f>'Stats Global'!I5</f>
@@ -21801,25 +21881,29 @@
       </c>
       <c r="C4" s="88">
         <f>'Stats Global'!J5+'Stats Global'!K5</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D4" s="88">
         <f>'Stats Global'!P5</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
+        <v>1</v>
+      </c>
+      <c r="E4" s="85" t="s">
+        <v>210</v>
+      </c>
+      <c r="F4" s="85" t="s">
+        <v>210</v>
+      </c>
       <c r="H4" s="86">
         <f>SUM(B4:B40)</f>
         <v>0</v>
       </c>
       <c r="I4" s="86">
         <f>SUM(C4:C40)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J4" s="83">
         <f>SUM(D4:D40)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="90">
         <f>'Stats Global'!N5</f>
@@ -21827,7 +21911,7 @@
       </c>
       <c r="M4" s="90">
         <f>'Stats Global'!K5</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N4" s="91"/>
       <c r="O4" s="89" t="s">
@@ -21837,37 +21921,37 @@
         <f>'Stats Global'!AA11</f>
         <v>0</v>
       </c>
-      <c r="Q4" s="103" t="e">
+      <c r="Q4" s="103">
         <f>'Stats Global'!AB11</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="R4" s="103">
         <f>'Stats Global'!AC11</f>
         <v>0</v>
       </c>
-      <c r="S4" s="103" t="e">
+      <c r="S4" s="103">
         <f>'Stats Global'!AD11</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="T4" s="103">
         <f>'Stats Global'!AE11</f>
         <v>0</v>
       </c>
-      <c r="U4" s="103" t="e">
+      <c r="U4" s="103">
         <f>'Stats Global'!AF11</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="V4" s="103">
         <f>'Stats Global'!AG11</f>
         <v>0</v>
       </c>
-      <c r="W4" s="103" t="e">
+      <c r="W4" s="103">
         <f>'Stats Global'!AH11</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="X4" s="103">
         <f>'Stats Global'!AJ11</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -21906,33 +21990,33 @@
         <f>'Stats Global'!AA12</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="103" t="e">
+      <c r="Q5" s="103">
         <f>'Stats Global'!AB12</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="R5" s="103">
         <f>'Stats Global'!AC12</f>
         <v>0</v>
       </c>
-      <c r="S5" s="103" t="e">
+      <c r="S5" s="103">
         <f>'Stats Global'!AD12</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="T5" s="103">
         <f>'Stats Global'!AE12</f>
         <v>0</v>
       </c>
-      <c r="U5" s="103" t="e">
+      <c r="U5" s="103">
         <f>'Stats Global'!AF12</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="V5" s="103">
         <f>'Stats Global'!AG12</f>
         <v>0</v>
       </c>
-      <c r="W5" s="103" t="e">
+      <c r="W5" s="103">
         <f>'Stats Global'!AH12</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="X5" s="103">
         <f>'Stats Global'!AJ12</f>
@@ -21976,33 +22060,33 @@
         <f>'Stats Global'!AA13</f>
         <v>0</v>
       </c>
-      <c r="Q6" s="103" t="e">
+      <c r="Q6" s="103">
         <f>'Stats Global'!AB13</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="R6" s="103">
         <f>'Stats Global'!AC13</f>
         <v>0</v>
       </c>
-      <c r="S6" s="103" t="e">
+      <c r="S6" s="103">
         <f>'Stats Global'!AD13</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="T6" s="103">
         <f>'Stats Global'!AE13</f>
         <v>0</v>
       </c>
-      <c r="U6" s="103" t="e">
+      <c r="U6" s="103">
         <f>'Stats Global'!AF13</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="V6" s="103">
         <f>'Stats Global'!AG13</f>
         <v>0</v>
       </c>
-      <c r="W6" s="103" t="e">
+      <c r="W6" s="103">
         <f>'Stats Global'!AH13</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="X6" s="103">
         <f>'Stats Global'!AJ13</f>
@@ -22046,33 +22130,33 @@
         <f>'Stats Global'!AA18</f>
         <v>0</v>
       </c>
-      <c r="Q7" s="103" t="e">
+      <c r="Q7" s="103">
         <f>'Stats Global'!AB18</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="R7" s="103">
         <f>'Stats Global'!AC18</f>
         <v>0</v>
       </c>
-      <c r="S7" s="103" t="e">
+      <c r="S7" s="103">
         <f>'Stats Global'!AD18</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="T7" s="103">
         <f>'Stats Global'!AE18</f>
         <v>0</v>
       </c>
-      <c r="U7" s="103" t="e">
+      <c r="U7" s="103">
         <f>'Stats Global'!AF18</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="V7" s="103">
         <f>'Stats Global'!AG18</f>
         <v>0</v>
       </c>
-      <c r="W7" s="103" t="e">
+      <c r="W7" s="103">
         <f>'Stats Global'!AH18</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="X7" s="103">
         <f>'Stats Global'!AJ18</f>
@@ -22116,33 +22200,33 @@
         <f>'Stats Global'!AA23</f>
         <v>0</v>
       </c>
-      <c r="Q8" s="103" t="e">
+      <c r="Q8" s="103">
         <f>'Stats Global'!AB23</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="R8" s="103">
         <f>'Stats Global'!AC23</f>
         <v>0</v>
       </c>
-      <c r="S8" s="103" t="e">
+      <c r="S8" s="103">
         <f>'Stats Global'!AD23</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="T8" s="103">
         <f>'Stats Global'!AE23</f>
         <v>0</v>
       </c>
-      <c r="U8" s="103" t="e">
+      <c r="U8" s="103">
         <f>'Stats Global'!AF23</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="V8" s="103">
         <f>'Stats Global'!AG23</f>
         <v>0</v>
       </c>
-      <c r="W8" s="103" t="e">
+      <c r="W8" s="103">
         <f>'Stats Global'!AH23</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="X8" s="103">
         <f>'Stats Global'!AJ23</f>
@@ -22182,41 +22266,41 @@
       <c r="O9" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="P9" s="128">
+      <c r="P9" s="127">
         <f>'Stats Global'!AA15</f>
         <v>0</v>
       </c>
-      <c r="Q9" s="128">
+      <c r="Q9" s="127">
         <f>'Stats Global'!AB15</f>
         <v>0</v>
       </c>
-      <c r="R9" s="128">
+      <c r="R9" s="127">
         <f>'Stats Global'!AC15</f>
         <v>0</v>
       </c>
-      <c r="S9" s="128">
+      <c r="S9" s="127">
         <f>'Stats Global'!AD15</f>
         <v>0</v>
       </c>
-      <c r="T9" s="128">
+      <c r="T9" s="127">
         <f>'Stats Global'!AE15</f>
         <v>0</v>
       </c>
-      <c r="U9" s="128">
+      <c r="U9" s="127">
         <f>'Stats Global'!AF15</f>
         <v>0</v>
       </c>
-      <c r="V9" s="128">
+      <c r="V9" s="127">
         <f>'Stats Global'!AG15</f>
         <v>0</v>
       </c>
-      <c r="W9" s="128">
+      <c r="W9" s="127">
         <f>'Stats Global'!AH15</f>
         <v>0</v>
       </c>
-      <c r="X9" s="128">
+      <c r="X9" s="127">
         <f>'Stats Global'!AJ15</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -22252,41 +22336,41 @@
       <c r="O10" s="89" t="s">
         <v>203</v>
       </c>
-      <c r="P10" s="128">
+      <c r="P10" s="127">
         <f>'Stats Global'!AA19</f>
         <v>0</v>
       </c>
-      <c r="Q10" s="128" t="e">
+      <c r="Q10" s="127">
         <f>'Stats Global'!AB19</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R10" s="128">
+        <v>0</v>
+      </c>
+      <c r="R10" s="127">
         <f>'Stats Global'!AC19</f>
         <v>0</v>
       </c>
-      <c r="S10" s="128" t="e">
+      <c r="S10" s="127">
         <f>'Stats Global'!AD19</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T10" s="128">
+        <v>0</v>
+      </c>
+      <c r="T10" s="127">
         <f>'Stats Global'!AE19</f>
         <v>0</v>
       </c>
-      <c r="U10" s="128" t="e">
+      <c r="U10" s="127">
         <f>'Stats Global'!AF19</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V10" s="128">
+        <v>0</v>
+      </c>
+      <c r="V10" s="127">
         <f>'Stats Global'!AG19</f>
         <v>0</v>
       </c>
-      <c r="W10" s="128" t="e">
+      <c r="W10" s="127">
         <f>'Stats Global'!AH19</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X10" s="128">
+        <v>0</v>
+      </c>
+      <c r="X10" s="127">
         <f>'Stats Global'!AJ19</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -23266,23 +23350,23 @@
       </c>
       <c r="M41" s="107">
         <f>SUM(M4:M40)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N41" s="89"/>
       <c r="O41" s="89"/>
       <c r="P41" s="58"/>
     </row>
     <row r="42" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="L42" s="98" t="e">
+      <c r="L42" s="98">
         <f>L41/(M41+L41)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="P42" s="58"/>
     </row>
     <row r="43" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="J43" s="99" t="str">
         <f>L43&amp;H4&amp;","&amp;I4&amp;"],"</f>
-        <v>"PartA":[0,0],</v>
+        <v>"PartA":[0,8],</v>
       </c>
       <c r="K43" s="86"/>
       <c r="L43" s="81" t="s">
@@ -23292,7 +23376,7 @@
         <v>139</v>
       </c>
       <c r="P43" s="100">
-        <f>ROUND(SUM('Stats Global'!AA9,'Stats Global'!AA11:AA13,'Stats Global'!AA22)/COUNT(B4:B40),1)</f>
+        <f>ROUND(SUM('Stats Global'!AA11,'Stats Global'!AA12,'Stats Global'!AA13,'Stats Global'!AA15,'Stats Global'!AA19,'Stats Global'!AA18,'Stats Global'!AA23),1)</f>
         <v>0</v>
       </c>
     </row>
@@ -23313,14 +23397,14 @@
         <v>N/A</v>
       </c>
       <c r="P44" s="100">
-        <f>ROUND(SUM('Stats Global'!AC9,'Stats Global'!AC11:AC13,'Stats Global'!AC22)/COUNT(B4:B40),1)</f>
+        <f>ROUND(SUM('Stats Global'!AC11,'Stats Global'!AC12,'Stats Global'!AC13,'Stats Global'!AC15,'Stats Global'!AC19,'Stats Global'!AC18,'Stats Global'!AC23),1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="J45" s="81" t="str">
         <f>L45&amp;P43&amp;","&amp;P44&amp;","&amp;P45&amp;","&amp;P46&amp;","&amp;P47&amp;","&amp;P48&amp;"],"</f>
-        <v>"PartC":[0,0,0,0,0,0],</v>
+        <v>"PartC":[0,0,0,0,0,8],</v>
       </c>
       <c r="L45" s="81" t="s">
         <v>137</v>
@@ -23334,14 +23418,14 @@
         <v>N/A</v>
       </c>
       <c r="P45" s="100">
-        <f>ROUND(SUM('Stats Global'!AE9,'Stats Global'!AE11:AE13,'Stats Global'!AE22)/COUNT(B4:B40),1)</f>
+        <f>ROUND(SUM('Stats Global'!AE11,'Stats Global'!AE12,'Stats Global'!AE13,'Stats Global'!AE15,'Stats Global'!AE19,'Stats Global'!AE18,'Stats Global'!AE23),1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="J46" s="81" t="e">
+      <c r="J46" s="81" t="str">
         <f>L46&amp;'Statistics LG'!M41&amp;","&amp;'Statistics LG'!L41&amp;","&amp;ROUND((1-'Statistics LG'!L42)*100,1)&amp;","&amp;L41&amp;","&amp;M41&amp;","&amp;ROUND(L42*100,1)&amp;"],"</f>
-        <v>#DIV/0!</v>
+        <v>"PartD":[0,2,0,0,6,0],</v>
       </c>
       <c r="L46" s="81" t="s">
         <v>138</v>
@@ -23355,7 +23439,7 @@
         <v>N/A</v>
       </c>
       <c r="P46" s="100">
-        <f>ROUND(SUM('Stats Global'!AG9,'Stats Global'!AG11:AG13,'Stats Global'!AG22)/COUNT(B4:B40),2)</f>
+        <f>ROUND(SUM('Stats Global'!AG11,'Stats Global'!AG12,'Stats Global'!AG13,'Stats Global'!AG15,'Stats Global'!AG19,'Stats Global'!AG18,'Stats Global'!AG23),1)</f>
         <v>0</v>
       </c>
     </row>
@@ -23369,14 +23453,14 @@
         <v>N/A</v>
       </c>
       <c r="P47" s="81">
-        <f>ROUND(H4/COUNT(B4:B40),1)</f>
+        <f>ROUND(H4/'Stats Global'!AA6,1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P48" s="81">
-        <f>ROUND(I4/COUNT(B4:B40),1)</f>
-        <v>0</v>
+        <f>ROUND(I4/'Stats Global'!AA6,1)</f>
+        <v>8</v>
       </c>
     </row>
     <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -24333,10 +24417,10 @@
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -24346,8 +24430,11 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U10" sqref="U10"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32:K35"/>
+    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="E22" workbookViewId="1">
+      <selection activeCell="K32" sqref="K32:K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -24416,35 +24503,39 @@
       <c r="X3" s="83"/>
     </row>
     <row r="4" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="80">
+      <c r="A4" s="80" t="str">
         <f>'Stats Global'!B5</f>
-        <v>0</v>
+        <v>11-July</v>
       </c>
       <c r="B4" s="88">
         <f>'Stats Global'!L5</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C4" s="88">
         <f>'Stats Global'!M5+'Stats Global'!N5</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D4" s="88">
         <f>'Stats Global'!Q5</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
+        <v>3</v>
+      </c>
+      <c r="E4" s="85" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="85" t="s">
+        <v>50</v>
+      </c>
       <c r="H4" s="86">
         <f>SUM(B4:B40)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I4" s="86">
         <f>SUM(C4:C40)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J4" s="83">
         <f>SUM(D4:D40)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K4" s="89"/>
       <c r="L4" s="109" t="s">
@@ -24506,35 +24597,35 @@
       </c>
       <c r="M5" s="103">
         <f>'Stats Global'!AA17</f>
-        <v>0</v>
-      </c>
-      <c r="N5" s="103" t="e">
+        <v>6</v>
+      </c>
+      <c r="N5" s="103">
         <f>'Stats Global'!AB17</f>
-        <v>#DIV/0!</v>
+        <v>6</v>
       </c>
       <c r="O5" s="103">
         <f>'Stats Global'!AC17</f>
         <v>0</v>
       </c>
-      <c r="P5" s="103" t="e">
+      <c r="P5" s="103">
         <f>'Stats Global'!AD17</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="103">
         <f>'Stats Global'!AE17</f>
-        <v>0</v>
-      </c>
-      <c r="R5" s="103" t="e">
+        <v>4</v>
+      </c>
+      <c r="R5" s="103">
         <f>'Stats Global'!AF17</f>
-        <v>#DIV/0!</v>
+        <v>4</v>
       </c>
       <c r="S5" s="103">
         <f>'Stats Global'!AG17</f>
-        <v>0</v>
-      </c>
-      <c r="T5" s="103" t="e">
+        <v>1</v>
+      </c>
+      <c r="T5" s="103">
         <f>'Stats Global'!AH17</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="U5" s="103">
         <f>'Stats Global'!AJ17</f>
@@ -24571,35 +24662,35 @@
       </c>
       <c r="M6" s="103">
         <f>'Stats Global'!AA10</f>
-        <v>0</v>
-      </c>
-      <c r="N6" s="103" t="e">
+        <v>5</v>
+      </c>
+      <c r="N6" s="103">
         <f>'Stats Global'!AB10</f>
-        <v>#DIV/0!</v>
+        <v>5</v>
       </c>
       <c r="O6" s="103">
         <f>'Stats Global'!AC10</f>
-        <v>0</v>
-      </c>
-      <c r="P6" s="103" t="e">
+        <v>3</v>
+      </c>
+      <c r="P6" s="103">
         <f>'Stats Global'!AD10</f>
-        <v>#DIV/0!</v>
+        <v>3</v>
       </c>
       <c r="Q6" s="103">
         <f>'Stats Global'!AE10</f>
         <v>0</v>
       </c>
-      <c r="R6" s="103" t="e">
+      <c r="R6" s="103">
         <f>'Stats Global'!AF10</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="S6" s="103">
         <f>'Stats Global'!AG10</f>
-        <v>0</v>
-      </c>
-      <c r="T6" s="103" t="e">
+        <v>1</v>
+      </c>
+      <c r="T6" s="103">
         <f>'Stats Global'!AH10</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="U6" s="103">
         <f>'Stats Global'!AJ10</f>
@@ -24638,33 +24729,33 @@
         <f>'Stats Global'!AA13</f>
         <v>0</v>
       </c>
-      <c r="N7" s="103" t="e">
+      <c r="N7" s="103">
         <f>'Stats Global'!AB13</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="O7" s="103">
         <f>'Stats Global'!AC13</f>
         <v>0</v>
       </c>
-      <c r="P7" s="103" t="e">
+      <c r="P7" s="103">
         <f>'Stats Global'!AD13</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="103">
         <f>'Stats Global'!AE13</f>
         <v>0</v>
       </c>
-      <c r="R7" s="103" t="e">
+      <c r="R7" s="103">
         <f>'Stats Global'!AF13</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="S7" s="103">
         <f>'Stats Global'!AG13</f>
         <v>0</v>
       </c>
-      <c r="T7" s="103" t="e">
+      <c r="T7" s="103">
         <f>'Stats Global'!AH13</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="U7" s="103">
         <f>'Stats Global'!AJ13</f>
@@ -24701,35 +24792,35 @@
       </c>
       <c r="M8" s="103">
         <f>'Stats Global'!AA14</f>
-        <v>0</v>
-      </c>
-      <c r="N8" s="103" t="e">
+        <v>2</v>
+      </c>
+      <c r="N8" s="103">
         <f>'Stats Global'!AB14</f>
-        <v>#DIV/0!</v>
+        <v>2</v>
       </c>
       <c r="O8" s="103">
         <f>'Stats Global'!AC14</f>
-        <v>0</v>
-      </c>
-      <c r="P8" s="103" t="e">
+        <v>1</v>
+      </c>
+      <c r="P8" s="103">
         <f>'Stats Global'!AD14</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="103">
         <f>'Stats Global'!AE14</f>
-        <v>0</v>
-      </c>
-      <c r="R8" s="103" t="e">
+        <v>1</v>
+      </c>
+      <c r="R8" s="103">
         <f>'Stats Global'!AF14</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="S8" s="103">
         <f>'Stats Global'!AG14</f>
         <v>0</v>
       </c>
-      <c r="T8" s="103" t="e">
+      <c r="T8" s="103">
         <f>'Stats Global'!AH14</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="U8" s="103">
         <f>'Stats Global'!AJ14</f>
@@ -24768,33 +24859,33 @@
         <f>'Stats Global'!AA24</f>
         <v>0</v>
       </c>
-      <c r="N9" s="103" t="e">
+      <c r="N9" s="103">
         <f>'Stats Global'!AB24</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="O9" s="103">
         <f>'Stats Global'!AC24</f>
         <v>0</v>
       </c>
-      <c r="P9" s="103" t="e">
+      <c r="P9" s="103">
         <f>'Stats Global'!AD24</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="103">
         <f>'Stats Global'!AE24</f>
         <v>0</v>
       </c>
-      <c r="R9" s="103" t="e">
+      <c r="R9" s="103">
         <f>'Stats Global'!AF24</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="S9" s="103">
         <f>'Stats Global'!AG24</f>
         <v>0</v>
       </c>
-      <c r="T9" s="103" t="e">
+      <c r="T9" s="103">
         <f>'Stats Global'!AH24</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="U9" s="103">
         <f>'Stats Global'!AJ24</f>
@@ -25548,7 +25639,7 @@
       <c r="J32" s="86"/>
       <c r="K32" s="99" t="str">
         <f>M32&amp;H4&amp;","&amp;I4&amp;"],"</f>
-        <v>"PartA":[0,0],</v>
+        <v>"PartA":[12,3],</v>
       </c>
       <c r="L32" s="86"/>
       <c r="M32" s="81" t="s">
@@ -25557,9 +25648,9 @@
       <c r="O32" s="81" t="s">
         <v>139</v>
       </c>
-      <c r="Q32" s="100" t="e">
-        <f>SUM(Table11[Average])</f>
-        <v>#DIV/0!</v>
+      <c r="Q32" s="100">
+        <f>ROUND(SUM('Stats Global'!AA10,'Stats Global'!AA14,'Stats Global'!AA17,'Stats Global'!AA20,'Stats Global'!AA24),1)</f>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -25583,22 +25674,22 @@
       <c r="F33" s="85"/>
       <c r="K33" s="81" t="str">
         <f>M33&amp;O33&amp;","&amp;CHAR(34)&amp;P33&amp;CHAR(34)&amp;","&amp;O34&amp;","&amp;CHAR(34)&amp;P34&amp;CHAR(34)&amp;","&amp;O35&amp;","&amp;CHAR(34)&amp;P35&amp;CHAR(34)&amp;","&amp;O36&amp;","&amp;CHAR(34)&amp;P36&amp;CHAR(34)&amp;"],"</f>
-        <v>"PartB":[0,"N/A",0,"N/A",0,"N/A",0,"N/A"],</v>
+        <v>"PartB":[6,"Samuel McConaghy",3,"Alexander Galt",4,"Samuel McConaghy",1,"Samuel McConaghy"],</v>
       </c>
       <c r="M33" s="81" t="s">
         <v>136</v>
       </c>
       <c r="O33" s="101">
         <f>MAX(Table11[Points])</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P33" s="81" t="str">
         <f>IF(O33&lt;&gt;0,IF(O33=M5,L5,IF(O33=M6,L6,IF(M7=O33,L7,IF(M8=O33,L8,L9)))),"N/A")</f>
-        <v>N/A</v>
-      </c>
-      <c r="Q33" s="100" t="e">
-        <f>SUM(Table11[Averages])</f>
-        <v>#DIV/0!</v>
+        <v>Samuel McConaghy</v>
+      </c>
+      <c r="Q33" s="100">
+        <f>ROUND(SUM('Stats Global'!AC10,'Stats Global'!AC14,'Stats Global'!AC17,'Stats Global'!AC20,'Stats Global'!AC24),1)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -25620,24 +25711,24 @@
       </c>
       <c r="E34" s="85"/>
       <c r="F34" s="85"/>
-      <c r="K34" s="81" t="e">
+      <c r="K34" s="81" t="str">
         <f>M34&amp;Q32&amp;","&amp;Q33&amp;","&amp;Q34&amp;","&amp;Q35&amp;","&amp;Q36&amp;","&amp;Q37&amp;"],"</f>
-        <v>#DIV/0!</v>
+        <v>"PartC":[15,4,5,3,12,3],</v>
       </c>
       <c r="M34" s="81" t="s">
         <v>137</v>
       </c>
       <c r="O34" s="101">
         <f>MAX(Table11[Finishes])</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P34" s="81" t="str">
         <f>IF(O34&lt;&gt;0,IF(O34=O5,L5,IF(O34=O6,L6,IF(O7=O34,L7,IF(O8=O34,L8,L9)))),"N/A")</f>
-        <v>N/A</v>
-      </c>
-      <c r="Q34" s="100" t="e">
-        <f>SUM(Table11[Averages2])</f>
-        <v>#DIV/0!</v>
+        <v>Alexander Galt</v>
+      </c>
+      <c r="Q34" s="100">
+        <f>ROUND(SUM('Stats Global'!AE10,'Stats Global'!AE14,'Stats Global'!AE17,'Stats Global'!AE20,'Stats Global'!AE24),1)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -25659,24 +25750,24 @@
       </c>
       <c r="E35" s="85"/>
       <c r="F35" s="85"/>
-      <c r="K35" s="81" t="e">
+      <c r="K35" s="81" t="str">
         <f>M35&amp;'Statistics LG'!P41&amp;","&amp;'Statistics LG'!O41&amp;","&amp;ROUND((1-'Statistics LG'!O42)*100,1)&amp;","&amp;'Statistics WW'!M41&amp;","&amp;'Statistics WW'!L41&amp;","&amp;ROUND((1-'Statistics WW'!L42)*100,1)&amp;"],"</f>
-        <v>#DIV/0!</v>
+        <v>"PartD":[6,3,66.7,6,0,100],</v>
       </c>
       <c r="M35" s="81" t="s">
         <v>138</v>
       </c>
       <c r="O35" s="101">
         <f>MAX(Table11[Midranges])</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P35" s="81" t="str">
         <f>IF(O35&lt;&gt;0,IF(O35=Q5,L5,IF(O35=Q6,L6,IF(Q7=O35,L7,IF(Q8=O35,L8,L9)))),"N/A")</f>
-        <v>N/A</v>
-      </c>
-      <c r="Q35" s="100" t="e">
-        <f>SUM(Table11[Averages3])</f>
-        <v>#DIV/0!</v>
+        <v>Samuel McConaghy</v>
+      </c>
+      <c r="Q35" s="100">
+        <f>ROUND(SUM('Stats Global'!AG10,'Stats Global'!AG14,'Stats Global'!AG17,'Stats Global'!AG20,'Stats Global'!AG24),1)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -25700,15 +25791,15 @@
       <c r="F36" s="85"/>
       <c r="O36" s="101">
         <f>MAX(Table11[Threes])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P36" s="81" t="str">
         <f>IF(O36&lt;&gt;0,IF(O36=S5,L5,IF(O36=S6,L6,IF(S7=O36,L7,IF(S8=O36,L8,L9)))),"N/A")</f>
-        <v>N/A</v>
+        <v>Samuel McConaghy</v>
       </c>
       <c r="Q36" s="81">
-        <f>ROUND(H4/COUNT(B4:B40),1)</f>
-        <v>0</v>
+        <f>ROUND(H4/'Stats Global'!AA6,1)</f>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -25731,8 +25822,8 @@
       <c r="E37" s="85"/>
       <c r="F37" s="85"/>
       <c r="Q37" s="81">
-        <f>ROUND(I4/COUNT(B4:B40),1)</f>
-        <v>0</v>
+        <f>ROUND(I4/'Stats Global'!AA6,1)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -26769,7 +26860,10 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="B1:AE1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="A1:XFD1048576"/>
+    </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
@@ -28343,18 +28437,18 @@
     <row r="41" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.9">
       <c r="R41" s="104"/>
       <c r="S41" s="104"/>
-      <c r="T41" s="127" t="s">
+      <c r="T41" s="128" t="s">
         <v>119</v>
       </c>
-      <c r="U41" s="127"/>
-      <c r="V41" s="127"/>
+      <c r="U41" s="128"/>
+      <c r="V41" s="128"/>
     </row>
     <row r="42" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.9">
       <c r="R42" s="104"/>
       <c r="S42" s="104"/>
-      <c r="T42" s="127"/>
-      <c r="U42" s="127"/>
-      <c r="V42" s="127"/>
+      <c r="T42" s="128"/>
+      <c r="U42" s="128"/>
+      <c r="V42" s="128"/>
     </row>
     <row r="43" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B43" s="17" t="s">
@@ -29469,4 +29563,2985 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03838906-0D06-4CE3-8060-96BC8217D4DC}">
+  <dimension ref="B1:AE1000"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L46" sqref="L46"/>
+    </sheetView>
+    <sheetView workbookViewId="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="8.73046875" style="17" customWidth="1"/>
+    <col min="2" max="2" width="13.1328125" style="17" customWidth="1"/>
+    <col min="3" max="3" width="11.73046875" style="17" customWidth="1"/>
+    <col min="4" max="4" width="14" style="17" customWidth="1"/>
+    <col min="5" max="17" width="8.73046875" style="17" customWidth="1"/>
+    <col min="18" max="18" width="10.73046875" style="17" customWidth="1"/>
+    <col min="19" max="26" width="8.73046875" style="17" customWidth="1"/>
+    <col min="27" max="16384" width="14.3984375" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="52" t="s">
+        <v>206</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="R2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="V2" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+    </row>
+    <row r="3" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="L3" s="12">
+        <f>COUNTIF(C3:C40, "Loose Gooses")</f>
+        <v>5</v>
+      </c>
+      <c r="M3" s="12">
+        <f>COUNTIF(D3:D40, "Loose Gooses")</f>
+        <v>6</v>
+      </c>
+      <c r="N3" s="11">
+        <f>L3/(L3+M3)</f>
+        <v>0.45454545454545453</v>
+      </c>
+      <c r="O3" s="12">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R3" s="9">
+        <f t="shared" ref="R3:R19" si="0">COUNTIF($E$3:$E$40, Q3)+U3</f>
+        <v>0</v>
+      </c>
+      <c r="S3" s="10">
+        <f t="shared" ref="S3:S19" si="1">COUNTIFS($E$3:$E$40, $Q3,$F$3:$F$40,"Finish")</f>
+        <v>0</v>
+      </c>
+      <c r="T3" s="10">
+        <f t="shared" ref="T3:T19" si="2">COUNTIFS($E$3:$E$40, $Q3,$F$3:$F$40,"Midrange")</f>
+        <v>0</v>
+      </c>
+      <c r="U3" s="10">
+        <f t="shared" ref="U3:U19" si="3">COUNTIFS($E$3:$E$40, $Q3,$F$3:$F$40,"Three Pointer")</f>
+        <v>0</v>
+      </c>
+      <c r="V3" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="X3" s="53" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y3" s="53" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z3" s="53" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB3" s="2"/>
+    </row>
+    <row r="4" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="26">
+        <v>1</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="G4" s="26">
+        <v>1</v>
+      </c>
+      <c r="H4" s="26">
+        <v>1</v>
+      </c>
+      <c r="I4" s="26">
+        <v>1</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="L4" s="12">
+        <f>COUNTIF(C3:C40, "5 Musketeers")</f>
+        <v>12</v>
+      </c>
+      <c r="M4" s="12">
+        <f>COUNTIF(D3:D40, "5 Musketeers")</f>
+        <v>3</v>
+      </c>
+      <c r="N4" s="11">
+        <f t="shared" ref="N4:N5" si="4">L4/(L4+M4)</f>
+        <v>0.8</v>
+      </c>
+      <c r="O4" s="12">
+        <f>IF(AND(N4&gt;N3, N4&gt;N5), 3, IF(OR(N4&gt;N3, N4&gt;N5), 2, 1))</f>
+        <v>3</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="R4" s="9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="S4" s="10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T4" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U4" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V4" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="X4" s="54" t="str">
+        <f t="shared" ref="X4:X36" si="5">IF(AND(C4="Loose Gooses",D4="Wet Willies"),"LG/WW", IF(AND(C4="Loose Gooses",D4="5 Musketeers"),"LG/5M", ""))</f>
+        <v>LG/5M</v>
+      </c>
+      <c r="Y4" s="54" t="str">
+        <f t="shared" ref="Y4:Y36" si="6">IF(AND(C4="Wet Willies",D4="Loose Gooses"),"WW/LG", IF(AND(C4="Wet Willies",D4="5 Musketeers"),"WW/5M", ""))</f>
+        <v/>
+      </c>
+      <c r="Z4" s="54" t="str">
+        <f t="shared" ref="Z4:Z36" si="7">IF(AND(C4="5 Musketeers",D4="Loose Gooses"),"5M/LG", IF(AND($C4="5 Musketeers",$D4="Wet Willies"),"5M/WW", ""))</f>
+        <v/>
+      </c>
+      <c r="AB4" s="2"/>
+    </row>
+    <row r="5" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="26">
+        <v>2</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="G5" s="26">
+        <v>2</v>
+      </c>
+      <c r="H5" s="26">
+        <v>1</v>
+      </c>
+      <c r="I5" s="26">
+        <v>1</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="L5" s="12">
+        <f>COUNTIF(C3:C40, "Wet Willies")</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="12">
+        <f>COUNTIF(D3:D40, "Wet Willies")</f>
+        <v>8</v>
+      </c>
+      <c r="N5" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O5" s="12">
+        <f>IF(AND(N5&gt;N4, N5&gt;N3), 3, IF(OR(N5&gt;N4, N5&gt;N3), 2, 1))</f>
+        <v>1</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R5" s="9">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="S5" s="10">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="T5" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U5" s="10">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="V5" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="X5" s="54" t="str">
+        <f t="shared" si="5"/>
+        <v>LG/WW</v>
+      </c>
+      <c r="Y5" s="54" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Z5" s="54" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AB5" s="2"/>
+    </row>
+    <row r="6" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="26">
+        <v>3</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="G6" s="26">
+        <v>1</v>
+      </c>
+      <c r="H6" s="26">
+        <v>1</v>
+      </c>
+      <c r="I6" s="26">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="R6" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S6" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T6" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U6" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V6" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="X6" s="54" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y6" s="54" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Z6" s="54" t="str">
+        <f t="shared" si="7"/>
+        <v>5M/LG</v>
+      </c>
+      <c r="AB6" s="2"/>
+    </row>
+    <row r="7" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="26">
+        <v>4</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="G7" s="26">
+        <v>2</v>
+      </c>
+      <c r="H7" s="26">
+        <v>2</v>
+      </c>
+      <c r="I7" s="26">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="R7" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S7" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T7" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U7" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V7" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="X7" s="54" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y7" s="54" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Z7" s="54" t="str">
+        <f t="shared" si="7"/>
+        <v>5M/WW</v>
+      </c>
+      <c r="AB7" s="2"/>
+    </row>
+    <row r="8" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="26">
+        <v>5</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" s="26">
+        <v>3</v>
+      </c>
+      <c r="H8" s="26">
+        <v>2</v>
+      </c>
+      <c r="I8" s="26">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R8" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S8" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T8" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U8" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V8" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="X8" s="54" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y8" s="54" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Z8" s="54" t="str">
+        <f t="shared" si="7"/>
+        <v>5M/LG</v>
+      </c>
+      <c r="AB8" s="2"/>
+    </row>
+    <row r="9" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="26">
+        <v>6</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" s="26">
+        <v>4</v>
+      </c>
+      <c r="H9" s="26">
+        <v>3</v>
+      </c>
+      <c r="I9" s="26">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="R9" s="19">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="S9" s="10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T9" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U9" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V9" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="X9" s="54" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y9" s="54" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Z9" s="54" t="str">
+        <f t="shared" si="7"/>
+        <v>5M/WW</v>
+      </c>
+    </row>
+    <row r="10" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="26">
+        <v>7</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" s="26">
+        <v>5</v>
+      </c>
+      <c r="H10" s="26">
+        <v>3</v>
+      </c>
+      <c r="I10" s="26">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="R10" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S10" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T10" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U10" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V10" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="X10" s="54" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y10" s="54" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Z10" s="54" t="str">
+        <f t="shared" si="7"/>
+        <v>5M/LG</v>
+      </c>
+      <c r="AB10" s="2"/>
+    </row>
+    <row r="11" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="26">
+        <v>8</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="G11" s="26">
+        <v>6</v>
+      </c>
+      <c r="H11" s="26">
+        <v>4</v>
+      </c>
+      <c r="I11" s="26">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R11" s="9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="S11" s="10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T11" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U11" s="10">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="V11" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="X11" s="54" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y11" s="54" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Z11" s="54" t="str">
+        <f t="shared" si="7"/>
+        <v>5M/WW</v>
+      </c>
+      <c r="AB11" s="2"/>
+    </row>
+    <row r="12" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="26">
+        <v>9</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="G12" s="26">
+        <v>7</v>
+      </c>
+      <c r="H12" s="26">
+        <v>4</v>
+      </c>
+      <c r="I12" s="26">
+        <v>2</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="R12" s="9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="S12" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T12" s="10">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="U12" s="10">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="V12" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="X12" s="54" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y12" s="54" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Z12" s="54" t="str">
+        <f t="shared" si="7"/>
+        <v>5M/LG</v>
+      </c>
+      <c r="AB12" s="2"/>
+    </row>
+    <row r="13" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="26">
+        <v>10</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="G13" s="26">
+        <v>8</v>
+      </c>
+      <c r="H13" s="26">
+        <v>5</v>
+      </c>
+      <c r="I13" s="26">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="R13" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S13" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T13" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U13" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V13" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="X13" s="54" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y13" s="54" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Z13" s="54" t="str">
+        <f t="shared" si="7"/>
+        <v>5M/WW</v>
+      </c>
+      <c r="AB13" s="2"/>
+    </row>
+    <row r="14" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="26">
+        <v>11</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="G14" s="26">
+        <v>9</v>
+      </c>
+      <c r="H14" s="26">
+        <v>5</v>
+      </c>
+      <c r="I14" s="26">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="R14" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S14" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T14" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U14" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V14" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="X14" s="54" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y14" s="54" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Z14" s="54" t="str">
+        <f t="shared" si="7"/>
+        <v>5M/LG</v>
+      </c>
+      <c r="AB14" s="2"/>
+    </row>
+    <row r="15" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="26">
+        <v>12</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="G15" s="26">
+        <v>10</v>
+      </c>
+      <c r="H15" s="26">
+        <v>6</v>
+      </c>
+      <c r="I15" s="26">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R15" s="9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="S15" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T15" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U15" s="10">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="V15" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="X15" s="54" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y15" s="54" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Z15" s="54" t="str">
+        <f t="shared" si="7"/>
+        <v>5M/WW</v>
+      </c>
+      <c r="AB15" s="2"/>
+    </row>
+    <row r="16" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="26">
+        <v>13</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="G16" s="26">
+        <v>1</v>
+      </c>
+      <c r="H16" s="26">
+        <v>1</v>
+      </c>
+      <c r="I16" s="26">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="R16" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S16" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T16" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U16" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V16" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="X16" s="54" t="str">
+        <f t="shared" si="5"/>
+        <v>LG/5M</v>
+      </c>
+      <c r="Y16" s="54" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Z16" s="54" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AB16" s="2"/>
+    </row>
+    <row r="17" spans="2:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="26">
+        <v>14</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="G17" s="26">
+        <v>2</v>
+      </c>
+      <c r="H17" s="26">
+        <v>7</v>
+      </c>
+      <c r="I17" s="26">
+        <v>2</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="R17" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S17" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T17" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U17" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V17" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="X17" s="54" t="str">
+        <f t="shared" si="5"/>
+        <v>LG/WW</v>
+      </c>
+      <c r="Y17" s="54" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Z17" s="54" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AB17" s="2"/>
+    </row>
+    <row r="18" spans="2:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="26">
+        <v>15</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="G18" s="26">
+        <v>1</v>
+      </c>
+      <c r="H18" s="26">
+        <v>1</v>
+      </c>
+      <c r="I18" s="26">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="R18" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S18" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T18" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U18" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V18" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="X18" s="54" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y18" s="54" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Z18" s="54" t="str">
+        <f t="shared" si="7"/>
+        <v>5M/LG</v>
+      </c>
+      <c r="AB18" s="2"/>
+    </row>
+    <row r="19" spans="2:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="26">
+        <v>16</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="G19" s="26">
+        <v>2</v>
+      </c>
+      <c r="H19" s="26">
+        <v>8</v>
+      </c>
+      <c r="I19" s="26">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="R19" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S19" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T19" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U19" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V19" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="X19" s="54" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y19" s="54" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Z19" s="54" t="str">
+        <f t="shared" si="7"/>
+        <v>5M/WW</v>
+      </c>
+    </row>
+    <row r="20" spans="2:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="26">
+        <v>17</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="G20" s="26">
+        <v>1</v>
+      </c>
+      <c r="H20" s="26">
+        <v>1</v>
+      </c>
+      <c r="I20" s="26">
+        <v>1</v>
+      </c>
+      <c r="X20" s="54" t="str">
+        <f t="shared" si="5"/>
+        <v>LG/5M</v>
+      </c>
+      <c r="Y20" s="54" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Z20" s="54" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="2:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="X21" s="54" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y21" s="54" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Z21" s="54" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="2:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="X22" s="54" t="str">
+        <f>IF(AND(C22="Loose Gooses",B45="Wet Willies"),"LG/WW", IF(AND(C22="Loose Gooses",B45="5 Musketeers"),"LG/5M", ""))</f>
+        <v/>
+      </c>
+      <c r="Y22" s="54" t="str">
+        <f>IF(AND(C22="Wet Willies",B45="Loose Gooses"),"WW/LG", IF(AND(C22="Wet Willies",B45="5 Musketeers"),"WW/5M", ""))</f>
+        <v/>
+      </c>
+      <c r="Z22" s="54" t="str">
+        <f>IF(AND(C22="5 Musketeers",B45="Loose Gooses"),"5M/LG", IF(AND($C22="5 Musketeers",$B45="Wet Willies"),"5M/WW", ""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="2:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="17" t="str">
+        <f>IF($V3, CHAR(34)&amp;"Did not Play"&amp;CHAR(34), R3)&amp;","</f>
+        <v>0,</v>
+      </c>
+      <c r="S23" s="17" t="str">
+        <f t="shared" ref="S23:U23" si="8">IF($V3, CHAR(34)&amp;"Did not Play"&amp;CHAR(34), S3)&amp;","</f>
+        <v>0,</v>
+      </c>
+      <c r="T23" s="17" t="str">
+        <f t="shared" si="8"/>
+        <v>0,</v>
+      </c>
+      <c r="U23" s="17" t="str">
+        <f t="shared" si="8"/>
+        <v>0,</v>
+      </c>
+      <c r="X23" s="54" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y23" s="54" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Z23" s="54" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="2:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="R24" s="17" t="str">
+        <f t="shared" ref="R24:U38" si="9">IF($V4, CHAR(34)&amp;"Did not Play"&amp;CHAR(34), R4)&amp;","</f>
+        <v>2,</v>
+      </c>
+      <c r="S24" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>1,</v>
+      </c>
+      <c r="T24" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>1,</v>
+      </c>
+      <c r="U24" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="X24" s="54" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y24" s="54" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Z24" s="54" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="2:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>5,</v>
+      </c>
+      <c r="S25" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>3,</v>
+      </c>
+      <c r="T25" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="U25" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>1,</v>
+      </c>
+      <c r="X25" s="54" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y25" s="54" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Z25" s="54" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="2:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>"Did not Play",</v>
+      </c>
+      <c r="S26" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>"Did not Play",</v>
+      </c>
+      <c r="T26" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>"Did not Play",</v>
+      </c>
+      <c r="U26" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>"Did not Play",</v>
+      </c>
+      <c r="X26" s="54" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y26" s="54" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Z26" s="54" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="2:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="R27" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="S27" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="T27" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="U27" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="X27" s="54" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y27" s="54" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Z27" s="54" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="2:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="R28" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="S28" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="T28" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="U28" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="X28" s="54" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y28" s="54" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Z28" s="54" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="2:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B29" s="50"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="50"/>
+      <c r="R29" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>2,</v>
+      </c>
+      <c r="S29" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>1,</v>
+      </c>
+      <c r="T29" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>1,</v>
+      </c>
+      <c r="U29" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="X29" s="54" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y29" s="54" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Z29" s="54" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="2:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="R30" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>"Did not Play",</v>
+      </c>
+      <c r="S30" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>"Did not Play",</v>
+      </c>
+      <c r="T30" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>"Did not Play",</v>
+      </c>
+      <c r="U30" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>"Did not Play",</v>
+      </c>
+      <c r="X30" s="54" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y30" s="54" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Z30" s="54" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="2:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
+      <c r="R31" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>3,</v>
+      </c>
+      <c r="S31" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>1,</v>
+      </c>
+      <c r="T31" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="U31" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>1,</v>
+      </c>
+      <c r="X31" s="54" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y31" s="54" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Z31" s="54" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="2:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
+      <c r="R32" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>6,</v>
+      </c>
+      <c r="S32" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="T32" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>4,</v>
+      </c>
+      <c r="U32" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>1,</v>
+      </c>
+      <c r="X32" s="54" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y32" s="54" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Z32" s="54" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
+      <c r="R33" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="S33" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="T33" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="U33" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="X33" s="54" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y33" s="54" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Z33" s="54" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
+      <c r="R34" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>"Did not Play",</v>
+      </c>
+      <c r="S34" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>"Did not Play",</v>
+      </c>
+      <c r="T34" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>"Did not Play",</v>
+      </c>
+      <c r="U34" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>"Did not Play",</v>
+      </c>
+      <c r="X34" s="54" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y34" s="54" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Z34" s="54" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R35" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>2,</v>
+      </c>
+      <c r="S35" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="T35" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="U35" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>1,</v>
+      </c>
+      <c r="X35" s="54" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y35" s="54" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Z35" s="54" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R36" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>1,</v>
+      </c>
+      <c r="S36" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="T36" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>1,</v>
+      </c>
+      <c r="U36" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="X36" s="54" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y36" s="54" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Z36" s="54" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R37" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="S37" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="T37" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="U37" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="X37" s="54" t="str">
+        <f>IF(AND(C37="Loose Gooses",D37="Wet Willies"),"LG/WW", IF(AND(C37="Loose Gooses",D37="5 Musketeers"),"LG/5M", ""))</f>
+        <v/>
+      </c>
+      <c r="Y37" s="54" t="str">
+        <f>IF(AND(C37="Wet Willies",D37="Loose Gooses"),"WW/LG", IF(AND(C37="Wet Willies",D37="5 Musketeers"),"WW/5M", ""))</f>
+        <v/>
+      </c>
+      <c r="Z37" s="54" t="str">
+        <f>IF(AND(C37="5 Musketeers",D37="Loose Gooses"),"5M/LG", IF(AND($C37="5 Musketeers",$D37="Wet Willies"),"5M/WW", ""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R38" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="S38" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="T38" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="U38" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="X38" s="54" t="str">
+        <f>IF(AND(C38="Loose Gooses",D38="Wet Willies"),"LG/WW", IF(AND(C38="Loose Gooses",D38="5 Musketeers"),"LG/5M", ""))</f>
+        <v/>
+      </c>
+      <c r="Y38" s="54" t="str">
+        <f>IF(AND(C38="Wet Willies",D38="Loose Gooses"),"WW/LG", IF(AND(C38="Wet Willies",D38="5 Musketeers"),"WW/5M", ""))</f>
+        <v/>
+      </c>
+      <c r="Z38" s="54" t="str">
+        <f>IF(AND(C38="5 Musketeers",D38="Loose Gooses"),"5M/LG", IF(AND($C38="5 Musketeers",$D38="Wet Willies"),"5M/WW", ""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R39" s="17">
+        <f>IF($V19, CHAR(34)&amp;"Did not Play"&amp;CHAR(34), R19)</f>
+        <v>0</v>
+      </c>
+      <c r="S39" s="17">
+        <f>IF($V19, CHAR(34)&amp;"Did not Play"&amp;CHAR(34), S19)</f>
+        <v>0</v>
+      </c>
+      <c r="T39" s="17">
+        <f>IF($V19, CHAR(34)&amp;"Did not Play"&amp;CHAR(34), T19)</f>
+        <v>0</v>
+      </c>
+      <c r="U39" s="17">
+        <f>IF($V19, CHAR(34)&amp;"Did not Play"&amp;CHAR(34), U19)</f>
+        <v>0</v>
+      </c>
+      <c r="X39" s="54" t="str">
+        <f>IF(AND(C39="Loose Gooses",D39="Wet Willies"),"LG/WW", IF(AND(C39="Loose Gooses",D39="5 Musketeers"),"LG/5M", ""))</f>
+        <v/>
+      </c>
+      <c r="Y39" s="54" t="str">
+        <f>IF(AND(C39="Wet Willies",D39="Loose Gooses"),"WW/LG", IF(AND(C39="Wet Willies",D39="5 Musketeers"),"WW/5M", ""))</f>
+        <v/>
+      </c>
+      <c r="Z39" s="54" t="str">
+        <f>IF(AND(C39="5 Musketeers",D39="Loose Gooses"),"5M/LG", IF(AND($C39="5 Musketeers",$D39="Wet Willies"),"5M/WW", ""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="78"/>
+      <c r="S40" s="9"/>
+      <c r="T40" s="9"/>
+      <c r="U40" s="9"/>
+    </row>
+    <row r="41" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.9">
+      <c r="R41" s="104"/>
+      <c r="S41" s="104"/>
+      <c r="T41" s="128" t="s">
+        <v>119</v>
+      </c>
+      <c r="U41" s="128"/>
+      <c r="V41" s="128"/>
+    </row>
+    <row r="42" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.9">
+      <c r="R42" s="104"/>
+      <c r="S42" s="104"/>
+      <c r="T42" s="128"/>
+      <c r="U42" s="128"/>
+      <c r="V42" s="128"/>
+    </row>
+    <row r="43" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B43" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="T43" s="74" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B44" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E44" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="F44" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="G44" s="105" t="s">
+        <v>179</v>
+      </c>
+      <c r="H44" s="105" t="s">
+        <v>180</v>
+      </c>
+      <c r="I44" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="J44" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="K44" s="105" t="s">
+        <v>182</v>
+      </c>
+      <c r="L44" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="M44" s="105" t="s">
+        <v>183</v>
+      </c>
+      <c r="N44" s="105" t="s">
+        <v>184</v>
+      </c>
+      <c r="O44" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="P44" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q44" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="T44" s="17" t="str">
+        <f>CHAR(34)&amp;"Date"&amp;CHAR(34)&amp;":["&amp;CHAR(34)&amp;""&amp;C2&amp;""&amp;CHAR(34)&amp;"],"</f>
+        <v>"Date":["11-July"],</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B45" s="79" t="str">
+        <f>C2</f>
+        <v>11-July</v>
+      </c>
+      <c r="C45" s="17">
+        <f>MAX(L3:L5)</f>
+        <v>12</v>
+      </c>
+      <c r="D45" s="17">
+        <f>COUNT(B4:B42)-C45-E45</f>
+        <v>5</v>
+      </c>
+      <c r="E45" s="17">
+        <f>MIN(L3:L5)</f>
+        <v>0</v>
+      </c>
+      <c r="F45" s="17">
+        <f>L3</f>
+        <v>5</v>
+      </c>
+      <c r="G45" s="17">
+        <f>COUNTIF(Y4:Y39, "WW/LG")</f>
+        <v>0</v>
+      </c>
+      <c r="H45" s="17">
+        <f>COUNTIF(Z4:Z39, "5M/LG")</f>
+        <v>6</v>
+      </c>
+      <c r="I45" s="17">
+        <f>L5</f>
+        <v>0</v>
+      </c>
+      <c r="J45" s="17">
+        <f>COUNTIF(X4:X39, "LG/WW")</f>
+        <v>2</v>
+      </c>
+      <c r="K45" s="17">
+        <f>COUNTIF(Z4:Z39, "5M/WW")</f>
+        <v>6</v>
+      </c>
+      <c r="L45" s="17">
+        <f>L4</f>
+        <v>12</v>
+      </c>
+      <c r="M45" s="17">
+        <f>COUNTIF(X4:X39, "LG/5M")</f>
+        <v>3</v>
+      </c>
+      <c r="N45" s="17">
+        <f>COUNTIF(Y4:Y39, "WW/5M")</f>
+        <v>0</v>
+      </c>
+      <c r="O45" s="17">
+        <f>O3</f>
+        <v>2</v>
+      </c>
+      <c r="P45" s="17">
+        <f>O5</f>
+        <v>1</v>
+      </c>
+      <c r="Q45" s="17">
+        <f>O4</f>
+        <v>3</v>
+      </c>
+      <c r="T45" s="17" t="str">
+        <f>CHAR(34)&amp;"Points"&amp;CHAR(34)&amp;":["&amp;R23&amp;R24&amp;R25&amp;R26&amp;R27&amp;R28&amp;R29&amp;R30&amp;R31&amp;R32&amp;R33&amp;R34&amp;R35&amp;R36&amp;R37&amp;R38&amp;R39&amp;"],"</f>
+        <v>"Points":[0,2,5,"Did not Play",0,0,2,"Did not Play",3,6,0,"Did not Play",2,1,0,0,0],</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="T46" s="17" t="str">
+        <f>CHAR(34)&amp;"Finishes"&amp;CHAR(34)&amp;":["&amp;S23&amp;S24&amp;S25&amp;S26&amp;S27&amp;S28&amp;S29&amp;S30&amp;S31&amp;S32&amp;S33&amp;S34&amp;S35&amp;S36&amp;S37&amp;S38&amp;S39&amp;"],"</f>
+        <v>"Finishes":[0,1,3,"Did not Play",0,0,1,"Did not Play",1,0,0,"Did not Play",0,0,0,0,0],</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="T47" s="17" t="str">
+        <f>CHAR(34)&amp;"Midrange"&amp;CHAR(34)&amp;":["&amp;T23&amp;T24&amp;T25&amp;T26&amp;T27&amp;T28&amp;T29&amp;T30&amp;T31&amp;T32&amp;T33&amp;T34&amp;T35&amp;T36&amp;T37&amp;T38&amp;T39&amp;"],"</f>
+        <v>"Midrange":[0,1,0,"Did not Play",0,0,1,"Did not Play",0,4,0,"Did not Play",0,1,0,0,0],</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="T48" s="17" t="str">
+        <f>CHAR(34)&amp;"ThreePointers"&amp;CHAR(34)&amp;":["&amp;U23&amp;U24&amp;U25&amp;U26&amp;U27&amp;U28&amp;U29&amp;U30&amp;U31&amp;U32&amp;U33&amp;U34&amp;U35&amp;U36&amp;U37&amp;U38&amp;U39&amp;"]"</f>
+        <v>"ThreePointers":[0,0,1,"Did not Play",0,0,0,"Did not Play",1,1,0,"Did not Play",1,0,0,0,0]</v>
+      </c>
+    </row>
+    <row r="49" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="T49" s="74" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="50" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="51" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="52" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="53" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="54" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="55" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="56" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="57" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="58" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="59" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="60" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="61" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="62" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="63" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="64" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="68" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="69" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="70" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="71" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="72" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="73" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="74" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="75" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="76" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="77" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="78" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="79" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="80" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="81" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="82" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="83" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="84" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="85" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="86" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="87" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="88" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="89" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="90" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="91" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="92" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="93" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="94" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="95" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="96" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="97" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="98" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="99" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="100" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="101" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="102" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="103" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="104" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="105" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="106" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="107" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="108" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="109" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="110" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="111" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="112" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="116" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="117" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="118" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="119" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="120" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="121" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="122" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="123" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="124" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="125" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="126" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="127" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="128" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="T41:V42"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Other Files/PastResults.xlsx
+++ b/Other Files/PastResults.xlsx
@@ -8,10 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\011445\Documents\GitHub\LTBO\Other Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E49D98AA-31D4-4D19-8040-402E1C1B75A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C7CB6D-5196-4CFA-84DC-F469F8CA4738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10515" yWindow="7748" windowWidth="12323" windowHeight="6990" activeTab="1" xr2:uid="{97F38C25-8AFB-41A5-8DBE-363B3D903D4E}"/>
-    <workbookView xWindow="10853" yWindow="8085" windowWidth="12322" windowHeight="6990" firstSheet="2" activeTab="4" xr2:uid="{1E3275F7-0219-46B7-B9B0-3246E28631A6}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="4" xr2:uid="{1E3275F7-0219-46B7-B9B0-3246E28631A6}"/>
   </bookViews>
   <sheets>
     <sheet name="SfW" sheetId="2" r:id="rId1"/>
@@ -20,7 +19,8 @@
     <sheet name="Statistics WW" sheetId="5" r:id="rId4"/>
     <sheet name="Statistics 5M" sheetId="6" r:id="rId5"/>
     <sheet name="Template" sheetId="7" r:id="rId6"/>
-    <sheet name="Preseason 1" sheetId="8" r:id="rId7"/>
+    <sheet name="Preseason 2" sheetId="9" r:id="rId7"/>
+    <sheet name="Preseason 1" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="212">
   <si>
     <t>Points</t>
   </si>
@@ -672,6 +672,9 @@
   <si>
     <t>N/A</t>
   </si>
+  <si>
+    <t>12-July</t>
+  </si>
 </sst>
 </file>
 
@@ -1204,11 +1207,11 @@
     <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1216,183 +1219,6 @@
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="154">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -4271,6 +4097,31 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -4387,15 +4238,14 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="1" formatCode="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -4465,6 +4315,44 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="1" formatCode="0"/>
       <fill>
         <patternFill patternType="none">
@@ -4474,6 +4362,121 @@
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -5255,46 +5258,46 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5459,46 +5462,46 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5663,46 +5666,46 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5939,301 +5942,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-AU"/>
-              <a:t>Win</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-AU" baseline="0"/>
-              <a:t> % against Musketeers</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-AU"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:val>
-            <c:numRef>
-              <c:f>'Statistics WW'!$N$4:$N$16</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="13"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1727-490C-9DF5-1B6C656BB929}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1080017439"/>
-        <c:axId val="1158175359"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1080017439"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1158175359"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1158175359"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1080017439"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -6279,46 +5987,6 @@
   <a:schemeClr val="accent6"/>
   <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent4"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -7286,522 +6954,6 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
@@ -7874,47 +7026,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>25213</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>6722</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>243727</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>60511</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0B093EB-5E1A-36FE-A6E9-45A08A35617F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{598ECA3B-99B4-4CAB-8F81-5D711AA5A7FC}" name="Table1" displayName="Table1" ref="Z7:AJ24" totalsRowShown="0" headerRowDxfId="147" dataDxfId="145" headerRowBorderDxfId="146" tableBorderDxfId="144" totalsRowBorderDxfId="143">
   <autoFilter ref="Z7:AJ24" xr:uid="{598ECA3B-99B4-4CAB-8F81-5D711AA5A7FC}"/>
@@ -7923,31 +7034,31 @@
     <tableColumn id="2" xr3:uid="{6662CE93-E9C4-47DE-9476-E46126825B0A}" name="Points" dataDxfId="141">
       <calculatedColumnFormula>SUM(AA29,AL29,AA49,AL49,AA69,AL69,AA89,AL89)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{8FDDFCB0-2692-4EB0-948C-7B877263B55B}" name="Average" dataDxfId="3">
+    <tableColumn id="3" xr3:uid="{8FDDFCB0-2692-4EB0-948C-7B877263B55B}" name="Average" dataDxfId="140">
       <calculatedColumnFormula>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Points]]/($AA$6-Table1[[#This Row],[Missed Games]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{CC3F9B31-1857-48FB-A18B-CBC82C117BF4}" name="Finishes" dataDxfId="140">
+    <tableColumn id="4" xr3:uid="{CC3F9B31-1857-48FB-A18B-CBC82C117BF4}" name="Finishes" dataDxfId="139">
       <calculatedColumnFormula>SUM(AB29,AM29,AB49,AM49,AB69,AM69,AB89,AM89)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{5F324C66-956D-4EDC-870F-8EDE96C328C8}" name="Averages" dataDxfId="2">
+    <tableColumn id="5" xr3:uid="{5F324C66-956D-4EDC-870F-8EDE96C328C8}" name="Averages" dataDxfId="138">
       <calculatedColumnFormula>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Finishes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{80C6E15E-675D-4F58-AA26-27226F1CE373}" name="Midranges" dataDxfId="139">
+    <tableColumn id="6" xr3:uid="{80C6E15E-675D-4F58-AA26-27226F1CE373}" name="Midranges" dataDxfId="137">
       <calculatedColumnFormula>SUM(AC29,AN29,AC49,AN49,AC69,AN69,AC89,AN89)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{8E7E6B37-23A0-4556-8839-B9D7834E3E68}" name="Averages2" dataDxfId="1">
+    <tableColumn id="7" xr3:uid="{8E7E6B37-23A0-4556-8839-B9D7834E3E68}" name="Averages2" dataDxfId="136">
       <calculatedColumnFormula>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Midranges]]/($AA$6-Table1[[#This Row],[Missed Games]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{8B28715D-E310-4E1F-B9F0-F58F7C70E830}" name="Threes" dataDxfId="138">
+    <tableColumn id="8" xr3:uid="{8B28715D-E310-4E1F-B9F0-F58F7C70E830}" name="Threes" dataDxfId="135">
       <calculatedColumnFormula>SUM(AD29,AO29,AD49,AO49,AD69,AO69,AD89,AO89)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{E0C0BF1C-40E8-4137-8E0F-BB238D651DAE}" name="Averages3" dataDxfId="0">
+    <tableColumn id="9" xr3:uid="{E0C0BF1C-40E8-4137-8E0F-BB238D651DAE}" name="Averages3" dataDxfId="134">
       <calculatedColumnFormula>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Threes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{1C75F230-74E0-47EE-BF13-C22289FE0F87}" name="Team" dataDxfId="137">
+    <tableColumn id="10" xr3:uid="{1C75F230-74E0-47EE-BF13-C22289FE0F87}" name="Team" dataDxfId="133">
       <calculatedColumnFormula>SfW!C3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{E167D7FA-56F9-4571-B292-FF3869585F59}" name="Missed Games" dataDxfId="136">
+    <tableColumn id="11" xr3:uid="{E167D7FA-56F9-4571-B292-FF3869585F59}" name="Missed Games" dataDxfId="132">
       <calculatedColumnFormula>SUM(AI29,AT29,AI49,AT49,AI69,AT69,AI89,AT89)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7956,94 +7067,94 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{744FF78C-74B5-4798-AD3D-741E3ACB43CF}" name="Table1114" displayName="Table1114" ref="R3:AA8" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{744FF78C-74B5-4798-AD3D-741E3ACB43CF}" name="Table1114" displayName="Table1114" ref="R3:AA8" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
   <autoFilter ref="R3:AA8" xr:uid="{744FF78C-74B5-4798-AD3D-741E3ACB43CF}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{B3B5C08C-655A-460A-A171-B3B0C826FF04}" name="Name" dataDxfId="38"/>
-    <tableColumn id="2" xr3:uid="{427944B0-44CA-4325-A406-29F83026BA5E}" name="Points" dataDxfId="37">
+    <tableColumn id="1" xr3:uid="{B3B5C08C-655A-460A-A171-B3B0C826FF04}" name="Name" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{427944B0-44CA-4325-A406-29F83026BA5E}" name="Points" dataDxfId="32">
       <calculatedColumnFormula>'Stats Global'!AA22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{5E06D173-4DBE-4045-9072-0A0A77D19C84}" name="Average" dataDxfId="36"/>
-    <tableColumn id="4" xr3:uid="{E74131A4-1DCA-4A89-8989-A4CF80175582}" name="Finishes" dataDxfId="35"/>
-    <tableColumn id="5" xr3:uid="{FC3336D4-2CB5-4673-A345-7C9CCED7ADEE}" name="Averages" dataDxfId="34"/>
-    <tableColumn id="6" xr3:uid="{BD6313A7-5D92-4B66-9B85-7ABC12DE9691}" name="Midranges" dataDxfId="33"/>
-    <tableColumn id="7" xr3:uid="{6D0293BC-7E06-45CE-9D4B-FE4769DF9D9F}" name="Averages2" dataDxfId="32"/>
-    <tableColumn id="8" xr3:uid="{89C1C64B-DD66-482C-BCDE-8B912D2676EF}" name="Threes" dataDxfId="31"/>
-    <tableColumn id="9" xr3:uid="{7748B87C-1833-4BD6-9162-76373407E655}" name="Averages3" dataDxfId="30"/>
-    <tableColumn id="10" xr3:uid="{D870E191-A52F-442E-AA52-A42CFAD05573}" name="Missed Games" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{5E06D173-4DBE-4045-9072-0A0A77D19C84}" name="Average" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{E74131A4-1DCA-4A89-8989-A4CF80175582}" name="Finishes" dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{FC3336D4-2CB5-4673-A345-7C9CCED7ADEE}" name="Averages" dataDxfId="29"/>
+    <tableColumn id="6" xr3:uid="{BD6313A7-5D92-4B66-9B85-7ABC12DE9691}" name="Midranges" dataDxfId="28"/>
+    <tableColumn id="7" xr3:uid="{6D0293BC-7E06-45CE-9D4B-FE4769DF9D9F}" name="Averages2" dataDxfId="27"/>
+    <tableColumn id="8" xr3:uid="{89C1C64B-DD66-482C-BCDE-8B912D2676EF}" name="Threes" dataDxfId="26"/>
+    <tableColumn id="9" xr3:uid="{7748B87C-1833-4BD6-9162-76373407E655}" name="Averages3" dataDxfId="25"/>
+    <tableColumn id="10" xr3:uid="{D870E191-A52F-442E-AA52-A42CFAD05573}" name="Missed Games" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{54759C84-3153-4DC9-9240-E2749AA0D92B}" name="Table1113" displayName="Table1113" ref="O3:X10" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{54759C84-3153-4DC9-9240-E2749AA0D92B}" name="Table1113" displayName="Table1113" ref="O3:X10" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
   <autoFilter ref="O3:X10" xr:uid="{54759C84-3153-4DC9-9240-E2749AA0D92B}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{7790729E-C8E5-45C1-8784-25212A2654AA}" name="Name" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{52A67B2B-967C-4970-8D83-8F8E9CC61522}" name="Points" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{BA1FA2C8-AEC0-4644-83DB-5097750D7188}" name="Average" dataDxfId="24"/>
-    <tableColumn id="4" xr3:uid="{4CF66F5D-BF10-4CBD-88FF-CCD38730E1CD}" name="Finishes" dataDxfId="23"/>
-    <tableColumn id="5" xr3:uid="{BC246D5B-7E78-41A6-B796-C93ED8E53DF9}" name="Averages" dataDxfId="22"/>
-    <tableColumn id="6" xr3:uid="{AB819419-CC06-4A40-8DED-E231125129C0}" name="Midranges" dataDxfId="21"/>
-    <tableColumn id="7" xr3:uid="{064AA562-C451-4362-805E-D12DC76C3530}" name="Averages2" dataDxfId="20"/>
-    <tableColumn id="8" xr3:uid="{BD0D8BAE-15E4-4B38-87FE-B682D7BAEE75}" name="Threes" dataDxfId="19"/>
-    <tableColumn id="9" xr3:uid="{541E391B-4B08-4E98-A63F-753C11193269}" name="Averages3" dataDxfId="18"/>
-    <tableColumn id="10" xr3:uid="{999BB5D2-D6FB-4EB9-A268-D62EA72F939D}" name="Missed Games" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{7790729E-C8E5-45C1-8784-25212A2654AA}" name="Name" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{52A67B2B-967C-4970-8D83-8F8E9CC61522}" name="Points" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{BA1FA2C8-AEC0-4644-83DB-5097750D7188}" name="Average" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{4CF66F5D-BF10-4CBD-88FF-CCD38730E1CD}" name="Finishes" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{BC246D5B-7E78-41A6-B796-C93ED8E53DF9}" name="Averages" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{AB819419-CC06-4A40-8DED-E231125129C0}" name="Midranges" dataDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{064AA562-C451-4362-805E-D12DC76C3530}" name="Averages2" dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{BD0D8BAE-15E4-4B38-87FE-B682D7BAEE75}" name="Threes" dataDxfId="14"/>
+    <tableColumn id="9" xr3:uid="{541E391B-4B08-4E98-A63F-753C11193269}" name="Averages3" dataDxfId="13"/>
+    <tableColumn id="10" xr3:uid="{999BB5D2-D6FB-4EB9-A268-D62EA72F939D}" name="Missed Games" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{C12CFC3F-7D59-4C0F-8D43-3F8ACD58C2BD}" name="Table11" displayName="Table11" ref="L4:U9" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{C12CFC3F-7D59-4C0F-8D43-3F8ACD58C2BD}" name="Table11" displayName="Table11" ref="L4:U9" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="L4:U9" xr:uid="{C12CFC3F-7D59-4C0F-8D43-3F8ACD58C2BD}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{CE15C23D-9493-4B21-9D40-1A25D210C18E}" name="Name" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{6BB170B1-AA38-4699-9B96-400D2947EE9C}" name="Points" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{EC8B6CBB-FCC9-416C-AEA6-738419DFE531}" name="Average" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{315DA055-9A43-468A-A501-1092626F523F}" name="Finishes" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{56B6FF4D-95D4-4550-88E4-C781ABDA83A6}" name="Averages" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{F7B5C0B8-FBE2-44B0-A372-112C7776FCCF}" name="Midranges" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{1A1C2126-FEB1-408F-8523-049E53028B4E}" name="Averages2" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{AE94036B-3777-4C1B-97D5-7BFA1037C0BF}" name="Threes" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{448B0903-7F66-40BA-809F-74ADBF397B45}" name="Averages3" dataDxfId="6"/>
-    <tableColumn id="10" xr3:uid="{E0CAC55D-8398-4928-A219-C01706996D48}" name="Missed Games" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{CE15C23D-9493-4B21-9D40-1A25D210C18E}" name="Name" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{6BB170B1-AA38-4699-9B96-400D2947EE9C}" name="Points" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{EC8B6CBB-FCC9-416C-AEA6-738419DFE531}" name="Average" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{315DA055-9A43-468A-A501-1092626F523F}" name="Finishes" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{56B6FF4D-95D4-4550-88E4-C781ABDA83A6}" name="Averages" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{F7B5C0B8-FBE2-44B0-A372-112C7776FCCF}" name="Midranges" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{1A1C2126-FEB1-408F-8523-049E53028B4E}" name="Averages2" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{AE94036B-3777-4C1B-97D5-7BFA1037C0BF}" name="Threes" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{448B0903-7F66-40BA-809F-74ADBF397B45}" name="Averages3" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{E0CAC55D-8398-4928-A219-C01706996D48}" name="Missed Games" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{84D0C431-52CF-4ABD-AA3E-D31975A289B1}" name="Table2" displayName="Table2" ref="Z28:AI45" totalsRowShown="0" headerRowDxfId="135" dataDxfId="134">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{84D0C431-52CF-4ABD-AA3E-D31975A289B1}" name="Table2" displayName="Table2" ref="Z28:AI45" totalsRowShown="0" headerRowDxfId="131" dataDxfId="130">
   <autoFilter ref="Z28:AI45" xr:uid="{84D0C431-52CF-4ABD-AA3E-D31975A289B1}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{4DB7A2B8-7BD8-4BD7-8F53-2A7873A4EAAE}" name="Scoring" dataDxfId="133"/>
-    <tableColumn id="2" xr3:uid="{BE8EBD49-660A-4C9F-970E-230EBB942EF1}" name="Points" dataDxfId="4">
-      <calculatedColumnFormula>'Preseason 1'!R3</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{4DB7A2B8-7BD8-4BD7-8F53-2A7873A4EAAE}" name="Scoring" dataDxfId="129"/>
+    <tableColumn id="2" xr3:uid="{BE8EBD49-660A-4C9F-970E-230EBB942EF1}" name="Points" dataDxfId="128">
+      <calculatedColumnFormula>'Preseason 1'!R3+'Preseason 2'!R3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{C2C49EF0-4D8C-4F8C-8D19-CDD1481D9568}" name="Finishes" dataDxfId="132">
-      <calculatedColumnFormula>'Preseason 1'!S3</calculatedColumnFormula>
+    <tableColumn id="3" xr3:uid="{C2C49EF0-4D8C-4F8C-8D19-CDD1481D9568}" name="Finishes" dataDxfId="127">
+      <calculatedColumnFormula>'Preseason 1'!S3+'Preseason 2'!S3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{7E789F8C-B8F3-4D6E-AB6C-C9454835B062}" name="Midranges" dataDxfId="131">
-      <calculatedColumnFormula>'Preseason 1'!T3</calculatedColumnFormula>
+    <tableColumn id="4" xr3:uid="{7E789F8C-B8F3-4D6E-AB6C-C9454835B062}" name="Midranges" dataDxfId="126">
+      <calculatedColumnFormula>'Preseason 1'!T3+'Preseason 2'!T3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{18C990F2-A6D0-4F57-B96A-D00066DCC8D8}" name="Threes" dataDxfId="130">
-      <calculatedColumnFormula>'Preseason 1'!U3</calculatedColumnFormula>
+    <tableColumn id="5" xr3:uid="{18C990F2-A6D0-4F57-B96A-D00066DCC8D8}" name="Threes" dataDxfId="125">
+      <calculatedColumnFormula>'Preseason 1'!U3+'Preseason 2'!U3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{40526534-76CA-42BA-A8B6-AB092D9CE18F}" name="Avg P" dataDxfId="129">
+    <tableColumn id="6" xr3:uid="{40526534-76CA-42BA-A8B6-AB092D9CE18F}" name="Avg P" dataDxfId="124">
       <calculatedColumnFormula>AA29/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{693AF117-21F6-4887-B78D-D59235BABA44}" name="Avg F" dataDxfId="128">
+    <tableColumn id="7" xr3:uid="{693AF117-21F6-4887-B78D-D59235BABA44}" name="Avg F" dataDxfId="123">
       <calculatedColumnFormula>AB29/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{02AC8FBF-EBB3-4AFC-BAC5-B773E33B7279}" name="Avg M" dataDxfId="127">
+    <tableColumn id="8" xr3:uid="{02AC8FBF-EBB3-4AFC-BAC5-B773E33B7279}" name="Avg M" dataDxfId="122">
       <calculatedColumnFormula>AC29/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{CCF75EB4-34C4-4D47-9D51-E8D85C07E38B}" name="Avg T" dataDxfId="126">
+    <tableColumn id="9" xr3:uid="{CCF75EB4-34C4-4D47-9D51-E8D85C07E38B}" name="Avg T" dataDxfId="121">
       <calculatedColumnFormula>AD29/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{1A786A5C-D0C2-4ABC-904C-983180542D5F}" name="Missed Games" dataDxfId="125">
+    <tableColumn id="10" xr3:uid="{1A786A5C-D0C2-4ABC-904C-983180542D5F}" name="Missed Games" dataDxfId="120">
       <calculatedColumnFormula>COUNTIF(Template!V3, "TRUE")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8052,35 +7163,35 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{46F39EBA-1E74-46F4-A6E5-473672128124}" name="Table211" displayName="Table211" ref="AK28:AT45" totalsRowShown="0" headerRowDxfId="124" dataDxfId="123">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{46F39EBA-1E74-46F4-A6E5-473672128124}" name="Table211" displayName="Table211" ref="AK28:AT45" totalsRowShown="0" headerRowDxfId="119" dataDxfId="118">
   <autoFilter ref="AK28:AT45" xr:uid="{46F39EBA-1E74-46F4-A6E5-473672128124}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{5D003608-C1C2-4694-9447-8632FB8D7348}" name="Scoring" dataDxfId="122"/>
-    <tableColumn id="2" xr3:uid="{D15F4085-CED5-4CDD-B43B-BF7EB59B45A3}" name="Points" dataDxfId="121">
+    <tableColumn id="1" xr3:uid="{5D003608-C1C2-4694-9447-8632FB8D7348}" name="Scoring" dataDxfId="117"/>
+    <tableColumn id="2" xr3:uid="{D15F4085-CED5-4CDD-B43B-BF7EB59B45A3}" name="Points" dataDxfId="116">
       <calculatedColumnFormula>Template!AC3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{2D436F37-54B6-4820-9145-F48B4EF9B294}" name="Finishes" dataDxfId="120">
+    <tableColumn id="3" xr3:uid="{2D436F37-54B6-4820-9145-F48B4EF9B294}" name="Finishes" dataDxfId="115">
       <calculatedColumnFormula>Template!AD3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{1D9B6A22-B682-47F3-B738-7C138F317A41}" name="Midranges" dataDxfId="119">
+    <tableColumn id="4" xr3:uid="{1D9B6A22-B682-47F3-B738-7C138F317A41}" name="Midranges" dataDxfId="114">
       <calculatedColumnFormula>Template!AE3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{9966C9A0-3872-44E9-BB39-05DE197EAA68}" name="Threes" dataDxfId="118">
+    <tableColumn id="5" xr3:uid="{9966C9A0-3872-44E9-BB39-05DE197EAA68}" name="Threes" dataDxfId="113">
       <calculatedColumnFormula>Template!AF3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{CC4AB646-735F-425F-8528-C5EFE7FE11DC}" name="Avg P" dataDxfId="117">
+    <tableColumn id="6" xr3:uid="{CC4AB646-735F-425F-8528-C5EFE7FE11DC}" name="Avg P" dataDxfId="112">
       <calculatedColumnFormula>AL29/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{F8D0247E-C6F7-467A-9F38-46084D44F8AB}" name="Avg F" dataDxfId="116">
+    <tableColumn id="7" xr3:uid="{F8D0247E-C6F7-467A-9F38-46084D44F8AB}" name="Avg F" dataDxfId="111">
       <calculatedColumnFormula>AM29/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{7CCF1C77-9DB0-4EB2-B7D0-FD0BDBEBFA0E}" name="Avg M" dataDxfId="115">
+    <tableColumn id="8" xr3:uid="{7CCF1C77-9DB0-4EB2-B7D0-FD0BDBEBFA0E}" name="Avg M" dataDxfId="110">
       <calculatedColumnFormula>AN29/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{582A1A4E-5383-4383-A480-735408867046}" name="Avg T" dataDxfId="114">
+    <tableColumn id="9" xr3:uid="{582A1A4E-5383-4383-A480-735408867046}" name="Avg T" dataDxfId="109">
       <calculatedColumnFormula>AO29/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{E547AEB5-F9BA-4C5F-8DCE-34B6A8FF303A}" name="Missed Games" dataDxfId="113">
+    <tableColumn id="10" xr3:uid="{E547AEB5-F9BA-4C5F-8DCE-34B6A8FF303A}" name="Missed Games" dataDxfId="108">
       <calculatedColumnFormula>COUNTIF(Template!AG3, "TRUE")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8089,35 +7200,35 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{D27C125F-71B2-44D9-9F7A-9BED67755DD3}" name="Table21123" displayName="Table21123" ref="Z48:AI65" totalsRowShown="0" headerRowDxfId="112" dataDxfId="111">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{D27C125F-71B2-44D9-9F7A-9BED67755DD3}" name="Table21123" displayName="Table21123" ref="Z48:AI65" totalsRowShown="0" headerRowDxfId="107" dataDxfId="106">
   <autoFilter ref="Z48:AI65" xr:uid="{D27C125F-71B2-44D9-9F7A-9BED67755DD3}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{0B0344E8-2677-4FAB-9B03-4745991FB5AE}" name="Scoring" dataDxfId="110"/>
-    <tableColumn id="2" xr3:uid="{58CA1107-8BB4-4A5D-BA00-31619C8D3973}" name="Points" dataDxfId="109">
+    <tableColumn id="1" xr3:uid="{0B0344E8-2677-4FAB-9B03-4745991FB5AE}" name="Scoring" dataDxfId="105"/>
+    <tableColumn id="2" xr3:uid="{58CA1107-8BB4-4A5D-BA00-31619C8D3973}" name="Points" dataDxfId="104">
       <calculatedColumnFormula>Template!R23</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{8090861E-1FDF-44F4-9DB6-BB814E32C754}" name="Finishes" dataDxfId="108">
+    <tableColumn id="3" xr3:uid="{8090861E-1FDF-44F4-9DB6-BB814E32C754}" name="Finishes" dataDxfId="103">
       <calculatedColumnFormula>Template!S23</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{972D0347-DAB3-4985-A738-E5D78740D498}" name="Midranges" dataDxfId="107">
+    <tableColumn id="4" xr3:uid="{972D0347-DAB3-4985-A738-E5D78740D498}" name="Midranges" dataDxfId="102">
       <calculatedColumnFormula>Template!T23</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{48F5F884-1753-4988-9056-632B5EB6BBCB}" name="Threes" dataDxfId="106">
+    <tableColumn id="5" xr3:uid="{48F5F884-1753-4988-9056-632B5EB6BBCB}" name="Threes" dataDxfId="101">
       <calculatedColumnFormula>Template!U23</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{6953B627-EA05-418F-A758-FD59263EA60D}" name="Avg P" dataDxfId="105">
+    <tableColumn id="6" xr3:uid="{6953B627-EA05-418F-A758-FD59263EA60D}" name="Avg P" dataDxfId="100">
       <calculatedColumnFormula>AA49/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{BE057C9C-5ECD-4AC2-A9C0-18C89CFB52BC}" name="Avg F" dataDxfId="104">
+    <tableColumn id="7" xr3:uid="{BE057C9C-5ECD-4AC2-A9C0-18C89CFB52BC}" name="Avg F" dataDxfId="99">
       <calculatedColumnFormula>AB49/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{0FDEBEE7-CD5E-4A44-A0AE-74F044F1FF46}" name="Avg M" dataDxfId="103">
+    <tableColumn id="8" xr3:uid="{0FDEBEE7-CD5E-4A44-A0AE-74F044F1FF46}" name="Avg M" dataDxfId="98">
       <calculatedColumnFormula>AC49/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{76975BB6-3677-41A8-BC24-7536B1D876D3}" name="Avg T" dataDxfId="102">
+    <tableColumn id="9" xr3:uid="{76975BB6-3677-41A8-BC24-7536B1D876D3}" name="Avg T" dataDxfId="97">
       <calculatedColumnFormula>AD49/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{E5ADB69B-3BA2-4019-8C83-8B02221F187E}" name="Missed Games" dataDxfId="101">
+    <tableColumn id="10" xr3:uid="{E5ADB69B-3BA2-4019-8C83-8B02221F187E}" name="Missed Games" dataDxfId="96">
       <calculatedColumnFormula>COUNTIF(Template!V23, "TRUE")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8126,35 +7237,35 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{22B89D2C-1B74-4036-A4ED-A5E61F1B3AAC}" name="Table21124" displayName="Table21124" ref="AK48:AT65" totalsRowShown="0" headerRowDxfId="100" dataDxfId="99">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{22B89D2C-1B74-4036-A4ED-A5E61F1B3AAC}" name="Table21124" displayName="Table21124" ref="AK48:AT65" totalsRowShown="0" headerRowDxfId="95" dataDxfId="94">
   <autoFilter ref="AK48:AT65" xr:uid="{22B89D2C-1B74-4036-A4ED-A5E61F1B3AAC}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{3D35891E-3654-497A-8DB2-BF0BD916CA29}" name="Scoring" dataDxfId="98"/>
-    <tableColumn id="2" xr3:uid="{54B5B6AF-372A-4E07-B4D6-DFC66F7E20C5}" name="Points" dataDxfId="97">
+    <tableColumn id="1" xr3:uid="{3D35891E-3654-497A-8DB2-BF0BD916CA29}" name="Scoring" dataDxfId="93"/>
+    <tableColumn id="2" xr3:uid="{54B5B6AF-372A-4E07-B4D6-DFC66F7E20C5}" name="Points" dataDxfId="92">
       <calculatedColumnFormula>Template!AC23</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{6CA15B41-F560-4B43-8836-163F5BB5689C}" name="Finishes" dataDxfId="96">
+    <tableColumn id="3" xr3:uid="{6CA15B41-F560-4B43-8836-163F5BB5689C}" name="Finishes" dataDxfId="91">
       <calculatedColumnFormula>Template!AD23</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{8FF05262-0051-44F7-966E-8D405318BA69}" name="Midranges" dataDxfId="95">
+    <tableColumn id="4" xr3:uid="{8FF05262-0051-44F7-966E-8D405318BA69}" name="Midranges" dataDxfId="90">
       <calculatedColumnFormula>Template!AE23</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{F0D843FC-7A93-4C9A-BCCF-E789F7811B3B}" name="Threes" dataDxfId="94">
+    <tableColumn id="5" xr3:uid="{F0D843FC-7A93-4C9A-BCCF-E789F7811B3B}" name="Threes" dataDxfId="89">
       <calculatedColumnFormula>Template!AF23</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{F0498F8A-F646-4C1F-A3CF-E89E73750FC1}" name="Avg P" dataDxfId="93">
+    <tableColumn id="6" xr3:uid="{F0498F8A-F646-4C1F-A3CF-E89E73750FC1}" name="Avg P" dataDxfId="88">
       <calculatedColumnFormula>AL49/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{A387BC88-F45C-4386-8503-EFEA33BDAC38}" name="Avg F" dataDxfId="92">
+    <tableColumn id="7" xr3:uid="{A387BC88-F45C-4386-8503-EFEA33BDAC38}" name="Avg F" dataDxfId="87">
       <calculatedColumnFormula>AM49/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{BEA82919-0828-4351-A01A-D72E13E63FAB}" name="Avg M" dataDxfId="91">
+    <tableColumn id="8" xr3:uid="{BEA82919-0828-4351-A01A-D72E13E63FAB}" name="Avg M" dataDxfId="86">
       <calculatedColumnFormula>AN49/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{ABEBCE01-BCA4-4342-966C-27301889B607}" name="Avg T" dataDxfId="90">
+    <tableColumn id="9" xr3:uid="{ABEBCE01-BCA4-4342-966C-27301889B607}" name="Avg T" dataDxfId="85">
       <calculatedColumnFormula>AO49/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{65E7A8E7-4C51-42E4-AB0F-B7FF6099D70A}" name="Missed Games" dataDxfId="89">
+    <tableColumn id="10" xr3:uid="{65E7A8E7-4C51-42E4-AB0F-B7FF6099D70A}" name="Missed Games" dataDxfId="84">
       <calculatedColumnFormula>COUNTIF(Template!AG23, "TRUE")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8163,35 +7274,35 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{18C7D514-96DE-4BA6-B019-3E860ED143EC}" name="Table21125" displayName="Table21125" ref="AK68:AT85" totalsRowShown="0" headerRowDxfId="88" dataDxfId="87">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{18C7D514-96DE-4BA6-B019-3E860ED143EC}" name="Table21125" displayName="Table21125" ref="AK68:AT85" totalsRowShown="0" headerRowDxfId="83" dataDxfId="82">
   <autoFilter ref="AK68:AT85" xr:uid="{18C7D514-96DE-4BA6-B019-3E860ED143EC}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{D144EF14-69FD-4E71-90C7-56F49F45FAE5}" name="Scoring" dataDxfId="86"/>
-    <tableColumn id="2" xr3:uid="{34D1D392-F3E0-4C36-9EED-849D5B1149E6}" name="Points" dataDxfId="85">
+    <tableColumn id="1" xr3:uid="{D144EF14-69FD-4E71-90C7-56F49F45FAE5}" name="Scoring" dataDxfId="81"/>
+    <tableColumn id="2" xr3:uid="{34D1D392-F3E0-4C36-9EED-849D5B1149E6}" name="Points" dataDxfId="80">
       <calculatedColumnFormula>Template!AC43</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{E91D98A2-80BD-4E5C-9036-2FCC8185369F}" name="Finishes" dataDxfId="84">
+    <tableColumn id="3" xr3:uid="{E91D98A2-80BD-4E5C-9036-2FCC8185369F}" name="Finishes" dataDxfId="79">
       <calculatedColumnFormula>Template!AD43</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{D2E5029E-4811-4E9B-9A2D-5F5F8F322B0D}" name="Midranges" dataDxfId="83">
+    <tableColumn id="4" xr3:uid="{D2E5029E-4811-4E9B-9A2D-5F5F8F322B0D}" name="Midranges" dataDxfId="78">
       <calculatedColumnFormula>Template!AE43</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{B3E76CEE-33DA-4B18-8DCE-8EBC7EE592D7}" name="Threes" dataDxfId="82">
+    <tableColumn id="5" xr3:uid="{B3E76CEE-33DA-4B18-8DCE-8EBC7EE592D7}" name="Threes" dataDxfId="77">
       <calculatedColumnFormula>Template!AF43</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{6ABE1879-8018-4498-A9A1-22CF831F0364}" name="Avg P" dataDxfId="81">
+    <tableColumn id="6" xr3:uid="{6ABE1879-8018-4498-A9A1-22CF831F0364}" name="Avg P" dataDxfId="76">
       <calculatedColumnFormula>AL69/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{8DA4DD79-8A2A-49E4-996F-C1ACCED3C565}" name="Avg F" dataDxfId="80">
+    <tableColumn id="7" xr3:uid="{8DA4DD79-8A2A-49E4-996F-C1ACCED3C565}" name="Avg F" dataDxfId="75">
       <calculatedColumnFormula>AM69/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{256EA4BC-BA61-49E2-969F-0786AA9AA6EA}" name="Avg M" dataDxfId="79">
+    <tableColumn id="8" xr3:uid="{256EA4BC-BA61-49E2-969F-0786AA9AA6EA}" name="Avg M" dataDxfId="74">
       <calculatedColumnFormula>AN69/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{0E5566B2-99EC-4B03-A074-8705C4EDA484}" name="Avg T" dataDxfId="78">
+    <tableColumn id="9" xr3:uid="{0E5566B2-99EC-4B03-A074-8705C4EDA484}" name="Avg T" dataDxfId="73">
       <calculatedColumnFormula>AO69/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{3E2357F0-493E-401D-AC75-9AAB260F684E}" name="Missed Games" dataDxfId="77">
+    <tableColumn id="10" xr3:uid="{3E2357F0-493E-401D-AC75-9AAB260F684E}" name="Missed Games" dataDxfId="72">
       <calculatedColumnFormula>COUNTIF(Template!AG43, "TRUE")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8200,35 +7311,35 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{F118BED8-7AAF-4E55-A61F-C75C69A64AAE}" name="Table21126" displayName="Table21126" ref="Z68:AI85" totalsRowShown="0" headerRowDxfId="76" dataDxfId="75">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{F118BED8-7AAF-4E55-A61F-C75C69A64AAE}" name="Table21126" displayName="Table21126" ref="Z68:AI85" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70">
   <autoFilter ref="Z68:AI85" xr:uid="{F118BED8-7AAF-4E55-A61F-C75C69A64AAE}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{7723929D-65B3-40BB-8FDD-C4533243706C}" name="Scoring" dataDxfId="74"/>
-    <tableColumn id="2" xr3:uid="{EC28DE3D-619E-4930-A3AF-7AD1BE1D4843}" name="Points" dataDxfId="73">
+    <tableColumn id="1" xr3:uid="{7723929D-65B3-40BB-8FDD-C4533243706C}" name="Scoring" dataDxfId="69"/>
+    <tableColumn id="2" xr3:uid="{EC28DE3D-619E-4930-A3AF-7AD1BE1D4843}" name="Points" dataDxfId="68">
       <calculatedColumnFormula>Template!R43</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{9537269D-8C1D-42B5-866F-D03CE61A8512}" name="Finishes" dataDxfId="72">
+    <tableColumn id="3" xr3:uid="{9537269D-8C1D-42B5-866F-D03CE61A8512}" name="Finishes" dataDxfId="67">
       <calculatedColumnFormula>Template!S43</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{AC590DDB-BE19-4A14-8B98-1E5E2430AA45}" name="Midranges" dataDxfId="71">
+    <tableColumn id="4" xr3:uid="{AC590DDB-BE19-4A14-8B98-1E5E2430AA45}" name="Midranges" dataDxfId="66">
       <calculatedColumnFormula>Template!T43</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C96D3ACD-F34D-477E-86DE-4650EE56BC94}" name="Threes" dataDxfId="70">
+    <tableColumn id="5" xr3:uid="{C96D3ACD-F34D-477E-86DE-4650EE56BC94}" name="Threes" dataDxfId="65">
       <calculatedColumnFormula>Template!U43</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{A43DE5E9-BB01-49FA-A204-66EE7BAA2E9F}" name="Avg P" dataDxfId="69">
+    <tableColumn id="6" xr3:uid="{A43DE5E9-BB01-49FA-A204-66EE7BAA2E9F}" name="Avg P" dataDxfId="64">
       <calculatedColumnFormula>AA69/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{C75A19FF-6041-45C2-BACB-E347F06B6329}" name="Avg F" dataDxfId="68">
+    <tableColumn id="7" xr3:uid="{C75A19FF-6041-45C2-BACB-E347F06B6329}" name="Avg F" dataDxfId="63">
       <calculatedColumnFormula>AB69/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00D3FCFC-C9C5-4C96-BE0E-8E1FDC95D07C}" name="Avg M" dataDxfId="67">
+    <tableColumn id="8" xr3:uid="{00D3FCFC-C9C5-4C96-BE0E-8E1FDC95D07C}" name="Avg M" dataDxfId="62">
       <calculatedColumnFormula>AC69/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{0448FF4E-9D2D-47F6-89B7-F17D36B05E8A}" name="Avg T" dataDxfId="66">
+    <tableColumn id="9" xr3:uid="{0448FF4E-9D2D-47F6-89B7-F17D36B05E8A}" name="Avg T" dataDxfId="61">
       <calculatedColumnFormula>AD69/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{D5BDFA2D-095B-44F8-8567-15B3B1520E5A}" name="Missed Games" dataDxfId="65">
+    <tableColumn id="10" xr3:uid="{D5BDFA2D-095B-44F8-8567-15B3B1520E5A}" name="Missed Games" dataDxfId="60">
       <calculatedColumnFormula>COUNTIF(Template!V43, "TRUE")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8237,35 +7348,35 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{BDD2E472-3925-41A7-BECD-3315E6E71ECC}" name="Table21127" displayName="Table21127" ref="Z88:AI105" totalsRowShown="0" headerRowDxfId="64" dataDxfId="63">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{BDD2E472-3925-41A7-BECD-3315E6E71ECC}" name="Table21127" displayName="Table21127" ref="Z88:AI105" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58">
   <autoFilter ref="Z88:AI105" xr:uid="{BDD2E472-3925-41A7-BECD-3315E6E71ECC}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{9DBD966D-620C-4B97-A502-29D00ABE150B}" name="Scoring" dataDxfId="62"/>
-    <tableColumn id="2" xr3:uid="{F8F81F0E-16B3-4472-9D90-A92149C763E4}" name="Points" dataDxfId="61">
+    <tableColumn id="1" xr3:uid="{9DBD966D-620C-4B97-A502-29D00ABE150B}" name="Scoring" dataDxfId="57"/>
+    <tableColumn id="2" xr3:uid="{F8F81F0E-16B3-4472-9D90-A92149C763E4}" name="Points" dataDxfId="56">
       <calculatedColumnFormula>Template!R63</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{09859CE1-290D-4977-B02C-46F4E5A6FDC2}" name="Finishes" dataDxfId="60">
+    <tableColumn id="3" xr3:uid="{09859CE1-290D-4977-B02C-46F4E5A6FDC2}" name="Finishes" dataDxfId="55">
       <calculatedColumnFormula>Template!S63</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{7D751A0E-2895-46DF-B5E2-5A8AA5531CD2}" name="Midranges" dataDxfId="59">
+    <tableColumn id="4" xr3:uid="{7D751A0E-2895-46DF-B5E2-5A8AA5531CD2}" name="Midranges" dataDxfId="54">
       <calculatedColumnFormula>Template!T63</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{591CDC71-B0EA-413B-B6C1-77884E7E50D4}" name="Threes" dataDxfId="58">
+    <tableColumn id="5" xr3:uid="{591CDC71-B0EA-413B-B6C1-77884E7E50D4}" name="Threes" dataDxfId="53">
       <calculatedColumnFormula>Template!U63</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{52ED768C-5557-42DC-9824-7A4D9B547153}" name="Avg P" dataDxfId="57">
+    <tableColumn id="6" xr3:uid="{52ED768C-5557-42DC-9824-7A4D9B547153}" name="Avg P" dataDxfId="52">
       <calculatedColumnFormula>AA89/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{FC79BE87-72E2-4F5E-83D6-CDCE645EB943}" name="Avg F" dataDxfId="56">
+    <tableColumn id="7" xr3:uid="{FC79BE87-72E2-4F5E-83D6-CDCE645EB943}" name="Avg F" dataDxfId="51">
       <calculatedColumnFormula>AB89/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{BA012C22-0D65-4C11-98A7-4F958703D04B}" name="Avg M" dataDxfId="55">
+    <tableColumn id="8" xr3:uid="{BA012C22-0D65-4C11-98A7-4F958703D04B}" name="Avg M" dataDxfId="50">
       <calculatedColumnFormula>AC89/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{63344F2B-5D94-417D-85E2-C2BFBACE3E7E}" name="Avg T" dataDxfId="54">
+    <tableColumn id="9" xr3:uid="{63344F2B-5D94-417D-85E2-C2BFBACE3E7E}" name="Avg T" dataDxfId="49">
       <calculatedColumnFormula>AD89/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{1AD5A604-8909-45B3-8E43-11D407451CEA}" name="Missed Games" dataDxfId="53">
+    <tableColumn id="10" xr3:uid="{1AD5A604-8909-45B3-8E43-11D407451CEA}" name="Missed Games" dataDxfId="48">
       <calculatedColumnFormula>COUNTIF(Template!V63, "TRUE")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8274,35 +7385,35 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{F9183685-60DE-4163-AA62-BE4F563EE570}" name="Table21128" displayName="Table21128" ref="AK88:AT105" totalsRowShown="0" headerRowDxfId="52" dataDxfId="51">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{F9183685-60DE-4163-AA62-BE4F563EE570}" name="Table21128" displayName="Table21128" ref="AK88:AT105" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
   <autoFilter ref="AK88:AT105" xr:uid="{F9183685-60DE-4163-AA62-BE4F563EE570}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{E62FBAA0-D6F6-4997-96C9-B6B13FAA9B6E}" name="Scoring" dataDxfId="50"/>
-    <tableColumn id="2" xr3:uid="{0A655F6F-9A21-4167-85B6-B9F7DC2070CA}" name="Points" dataDxfId="49">
+    <tableColumn id="1" xr3:uid="{E62FBAA0-D6F6-4997-96C9-B6B13FAA9B6E}" name="Scoring" dataDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{0A655F6F-9A21-4167-85B6-B9F7DC2070CA}" name="Points" dataDxfId="44">
       <calculatedColumnFormula>Template!AC63</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{460771D3-3BD8-4DA3-AF1B-1A0F98EF1499}" name="Finishes" dataDxfId="48">
+    <tableColumn id="3" xr3:uid="{460771D3-3BD8-4DA3-AF1B-1A0F98EF1499}" name="Finishes" dataDxfId="43">
       <calculatedColumnFormula>Template!AD63</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{3C08B2D7-823D-49C3-A627-A5848E664B2F}" name="Midranges" dataDxfId="47">
+    <tableColumn id="4" xr3:uid="{3C08B2D7-823D-49C3-A627-A5848E664B2F}" name="Midranges" dataDxfId="42">
       <calculatedColumnFormula>Template!AE63</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{E88F45FB-4C46-4674-86D5-74808E7E5368}" name="Threes" dataDxfId="46">
+    <tableColumn id="5" xr3:uid="{E88F45FB-4C46-4674-86D5-74808E7E5368}" name="Threes" dataDxfId="41">
       <calculatedColumnFormula>Template!AF63</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{0C0E8016-1E6E-4F25-9675-4EE061FFD0F7}" name="Avg P" dataDxfId="45">
+    <tableColumn id="6" xr3:uid="{0C0E8016-1E6E-4F25-9675-4EE061FFD0F7}" name="Avg P" dataDxfId="40">
       <calculatedColumnFormula>AL89/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{F7AC350B-AE4B-4912-B21D-16D99E2AE8BF}" name="Avg F" dataDxfId="44">
+    <tableColumn id="7" xr3:uid="{F7AC350B-AE4B-4912-B21D-16D99E2AE8BF}" name="Avg F" dataDxfId="39">
       <calculatedColumnFormula>AM89/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{F451E5CA-B9C4-4EFA-A647-CEDB2FB39550}" name="Avg M" dataDxfId="43">
+    <tableColumn id="8" xr3:uid="{F451E5CA-B9C4-4EFA-A647-CEDB2FB39550}" name="Avg M" dataDxfId="38">
       <calculatedColumnFormula>AN89/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{ED1D92B5-05F1-40CE-A89F-E6627FAB4A59}" name="Avg T" dataDxfId="42">
+    <tableColumn id="9" xr3:uid="{ED1D92B5-05F1-40CE-A89F-E6627FAB4A59}" name="Avg T" dataDxfId="37">
       <calculatedColumnFormula>AO89/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{48A4808A-3DE6-4644-83F5-C2AEDDFC3E5E}" name="Missed Games" dataDxfId="41">
+    <tableColumn id="10" xr3:uid="{48A4808A-3DE6-4644-83F5-C2AEDDFC3E5E}" name="Missed Games" dataDxfId="36">
       <calculatedColumnFormula>COUNTIF(Template!AG63, "TRUE")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8511,10 +7622,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:X1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
@@ -8669,7 +7777,7 @@
       </c>
       <c r="D4" s="8">
         <f>'Stats Global'!AB9</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" s="12">
         <f>'Stats Global'!AA9</f>
@@ -8677,7 +7785,7 @@
       </c>
       <c r="F4" s="8">
         <f>'Stats Global'!AD9</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4" s="12">
         <f>'Stats Global'!AC9</f>
@@ -8685,7 +7793,7 @@
       </c>
       <c r="H4" s="8">
         <f>'Stats Global'!AF9</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I4" s="12">
         <f>'Stats Global'!AE9</f>
@@ -8723,7 +7831,7 @@
       </c>
       <c r="D5" s="8">
         <f>'Stats Global'!AB10</f>
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="E5" s="12">
         <f>'Stats Global'!AA10</f>
@@ -8731,7 +7839,7 @@
       </c>
       <c r="F5" s="8">
         <f>'Stats Global'!AD10</f>
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="G5" s="12">
         <f>'Stats Global'!AC10</f>
@@ -8747,7 +7855,7 @@
       </c>
       <c r="J5" s="8">
         <f>'Stats Global'!AH10</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K5" s="12">
         <f>'Stats Global'!AG10</f>
@@ -8990,7 +8098,7 @@
       </c>
       <c r="D9" s="8">
         <f>'Stats Global'!AB14</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9" s="12">
         <f>'Stats Global'!AA14</f>
@@ -8998,7 +8106,7 @@
       </c>
       <c r="F9" s="8">
         <f>'Stats Global'!AD14</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G9" s="12">
         <f>'Stats Global'!AC14</f>
@@ -9006,7 +8114,7 @@
       </c>
       <c r="H9" s="8">
         <f>'Stats Global'!AF14</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I9" s="12">
         <f>'Stats Global'!AE14</f>
@@ -9119,7 +8227,7 @@
       </c>
       <c r="D11" s="8">
         <f>'Stats Global'!AB16</f>
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="E11" s="12">
         <f>'Stats Global'!AA16</f>
@@ -9127,7 +8235,7 @@
       </c>
       <c r="F11" s="8">
         <f>'Stats Global'!AD16</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G11" s="12">
         <f>'Stats Global'!AC16</f>
@@ -9143,7 +8251,7 @@
       </c>
       <c r="J11" s="8">
         <f>'Stats Global'!AH16</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K11" s="12">
         <f>'Stats Global'!AG16</f>
@@ -9194,7 +8302,7 @@
       </c>
       <c r="D12" s="8">
         <f>'Stats Global'!AB17</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E12" s="12">
         <f>'Stats Global'!AA17</f>
@@ -9210,7 +8318,7 @@
       </c>
       <c r="H12" s="8">
         <f>'Stats Global'!AF17</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I12" s="12">
         <f>'Stats Global'!AE17</f>
@@ -9218,7 +8326,7 @@
       </c>
       <c r="J12" s="8">
         <f>'Stats Global'!AH17</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K12" s="12">
         <f>'Stats Global'!AG17</f>
@@ -9324,7 +8432,7 @@
       </c>
       <c r="D14" s="8">
         <f>'Stats Global'!AB20</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14" s="12">
         <f>'Stats Global'!AA20</f>
@@ -9348,7 +8456,7 @@
       </c>
       <c r="J14" s="8">
         <f>'Stats Global'!AH20</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K14" s="12">
         <f>'Stats Global'!AG20</f>
@@ -9396,7 +8504,7 @@
       </c>
       <c r="D15" s="8">
         <f>'Stats Global'!AB21</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E15" s="12">
         <f>'Stats Global'!AA21</f>
@@ -9412,7 +8520,7 @@
       </c>
       <c r="H15" s="8">
         <f>'Stats Global'!AF21</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I15" s="12">
         <f>'Stats Global'!AE21</f>
@@ -9680,19 +8788,19 @@
       </c>
     </row>
     <row r="21" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="128" t="s">
+      <c r="B21" s="130" t="s">
         <v>119</v>
       </c>
-      <c r="C21" s="128"/>
-      <c r="D21" s="128"/>
+      <c r="C21" s="130"/>
+      <c r="D21" s="130"/>
       <c r="X21" s="2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="22" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="128"/>
-      <c r="C22" s="128"/>
-      <c r="D22" s="128"/>
+      <c r="B22" s="130"/>
+      <c r="C22" s="130"/>
+      <c r="D22" s="130"/>
       <c r="X22" s="2" t="s">
         <v>71</v>
       </c>
@@ -9766,7 +8874,7 @@
     <row r="26" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B26" s="18" t="str">
         <f>D48&amp;":["&amp;D49&amp;D50&amp;D51&amp;D52&amp;D53&amp;D54&amp;D55&amp;D56&amp;D57&amp;D58&amp;D59&amp;D60&amp;D61&amp;D62&amp;D63&amp;D64&amp;"],"</f>
-        <v>"PPG":[0,2,5,0,0,0,2,0,3,6,0,2,1,0,0,0],</v>
+        <v>"PPG":[0,1,2.5,0,0,0,1,0,1.5,3,0,1,0.5,0,0,0],</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
@@ -9818,7 +8926,7 @@
     <row r="28" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B28" s="17" t="str">
         <f>F48&amp;":["&amp;F49&amp;F50&amp;F51&amp;F52&amp;F53&amp;F54&amp;F55&amp;F56&amp;F57&amp;F58&amp;F59&amp;F60&amp;F61&amp;F62&amp;F63&amp;F64&amp;"],"</f>
-        <v>"FPG":[0,1,3,0,0,0,1,0,1,0,0,0,0,0,0,0],</v>
+        <v>"FPG":[0,0.5,1.5,0,0,0,0.5,0,0.5,0,0,0,0,0,0,0],</v>
       </c>
       <c r="C28" s="17"/>
       <c r="D28" s="17"/>
@@ -9870,7 +8978,7 @@
     <row r="30" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B30" s="17" t="str">
         <f>H48&amp;":["&amp;H49&amp;H50&amp;H51&amp;H52&amp;H53&amp;H54&amp;H55&amp;H56&amp;H57&amp;H58&amp;H59&amp;H60&amp;H61&amp;H62&amp;H63&amp;H64&amp;"],"</f>
-        <v>"MPG":[0,1,0,0,0,0,1,0,0,4,0,0,1,0,0,0],</v>
+        <v>"MPG":[0,0.5,0,0,0,0,0.5,0,0,2,0,0,0.5,0,0,0],</v>
       </c>
       <c r="C30" s="17"/>
       <c r="D30" s="17"/>
@@ -9922,7 +9030,7 @@
     <row r="32" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B32" s="17" t="str">
         <f>J48&amp;":["&amp;J49&amp;J50&amp;J51&amp;J52&amp;J53&amp;J54&amp;J55&amp;J56&amp;J57&amp;J58&amp;J59&amp;J60&amp;J61&amp;J62&amp;J63&amp;J64&amp;"],"</f>
-        <v>"TPG":[0,0,1,0,0,0,0,0,1,1,0,1,0,0,0,0],</v>
+        <v>"TPG":[0,0,0.5,0,0,0,0,0,0.5,0.5,0,0.5,0,0,0,0],</v>
       </c>
       <c r="C32" s="17"/>
       <c r="D32" s="17"/>
@@ -10508,7 +9616,7 @@
       </c>
       <c r="D50" s="18" t="str">
         <f t="shared" si="4"/>
-        <v>2,</v>
+        <v>1,</v>
       </c>
       <c r="E50" s="18" t="str">
         <f t="shared" si="5"/>
@@ -10516,7 +9624,7 @@
       </c>
       <c r="F50" s="18" t="str">
         <f t="shared" si="6"/>
-        <v>1,</v>
+        <v>0.5,</v>
       </c>
       <c r="G50" s="18" t="str">
         <f t="shared" si="7"/>
@@ -10524,7 +9632,7 @@
       </c>
       <c r="H50" s="18" t="str">
         <f t="shared" si="8"/>
-        <v>1,</v>
+        <v>0.5,</v>
       </c>
       <c r="I50" s="18" t="str">
         <f t="shared" si="9"/>
@@ -10594,7 +9702,7 @@
       </c>
       <c r="D51" s="18" t="str">
         <f t="shared" si="4"/>
-        <v>5,</v>
+        <v>2.5,</v>
       </c>
       <c r="E51" s="18" t="str">
         <f t="shared" si="5"/>
@@ -10602,7 +9710,7 @@
       </c>
       <c r="F51" s="18" t="str">
         <f t="shared" si="6"/>
-        <v>3,</v>
+        <v>1.5,</v>
       </c>
       <c r="G51" s="18" t="str">
         <f t="shared" si="7"/>
@@ -10618,7 +9726,7 @@
       </c>
       <c r="J51" s="18" t="str">
         <f t="shared" si="10"/>
-        <v>1,</v>
+        <v>0.5,</v>
       </c>
       <c r="K51" s="18" t="str">
         <f t="shared" si="11"/>
@@ -10938,7 +10046,7 @@
       </c>
       <c r="D55" s="18" t="str">
         <f t="shared" si="4"/>
-        <v>2,</v>
+        <v>1,</v>
       </c>
       <c r="E55" s="18" t="str">
         <f t="shared" si="5"/>
@@ -10946,7 +10054,7 @@
       </c>
       <c r="F55" s="18" t="str">
         <f t="shared" si="6"/>
-        <v>1,</v>
+        <v>0.5,</v>
       </c>
       <c r="G55" s="18" t="str">
         <f t="shared" si="7"/>
@@ -10954,7 +10062,7 @@
       </c>
       <c r="H55" s="18" t="str">
         <f t="shared" si="8"/>
-        <v>1,</v>
+        <v>0.5,</v>
       </c>
       <c r="I55" s="18" t="str">
         <f t="shared" si="9"/>
@@ -11110,7 +10218,7 @@
       </c>
       <c r="D57" s="18" t="str">
         <f t="shared" si="4"/>
-        <v>3,</v>
+        <v>1.5,</v>
       </c>
       <c r="E57" s="18" t="str">
         <f t="shared" si="5"/>
@@ -11118,7 +10226,7 @@
       </c>
       <c r="F57" s="18" t="str">
         <f t="shared" si="6"/>
-        <v>1,</v>
+        <v>0.5,</v>
       </c>
       <c r="G57" s="18" t="str">
         <f t="shared" si="7"/>
@@ -11134,7 +10242,7 @@
       </c>
       <c r="J57" s="18" t="str">
         <f t="shared" si="10"/>
-        <v>1,</v>
+        <v>0.5,</v>
       </c>
       <c r="K57" s="18" t="str">
         <f t="shared" si="11"/>
@@ -11196,7 +10304,7 @@
       </c>
       <c r="D58" s="18" t="str">
         <f t="shared" si="4"/>
-        <v>6,</v>
+        <v>3,</v>
       </c>
       <c r="E58" s="18" t="str">
         <f t="shared" si="5"/>
@@ -11212,7 +10320,7 @@
       </c>
       <c r="H58" s="18" t="str">
         <f t="shared" si="8"/>
-        <v>4,</v>
+        <v>2,</v>
       </c>
       <c r="I58" s="18" t="str">
         <f t="shared" si="9"/>
@@ -11220,7 +10328,7 @@
       </c>
       <c r="J58" s="18" t="str">
         <f t="shared" si="10"/>
-        <v>1,</v>
+        <v>0.5,</v>
       </c>
       <c r="K58" s="18" t="str">
         <f t="shared" si="11"/>
@@ -11368,7 +10476,7 @@
       </c>
       <c r="D60" s="18" t="str">
         <f t="shared" si="4"/>
-        <v>2,</v>
+        <v>1,</v>
       </c>
       <c r="E60" s="18" t="str">
         <f t="shared" si="5"/>
@@ -11392,7 +10500,7 @@
       </c>
       <c r="J60" s="18" t="str">
         <f t="shared" si="10"/>
-        <v>1,</v>
+        <v>0.5,</v>
       </c>
       <c r="K60" s="18" t="str">
         <f t="shared" si="11"/>
@@ -11454,7 +10562,7 @@
       </c>
       <c r="D61" s="18" t="str">
         <f t="shared" si="4"/>
-        <v>1,</v>
+        <v>0.5,</v>
       </c>
       <c r="E61" s="18" t="str">
         <f t="shared" si="5"/>
@@ -11470,7 +10578,7 @@
       </c>
       <c r="H61" s="18" t="str">
         <f t="shared" si="8"/>
-        <v>1,</v>
+        <v>0.5,</v>
       </c>
       <c r="I61" s="18" t="str">
         <f t="shared" si="9"/>
@@ -12737,10 +11845,9 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:AT1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView topLeftCell="P4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AA20" sqref="AA20"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
@@ -12830,67 +11937,67 @@
       </c>
     </row>
     <row r="5" spans="2:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="129" t="str">
+      <c r="B5" s="128" t="str">
         <f>'Preseason 1'!B45</f>
         <v>11-July</v>
       </c>
-      <c r="C5" s="129">
+      <c r="C5" s="128">
         <f>'Preseason 1'!C45</f>
         <v>12</v>
       </c>
-      <c r="D5" s="129">
+      <c r="D5" s="128">
         <f>'Preseason 1'!D45</f>
         <v>5</v>
       </c>
-      <c r="E5" s="129">
+      <c r="E5" s="128">
         <f>'Preseason 1'!E45</f>
         <v>0</v>
       </c>
-      <c r="F5" s="129">
+      <c r="F5" s="128">
         <f>'Preseason 1'!F45</f>
         <v>5</v>
       </c>
-      <c r="G5" s="129">
+      <c r="G5" s="128">
         <f>'Preseason 1'!G45</f>
         <v>0</v>
       </c>
-      <c r="H5" s="129">
+      <c r="H5" s="128">
         <f>'Preseason 1'!H45</f>
         <v>6</v>
       </c>
-      <c r="I5" s="129">
+      <c r="I5" s="128">
         <f>'Preseason 1'!I45</f>
         <v>0</v>
       </c>
-      <c r="J5" s="129">
+      <c r="J5" s="128">
         <f>'Preseason 1'!J45</f>
         <v>2</v>
       </c>
-      <c r="K5" s="129">
+      <c r="K5" s="128">
         <f>'Preseason 1'!K45</f>
         <v>6</v>
       </c>
-      <c r="L5" s="129">
+      <c r="L5" s="128">
         <f>'Preseason 1'!L45</f>
         <v>12</v>
       </c>
-      <c r="M5" s="129">
+      <c r="M5" s="128">
         <f>'Preseason 1'!M45</f>
         <v>3</v>
       </c>
-      <c r="N5" s="129">
+      <c r="N5" s="128">
         <f>'Preseason 1'!N45</f>
         <v>0</v>
       </c>
-      <c r="O5" s="129">
+      <c r="O5" s="128">
         <f>'Preseason 1'!O45</f>
         <v>2</v>
       </c>
-      <c r="P5" s="129">
+      <c r="P5" s="128">
         <f>'Preseason 1'!P45</f>
         <v>1</v>
       </c>
-      <c r="Q5" s="129">
+      <c r="Q5" s="128">
         <f>'Preseason 1'!Q45</f>
         <v>3</v>
       </c>
@@ -12911,35 +12018,83 @@
       <c r="AT5" s="65"/>
     </row>
     <row r="6" spans="2:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="115"/>
-      <c r="C6" s="116"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="117"/>
-      <c r="H6" s="117"/>
-      <c r="I6" s="117"/>
-      <c r="J6" s="117"/>
-      <c r="K6" s="117"/>
-      <c r="L6" s="117"/>
-      <c r="M6" s="117"/>
-      <c r="N6" s="117"/>
-      <c r="O6" s="117"/>
-      <c r="P6" s="117"/>
-      <c r="Q6" s="117"/>
+      <c r="B6" s="128" t="str">
+        <f>'Preseason 2'!B45</f>
+        <v>12-July</v>
+      </c>
+      <c r="C6" s="128">
+        <f>'Preseason 2'!C45</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="128">
+        <f>'Preseason 2'!D45</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="128">
+        <f>'Preseason 2'!E45</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="128">
+        <f>'Preseason 2'!F45</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="128">
+        <f>'Preseason 2'!G45</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="128">
+        <f>'Preseason 2'!H45</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="128">
+        <f>'Preseason 2'!I45</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="128">
+        <f>'Preseason 2'!J45</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="128">
+        <f>'Preseason 2'!K45</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="128">
+        <f>'Preseason 2'!L45</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="128">
+        <f>'Preseason 2'!M45</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="128">
+        <f>'Preseason 2'!N45</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="128" t="e">
+        <f>'Preseason 2'!O45</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P6" s="128" t="e">
+        <f>'Preseason 2'!P45</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q6" s="128" t="e">
+        <f>'Preseason 2'!Q45</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="S6" s="5">
         <f>AVERAGE(C5:C30)</f>
-        <v>12</v>
-      </c>
-      <c r="T6" s="130">
+        <v>6</v>
+      </c>
+      <c r="T6" s="129">
         <f>AVERAGE(C5:C30)</f>
-        <v>12</v>
-      </c>
-      <c r="U6" s="130">
+        <v>6</v>
+      </c>
+      <c r="U6" s="129">
         <f>AVERAGE(D5:D30)</f>
-        <v>5</v>
-      </c>
-      <c r="V6" s="130">
+        <v>2.5</v>
+      </c>
+      <c r="V6" s="129">
         <f>AVERAGE(E5:E30)</f>
         <v>0</v>
       </c>
@@ -12948,7 +12103,7 @@
       </c>
       <c r="AA6" s="1">
         <f>AA27+AA46+AA65+AL27+AL46+AL65+AA84+AL84</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK6" s="30"/>
       <c r="AL6" s="30"/>
@@ -13127,7 +12282,7 @@
       </c>
       <c r="AB9" s="70">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Points]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC9" s="71">
         <f t="shared" ref="AC9:AC24" si="1">SUM(AB30,AM30,AB50,AM50,AB70,AM70,AB90,AM90)</f>
@@ -13135,7 +12290,7 @@
       </c>
       <c r="AD9" s="72">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Finishes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AE9" s="71">
         <f t="shared" ref="AE9:AE24" si="2">SUM(AC30,AN30,AC50,AN50,AC70,AN70,AC90,AN90)</f>
@@ -13143,7 +12298,7 @@
       </c>
       <c r="AF9" s="72">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Midranges]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AG9" s="71">
         <f t="shared" ref="AG9:AG24" si="3">SUM(AD30,AO30,AD50,AO50,AD70,AO70,AD90,AO90)</f>
@@ -13196,7 +12351,7 @@
       </c>
       <c r="AB10" s="70">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Points]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="AC10" s="71">
         <f t="shared" si="1"/>
@@ -13204,7 +12359,7 @@
       </c>
       <c r="AD10" s="72">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Finishes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AE10" s="71">
         <f t="shared" si="2"/>
@@ -13220,7 +12375,7 @@
       </c>
       <c r="AH10" s="72">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Threes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AI10" s="68" t="str">
         <f>SfW!C5</f>
@@ -13297,7 +12452,7 @@
       </c>
       <c r="AJ11" s="73">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK11" s="67"/>
       <c r="AL11" s="67"/>
@@ -13469,7 +12624,7 @@
       </c>
       <c r="AB14" s="70">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Points]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC14" s="71">
         <f t="shared" si="1"/>
@@ -13477,7 +12632,7 @@
       </c>
       <c r="AD14" s="72">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Finishes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AE14" s="71">
         <f t="shared" si="2"/>
@@ -13485,7 +12640,7 @@
       </c>
       <c r="AF14" s="72">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Midranges]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AG14" s="71">
         <f t="shared" si="3"/>
@@ -13569,7 +12724,7 @@
       </c>
       <c r="AJ15" s="73">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK15" s="67"/>
       <c r="AL15" s="67"/>
@@ -13605,7 +12760,7 @@
       </c>
       <c r="AB16" s="70">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Points]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AC16" s="71">
         <f t="shared" si="1"/>
@@ -13613,7 +12768,7 @@
       </c>
       <c r="AD16" s="72">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Finishes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AE16" s="71">
         <f t="shared" si="2"/>
@@ -13629,7 +12784,7 @@
       </c>
       <c r="AH16" s="72">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Threes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AI16" s="68" t="str">
         <f>SfW!C11</f>
@@ -13673,7 +12828,7 @@
       </c>
       <c r="AB17" s="70">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Points]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AC17" s="71">
         <f t="shared" si="1"/>
@@ -13689,7 +12844,7 @@
       </c>
       <c r="AF17" s="72">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Midranges]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AG17" s="71">
         <f t="shared" si="3"/>
@@ -13697,7 +12852,7 @@
       </c>
       <c r="AH17" s="72">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Threes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AI17" s="68" t="str">
         <f>SfW!C12</f>
@@ -13876,7 +13031,7 @@
       </c>
       <c r="AB20" s="70">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Points]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC20" s="71">
         <f t="shared" si="1"/>
@@ -13900,7 +13055,7 @@
       </c>
       <c r="AH20" s="125">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Threes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AI20" s="122" t="str">
         <f>SfW!C14</f>
@@ -13944,7 +13099,7 @@
       </c>
       <c r="AB21" s="70">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Points]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AC21" s="71">
         <f t="shared" si="1"/>
@@ -13960,7 +13115,7 @@
       </c>
       <c r="AF21" s="125">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Midranges]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AG21" s="71">
         <f t="shared" si="3"/>
@@ -14252,7 +13407,7 @@
         <v>167</v>
       </c>
       <c r="AA27" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI27" s="3"/>
       <c r="AK27" s="49" t="s">
@@ -14386,19 +13541,19 @@
         <v>45</v>
       </c>
       <c r="AA29" s="32">
-        <f>'Preseason 1'!R3</f>
+        <f>'Preseason 1'!R3+'Preseason 2'!R3</f>
         <v>0</v>
       </c>
       <c r="AB29" s="32">
-        <f>'Preseason 1'!S3</f>
+        <f>'Preseason 1'!S3+'Preseason 2'!S3</f>
         <v>0</v>
       </c>
       <c r="AC29" s="32">
-        <f>'Preseason 1'!T3</f>
+        <f>'Preseason 1'!T3+'Preseason 2'!T3</f>
         <v>0</v>
       </c>
       <c r="AD29" s="32">
-        <f>'Preseason 1'!U3</f>
+        <f>'Preseason 1'!U3+'Preseason 2'!U3</f>
         <v>0</v>
       </c>
       <c r="AE29" s="34">
@@ -14460,32 +13615,32 @@
         <v>49</v>
       </c>
       <c r="AA30" s="32">
-        <f>'Preseason 1'!R4</f>
+        <f>'Preseason 1'!R4+'Preseason 2'!R4</f>
         <v>2</v>
       </c>
       <c r="AB30" s="32">
-        <f>'Preseason 1'!S4</f>
+        <f>'Preseason 1'!S4+'Preseason 2'!S4</f>
         <v>1</v>
       </c>
       <c r="AC30" s="32">
-        <f>'Preseason 1'!T4</f>
+        <f>'Preseason 1'!T4+'Preseason 2'!T4</f>
         <v>1</v>
       </c>
       <c r="AD30" s="32">
-        <f>'Preseason 1'!U4</f>
+        <f>'Preseason 1'!U4+'Preseason 2'!U4</f>
         <v>0</v>
       </c>
       <c r="AE30" s="34">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF30" s="35">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AG30" s="34">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AH30" s="35">
         <f t="shared" si="12"/>
@@ -14534,28 +13689,28 @@
         <v>51</v>
       </c>
       <c r="AA31" s="32">
-        <f>'Preseason 1'!R5</f>
+        <f>'Preseason 1'!R5+'Preseason 2'!R5</f>
         <v>5</v>
       </c>
       <c r="AB31" s="32">
-        <f>'Preseason 1'!S5</f>
+        <f>'Preseason 1'!S5+'Preseason 2'!S5</f>
         <v>3</v>
       </c>
       <c r="AC31" s="32">
-        <f>'Preseason 1'!T5</f>
+        <f>'Preseason 1'!T5+'Preseason 2'!T5</f>
         <v>0</v>
       </c>
       <c r="AD31" s="32">
-        <f>'Preseason 1'!U5</f>
+        <f>'Preseason 1'!U5+'Preseason 2'!U5</f>
         <v>1</v>
       </c>
       <c r="AE31" s="34">
         <f t="shared" si="9"/>
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="AF31" s="35">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AG31" s="34">
         <f t="shared" si="11"/>
@@ -14563,7 +13718,7 @@
       </c>
       <c r="AH31" s="35">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AI31" s="36">
         <f>COUNTIF(Template!V5, "TRUE")</f>
@@ -14608,19 +13763,19 @@
         <v>54</v>
       </c>
       <c r="AA32" s="32">
-        <f>'Preseason 1'!R6</f>
+        <f>'Preseason 1'!R6+'Preseason 2'!R6</f>
         <v>0</v>
       </c>
       <c r="AB32" s="32">
-        <f>'Preseason 1'!S6</f>
+        <f>'Preseason 1'!S6+'Preseason 2'!S6</f>
         <v>0</v>
       </c>
       <c r="AC32" s="32">
-        <f>'Preseason 1'!T6</f>
+        <f>'Preseason 1'!T6+'Preseason 2'!T6</f>
         <v>0</v>
       </c>
       <c r="AD32" s="32">
-        <f>'Preseason 1'!U6</f>
+        <f>'Preseason 1'!U6+'Preseason 2'!U6</f>
         <v>0</v>
       </c>
       <c r="AE32" s="34">
@@ -14640,7 +13795,7 @@
         <v>0</v>
       </c>
       <c r="AI32" s="36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ32" s="36"/>
       <c r="AK32" s="49" t="s">
@@ -14680,19 +13835,19 @@
         <v>57</v>
       </c>
       <c r="AA33" s="32">
-        <f>'Preseason 1'!R7</f>
+        <f>'Preseason 1'!R7+'Preseason 2'!R7</f>
         <v>0</v>
       </c>
       <c r="AB33" s="32">
-        <f>'Preseason 1'!S7</f>
+        <f>'Preseason 1'!S7+'Preseason 2'!S7</f>
         <v>0</v>
       </c>
       <c r="AC33" s="32">
-        <f>'Preseason 1'!T7</f>
+        <f>'Preseason 1'!T7+'Preseason 2'!T7</f>
         <v>0</v>
       </c>
       <c r="AD33" s="32">
-        <f>'Preseason 1'!U7</f>
+        <f>'Preseason 1'!U7+'Preseason 2'!U7</f>
         <v>0</v>
       </c>
       <c r="AE33" s="34">
@@ -14753,19 +13908,19 @@
         <v>60</v>
       </c>
       <c r="AA34" s="32">
-        <f>'Preseason 1'!R8</f>
+        <f>'Preseason 1'!R8+'Preseason 2'!R8</f>
         <v>0</v>
       </c>
       <c r="AB34" s="32">
-        <f>'Preseason 1'!S8</f>
+        <f>'Preseason 1'!S8+'Preseason 2'!S8</f>
         <v>0</v>
       </c>
       <c r="AC34" s="32">
-        <f>'Preseason 1'!T8</f>
+        <f>'Preseason 1'!T8+'Preseason 2'!T8</f>
         <v>0</v>
       </c>
       <c r="AD34" s="32">
-        <f>'Preseason 1'!U8</f>
+        <f>'Preseason 1'!U8+'Preseason 2'!U8</f>
         <v>0</v>
       </c>
       <c r="AE34" s="34">
@@ -14826,32 +13981,32 @@
         <v>93</v>
       </c>
       <c r="AA35" s="32">
-        <f>'Preseason 1'!R9</f>
+        <f>'Preseason 1'!R9+'Preseason 2'!R9</f>
         <v>2</v>
       </c>
       <c r="AB35" s="32">
-        <f>'Preseason 1'!S9</f>
+        <f>'Preseason 1'!S9+'Preseason 2'!S9</f>
         <v>1</v>
       </c>
       <c r="AC35" s="32">
-        <f>'Preseason 1'!T9</f>
+        <f>'Preseason 1'!T9+'Preseason 2'!T9</f>
         <v>1</v>
       </c>
       <c r="AD35" s="32">
-        <f>'Preseason 1'!U9</f>
+        <f>'Preseason 1'!U9+'Preseason 2'!U9</f>
         <v>0</v>
       </c>
       <c r="AE35" s="34">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF35" s="35">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AG35" s="34">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AH35" s="35">
         <f t="shared" si="12"/>
@@ -14899,19 +14054,19 @@
         <v>63</v>
       </c>
       <c r="AA36" s="32">
-        <f>'Preseason 1'!R10</f>
+        <f>'Preseason 1'!R10+'Preseason 2'!R10</f>
         <v>0</v>
       </c>
       <c r="AB36" s="32">
-        <f>'Preseason 1'!S10</f>
+        <f>'Preseason 1'!S10+'Preseason 2'!S10</f>
         <v>0</v>
       </c>
       <c r="AC36" s="32">
-        <f>'Preseason 1'!T10</f>
+        <f>'Preseason 1'!T10+'Preseason 2'!T10</f>
         <v>0</v>
       </c>
       <c r="AD36" s="32">
-        <f>'Preseason 1'!U10</f>
+        <f>'Preseason 1'!U10+'Preseason 2'!U10</f>
         <v>0</v>
       </c>
       <c r="AE36" s="34">
@@ -14931,7 +14086,7 @@
         <v>0</v>
       </c>
       <c r="AI36" s="36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ36" s="36"/>
       <c r="AK36" s="49" t="s">
@@ -14968,28 +14123,28 @@
         <v>66</v>
       </c>
       <c r="AA37" s="32">
-        <f>'Preseason 1'!R11</f>
+        <f>'Preseason 1'!R11+'Preseason 2'!R11</f>
         <v>3</v>
       </c>
       <c r="AB37" s="32">
-        <f>'Preseason 1'!S11</f>
+        <f>'Preseason 1'!S11+'Preseason 2'!S11</f>
         <v>1</v>
       </c>
       <c r="AC37" s="32">
-        <f>'Preseason 1'!T11</f>
+        <f>'Preseason 1'!T11+'Preseason 2'!T11</f>
         <v>0</v>
       </c>
       <c r="AD37" s="32">
-        <f>'Preseason 1'!U11</f>
+        <f>'Preseason 1'!U11+'Preseason 2'!U11</f>
         <v>1</v>
       </c>
       <c r="AE37" s="34">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AF37" s="35">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AG37" s="34">
         <f t="shared" si="11"/>
@@ -14997,7 +14152,7 @@
       </c>
       <c r="AH37" s="35">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AI37" s="36">
         <f>COUNTIF(Template!V11, "TRUE")</f>
@@ -15038,24 +14193,24 @@
         <v>68</v>
       </c>
       <c r="AA38" s="32">
-        <f>'Preseason 1'!R12</f>
+        <f>'Preseason 1'!R12+'Preseason 2'!R12</f>
         <v>6</v>
       </c>
       <c r="AB38" s="32">
-        <f>'Preseason 1'!S12</f>
+        <f>'Preseason 1'!S12+'Preseason 2'!S12</f>
         <v>0</v>
       </c>
       <c r="AC38" s="32">
-        <f>'Preseason 1'!T12</f>
+        <f>'Preseason 1'!T12+'Preseason 2'!T12</f>
         <v>4</v>
       </c>
       <c r="AD38" s="32">
-        <f>'Preseason 1'!U12</f>
+        <f>'Preseason 1'!U12+'Preseason 2'!U12</f>
         <v>1</v>
       </c>
       <c r="AE38" s="34">
         <f t="shared" si="9"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AF38" s="35">
         <f t="shared" si="10"/>
@@ -15063,11 +14218,11 @@
       </c>
       <c r="AG38" s="34">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AH38" s="35">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AI38" s="36">
         <f>COUNTIF(Template!V12, "TRUE")</f>
@@ -15108,19 +14263,19 @@
         <v>69</v>
       </c>
       <c r="AA39" s="32">
-        <f>'Preseason 1'!R13</f>
+        <f>'Preseason 1'!R13+'Preseason 2'!R13</f>
         <v>0</v>
       </c>
       <c r="AB39" s="32">
-        <f>'Preseason 1'!S13</f>
+        <f>'Preseason 1'!S13+'Preseason 2'!S13</f>
         <v>0</v>
       </c>
       <c r="AC39" s="32">
-        <f>'Preseason 1'!T13</f>
+        <f>'Preseason 1'!T13+'Preseason 2'!T13</f>
         <v>0</v>
       </c>
       <c r="AD39" s="32">
-        <f>'Preseason 1'!U13</f>
+        <f>'Preseason 1'!U13+'Preseason 2'!U13</f>
         <v>0</v>
       </c>
       <c r="AE39" s="34">
@@ -15181,19 +14336,19 @@
         <v>203</v>
       </c>
       <c r="AA40" s="32">
-        <f>'Preseason 1'!R14</f>
+        <f>'Preseason 1'!R14+'Preseason 2'!R14</f>
         <v>0</v>
       </c>
       <c r="AB40" s="32">
-        <f>'Preseason 1'!S14</f>
+        <f>'Preseason 1'!S14+'Preseason 2'!S14</f>
         <v>0</v>
       </c>
       <c r="AC40" s="32">
-        <f>'Preseason 1'!T14</f>
+        <f>'Preseason 1'!T14+'Preseason 2'!T14</f>
         <v>0</v>
       </c>
       <c r="AD40" s="32">
-        <f>'Preseason 1'!U14</f>
+        <f>'Preseason 1'!U14+'Preseason 2'!U14</f>
         <v>0</v>
       </c>
       <c r="AE40" s="34">
@@ -15233,33 +14388,33 @@
       <c r="S41" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="T41">
+      <c r="T41" t="e">
         <f>'Statistics LG'!J3</f>
-        <v>2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="V41" s="28"/>
       <c r="Z41" s="36" t="s">
         <v>128</v>
       </c>
       <c r="AA41" s="32">
-        <f>'Preseason 1'!R15</f>
+        <f>'Preseason 1'!R15+'Preseason 2'!R15</f>
         <v>2</v>
       </c>
       <c r="AB41" s="32">
-        <f>'Preseason 1'!S15</f>
+        <f>'Preseason 1'!S15+'Preseason 2'!S15</f>
         <v>0</v>
       </c>
       <c r="AC41" s="32">
-        <f>'Preseason 1'!T15</f>
+        <f>'Preseason 1'!T15+'Preseason 2'!T15</f>
         <v>0</v>
       </c>
       <c r="AD41" s="32">
-        <f>'Preseason 1'!U15</f>
+        <f>'Preseason 1'!U15+'Preseason 2'!U15</f>
         <v>1</v>
       </c>
       <c r="AE41" s="34">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF41" s="35">
         <f t="shared" si="14"/>
@@ -15271,7 +14426,7 @@
       </c>
       <c r="AH41" s="35">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AI41" s="36">
         <f>COUNTIF(Template!V15, "TRUE")</f>
@@ -15295,33 +14450,33 @@
       <c r="S42" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="T42">
+      <c r="T42" t="e">
         <f>'Statistics WW'!J4</f>
-        <v>1</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="V42" s="28"/>
       <c r="Z42" s="36" t="s">
         <v>127</v>
       </c>
       <c r="AA42" s="32">
-        <f>'Preseason 1'!R16</f>
+        <f>'Preseason 1'!R16+'Preseason 2'!R16</f>
         <v>1</v>
       </c>
       <c r="AB42" s="32">
-        <f>'Preseason 1'!S16</f>
+        <f>'Preseason 1'!S16+'Preseason 2'!S16</f>
         <v>0</v>
       </c>
       <c r="AC42" s="32">
-        <f>'Preseason 1'!T16</f>
+        <f>'Preseason 1'!T16+'Preseason 2'!T16</f>
         <v>1</v>
       </c>
       <c r="AD42" s="32">
-        <f>'Preseason 1'!U16</f>
+        <f>'Preseason 1'!U16+'Preseason 2'!U16</f>
         <v>0</v>
       </c>
       <c r="AE42" s="34">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AF42" s="35">
         <f t="shared" si="14"/>
@@ -15329,7 +14484,7 @@
       </c>
       <c r="AG42" s="34">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AH42" s="35">
         <f t="shared" si="16"/>
@@ -15357,28 +14512,28 @@
       <c r="S43" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="T43">
+      <c r="T43" t="e">
         <f>'Statistics 5M'!J4</f>
-        <v>3</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="V43" s="28"/>
       <c r="Z43" s="36" t="s">
         <v>73</v>
       </c>
       <c r="AA43" s="32">
-        <f>'Preseason 1'!R17</f>
+        <f>'Preseason 1'!R17+'Preseason 2'!R17</f>
         <v>0</v>
       </c>
       <c r="AB43" s="32">
-        <f>'Preseason 1'!S17</f>
+        <f>'Preseason 1'!S17+'Preseason 2'!S17</f>
         <v>0</v>
       </c>
       <c r="AC43" s="32">
-        <f>'Preseason 1'!T17</f>
+        <f>'Preseason 1'!T17+'Preseason 2'!T17</f>
         <v>0</v>
       </c>
       <c r="AD43" s="32">
-        <f>'Preseason 1'!U17</f>
+        <f>'Preseason 1'!U17+'Preseason 2'!U17</f>
         <v>0</v>
       </c>
       <c r="AE43" s="34">
@@ -15420,19 +14575,19 @@
         <v>74</v>
       </c>
       <c r="AA44" s="32">
-        <f>'Preseason 1'!R18</f>
+        <f>'Preseason 1'!R18+'Preseason 2'!R18</f>
         <v>0</v>
       </c>
       <c r="AB44" s="32">
-        <f>'Preseason 1'!S18</f>
+        <f>'Preseason 1'!S18+'Preseason 2'!S18</f>
         <v>0</v>
       </c>
       <c r="AC44" s="32">
-        <f>'Preseason 1'!T18</f>
+        <f>'Preseason 1'!T18+'Preseason 2'!T18</f>
         <v>0</v>
       </c>
       <c r="AD44" s="32">
-        <f>'Preseason 1'!U18</f>
+        <f>'Preseason 1'!U18+'Preseason 2'!U18</f>
         <v>0</v>
       </c>
       <c r="AE44" s="34">
@@ -15487,19 +14642,19 @@
         <v>75</v>
       </c>
       <c r="AA45" s="32">
-        <f>'Preseason 1'!R19</f>
+        <f>'Preseason 1'!R19+'Preseason 2'!R19</f>
         <v>0</v>
       </c>
       <c r="AB45" s="32">
-        <f>'Preseason 1'!S19</f>
+        <f>'Preseason 1'!S19+'Preseason 2'!S19</f>
         <v>0</v>
       </c>
       <c r="AC45" s="32">
-        <f>'Preseason 1'!T19</f>
+        <f>'Preseason 1'!T19+'Preseason 2'!T19</f>
         <v>0</v>
       </c>
       <c r="AD45" s="32">
-        <f>'Preseason 1'!U19</f>
+        <f>'Preseason 1'!U19+'Preseason 2'!U19</f>
         <v>0</v>
       </c>
       <c r="AE45" s="34">
@@ -15546,7 +14701,7 @@
       </c>
       <c r="V46" s="18">
         <f>U46/AA6</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="W46" s="28">
         <f>U46/SUM($U$46:$U$48)</f>
@@ -15584,7 +14739,7 @@
       </c>
       <c r="V47" s="18">
         <f>U47/AA6</f>
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="W47" s="28">
         <f>U47/SUM($U$46:$U$48)</f>
@@ -15630,7 +14785,7 @@
       </c>
       <c r="V48" s="18">
         <f>U48/AA6</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W48" s="28">
         <f>U48/SUM($U$46:$U$48)</f>
@@ -16600,21 +15755,21 @@
       <c r="R77">
         <v>2</v>
       </c>
-      <c r="S77" s="48">
+      <c r="S77" s="48" t="str">
         <f>'Statistics LG'!A5</f>
-        <v>0</v>
-      </c>
-      <c r="T77">
+        <v>12-July</v>
+      </c>
+      <c r="T77" t="e">
         <f>T76+'Statistics LG'!D5</f>
-        <v>2</v>
-      </c>
-      <c r="U77">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U77" t="e">
         <f>U76+'Statistics WW'!D5</f>
-        <v>1</v>
-      </c>
-      <c r="V77">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V77" t="e">
         <f>V76+'Statistics 5M'!D5</f>
-        <v>3</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="Z77" s="49" t="s">
         <v>66</v>
@@ -16650,17 +15805,17 @@
         <f>'Statistics LG'!A6</f>
         <v>0</v>
       </c>
-      <c r="T78" s="17">
+      <c r="T78" s="17" t="e">
         <f>T77+'Statistics LG'!D6</f>
-        <v>2</v>
-      </c>
-      <c r="U78" s="17">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U78" s="17" t="e">
         <f>U77+'Statistics WW'!D6</f>
-        <v>1</v>
-      </c>
-      <c r="V78" s="17">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V78" s="17" t="e">
         <f>V77+'Statistics 5M'!D6</f>
-        <v>3</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="Z78" s="49" t="s">
         <v>68</v>
@@ -16696,17 +15851,17 @@
         <f>'Statistics LG'!A7</f>
         <v>0</v>
       </c>
-      <c r="T79" s="17">
+      <c r="T79" s="17" t="e">
         <f>T78+'Statistics LG'!D7</f>
-        <v>2</v>
-      </c>
-      <c r="U79" s="17">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U79" s="17" t="e">
         <f>U78+'Statistics WW'!D7</f>
-        <v>1</v>
-      </c>
-      <c r="V79" s="17">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V79" s="17" t="e">
         <f>V78+'Statistics 5M'!D7</f>
-        <v>3</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="Z79" s="49" t="s">
         <v>69</v>
@@ -16742,17 +15897,17 @@
         <f>'Statistics LG'!A8</f>
         <v>0</v>
       </c>
-      <c r="T80" s="17">
+      <c r="T80" s="17" t="e">
         <f>T79+'Statistics LG'!D8</f>
-        <v>2</v>
-      </c>
-      <c r="U80" s="17">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U80" s="17" t="e">
         <f>U79+'Statistics WW'!D8</f>
-        <v>1</v>
-      </c>
-      <c r="V80" s="17">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V80" s="17" t="e">
         <f>V79+'Statistics 5M'!D8</f>
-        <v>3</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="Z80" s="36" t="s">
         <v>203</v>
@@ -16788,17 +15943,17 @@
         <f>'Statistics LG'!A9</f>
         <v>0</v>
       </c>
-      <c r="T81" s="17">
+      <c r="T81" s="17" t="e">
         <f>T80+'Statistics LG'!D9</f>
-        <v>2</v>
-      </c>
-      <c r="U81" s="17">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U81" s="17" t="e">
         <f>U80+'Statistics WW'!D9</f>
-        <v>1</v>
-      </c>
-      <c r="V81" s="17">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V81" s="17" t="e">
         <f>V80+'Statistics 5M'!D9</f>
-        <v>3</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="Z81" s="36" t="s">
         <v>128</v>
@@ -16834,17 +15989,17 @@
         <f>'Statistics LG'!A10</f>
         <v>0</v>
       </c>
-      <c r="T82" s="17">
+      <c r="T82" s="17" t="e">
         <f>T81+'Statistics LG'!D10</f>
-        <v>2</v>
-      </c>
-      <c r="U82" s="17">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U82" s="17" t="e">
         <f>U81+'Statistics WW'!D10</f>
-        <v>1</v>
-      </c>
-      <c r="V82" s="17">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V82" s="17" t="e">
         <f>V81+'Statistics 5M'!D10</f>
-        <v>3</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="Z82" s="36" t="s">
         <v>127</v>
@@ -16880,17 +16035,17 @@
         <f>'Statistics LG'!A11</f>
         <v>0</v>
       </c>
-      <c r="T83" s="17">
+      <c r="T83" s="17" t="e">
         <f>T82+'Statistics LG'!D11</f>
-        <v>2</v>
-      </c>
-      <c r="U83" s="17">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U83" s="17" t="e">
         <f>U82+'Statistics WW'!D11</f>
-        <v>1</v>
-      </c>
-      <c r="V83" s="17">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V83" s="17" t="e">
         <f>V82+'Statistics 5M'!D11</f>
-        <v>3</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="Z83" s="36" t="s">
         <v>73</v>
@@ -16926,17 +16081,17 @@
         <f>'Statistics LG'!A12</f>
         <v>0</v>
       </c>
-      <c r="T84" s="17">
+      <c r="T84" s="17" t="e">
         <f>T83+'Statistics LG'!D12</f>
-        <v>2</v>
-      </c>
-      <c r="U84" s="17">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U84" s="17" t="e">
         <f>U83+'Statistics WW'!D12</f>
-        <v>1</v>
-      </c>
-      <c r="V84" s="17">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V84" s="17" t="e">
         <f>V83+'Statistics 5M'!D12</f>
-        <v>3</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="Z84" s="36" t="s">
         <v>74</v>
@@ -16972,17 +16127,17 @@
         <f>'Statistics LG'!A13</f>
         <v>0</v>
       </c>
-      <c r="T85" s="17">
+      <c r="T85" s="17" t="e">
         <f>T84+'Statistics LG'!D13</f>
-        <v>2</v>
-      </c>
-      <c r="U85" s="17">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U85" s="17" t="e">
         <f>U84+'Statistics WW'!D13</f>
-        <v>1</v>
-      </c>
-      <c r="V85" s="17">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V85" s="17" t="e">
         <f>V84+'Statistics 5M'!D13</f>
-        <v>3</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="Z85" s="49" t="s">
         <v>75</v>
@@ -17018,17 +16173,17 @@
         <f>'Statistics LG'!A14</f>
         <v>0</v>
       </c>
-      <c r="T86" s="17">
+      <c r="T86" s="17" t="e">
         <f>T85+'Statistics LG'!D14</f>
-        <v>2</v>
-      </c>
-      <c r="U86" s="17">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U86" s="17" t="e">
         <f>U85+'Statistics WW'!D14</f>
-        <v>1</v>
-      </c>
-      <c r="V86" s="17">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V86" s="17" t="e">
         <f>V85+'Statistics 5M'!D14</f>
-        <v>3</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="Z86" s="68"/>
       <c r="AA86" s="32"/>
@@ -17060,17 +16215,17 @@
         <f>'Statistics LG'!A15</f>
         <v>0</v>
       </c>
-      <c r="T87" s="17">
+      <c r="T87" s="17" t="e">
         <f>T86+'Statistics LG'!D15</f>
-        <v>2</v>
-      </c>
-      <c r="U87" s="17">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U87" s="17" t="e">
         <f>U86+'Statistics WW'!D15</f>
-        <v>1</v>
-      </c>
-      <c r="V87" s="17">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V87" s="17" t="e">
         <f>V86+'Statistics 5M'!D15</f>
-        <v>3</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="Z87" s="49" t="s">
         <v>168</v>
@@ -17110,17 +16265,17 @@
         <f>'Statistics LG'!A16</f>
         <v>0</v>
       </c>
-      <c r="T88" s="17">
+      <c r="T88" s="17" t="e">
         <f>T87+'Statistics LG'!D16</f>
-        <v>2</v>
-      </c>
-      <c r="U88" s="17">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U88" s="17" t="e">
         <f>U87+'Statistics WW'!D16</f>
-        <v>1</v>
-      </c>
-      <c r="V88" s="17">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V88" s="17" t="e">
         <f>V87+'Statistics 5M'!D16</f>
-        <v>3</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="Z88" s="29" t="s">
         <v>84</v>
@@ -17192,17 +16347,17 @@
         <f>'Statistics LG'!A17</f>
         <v>0</v>
       </c>
-      <c r="T89" s="17">
+      <c r="T89" s="17" t="e">
         <f>T88+'Statistics LG'!D17</f>
-        <v>2</v>
-      </c>
-      <c r="U89" s="17">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U89" s="17" t="e">
         <f>U88+'Statistics WW'!D17</f>
-        <v>1</v>
-      </c>
-      <c r="V89" s="17">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V89" s="17" t="e">
         <f>V88+'Statistics 5M'!D17</f>
-        <v>3</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="Z89" s="49" t="s">
         <v>45</v>
@@ -17238,17 +16393,17 @@
         <f>'Statistics LG'!A18</f>
         <v>0</v>
       </c>
-      <c r="T90" s="17">
+      <c r="T90" s="17" t="e">
         <f>T89+'Statistics LG'!D18</f>
-        <v>2</v>
-      </c>
-      <c r="U90" s="17">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U90" s="17" t="e">
         <f>U89+'Statistics WW'!D18</f>
-        <v>1</v>
-      </c>
-      <c r="V90" s="17">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V90" s="17" t="e">
         <f>V89+'Statistics 5M'!D18</f>
-        <v>3</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="Z90" s="49" t="s">
         <v>49</v>
@@ -18890,11 +18045,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AD1000"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43:I46"/>
-    </sheetView>
-    <sheetView topLeftCell="D25" workbookViewId="1">
-      <selection activeCell="I43" sqref="I43:I46"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M48" sqref="M48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -18972,9 +18124,9 @@
         <f>SUM(C4:C40)</f>
         <v>6</v>
       </c>
-      <c r="J3" s="83">
+      <c r="J3" s="83" t="e">
         <f>SUM(D4:D40)</f>
-        <v>2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="L3" s="86" t="s">
         <v>88</v>
@@ -19103,9 +18255,9 @@
       </c>
     </row>
     <row r="5" spans="1:30" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="80">
+      <c r="A5" s="80" t="str">
         <f>'Stats Global'!B6</f>
-        <v>0</v>
+        <v>12-July</v>
       </c>
       <c r="B5" s="88">
         <f>'Stats Global'!F6</f>
@@ -19115,9 +18267,9 @@
         <f>'Stats Global'!G6+'Stats Global'!H6</f>
         <v>0</v>
       </c>
-      <c r="D5" s="88">
+      <c r="D5" s="88" t="e">
         <f>'Stats Global'!O6</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E5" s="85"/>
       <c r="F5" s="85"/>
@@ -19149,7 +18301,7 @@
       </c>
       <c r="T5" s="103">
         <f>'Stats Global'!AB16</f>
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="U5" s="103">
         <f>'Stats Global'!AC16</f>
@@ -19157,7 +18309,7 @@
       </c>
       <c r="V5" s="103">
         <f>'Stats Global'!AD16</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="W5" s="103">
         <f>'Stats Global'!AE16</f>
@@ -19173,7 +18325,7 @@
       </c>
       <c r="Z5" s="103">
         <f>'Stats Global'!AH16</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AA5" s="103">
         <f>'Stats Global'!AJ16</f>
@@ -19227,7 +18379,7 @@
       </c>
       <c r="T6" s="103">
         <f>'Stats Global'!AB21</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="U6" s="103">
         <f>'Stats Global'!AC21</f>
@@ -19243,7 +18395,7 @@
       </c>
       <c r="X6" s="103">
         <f>'Stats Global'!AF21</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Y6" s="103">
         <f>'Stats Global'!AG21</f>
@@ -19383,7 +18535,7 @@
       </c>
       <c r="T8" s="103">
         <f>'Stats Global'!AB9</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U8" s="103">
         <f>'Stats Global'!AC9</f>
@@ -19391,7 +18543,7 @@
       </c>
       <c r="V8" s="103">
         <f>'Stats Global'!AD9</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="W8" s="103">
         <f>'Stats Global'!AE9</f>
@@ -19399,7 +18551,7 @@
       </c>
       <c r="X8" s="103">
         <f>'Stats Global'!AF9</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Y8" s="103">
         <f>'Stats Global'!AG9</f>
@@ -20751,7 +19903,7 @@
     <row r="45" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I45" s="81" t="str">
         <f>K45&amp;O43&amp;","&amp;O44&amp;","&amp;O45&amp;","&amp;O46&amp;","&amp;O47&amp;","&amp;O48&amp;"],"</f>
-        <v>"PartC":[6,2,2,1,5,6],</v>
+        <v>"PartC":[6,2,2,1,2.5,3],</v>
       </c>
       <c r="K45" s="81" t="s">
         <v>137</v>
@@ -20801,13 +19953,13 @@
       </c>
       <c r="O47" s="81">
         <f>ROUND(H3/'Stats Global'!AA6,1)</f>
-        <v>5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="48" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="O48" s="81">
         <f>ROUND(I3/'Stats Global'!AA6,1)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -21776,11 +20928,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P43" sqref="P43"/>
-    </sheetView>
-    <sheetView topLeftCell="G30" workbookViewId="1">
-      <selection activeCell="J43" sqref="J43:J46"/>
+    <sheetView zoomScale="76" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -21901,9 +21050,9 @@
         <f>SUM(C4:C40)</f>
         <v>8</v>
       </c>
-      <c r="J4" s="83">
+      <c r="J4" s="83" t="e">
         <f>SUM(D4:D40)</f>
-        <v>1</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="L4" s="90">
         <f>'Stats Global'!N5</f>
@@ -21951,13 +21100,13 @@
       </c>
       <c r="X4" s="103">
         <f>'Stats Global'!AJ11</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="80">
+      <c r="A5" s="80" t="str">
         <f>'Stats Global'!B6</f>
-        <v>0</v>
+        <v>12-July</v>
       </c>
       <c r="B5" s="88">
         <f>'Stats Global'!I6</f>
@@ -21967,9 +21116,9 @@
         <f>'Stats Global'!J6+'Stats Global'!K6</f>
         <v>0</v>
       </c>
-      <c r="D5" s="88">
+      <c r="D5" s="88" t="e">
         <f>'Stats Global'!P6</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E5" s="85"/>
       <c r="F5" s="85"/>
@@ -22300,7 +21449,7 @@
       </c>
       <c r="X9" s="127">
         <f>'Stats Global'!AJ15</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -23404,7 +22553,7 @@
     <row r="45" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="J45" s="81" t="str">
         <f>L45&amp;P43&amp;","&amp;P44&amp;","&amp;P45&amp;","&amp;P46&amp;","&amp;P47&amp;","&amp;P48&amp;"],"</f>
-        <v>"PartC":[0,0,0,0,0,8],</v>
+        <v>"PartC":[0,0,0,0,0,4],</v>
       </c>
       <c r="L45" s="81" t="s">
         <v>137</v>
@@ -23460,7 +22609,7 @@
     <row r="48" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P48" s="81">
         <f>ROUND(I4/'Stats Global'!AA6,1)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -24418,9 +23567,8 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -24430,11 +23578,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32:K35"/>
-    </sheetView>
-    <sheetView tabSelected="1" topLeftCell="E22" workbookViewId="1">
-      <selection activeCell="K32" sqref="K32:K35"/>
+    <sheetView tabSelected="1" zoomScale="73" workbookViewId="0">
+      <selection activeCell="Q37" sqref="Q37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -24533,9 +23678,9 @@
         <f>SUM(C4:C40)</f>
         <v>3</v>
       </c>
-      <c r="J4" s="83">
+      <c r="J4" s="83" t="e">
         <f>SUM(D4:D40)</f>
-        <v>3</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K4" s="89"/>
       <c r="L4" s="109" t="s">
@@ -24573,9 +23718,9 @@
       <c r="X4" s="89"/>
     </row>
     <row r="5" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="80">
+      <c r="A5" s="80" t="str">
         <f>'Stats Global'!B6</f>
-        <v>0</v>
+        <v>12-July</v>
       </c>
       <c r="B5" s="88">
         <f>'Stats Global'!L6</f>
@@ -24585,9 +23730,9 @@
         <f>'Stats Global'!M6+'Stats Global'!N6</f>
         <v>0</v>
       </c>
-      <c r="D5" s="88">
+      <c r="D5" s="88" t="e">
         <f>'Stats Global'!Q6</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E5" s="85"/>
       <c r="F5" s="85"/>
@@ -24601,7 +23746,7 @@
       </c>
       <c r="N5" s="103">
         <f>'Stats Global'!AB17</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O5" s="103">
         <f>'Stats Global'!AC17</f>
@@ -24617,7 +23762,7 @@
       </c>
       <c r="R5" s="103">
         <f>'Stats Global'!AF17</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S5" s="103">
         <f>'Stats Global'!AG17</f>
@@ -24625,7 +23770,7 @@
       </c>
       <c r="T5" s="103">
         <f>'Stats Global'!AH17</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="U5" s="103">
         <f>'Stats Global'!AJ17</f>
@@ -24666,7 +23811,7 @@
       </c>
       <c r="N6" s="103">
         <f>'Stats Global'!AB10</f>
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="O6" s="103">
         <f>'Stats Global'!AC10</f>
@@ -24674,7 +23819,7 @@
       </c>
       <c r="P6" s="103">
         <f>'Stats Global'!AD10</f>
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="Q6" s="103">
         <f>'Stats Global'!AE10</f>
@@ -24690,7 +23835,7 @@
       </c>
       <c r="T6" s="103">
         <f>'Stats Global'!AH10</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="U6" s="103">
         <f>'Stats Global'!AJ10</f>
@@ -24723,42 +23868,42 @@
       <c r="I7" s="102"/>
       <c r="K7" s="89"/>
       <c r="L7" s="89" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="M7" s="103">
-        <f>'Stats Global'!AA13</f>
-        <v>0</v>
+        <f>'Stats Global'!AA20</f>
+        <v>2</v>
       </c>
       <c r="N7" s="103">
-        <f>'Stats Global'!AB13</f>
-        <v>0</v>
+        <f>'Stats Global'!AB20</f>
+        <v>1</v>
       </c>
       <c r="O7" s="103">
-        <f>'Stats Global'!AC13</f>
+        <f>'Stats Global'!AC20</f>
         <v>0</v>
       </c>
       <c r="P7" s="103">
-        <f>'Stats Global'!AD13</f>
+        <f>'Stats Global'!AD20</f>
         <v>0</v>
       </c>
       <c r="Q7" s="103">
-        <f>'Stats Global'!AE13</f>
+        <f>'Stats Global'!AE20</f>
         <v>0</v>
       </c>
       <c r="R7" s="103">
-        <f>'Stats Global'!AF13</f>
+        <f>'Stats Global'!AF20</f>
         <v>0</v>
       </c>
       <c r="S7" s="103">
-        <f>'Stats Global'!AG13</f>
-        <v>0</v>
+        <f>'Stats Global'!AG20</f>
+        <v>1</v>
       </c>
       <c r="T7" s="103">
-        <f>'Stats Global'!AH13</f>
-        <v>0</v>
+        <f>'Stats Global'!AH20</f>
+        <v>0.5</v>
       </c>
       <c r="U7" s="103">
-        <f>'Stats Global'!AJ13</f>
+        <f>'Stats Global'!AJ20</f>
         <v>0</v>
       </c>
       <c r="V7" s="89"/>
@@ -24796,7 +23941,7 @@
       </c>
       <c r="N8" s="103">
         <f>'Stats Global'!AB14</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O8" s="103">
         <f>'Stats Global'!AC14</f>
@@ -24804,7 +23949,7 @@
       </c>
       <c r="P8" s="103">
         <f>'Stats Global'!AD14</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Q8" s="103">
         <f>'Stats Global'!AE14</f>
@@ -24812,7 +23957,7 @@
       </c>
       <c r="R8" s="103">
         <f>'Stats Global'!AF14</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="S8" s="103">
         <f>'Stats Global'!AG14</f>
@@ -25713,7 +24858,7 @@
       <c r="F34" s="85"/>
       <c r="K34" s="81" t="str">
         <f>M34&amp;Q32&amp;","&amp;Q33&amp;","&amp;Q34&amp;","&amp;Q35&amp;","&amp;Q36&amp;","&amp;Q37&amp;"],"</f>
-        <v>"PartC":[15,4,5,3,12,3],</v>
+        <v>"PartC":[15,4,5,3,6,1.5],</v>
       </c>
       <c r="M34" s="81" t="s">
         <v>137</v>
@@ -25799,7 +24944,7 @@
       </c>
       <c r="Q36" s="81">
         <f>ROUND(H4/'Stats Global'!AA6,1)</f>
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -25823,7 +24968,7 @@
       <c r="F37" s="85"/>
       <c r="Q37" s="81">
         <f>ROUND(I4/'Stats Global'!AA6,1)</f>
-        <v>3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -26861,9 +26006,8 @@
   <dimension ref="B1:AE1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="A1:XFD1048576"/>
+      <selection activeCell="C8" sqref="A1:XFD1048576"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
@@ -26962,8 +26106,9 @@
         <f>L3/(L3+M3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O3" s="12">
-        <v>3</v>
+      <c r="O3" s="12" t="e">
+        <f>IF(AND(N3&gt;N4, N3&gt;N5), 3, IF(OR(N3&gt;N4, N3&gt;N5), 2, 1))</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="Q3" s="2" t="s">
         <v>25</v>
@@ -28437,18 +27582,18 @@
     <row r="41" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.9">
       <c r="R41" s="104"/>
       <c r="S41" s="104"/>
-      <c r="T41" s="128" t="s">
+      <c r="T41" s="130" t="s">
         <v>119</v>
       </c>
-      <c r="U41" s="128"/>
-      <c r="V41" s="128"/>
+      <c r="U41" s="130"/>
+      <c r="V41" s="130"/>
     </row>
     <row r="42" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.9">
       <c r="R42" s="104"/>
       <c r="S42" s="104"/>
-      <c r="T42" s="128"/>
-      <c r="U42" s="128"/>
-      <c r="V42" s="128"/>
+      <c r="T42" s="130"/>
+      <c r="U42" s="130"/>
+      <c r="V42" s="130"/>
     </row>
     <row r="43" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B43" s="17" t="s">
@@ -28565,9 +27710,9 @@
         <f>COUNTIF(Y4:Y39, "WW/5M")</f>
         <v>0</v>
       </c>
-      <c r="O45" s="17">
+      <c r="O45" s="17" t="e">
         <f>O3</f>
-        <v>3</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="P45" s="17" t="e">
         <f>O5</f>
@@ -29566,13 +28711,12 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03838906-0D06-4CE3-8060-96BC8217D4DC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED843EDE-D888-4596-9691-75BE60D1C78B}">
   <dimension ref="B1:AE1000"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L46" sqref="L46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -29592,7 +28736,7 @@
         <v>97</v>
       </c>
       <c r="C2" s="52" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>98</v>
@@ -29661,18 +28805,19 @@
       </c>
       <c r="L3" s="12">
         <f>COUNTIF(C3:C40, "Loose Gooses")</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M3" s="12">
         <f>COUNTIF(D3:D40, "Loose Gooses")</f>
-        <v>6</v>
-      </c>
-      <c r="N3" s="11">
+        <v>0</v>
+      </c>
+      <c r="N3" s="11" t="e">
         <f>L3/(L3+M3)</f>
-        <v>0.45454545454545453</v>
-      </c>
-      <c r="O3" s="12">
-        <v>2</v>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O3" s="12" t="e">
+        <f>IF(AND(N3&gt;N4, N3&gt;N5), 3, IF(OR(N3&gt;N4, N3&gt;N5), 2, 1))</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="Q3" s="2" t="s">
         <v>25</v>
@@ -29708,63 +28853,47 @@
       <c r="AB3" s="2"/>
     </row>
     <row r="4" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="26">
-        <v>1</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="F4" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="G4" s="26">
-        <v>1</v>
-      </c>
-      <c r="H4" s="26">
-        <v>1</v>
-      </c>
-      <c r="I4" s="26">
-        <v>1</v>
-      </c>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
       <c r="K4" s="12" t="s">
         <v>110</v>
       </c>
       <c r="L4" s="12">
         <f>COUNTIF(C3:C40, "5 Musketeers")</f>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="M4" s="12">
         <f>COUNTIF(D3:D40, "5 Musketeers")</f>
-        <v>3</v>
-      </c>
-      <c r="N4" s="11">
+        <v>0</v>
+      </c>
+      <c r="N4" s="11" t="e">
         <f t="shared" ref="N4:N5" si="4">L4/(L4+M4)</f>
-        <v>0.8</v>
-      </c>
-      <c r="O4" s="12">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O4" s="12" t="e">
         <f>IF(AND(N4&gt;N3, N4&gt;N5), 3, IF(OR(N4&gt;N3, N4&gt;N5), 2, 1))</f>
-        <v>3</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>28</v>
       </c>
       <c r="R4" s="9">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S4" s="10">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4" s="10">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4" s="10">
         <f t="shared" si="3"/>
@@ -29775,7 +28904,7 @@
       </c>
       <c r="X4" s="54" t="str">
         <f t="shared" ref="X4:X36" si="5">IF(AND(C4="Loose Gooses",D4="Wet Willies"),"LG/WW", IF(AND(C4="Loose Gooses",D4="5 Musketeers"),"LG/5M", ""))</f>
-        <v>LG/5M</v>
+        <v/>
       </c>
       <c r="Y4" s="54" t="str">
         <f t="shared" ref="Y4:Y36" si="6">IF(AND(C4="Wet Willies",D4="Loose Gooses"),"WW/LG", IF(AND(C4="Wet Willies",D4="5 Musketeers"),"WW/5M", ""))</f>
@@ -29788,30 +28917,14 @@
       <c r="AB4" s="2"/>
     </row>
     <row r="5" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="26">
-        <v>2</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" s="26">
-        <v>2</v>
-      </c>
-      <c r="H5" s="26">
-        <v>1</v>
-      </c>
-      <c r="I5" s="26">
-        <v>1</v>
-      </c>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
       <c r="K5" s="12" t="s">
         <v>109</v>
       </c>
@@ -29821,26 +28934,26 @@
       </c>
       <c r="M5" s="12">
         <f>COUNTIF(D3:D40, "Wet Willies")</f>
-        <v>8</v>
-      </c>
-      <c r="N5" s="11">
+        <v>0</v>
+      </c>
+      <c r="N5" s="11" t="e">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O5" s="12">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O5" s="12" t="e">
         <f>IF(AND(N5&gt;N4, N5&gt;N3), 3, IF(OR(N5&gt;N4, N5&gt;N3), 2, 1))</f>
-        <v>1</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="Q5" s="2" t="s">
         <v>30</v>
       </c>
       <c r="R5" s="9">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S5" s="10">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T5" s="10">
         <f t="shared" si="2"/>
@@ -29848,14 +28961,14 @@
       </c>
       <c r="U5" s="10">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V5" s="27" t="b">
         <v>0</v>
       </c>
       <c r="X5" s="54" t="str">
         <f t="shared" si="5"/>
-        <v>LG/WW</v>
+        <v/>
       </c>
       <c r="Y5" s="54" t="str">
         <f t="shared" si="6"/>
@@ -29868,30 +28981,14 @@
       <c r="AB5" s="2"/>
     </row>
     <row r="6" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="26">
-        <v>3</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="G6" s="26">
-        <v>1</v>
-      </c>
-      <c r="H6" s="26">
-        <v>1</v>
-      </c>
-      <c r="I6" s="26">
-        <v>1</v>
-      </c>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
       <c r="Q6" s="2" t="s">
         <v>35</v>
       </c>
@@ -29924,35 +29021,19 @@
       </c>
       <c r="Z6" s="54" t="str">
         <f t="shared" si="7"/>
-        <v>5M/LG</v>
+        <v/>
       </c>
       <c r="AB6" s="2"/>
     </row>
     <row r="7" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="26">
-        <v>4</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" s="26" t="s">
-        <v>208</v>
-      </c>
-      <c r="G7" s="26">
-        <v>2</v>
-      </c>
-      <c r="H7" s="26">
-        <v>2</v>
-      </c>
-      <c r="I7" s="26">
-        <v>1</v>
-      </c>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
       <c r="Q7" s="2" t="s">
         <v>37</v>
       </c>
@@ -29985,35 +29066,19 @@
       </c>
       <c r="Z7" s="54" t="str">
         <f t="shared" si="7"/>
-        <v>5M/WW</v>
+        <v/>
       </c>
       <c r="AB7" s="2"/>
     </row>
     <row r="8" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="26">
-        <v>5</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="F8" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="G8" s="26">
-        <v>3</v>
-      </c>
-      <c r="H8" s="26">
-        <v>2</v>
-      </c>
-      <c r="I8" s="26">
-        <v>1</v>
-      </c>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
       <c r="Q8" s="2" t="s">
         <v>42</v>
       </c>
@@ -30046,49 +29111,33 @@
       </c>
       <c r="Z8" s="54" t="str">
         <f t="shared" si="7"/>
-        <v>5M/LG</v>
+        <v/>
       </c>
       <c r="AB8" s="2"/>
     </row>
     <row r="9" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="26">
-        <v>6</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="G9" s="26">
-        <v>4</v>
-      </c>
-      <c r="H9" s="26">
-        <v>3</v>
-      </c>
-      <c r="I9" s="26">
-        <v>1</v>
-      </c>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
       <c r="Q9" s="17" t="s">
         <v>115</v>
       </c>
       <c r="R9" s="19">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S9" s="10">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T9" s="10">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U9" s="10">
         <f t="shared" si="3"/>
@@ -30107,34 +29156,18 @@
       </c>
       <c r="Z9" s="54" t="str">
         <f t="shared" si="7"/>
-        <v>5M/WW</v>
+        <v/>
       </c>
     </row>
     <row r="10" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="26">
-        <v>7</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="G10" s="26">
-        <v>5</v>
-      </c>
-      <c r="H10" s="26">
-        <v>3</v>
-      </c>
-      <c r="I10" s="26">
-        <v>2</v>
-      </c>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
       <c r="Q10" s="2" t="s">
         <v>44</v>
       </c>
@@ -30167,45 +29200,29 @@
       </c>
       <c r="Z10" s="54" t="str">
         <f t="shared" si="7"/>
-        <v>5M/LG</v>
+        <v/>
       </c>
       <c r="AB10" s="2"/>
     </row>
     <row r="11" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="26">
-        <v>8</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="G11" s="26">
-        <v>6</v>
-      </c>
-      <c r="H11" s="26">
-        <v>4</v>
-      </c>
-      <c r="I11" s="26">
-        <v>1</v>
-      </c>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
       <c r="Q11" s="2" t="s">
         <v>46</v>
       </c>
       <c r="R11" s="9">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S11" s="10">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T11" s="10">
         <f t="shared" si="2"/>
@@ -30213,7 +29230,7 @@
       </c>
       <c r="U11" s="10">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V11" s="27" t="b">
         <v>0</v>
@@ -30228,41 +29245,25 @@
       </c>
       <c r="Z11" s="54" t="str">
         <f t="shared" si="7"/>
-        <v>5M/WW</v>
+        <v/>
       </c>
       <c r="AB11" s="2"/>
     </row>
     <row r="12" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="26">
-        <v>9</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="G12" s="26">
-        <v>7</v>
-      </c>
-      <c r="H12" s="26">
-        <v>4</v>
-      </c>
-      <c r="I12" s="26">
-        <v>2</v>
-      </c>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
       <c r="Q12" s="2" t="s">
         <v>50</v>
       </c>
       <c r="R12" s="9">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S12" s="10">
         <f t="shared" si="1"/>
@@ -30270,11 +29271,11 @@
       </c>
       <c r="T12" s="10">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U12" s="10">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V12" s="27" t="b">
         <v>0</v>
@@ -30289,35 +29290,19 @@
       </c>
       <c r="Z12" s="54" t="str">
         <f t="shared" si="7"/>
-        <v>5M/LG</v>
+        <v/>
       </c>
       <c r="AB12" s="2"/>
     </row>
     <row r="13" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="26">
-        <v>10</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="F13" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="G13" s="26">
-        <v>8</v>
-      </c>
-      <c r="H13" s="26">
-        <v>5</v>
-      </c>
-      <c r="I13" s="26">
-        <v>1</v>
-      </c>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
       <c r="Q13" s="2" t="s">
         <v>52</v>
       </c>
@@ -30350,35 +29335,19 @@
       </c>
       <c r="Z13" s="54" t="str">
         <f t="shared" si="7"/>
-        <v>5M/WW</v>
+        <v/>
       </c>
       <c r="AB13" s="2"/>
     </row>
     <row r="14" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="26">
-        <v>11</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" s="26" t="s">
-        <v>208</v>
-      </c>
-      <c r="G14" s="26">
-        <v>9</v>
-      </c>
-      <c r="H14" s="26">
-        <v>5</v>
-      </c>
-      <c r="I14" s="26">
-        <v>1</v>
-      </c>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
       <c r="Q14" s="2" t="s">
         <v>203</v>
       </c>
@@ -30399,7 +29368,7 @@
         <v>0</v>
       </c>
       <c r="V14" s="27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X14" s="54" t="str">
         <f t="shared" si="5"/>
@@ -30411,41 +29380,25 @@
       </c>
       <c r="Z14" s="54" t="str">
         <f t="shared" si="7"/>
-        <v>5M/LG</v>
+        <v/>
       </c>
       <c r="AB14" s="2"/>
     </row>
     <row r="15" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="26">
-        <v>12</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="F15" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="G15" s="26">
-        <v>10</v>
-      </c>
-      <c r="H15" s="26">
-        <v>6</v>
-      </c>
-      <c r="I15" s="26">
-        <v>1</v>
-      </c>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
       <c r="Q15" s="2" t="s">
         <v>55</v>
       </c>
       <c r="R15" s="9">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S15" s="10">
         <f t="shared" si="1"/>
@@ -30457,7 +29410,7 @@
       </c>
       <c r="U15" s="10">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V15" s="27" t="b">
         <v>0</v>
@@ -30472,41 +29425,25 @@
       </c>
       <c r="Z15" s="54" t="str">
         <f t="shared" si="7"/>
-        <v>5M/WW</v>
+        <v/>
       </c>
       <c r="AB15" s="2"/>
     </row>
     <row r="16" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="26">
-        <v>13</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="F16" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="G16" s="26">
-        <v>1</v>
-      </c>
-      <c r="H16" s="26">
-        <v>1</v>
-      </c>
-      <c r="I16" s="26">
-        <v>1</v>
-      </c>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
       <c r="Q16" s="2" t="s">
         <v>58</v>
       </c>
       <c r="R16" s="9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S16" s="10">
         <f t="shared" si="1"/>
@@ -30514,7 +29451,7 @@
       </c>
       <c r="T16" s="10">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U16" s="10">
         <f t="shared" si="3"/>
@@ -30525,7 +29462,7 @@
       </c>
       <c r="X16" s="54" t="str">
         <f t="shared" si="5"/>
-        <v>LG/5M</v>
+        <v/>
       </c>
       <c r="Y16" s="54" t="str">
         <f t="shared" si="6"/>
@@ -30538,30 +29475,14 @@
       <c r="AB16" s="2"/>
     </row>
     <row r="17" spans="2:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="26">
-        <v>14</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="F17" s="26" t="s">
-        <v>208</v>
-      </c>
-      <c r="G17" s="26">
-        <v>2</v>
-      </c>
-      <c r="H17" s="26">
-        <v>7</v>
-      </c>
-      <c r="I17" s="26">
-        <v>2</v>
-      </c>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
       <c r="Q17" s="2" t="s">
         <v>61</v>
       </c>
@@ -30586,7 +29507,7 @@
       </c>
       <c r="X17" s="54" t="str">
         <f t="shared" si="5"/>
-        <v>LG/WW</v>
+        <v/>
       </c>
       <c r="Y17" s="54" t="str">
         <f t="shared" si="6"/>
@@ -30599,30 +29520,14 @@
       <c r="AB17" s="2"/>
     </row>
     <row r="18" spans="2:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="26">
-        <v>15</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="E18" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="26" t="s">
-        <v>208</v>
-      </c>
-      <c r="G18" s="26">
-        <v>1</v>
-      </c>
-      <c r="H18" s="26">
-        <v>1</v>
-      </c>
-      <c r="I18" s="26">
-        <v>1</v>
-      </c>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
       <c r="Q18" s="2" t="s">
         <v>64</v>
       </c>
@@ -30655,35 +29560,19 @@
       </c>
       <c r="Z18" s="54" t="str">
         <f t="shared" si="7"/>
-        <v>5M/LG</v>
+        <v/>
       </c>
       <c r="AB18" s="2"/>
     </row>
     <row r="19" spans="2:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="26">
-        <v>16</v>
-      </c>
-      <c r="C19" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="F19" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="G19" s="26">
-        <v>2</v>
-      </c>
-      <c r="H19" s="26">
-        <v>8</v>
-      </c>
-      <c r="I19" s="26">
-        <v>1</v>
-      </c>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
       <c r="Q19" s="2" t="s">
         <v>67</v>
       </c>
@@ -30716,37 +29605,21 @@
       </c>
       <c r="Z19" s="54" t="str">
         <f t="shared" si="7"/>
-        <v>5M/WW</v>
+        <v/>
       </c>
     </row>
     <row r="20" spans="2:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="26">
-        <v>17</v>
-      </c>
-      <c r="C20" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="F20" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="G20" s="26">
-        <v>1</v>
-      </c>
-      <c r="H20" s="26">
-        <v>1</v>
-      </c>
-      <c r="I20" s="26">
-        <v>1</v>
-      </c>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
       <c r="X20" s="54" t="str">
         <f t="shared" si="5"/>
-        <v>LG/5M</v>
+        <v/>
       </c>
       <c r="Y20" s="54" t="str">
         <f t="shared" si="6"/>
@@ -30850,6 +29723,2985 @@
       <c r="I24" s="26"/>
       <c r="R24" s="17" t="str">
         <f t="shared" ref="R24:U38" si="9">IF($V4, CHAR(34)&amp;"Did not Play"&amp;CHAR(34), R4)&amp;","</f>
+        <v>0,</v>
+      </c>
+      <c r="S24" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="T24" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="U24" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="X24" s="54" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y24" s="54" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Z24" s="54" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="2:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="S25" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="T25" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="U25" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="X25" s="54" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y25" s="54" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Z25" s="54" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="2:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>"Did not Play",</v>
+      </c>
+      <c r="S26" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>"Did not Play",</v>
+      </c>
+      <c r="T26" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>"Did not Play",</v>
+      </c>
+      <c r="U26" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>"Did not Play",</v>
+      </c>
+      <c r="X26" s="54" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y26" s="54" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Z26" s="54" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="2:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="R27" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="S27" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="T27" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="U27" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="X27" s="54" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y27" s="54" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Z27" s="54" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="2:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="R28" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="S28" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="T28" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="U28" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="X28" s="54" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y28" s="54" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Z28" s="54" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="2:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B29" s="50"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="50"/>
+      <c r="R29" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="S29" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="T29" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="U29" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="X29" s="54" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y29" s="54" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Z29" s="54" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="2:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="R30" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>"Did not Play",</v>
+      </c>
+      <c r="S30" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>"Did not Play",</v>
+      </c>
+      <c r="T30" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>"Did not Play",</v>
+      </c>
+      <c r="U30" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>"Did not Play",</v>
+      </c>
+      <c r="X30" s="54" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y30" s="54" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Z30" s="54" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="2:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
+      <c r="R31" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="S31" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="T31" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="U31" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="X31" s="54" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y31" s="54" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Z31" s="54" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="2:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
+      <c r="R32" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="S32" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="T32" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="U32" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="X32" s="54" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y32" s="54" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Z32" s="54" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
+      <c r="R33" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="S33" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="T33" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="U33" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="X33" s="54" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y33" s="54" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Z33" s="54" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
+      <c r="R34" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="S34" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="T34" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="U34" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="X34" s="54" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y34" s="54" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Z34" s="54" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R35" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="S35" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="T35" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="U35" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="X35" s="54" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y35" s="54" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Z35" s="54" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R36" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="S36" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="T36" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="U36" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="X36" s="54" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y36" s="54" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Z36" s="54" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R37" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="S37" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="T37" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="U37" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="X37" s="54" t="str">
+        <f>IF(AND(C37="Loose Gooses",D37="Wet Willies"),"LG/WW", IF(AND(C37="Loose Gooses",D37="5 Musketeers"),"LG/5M", ""))</f>
+        <v/>
+      </c>
+      <c r="Y37" s="54" t="str">
+        <f>IF(AND(C37="Wet Willies",D37="Loose Gooses"),"WW/LG", IF(AND(C37="Wet Willies",D37="5 Musketeers"),"WW/5M", ""))</f>
+        <v/>
+      </c>
+      <c r="Z37" s="54" t="str">
+        <f>IF(AND(C37="5 Musketeers",D37="Loose Gooses"),"5M/LG", IF(AND($C37="5 Musketeers",$D37="Wet Willies"),"5M/WW", ""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R38" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="S38" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="T38" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="U38" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>0,</v>
+      </c>
+      <c r="X38" s="54" t="str">
+        <f>IF(AND(C38="Loose Gooses",D38="Wet Willies"),"LG/WW", IF(AND(C38="Loose Gooses",D38="5 Musketeers"),"LG/5M", ""))</f>
+        <v/>
+      </c>
+      <c r="Y38" s="54" t="str">
+        <f>IF(AND(C38="Wet Willies",D38="Loose Gooses"),"WW/LG", IF(AND(C38="Wet Willies",D38="5 Musketeers"),"WW/5M", ""))</f>
+        <v/>
+      </c>
+      <c r="Z38" s="54" t="str">
+        <f>IF(AND(C38="5 Musketeers",D38="Loose Gooses"),"5M/LG", IF(AND($C38="5 Musketeers",$D38="Wet Willies"),"5M/WW", ""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R39" s="17">
+        <f>IF($V19, CHAR(34)&amp;"Did not Play"&amp;CHAR(34), R19)</f>
+        <v>0</v>
+      </c>
+      <c r="S39" s="17">
+        <f>IF($V19, CHAR(34)&amp;"Did not Play"&amp;CHAR(34), S19)</f>
+        <v>0</v>
+      </c>
+      <c r="T39" s="17">
+        <f>IF($V19, CHAR(34)&amp;"Did not Play"&amp;CHAR(34), T19)</f>
+        <v>0</v>
+      </c>
+      <c r="U39" s="17">
+        <f>IF($V19, CHAR(34)&amp;"Did not Play"&amp;CHAR(34), U19)</f>
+        <v>0</v>
+      </c>
+      <c r="X39" s="54" t="str">
+        <f>IF(AND(C39="Loose Gooses",D39="Wet Willies"),"LG/WW", IF(AND(C39="Loose Gooses",D39="5 Musketeers"),"LG/5M", ""))</f>
+        <v/>
+      </c>
+      <c r="Y39" s="54" t="str">
+        <f>IF(AND(C39="Wet Willies",D39="Loose Gooses"),"WW/LG", IF(AND(C39="Wet Willies",D39="5 Musketeers"),"WW/5M", ""))</f>
+        <v/>
+      </c>
+      <c r="Z39" s="54" t="str">
+        <f>IF(AND(C39="5 Musketeers",D39="Loose Gooses"),"5M/LG", IF(AND($C39="5 Musketeers",$D39="Wet Willies"),"5M/WW", ""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="78"/>
+      <c r="S40" s="9"/>
+      <c r="T40" s="9"/>
+      <c r="U40" s="9"/>
+    </row>
+    <row r="41" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.9">
+      <c r="R41" s="104"/>
+      <c r="S41" s="104"/>
+      <c r="T41" s="130" t="s">
+        <v>119</v>
+      </c>
+      <c r="U41" s="130"/>
+      <c r="V41" s="130"/>
+    </row>
+    <row r="42" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.9">
+      <c r="R42" s="104"/>
+      <c r="S42" s="104"/>
+      <c r="T42" s="130"/>
+      <c r="U42" s="130"/>
+      <c r="V42" s="130"/>
+    </row>
+    <row r="43" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B43" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="T43" s="74" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B44" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E44" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="F44" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="G44" s="105" t="s">
+        <v>179</v>
+      </c>
+      <c r="H44" s="105" t="s">
+        <v>180</v>
+      </c>
+      <c r="I44" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="J44" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="K44" s="105" t="s">
+        <v>182</v>
+      </c>
+      <c r="L44" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="M44" s="105" t="s">
+        <v>183</v>
+      </c>
+      <c r="N44" s="105" t="s">
+        <v>184</v>
+      </c>
+      <c r="O44" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="P44" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q44" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="T44" s="17" t="str">
+        <f>CHAR(34)&amp;"Date"&amp;CHAR(34)&amp;":["&amp;CHAR(34)&amp;""&amp;C2&amp;""&amp;CHAR(34)&amp;"],"</f>
+        <v>"Date":["12-July"],</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B45" s="79" t="str">
+        <f>C2</f>
+        <v>12-July</v>
+      </c>
+      <c r="C45" s="17">
+        <f>MAX(L3:L5)</f>
+        <v>0</v>
+      </c>
+      <c r="D45" s="17">
+        <f>C45-E45</f>
+        <v>0</v>
+      </c>
+      <c r="E45" s="17">
+        <f>MIN(L3:L5)</f>
+        <v>0</v>
+      </c>
+      <c r="F45" s="17">
+        <f>COUNT(X4:X39)</f>
+        <v>0</v>
+      </c>
+      <c r="G45" s="17">
+        <f>COUNTIF(Y4:Y39, "WW/LG")</f>
+        <v>0</v>
+      </c>
+      <c r="H45" s="17">
+        <f>COUNTIF(Z4:Z39, "5M/LG")</f>
+        <v>0</v>
+      </c>
+      <c r="I45" s="17">
+        <f>COUNT(Y4:Y39)</f>
+        <v>0</v>
+      </c>
+      <c r="J45" s="17">
+        <f>COUNTIF(X4:X39, "LG/WW")</f>
+        <v>0</v>
+      </c>
+      <c r="K45" s="17">
+        <f>COUNTIF(Z4:Z39, "5M/WW")</f>
+        <v>0</v>
+      </c>
+      <c r="L45" s="17">
+        <f>COUNT(Z4:Z39)</f>
+        <v>0</v>
+      </c>
+      <c r="M45" s="17">
+        <f>COUNTIF(X4:X39, "LG/5M")</f>
+        <v>0</v>
+      </c>
+      <c r="N45" s="17">
+        <f>COUNTIF(Y4:Y39, "WW/5M")</f>
+        <v>0</v>
+      </c>
+      <c r="O45" s="17" t="e">
+        <f>O3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P45" s="17" t="e">
+        <f>O5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q45" s="17" t="e">
+        <f>O4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T45" s="17" t="str">
+        <f>CHAR(34)&amp;"Points"&amp;CHAR(34)&amp;":["&amp;R23&amp;R24&amp;R25&amp;R26&amp;R27&amp;R28&amp;R29&amp;R30&amp;R31&amp;R32&amp;R33&amp;R34&amp;R35&amp;R36&amp;R37&amp;R38&amp;R39&amp;"],"</f>
+        <v>"Points":[0,0,0,"Did not Play",0,0,0,"Did not Play",0,0,0,0,0,0,0,0,0],</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="T46" s="17" t="str">
+        <f>CHAR(34)&amp;"Finishes"&amp;CHAR(34)&amp;":["&amp;S23&amp;S24&amp;S25&amp;S26&amp;S27&amp;S28&amp;S29&amp;S30&amp;S31&amp;S32&amp;S33&amp;S34&amp;S35&amp;S36&amp;S37&amp;S38&amp;S39&amp;"],"</f>
+        <v>"Finishes":[0,0,0,"Did not Play",0,0,0,"Did not Play",0,0,0,0,0,0,0,0,0],</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="T47" s="17" t="str">
+        <f>CHAR(34)&amp;"Midrange"&amp;CHAR(34)&amp;":["&amp;T23&amp;T24&amp;T25&amp;T26&amp;T27&amp;T28&amp;T29&amp;T30&amp;T31&amp;T32&amp;T33&amp;T34&amp;T35&amp;T36&amp;T37&amp;T38&amp;T39&amp;"],"</f>
+        <v>"Midrange":[0,0,0,"Did not Play",0,0,0,"Did not Play",0,0,0,0,0,0,0,0,0],</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="T48" s="17" t="str">
+        <f>CHAR(34)&amp;"ThreePointers"&amp;CHAR(34)&amp;":["&amp;U23&amp;U24&amp;U25&amp;U26&amp;U27&amp;U28&amp;U29&amp;U30&amp;U31&amp;U32&amp;U33&amp;U34&amp;U35&amp;U36&amp;U37&amp;U38&amp;U39&amp;"]"</f>
+        <v>"ThreePointers":[0,0,0,"Did not Play",0,0,0,"Did not Play",0,0,0,0,0,0,0,0,0]</v>
+      </c>
+    </row>
+    <row r="49" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="T49" s="74" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="50" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="51" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="52" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="53" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="54" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="55" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="56" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="57" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="58" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="59" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="60" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="61" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="62" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="63" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="64" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="68" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="69" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="70" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="71" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="72" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="73" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="74" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="75" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="76" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="77" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="78" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="79" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="80" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="81" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="82" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="83" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="84" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="85" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="86" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="87" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="88" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="89" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="90" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="91" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="92" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="93" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="94" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="95" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="96" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="97" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="98" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="99" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="100" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="101" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="102" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="103" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="104" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="105" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="106" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="107" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="108" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="109" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="110" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="111" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="112" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="116" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="117" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="118" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="119" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="120" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="121" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="122" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="123" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="124" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="125" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="126" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="127" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="128" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="T41:V42"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03838906-0D06-4CE3-8060-96BC8217D4DC}">
+  <dimension ref="B1:AE1000"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="8.73046875" style="17" customWidth="1"/>
+    <col min="2" max="2" width="13.1328125" style="17" customWidth="1"/>
+    <col min="3" max="3" width="11.73046875" style="17" customWidth="1"/>
+    <col min="4" max="4" width="14" style="17" customWidth="1"/>
+    <col min="5" max="17" width="8.73046875" style="17" customWidth="1"/>
+    <col min="18" max="18" width="10.73046875" style="17" customWidth="1"/>
+    <col min="19" max="26" width="8.73046875" style="17" customWidth="1"/>
+    <col min="27" max="16384" width="14.3984375" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="52" t="s">
+        <v>206</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="R2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="V2" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+    </row>
+    <row r="3" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="L3" s="12">
+        <f>COUNTIF(C3:C40, "Loose Gooses")</f>
+        <v>5</v>
+      </c>
+      <c r="M3" s="12">
+        <f>COUNTIF(D3:D40, "Loose Gooses")</f>
+        <v>6</v>
+      </c>
+      <c r="N3" s="11">
+        <f>L3/(L3+M3)</f>
+        <v>0.45454545454545453</v>
+      </c>
+      <c r="O3" s="12">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R3" s="9">
+        <f t="shared" ref="R3:R19" si="0">COUNTIF($E$3:$E$40, Q3)+U3</f>
+        <v>0</v>
+      </c>
+      <c r="S3" s="10">
+        <f t="shared" ref="S3:S19" si="1">COUNTIFS($E$3:$E$40, $Q3,$F$3:$F$40,"Finish")</f>
+        <v>0</v>
+      </c>
+      <c r="T3" s="10">
+        <f t="shared" ref="T3:T19" si="2">COUNTIFS($E$3:$E$40, $Q3,$F$3:$F$40,"Midrange")</f>
+        <v>0</v>
+      </c>
+      <c r="U3" s="10">
+        <f t="shared" ref="U3:U19" si="3">COUNTIFS($E$3:$E$40, $Q3,$F$3:$F$40,"Three Pointer")</f>
+        <v>0</v>
+      </c>
+      <c r="V3" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="X3" s="53" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y3" s="53" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z3" s="53" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB3" s="2"/>
+    </row>
+    <row r="4" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="26">
+        <v>1</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="G4" s="26">
+        <v>1</v>
+      </c>
+      <c r="H4" s="26">
+        <v>1</v>
+      </c>
+      <c r="I4" s="26">
+        <v>1</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="L4" s="12">
+        <f>COUNTIF(C3:C40, "5 Musketeers")</f>
+        <v>12</v>
+      </c>
+      <c r="M4" s="12">
+        <f>COUNTIF(D3:D40, "5 Musketeers")</f>
+        <v>3</v>
+      </c>
+      <c r="N4" s="11">
+        <f t="shared" ref="N4:N5" si="4">L4/(L4+M4)</f>
+        <v>0.8</v>
+      </c>
+      <c r="O4" s="12">
+        <f>IF(AND(N4&gt;N3, N4&gt;N5), 3, IF(OR(N4&gt;N3, N4&gt;N5), 2, 1))</f>
+        <v>3</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="R4" s="9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="S4" s="10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T4" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U4" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V4" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="X4" s="54" t="str">
+        <f t="shared" ref="X4:X36" si="5">IF(AND(C4="Loose Gooses",D4="Wet Willies"),"LG/WW", IF(AND(C4="Loose Gooses",D4="5 Musketeers"),"LG/5M", ""))</f>
+        <v>LG/5M</v>
+      </c>
+      <c r="Y4" s="54" t="str">
+        <f t="shared" ref="Y4:Y36" si="6">IF(AND(C4="Wet Willies",D4="Loose Gooses"),"WW/LG", IF(AND(C4="Wet Willies",D4="5 Musketeers"),"WW/5M", ""))</f>
+        <v/>
+      </c>
+      <c r="Z4" s="54" t="str">
+        <f t="shared" ref="Z4:Z36" si="7">IF(AND(C4="5 Musketeers",D4="Loose Gooses"),"5M/LG", IF(AND($C4="5 Musketeers",$D4="Wet Willies"),"5M/WW", ""))</f>
+        <v/>
+      </c>
+      <c r="AB4" s="2"/>
+    </row>
+    <row r="5" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="26">
+        <v>2</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="G5" s="26">
+        <v>2</v>
+      </c>
+      <c r="H5" s="26">
+        <v>1</v>
+      </c>
+      <c r="I5" s="26">
+        <v>1</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="L5" s="12">
+        <f>COUNTIF(C3:C40, "Wet Willies")</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="12">
+        <f>COUNTIF(D3:D40, "Wet Willies")</f>
+        <v>8</v>
+      </c>
+      <c r="N5" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O5" s="12">
+        <f>IF(AND(N5&gt;N4, N5&gt;N3), 3, IF(OR(N5&gt;N4, N5&gt;N3), 2, 1))</f>
+        <v>1</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R5" s="9">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="S5" s="10">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="T5" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U5" s="10">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="V5" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="X5" s="54" t="str">
+        <f t="shared" si="5"/>
+        <v>LG/WW</v>
+      </c>
+      <c r="Y5" s="54" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Z5" s="54" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AB5" s="2"/>
+    </row>
+    <row r="6" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="26">
+        <v>3</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="G6" s="26">
+        <v>1</v>
+      </c>
+      <c r="H6" s="26">
+        <v>1</v>
+      </c>
+      <c r="I6" s="26">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="R6" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S6" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T6" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U6" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V6" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="X6" s="54" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y6" s="54" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Z6" s="54" t="str">
+        <f t="shared" si="7"/>
+        <v>5M/LG</v>
+      </c>
+      <c r="AB6" s="2"/>
+    </row>
+    <row r="7" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="26">
+        <v>4</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="G7" s="26">
+        <v>2</v>
+      </c>
+      <c r="H7" s="26">
+        <v>2</v>
+      </c>
+      <c r="I7" s="26">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="R7" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S7" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T7" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U7" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V7" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="X7" s="54" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y7" s="54" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Z7" s="54" t="str">
+        <f t="shared" si="7"/>
+        <v>5M/WW</v>
+      </c>
+      <c r="AB7" s="2"/>
+    </row>
+    <row r="8" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="26">
+        <v>5</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" s="26">
+        <v>3</v>
+      </c>
+      <c r="H8" s="26">
+        <v>2</v>
+      </c>
+      <c r="I8" s="26">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R8" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S8" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T8" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U8" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V8" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="X8" s="54" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y8" s="54" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Z8" s="54" t="str">
+        <f t="shared" si="7"/>
+        <v>5M/LG</v>
+      </c>
+      <c r="AB8" s="2"/>
+    </row>
+    <row r="9" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="26">
+        <v>6</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" s="26">
+        <v>4</v>
+      </c>
+      <c r="H9" s="26">
+        <v>3</v>
+      </c>
+      <c r="I9" s="26">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="R9" s="19">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="S9" s="10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T9" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U9" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V9" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="X9" s="54" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y9" s="54" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Z9" s="54" t="str">
+        <f t="shared" si="7"/>
+        <v>5M/WW</v>
+      </c>
+    </row>
+    <row r="10" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="26">
+        <v>7</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" s="26">
+        <v>5</v>
+      </c>
+      <c r="H10" s="26">
+        <v>3</v>
+      </c>
+      <c r="I10" s="26">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="R10" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S10" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T10" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U10" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V10" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="X10" s="54" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y10" s="54" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Z10" s="54" t="str">
+        <f t="shared" si="7"/>
+        <v>5M/LG</v>
+      </c>
+      <c r="AB10" s="2"/>
+    </row>
+    <row r="11" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="26">
+        <v>8</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="G11" s="26">
+        <v>6</v>
+      </c>
+      <c r="H11" s="26">
+        <v>4</v>
+      </c>
+      <c r="I11" s="26">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R11" s="9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="S11" s="10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T11" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U11" s="10">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="V11" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="X11" s="54" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y11" s="54" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Z11" s="54" t="str">
+        <f t="shared" si="7"/>
+        <v>5M/WW</v>
+      </c>
+      <c r="AB11" s="2"/>
+    </row>
+    <row r="12" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="26">
+        <v>9</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="G12" s="26">
+        <v>7</v>
+      </c>
+      <c r="H12" s="26">
+        <v>4</v>
+      </c>
+      <c r="I12" s="26">
+        <v>2</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="R12" s="9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="S12" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T12" s="10">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="U12" s="10">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="V12" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="X12" s="54" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y12" s="54" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Z12" s="54" t="str">
+        <f t="shared" si="7"/>
+        <v>5M/LG</v>
+      </c>
+      <c r="AB12" s="2"/>
+    </row>
+    <row r="13" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="26">
+        <v>10</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="G13" s="26">
+        <v>8</v>
+      </c>
+      <c r="H13" s="26">
+        <v>5</v>
+      </c>
+      <c r="I13" s="26">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="R13" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S13" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T13" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U13" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V13" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="X13" s="54" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y13" s="54" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Z13" s="54" t="str">
+        <f t="shared" si="7"/>
+        <v>5M/WW</v>
+      </c>
+      <c r="AB13" s="2"/>
+    </row>
+    <row r="14" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="26">
+        <v>11</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="G14" s="26">
+        <v>9</v>
+      </c>
+      <c r="H14" s="26">
+        <v>5</v>
+      </c>
+      <c r="I14" s="26">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="R14" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S14" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T14" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U14" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V14" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="X14" s="54" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y14" s="54" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Z14" s="54" t="str">
+        <f t="shared" si="7"/>
+        <v>5M/LG</v>
+      </c>
+      <c r="AB14" s="2"/>
+    </row>
+    <row r="15" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="26">
+        <v>12</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="G15" s="26">
+        <v>10</v>
+      </c>
+      <c r="H15" s="26">
+        <v>6</v>
+      </c>
+      <c r="I15" s="26">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R15" s="9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="S15" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T15" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U15" s="10">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="V15" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="X15" s="54" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y15" s="54" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Z15" s="54" t="str">
+        <f t="shared" si="7"/>
+        <v>5M/WW</v>
+      </c>
+      <c r="AB15" s="2"/>
+    </row>
+    <row r="16" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="26">
+        <v>13</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="G16" s="26">
+        <v>1</v>
+      </c>
+      <c r="H16" s="26">
+        <v>1</v>
+      </c>
+      <c r="I16" s="26">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="R16" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S16" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T16" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U16" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V16" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="X16" s="54" t="str">
+        <f t="shared" si="5"/>
+        <v>LG/5M</v>
+      </c>
+      <c r="Y16" s="54" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Z16" s="54" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AB16" s="2"/>
+    </row>
+    <row r="17" spans="2:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="26">
+        <v>14</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="G17" s="26">
+        <v>2</v>
+      </c>
+      <c r="H17" s="26">
+        <v>7</v>
+      </c>
+      <c r="I17" s="26">
+        <v>2</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="R17" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S17" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T17" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U17" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V17" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="X17" s="54" t="str">
+        <f t="shared" si="5"/>
+        <v>LG/WW</v>
+      </c>
+      <c r="Y17" s="54" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Z17" s="54" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AB17" s="2"/>
+    </row>
+    <row r="18" spans="2:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="26">
+        <v>15</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="G18" s="26">
+        <v>1</v>
+      </c>
+      <c r="H18" s="26">
+        <v>1</v>
+      </c>
+      <c r="I18" s="26">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="R18" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S18" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T18" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U18" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V18" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="X18" s="54" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y18" s="54" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Z18" s="54" t="str">
+        <f t="shared" si="7"/>
+        <v>5M/LG</v>
+      </c>
+      <c r="AB18" s="2"/>
+    </row>
+    <row r="19" spans="2:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="26">
+        <v>16</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="G19" s="26">
+        <v>2</v>
+      </c>
+      <c r="H19" s="26">
+        <v>8</v>
+      </c>
+      <c r="I19" s="26">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="R19" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S19" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T19" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U19" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V19" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="X19" s="54" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y19" s="54" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Z19" s="54" t="str">
+        <f t="shared" si="7"/>
+        <v>5M/WW</v>
+      </c>
+    </row>
+    <row r="20" spans="2:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="26">
+        <v>17</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="G20" s="26">
+        <v>1</v>
+      </c>
+      <c r="H20" s="26">
+        <v>1</v>
+      </c>
+      <c r="I20" s="26">
+        <v>1</v>
+      </c>
+      <c r="X20" s="54" t="str">
+        <f t="shared" si="5"/>
+        <v>LG/5M</v>
+      </c>
+      <c r="Y20" s="54" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Z20" s="54" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="2:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="X21" s="54" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y21" s="54" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Z21" s="54" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="2:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="X22" s="54" t="str">
+        <f>IF(AND(C22="Loose Gooses",B45="Wet Willies"),"LG/WW", IF(AND(C22="Loose Gooses",B45="5 Musketeers"),"LG/5M", ""))</f>
+        <v/>
+      </c>
+      <c r="Y22" s="54" t="str">
+        <f>IF(AND(C22="Wet Willies",B45="Loose Gooses"),"WW/LG", IF(AND(C22="Wet Willies",B45="5 Musketeers"),"WW/5M", ""))</f>
+        <v/>
+      </c>
+      <c r="Z22" s="54" t="str">
+        <f>IF(AND(C22="5 Musketeers",B45="Loose Gooses"),"5M/LG", IF(AND($C22="5 Musketeers",$B45="Wet Willies"),"5M/WW", ""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="2:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="17" t="str">
+        <f>IF($V3, CHAR(34)&amp;"Did not Play"&amp;CHAR(34), R3)&amp;","</f>
+        <v>0,</v>
+      </c>
+      <c r="S23" s="17" t="str">
+        <f t="shared" ref="S23:U23" si="8">IF($V3, CHAR(34)&amp;"Did not Play"&amp;CHAR(34), S3)&amp;","</f>
+        <v>0,</v>
+      </c>
+      <c r="T23" s="17" t="str">
+        <f t="shared" si="8"/>
+        <v>0,</v>
+      </c>
+      <c r="U23" s="17" t="str">
+        <f t="shared" si="8"/>
+        <v>0,</v>
+      </c>
+      <c r="X23" s="54" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y23" s="54" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Z23" s="54" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="2:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="R24" s="17" t="str">
+        <f t="shared" ref="R24:U38" si="9">IF($V4, CHAR(34)&amp;"Did not Play"&amp;CHAR(34), R4)&amp;","</f>
         <v>2,</v>
       </c>
       <c r="S24" s="17" t="str">
@@ -31418,18 +33270,18 @@
     <row r="41" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.9">
       <c r="R41" s="104"/>
       <c r="S41" s="104"/>
-      <c r="T41" s="128" t="s">
+      <c r="T41" s="130" t="s">
         <v>119</v>
       </c>
-      <c r="U41" s="128"/>
-      <c r="V41" s="128"/>
+      <c r="U41" s="130"/>
+      <c r="V41" s="130"/>
     </row>
     <row r="42" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.9">
       <c r="R42" s="104"/>
       <c r="S42" s="104"/>
-      <c r="T42" s="128"/>
-      <c r="U42" s="128"/>
-      <c r="V42" s="128"/>
+      <c r="T42" s="130"/>
+      <c r="U42" s="130"/>
+      <c r="V42" s="130"/>
     </row>
     <row r="43" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B43" s="17" t="s">

--- a/Other Files/PastResults.xlsx
+++ b/Other Files/PastResults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\011445\Documents\GitHub\LTBO\Other Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C7CB6D-5196-4CFA-84DC-F469F8CA4738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{213BC544-5EDA-4404-AF73-7514F22F5687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="4" xr2:uid="{1E3275F7-0219-46B7-B9B0-3246E28631A6}"/>
   </bookViews>

--- a/Other Files/PastResults.xlsx
+++ b/Other Files/PastResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\011445\Documents\GitHub\LTBO\Other Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{213BC544-5EDA-4404-AF73-7514F22F5687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4327CDBA-2DF7-471C-A323-B94CEE23A6B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="4" xr2:uid="{1E3275F7-0219-46B7-B9B0-3246E28631A6}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="2" xr2:uid="{1E3275F7-0219-46B7-B9B0-3246E28631A6}"/>
   </bookViews>
   <sheets>
     <sheet name="SfW" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="215">
   <si>
     <t>Points</t>
   </si>
@@ -675,6 +675,15 @@
   <si>
     <t>12-July</t>
   </si>
+  <si>
+    <t>Angus Walker, Christopher Tomkinson</t>
+  </si>
+  <si>
+    <t>Will</t>
+  </si>
+  <si>
+    <t>LTBO Photographer</t>
+  </si>
 </sst>
 </file>
 
@@ -684,11 +693,18 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -997,26 +1013,26 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1"/>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1"/>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="16" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1024,50 +1040,50 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="16" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1078,63 +1094,66 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="16" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="15" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1146,19 +1165,16 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1167,51 +1183,53 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="16" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="16" fontId="14" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="15" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1219,6 +1237,66 @@
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="154">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -4641,66 +4719,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -4924,13 +4942,13 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0.62790697674418605</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.41666666666666669</c:v>
+                  <c:v>0.32558139534883723</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>4.6511627906976744E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5258,46 +5276,46 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5462,46 +5480,46 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5666,46 +5684,46 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7027,38 +7045,38 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{598ECA3B-99B4-4CAB-8F81-5D711AA5A7FC}" name="Table1" displayName="Table1" ref="Z7:AJ24" totalsRowShown="0" headerRowDxfId="147" dataDxfId="145" headerRowBorderDxfId="146" tableBorderDxfId="144" totalsRowBorderDxfId="143">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{598ECA3B-99B4-4CAB-8F81-5D711AA5A7FC}" name="Table1" displayName="Table1" ref="Z7:AJ24" totalsRowShown="0" headerRowDxfId="153" dataDxfId="151" headerRowBorderDxfId="152" tableBorderDxfId="150" totalsRowBorderDxfId="149">
   <autoFilter ref="Z7:AJ24" xr:uid="{598ECA3B-99B4-4CAB-8F81-5D711AA5A7FC}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{9B036617-5450-4894-9268-827D2E0914FF}" name="Scoring" dataDxfId="142"/>
-    <tableColumn id="2" xr3:uid="{6662CE93-E9C4-47DE-9476-E46126825B0A}" name="Points" dataDxfId="141">
+    <tableColumn id="1" xr3:uid="{9B036617-5450-4894-9268-827D2E0914FF}" name="Scoring" dataDxfId="148"/>
+    <tableColumn id="2" xr3:uid="{6662CE93-E9C4-47DE-9476-E46126825B0A}" name="Points" dataDxfId="147">
       <calculatedColumnFormula>SUM(AA29,AL29,AA49,AL49,AA69,AL69,AA89,AL89)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{8FDDFCB0-2692-4EB0-948C-7B877263B55B}" name="Average" dataDxfId="140">
+    <tableColumn id="3" xr3:uid="{8FDDFCB0-2692-4EB0-948C-7B877263B55B}" name="Average" dataDxfId="146">
       <calculatedColumnFormula>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Points]]/($AA$6-Table1[[#This Row],[Missed Games]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{CC3F9B31-1857-48FB-A18B-CBC82C117BF4}" name="Finishes" dataDxfId="139">
+    <tableColumn id="4" xr3:uid="{CC3F9B31-1857-48FB-A18B-CBC82C117BF4}" name="Finishes" dataDxfId="145">
       <calculatedColumnFormula>SUM(AB29,AM29,AB49,AM49,AB69,AM69,AB89,AM89)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{5F324C66-956D-4EDC-870F-8EDE96C328C8}" name="Averages" dataDxfId="138">
+    <tableColumn id="5" xr3:uid="{5F324C66-956D-4EDC-870F-8EDE96C328C8}" name="Averages" dataDxfId="144">
       <calculatedColumnFormula>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Finishes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{80C6E15E-675D-4F58-AA26-27226F1CE373}" name="Midranges" dataDxfId="137">
+    <tableColumn id="6" xr3:uid="{80C6E15E-675D-4F58-AA26-27226F1CE373}" name="Midranges" dataDxfId="143">
       <calculatedColumnFormula>SUM(AC29,AN29,AC49,AN49,AC69,AN69,AC89,AN89)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{8E7E6B37-23A0-4556-8839-B9D7834E3E68}" name="Averages2" dataDxfId="136">
+    <tableColumn id="7" xr3:uid="{8E7E6B37-23A0-4556-8839-B9D7834E3E68}" name="Averages2" dataDxfId="142">
       <calculatedColumnFormula>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Midranges]]/($AA$6-Table1[[#This Row],[Missed Games]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{8B28715D-E310-4E1F-B9F0-F58F7C70E830}" name="Threes" dataDxfId="135">
+    <tableColumn id="8" xr3:uid="{8B28715D-E310-4E1F-B9F0-F58F7C70E830}" name="Threes" dataDxfId="141">
       <calculatedColumnFormula>SUM(AD29,AO29,AD49,AO49,AD69,AO69,AD89,AO89)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{E0C0BF1C-40E8-4137-8E0F-BB238D651DAE}" name="Averages3" dataDxfId="134">
+    <tableColumn id="9" xr3:uid="{E0C0BF1C-40E8-4137-8E0F-BB238D651DAE}" name="Averages3" dataDxfId="140">
       <calculatedColumnFormula>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Threes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{1C75F230-74E0-47EE-BF13-C22289FE0F87}" name="Team" dataDxfId="133">
+    <tableColumn id="10" xr3:uid="{1C75F230-74E0-47EE-BF13-C22289FE0F87}" name="Team" dataDxfId="139">
       <calculatedColumnFormula>SfW!C3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{E167D7FA-56F9-4571-B292-FF3869585F59}" name="Missed Games" dataDxfId="132">
+    <tableColumn id="11" xr3:uid="{E167D7FA-56F9-4571-B292-FF3869585F59}" name="Missed Games" dataDxfId="138">
       <calculatedColumnFormula>SUM(AI29,AT29,AI49,AT49,AI69,AT69,AI89,AT89)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7067,94 +7085,94 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{744FF78C-74B5-4798-AD3D-741E3ACB43CF}" name="Table1114" displayName="Table1114" ref="R3:AA8" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{744FF78C-74B5-4798-AD3D-741E3ACB43CF}" name="Table1114" displayName="Table1114" ref="R3:AA8" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
   <autoFilter ref="R3:AA8" xr:uid="{744FF78C-74B5-4798-AD3D-741E3ACB43CF}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{B3B5C08C-655A-460A-A171-B3B0C826FF04}" name="Name" dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{427944B0-44CA-4325-A406-29F83026BA5E}" name="Points" dataDxfId="32">
+    <tableColumn id="1" xr3:uid="{B3B5C08C-655A-460A-A171-B3B0C826FF04}" name="Name" dataDxfId="39"/>
+    <tableColumn id="2" xr3:uid="{427944B0-44CA-4325-A406-29F83026BA5E}" name="Points" dataDxfId="38">
       <calculatedColumnFormula>'Stats Global'!AA22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{5E06D173-4DBE-4045-9072-0A0A77D19C84}" name="Average" dataDxfId="31"/>
-    <tableColumn id="4" xr3:uid="{E74131A4-1DCA-4A89-8989-A4CF80175582}" name="Finishes" dataDxfId="30"/>
-    <tableColumn id="5" xr3:uid="{FC3336D4-2CB5-4673-A345-7C9CCED7ADEE}" name="Averages" dataDxfId="29"/>
-    <tableColumn id="6" xr3:uid="{BD6313A7-5D92-4B66-9B85-7ABC12DE9691}" name="Midranges" dataDxfId="28"/>
-    <tableColumn id="7" xr3:uid="{6D0293BC-7E06-45CE-9D4B-FE4769DF9D9F}" name="Averages2" dataDxfId="27"/>
-    <tableColumn id="8" xr3:uid="{89C1C64B-DD66-482C-BCDE-8B912D2676EF}" name="Threes" dataDxfId="26"/>
-    <tableColumn id="9" xr3:uid="{7748B87C-1833-4BD6-9162-76373407E655}" name="Averages3" dataDxfId="25"/>
-    <tableColumn id="10" xr3:uid="{D870E191-A52F-442E-AA52-A42CFAD05573}" name="Missed Games" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{5E06D173-4DBE-4045-9072-0A0A77D19C84}" name="Average" dataDxfId="37"/>
+    <tableColumn id="4" xr3:uid="{E74131A4-1DCA-4A89-8989-A4CF80175582}" name="Finishes" dataDxfId="36"/>
+    <tableColumn id="5" xr3:uid="{FC3336D4-2CB5-4673-A345-7C9CCED7ADEE}" name="Averages" dataDxfId="35"/>
+    <tableColumn id="6" xr3:uid="{BD6313A7-5D92-4B66-9B85-7ABC12DE9691}" name="Midranges" dataDxfId="34"/>
+    <tableColumn id="7" xr3:uid="{6D0293BC-7E06-45CE-9D4B-FE4769DF9D9F}" name="Averages2" dataDxfId="33"/>
+    <tableColumn id="8" xr3:uid="{89C1C64B-DD66-482C-BCDE-8B912D2676EF}" name="Threes" dataDxfId="32"/>
+    <tableColumn id="9" xr3:uid="{7748B87C-1833-4BD6-9162-76373407E655}" name="Averages3" dataDxfId="31"/>
+    <tableColumn id="10" xr3:uid="{D870E191-A52F-442E-AA52-A42CFAD05573}" name="Missed Games" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{54759C84-3153-4DC9-9240-E2749AA0D92B}" name="Table1113" displayName="Table1113" ref="O3:X10" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{54759C84-3153-4DC9-9240-E2749AA0D92B}" name="Table1113" displayName="Table1113" ref="O3:X10" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
   <autoFilter ref="O3:X10" xr:uid="{54759C84-3153-4DC9-9240-E2749AA0D92B}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{7790729E-C8E5-45C1-8784-25212A2654AA}" name="Name" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{52A67B2B-967C-4970-8D83-8F8E9CC61522}" name="Points" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{BA1FA2C8-AEC0-4644-83DB-5097750D7188}" name="Average" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{4CF66F5D-BF10-4CBD-88FF-CCD38730E1CD}" name="Finishes" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{BC246D5B-7E78-41A6-B796-C93ED8E53DF9}" name="Averages" dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{AB819419-CC06-4A40-8DED-E231125129C0}" name="Midranges" dataDxfId="16"/>
-    <tableColumn id="7" xr3:uid="{064AA562-C451-4362-805E-D12DC76C3530}" name="Averages2" dataDxfId="15"/>
-    <tableColumn id="8" xr3:uid="{BD0D8BAE-15E4-4B38-87FE-B682D7BAEE75}" name="Threes" dataDxfId="14"/>
-    <tableColumn id="9" xr3:uid="{541E391B-4B08-4E98-A63F-753C11193269}" name="Averages3" dataDxfId="13"/>
-    <tableColumn id="10" xr3:uid="{999BB5D2-D6FB-4EB9-A268-D62EA72F939D}" name="Missed Games" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{7790729E-C8E5-45C1-8784-25212A2654AA}" name="Name" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{52A67B2B-967C-4970-8D83-8F8E9CC61522}" name="Points" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{BA1FA2C8-AEC0-4644-83DB-5097750D7188}" name="Average" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{4CF66F5D-BF10-4CBD-88FF-CCD38730E1CD}" name="Finishes" dataDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{BC246D5B-7E78-41A6-B796-C93ED8E53DF9}" name="Averages" dataDxfId="23"/>
+    <tableColumn id="6" xr3:uid="{AB819419-CC06-4A40-8DED-E231125129C0}" name="Midranges" dataDxfId="22"/>
+    <tableColumn id="7" xr3:uid="{064AA562-C451-4362-805E-D12DC76C3530}" name="Averages2" dataDxfId="21"/>
+    <tableColumn id="8" xr3:uid="{BD0D8BAE-15E4-4B38-87FE-B682D7BAEE75}" name="Threes" dataDxfId="20"/>
+    <tableColumn id="9" xr3:uid="{541E391B-4B08-4E98-A63F-753C11193269}" name="Averages3" dataDxfId="19"/>
+    <tableColumn id="10" xr3:uid="{999BB5D2-D6FB-4EB9-A268-D62EA72F939D}" name="Missed Games" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{C12CFC3F-7D59-4C0F-8D43-3F8ACD58C2BD}" name="Table11" displayName="Table11" ref="L4:U9" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{C12CFC3F-7D59-4C0F-8D43-3F8ACD58C2BD}" name="Table11" displayName="Table11" ref="L4:U9" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <autoFilter ref="L4:U9" xr:uid="{C12CFC3F-7D59-4C0F-8D43-3F8ACD58C2BD}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{CE15C23D-9493-4B21-9D40-1A25D210C18E}" name="Name" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{6BB170B1-AA38-4699-9B96-400D2947EE9C}" name="Points" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{EC8B6CBB-FCC9-416C-AEA6-738419DFE531}" name="Average" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{315DA055-9A43-468A-A501-1092626F523F}" name="Finishes" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{56B6FF4D-95D4-4550-88E4-C781ABDA83A6}" name="Averages" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{F7B5C0B8-FBE2-44B0-A372-112C7776FCCF}" name="Midranges" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{1A1C2126-FEB1-408F-8523-049E53028B4E}" name="Averages2" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{AE94036B-3777-4C1B-97D5-7BFA1037C0BF}" name="Threes" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{448B0903-7F66-40BA-809F-74ADBF397B45}" name="Averages3" dataDxfId="1"/>
-    <tableColumn id="10" xr3:uid="{E0CAC55D-8398-4928-A219-C01706996D48}" name="Missed Games" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{CE15C23D-9493-4B21-9D40-1A25D210C18E}" name="Name" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{6BB170B1-AA38-4699-9B96-400D2947EE9C}" name="Points" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{EC8B6CBB-FCC9-416C-AEA6-738419DFE531}" name="Average" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{315DA055-9A43-468A-A501-1092626F523F}" name="Finishes" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{56B6FF4D-95D4-4550-88E4-C781ABDA83A6}" name="Averages" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{F7B5C0B8-FBE2-44B0-A372-112C7776FCCF}" name="Midranges" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{1A1C2126-FEB1-408F-8523-049E53028B4E}" name="Averages2" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{AE94036B-3777-4C1B-97D5-7BFA1037C0BF}" name="Threes" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{448B0903-7F66-40BA-809F-74ADBF397B45}" name="Averages3" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{E0CAC55D-8398-4928-A219-C01706996D48}" name="Missed Games" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{84D0C431-52CF-4ABD-AA3E-D31975A289B1}" name="Table2" displayName="Table2" ref="Z28:AI45" totalsRowShown="0" headerRowDxfId="131" dataDxfId="130">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{84D0C431-52CF-4ABD-AA3E-D31975A289B1}" name="Table2" displayName="Table2" ref="Z28:AI45" totalsRowShown="0" headerRowDxfId="137" dataDxfId="136">
   <autoFilter ref="Z28:AI45" xr:uid="{84D0C431-52CF-4ABD-AA3E-D31975A289B1}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{4DB7A2B8-7BD8-4BD7-8F53-2A7873A4EAAE}" name="Scoring" dataDxfId="129"/>
-    <tableColumn id="2" xr3:uid="{BE8EBD49-660A-4C9F-970E-230EBB942EF1}" name="Points" dataDxfId="128">
+    <tableColumn id="1" xr3:uid="{4DB7A2B8-7BD8-4BD7-8F53-2A7873A4EAAE}" name="Scoring" dataDxfId="135"/>
+    <tableColumn id="2" xr3:uid="{BE8EBD49-660A-4C9F-970E-230EBB942EF1}" name="Points" dataDxfId="134">
       <calculatedColumnFormula>'Preseason 1'!R3+'Preseason 2'!R3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{C2C49EF0-4D8C-4F8C-8D19-CDD1481D9568}" name="Finishes" dataDxfId="127">
+    <tableColumn id="3" xr3:uid="{C2C49EF0-4D8C-4F8C-8D19-CDD1481D9568}" name="Finishes" dataDxfId="133">
       <calculatedColumnFormula>'Preseason 1'!S3+'Preseason 2'!S3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{7E789F8C-B8F3-4D6E-AB6C-C9454835B062}" name="Midranges" dataDxfId="126">
+    <tableColumn id="4" xr3:uid="{7E789F8C-B8F3-4D6E-AB6C-C9454835B062}" name="Midranges" dataDxfId="132">
       <calculatedColumnFormula>'Preseason 1'!T3+'Preseason 2'!T3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{18C990F2-A6D0-4F57-B96A-D00066DCC8D8}" name="Threes" dataDxfId="125">
+    <tableColumn id="5" xr3:uid="{18C990F2-A6D0-4F57-B96A-D00066DCC8D8}" name="Threes" dataDxfId="131">
       <calculatedColumnFormula>'Preseason 1'!U3+'Preseason 2'!U3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{40526534-76CA-42BA-A8B6-AB092D9CE18F}" name="Avg P" dataDxfId="124">
+    <tableColumn id="6" xr3:uid="{40526534-76CA-42BA-A8B6-AB092D9CE18F}" name="Avg P" dataDxfId="130">
       <calculatedColumnFormula>AA29/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{693AF117-21F6-4887-B78D-D59235BABA44}" name="Avg F" dataDxfId="123">
+    <tableColumn id="7" xr3:uid="{693AF117-21F6-4887-B78D-D59235BABA44}" name="Avg F" dataDxfId="129">
       <calculatedColumnFormula>AB29/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{02AC8FBF-EBB3-4AFC-BAC5-B773E33B7279}" name="Avg M" dataDxfId="122">
+    <tableColumn id="8" xr3:uid="{02AC8FBF-EBB3-4AFC-BAC5-B773E33B7279}" name="Avg M" dataDxfId="128">
       <calculatedColumnFormula>AC29/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{CCF75EB4-34C4-4D47-9D51-E8D85C07E38B}" name="Avg T" dataDxfId="121">
+    <tableColumn id="9" xr3:uid="{CCF75EB4-34C4-4D47-9D51-E8D85C07E38B}" name="Avg T" dataDxfId="127">
       <calculatedColumnFormula>AD29/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{1A786A5C-D0C2-4ABC-904C-983180542D5F}" name="Missed Games" dataDxfId="120">
+    <tableColumn id="10" xr3:uid="{1A786A5C-D0C2-4ABC-904C-983180542D5F}" name="Missed Games" dataDxfId="126">
       <calculatedColumnFormula>COUNTIF(Template!V3, "TRUE")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7163,35 +7181,35 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{46F39EBA-1E74-46F4-A6E5-473672128124}" name="Table211" displayName="Table211" ref="AK28:AT45" totalsRowShown="0" headerRowDxfId="119" dataDxfId="118">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{46F39EBA-1E74-46F4-A6E5-473672128124}" name="Table211" displayName="Table211" ref="AK28:AT45" totalsRowShown="0" headerRowDxfId="125" dataDxfId="124">
   <autoFilter ref="AK28:AT45" xr:uid="{46F39EBA-1E74-46F4-A6E5-473672128124}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{5D003608-C1C2-4694-9447-8632FB8D7348}" name="Scoring" dataDxfId="117"/>
-    <tableColumn id="2" xr3:uid="{D15F4085-CED5-4CDD-B43B-BF7EB59B45A3}" name="Points" dataDxfId="116">
+    <tableColumn id="1" xr3:uid="{5D003608-C1C2-4694-9447-8632FB8D7348}" name="Scoring" dataDxfId="123"/>
+    <tableColumn id="2" xr3:uid="{D15F4085-CED5-4CDD-B43B-BF7EB59B45A3}" name="Points" dataDxfId="122">
       <calculatedColumnFormula>Template!AC3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{2D436F37-54B6-4820-9145-F48B4EF9B294}" name="Finishes" dataDxfId="115">
+    <tableColumn id="3" xr3:uid="{2D436F37-54B6-4820-9145-F48B4EF9B294}" name="Finishes" dataDxfId="121">
       <calculatedColumnFormula>Template!AD3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{1D9B6A22-B682-47F3-B738-7C138F317A41}" name="Midranges" dataDxfId="114">
+    <tableColumn id="4" xr3:uid="{1D9B6A22-B682-47F3-B738-7C138F317A41}" name="Midranges" dataDxfId="120">
       <calculatedColumnFormula>Template!AE3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{9966C9A0-3872-44E9-BB39-05DE197EAA68}" name="Threes" dataDxfId="113">
+    <tableColumn id="5" xr3:uid="{9966C9A0-3872-44E9-BB39-05DE197EAA68}" name="Threes" dataDxfId="119">
       <calculatedColumnFormula>Template!AF3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{CC4AB646-735F-425F-8528-C5EFE7FE11DC}" name="Avg P" dataDxfId="112">
+    <tableColumn id="6" xr3:uid="{CC4AB646-735F-425F-8528-C5EFE7FE11DC}" name="Avg P" dataDxfId="118">
       <calculatedColumnFormula>AL29/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{F8D0247E-C6F7-467A-9F38-46084D44F8AB}" name="Avg F" dataDxfId="111">
+    <tableColumn id="7" xr3:uid="{F8D0247E-C6F7-467A-9F38-46084D44F8AB}" name="Avg F" dataDxfId="117">
       <calculatedColumnFormula>AM29/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{7CCF1C77-9DB0-4EB2-B7D0-FD0BDBEBFA0E}" name="Avg M" dataDxfId="110">
+    <tableColumn id="8" xr3:uid="{7CCF1C77-9DB0-4EB2-B7D0-FD0BDBEBFA0E}" name="Avg M" dataDxfId="116">
       <calculatedColumnFormula>AN29/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{582A1A4E-5383-4383-A480-735408867046}" name="Avg T" dataDxfId="109">
+    <tableColumn id="9" xr3:uid="{582A1A4E-5383-4383-A480-735408867046}" name="Avg T" dataDxfId="115">
       <calculatedColumnFormula>AO29/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{E547AEB5-F9BA-4C5F-8DCE-34B6A8FF303A}" name="Missed Games" dataDxfId="108">
+    <tableColumn id="10" xr3:uid="{E547AEB5-F9BA-4C5F-8DCE-34B6A8FF303A}" name="Missed Games" dataDxfId="114">
       <calculatedColumnFormula>COUNTIF(Template!AG3, "TRUE")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7200,35 +7218,35 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{D27C125F-71B2-44D9-9F7A-9BED67755DD3}" name="Table21123" displayName="Table21123" ref="Z48:AI65" totalsRowShown="0" headerRowDxfId="107" dataDxfId="106">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{D27C125F-71B2-44D9-9F7A-9BED67755DD3}" name="Table21123" displayName="Table21123" ref="Z48:AI65" totalsRowShown="0" headerRowDxfId="113" dataDxfId="112">
   <autoFilter ref="Z48:AI65" xr:uid="{D27C125F-71B2-44D9-9F7A-9BED67755DD3}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{0B0344E8-2677-4FAB-9B03-4745991FB5AE}" name="Scoring" dataDxfId="105"/>
-    <tableColumn id="2" xr3:uid="{58CA1107-8BB4-4A5D-BA00-31619C8D3973}" name="Points" dataDxfId="104">
+    <tableColumn id="1" xr3:uid="{0B0344E8-2677-4FAB-9B03-4745991FB5AE}" name="Scoring" dataDxfId="111"/>
+    <tableColumn id="2" xr3:uid="{58CA1107-8BB4-4A5D-BA00-31619C8D3973}" name="Points" dataDxfId="110">
       <calculatedColumnFormula>Template!R23</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{8090861E-1FDF-44F4-9DB6-BB814E32C754}" name="Finishes" dataDxfId="103">
+    <tableColumn id="3" xr3:uid="{8090861E-1FDF-44F4-9DB6-BB814E32C754}" name="Finishes" dataDxfId="109">
       <calculatedColumnFormula>Template!S23</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{972D0347-DAB3-4985-A738-E5D78740D498}" name="Midranges" dataDxfId="102">
+    <tableColumn id="4" xr3:uid="{972D0347-DAB3-4985-A738-E5D78740D498}" name="Midranges" dataDxfId="108">
       <calculatedColumnFormula>Template!T23</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{48F5F884-1753-4988-9056-632B5EB6BBCB}" name="Threes" dataDxfId="101">
+    <tableColumn id="5" xr3:uid="{48F5F884-1753-4988-9056-632B5EB6BBCB}" name="Threes" dataDxfId="107">
       <calculatedColumnFormula>Template!U23</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{6953B627-EA05-418F-A758-FD59263EA60D}" name="Avg P" dataDxfId="100">
+    <tableColumn id="6" xr3:uid="{6953B627-EA05-418F-A758-FD59263EA60D}" name="Avg P" dataDxfId="106">
       <calculatedColumnFormula>AA49/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{BE057C9C-5ECD-4AC2-A9C0-18C89CFB52BC}" name="Avg F" dataDxfId="99">
+    <tableColumn id="7" xr3:uid="{BE057C9C-5ECD-4AC2-A9C0-18C89CFB52BC}" name="Avg F" dataDxfId="105">
       <calculatedColumnFormula>AB49/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{0FDEBEE7-CD5E-4A44-A0AE-74F044F1FF46}" name="Avg M" dataDxfId="98">
+    <tableColumn id="8" xr3:uid="{0FDEBEE7-CD5E-4A44-A0AE-74F044F1FF46}" name="Avg M" dataDxfId="104">
       <calculatedColumnFormula>AC49/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{76975BB6-3677-41A8-BC24-7536B1D876D3}" name="Avg T" dataDxfId="97">
+    <tableColumn id="9" xr3:uid="{76975BB6-3677-41A8-BC24-7536B1D876D3}" name="Avg T" dataDxfId="103">
       <calculatedColumnFormula>AD49/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{E5ADB69B-3BA2-4019-8C83-8B02221F187E}" name="Missed Games" dataDxfId="96">
+    <tableColumn id="10" xr3:uid="{E5ADB69B-3BA2-4019-8C83-8B02221F187E}" name="Missed Games" dataDxfId="102">
       <calculatedColumnFormula>COUNTIF(Template!V23, "TRUE")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7237,35 +7255,35 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{22B89D2C-1B74-4036-A4ED-A5E61F1B3AAC}" name="Table21124" displayName="Table21124" ref="AK48:AT65" totalsRowShown="0" headerRowDxfId="95" dataDxfId="94">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{22B89D2C-1B74-4036-A4ED-A5E61F1B3AAC}" name="Table21124" displayName="Table21124" ref="AK48:AT65" totalsRowShown="0" headerRowDxfId="101" dataDxfId="100">
   <autoFilter ref="AK48:AT65" xr:uid="{22B89D2C-1B74-4036-A4ED-A5E61F1B3AAC}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{3D35891E-3654-497A-8DB2-BF0BD916CA29}" name="Scoring" dataDxfId="93"/>
-    <tableColumn id="2" xr3:uid="{54B5B6AF-372A-4E07-B4D6-DFC66F7E20C5}" name="Points" dataDxfId="92">
+    <tableColumn id="1" xr3:uid="{3D35891E-3654-497A-8DB2-BF0BD916CA29}" name="Scoring" dataDxfId="99"/>
+    <tableColumn id="2" xr3:uid="{54B5B6AF-372A-4E07-B4D6-DFC66F7E20C5}" name="Points" dataDxfId="98">
       <calculatedColumnFormula>Template!AC23</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{6CA15B41-F560-4B43-8836-163F5BB5689C}" name="Finishes" dataDxfId="91">
+    <tableColumn id="3" xr3:uid="{6CA15B41-F560-4B43-8836-163F5BB5689C}" name="Finishes" dataDxfId="97">
       <calculatedColumnFormula>Template!AD23</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{8FF05262-0051-44F7-966E-8D405318BA69}" name="Midranges" dataDxfId="90">
+    <tableColumn id="4" xr3:uid="{8FF05262-0051-44F7-966E-8D405318BA69}" name="Midranges" dataDxfId="96">
       <calculatedColumnFormula>Template!AE23</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{F0D843FC-7A93-4C9A-BCCF-E789F7811B3B}" name="Threes" dataDxfId="89">
+    <tableColumn id="5" xr3:uid="{F0D843FC-7A93-4C9A-BCCF-E789F7811B3B}" name="Threes" dataDxfId="95">
       <calculatedColumnFormula>Template!AF23</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{F0498F8A-F646-4C1F-A3CF-E89E73750FC1}" name="Avg P" dataDxfId="88">
+    <tableColumn id="6" xr3:uid="{F0498F8A-F646-4C1F-A3CF-E89E73750FC1}" name="Avg P" dataDxfId="94">
       <calculatedColumnFormula>AL49/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{A387BC88-F45C-4386-8503-EFEA33BDAC38}" name="Avg F" dataDxfId="87">
+    <tableColumn id="7" xr3:uid="{A387BC88-F45C-4386-8503-EFEA33BDAC38}" name="Avg F" dataDxfId="93">
       <calculatedColumnFormula>AM49/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{BEA82919-0828-4351-A01A-D72E13E63FAB}" name="Avg M" dataDxfId="86">
+    <tableColumn id="8" xr3:uid="{BEA82919-0828-4351-A01A-D72E13E63FAB}" name="Avg M" dataDxfId="92">
       <calculatedColumnFormula>AN49/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{ABEBCE01-BCA4-4342-966C-27301889B607}" name="Avg T" dataDxfId="85">
+    <tableColumn id="9" xr3:uid="{ABEBCE01-BCA4-4342-966C-27301889B607}" name="Avg T" dataDxfId="91">
       <calculatedColumnFormula>AO49/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{65E7A8E7-4C51-42E4-AB0F-B7FF6099D70A}" name="Missed Games" dataDxfId="84">
+    <tableColumn id="10" xr3:uid="{65E7A8E7-4C51-42E4-AB0F-B7FF6099D70A}" name="Missed Games" dataDxfId="90">
       <calculatedColumnFormula>COUNTIF(Template!AG23, "TRUE")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7274,35 +7292,35 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{18C7D514-96DE-4BA6-B019-3E860ED143EC}" name="Table21125" displayName="Table21125" ref="AK68:AT85" totalsRowShown="0" headerRowDxfId="83" dataDxfId="82">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{18C7D514-96DE-4BA6-B019-3E860ED143EC}" name="Table21125" displayName="Table21125" ref="AK68:AT85" totalsRowShown="0" headerRowDxfId="89" dataDxfId="88">
   <autoFilter ref="AK68:AT85" xr:uid="{18C7D514-96DE-4BA6-B019-3E860ED143EC}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{D144EF14-69FD-4E71-90C7-56F49F45FAE5}" name="Scoring" dataDxfId="81"/>
-    <tableColumn id="2" xr3:uid="{34D1D392-F3E0-4C36-9EED-849D5B1149E6}" name="Points" dataDxfId="80">
+    <tableColumn id="1" xr3:uid="{D144EF14-69FD-4E71-90C7-56F49F45FAE5}" name="Scoring" dataDxfId="87"/>
+    <tableColumn id="2" xr3:uid="{34D1D392-F3E0-4C36-9EED-849D5B1149E6}" name="Points" dataDxfId="86">
       <calculatedColumnFormula>Template!AC43</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{E91D98A2-80BD-4E5C-9036-2FCC8185369F}" name="Finishes" dataDxfId="79">
+    <tableColumn id="3" xr3:uid="{E91D98A2-80BD-4E5C-9036-2FCC8185369F}" name="Finishes" dataDxfId="85">
       <calculatedColumnFormula>Template!AD43</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{D2E5029E-4811-4E9B-9A2D-5F5F8F322B0D}" name="Midranges" dataDxfId="78">
+    <tableColumn id="4" xr3:uid="{D2E5029E-4811-4E9B-9A2D-5F5F8F322B0D}" name="Midranges" dataDxfId="84">
       <calculatedColumnFormula>Template!AE43</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{B3E76CEE-33DA-4B18-8DCE-8EBC7EE592D7}" name="Threes" dataDxfId="77">
+    <tableColumn id="5" xr3:uid="{B3E76CEE-33DA-4B18-8DCE-8EBC7EE592D7}" name="Threes" dataDxfId="83">
       <calculatedColumnFormula>Template!AF43</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{6ABE1879-8018-4498-A9A1-22CF831F0364}" name="Avg P" dataDxfId="76">
+    <tableColumn id="6" xr3:uid="{6ABE1879-8018-4498-A9A1-22CF831F0364}" name="Avg P" dataDxfId="82">
       <calculatedColumnFormula>AL69/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{8DA4DD79-8A2A-49E4-996F-C1ACCED3C565}" name="Avg F" dataDxfId="75">
+    <tableColumn id="7" xr3:uid="{8DA4DD79-8A2A-49E4-996F-C1ACCED3C565}" name="Avg F" dataDxfId="81">
       <calculatedColumnFormula>AM69/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{256EA4BC-BA61-49E2-969F-0786AA9AA6EA}" name="Avg M" dataDxfId="74">
+    <tableColumn id="8" xr3:uid="{256EA4BC-BA61-49E2-969F-0786AA9AA6EA}" name="Avg M" dataDxfId="80">
       <calculatedColumnFormula>AN69/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{0E5566B2-99EC-4B03-A074-8705C4EDA484}" name="Avg T" dataDxfId="73">
+    <tableColumn id="9" xr3:uid="{0E5566B2-99EC-4B03-A074-8705C4EDA484}" name="Avg T" dataDxfId="79">
       <calculatedColumnFormula>AO69/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{3E2357F0-493E-401D-AC75-9AAB260F684E}" name="Missed Games" dataDxfId="72">
+    <tableColumn id="10" xr3:uid="{3E2357F0-493E-401D-AC75-9AAB260F684E}" name="Missed Games" dataDxfId="78">
       <calculatedColumnFormula>COUNTIF(Template!AG43, "TRUE")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7311,35 +7329,35 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{F118BED8-7AAF-4E55-A61F-C75C69A64AAE}" name="Table21126" displayName="Table21126" ref="Z68:AI85" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{F118BED8-7AAF-4E55-A61F-C75C69A64AAE}" name="Table21126" displayName="Table21126" ref="Z68:AI85" totalsRowShown="0" headerRowDxfId="77" dataDxfId="76">
   <autoFilter ref="Z68:AI85" xr:uid="{F118BED8-7AAF-4E55-A61F-C75C69A64AAE}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{7723929D-65B3-40BB-8FDD-C4533243706C}" name="Scoring" dataDxfId="69"/>
-    <tableColumn id="2" xr3:uid="{EC28DE3D-619E-4930-A3AF-7AD1BE1D4843}" name="Points" dataDxfId="68">
+    <tableColumn id="1" xr3:uid="{7723929D-65B3-40BB-8FDD-C4533243706C}" name="Scoring" dataDxfId="75"/>
+    <tableColumn id="2" xr3:uid="{EC28DE3D-619E-4930-A3AF-7AD1BE1D4843}" name="Points" dataDxfId="74">
       <calculatedColumnFormula>Template!R43</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{9537269D-8C1D-42B5-866F-D03CE61A8512}" name="Finishes" dataDxfId="67">
+    <tableColumn id="3" xr3:uid="{9537269D-8C1D-42B5-866F-D03CE61A8512}" name="Finishes" dataDxfId="73">
       <calculatedColumnFormula>Template!S43</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{AC590DDB-BE19-4A14-8B98-1E5E2430AA45}" name="Midranges" dataDxfId="66">
+    <tableColumn id="4" xr3:uid="{AC590DDB-BE19-4A14-8B98-1E5E2430AA45}" name="Midranges" dataDxfId="72">
       <calculatedColumnFormula>Template!T43</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C96D3ACD-F34D-477E-86DE-4650EE56BC94}" name="Threes" dataDxfId="65">
+    <tableColumn id="5" xr3:uid="{C96D3ACD-F34D-477E-86DE-4650EE56BC94}" name="Threes" dataDxfId="71">
       <calculatedColumnFormula>Template!U43</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{A43DE5E9-BB01-49FA-A204-66EE7BAA2E9F}" name="Avg P" dataDxfId="64">
+    <tableColumn id="6" xr3:uid="{A43DE5E9-BB01-49FA-A204-66EE7BAA2E9F}" name="Avg P" dataDxfId="70">
       <calculatedColumnFormula>AA69/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{C75A19FF-6041-45C2-BACB-E347F06B6329}" name="Avg F" dataDxfId="63">
+    <tableColumn id="7" xr3:uid="{C75A19FF-6041-45C2-BACB-E347F06B6329}" name="Avg F" dataDxfId="69">
       <calculatedColumnFormula>AB69/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00D3FCFC-C9C5-4C96-BE0E-8E1FDC95D07C}" name="Avg M" dataDxfId="62">
+    <tableColumn id="8" xr3:uid="{00D3FCFC-C9C5-4C96-BE0E-8E1FDC95D07C}" name="Avg M" dataDxfId="68">
       <calculatedColumnFormula>AC69/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{0448FF4E-9D2D-47F6-89B7-F17D36B05E8A}" name="Avg T" dataDxfId="61">
+    <tableColumn id="9" xr3:uid="{0448FF4E-9D2D-47F6-89B7-F17D36B05E8A}" name="Avg T" dataDxfId="67">
       <calculatedColumnFormula>AD69/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{D5BDFA2D-095B-44F8-8567-15B3B1520E5A}" name="Missed Games" dataDxfId="60">
+    <tableColumn id="10" xr3:uid="{D5BDFA2D-095B-44F8-8567-15B3B1520E5A}" name="Missed Games" dataDxfId="66">
       <calculatedColumnFormula>COUNTIF(Template!V43, "TRUE")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7348,35 +7366,35 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{BDD2E472-3925-41A7-BECD-3315E6E71ECC}" name="Table21127" displayName="Table21127" ref="Z88:AI105" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{BDD2E472-3925-41A7-BECD-3315E6E71ECC}" name="Table21127" displayName="Table21127" ref="Z88:AI105" totalsRowShown="0" headerRowDxfId="65" dataDxfId="64">
   <autoFilter ref="Z88:AI105" xr:uid="{BDD2E472-3925-41A7-BECD-3315E6E71ECC}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{9DBD966D-620C-4B97-A502-29D00ABE150B}" name="Scoring" dataDxfId="57"/>
-    <tableColumn id="2" xr3:uid="{F8F81F0E-16B3-4472-9D90-A92149C763E4}" name="Points" dataDxfId="56">
+    <tableColumn id="1" xr3:uid="{9DBD966D-620C-4B97-A502-29D00ABE150B}" name="Scoring" dataDxfId="63"/>
+    <tableColumn id="2" xr3:uid="{F8F81F0E-16B3-4472-9D90-A92149C763E4}" name="Points" dataDxfId="62">
       <calculatedColumnFormula>Template!R63</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{09859CE1-290D-4977-B02C-46F4E5A6FDC2}" name="Finishes" dataDxfId="55">
+    <tableColumn id="3" xr3:uid="{09859CE1-290D-4977-B02C-46F4E5A6FDC2}" name="Finishes" dataDxfId="61">
       <calculatedColumnFormula>Template!S63</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{7D751A0E-2895-46DF-B5E2-5A8AA5531CD2}" name="Midranges" dataDxfId="54">
+    <tableColumn id="4" xr3:uid="{7D751A0E-2895-46DF-B5E2-5A8AA5531CD2}" name="Midranges" dataDxfId="60">
       <calculatedColumnFormula>Template!T63</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{591CDC71-B0EA-413B-B6C1-77884E7E50D4}" name="Threes" dataDxfId="53">
+    <tableColumn id="5" xr3:uid="{591CDC71-B0EA-413B-B6C1-77884E7E50D4}" name="Threes" dataDxfId="59">
       <calculatedColumnFormula>Template!U63</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{52ED768C-5557-42DC-9824-7A4D9B547153}" name="Avg P" dataDxfId="52">
+    <tableColumn id="6" xr3:uid="{52ED768C-5557-42DC-9824-7A4D9B547153}" name="Avg P" dataDxfId="58">
       <calculatedColumnFormula>AA89/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{FC79BE87-72E2-4F5E-83D6-CDCE645EB943}" name="Avg F" dataDxfId="51">
+    <tableColumn id="7" xr3:uid="{FC79BE87-72E2-4F5E-83D6-CDCE645EB943}" name="Avg F" dataDxfId="57">
       <calculatedColumnFormula>AB89/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{BA012C22-0D65-4C11-98A7-4F958703D04B}" name="Avg M" dataDxfId="50">
+    <tableColumn id="8" xr3:uid="{BA012C22-0D65-4C11-98A7-4F958703D04B}" name="Avg M" dataDxfId="56">
       <calculatedColumnFormula>AC89/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{63344F2B-5D94-417D-85E2-C2BFBACE3E7E}" name="Avg T" dataDxfId="49">
+    <tableColumn id="9" xr3:uid="{63344F2B-5D94-417D-85E2-C2BFBACE3E7E}" name="Avg T" dataDxfId="55">
       <calculatedColumnFormula>AD89/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{1AD5A604-8909-45B3-8E43-11D407451CEA}" name="Missed Games" dataDxfId="48">
+    <tableColumn id="10" xr3:uid="{1AD5A604-8909-45B3-8E43-11D407451CEA}" name="Missed Games" dataDxfId="54">
       <calculatedColumnFormula>COUNTIF(Template!V63, "TRUE")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7385,35 +7403,35 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{F9183685-60DE-4163-AA62-BE4F563EE570}" name="Table21128" displayName="Table21128" ref="AK88:AT105" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{F9183685-60DE-4163-AA62-BE4F563EE570}" name="Table21128" displayName="Table21128" ref="AK88:AT105" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
   <autoFilter ref="AK88:AT105" xr:uid="{F9183685-60DE-4163-AA62-BE4F563EE570}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{E62FBAA0-D6F6-4997-96C9-B6B13FAA9B6E}" name="Scoring" dataDxfId="45"/>
-    <tableColumn id="2" xr3:uid="{0A655F6F-9A21-4167-85B6-B9F7DC2070CA}" name="Points" dataDxfId="44">
+    <tableColumn id="1" xr3:uid="{E62FBAA0-D6F6-4997-96C9-B6B13FAA9B6E}" name="Scoring" dataDxfId="51"/>
+    <tableColumn id="2" xr3:uid="{0A655F6F-9A21-4167-85B6-B9F7DC2070CA}" name="Points" dataDxfId="50">
       <calculatedColumnFormula>Template!AC63</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{460771D3-3BD8-4DA3-AF1B-1A0F98EF1499}" name="Finishes" dataDxfId="43">
+    <tableColumn id="3" xr3:uid="{460771D3-3BD8-4DA3-AF1B-1A0F98EF1499}" name="Finishes" dataDxfId="49">
       <calculatedColumnFormula>Template!AD63</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{3C08B2D7-823D-49C3-A627-A5848E664B2F}" name="Midranges" dataDxfId="42">
+    <tableColumn id="4" xr3:uid="{3C08B2D7-823D-49C3-A627-A5848E664B2F}" name="Midranges" dataDxfId="48">
       <calculatedColumnFormula>Template!AE63</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{E88F45FB-4C46-4674-86D5-74808E7E5368}" name="Threes" dataDxfId="41">
+    <tableColumn id="5" xr3:uid="{E88F45FB-4C46-4674-86D5-74808E7E5368}" name="Threes" dataDxfId="47">
       <calculatedColumnFormula>Template!AF63</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{0C0E8016-1E6E-4F25-9675-4EE061FFD0F7}" name="Avg P" dataDxfId="40">
+    <tableColumn id="6" xr3:uid="{0C0E8016-1E6E-4F25-9675-4EE061FFD0F7}" name="Avg P" dataDxfId="46">
       <calculatedColumnFormula>AL89/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{F7AC350B-AE4B-4912-B21D-16D99E2AE8BF}" name="Avg F" dataDxfId="39">
+    <tableColumn id="7" xr3:uid="{F7AC350B-AE4B-4912-B21D-16D99E2AE8BF}" name="Avg F" dataDxfId="45">
       <calculatedColumnFormula>AM89/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{F451E5CA-B9C4-4EFA-A647-CEDB2FB39550}" name="Avg M" dataDxfId="38">
+    <tableColumn id="8" xr3:uid="{F451E5CA-B9C4-4EFA-A647-CEDB2FB39550}" name="Avg M" dataDxfId="44">
       <calculatedColumnFormula>AN89/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{ED1D92B5-05F1-40CE-A89F-E6627FAB4A59}" name="Avg T" dataDxfId="37">
+    <tableColumn id="9" xr3:uid="{ED1D92B5-05F1-40CE-A89F-E6627FAB4A59}" name="Avg T" dataDxfId="43">
       <calculatedColumnFormula>AO89/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{48A4808A-3DE6-4644-83F5-C2AEDDFC3E5E}" name="Missed Games" dataDxfId="36">
+    <tableColumn id="10" xr3:uid="{48A4808A-3DE6-4644-83F5-C2AEDDFC3E5E}" name="Missed Games" dataDxfId="42">
       <calculatedColumnFormula>COUNTIF(Template!AG63, "TRUE")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7622,7 +7640,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:X1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="O45" sqref="O45"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
@@ -7831,19 +7851,19 @@
       </c>
       <c r="D5" s="8">
         <f>'Stats Global'!AB10</f>
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="E5" s="12">
         <f>'Stats Global'!AA10</f>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F5" s="8">
         <f>'Stats Global'!AD10</f>
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="G5" s="12">
         <f>'Stats Global'!AC10</f>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H5" s="8">
         <f>'Stats Global'!AF10</f>
@@ -8035,19 +8055,19 @@
       </c>
       <c r="D8" s="8">
         <f>'Stats Global'!AB13</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E8" s="12">
         <f>'Stats Global'!AA13</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="8">
         <f>'Stats Global'!AD13</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G8" s="12">
         <f>'Stats Global'!AC13</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="8">
         <f>'Stats Global'!AF13</f>
@@ -8302,27 +8322,27 @@
       </c>
       <c r="D12" s="8">
         <f>'Stats Global'!AB17</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E12" s="12">
         <f>'Stats Global'!AA17</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F12" s="8">
         <f>'Stats Global'!AD17</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G12" s="12">
         <f>'Stats Global'!AC17</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="8">
         <f>'Stats Global'!AF17</f>
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="I12" s="12">
         <f>'Stats Global'!AE17</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J12" s="8">
         <f>'Stats Global'!AH17</f>
@@ -8371,11 +8391,11 @@
       </c>
       <c r="D13" s="8">
         <f>'Stats Global'!AB18</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" s="12">
         <f>'Stats Global'!AA18</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F13" s="8">
         <f>'Stats Global'!AD18</f>
@@ -8395,11 +8415,11 @@
       </c>
       <c r="J13" s="8">
         <f>'Stats Global'!AH18</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K13" s="12">
         <f>'Stats Global'!AG18</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>53</v>
@@ -8425,143 +8445,135 @@
     </row>
     <row r="14" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C14" s="131" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="8">
+        <f>'Stats Global'!AB19</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="12">
+        <f>'Stats Global'!AA19</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="8">
+        <f>'Stats Global'!AD19</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="12">
+        <f>'Stats Global'!AC19</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="8">
+        <f>'Stats Global'!AF19</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="12">
+        <f>'Stats Global'!AE19</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="8">
+        <f>'Stats Global'!AH19</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="12">
+        <f>'Stats Global'!AG19</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="M14" s="2"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="132" t="s">
+        <v>200</v>
+      </c>
+      <c r="U14" s="12" t="str">
+        <f>IF(C14="5 Musketeers", $X$3, IF(C14="Loose Gooses", $X$4, IF(C14="Wet Willies", $X$5, $X$6)))</f>
+        <v>../Images/WW_Final.png</v>
+      </c>
+      <c r="V14" s="12" t="str">
+        <f>X$8&amp;X21&amp;".png"</f>
+        <v>../Images/Players/Will.png</v>
+      </c>
+      <c r="X14" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="120" t="s">
+      <c r="C15" s="120" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D15" s="8">
         <f>'Stats Global'!AB20</f>
+        <v>2</v>
+      </c>
+      <c r="E15" s="12">
+        <f>'Stats Global'!AA20</f>
+        <v>4</v>
+      </c>
+      <c r="F15" s="8">
+        <f>'Stats Global'!AD20</f>
         <v>1</v>
       </c>
-      <c r="E14" s="12">
-        <f>'Stats Global'!AA20</f>
+      <c r="G15" s="12">
+        <f>'Stats Global'!AC20</f>
         <v>2</v>
       </c>
-      <c r="F14" s="8">
-        <f>'Stats Global'!AD20</f>
-        <v>0</v>
-      </c>
-      <c r="G14" s="12">
-        <f>'Stats Global'!AC20</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="8">
+      <c r="H15" s="8">
         <f>'Stats Global'!AF20</f>
         <v>0</v>
       </c>
-      <c r="I14" s="12">
+      <c r="I15" s="12">
         <f>'Stats Global'!AE20</f>
         <v>0</v>
       </c>
-      <c r="J14" s="8">
+      <c r="J15" s="8">
         <f>'Stats Global'!AH20</f>
         <v>0.5</v>
       </c>
-      <c r="K14" s="12">
+      <c r="K15" s="12">
         <f>'Stats Global'!AG20</f>
         <v>1</v>
       </c>
-      <c r="L14" s="2" t="s">
+      <c r="L15" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="M14" s="2" t="s">
+      <c r="M15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N14" s="17" t="s">
+      <c r="N15" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="O14" s="17" t="s">
+      <c r="O15" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="P14" s="17" t="s">
+      <c r="P15" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="Q14" s="17" t="s">
+      <c r="Q15" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="T14" s="121" t="s">
+      <c r="T15" s="121" t="s">
         <v>202</v>
       </c>
-      <c r="U14" s="12" t="str">
-        <f t="shared" si="1"/>
+      <c r="U15" s="12" t="str">
+        <f>IF(C15="5 Musketeers", $X$3, IF(C15="Loose Gooses", $X$4, IF(C15="Wet Willies", $X$5, $X$6)))</f>
         <v>../Images/5M_Final.png</v>
       </c>
-      <c r="V14" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="V15" s="1" t="str">
+        <f>X$8&amp;X22&amp;".png"</f>
         <v>../Images/Players/Nick.png</v>
-      </c>
-      <c r="X14" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="120" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="8">
-        <f>'Stats Global'!AB21</f>
-        <v>0.5</v>
-      </c>
-      <c r="E15" s="12">
-        <f>'Stats Global'!AA21</f>
-        <v>1</v>
-      </c>
-      <c r="F15" s="8">
-        <f>'Stats Global'!AD21</f>
-        <v>0</v>
-      </c>
-      <c r="G15" s="12">
-        <f>'Stats Global'!AC21</f>
-        <v>0</v>
-      </c>
-      <c r="H15" s="8">
-        <f>'Stats Global'!AF21</f>
-        <v>0.5</v>
-      </c>
-      <c r="I15" s="12">
-        <f>'Stats Global'!AE21</f>
-        <v>1</v>
-      </c>
-      <c r="J15" s="8">
-        <f>'Stats Global'!AH21</f>
-        <v>0</v>
-      </c>
-      <c r="K15" s="12">
-        <f>'Stats Global'!AG21</f>
-        <v>0</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="M15" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="N15" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="O15" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="P15" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q15" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="T15" s="121" t="s">
-        <v>199</v>
-      </c>
-      <c r="U15" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>../Images/LG_Final.png</v>
-      </c>
-      <c r="V15" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>../Images/Players/Chris.png</v>
       </c>
       <c r="X15" s="2" t="s">
         <v>60</v>
@@ -8569,77 +8581,71 @@
     </row>
     <row r="16" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="120" t="s">
         <v>47</v>
       </c>
       <c r="D16" s="8">
-        <f>'Stats Global'!AB22</f>
-        <v>0</v>
+        <f>'Stats Global'!AB21</f>
+        <v>3</v>
       </c>
       <c r="E16" s="12">
-        <f>'Stats Global'!AA22</f>
-        <v>0</v>
+        <f>'Stats Global'!AA21</f>
+        <v>6</v>
       </c>
       <c r="F16" s="8">
-        <f>'Stats Global'!AD22</f>
-        <v>0</v>
+        <f>'Stats Global'!AD21</f>
+        <v>1</v>
       </c>
       <c r="G16" s="12">
-        <f>'Stats Global'!AC22</f>
-        <v>0</v>
+        <f>'Stats Global'!AC21</f>
+        <v>2</v>
       </c>
       <c r="H16" s="8">
-        <f>'Stats Global'!AF22</f>
-        <v>0</v>
+        <f>'Stats Global'!AF21</f>
+        <v>1</v>
       </c>
       <c r="I16" s="12">
-        <f>'Stats Global'!AE22</f>
-        <v>0</v>
+        <f>'Stats Global'!AE21</f>
+        <v>2</v>
       </c>
       <c r="J16" s="8">
-        <f>'Stats Global'!AH22</f>
-        <v>0</v>
+        <f>'Stats Global'!AH21</f>
+        <v>0.5</v>
       </c>
       <c r="K16" s="12">
-        <f>'Stats Global'!AG22</f>
-        <v>0</v>
+        <f>'Stats Global'!AG21</f>
+        <v>1</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P16" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
+      </c>
+      <c r="M16" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="N16" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="O16" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="P16" s="17" t="s">
+        <v>155</v>
       </c>
       <c r="Q16" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="R16" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="S16" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="T16" s="105" t="s">
-        <v>194</v>
+      <c r="T16" s="121" t="s">
+        <v>199</v>
       </c>
       <c r="U16" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(C16="5 Musketeers", $X$3, IF(C16="Loose Gooses", $X$4, IF(C16="Wet Willies", $X$5, $X$6)))</f>
         <v>../Images/LG_Final.png</v>
       </c>
       <c r="V16" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>../Images/Players/Angus.png</v>
+        <f>X$8&amp;X23&amp;".png"</f>
+        <v>../Images/Players/Chris.png</v>
       </c>
       <c r="X16" s="17" t="s">
         <v>165</v>
@@ -8647,62 +8653,77 @@
     </row>
     <row r="17" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B17" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" s="120" t="s">
-        <v>31</v>
+        <v>61</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="D17" s="8">
-        <f>'Stats Global'!AB23</f>
-        <v>0</v>
+        <f>'Stats Global'!AB22</f>
+        <v>3</v>
       </c>
       <c r="E17" s="12">
-        <f>'Stats Global'!AA23</f>
-        <v>0</v>
+        <f>'Stats Global'!AA22</f>
+        <v>6</v>
       </c>
       <c r="F17" s="8">
-        <f>'Stats Global'!AD23</f>
-        <v>0</v>
+        <f>'Stats Global'!AD22</f>
+        <v>1.5</v>
       </c>
       <c r="G17" s="12">
-        <f>'Stats Global'!AC23</f>
-        <v>0</v>
+        <f>'Stats Global'!AC22</f>
+        <v>3</v>
       </c>
       <c r="H17" s="8">
-        <f>'Stats Global'!AF23</f>
-        <v>0</v>
+        <f>'Stats Global'!AF22</f>
+        <v>0.5</v>
       </c>
       <c r="I17" s="12">
-        <f>'Stats Global'!AE23</f>
-        <v>0</v>
+        <f>'Stats Global'!AE22</f>
+        <v>1</v>
       </c>
       <c r="J17" s="8">
-        <f>'Stats Global'!AH23</f>
-        <v>0</v>
+        <f>'Stats Global'!AH22</f>
+        <v>0.5</v>
       </c>
       <c r="K17" s="12">
-        <f>'Stats Global'!AG23</f>
-        <v>0</v>
+        <f>'Stats Global'!AG22</f>
+        <v>1</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>65</v>
+        <v>163</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N17" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="T17" s="120" t="s">
-        <v>200</v>
+        <v>40</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q17" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="R17" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="S17" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="T17" s="105" t="s">
+        <v>194</v>
       </c>
       <c r="U17" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>../Images/WW_Final.png</v>
+        <f>IF(C17="5 Musketeers", $X$3, IF(C17="Loose Gooses", $X$4, IF(C17="Wet Willies", $X$5, $X$6)))</f>
+        <v>../Images/LG_Final.png</v>
       </c>
       <c r="V17" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>../Images/Players/Willie.png</v>
+        <f>X$8&amp;X24&amp;".png"</f>
+        <v>../Images/Players/Angus.png</v>
       </c>
       <c r="X17" s="2" t="s">
         <v>63</v>
@@ -8710,67 +8731,123 @@
     </row>
     <row r="18" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B18" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C18" s="120" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D18" s="8">
-        <f>'Stats Global'!AB24</f>
+        <f>'Stats Global'!AB23</f>
         <v>0</v>
       </c>
       <c r="E18" s="12">
-        <f>'Stats Global'!AA24</f>
+        <f>'Stats Global'!AA23</f>
         <v>0</v>
       </c>
       <c r="F18" s="8">
-        <f>'Stats Global'!AD24</f>
+        <f>'Stats Global'!AD23</f>
         <v>0</v>
       </c>
       <c r="G18" s="12">
-        <f>'Stats Global'!AC24</f>
+        <f>'Stats Global'!AC23</f>
         <v>0</v>
       </c>
       <c r="H18" s="8">
-        <f>'Stats Global'!AF24</f>
+        <f>'Stats Global'!AF23</f>
         <v>0</v>
       </c>
       <c r="I18" s="12">
-        <f>'Stats Global'!AE24</f>
+        <f>'Stats Global'!AE23</f>
         <v>0</v>
       </c>
       <c r="J18" s="8">
-        <f>'Stats Global'!AH24</f>
+        <f>'Stats Global'!AH23</f>
         <v>0</v>
       </c>
       <c r="K18" s="12">
-        <f>'Stats Global'!AG24</f>
-        <v>0</v>
-      </c>
-      <c r="L18" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="M18" s="17" t="s">
-        <v>158</v>
+        <f>'Stats Global'!AG23</f>
+        <v>0</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N18" s="17" t="s">
+        <v>149</v>
       </c>
       <c r="T18" s="120" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="U18" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>../Images/5M_Final.png</v>
+        <f>IF(C18="5 Musketeers", $X$3, IF(C18="Loose Gooses", $X$4, IF(C18="Wet Willies", $X$5, $X$6)))</f>
+        <v>../Images/WW_Final.png</v>
       </c>
       <c r="V18" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>../Images/Players/Mitch.png</v>
+        <f>X$8&amp;X25&amp;".png"</f>
+        <v>../Images/Players/Willie.png</v>
       </c>
       <c r="X18" s="2" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="19" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="L19" s="17"/>
-      <c r="V19" s="12"/>
+      <c r="B19" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="120" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="8">
+        <f>'Stats Global'!AB24</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="12">
+        <f>'Stats Global'!AA24</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="8">
+        <f>'Stats Global'!AD24</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="12">
+        <f>'Stats Global'!AC24</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="8">
+        <f>'Stats Global'!AF24</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="12">
+        <f>'Stats Global'!AE24</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="8">
+        <f>'Stats Global'!AH24</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="12">
+        <f>'Stats Global'!AG24</f>
+        <v>0</v>
+      </c>
+      <c r="L19" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="M19" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="T19" s="120" t="s">
+        <v>202</v>
+      </c>
+      <c r="U19" s="12" t="str">
+        <f>IF(C19="5 Musketeers", $X$3, IF(C19="Loose Gooses", $X$4, IF(C19="Wet Willies", $X$5, $X$6)))</f>
+        <v>../Images/5M_Final.png</v>
+      </c>
+      <c r="V19" s="1" t="str">
+        <f>X$8&amp;X26&amp;".png"</f>
+        <v>../Images/Players/Mitch.png</v>
+      </c>
       <c r="X19" s="2" t="s">
         <v>68</v>
       </c>
@@ -8788,73 +8865,50 @@
       </c>
     </row>
     <row r="21" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="130" t="s">
+      <c r="X21" s="17" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="22" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.9">
+      <c r="B22" s="130" t="s">
         <v>119</v>
       </c>
-      <c r="C21" s="130"/>
-      <c r="D21" s="130"/>
-      <c r="X21" s="2" t="s">
+      <c r="C22" s="130"/>
+      <c r="D22" s="104"/>
+      <c r="X22" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="130"/>
-      <c r="C22" s="130"/>
-      <c r="D22" s="130"/>
-      <c r="X22" s="2" t="s">
+    <row r="23" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.9">
+      <c r="B23" s="130"/>
+      <c r="C23" s="130"/>
+      <c r="D23" s="104"/>
+      <c r="X23" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="B23" s="17"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="X23" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
     <row r="24" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="B24" s="18" t="str">
-        <f>B48&amp;":["&amp;B49&amp;B50&amp;B51&amp;B52&amp;B53&amp;B54&amp;B55&amp;B56&amp;B57&amp;B58&amp;B59&amp;B60&amp;B61&amp;B62&amp;B63&amp;B64&amp;"],"</f>
-        <v>"Name":["Jasper Collier","Conor Farrington","Alexander Galt","Rudy Hoschke","Michael Iffland","Lukas Johnston","Sam James","Clarrie Jones","William Kim","Samuel McConaghy","Ryan Pattemore","Nicholas Szogi","Christopher Tomkinson","Angus Walker","Willie Weekes","Mitch Yue"],</v>
-      </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="17"/>
-      <c r="S24" s="17"/>
-      <c r="T24" s="17"/>
-      <c r="U24" s="17"/>
-      <c r="V24" s="17"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
       <c r="W24" s="17"/>
       <c r="X24" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.9">
       <c r="B25" s="18" t="str">
-        <f>C48&amp;":["&amp;C49&amp;C50&amp;C51&amp;C52&amp;C53&amp;C54&amp;C55&amp;C56&amp;C57&amp;C58&amp;C59&amp;C60&amp;C61&amp;C62&amp;C63&amp;C64&amp;"],"</f>
-        <v>"Team":["Loose Gooses","Loose Gooses","5 Musketeers","Wet Willies","Wet Willies","Wet Willies","5 Musketeers","Wet Willies","Loose Gooses","5 Musketeers","Wet Willies","5 Musketeers","Loose Gooses","Loose Gooses","Wet Willies","5 Musketeers"],</v>
+        <f>B49&amp;":["&amp;B50&amp;B51&amp;B52&amp;B53&amp;B54&amp;B55&amp;B56&amp;B57&amp;B58&amp;B59&amp;B60&amp;B61&amp;B62&amp;B63&amp;B64&amp;B65&amp;B66&amp;"],"</f>
+        <v>"Name":["Jasper Collier","Conor Farrington","Alexander Galt","Rudy Hoschke","Michael Iffland","Lukas Johnston","Sam James","Clarrie Jones","William Kim","Samuel McConaghy","Ryan Pattemore","William Scott","Nicholas Szogi","Christopher Tomkinson","Angus Walker","Willie Weekes","Mitch Yue"],</v>
       </c>
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
       <c r="F25" s="51"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
       <c r="L25" s="17"/>
       <c r="M25" s="17"/>
       <c r="N25" s="17"/>
@@ -8868,17 +8922,17 @@
       <c r="V25" s="17"/>
       <c r="W25" s="17"/>
       <c r="X25" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="26" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.9">
       <c r="B26" s="18" t="str">
-        <f>D48&amp;":["&amp;D49&amp;D50&amp;D51&amp;D52&amp;D53&amp;D54&amp;D55&amp;D56&amp;D57&amp;D58&amp;D59&amp;D60&amp;D61&amp;D62&amp;D63&amp;D64&amp;"],"</f>
-        <v>"PPG":[0,1,2.5,0,0,0,1,0,1.5,3,0,1,0.5,0,0,0],</v>
+        <f>C49&amp;":["&amp;C50&amp;C51&amp;C52&amp;C53&amp;C54&amp;C55&amp;C56&amp;C57&amp;C58&amp;C59&amp;C60&amp;C61&amp;C62&amp;C63&amp;C64&amp;C65&amp;C66&amp;"],"</f>
+        <v>"Team":["Loose Gooses","Loose Gooses","5 Musketeers","Wet Willies","Wet Willies","Wet Willies","5 Musketeers","Wet Willies","Loose Gooses","5 Musketeers","Wet Willies","Wet Willies","5 Musketeers","Loose Gooses","Loose Gooses","Wet Willies","5 Musketeers"],</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
-      <c r="F26" s="17"/>
+      <c r="F26" s="51"/>
       <c r="G26" s="17"/>
       <c r="H26" s="17"/>
       <c r="I26" s="17"/>
@@ -8896,11 +8950,14 @@
       <c r="U26" s="17"/>
       <c r="V26" s="17"/>
       <c r="W26" s="17"/>
+      <c r="X26" s="2" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="27" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="17" t="str">
-        <f>E48&amp;":["&amp;E49&amp;E50&amp;E51&amp;E52&amp;E53&amp;E54&amp;E55&amp;E56&amp;E57&amp;E58&amp;E59&amp;E60&amp;E61&amp;E62&amp;E63&amp;E64&amp;"],"</f>
-        <v>"TP":[0,2,5,0,0,0,2,0,3,6,0,2,1,0,0,0],</v>
+      <c r="B27" s="18" t="str">
+        <f>D49&amp;":["&amp;D50&amp;D51&amp;D52&amp;D53&amp;D54&amp;D55&amp;D56&amp;D57&amp;D58&amp;D59&amp;D60&amp;D61&amp;D62&amp;D63&amp;D64&amp;D65&amp;D66&amp;"],"</f>
+        <v>"PPG":[0,1,6,0,0,0.5,1,0,1.5,6,1,0,2,3,3,0,0],</v>
       </c>
       <c r="C27" s="17"/>
       <c r="D27" s="17"/>
@@ -8925,8 +8982,8 @@
     </row>
     <row r="28" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B28" s="17" t="str">
-        <f>F48&amp;":["&amp;F49&amp;F50&amp;F51&amp;F52&amp;F53&amp;F54&amp;F55&amp;F56&amp;F57&amp;F58&amp;F59&amp;F60&amp;F61&amp;F62&amp;F63&amp;F64&amp;"],"</f>
-        <v>"FPG":[0,0.5,1.5,0,0,0,0.5,0,0.5,0,0,0,0,0,0,0],</v>
+        <f>E49&amp;":["&amp;E50&amp;E51&amp;E52&amp;E53&amp;E54&amp;E55&amp;E56&amp;E57&amp;E58&amp;E59&amp;E60&amp;E61&amp;E62&amp;E63&amp;E64&amp;E65&amp;E66&amp;"],"</f>
+        <v>"TP":[0,2,12,0,0,1,2,0,3,12,2,0,4,6,6,0,0],</v>
       </c>
       <c r="C28" s="17"/>
       <c r="D28" s="17"/>
@@ -8951,8 +9008,8 @@
     </row>
     <row r="29" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B29" s="17" t="str">
-        <f>G48&amp;":["&amp;G49&amp;G50&amp;G51&amp;G52&amp;G53&amp;G54&amp;G55&amp;G56&amp;G57&amp;G58&amp;G59&amp;G60&amp;G61&amp;G62&amp;G63&amp;G64&amp;"],"</f>
-        <v>"TF":[0,1,3,0,0,0,1,0,1,0,0,0,0,0,0,0],</v>
+        <f>F49&amp;":["&amp;F50&amp;F51&amp;F52&amp;F53&amp;F54&amp;F55&amp;F56&amp;F57&amp;F58&amp;F59&amp;F60&amp;F61&amp;F62&amp;F63&amp;F64&amp;F65&amp;F66&amp;"],"</f>
+        <v>"FPG":[0,0.5,5,0,0,0.5,0.5,0,0.5,0.5,0,0,1,1,1.5,0,0],</v>
       </c>
       <c r="C29" s="17"/>
       <c r="D29" s="17"/>
@@ -8977,8 +9034,8 @@
     </row>
     <row r="30" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B30" s="17" t="str">
-        <f>H48&amp;":["&amp;H49&amp;H50&amp;H51&amp;H52&amp;H53&amp;H54&amp;H55&amp;H56&amp;H57&amp;H58&amp;H59&amp;H60&amp;H61&amp;H62&amp;H63&amp;H64&amp;"],"</f>
-        <v>"MPG":[0,0.5,0,0,0,0,0.5,0,0,2,0,0,0.5,0,0,0],</v>
+        <f>G49&amp;":["&amp;G50&amp;G51&amp;G52&amp;G53&amp;G54&amp;G55&amp;G56&amp;G57&amp;G58&amp;G59&amp;G60&amp;G61&amp;G62&amp;G63&amp;G64&amp;G65&amp;G66&amp;"],"</f>
+        <v>"TF":[0,1,10,0,0,1,1,0,1,1,0,0,2,2,3,0,0],</v>
       </c>
       <c r="C30" s="17"/>
       <c r="D30" s="17"/>
@@ -9003,8 +9060,8 @@
     </row>
     <row r="31" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B31" s="17" t="str">
-        <f>I48&amp;":["&amp;I49&amp;I50&amp;I51&amp;I52&amp;I53&amp;I54&amp;I55&amp;I56&amp;I57&amp;I58&amp;I59&amp;I60&amp;I61&amp;I62&amp;I63&amp;I64&amp;"],"</f>
-        <v>"TM":[0,1,0,0,0,0,1,0,0,4,0,0,1,0,0,0],</v>
+        <f>H49&amp;":["&amp;H50&amp;H51&amp;H52&amp;H53&amp;H54&amp;H55&amp;H56&amp;H57&amp;H58&amp;H59&amp;H60&amp;H61&amp;H62&amp;H63&amp;H64&amp;H65&amp;H66&amp;"],"</f>
+        <v>"MPG":[0,0.5,0,0,0,0,0.5,0,0,4.5,0,0,0,1,0.5,0,0],</v>
       </c>
       <c r="C31" s="17"/>
       <c r="D31" s="17"/>
@@ -9029,8 +9086,8 @@
     </row>
     <row r="32" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B32" s="17" t="str">
-        <f>J48&amp;":["&amp;J49&amp;J50&amp;J51&amp;J52&amp;J53&amp;J54&amp;J55&amp;J56&amp;J57&amp;J58&amp;J59&amp;J60&amp;J61&amp;J62&amp;J63&amp;J64&amp;"],"</f>
-        <v>"TPG":[0,0,0.5,0,0,0,0,0,0.5,0.5,0,0.5,0,0,0,0],</v>
+        <f>I49&amp;":["&amp;I50&amp;I51&amp;I52&amp;I53&amp;I54&amp;I55&amp;I56&amp;I57&amp;I58&amp;I59&amp;I60&amp;I61&amp;I62&amp;I63&amp;I64&amp;I65&amp;I66&amp;"],"</f>
+        <v>"TM":[0,1,0,0,0,0,1,0,0,9,0,0,0,2,1,0,0],</v>
       </c>
       <c r="C32" s="17"/>
       <c r="D32" s="17"/>
@@ -9055,8 +9112,8 @@
     </row>
     <row r="33" spans="2:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B33" s="17" t="str">
-        <f>K48&amp;":["&amp;K49&amp;K50&amp;K51&amp;K52&amp;K53&amp;K54&amp;K55&amp;K56&amp;K57&amp;K58&amp;K59&amp;K60&amp;K61&amp;K62&amp;K63&amp;K64&amp;"],"</f>
-        <v>"TT":[0,0,1,0,0,0,0,0,1,1,0,1,0,0,0,0],</v>
+        <f>J49&amp;":["&amp;J50&amp;J51&amp;J52&amp;J53&amp;J54&amp;J55&amp;J56&amp;J57&amp;J58&amp;J59&amp;J60&amp;J61&amp;J62&amp;J63&amp;J64&amp;J65&amp;J66&amp;"],"</f>
+        <v>"TPG":[0,0,0.5,0,0,0,0,0,0.5,0.5,0.5,0,0.5,0.5,0.5,0,0],</v>
       </c>
       <c r="C33" s="17"/>
       <c r="D33" s="17"/>
@@ -9081,8 +9138,8 @@
     </row>
     <row r="34" spans="2:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B34" s="17" t="str">
-        <f>L48&amp;":["&amp;L49&amp;L50&amp;L51&amp;L52&amp;L53&amp;L54&amp;L55&amp;L56&amp;L57&amp;L58&amp;L59&amp;L60&amp;L61&amp;L62&amp;L63&amp;L64&amp;"],"</f>
-        <v>"AccoladesOne":["","","All-Defence Team T1","All-Offence Team T1","Playmaker T1","MVP Runner Up T1","Champion T2","LTBO Manager","MVP T1","GM","Perimeter T1","The Biggest Bird","MIP T1","LTBO CEO","Teammate T1","All-2nd-Defence Team T2"],</v>
+        <f>K49&amp;":["&amp;K50&amp;K51&amp;K52&amp;K53&amp;K54&amp;K55&amp;K56&amp;K57&amp;K58&amp;K59&amp;K60&amp;K61&amp;K62&amp;K63&amp;K64&amp;K65&amp;K66&amp;"],"</f>
+        <v>"TT":[0,0,1,0,0,0,0,0,1,1,1,0,1,1,1,0,0],</v>
       </c>
       <c r="C34" s="17"/>
       <c r="D34" s="17"/>
@@ -9107,8 +9164,8 @@
     </row>
     <row r="35" spans="2:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B35" s="17" t="str">
-        <f>M48&amp;":["&amp;M49&amp;M50&amp;M51&amp;M52&amp;M53&amp;M54&amp;M55&amp;M56&amp;M57&amp;M58&amp;M59&amp;M60&amp;M61&amp;M62&amp;M63&amp;M64&amp;"],"</f>
-        <v>"AccoladesTwo":["","","Champion T1","All-Defence Team T1","Thirdman T1","All-Offence Team T1","","Champion T1","All-Offence Team T1","All-Offence Team T1","Champion T1","Champion T1","MIP T2","GM","Champion T1","Champion T2"],</v>
+        <f>L49&amp;":["&amp;L50&amp;L51&amp;L52&amp;L53&amp;L54&amp;L55&amp;L56&amp;L57&amp;L58&amp;L59&amp;L60&amp;L61&amp;L62&amp;L63&amp;L64&amp;L65&amp;L66&amp;"],"</f>
+        <v>"AccoladesOne":["","","All-Defence Team T1","All-Offence Team T1","Playmaker T1","MVP Runner Up T1","Champion T2","LTBO Manager","MVP T1","GM","Perimeter T1","LTBO Photographer","The Biggest Bird","MIP T1","LTBO CEO","Teammate T1","All-2nd-Defence Team T2"],</v>
       </c>
       <c r="C35" s="17"/>
       <c r="D35" s="17"/>
@@ -9133,8 +9190,8 @@
     </row>
     <row r="36" spans="2:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B36" s="17" t="str">
-        <f>N48&amp;":["&amp;N49&amp;N50&amp;N51&amp;N52&amp;N53&amp;N54&amp;N55&amp;N56&amp;N57&amp;N58&amp;N59&amp;N60&amp;N61&amp;N62&amp;N63&amp;N64&amp;"],"</f>
-        <v>"AccoladesThree":["","","All-Offence Team T2","Champion T1","All-Offence Team T2","All-2nd-Offence Team T2","","Finals MVP T1","All-Defence Team T1","All-Defence Team T1","","MVP Runner Up T2","MVP T2","All-Offence Team T1","Teammate T2",""],</v>
+        <f>M49&amp;":["&amp;M50&amp;M51&amp;M52&amp;M53&amp;M54&amp;M55&amp;M56&amp;M57&amp;M58&amp;M59&amp;M60&amp;M61&amp;M62&amp;M63&amp;M64&amp;M65&amp;M66&amp;"],"</f>
+        <v>"AccoladesTwo":["","","Champion T1","All-Defence Team T1","Thirdman T1","All-Offence Team T1","","Champion T1","All-Offence Team T1","All-Offence Team T1","Champion T1","","Champion T1","MIP T2","GM","Champion T1","Champion T2"],</v>
       </c>
       <c r="C36" s="17"/>
       <c r="D36" s="17"/>
@@ -9159,8 +9216,8 @@
     </row>
     <row r="37" spans="2:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B37" s="17" t="str">
-        <f>O48&amp;":["&amp;O49&amp;O50&amp;O51&amp;O52&amp;O53&amp;O54&amp;O55&amp;O56&amp;O57&amp;O58&amp;O59&amp;O60&amp;O61&amp;O62&amp;O63&amp;O64&amp;"],"</f>
-        <v>"AccoladesFour":["","","All-Defence Team T2","All-Offence Team T2","All-2nd-Defence Team T2","","","Fifthman T2","All-2nd-Offence Team T2","All-Offence Team T2","","X-Factor T2","All-2nd-Offence Team T2","All-Defence Team T1","",""],</v>
+        <f>N49&amp;":["&amp;N50&amp;N51&amp;N52&amp;N53&amp;N54&amp;N55&amp;N56&amp;N57&amp;N58&amp;N59&amp;N60&amp;N61&amp;N62&amp;N63&amp;N64&amp;N65&amp;N66&amp;"],"</f>
+        <v>"AccoladesThree":["","","All-Offence Team T2","Champion T1","All-Offence Team T2","All-2nd-Offence Team T2","","Finals MVP T1","All-Defence Team T1","All-Defence Team T1","","","MVP Runner Up T2","MVP T2","All-Offence Team T1","Teammate T2",""],</v>
       </c>
       <c r="C37" s="17"/>
       <c r="D37" s="17"/>
@@ -9185,8 +9242,8 @@
     </row>
     <row r="38" spans="2:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B38" s="17" t="str">
-        <f>P48&amp;":["&amp;P49&amp;P50&amp;P51&amp;P52&amp;P53&amp;P54&amp;P55&amp;P56&amp;P57&amp;P58&amp;P59&amp;P60&amp;P61&amp;P62&amp;P63&amp;P64&amp;"],"</f>
-        <v>"AccoladesFive":["","","","All-Defence Team T2","","","","All-2nd-Offence Team T2","All-Defence Team T2","All-Defence Team T2","","All-2nd-Offence Team T2","All-2nd-Defence Team T2","Scoring Champ T1","",""],</v>
+        <f>O49&amp;":["&amp;O50&amp;O51&amp;O52&amp;O53&amp;O54&amp;O55&amp;O56&amp;O57&amp;O58&amp;O59&amp;O60&amp;O61&amp;O62&amp;O63&amp;O64&amp;O65&amp;O66&amp;"],"</f>
+        <v>"AccoladesFour":["","","All-Defence Team T2","All-Offence Team T2","All-2nd-Defence Team T2","","","Fifthman T2","All-2nd-Offence Team T2","All-Offence Team T2","","","X-Factor T2","All-2nd-Offence Team T2","All-Defence Team T1","",""],</v>
       </c>
       <c r="C38" s="17"/>
       <c r="D38" s="17"/>
@@ -9211,8 +9268,8 @@
     </row>
     <row r="39" spans="2:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B39" s="17" t="str">
-        <f>Q48&amp;":["&amp;Q49&amp;Q50&amp;Q51&amp;Q52&amp;Q53&amp;Q54&amp;Q55&amp;Q56&amp;Q57&amp;Q58&amp;Q59&amp;Q60&amp;Q61&amp;Q62&amp;Q63&amp;Q64&amp;"],"</f>
-        <v>"AccoladesSix":["","","","Scoring Champ T2","","","","All-2nd-Defence Team T2","Champion T2","","","All-2nd-Defence Team T2","Champion T2","All-Offence Team T2","",""],</v>
+        <f>P49&amp;":["&amp;P50&amp;P51&amp;P52&amp;P53&amp;P54&amp;P55&amp;P56&amp;P57&amp;P58&amp;P59&amp;P60&amp;P61&amp;P62&amp;P63&amp;P64&amp;P65&amp;P66&amp;"],"</f>
+        <v>"AccoladesFive":["","","","All-Defence Team T2","","","","All-2nd-Offence Team T2","All-Defence Team T2","All-Defence Team T2","","","All-2nd-Offence Team T2","All-2nd-Defence Team T2","Scoring Champ T1","",""],</v>
       </c>
       <c r="C39" s="17"/>
       <c r="D39" s="17"/>
@@ -9237,8 +9294,8 @@
     </row>
     <row r="40" spans="2:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B40" s="17" t="str">
-        <f>R48&amp;":["&amp;R49&amp;R50&amp;R51&amp;R52&amp;R53&amp;R54&amp;R55&amp;R56&amp;R57&amp;R58&amp;R59&amp;R60&amp;R61&amp;R62&amp;R63&amp;R64&amp;"],"</f>
-        <v>"AccoladesSeven":["","","","GM","","","","Champion T2","Finals MVP T2","","","","","All-Defence Team T2","",""],</v>
+        <f>Q49&amp;":["&amp;Q50&amp;Q51&amp;Q52&amp;Q53&amp;Q54&amp;Q55&amp;Q56&amp;Q57&amp;Q58&amp;Q59&amp;Q60&amp;Q61&amp;Q62&amp;Q63&amp;Q64&amp;Q65&amp;Q66&amp;"],"</f>
+        <v>"AccoladesSix":["","","","Scoring Champ T2","","","","All-2nd-Defence Team T2","Champion T2","","","","All-2nd-Defence Team T2","Champion T2","All-Offence Team T2","",""],</v>
       </c>
       <c r="C40" s="17"/>
       <c r="D40" s="17"/>
@@ -9263,8 +9320,8 @@
     </row>
     <row r="41" spans="2:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B41" s="17" t="str">
-        <f>S48&amp;":["&amp;S49&amp;S50&amp;S51&amp;S52&amp;S53&amp;S54&amp;S55&amp;S56&amp;S57&amp;S58&amp;S59&amp;S60&amp;S61&amp;S62&amp;S63&amp;S64&amp;"],"</f>
-        <v>"AccoladesEight":["","","","","","","","","","","","","","Champion T2","",""],</v>
+        <f>R49&amp;":["&amp;R50&amp;R51&amp;R52&amp;R53&amp;R54&amp;R55&amp;R56&amp;R57&amp;R58&amp;R59&amp;R60&amp;R61&amp;R62&amp;R63&amp;R64&amp;R65&amp;R66&amp;"],"</f>
+        <v>"AccoladesSeven":["","","","GM","","","","Champion T2","Finals MVP T2","","","","","","All-Defence Team T2","",""],</v>
       </c>
       <c r="C41" s="17"/>
       <c r="D41" s="17"/>
@@ -9289,8 +9346,8 @@
     </row>
     <row r="42" spans="2:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B42" s="17" t="str">
-        <f>T48&amp;":["&amp;T49&amp;T50&amp;T51&amp;T52&amp;T53&amp;T54&amp;T55&amp;T56&amp;T57&amp;T58&amp;T59&amp;T60&amp;T61&amp;T62&amp;T63&amp;T64&amp;"],"</f>
-        <v>"History":["Drafted by Loose Gooses","Drafted by Loose Gooses","Retained by 5 Musketeers","GM of Wet Willies","Retained by Wet Willies","Drafted by Wet Willies","Drafted by 5 Musketeers","Out due to injury. Signed by Wet Willies","Retained by Loose Gooses","GM of 5 Musketeers","Drafted by Wet Willies","Drafted by 5 Musketeers","Drafted by Loose Gooses","GM of Loose Gooses","Drafted by Wet Willies","Drafted by 5 Musketeers"],</v>
+        <f>S49&amp;":["&amp;S50&amp;S51&amp;S52&amp;S53&amp;S54&amp;S55&amp;S56&amp;S57&amp;S58&amp;S59&amp;S60&amp;S61&amp;S62&amp;S63&amp;S64&amp;S65&amp;S66&amp;"],"</f>
+        <v>"AccoladesEight":["","","","","","","","","","","","","","","Champion T2","",""],</v>
       </c>
       <c r="C42" s="17"/>
       <c r="D42" s="17"/>
@@ -9315,8 +9372,8 @@
     </row>
     <row r="43" spans="2:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B43" s="17" t="str">
-        <f>U48&amp;":["&amp;U49&amp;U50&amp;U51&amp;U52&amp;U53&amp;U54&amp;U55&amp;U56&amp;U57&amp;U58&amp;U59&amp;U60&amp;U61&amp;U62&amp;U63&amp;U64&amp;"],"</f>
-        <v>"TeamImage":["../Images/LG_Final.png","../Images/LG_Final.png","../Images/5M_Final.png","../Images/WW_Final.png","../Images/WW_Final.png","../Images/WW_Final.png","../Images/5M_Final.png","../Images/WW_Final.png","../Images/LG_Final.png","../Images/5M_Final.png","../Images/WW_Final.png","../Images/5M_Final.png","../Images/LG_Final.png","../Images/LG_Final.png","../Images/WW_Final.png","../Images/5M_Final.png"],</v>
+        <f>T49&amp;":["&amp;T50&amp;T51&amp;T52&amp;T53&amp;T54&amp;T55&amp;T56&amp;T57&amp;T58&amp;T59&amp;T60&amp;T61&amp;T62&amp;T63&amp;T64&amp;T65&amp;T66&amp;"],"</f>
+        <v>"History":["Drafted by Loose Gooses","Drafted by Loose Gooses","Retained by 5 Musketeers","GM of Wet Willies","Retained by Wet Willies","Drafted by Wet Willies","Drafted by 5 Musketeers","Out due to injury. Signed by Wet Willies","Retained by Loose Gooses","GM of 5 Musketeers","Drafted by Wet Willies","Drafted by Wet Willies","Drafted by 5 Musketeers","Drafted by Loose Gooses","GM of Loose Gooses","Drafted by Wet Willies","Drafted by 5 Musketeers"],</v>
       </c>
       <c r="C43" s="17"/>
       <c r="D43" s="17"/>
@@ -9341,8 +9398,8 @@
     </row>
     <row r="44" spans="2:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B44" s="17" t="str">
-        <f>V48&amp;":["&amp;V49&amp;V50&amp;V51&amp;V52&amp;V53&amp;V54&amp;V55&amp;V56&amp;V57&amp;V58&amp;V59&amp;V60&amp;V61&amp;V62&amp;V63&amp;V64&amp;"],"</f>
-        <v>"PlayerImage":["../Images/Players/Jasper.png","../Images/Players/Conor.png","../Images/Players/Alex.png","../Images/Players/Rudy.png","../Images/Players/Michael.png","../Images/Players/Lukas.png","../Images/Players/Sam J.png","../Images/Players/Clarrie.png","../Images/Players/Kimmy.png","../Images/Players/SamM.png","../Images/Players/Ryan.png","../Images/Players/Nick.png","../Images/Players/Chris.png","../Images/Players/Angus.png","../Images/Players/Willie.png","../Images/Players/Mitch.png"],</v>
+        <f>U49&amp;":["&amp;U50&amp;U51&amp;U52&amp;U53&amp;U54&amp;U55&amp;U56&amp;U57&amp;U58&amp;U59&amp;U60&amp;U61&amp;U62&amp;U63&amp;U64&amp;U65&amp;U66&amp;"],"</f>
+        <v>"TeamImage":["../Images/LG_Final.png","../Images/LG_Final.png","../Images/5M_Final.png","../Images/WW_Final.png","../Images/WW_Final.png","../Images/WW_Final.png","../Images/5M_Final.png","../Images/WW_Final.png","../Images/LG_Final.png","../Images/5M_Final.png","../Images/WW_Final.png","../Images/WW_Final.png","../Images/5M_Final.png","../Images/LG_Final.png","../Images/LG_Final.png","../Images/WW_Final.png","../Images/5M_Final.png"],</v>
       </c>
       <c r="C44" s="17"/>
       <c r="D44" s="17"/>
@@ -9366,7 +9423,12 @@
       <c r="W44" s="17"/>
     </row>
     <row r="45" spans="2:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="17"/>
+      <c r="B45" s="17" t="str">
+        <f>V49&amp;":["&amp;V50&amp;V51&amp;V52&amp;V53&amp;V54&amp;V55&amp;V56&amp;V57&amp;V58&amp;V59&amp;V60&amp;V61&amp;V62&amp;V63&amp;V64&amp;V65&amp;V66&amp;"],"</f>
+        <v>"PlayerImage":["../Images/Players/Jasper.png","../Images/Players/Conor.png","../Images/Players/Alex.png","../Images/Players/Rudy.png","../Images/Players/Michael.png","../Images/Players/Lukas.png","../Images/Players/Sam J.png","../Images/Players/Clarrie.png","../Images/Players/Kimmy.png","../Images/Players/SamM.png","../Images/Players/Ryan.png","../Images/Players/Will.png","../Images/Players/Nick.png","../Images/Players/Chris.png","../Images/Players/Angus.png","../Images/Players/Willie.png","../Images/Players/Mitch.png"],</v>
+      </c>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
       <c r="F45" s="17"/>
       <c r="G45" s="17"/>
       <c r="H45" s="17"/>
@@ -9409,9 +9471,6 @@
     </row>
     <row r="47" spans="2:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B47" s="17"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
       <c r="F47" s="17"/>
       <c r="G47" s="17"/>
       <c r="H47" s="17"/>
@@ -9432,1485 +9491,1592 @@
       <c r="W47" s="17"/>
     </row>
     <row r="48" spans="2:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="18" t="str">
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="17"/>
+      <c r="J48" s="17"/>
+      <c r="K48" s="17"/>
+      <c r="L48" s="17"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="17"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="17"/>
+      <c r="Q48" s="17"/>
+      <c r="R48" s="17"/>
+      <c r="S48" s="17"/>
+      <c r="T48" s="17"/>
+      <c r="U48" s="17"/>
+      <c r="V48" s="17"/>
+      <c r="W48" s="17"/>
+    </row>
+    <row r="49" spans="2:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B49" s="18" t="str">
         <f>CHAR(34)&amp;B2&amp;CHAR(34)</f>
         <v>"Name"</v>
       </c>
-      <c r="C48" s="18" t="str">
+      <c r="C49" s="18" t="str">
         <f>CHAR(34)&amp;C2&amp;CHAR(34)</f>
         <v>"Team"</v>
       </c>
-      <c r="D48" s="18" t="str">
+      <c r="D49" s="18" t="str">
         <f>CHAR(34)&amp;"PPG"&amp;CHAR(34)</f>
         <v>"PPG"</v>
       </c>
-      <c r="E48" s="18" t="str">
+      <c r="E49" s="18" t="str">
         <f>CHAR(34)&amp;"TP"&amp;CHAR(34)</f>
         <v>"TP"</v>
       </c>
-      <c r="F48" s="18" t="str">
+      <c r="F49" s="18" t="str">
         <f>CHAR(34)&amp;"FPG"&amp;CHAR(34)</f>
         <v>"FPG"</v>
       </c>
-      <c r="G48" s="18" t="str">
+      <c r="G49" s="18" t="str">
         <f>CHAR(34)&amp;"TF"&amp;CHAR(34)</f>
         <v>"TF"</v>
       </c>
-      <c r="H48" s="18" t="str">
+      <c r="H49" s="18" t="str">
         <f>CHAR(34)&amp;"MPG"&amp;CHAR(34)</f>
         <v>"MPG"</v>
       </c>
-      <c r="I48" s="18" t="str">
+      <c r="I49" s="18" t="str">
         <f>CHAR(34)&amp;"TM"&amp;CHAR(34)</f>
         <v>"TM"</v>
       </c>
-      <c r="J48" s="18" t="str">
+      <c r="J49" s="18" t="str">
         <f>CHAR(34)&amp;"TPG"&amp;CHAR(34)</f>
         <v>"TPG"</v>
       </c>
-      <c r="K48" s="18" t="str">
+      <c r="K49" s="18" t="str">
         <f>CHAR(34)&amp;"TT"&amp;CHAR(34)</f>
         <v>"TT"</v>
       </c>
-      <c r="L48" s="18" t="str">
-        <f t="shared" ref="L48:V48" si="2">CHAR(34)&amp;L2&amp;CHAR(34)</f>
+      <c r="L49" s="18" t="str">
+        <f>CHAR(34)&amp;L2&amp;CHAR(34)</f>
         <v>"AccoladesOne"</v>
       </c>
-      <c r="M48" s="18" t="str">
-        <f t="shared" si="2"/>
+      <c r="M49" s="18" t="str">
+        <f>CHAR(34)&amp;M2&amp;CHAR(34)</f>
         <v>"AccoladesTwo"</v>
       </c>
-      <c r="N48" s="18" t="str">
-        <f t="shared" si="2"/>
+      <c r="N49" s="18" t="str">
+        <f>CHAR(34)&amp;N2&amp;CHAR(34)</f>
         <v>"AccoladesThree"</v>
       </c>
-      <c r="O48" s="18" t="str">
-        <f t="shared" si="2"/>
+      <c r="O49" s="18" t="str">
+        <f>CHAR(34)&amp;O2&amp;CHAR(34)</f>
         <v>"AccoladesFour"</v>
       </c>
-      <c r="P48" s="18" t="str">
-        <f t="shared" si="2"/>
+      <c r="P49" s="18" t="str">
+        <f>CHAR(34)&amp;P2&amp;CHAR(34)</f>
         <v>"AccoladesFive"</v>
       </c>
-      <c r="Q48" s="18" t="str">
-        <f t="shared" si="2"/>
+      <c r="Q49" s="18" t="str">
+        <f>CHAR(34)&amp;Q2&amp;CHAR(34)</f>
         <v>"AccoladesSix"</v>
       </c>
-      <c r="R48" s="18" t="str">
-        <f t="shared" si="2"/>
+      <c r="R49" s="18" t="str">
+        <f>CHAR(34)&amp;R2&amp;CHAR(34)</f>
         <v>"AccoladesSeven"</v>
       </c>
-      <c r="S48" s="18" t="str">
-        <f t="shared" si="2"/>
+      <c r="S49" s="18" t="str">
+        <f>CHAR(34)&amp;S2&amp;CHAR(34)</f>
         <v>"AccoladesEight"</v>
       </c>
-      <c r="T48" s="18" t="str">
-        <f t="shared" si="2"/>
+      <c r="T49" s="18" t="str">
+        <f>CHAR(34)&amp;T2&amp;CHAR(34)</f>
         <v>"History"</v>
       </c>
-      <c r="U48" s="18" t="str">
-        <f t="shared" si="2"/>
+      <c r="U49" s="18" t="str">
+        <f>CHAR(34)&amp;U2&amp;CHAR(34)</f>
         <v>"TeamImage"</v>
       </c>
-      <c r="V48" s="18" t="str">
-        <f t="shared" si="2"/>
+      <c r="V49" s="18" t="str">
+        <f>CHAR(34)&amp;V2&amp;CHAR(34)</f>
         <v>"PlayerImage"</v>
       </c>
-      <c r="W48" s="17"/>
-    </row>
-    <row r="49" spans="2:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="18" t="str">
-        <f t="shared" ref="B49:C63" si="3">CHAR(34)&amp;B3&amp;CHAR(34)&amp;","</f>
+      <c r="W49" s="17"/>
+    </row>
+    <row r="50" spans="2:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B50" s="18" t="str">
+        <f>CHAR(34)&amp;B3&amp;CHAR(34)&amp;","</f>
         <v>"Jasper Collier",</v>
       </c>
-      <c r="C49" s="18" t="str">
-        <f t="shared" si="3"/>
+      <c r="C50" s="18" t="str">
+        <f>CHAR(34)&amp;C3&amp;CHAR(34)&amp;","</f>
         <v>"Loose Gooses",</v>
       </c>
-      <c r="D49" s="18" t="str">
-        <f t="shared" ref="D49:D63" si="4">ROUND(D3,2)&amp;","</f>
+      <c r="D50" s="18" t="str">
+        <f>ROUND(D3,2)&amp;","</f>
         <v>0,</v>
       </c>
-      <c r="E49" s="18" t="str">
-        <f t="shared" ref="E49:E63" si="5">E3&amp;","</f>
+      <c r="E50" s="18" t="str">
+        <f>E3&amp;","</f>
         <v>0,</v>
       </c>
-      <c r="F49" s="18" t="str">
-        <f t="shared" ref="F49:F63" si="6">ROUND(F3,2)&amp;","</f>
+      <c r="F50" s="18" t="str">
+        <f>ROUND(F3,2)&amp;","</f>
         <v>0,</v>
       </c>
-      <c r="G49" s="18" t="str">
-        <f t="shared" ref="G49:G63" si="7">G3&amp;","</f>
+      <c r="G50" s="18" t="str">
+        <f>G3&amp;","</f>
         <v>0,</v>
       </c>
-      <c r="H49" s="18" t="str">
-        <f t="shared" ref="H49:H63" si="8">ROUND(H3,2)&amp;","</f>
+      <c r="H50" s="18" t="str">
+        <f>ROUND(H3,2)&amp;","</f>
         <v>0,</v>
       </c>
-      <c r="I49" s="18" t="str">
-        <f t="shared" ref="I49:I63" si="9">I3&amp;","</f>
+      <c r="I50" s="18" t="str">
+        <f>I3&amp;","</f>
         <v>0,</v>
       </c>
-      <c r="J49" s="18" t="str">
-        <f t="shared" ref="J49:J63" si="10">ROUND(J3,2)&amp;","</f>
+      <c r="J50" s="18" t="str">
+        <f>ROUND(J3,2)&amp;","</f>
         <v>0,</v>
       </c>
-      <c r="K49" s="18" t="str">
-        <f t="shared" ref="K49:K63" si="11">K3&amp;","</f>
+      <c r="K50" s="18" t="str">
+        <f>K3&amp;","</f>
         <v>0,</v>
       </c>
-      <c r="L49" s="18" t="str">
+      <c r="L50" s="18" t="str">
         <f>CHAR(34)&amp;L3&amp;CHAR(34)&amp;","</f>
         <v>"",</v>
       </c>
-      <c r="M49" s="18" t="str">
-        <f t="shared" ref="M49:S49" si="12">CHAR(34)&amp;M3&amp;CHAR(34)&amp;","</f>
+      <c r="M50" s="18" t="str">
+        <f>CHAR(34)&amp;M3&amp;CHAR(34)&amp;","</f>
         <v>"",</v>
       </c>
-      <c r="N49" s="18" t="str">
-        <f t="shared" si="12"/>
+      <c r="N50" s="18" t="str">
+        <f>CHAR(34)&amp;N3&amp;CHAR(34)&amp;","</f>
         <v>"",</v>
       </c>
-      <c r="O49" s="18" t="str">
-        <f t="shared" si="12"/>
+      <c r="O50" s="18" t="str">
+        <f>CHAR(34)&amp;O3&amp;CHAR(34)&amp;","</f>
         <v>"",</v>
       </c>
-      <c r="P49" s="18" t="str">
-        <f t="shared" si="12"/>
+      <c r="P50" s="18" t="str">
+        <f>CHAR(34)&amp;P3&amp;CHAR(34)&amp;","</f>
         <v>"",</v>
       </c>
-      <c r="Q49" s="18" t="str">
-        <f t="shared" si="12"/>
+      <c r="Q50" s="18" t="str">
+        <f>CHAR(34)&amp;Q3&amp;CHAR(34)&amp;","</f>
         <v>"",</v>
       </c>
-      <c r="R49" s="18" t="str">
-        <f t="shared" si="12"/>
+      <c r="R50" s="18" t="str">
+        <f>CHAR(34)&amp;R3&amp;CHAR(34)&amp;","</f>
         <v>"",</v>
       </c>
-      <c r="S49" s="18" t="str">
-        <f t="shared" si="12"/>
+      <c r="S50" s="18" t="str">
+        <f>CHAR(34)&amp;S3&amp;CHAR(34)&amp;","</f>
         <v>"",</v>
       </c>
-      <c r="T49" s="18" t="str">
-        <f t="shared" ref="T49:V49" si="13">CHAR(34)&amp;T3&amp;CHAR(34)&amp;","</f>
+      <c r="T50" s="18" t="str">
+        <f>CHAR(34)&amp;T3&amp;CHAR(34)&amp;","</f>
         <v>"Drafted by Loose Gooses",</v>
       </c>
-      <c r="U49" s="18" t="str">
-        <f t="shared" si="13"/>
+      <c r="U50" s="18" t="str">
+        <f>CHAR(34)&amp;U3&amp;CHAR(34)&amp;","</f>
         <v>"../Images/LG_Final.png",</v>
       </c>
-      <c r="V49" s="18" t="str">
-        <f t="shared" si="13"/>
+      <c r="V50" s="18" t="str">
+        <f>CHAR(34)&amp;V3&amp;CHAR(34)&amp;","</f>
         <v>"../Images/Players/Jasper.png",</v>
-      </c>
-      <c r="W49" s="17"/>
-    </row>
-    <row r="50" spans="2:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B50" s="18" t="str">
-        <f t="shared" si="3"/>
-        <v>"Conor Farrington",</v>
-      </c>
-      <c r="C50" s="18" t="str">
-        <f t="shared" si="3"/>
-        <v>"Loose Gooses",</v>
-      </c>
-      <c r="D50" s="18" t="str">
-        <f t="shared" si="4"/>
-        <v>1,</v>
-      </c>
-      <c r="E50" s="18" t="str">
-        <f t="shared" si="5"/>
-        <v>2,</v>
-      </c>
-      <c r="F50" s="18" t="str">
-        <f t="shared" si="6"/>
-        <v>0.5,</v>
-      </c>
-      <c r="G50" s="18" t="str">
-        <f t="shared" si="7"/>
-        <v>1,</v>
-      </c>
-      <c r="H50" s="18" t="str">
-        <f t="shared" si="8"/>
-        <v>0.5,</v>
-      </c>
-      <c r="I50" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v>1,</v>
-      </c>
-      <c r="J50" s="18" t="str">
-        <f t="shared" si="10"/>
-        <v>0,</v>
-      </c>
-      <c r="K50" s="18" t="str">
-        <f t="shared" si="11"/>
-        <v>0,</v>
-      </c>
-      <c r="L50" s="18" t="str">
-        <f t="shared" ref="L50:S63" si="14">CHAR(34)&amp;L4&amp;CHAR(34)&amp;","</f>
-        <v>"",</v>
-      </c>
-      <c r="M50" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v>"",</v>
-      </c>
-      <c r="N50" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v>"",</v>
-      </c>
-      <c r="O50" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v>"",</v>
-      </c>
-      <c r="P50" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v>"",</v>
-      </c>
-      <c r="Q50" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v>"",</v>
-      </c>
-      <c r="R50" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v>"",</v>
-      </c>
-      <c r="S50" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v>"",</v>
-      </c>
-      <c r="T50" s="18" t="str">
-        <f t="shared" ref="T50:V50" si="15">CHAR(34)&amp;T4&amp;CHAR(34)&amp;","</f>
-        <v>"Drafted by Loose Gooses",</v>
-      </c>
-      <c r="U50" s="18" t="str">
-        <f t="shared" si="15"/>
-        <v>"../Images/LG_Final.png",</v>
-      </c>
-      <c r="V50" s="18" t="str">
-        <f t="shared" si="15"/>
-        <v>"../Images/Players/Conor.png",</v>
       </c>
     </row>
     <row r="51" spans="2:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B51" s="18" t="str">
-        <f t="shared" si="3"/>
-        <v>"Alexander Galt",</v>
+        <f>CHAR(34)&amp;B4&amp;CHAR(34)&amp;","</f>
+        <v>"Conor Farrington",</v>
       </c>
       <c r="C51" s="18" t="str">
-        <f t="shared" si="3"/>
-        <v>"5 Musketeers",</v>
+        <f>CHAR(34)&amp;C4&amp;CHAR(34)&amp;","</f>
+        <v>"Loose Gooses",</v>
       </c>
       <c r="D51" s="18" t="str">
-        <f t="shared" si="4"/>
-        <v>2.5,</v>
+        <f>ROUND(D4,2)&amp;","</f>
+        <v>1,</v>
       </c>
       <c r="E51" s="18" t="str">
-        <f t="shared" si="5"/>
-        <v>5,</v>
+        <f>E4&amp;","</f>
+        <v>2,</v>
       </c>
       <c r="F51" s="18" t="str">
-        <f t="shared" si="6"/>
-        <v>1.5,</v>
+        <f>ROUND(F4,2)&amp;","</f>
+        <v>0.5,</v>
       </c>
       <c r="G51" s="18" t="str">
-        <f t="shared" si="7"/>
-        <v>3,</v>
+        <f>G4&amp;","</f>
+        <v>1,</v>
       </c>
       <c r="H51" s="18" t="str">
-        <f t="shared" si="8"/>
+        <f>ROUND(H4,2)&amp;","</f>
+        <v>0.5,</v>
+      </c>
+      <c r="I51" s="18" t="str">
+        <f>I4&amp;","</f>
+        <v>1,</v>
+      </c>
+      <c r="J51" s="18" t="str">
+        <f>ROUND(J4,2)&amp;","</f>
         <v>0,</v>
       </c>
-      <c r="I51" s="18" t="str">
-        <f t="shared" si="9"/>
+      <c r="K51" s="18" t="str">
+        <f>K4&amp;","</f>
         <v>0,</v>
       </c>
-      <c r="J51" s="18" t="str">
-        <f t="shared" si="10"/>
-        <v>0.5,</v>
-      </c>
-      <c r="K51" s="18" t="str">
-        <f t="shared" si="11"/>
-        <v>1,</v>
-      </c>
       <c r="L51" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v>"All-Defence Team T1",</v>
+        <f>CHAR(34)&amp;L4&amp;CHAR(34)&amp;","</f>
+        <v>"",</v>
       </c>
       <c r="M51" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v>"Champion T1",</v>
+        <f>CHAR(34)&amp;M4&amp;CHAR(34)&amp;","</f>
+        <v>"",</v>
       </c>
       <c r="N51" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v>"All-Offence Team T2",</v>
+        <f>CHAR(34)&amp;N4&amp;CHAR(34)&amp;","</f>
+        <v>"",</v>
       </c>
       <c r="O51" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v>"All-Defence Team T2",</v>
+        <f>CHAR(34)&amp;O4&amp;CHAR(34)&amp;","</f>
+        <v>"",</v>
       </c>
       <c r="P51" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f>CHAR(34)&amp;P4&amp;CHAR(34)&amp;","</f>
         <v>"",</v>
       </c>
       <c r="Q51" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f>CHAR(34)&amp;Q4&amp;CHAR(34)&amp;","</f>
         <v>"",</v>
       </c>
       <c r="R51" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f>CHAR(34)&amp;R4&amp;CHAR(34)&amp;","</f>
         <v>"",</v>
       </c>
       <c r="S51" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f>CHAR(34)&amp;S4&amp;CHAR(34)&amp;","</f>
         <v>"",</v>
       </c>
       <c r="T51" s="18" t="str">
-        <f t="shared" ref="T51:V51" si="16">CHAR(34)&amp;T5&amp;CHAR(34)&amp;","</f>
-        <v>"Retained by 5 Musketeers",</v>
+        <f>CHAR(34)&amp;T4&amp;CHAR(34)&amp;","</f>
+        <v>"Drafted by Loose Gooses",</v>
       </c>
       <c r="U51" s="18" t="str">
-        <f t="shared" si="16"/>
-        <v>"../Images/5M_Final.png",</v>
+        <f>CHAR(34)&amp;U4&amp;CHAR(34)&amp;","</f>
+        <v>"../Images/LG_Final.png",</v>
       </c>
       <c r="V51" s="18" t="str">
-        <f t="shared" si="16"/>
-        <v>"../Images/Players/Alex.png",</v>
+        <f>CHAR(34)&amp;V4&amp;CHAR(34)&amp;","</f>
+        <v>"../Images/Players/Conor.png",</v>
       </c>
     </row>
     <row r="52" spans="2:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B52" s="18" t="str">
-        <f t="shared" si="3"/>
-        <v>"Rudy Hoschke",</v>
+        <f>CHAR(34)&amp;B5&amp;CHAR(34)&amp;","</f>
+        <v>"Alexander Galt",</v>
       </c>
       <c r="C52" s="18" t="str">
-        <f t="shared" si="3"/>
-        <v>"Wet Willies",</v>
+        <f>CHAR(34)&amp;C5&amp;CHAR(34)&amp;","</f>
+        <v>"5 Musketeers",</v>
       </c>
       <c r="D52" s="18" t="str">
-        <f t="shared" si="4"/>
+        <f>ROUND(D5,2)&amp;","</f>
+        <v>6,</v>
+      </c>
+      <c r="E52" s="18" t="str">
+        <f>E5&amp;","</f>
+        <v>12,</v>
+      </c>
+      <c r="F52" s="18" t="str">
+        <f>ROUND(F5,2)&amp;","</f>
+        <v>5,</v>
+      </c>
+      <c r="G52" s="18" t="str">
+        <f>G5&amp;","</f>
+        <v>10,</v>
+      </c>
+      <c r="H52" s="18" t="str">
+        <f>ROUND(H5,2)&amp;","</f>
         <v>0,</v>
       </c>
-      <c r="E52" s="18" t="str">
-        <f t="shared" si="5"/>
+      <c r="I52" s="18" t="str">
+        <f>I5&amp;","</f>
         <v>0,</v>
       </c>
-      <c r="F52" s="18" t="str">
-        <f t="shared" si="6"/>
-        <v>0,</v>
-      </c>
-      <c r="G52" s="18" t="str">
-        <f t="shared" si="7"/>
-        <v>0,</v>
-      </c>
-      <c r="H52" s="18" t="str">
-        <f t="shared" si="8"/>
-        <v>0,</v>
-      </c>
-      <c r="I52" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
       <c r="J52" s="18" t="str">
-        <f t="shared" si="10"/>
-        <v>0,</v>
+        <f>ROUND(J5,2)&amp;","</f>
+        <v>0.5,</v>
       </c>
       <c r="K52" s="18" t="str">
-        <f t="shared" si="11"/>
-        <v>0,</v>
+        <f>K5&amp;","</f>
+        <v>1,</v>
       </c>
       <c r="L52" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v>"All-Offence Team T1",</v>
+        <f>CHAR(34)&amp;L5&amp;CHAR(34)&amp;","</f>
+        <v>"All-Defence Team T1",</v>
       </c>
       <c r="M52" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v>"All-Defence Team T1",</v>
+        <f>CHAR(34)&amp;M5&amp;CHAR(34)&amp;","</f>
+        <v>"Champion T1",</v>
       </c>
       <c r="N52" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v>"Champion T1",</v>
+        <f>CHAR(34)&amp;N5&amp;CHAR(34)&amp;","</f>
+        <v>"All-Offence Team T2",</v>
       </c>
       <c r="O52" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v>"All-Offence Team T2",</v>
+        <f>CHAR(34)&amp;O5&amp;CHAR(34)&amp;","</f>
+        <v>"All-Defence Team T2",</v>
       </c>
       <c r="P52" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v>"All-Defence Team T2",</v>
+        <f>CHAR(34)&amp;P5&amp;CHAR(34)&amp;","</f>
+        <v>"",</v>
       </c>
       <c r="Q52" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v>"Scoring Champ T2",</v>
+        <f>CHAR(34)&amp;Q5&amp;CHAR(34)&amp;","</f>
+        <v>"",</v>
       </c>
       <c r="R52" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v>"GM",</v>
+        <f>CHAR(34)&amp;R5&amp;CHAR(34)&amp;","</f>
+        <v>"",</v>
       </c>
       <c r="S52" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f>CHAR(34)&amp;S5&amp;CHAR(34)&amp;","</f>
         <v>"",</v>
       </c>
       <c r="T52" s="18" t="str">
-        <f t="shared" ref="T52:V52" si="17">CHAR(34)&amp;T6&amp;CHAR(34)&amp;","</f>
-        <v>"GM of Wet Willies",</v>
+        <f>CHAR(34)&amp;T5&amp;CHAR(34)&amp;","</f>
+        <v>"Retained by 5 Musketeers",</v>
       </c>
       <c r="U52" s="18" t="str">
-        <f t="shared" si="17"/>
-        <v>"../Images/WW_Final.png",</v>
+        <f>CHAR(34)&amp;U5&amp;CHAR(34)&amp;","</f>
+        <v>"../Images/5M_Final.png",</v>
       </c>
       <c r="V52" s="18" t="str">
-        <f t="shared" si="17"/>
-        <v>"../Images/Players/Rudy.png",</v>
+        <f>CHAR(34)&amp;V5&amp;CHAR(34)&amp;","</f>
+        <v>"../Images/Players/Alex.png",</v>
       </c>
     </row>
     <row r="53" spans="2:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B53" s="18" t="str">
-        <f t="shared" si="3"/>
-        <v>"Michael Iffland",</v>
+        <f>CHAR(34)&amp;B6&amp;CHAR(34)&amp;","</f>
+        <v>"Rudy Hoschke",</v>
       </c>
       <c r="C53" s="18" t="str">
-        <f t="shared" si="3"/>
+        <f>CHAR(34)&amp;C6&amp;CHAR(34)&amp;","</f>
         <v>"Wet Willies",</v>
       </c>
       <c r="D53" s="18" t="str">
-        <f t="shared" si="4"/>
+        <f>ROUND(D6,2)&amp;","</f>
         <v>0,</v>
       </c>
       <c r="E53" s="18" t="str">
-        <f t="shared" si="5"/>
+        <f>E6&amp;","</f>
         <v>0,</v>
       </c>
       <c r="F53" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f>ROUND(F6,2)&amp;","</f>
         <v>0,</v>
       </c>
       <c r="G53" s="18" t="str">
-        <f t="shared" si="7"/>
+        <f>G6&amp;","</f>
         <v>0,</v>
       </c>
       <c r="H53" s="18" t="str">
-        <f t="shared" si="8"/>
+        <f>ROUND(H6,2)&amp;","</f>
         <v>0,</v>
       </c>
       <c r="I53" s="18" t="str">
-        <f t="shared" si="9"/>
+        <f>I6&amp;","</f>
         <v>0,</v>
       </c>
       <c r="J53" s="18" t="str">
-        <f t="shared" si="10"/>
+        <f>ROUND(J6,2)&amp;","</f>
         <v>0,</v>
       </c>
       <c r="K53" s="18" t="str">
-        <f t="shared" si="11"/>
+        <f>K6&amp;","</f>
         <v>0,</v>
       </c>
       <c r="L53" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v>"Playmaker T1",</v>
+        <f>CHAR(34)&amp;L6&amp;CHAR(34)&amp;","</f>
+        <v>"All-Offence Team T1",</v>
       </c>
       <c r="M53" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v>"Thirdman T1",</v>
+        <f>CHAR(34)&amp;M6&amp;CHAR(34)&amp;","</f>
+        <v>"All-Defence Team T1",</v>
       </c>
       <c r="N53" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f>CHAR(34)&amp;N6&amp;CHAR(34)&amp;","</f>
+        <v>"Champion T1",</v>
+      </c>
+      <c r="O53" s="18" t="str">
+        <f>CHAR(34)&amp;O6&amp;CHAR(34)&amp;","</f>
         <v>"All-Offence Team T2",</v>
       </c>
-      <c r="O53" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v>"All-2nd-Defence Team T2",</v>
-      </c>
       <c r="P53" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f>CHAR(34)&amp;P6&amp;CHAR(34)&amp;","</f>
+        <v>"All-Defence Team T2",</v>
+      </c>
+      <c r="Q53" s="18" t="str">
+        <f>CHAR(34)&amp;Q6&amp;CHAR(34)&amp;","</f>
+        <v>"Scoring Champ T2",</v>
+      </c>
+      <c r="R53" s="18" t="str">
+        <f>CHAR(34)&amp;R6&amp;CHAR(34)&amp;","</f>
+        <v>"GM",</v>
+      </c>
+      <c r="S53" s="18" t="str">
+        <f>CHAR(34)&amp;S6&amp;CHAR(34)&amp;","</f>
         <v>"",</v>
       </c>
-      <c r="Q53" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v>"",</v>
-      </c>
-      <c r="R53" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v>"",</v>
-      </c>
-      <c r="S53" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v>"",</v>
-      </c>
       <c r="T53" s="18" t="str">
-        <f t="shared" ref="T53:V53" si="18">CHAR(34)&amp;T7&amp;CHAR(34)&amp;","</f>
-        <v>"Retained by Wet Willies",</v>
+        <f>CHAR(34)&amp;T6&amp;CHAR(34)&amp;","</f>
+        <v>"GM of Wet Willies",</v>
       </c>
       <c r="U53" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f>CHAR(34)&amp;U6&amp;CHAR(34)&amp;","</f>
         <v>"../Images/WW_Final.png",</v>
       </c>
       <c r="V53" s="18" t="str">
-        <f t="shared" si="18"/>
-        <v>"../Images/Players/Michael.png",</v>
+        <f>CHAR(34)&amp;V6&amp;CHAR(34)&amp;","</f>
+        <v>"../Images/Players/Rudy.png",</v>
       </c>
     </row>
     <row r="54" spans="2:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B54" s="18" t="str">
-        <f t="shared" si="3"/>
-        <v>"Lukas Johnston",</v>
+        <f>CHAR(34)&amp;B7&amp;CHAR(34)&amp;","</f>
+        <v>"Michael Iffland",</v>
       </c>
       <c r="C54" s="18" t="str">
-        <f t="shared" si="3"/>
+        <f>CHAR(34)&amp;C7&amp;CHAR(34)&amp;","</f>
         <v>"Wet Willies",</v>
       </c>
       <c r="D54" s="18" t="str">
-        <f t="shared" si="4"/>
+        <f>ROUND(D7,2)&amp;","</f>
         <v>0,</v>
       </c>
       <c r="E54" s="18" t="str">
-        <f t="shared" si="5"/>
+        <f>E7&amp;","</f>
         <v>0,</v>
       </c>
       <c r="F54" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f>ROUND(F7,2)&amp;","</f>
         <v>0,</v>
       </c>
       <c r="G54" s="18" t="str">
-        <f t="shared" si="7"/>
+        <f>G7&amp;","</f>
         <v>0,</v>
       </c>
       <c r="H54" s="18" t="str">
-        <f t="shared" si="8"/>
+        <f>ROUND(H7,2)&amp;","</f>
         <v>0,</v>
       </c>
       <c r="I54" s="18" t="str">
-        <f t="shared" si="9"/>
+        <f>I7&amp;","</f>
         <v>0,</v>
       </c>
       <c r="J54" s="18" t="str">
-        <f t="shared" si="10"/>
+        <f>ROUND(J7,2)&amp;","</f>
         <v>0,</v>
       </c>
       <c r="K54" s="18" t="str">
-        <f t="shared" si="11"/>
+        <f>K7&amp;","</f>
         <v>0,</v>
       </c>
       <c r="L54" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v>"MVP Runner Up T1",</v>
+        <f>CHAR(34)&amp;L7&amp;CHAR(34)&amp;","</f>
+        <v>"Playmaker T1",</v>
       </c>
       <c r="M54" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v>"All-Offence Team T1",</v>
+        <f>CHAR(34)&amp;M7&amp;CHAR(34)&amp;","</f>
+        <v>"Thirdman T1",</v>
       </c>
       <c r="N54" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v>"All-2nd-Offence Team T2",</v>
+        <f>CHAR(34)&amp;N7&amp;CHAR(34)&amp;","</f>
+        <v>"All-Offence Team T2",</v>
       </c>
       <c r="O54" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f>CHAR(34)&amp;O7&amp;CHAR(34)&amp;","</f>
+        <v>"All-2nd-Defence Team T2",</v>
+      </c>
+      <c r="P54" s="18" t="str">
+        <f>CHAR(34)&amp;P7&amp;CHAR(34)&amp;","</f>
         <v>"",</v>
       </c>
-      <c r="P54" s="18" t="str">
-        <f t="shared" si="14"/>
+      <c r="Q54" s="18" t="str">
+        <f>CHAR(34)&amp;Q7&amp;CHAR(34)&amp;","</f>
         <v>"",</v>
       </c>
-      <c r="Q54" s="18" t="str">
-        <f t="shared" si="14"/>
+      <c r="R54" s="18" t="str">
+        <f>CHAR(34)&amp;R7&amp;CHAR(34)&amp;","</f>
         <v>"",</v>
       </c>
-      <c r="R54" s="18" t="str">
-        <f t="shared" si="14"/>
+      <c r="S54" s="18" t="str">
+        <f>CHAR(34)&amp;S7&amp;CHAR(34)&amp;","</f>
         <v>"",</v>
       </c>
-      <c r="S54" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v>"",</v>
-      </c>
       <c r="T54" s="18" t="str">
-        <f t="shared" ref="T54:V54" si="19">CHAR(34)&amp;T8&amp;CHAR(34)&amp;","</f>
-        <v>"Drafted by Wet Willies",</v>
+        <f>CHAR(34)&amp;T7&amp;CHAR(34)&amp;","</f>
+        <v>"Retained by Wet Willies",</v>
       </c>
       <c r="U54" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f>CHAR(34)&amp;U7&amp;CHAR(34)&amp;","</f>
         <v>"../Images/WW_Final.png",</v>
       </c>
       <c r="V54" s="18" t="str">
-        <f t="shared" si="19"/>
-        <v>"../Images/Players/Lukas.png",</v>
+        <f>CHAR(34)&amp;V7&amp;CHAR(34)&amp;","</f>
+        <v>"../Images/Players/Michael.png",</v>
       </c>
     </row>
     <row r="55" spans="2:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B55" s="18" t="str">
-        <f t="shared" si="3"/>
-        <v>"Sam James",</v>
+        <f>CHAR(34)&amp;B8&amp;CHAR(34)&amp;","</f>
+        <v>"Lukas Johnston",</v>
       </c>
       <c r="C55" s="18" t="str">
-        <f t="shared" si="3"/>
-        <v>"5 Musketeers",</v>
+        <f>CHAR(34)&amp;C8&amp;CHAR(34)&amp;","</f>
+        <v>"Wet Willies",</v>
       </c>
       <c r="D55" s="18" t="str">
-        <f t="shared" si="4"/>
+        <f>ROUND(D8,2)&amp;","</f>
+        <v>0.5,</v>
+      </c>
+      <c r="E55" s="18" t="str">
+        <f>E8&amp;","</f>
         <v>1,</v>
       </c>
-      <c r="E55" s="18" t="str">
-        <f t="shared" si="5"/>
-        <v>2,</v>
-      </c>
       <c r="F55" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f>ROUND(F8,2)&amp;","</f>
         <v>0.5,</v>
       </c>
       <c r="G55" s="18" t="str">
-        <f t="shared" si="7"/>
+        <f>G8&amp;","</f>
         <v>1,</v>
       </c>
       <c r="H55" s="18" t="str">
-        <f t="shared" si="8"/>
-        <v>0.5,</v>
+        <f>ROUND(H8,2)&amp;","</f>
+        <v>0,</v>
       </c>
       <c r="I55" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v>1,</v>
+        <f>I8&amp;","</f>
+        <v>0,</v>
       </c>
       <c r="J55" s="18" t="str">
-        <f t="shared" si="10"/>
+        <f>ROUND(J8,2)&amp;","</f>
         <v>0,</v>
       </c>
       <c r="K55" s="18" t="str">
-        <f t="shared" si="11"/>
+        <f>K8&amp;","</f>
         <v>0,</v>
       </c>
       <c r="L55" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v>"Champion T2",</v>
+        <f>CHAR(34)&amp;L8&amp;CHAR(34)&amp;","</f>
+        <v>"MVP Runner Up T1",</v>
       </c>
       <c r="M55" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f>CHAR(34)&amp;M8&amp;CHAR(34)&amp;","</f>
+        <v>"All-Offence Team T1",</v>
+      </c>
+      <c r="N55" s="18" t="str">
+        <f>CHAR(34)&amp;N8&amp;CHAR(34)&amp;","</f>
+        <v>"All-2nd-Offence Team T2",</v>
+      </c>
+      <c r="O55" s="18" t="str">
+        <f>CHAR(34)&amp;O8&amp;CHAR(34)&amp;","</f>
         <v>"",</v>
       </c>
-      <c r="N55" s="18" t="str">
-        <f t="shared" si="14"/>
+      <c r="P55" s="18" t="str">
+        <f>CHAR(34)&amp;P8&amp;CHAR(34)&amp;","</f>
         <v>"",</v>
       </c>
-      <c r="O55" s="18" t="str">
-        <f t="shared" si="14"/>
+      <c r="Q55" s="18" t="str">
+        <f>CHAR(34)&amp;Q8&amp;CHAR(34)&amp;","</f>
         <v>"",</v>
       </c>
-      <c r="P55" s="18" t="str">
-        <f t="shared" si="14"/>
+      <c r="R55" s="18" t="str">
+        <f>CHAR(34)&amp;R8&amp;CHAR(34)&amp;","</f>
         <v>"",</v>
       </c>
-      <c r="Q55" s="18" t="str">
-        <f t="shared" si="14"/>
+      <c r="S55" s="18" t="str">
+        <f>CHAR(34)&amp;S8&amp;CHAR(34)&amp;","</f>
         <v>"",</v>
       </c>
-      <c r="R55" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v>"",</v>
-      </c>
-      <c r="S55" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v>"",</v>
-      </c>
       <c r="T55" s="18" t="str">
-        <f t="shared" ref="T55:V55" si="20">CHAR(34)&amp;T9&amp;CHAR(34)&amp;","</f>
-        <v>"Drafted by 5 Musketeers",</v>
+        <f>CHAR(34)&amp;T8&amp;CHAR(34)&amp;","</f>
+        <v>"Drafted by Wet Willies",</v>
       </c>
       <c r="U55" s="18" t="str">
-        <f t="shared" si="20"/>
-        <v>"../Images/5M_Final.png",</v>
+        <f>CHAR(34)&amp;U8&amp;CHAR(34)&amp;","</f>
+        <v>"../Images/WW_Final.png",</v>
       </c>
       <c r="V55" s="18" t="str">
-        <f t="shared" si="20"/>
-        <v>"../Images/Players/Sam J.png",</v>
+        <f>CHAR(34)&amp;V8&amp;CHAR(34)&amp;","</f>
+        <v>"../Images/Players/Lukas.png",</v>
       </c>
     </row>
     <row r="56" spans="2:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B56" s="18" t="str">
-        <f t="shared" si="3"/>
-        <v>"Clarrie Jones",</v>
+        <f>CHAR(34)&amp;B9&amp;CHAR(34)&amp;","</f>
+        <v>"Sam James",</v>
       </c>
       <c r="C56" s="18" t="str">
-        <f t="shared" si="3"/>
-        <v>"Wet Willies",</v>
+        <f>CHAR(34)&amp;C9&amp;CHAR(34)&amp;","</f>
+        <v>"5 Musketeers",</v>
       </c>
       <c r="D56" s="18" t="str">
-        <f t="shared" si="4"/>
+        <f>ROUND(D9,2)&amp;","</f>
+        <v>1,</v>
+      </c>
+      <c r="E56" s="18" t="str">
+        <f>E9&amp;","</f>
+        <v>2,</v>
+      </c>
+      <c r="F56" s="18" t="str">
+        <f>ROUND(F9,2)&amp;","</f>
+        <v>0.5,</v>
+      </c>
+      <c r="G56" s="18" t="str">
+        <f>G9&amp;","</f>
+        <v>1,</v>
+      </c>
+      <c r="H56" s="18" t="str">
+        <f>ROUND(H9,2)&amp;","</f>
+        <v>0.5,</v>
+      </c>
+      <c r="I56" s="18" t="str">
+        <f>I9&amp;","</f>
+        <v>1,</v>
+      </c>
+      <c r="J56" s="18" t="str">
+        <f>ROUND(J9,2)&amp;","</f>
         <v>0,</v>
       </c>
-      <c r="E56" s="18" t="str">
-        <f t="shared" si="5"/>
+      <c r="K56" s="18" t="str">
+        <f>K9&amp;","</f>
         <v>0,</v>
       </c>
-      <c r="F56" s="18" t="str">
-        <f t="shared" si="6"/>
-        <v>0,</v>
-      </c>
-      <c r="G56" s="18" t="str">
-        <f t="shared" si="7"/>
-        <v>0,</v>
-      </c>
-      <c r="H56" s="18" t="str">
-        <f t="shared" si="8"/>
-        <v>0,</v>
-      </c>
-      <c r="I56" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="J56" s="18" t="str">
-        <f t="shared" si="10"/>
-        <v>0,</v>
-      </c>
-      <c r="K56" s="18" t="str">
-        <f t="shared" si="11"/>
-        <v>0,</v>
-      </c>
       <c r="L56" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v>"LTBO Manager",</v>
+        <f>CHAR(34)&amp;L9&amp;CHAR(34)&amp;","</f>
+        <v>"Champion T2",</v>
       </c>
       <c r="M56" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v>"Champion T1",</v>
+        <f>CHAR(34)&amp;M9&amp;CHAR(34)&amp;","</f>
+        <v>"",</v>
       </c>
       <c r="N56" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v>"Finals MVP T1",</v>
+        <f>CHAR(34)&amp;N9&amp;CHAR(34)&amp;","</f>
+        <v>"",</v>
       </c>
       <c r="O56" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v>"Fifthman T2",</v>
+        <f>CHAR(34)&amp;O9&amp;CHAR(34)&amp;","</f>
+        <v>"",</v>
       </c>
       <c r="P56" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v>"All-2nd-Offence Team T2",</v>
+        <f>CHAR(34)&amp;P9&amp;CHAR(34)&amp;","</f>
+        <v>"",</v>
       </c>
       <c r="Q56" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v>"All-2nd-Defence Team T2",</v>
+        <f>CHAR(34)&amp;Q9&amp;CHAR(34)&amp;","</f>
+        <v>"",</v>
       </c>
       <c r="R56" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v>"Champion T2",</v>
+        <f>CHAR(34)&amp;R9&amp;CHAR(34)&amp;","</f>
+        <v>"",</v>
       </c>
       <c r="S56" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f>CHAR(34)&amp;S9&amp;CHAR(34)&amp;","</f>
         <v>"",</v>
       </c>
       <c r="T56" s="18" t="str">
-        <f t="shared" ref="T56:V56" si="21">CHAR(34)&amp;T10&amp;CHAR(34)&amp;","</f>
-        <v>"Out due to injury. Signed by Wet Willies",</v>
+        <f>CHAR(34)&amp;T9&amp;CHAR(34)&amp;","</f>
+        <v>"Drafted by 5 Musketeers",</v>
       </c>
       <c r="U56" s="18" t="str">
-        <f t="shared" si="21"/>
-        <v>"../Images/WW_Final.png",</v>
+        <f>CHAR(34)&amp;U9&amp;CHAR(34)&amp;","</f>
+        <v>"../Images/5M_Final.png",</v>
       </c>
       <c r="V56" s="18" t="str">
-        <f t="shared" si="21"/>
-        <v>"../Images/Players/Clarrie.png",</v>
+        <f>CHAR(34)&amp;V9&amp;CHAR(34)&amp;","</f>
+        <v>"../Images/Players/Sam J.png",</v>
       </c>
     </row>
     <row r="57" spans="2:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B57" s="18" t="str">
-        <f t="shared" si="3"/>
-        <v>"William Kim",</v>
+        <f>CHAR(34)&amp;B10&amp;CHAR(34)&amp;","</f>
+        <v>"Clarrie Jones",</v>
       </c>
       <c r="C57" s="18" t="str">
-        <f t="shared" si="3"/>
-        <v>"Loose Gooses",</v>
+        <f>CHAR(34)&amp;C10&amp;CHAR(34)&amp;","</f>
+        <v>"Wet Willies",</v>
       </c>
       <c r="D57" s="18" t="str">
-        <f t="shared" si="4"/>
-        <v>1.5,</v>
+        <f>ROUND(D10,2)&amp;","</f>
+        <v>0,</v>
       </c>
       <c r="E57" s="18" t="str">
-        <f t="shared" si="5"/>
-        <v>3,</v>
+        <f>E10&amp;","</f>
+        <v>0,</v>
       </c>
       <c r="F57" s="18" t="str">
-        <f t="shared" si="6"/>
-        <v>0.5,</v>
+        <f>ROUND(F10,2)&amp;","</f>
+        <v>0,</v>
       </c>
       <c r="G57" s="18" t="str">
-        <f t="shared" si="7"/>
-        <v>1,</v>
+        <f>G10&amp;","</f>
+        <v>0,</v>
       </c>
       <c r="H57" s="18" t="str">
-        <f t="shared" si="8"/>
+        <f>ROUND(H10,2)&amp;","</f>
         <v>0,</v>
       </c>
       <c r="I57" s="18" t="str">
-        <f t="shared" si="9"/>
+        <f>I10&amp;","</f>
         <v>0,</v>
       </c>
       <c r="J57" s="18" t="str">
-        <f t="shared" si="10"/>
-        <v>0.5,</v>
+        <f>ROUND(J10,2)&amp;","</f>
+        <v>0,</v>
       </c>
       <c r="K57" s="18" t="str">
-        <f t="shared" si="11"/>
-        <v>1,</v>
+        <f>K10&amp;","</f>
+        <v>0,</v>
       </c>
       <c r="L57" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v>"MVP T1",</v>
+        <f>CHAR(34)&amp;L10&amp;CHAR(34)&amp;","</f>
+        <v>"LTBO Manager",</v>
       </c>
       <c r="M57" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v>"All-Offence Team T1",</v>
+        <f>CHAR(34)&amp;M10&amp;CHAR(34)&amp;","</f>
+        <v>"Champion T1",</v>
       </c>
       <c r="N57" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v>"All-Defence Team T1",</v>
+        <f>CHAR(34)&amp;N10&amp;CHAR(34)&amp;","</f>
+        <v>"Finals MVP T1",</v>
       </c>
       <c r="O57" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f>CHAR(34)&amp;O10&amp;CHAR(34)&amp;","</f>
+        <v>"Fifthman T2",</v>
+      </c>
+      <c r="P57" s="18" t="str">
+        <f>CHAR(34)&amp;P10&amp;CHAR(34)&amp;","</f>
         <v>"All-2nd-Offence Team T2",</v>
       </c>
-      <c r="P57" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v>"All-Defence Team T2",</v>
-      </c>
       <c r="Q57" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f>CHAR(34)&amp;Q10&amp;CHAR(34)&amp;","</f>
+        <v>"All-2nd-Defence Team T2",</v>
+      </c>
+      <c r="R57" s="18" t="str">
+        <f>CHAR(34)&amp;R10&amp;CHAR(34)&amp;","</f>
         <v>"Champion T2",</v>
       </c>
-      <c r="R57" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v>"Finals MVP T2",</v>
-      </c>
       <c r="S57" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f>CHAR(34)&amp;S10&amp;CHAR(34)&amp;","</f>
         <v>"",</v>
       </c>
       <c r="T57" s="18" t="str">
-        <f t="shared" ref="T57:V57" si="22">CHAR(34)&amp;T11&amp;CHAR(34)&amp;","</f>
-        <v>"Retained by Loose Gooses",</v>
+        <f>CHAR(34)&amp;T10&amp;CHAR(34)&amp;","</f>
+        <v>"Out due to injury. Signed by Wet Willies",</v>
       </c>
       <c r="U57" s="18" t="str">
-        <f t="shared" si="22"/>
-        <v>"../Images/LG_Final.png",</v>
+        <f>CHAR(34)&amp;U10&amp;CHAR(34)&amp;","</f>
+        <v>"../Images/WW_Final.png",</v>
       </c>
       <c r="V57" s="18" t="str">
-        <f t="shared" si="22"/>
-        <v>"../Images/Players/Kimmy.png",</v>
+        <f>CHAR(34)&amp;V10&amp;CHAR(34)&amp;","</f>
+        <v>"../Images/Players/Clarrie.png",</v>
       </c>
     </row>
     <row r="58" spans="2:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B58" s="18" t="str">
-        <f t="shared" si="3"/>
-        <v>"Samuel McConaghy",</v>
+        <f>CHAR(34)&amp;B11&amp;CHAR(34)&amp;","</f>
+        <v>"William Kim",</v>
       </c>
       <c r="C58" s="18" t="str">
-        <f t="shared" si="3"/>
-        <v>"5 Musketeers",</v>
+        <f>CHAR(34)&amp;C11&amp;CHAR(34)&amp;","</f>
+        <v>"Loose Gooses",</v>
       </c>
       <c r="D58" s="18" t="str">
-        <f t="shared" si="4"/>
+        <f>ROUND(D11,2)&amp;","</f>
+        <v>1.5,</v>
+      </c>
+      <c r="E58" s="18" t="str">
+        <f>E11&amp;","</f>
         <v>3,</v>
       </c>
-      <c r="E58" s="18" t="str">
-        <f t="shared" si="5"/>
-        <v>6,</v>
-      </c>
       <c r="F58" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f>ROUND(F11,2)&amp;","</f>
+        <v>0.5,</v>
+      </c>
+      <c r="G58" s="18" t="str">
+        <f>G11&amp;","</f>
+        <v>1,</v>
+      </c>
+      <c r="H58" s="18" t="str">
+        <f>ROUND(H11,2)&amp;","</f>
         <v>0,</v>
       </c>
-      <c r="G58" s="18" t="str">
-        <f t="shared" si="7"/>
+      <c r="I58" s="18" t="str">
+        <f>I11&amp;","</f>
         <v>0,</v>
       </c>
-      <c r="H58" s="18" t="str">
-        <f t="shared" si="8"/>
-        <v>2,</v>
-      </c>
-      <c r="I58" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v>4,</v>
-      </c>
       <c r="J58" s="18" t="str">
-        <f t="shared" si="10"/>
+        <f>ROUND(J11,2)&amp;","</f>
         <v>0.5,</v>
       </c>
       <c r="K58" s="18" t="str">
-        <f t="shared" si="11"/>
+        <f>K11&amp;","</f>
         <v>1,</v>
       </c>
       <c r="L58" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v>"GM",</v>
+        <f>CHAR(34)&amp;L11&amp;CHAR(34)&amp;","</f>
+        <v>"MVP T1",</v>
       </c>
       <c r="M58" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f>CHAR(34)&amp;M11&amp;CHAR(34)&amp;","</f>
         <v>"All-Offence Team T1",</v>
       </c>
       <c r="N58" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f>CHAR(34)&amp;N11&amp;CHAR(34)&amp;","</f>
         <v>"All-Defence Team T1",</v>
       </c>
       <c r="O58" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v>"All-Offence Team T2",</v>
+        <f>CHAR(34)&amp;O11&amp;CHAR(34)&amp;","</f>
+        <v>"All-2nd-Offence Team T2",</v>
       </c>
       <c r="P58" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f>CHAR(34)&amp;P11&amp;CHAR(34)&amp;","</f>
         <v>"All-Defence Team T2",</v>
       </c>
       <c r="Q58" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f>CHAR(34)&amp;Q11&amp;CHAR(34)&amp;","</f>
+        <v>"Champion T2",</v>
+      </c>
+      <c r="R58" s="18" t="str">
+        <f>CHAR(34)&amp;R11&amp;CHAR(34)&amp;","</f>
+        <v>"Finals MVP T2",</v>
+      </c>
+      <c r="S58" s="18" t="str">
+        <f>CHAR(34)&amp;S11&amp;CHAR(34)&amp;","</f>
         <v>"",</v>
       </c>
-      <c r="R58" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v>"",</v>
-      </c>
-      <c r="S58" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v>"",</v>
-      </c>
       <c r="T58" s="18" t="str">
-        <f t="shared" ref="T58:V58" si="23">CHAR(34)&amp;T12&amp;CHAR(34)&amp;","</f>
-        <v>"GM of 5 Musketeers",</v>
+        <f>CHAR(34)&amp;T11&amp;CHAR(34)&amp;","</f>
+        <v>"Retained by Loose Gooses",</v>
       </c>
       <c r="U58" s="18" t="str">
-        <f t="shared" si="23"/>
-        <v>"../Images/5M_Final.png",</v>
+        <f>CHAR(34)&amp;U11&amp;CHAR(34)&amp;","</f>
+        <v>"../Images/LG_Final.png",</v>
       </c>
       <c r="V58" s="18" t="str">
-        <f t="shared" si="23"/>
-        <v>"../Images/Players/SamM.png",</v>
+        <f>CHAR(34)&amp;V11&amp;CHAR(34)&amp;","</f>
+        <v>"../Images/Players/Kimmy.png",</v>
       </c>
     </row>
     <row r="59" spans="2:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B59" s="18" t="str">
-        <f t="shared" si="3"/>
-        <v>"Ryan Pattemore",</v>
+        <f>CHAR(34)&amp;B12&amp;CHAR(34)&amp;","</f>
+        <v>"Samuel McConaghy",</v>
       </c>
       <c r="C59" s="18" t="str">
-        <f t="shared" si="3"/>
-        <v>"Wet Willies",</v>
+        <f>CHAR(34)&amp;C12&amp;CHAR(34)&amp;","</f>
+        <v>"5 Musketeers",</v>
       </c>
       <c r="D59" s="18" t="str">
-        <f t="shared" si="4"/>
-        <v>0,</v>
+        <f>ROUND(D12,2)&amp;","</f>
+        <v>6,</v>
       </c>
       <c r="E59" s="18" t="str">
-        <f t="shared" si="5"/>
-        <v>0,</v>
+        <f>E12&amp;","</f>
+        <v>12,</v>
       </c>
       <c r="F59" s="18" t="str">
-        <f t="shared" si="6"/>
-        <v>0,</v>
+        <f>ROUND(F12,2)&amp;","</f>
+        <v>0.5,</v>
       </c>
       <c r="G59" s="18" t="str">
-        <f t="shared" si="7"/>
-        <v>0,</v>
+        <f>G12&amp;","</f>
+        <v>1,</v>
       </c>
       <c r="H59" s="18" t="str">
-        <f t="shared" si="8"/>
-        <v>0,</v>
+        <f>ROUND(H12,2)&amp;","</f>
+        <v>4.5,</v>
       </c>
       <c r="I59" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v>0,</v>
+        <f>I12&amp;","</f>
+        <v>9,</v>
       </c>
       <c r="J59" s="18" t="str">
-        <f t="shared" si="10"/>
-        <v>0,</v>
+        <f>ROUND(J12,2)&amp;","</f>
+        <v>0.5,</v>
       </c>
       <c r="K59" s="18" t="str">
-        <f t="shared" si="11"/>
-        <v>0,</v>
+        <f>K12&amp;","</f>
+        <v>1,</v>
       </c>
       <c r="L59" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v>"Perimeter T1",</v>
+        <f>CHAR(34)&amp;L12&amp;CHAR(34)&amp;","</f>
+        <v>"GM",</v>
       </c>
       <c r="M59" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v>"Champion T1",</v>
+        <f>CHAR(34)&amp;M12&amp;CHAR(34)&amp;","</f>
+        <v>"All-Offence Team T1",</v>
       </c>
       <c r="N59" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f>CHAR(34)&amp;N12&amp;CHAR(34)&amp;","</f>
+        <v>"All-Defence Team T1",</v>
+      </c>
+      <c r="O59" s="18" t="str">
+        <f>CHAR(34)&amp;O12&amp;CHAR(34)&amp;","</f>
+        <v>"All-Offence Team T2",</v>
+      </c>
+      <c r="P59" s="18" t="str">
+        <f>CHAR(34)&amp;P12&amp;CHAR(34)&amp;","</f>
+        <v>"All-Defence Team T2",</v>
+      </c>
+      <c r="Q59" s="18" t="str">
+        <f>CHAR(34)&amp;Q12&amp;CHAR(34)&amp;","</f>
         <v>"",</v>
       </c>
-      <c r="O59" s="18" t="str">
-        <f t="shared" si="14"/>
+      <c r="R59" s="18" t="str">
+        <f>CHAR(34)&amp;R12&amp;CHAR(34)&amp;","</f>
         <v>"",</v>
       </c>
-      <c r="P59" s="18" t="str">
-        <f t="shared" si="14"/>
+      <c r="S59" s="18" t="str">
+        <f>CHAR(34)&amp;S12&amp;CHAR(34)&amp;","</f>
         <v>"",</v>
       </c>
-      <c r="Q59" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v>"",</v>
-      </c>
-      <c r="R59" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v>"",</v>
-      </c>
-      <c r="S59" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v>"",</v>
-      </c>
       <c r="T59" s="18" t="str">
-        <f t="shared" ref="T59:V59" si="24">CHAR(34)&amp;T13&amp;CHAR(34)&amp;","</f>
-        <v>"Drafted by Wet Willies",</v>
+        <f>CHAR(34)&amp;T12&amp;CHAR(34)&amp;","</f>
+        <v>"GM of 5 Musketeers",</v>
       </c>
       <c r="U59" s="18" t="str">
-        <f t="shared" si="24"/>
-        <v>"../Images/WW_Final.png",</v>
+        <f>CHAR(34)&amp;U12&amp;CHAR(34)&amp;","</f>
+        <v>"../Images/5M_Final.png",</v>
       </c>
       <c r="V59" s="18" t="str">
-        <f t="shared" si="24"/>
-        <v>"../Images/Players/Ryan.png",</v>
+        <f>CHAR(34)&amp;V12&amp;CHAR(34)&amp;","</f>
+        <v>"../Images/Players/SamM.png",</v>
       </c>
     </row>
     <row r="60" spans="2:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B60" s="18" t="str">
-        <f t="shared" si="3"/>
-        <v>"Nicholas Szogi",</v>
+        <f>CHAR(34)&amp;B13&amp;CHAR(34)&amp;","</f>
+        <v>"Ryan Pattemore",</v>
       </c>
       <c r="C60" s="18" t="str">
-        <f t="shared" si="3"/>
-        <v>"5 Musketeers",</v>
+        <f>CHAR(34)&amp;C13&amp;CHAR(34)&amp;","</f>
+        <v>"Wet Willies",</v>
       </c>
       <c r="D60" s="18" t="str">
-        <f t="shared" si="4"/>
+        <f>ROUND(D13,2)&amp;","</f>
         <v>1,</v>
       </c>
       <c r="E60" s="18" t="str">
-        <f t="shared" si="5"/>
+        <f>E13&amp;","</f>
         <v>2,</v>
       </c>
       <c r="F60" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f>ROUND(F13,2)&amp;","</f>
         <v>0,</v>
       </c>
       <c r="G60" s="18" t="str">
-        <f t="shared" si="7"/>
+        <f>G13&amp;","</f>
         <v>0,</v>
       </c>
       <c r="H60" s="18" t="str">
-        <f t="shared" si="8"/>
+        <f>ROUND(H13,2)&amp;","</f>
         <v>0,</v>
       </c>
       <c r="I60" s="18" t="str">
-        <f t="shared" si="9"/>
+        <f>I13&amp;","</f>
         <v>0,</v>
       </c>
       <c r="J60" s="18" t="str">
-        <f t="shared" si="10"/>
+        <f>ROUND(J13,2)&amp;","</f>
         <v>0.5,</v>
       </c>
       <c r="K60" s="18" t="str">
-        <f t="shared" si="11"/>
+        <f>K13&amp;","</f>
         <v>1,</v>
       </c>
       <c r="L60" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v>"The Biggest Bird",</v>
+        <f>CHAR(34)&amp;L13&amp;CHAR(34)&amp;","</f>
+        <v>"Perimeter T1",</v>
       </c>
       <c r="M60" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f>CHAR(34)&amp;M13&amp;CHAR(34)&amp;","</f>
         <v>"Champion T1",</v>
       </c>
       <c r="N60" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v>"MVP Runner Up T2",</v>
+        <f>CHAR(34)&amp;N13&amp;CHAR(34)&amp;","</f>
+        <v>"",</v>
       </c>
       <c r="O60" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v>"X-Factor T2",</v>
+        <f>CHAR(34)&amp;O13&amp;CHAR(34)&amp;","</f>
+        <v>"",</v>
       </c>
       <c r="P60" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v>"All-2nd-Offence Team T2",</v>
+        <f>CHAR(34)&amp;P13&amp;CHAR(34)&amp;","</f>
+        <v>"",</v>
       </c>
       <c r="Q60" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v>"All-2nd-Defence Team T2",</v>
+        <f>CHAR(34)&amp;Q13&amp;CHAR(34)&amp;","</f>
+        <v>"",</v>
       </c>
       <c r="R60" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f>CHAR(34)&amp;R13&amp;CHAR(34)&amp;","</f>
         <v>"",</v>
       </c>
       <c r="S60" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f>CHAR(34)&amp;S13&amp;CHAR(34)&amp;","</f>
         <v>"",</v>
       </c>
       <c r="T60" s="18" t="str">
-        <f t="shared" ref="T60:V60" si="25">CHAR(34)&amp;T14&amp;CHAR(34)&amp;","</f>
-        <v>"Drafted by 5 Musketeers",</v>
+        <f>CHAR(34)&amp;T13&amp;CHAR(34)&amp;","</f>
+        <v>"Drafted by Wet Willies",</v>
       </c>
       <c r="U60" s="18" t="str">
-        <f t="shared" si="25"/>
-        <v>"../Images/5M_Final.png",</v>
+        <f>CHAR(34)&amp;U13&amp;CHAR(34)&amp;","</f>
+        <v>"../Images/WW_Final.png",</v>
       </c>
       <c r="V60" s="18" t="str">
-        <f t="shared" si="25"/>
-        <v>"../Images/Players/Nick.png",</v>
+        <f>CHAR(34)&amp;V13&amp;CHAR(34)&amp;","</f>
+        <v>"../Images/Players/Ryan.png",</v>
       </c>
     </row>
     <row r="61" spans="2:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B61" s="18" t="str">
-        <f t="shared" si="3"/>
-        <v>"Christopher Tomkinson",</v>
+        <f>CHAR(34)&amp;B14&amp;CHAR(34)&amp;","</f>
+        <v>"William Scott",</v>
       </c>
       <c r="C61" s="18" t="str">
-        <f t="shared" si="3"/>
-        <v>"Loose Gooses",</v>
+        <f>CHAR(34)&amp;C14&amp;CHAR(34)&amp;","</f>
+        <v>"Wet Willies",</v>
       </c>
       <c r="D61" s="18" t="str">
-        <f t="shared" si="4"/>
-        <v>0.5,</v>
+        <f>ROUND(D14,2)&amp;","</f>
+        <v>0,</v>
       </c>
       <c r="E61" s="18" t="str">
-        <f t="shared" si="5"/>
-        <v>1,</v>
+        <f>E14&amp;","</f>
+        <v>0,</v>
       </c>
       <c r="F61" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f>ROUND(F14,2)&amp;","</f>
         <v>0,</v>
       </c>
       <c r="G61" s="18" t="str">
-        <f t="shared" si="7"/>
+        <f>G14&amp;","</f>
         <v>0,</v>
       </c>
       <c r="H61" s="18" t="str">
-        <f t="shared" si="8"/>
-        <v>0.5,</v>
+        <f>ROUND(H14,2)&amp;","</f>
+        <v>0,</v>
       </c>
       <c r="I61" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v>1,</v>
+        <f>I14&amp;","</f>
+        <v>0,</v>
       </c>
       <c r="J61" s="18" t="str">
-        <f t="shared" si="10"/>
+        <f>ROUND(J14,2)&amp;","</f>
         <v>0,</v>
       </c>
       <c r="K61" s="18" t="str">
-        <f t="shared" si="11"/>
+        <f>K14&amp;","</f>
         <v>0,</v>
       </c>
       <c r="L61" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v>"MIP T1",</v>
+        <f>CHAR(34)&amp;L14&amp;CHAR(34)&amp;","</f>
+        <v>"LTBO Photographer",</v>
       </c>
       <c r="M61" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v>"MIP T2",</v>
+        <f>CHAR(34)&amp;M14&amp;CHAR(34)&amp;","</f>
+        <v>"",</v>
       </c>
       <c r="N61" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v>"MVP T2",</v>
+        <f>CHAR(34)&amp;N14&amp;CHAR(34)&amp;","</f>
+        <v>"",</v>
       </c>
       <c r="O61" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v>"All-2nd-Offence Team T2",</v>
+        <f>CHAR(34)&amp;O14&amp;CHAR(34)&amp;","</f>
+        <v>"",</v>
       </c>
       <c r="P61" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v>"All-2nd-Defence Team T2",</v>
+        <f>CHAR(34)&amp;P14&amp;CHAR(34)&amp;","</f>
+        <v>"",</v>
       </c>
       <c r="Q61" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v>"Champion T2",</v>
+        <f>CHAR(34)&amp;Q14&amp;CHAR(34)&amp;","</f>
+        <v>"",</v>
       </c>
       <c r="R61" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f>CHAR(34)&amp;R14&amp;CHAR(34)&amp;","</f>
         <v>"",</v>
       </c>
       <c r="S61" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f>CHAR(34)&amp;S14&amp;CHAR(34)&amp;","</f>
         <v>"",</v>
       </c>
       <c r="T61" s="18" t="str">
-        <f t="shared" ref="T61:V61" si="26">CHAR(34)&amp;T15&amp;CHAR(34)&amp;","</f>
-        <v>"Drafted by Loose Gooses",</v>
+        <f>CHAR(34)&amp;T14&amp;CHAR(34)&amp;","</f>
+        <v>"Drafted by Wet Willies",</v>
       </c>
       <c r="U61" s="18" t="str">
-        <f t="shared" si="26"/>
-        <v>"../Images/LG_Final.png",</v>
+        <f>CHAR(34)&amp;U14&amp;CHAR(34)&amp;","</f>
+        <v>"../Images/WW_Final.png",</v>
       </c>
       <c r="V61" s="18" t="str">
-        <f t="shared" si="26"/>
-        <v>"../Images/Players/Chris.png",</v>
+        <f>CHAR(34)&amp;V14&amp;CHAR(34)&amp;","</f>
+        <v>"../Images/Players/Will.png",</v>
       </c>
     </row>
     <row r="62" spans="2:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B62" s="18" t="str">
-        <f t="shared" si="3"/>
-        <v>"Angus Walker",</v>
+        <f>CHAR(34)&amp;B15&amp;CHAR(34)&amp;","</f>
+        <v>"Nicholas Szogi",</v>
       </c>
       <c r="C62" s="18" t="str">
-        <f t="shared" si="3"/>
-        <v>"Loose Gooses",</v>
+        <f>CHAR(34)&amp;C15&amp;CHAR(34)&amp;","</f>
+        <v>"5 Musketeers",</v>
       </c>
       <c r="D62" s="18" t="str">
-        <f t="shared" si="4"/>
+        <f>ROUND(D15,2)&amp;","</f>
+        <v>2,</v>
+      </c>
+      <c r="E62" s="18" t="str">
+        <f>E15&amp;","</f>
+        <v>4,</v>
+      </c>
+      <c r="F62" s="18" t="str">
+        <f>ROUND(F15,2)&amp;","</f>
+        <v>1,</v>
+      </c>
+      <c r="G62" s="18" t="str">
+        <f>G15&amp;","</f>
+        <v>2,</v>
+      </c>
+      <c r="H62" s="18" t="str">
+        <f>ROUND(H15,2)&amp;","</f>
         <v>0,</v>
       </c>
-      <c r="E62" s="18" t="str">
-        <f t="shared" si="5"/>
+      <c r="I62" s="18" t="str">
+        <f>I15&amp;","</f>
         <v>0,</v>
       </c>
-      <c r="F62" s="18" t="str">
-        <f t="shared" si="6"/>
-        <v>0,</v>
-      </c>
-      <c r="G62" s="18" t="str">
-        <f t="shared" si="7"/>
-        <v>0,</v>
-      </c>
-      <c r="H62" s="18" t="str">
-        <f t="shared" si="8"/>
-        <v>0,</v>
-      </c>
-      <c r="I62" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
       <c r="J62" s="18" t="str">
-        <f t="shared" si="10"/>
-        <v>0,</v>
+        <f>ROUND(J15,2)&amp;","</f>
+        <v>0.5,</v>
       </c>
       <c r="K62" s="18" t="str">
-        <f t="shared" si="11"/>
-        <v>0,</v>
+        <f>K15&amp;","</f>
+        <v>1,</v>
       </c>
       <c r="L62" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v>"LTBO CEO",</v>
+        <f>CHAR(34)&amp;L15&amp;CHAR(34)&amp;","</f>
+        <v>"The Biggest Bird",</v>
       </c>
       <c r="M62" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v>"GM",</v>
+        <f>CHAR(34)&amp;M15&amp;CHAR(34)&amp;","</f>
+        <v>"Champion T1",</v>
       </c>
       <c r="N62" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v>"All-Offence Team T1",</v>
+        <f>CHAR(34)&amp;N15&amp;CHAR(34)&amp;","</f>
+        <v>"MVP Runner Up T2",</v>
       </c>
       <c r="O62" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v>"All-Defence Team T1",</v>
+        <f>CHAR(34)&amp;O15&amp;CHAR(34)&amp;","</f>
+        <v>"X-Factor T2",</v>
       </c>
       <c r="P62" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v>"Scoring Champ T1",</v>
+        <f>CHAR(34)&amp;P15&amp;CHAR(34)&amp;","</f>
+        <v>"All-2nd-Offence Team T2",</v>
       </c>
       <c r="Q62" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v>"All-Offence Team T2",</v>
+        <f>CHAR(34)&amp;Q15&amp;CHAR(34)&amp;","</f>
+        <v>"All-2nd-Defence Team T2",</v>
       </c>
       <c r="R62" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v>"All-Defence Team T2",</v>
+        <f>CHAR(34)&amp;R15&amp;CHAR(34)&amp;","</f>
+        <v>"",</v>
       </c>
       <c r="S62" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v>"Champion T2",</v>
+        <f>CHAR(34)&amp;S15&amp;CHAR(34)&amp;","</f>
+        <v>"",</v>
       </c>
       <c r="T62" s="18" t="str">
-        <f t="shared" ref="T62:V62" si="27">CHAR(34)&amp;T16&amp;CHAR(34)&amp;","</f>
-        <v>"GM of Loose Gooses",</v>
+        <f>CHAR(34)&amp;T15&amp;CHAR(34)&amp;","</f>
+        <v>"Drafted by 5 Musketeers",</v>
       </c>
       <c r="U62" s="18" t="str">
-        <f t="shared" si="27"/>
-        <v>"../Images/LG_Final.png",</v>
+        <f>CHAR(34)&amp;U15&amp;CHAR(34)&amp;","</f>
+        <v>"../Images/5M_Final.png",</v>
       </c>
       <c r="V62" s="18" t="str">
-        <f t="shared" si="27"/>
-        <v>"../Images/Players/Angus.png",</v>
+        <f>CHAR(34)&amp;V15&amp;CHAR(34)&amp;","</f>
+        <v>"../Images/Players/Nick.png",</v>
       </c>
     </row>
     <row r="63" spans="2:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B63" s="18" t="str">
-        <f t="shared" si="3"/>
-        <v>"Willie Weekes",</v>
+        <f>CHAR(34)&amp;B16&amp;CHAR(34)&amp;","</f>
+        <v>"Christopher Tomkinson",</v>
       </c>
       <c r="C63" s="18" t="str">
-        <f t="shared" si="3"/>
-        <v>"Wet Willies",</v>
+        <f>CHAR(34)&amp;C16&amp;CHAR(34)&amp;","</f>
+        <v>"Loose Gooses",</v>
       </c>
       <c r="D63" s="18" t="str">
-        <f t="shared" si="4"/>
-        <v>0,</v>
+        <f>ROUND(D16,2)&amp;","</f>
+        <v>3,</v>
       </c>
       <c r="E63" s="18" t="str">
-        <f t="shared" si="5"/>
-        <v>0,</v>
+        <f>E16&amp;","</f>
+        <v>6,</v>
       </c>
       <c r="F63" s="18" t="str">
-        <f t="shared" si="6"/>
-        <v>0,</v>
+        <f>ROUND(F16,2)&amp;","</f>
+        <v>1,</v>
       </c>
       <c r="G63" s="18" t="str">
-        <f t="shared" si="7"/>
-        <v>0,</v>
+        <f>G16&amp;","</f>
+        <v>2,</v>
       </c>
       <c r="H63" s="18" t="str">
-        <f t="shared" si="8"/>
-        <v>0,</v>
+        <f>ROUND(H16,2)&amp;","</f>
+        <v>1,</v>
       </c>
       <c r="I63" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v>0,</v>
+        <f>I16&amp;","</f>
+        <v>2,</v>
       </c>
       <c r="J63" s="18" t="str">
-        <f t="shared" si="10"/>
-        <v>0,</v>
+        <f>ROUND(J16,2)&amp;","</f>
+        <v>0.5,</v>
       </c>
       <c r="K63" s="18" t="str">
-        <f t="shared" si="11"/>
-        <v>0,</v>
+        <f>K16&amp;","</f>
+        <v>1,</v>
       </c>
       <c r="L63" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v>"Teammate T1",</v>
+        <f>CHAR(34)&amp;L16&amp;CHAR(34)&amp;","</f>
+        <v>"MIP T1",</v>
       </c>
       <c r="M63" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v>"Champion T1",</v>
+        <f>CHAR(34)&amp;M16&amp;CHAR(34)&amp;","</f>
+        <v>"MIP T2",</v>
       </c>
       <c r="N63" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v>"Teammate T2",</v>
+        <f>CHAR(34)&amp;N16&amp;CHAR(34)&amp;","</f>
+        <v>"MVP T2",</v>
       </c>
       <c r="O63" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f>CHAR(34)&amp;O16&amp;CHAR(34)&amp;","</f>
+        <v>"All-2nd-Offence Team T2",</v>
+      </c>
+      <c r="P63" s="18" t="str">
+        <f>CHAR(34)&amp;P16&amp;CHAR(34)&amp;","</f>
+        <v>"All-2nd-Defence Team T2",</v>
+      </c>
+      <c r="Q63" s="18" t="str">
+        <f>CHAR(34)&amp;Q16&amp;CHAR(34)&amp;","</f>
+        <v>"Champion T2",</v>
+      </c>
+      <c r="R63" s="18" t="str">
+        <f>CHAR(34)&amp;R16&amp;CHAR(34)&amp;","</f>
         <v>"",</v>
       </c>
-      <c r="P63" s="18" t="str">
-        <f t="shared" si="14"/>
+      <c r="S63" s="18" t="str">
+        <f>CHAR(34)&amp;S16&amp;CHAR(34)&amp;","</f>
         <v>"",</v>
       </c>
-      <c r="Q63" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v>"",</v>
-      </c>
-      <c r="R63" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v>"",</v>
-      </c>
-      <c r="S63" s="18" t="str">
-        <f t="shared" si="14"/>
-        <v>"",</v>
-      </c>
       <c r="T63" s="18" t="str">
-        <f t="shared" ref="T63:V63" si="28">CHAR(34)&amp;T17&amp;CHAR(34)&amp;","</f>
-        <v>"Drafted by Wet Willies",</v>
+        <f>CHAR(34)&amp;T16&amp;CHAR(34)&amp;","</f>
+        <v>"Drafted by Loose Gooses",</v>
       </c>
       <c r="U63" s="18" t="str">
-        <f t="shared" si="28"/>
-        <v>"../Images/WW_Final.png",</v>
+        <f>CHAR(34)&amp;U16&amp;CHAR(34)&amp;","</f>
+        <v>"../Images/LG_Final.png",</v>
       </c>
       <c r="V63" s="18" t="str">
-        <f t="shared" si="28"/>
-        <v>"../Images/Players/Willie.png",</v>
+        <f>CHAR(34)&amp;V16&amp;CHAR(34)&amp;","</f>
+        <v>"../Images/Players/Chris.png",</v>
       </c>
     </row>
     <row r="64" spans="2:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B64" s="18" t="str">
-        <f>CHAR(34)&amp;B18&amp;CHAR(34)</f>
+        <f>CHAR(34)&amp;B17&amp;CHAR(34)&amp;","</f>
+        <v>"Angus Walker",</v>
+      </c>
+      <c r="C64" s="18" t="str">
+        <f>CHAR(34)&amp;C17&amp;CHAR(34)&amp;","</f>
+        <v>"Loose Gooses",</v>
+      </c>
+      <c r="D64" s="18" t="str">
+        <f>ROUND(D17,2)&amp;","</f>
+        <v>3,</v>
+      </c>
+      <c r="E64" s="18" t="str">
+        <f>E17&amp;","</f>
+        <v>6,</v>
+      </c>
+      <c r="F64" s="18" t="str">
+        <f>ROUND(F17,2)&amp;","</f>
+        <v>1.5,</v>
+      </c>
+      <c r="G64" s="18" t="str">
+        <f>G17&amp;","</f>
+        <v>3,</v>
+      </c>
+      <c r="H64" s="18" t="str">
+        <f>ROUND(H17,2)&amp;","</f>
+        <v>0.5,</v>
+      </c>
+      <c r="I64" s="18" t="str">
+        <f>I17&amp;","</f>
+        <v>1,</v>
+      </c>
+      <c r="J64" s="18" t="str">
+        <f>ROUND(J17,2)&amp;","</f>
+        <v>0.5,</v>
+      </c>
+      <c r="K64" s="18" t="str">
+        <f>K17&amp;","</f>
+        <v>1,</v>
+      </c>
+      <c r="L64" s="18" t="str">
+        <f>CHAR(34)&amp;L17&amp;CHAR(34)&amp;","</f>
+        <v>"LTBO CEO",</v>
+      </c>
+      <c r="M64" s="18" t="str">
+        <f>CHAR(34)&amp;M17&amp;CHAR(34)&amp;","</f>
+        <v>"GM",</v>
+      </c>
+      <c r="N64" s="18" t="str">
+        <f>CHAR(34)&amp;N17&amp;CHAR(34)&amp;","</f>
+        <v>"All-Offence Team T1",</v>
+      </c>
+      <c r="O64" s="18" t="str">
+        <f>CHAR(34)&amp;O17&amp;CHAR(34)&amp;","</f>
+        <v>"All-Defence Team T1",</v>
+      </c>
+      <c r="P64" s="18" t="str">
+        <f>CHAR(34)&amp;P17&amp;CHAR(34)&amp;","</f>
+        <v>"Scoring Champ T1",</v>
+      </c>
+      <c r="Q64" s="18" t="str">
+        <f>CHAR(34)&amp;Q17&amp;CHAR(34)&amp;","</f>
+        <v>"All-Offence Team T2",</v>
+      </c>
+      <c r="R64" s="18" t="str">
+        <f>CHAR(34)&amp;R17&amp;CHAR(34)&amp;","</f>
+        <v>"All-Defence Team T2",</v>
+      </c>
+      <c r="S64" s="18" t="str">
+        <f>CHAR(34)&amp;S17&amp;CHAR(34)&amp;","</f>
+        <v>"Champion T2",</v>
+      </c>
+      <c r="T64" s="18" t="str">
+        <f>CHAR(34)&amp;T17&amp;CHAR(34)&amp;","</f>
+        <v>"GM of Loose Gooses",</v>
+      </c>
+      <c r="U64" s="18" t="str">
+        <f>CHAR(34)&amp;U17&amp;CHAR(34)&amp;","</f>
+        <v>"../Images/LG_Final.png",</v>
+      </c>
+      <c r="V64" s="18" t="str">
+        <f>CHAR(34)&amp;V17&amp;CHAR(34)&amp;","</f>
+        <v>"../Images/Players/Angus.png",</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B65" s="18" t="str">
+        <f>CHAR(34)&amp;B18&amp;CHAR(34)&amp;","</f>
+        <v>"Willie Weekes",</v>
+      </c>
+      <c r="C65" s="18" t="str">
+        <f>CHAR(34)&amp;C18&amp;CHAR(34)&amp;","</f>
+        <v>"Wet Willies",</v>
+      </c>
+      <c r="D65" s="18" t="str">
+        <f>ROUND(D18,2)&amp;","</f>
+        <v>0,</v>
+      </c>
+      <c r="E65" s="18" t="str">
+        <f>E18&amp;","</f>
+        <v>0,</v>
+      </c>
+      <c r="F65" s="18" t="str">
+        <f>ROUND(F18,2)&amp;","</f>
+        <v>0,</v>
+      </c>
+      <c r="G65" s="18" t="str">
+        <f>G18&amp;","</f>
+        <v>0,</v>
+      </c>
+      <c r="H65" s="18" t="str">
+        <f>ROUND(H18,2)&amp;","</f>
+        <v>0,</v>
+      </c>
+      <c r="I65" s="18" t="str">
+        <f>I18&amp;","</f>
+        <v>0,</v>
+      </c>
+      <c r="J65" s="18" t="str">
+        <f>ROUND(J18,2)&amp;","</f>
+        <v>0,</v>
+      </c>
+      <c r="K65" s="18" t="str">
+        <f>K18&amp;","</f>
+        <v>0,</v>
+      </c>
+      <c r="L65" s="18" t="str">
+        <f>CHAR(34)&amp;L18&amp;CHAR(34)&amp;","</f>
+        <v>"Teammate T1",</v>
+      </c>
+      <c r="M65" s="18" t="str">
+        <f>CHAR(34)&amp;M18&amp;CHAR(34)&amp;","</f>
+        <v>"Champion T1",</v>
+      </c>
+      <c r="N65" s="18" t="str">
+        <f>CHAR(34)&amp;N18&amp;CHAR(34)&amp;","</f>
+        <v>"Teammate T2",</v>
+      </c>
+      <c r="O65" s="18" t="str">
+        <f>CHAR(34)&amp;O18&amp;CHAR(34)&amp;","</f>
+        <v>"",</v>
+      </c>
+      <c r="P65" s="18" t="str">
+        <f>CHAR(34)&amp;P18&amp;CHAR(34)&amp;","</f>
+        <v>"",</v>
+      </c>
+      <c r="Q65" s="18" t="str">
+        <f>CHAR(34)&amp;Q18&amp;CHAR(34)&amp;","</f>
+        <v>"",</v>
+      </c>
+      <c r="R65" s="18" t="str">
+        <f>CHAR(34)&amp;R18&amp;CHAR(34)&amp;","</f>
+        <v>"",</v>
+      </c>
+      <c r="S65" s="18" t="str">
+        <f>CHAR(34)&amp;S18&amp;CHAR(34)&amp;","</f>
+        <v>"",</v>
+      </c>
+      <c r="T65" s="18" t="str">
+        <f>CHAR(34)&amp;T18&amp;CHAR(34)&amp;","</f>
+        <v>"Drafted by Wet Willies",</v>
+      </c>
+      <c r="U65" s="18" t="str">
+        <f>CHAR(34)&amp;U18&amp;CHAR(34)&amp;","</f>
+        <v>"../Images/WW_Final.png",</v>
+      </c>
+      <c r="V65" s="18" t="str">
+        <f>CHAR(34)&amp;V18&amp;CHAR(34)&amp;","</f>
+        <v>"../Images/Players/Willie.png",</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B66" s="18" t="str">
+        <f>CHAR(34)&amp;B19&amp;CHAR(34)</f>
         <v>"Mitch Yue"</v>
       </c>
-      <c r="C64" s="18" t="str">
-        <f>CHAR(34)&amp;C18&amp;CHAR(34)</f>
+      <c r="C66" s="18" t="str">
+        <f>CHAR(34)&amp;C19&amp;CHAR(34)</f>
         <v>"5 Musketeers"</v>
       </c>
-      <c r="D64" s="18">
-        <f>ROUND(D18,2)</f>
-        <v>0</v>
-      </c>
-      <c r="E64" s="18">
-        <f>E18</f>
-        <v>0</v>
-      </c>
-      <c r="F64" s="18">
-        <f>ROUND(F18,2)</f>
-        <v>0</v>
-      </c>
-      <c r="G64" s="18">
-        <f>G18</f>
-        <v>0</v>
-      </c>
-      <c r="H64" s="18">
-        <f>ROUND(H18,2)</f>
-        <v>0</v>
-      </c>
-      <c r="I64" s="18">
-        <f>I18</f>
-        <v>0</v>
-      </c>
-      <c r="J64" s="18">
-        <f>ROUND(J18,2)</f>
-        <v>0</v>
-      </c>
-      <c r="K64" s="18">
-        <f>K18</f>
-        <v>0</v>
-      </c>
-      <c r="L64" s="18" t="str">
-        <f t="shared" ref="L64:M64" si="29">CHAR(34)&amp;L18&amp;CHAR(34)</f>
+      <c r="D66" s="18">
+        <f>ROUND(D19,2)</f>
+        <v>0</v>
+      </c>
+      <c r="E66" s="18">
+        <f>E19</f>
+        <v>0</v>
+      </c>
+      <c r="F66" s="18">
+        <f>ROUND(F19,2)</f>
+        <v>0</v>
+      </c>
+      <c r="G66" s="18">
+        <f>G19</f>
+        <v>0</v>
+      </c>
+      <c r="H66" s="18">
+        <f>ROUND(H19,2)</f>
+        <v>0</v>
+      </c>
+      <c r="I66" s="18">
+        <f>I19</f>
+        <v>0</v>
+      </c>
+      <c r="J66" s="18">
+        <f>ROUND(J19,2)</f>
+        <v>0</v>
+      </c>
+      <c r="K66" s="18">
+        <f>K19</f>
+        <v>0</v>
+      </c>
+      <c r="L66" s="18" t="str">
+        <f>CHAR(34)&amp;L19&amp;CHAR(34)</f>
         <v>"All-2nd-Defence Team T2"</v>
       </c>
-      <c r="M64" s="18" t="str">
-        <f t="shared" si="29"/>
+      <c r="M66" s="18" t="str">
+        <f>CHAR(34)&amp;M19&amp;CHAR(34)</f>
         <v>"Champion T2"</v>
       </c>
-      <c r="N64" s="18" t="str">
-        <f t="shared" ref="N64:V64" si="30">CHAR(34)&amp;N18&amp;CHAR(34)</f>
+      <c r="N66" s="18" t="str">
+        <f>CHAR(34)&amp;N19&amp;CHAR(34)</f>
         <v>""</v>
       </c>
-      <c r="O64" s="18" t="str">
-        <f t="shared" si="30"/>
+      <c r="O66" s="18" t="str">
+        <f>CHAR(34)&amp;O19&amp;CHAR(34)</f>
         <v>""</v>
       </c>
-      <c r="P64" s="18" t="str">
-        <f t="shared" si="30"/>
+      <c r="P66" s="18" t="str">
+        <f>CHAR(34)&amp;P19&amp;CHAR(34)</f>
         <v>""</v>
       </c>
-      <c r="Q64" s="18" t="str">
-        <f t="shared" ref="Q64:S64" si="31">CHAR(34)&amp;Q18&amp;CHAR(34)</f>
+      <c r="Q66" s="18" t="str">
+        <f>CHAR(34)&amp;Q19&amp;CHAR(34)</f>
         <v>""</v>
       </c>
-      <c r="R64" s="18" t="str">
-        <f t="shared" si="31"/>
+      <c r="R66" s="18" t="str">
+        <f>CHAR(34)&amp;R19&amp;CHAR(34)</f>
         <v>""</v>
       </c>
-      <c r="S64" s="18" t="str">
-        <f t="shared" si="31"/>
+      <c r="S66" s="18" t="str">
+        <f>CHAR(34)&amp;S19&amp;CHAR(34)</f>
         <v>""</v>
       </c>
-      <c r="T64" s="18" t="str">
-        <f t="shared" si="30"/>
+      <c r="T66" s="18" t="str">
+        <f>CHAR(34)&amp;T19&amp;CHAR(34)</f>
         <v>"Drafted by 5 Musketeers"</v>
       </c>
-      <c r="U64" s="18" t="str">
-        <f t="shared" si="30"/>
+      <c r="U66" s="18" t="str">
+        <f>CHAR(34)&amp;U19&amp;CHAR(34)</f>
         <v>"../Images/5M_Final.png"</v>
       </c>
-      <c r="V64" s="18" t="str">
-        <f t="shared" si="30"/>
+      <c r="V66" s="18" t="str">
+        <f>CHAR(34)&amp;V19&amp;CHAR(34)</f>
         <v>"../Images/Players/Mitch.png"</v>
       </c>
     </row>
-    <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="68" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="69" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="70" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="71" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="72" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="73" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="74" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="75" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="76" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="77" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="78" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="79" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="80" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="67" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="68" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="69" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="70" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="71" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="72" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="73" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="74" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="75" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="76" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="77" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="78" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="79" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="80" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="81" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="82" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="83" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -11833,8 +11999,9 @@
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B21:D22"/>
+    <mergeCell ref="B22:C23"/>
   </mergeCells>
+  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
@@ -11845,8 +12012,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:AT1000"/>
   <sheetViews>
-    <sheetView topLeftCell="P4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AA20" sqref="AA20"/>
+    <sheetView topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -12024,79 +12191,79 @@
       </c>
       <c r="C6" s="128">
         <f>'Preseason 2'!C45</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D6" s="128">
         <f>'Preseason 2'!D45</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E6" s="128">
         <f>'Preseason 2'!E45</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F6" s="128">
         <f>'Preseason 2'!F45</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G6" s="128">
         <f>'Preseason 2'!G45</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="128">
         <f>'Preseason 2'!H45</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I6" s="128">
         <f>'Preseason 2'!I45</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J6" s="128">
         <f>'Preseason 2'!J45</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K6" s="128">
         <f>'Preseason 2'!K45</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L6" s="128">
         <f>'Preseason 2'!L45</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M6" s="128">
         <f>'Preseason 2'!M45</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N6" s="128">
         <f>'Preseason 2'!N45</f>
         <v>0</v>
       </c>
-      <c r="O6" s="128" t="e">
+      <c r="O6" s="128">
         <f>'Preseason 2'!O45</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P6" s="128" t="e">
+        <v>2</v>
+      </c>
+      <c r="P6" s="128">
         <f>'Preseason 2'!P45</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q6" s="128" t="e">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="128">
         <f>'Preseason 2'!Q45</f>
-        <v>#DIV/0!</v>
+        <v>3</v>
       </c>
       <c r="S6" s="5">
-        <f>AVERAGE(C5:C30)</f>
-        <v>6</v>
+        <f>SUM(C5:E40)/COUNT(C5:C40)</f>
+        <v>21.5</v>
       </c>
       <c r="T6" s="129">
         <f>AVERAGE(C5:C30)</f>
-        <v>6</v>
+        <v>13.5</v>
       </c>
       <c r="U6" s="129">
         <f>AVERAGE(D5:D30)</f>
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="V6" s="129">
         <f>AVERAGE(E5:E30)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z6" s="74" t="s">
         <v>169</v>
@@ -12136,15 +12303,15 @@
       </c>
       <c r="T7" s="6">
         <f>T6/$S$6</f>
-        <v>1</v>
+        <v>0.62790697674418605</v>
       </c>
       <c r="U7" s="6">
         <f>U6/$S$6</f>
-        <v>0.41666666666666669</v>
+        <v>0.32558139534883723</v>
       </c>
       <c r="V7" s="6">
         <f>V6/$S$6</f>
-        <v>0</v>
+        <v>4.6511627906976744E-2</v>
       </c>
       <c r="Z7" s="21" t="s">
         <v>84</v>
@@ -12347,19 +12514,19 @@
       </c>
       <c r="AA10" s="69">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AB10" s="70">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Points]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="AC10" s="71">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AD10" s="72">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Finishes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="AE10" s="71">
         <f t="shared" si="2"/>
@@ -12552,19 +12719,19 @@
       </c>
       <c r="AA13" s="69">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB13" s="70">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Points]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AC13" s="71">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD13" s="72">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Finishes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AE13" s="71">
         <f t="shared" si="2"/>
@@ -12724,7 +12891,7 @@
       </c>
       <c r="AJ15" s="73">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK15" s="67"/>
       <c r="AL15" s="67"/>
@@ -12824,27 +12991,27 @@
       </c>
       <c r="AA17" s="69">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AB17" s="70">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Points]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AC17" s="71">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD17" s="72">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Finishes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AE17" s="71">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AF17" s="72">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Midranges]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="AG17" s="71">
         <f t="shared" si="3"/>
@@ -12892,11 +13059,11 @@
       </c>
       <c r="AA18" s="69">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB18" s="70">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Points]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC18" s="71">
         <f t="shared" si="1"/>
@@ -12916,11 +13083,11 @@
       </c>
       <c r="AG18" s="71">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH18" s="72">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Threes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AI18" s="68" t="str">
         <f>SfW!C13</f>
@@ -13027,19 +13194,19 @@
       </c>
       <c r="AA20" s="69">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AB20" s="70">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Points]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC20" s="71">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD20" s="125">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Finishes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE20" s="71">
         <f t="shared" si="2"/>
@@ -13058,7 +13225,7 @@
         <v>0.5</v>
       </c>
       <c r="AI20" s="122" t="str">
-        <f>SfW!C14</f>
+        <f>SfW!C15</f>
         <v>5 Musketeers</v>
       </c>
       <c r="AJ20" s="73">
@@ -13095,38 +13262,38 @@
       </c>
       <c r="AA21" s="69">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AB21" s="70">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Points]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="AC21" s="71">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD21" s="125">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Finishes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE21" s="71">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF21" s="125">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Midranges]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AG21" s="71">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH21" s="125">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Threes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AI21" s="122" t="str">
-        <f>SfW!C15</f>
+        <f>SfW!C16</f>
         <v>Loose Gooses</v>
       </c>
       <c r="AJ21" s="73">
@@ -13163,38 +13330,38 @@
       </c>
       <c r="AA22" s="69">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AB22" s="70">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Points]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AC22" s="71">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD22" s="125">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Finishes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AE22" s="71">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF22" s="125">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Midranges]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AG22" s="71">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH22" s="125">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Threes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AI22" s="122" t="str">
-        <f>SfW!C16</f>
+        <f>SfW!C17</f>
         <v>Loose Gooses</v>
       </c>
       <c r="AJ22" s="73">
@@ -13262,7 +13429,7 @@
         <v>0</v>
       </c>
       <c r="AI23" s="123" t="str">
-        <f>SfW!C17</f>
+        <f>SfW!C18</f>
         <v>Wet Willies</v>
       </c>
       <c r="AJ23" s="73">
@@ -13329,7 +13496,7 @@
         <v>0</v>
       </c>
       <c r="AI24" s="68" t="str">
-        <f>SfW!C18</f>
+        <f>SfW!C19</f>
         <v>5 Musketeers</v>
       </c>
       <c r="AJ24" s="73">
@@ -13690,11 +13857,11 @@
       </c>
       <c r="AA31" s="32">
         <f>'Preseason 1'!R5+'Preseason 2'!R5</f>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AB31" s="32">
         <f>'Preseason 1'!S5+'Preseason 2'!S5</f>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AC31" s="32">
         <f>'Preseason 1'!T5+'Preseason 2'!T5</f>
@@ -13706,11 +13873,11 @@
       </c>
       <c r="AE31" s="34">
         <f t="shared" si="9"/>
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="AF31" s="35">
         <f t="shared" si="10"/>
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="AG31" s="34">
         <f t="shared" si="11"/>
@@ -13909,11 +14076,11 @@
       </c>
       <c r="AA34" s="32">
         <f>'Preseason 1'!R8+'Preseason 2'!R8</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB34" s="32">
         <f>'Preseason 1'!S8+'Preseason 2'!S8</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC34" s="32">
         <f>'Preseason 1'!T8+'Preseason 2'!T8</f>
@@ -13925,11 +14092,11 @@
       </c>
       <c r="AE34" s="34">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AF34" s="35">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AG34" s="34">
         <f t="shared" si="11"/>
@@ -14086,7 +14253,7 @@
         <v>0</v>
       </c>
       <c r="AI36" s="36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ36" s="36"/>
       <c r="AK36" s="49" t="s">
@@ -14194,15 +14361,15 @@
       </c>
       <c r="AA38" s="32">
         <f>'Preseason 1'!R12+'Preseason 2'!R12</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AB38" s="32">
         <f>'Preseason 1'!S12+'Preseason 2'!S12</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC38" s="32">
         <f>'Preseason 1'!T12+'Preseason 2'!T12</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AD38" s="32">
         <f>'Preseason 1'!U12+'Preseason 2'!U12</f>
@@ -14210,15 +14377,15 @@
       </c>
       <c r="AE38" s="34">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AF38" s="35">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AG38" s="34">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="AH38" s="35">
         <f t="shared" si="12"/>
@@ -14264,7 +14431,7 @@
       </c>
       <c r="AA39" s="32">
         <f>'Preseason 1'!R13+'Preseason 2'!R13</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB39" s="32">
         <f>'Preseason 1'!S13+'Preseason 2'!S13</f>
@@ -14276,11 +14443,11 @@
       </c>
       <c r="AD39" s="32">
         <f>'Preseason 1'!U13+'Preseason 2'!U13</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE39" s="34">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF39" s="35">
         <f t="shared" si="10"/>
@@ -14292,7 +14459,7 @@
       </c>
       <c r="AH39" s="35">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AI39" s="36">
         <f>COUNTIF(Template!V13, "TRUE")</f>
@@ -14388,9 +14555,9 @@
       <c r="S41" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="T41" t="e">
+      <c r="T41">
         <f>'Statistics LG'!J3</f>
-        <v>#DIV/0!</v>
+        <v>4</v>
       </c>
       <c r="V41" s="28"/>
       <c r="Z41" s="36" t="s">
@@ -14398,11 +14565,11 @@
       </c>
       <c r="AA41" s="32">
         <f>'Preseason 1'!R15+'Preseason 2'!R15</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AB41" s="32">
         <f>'Preseason 1'!S15+'Preseason 2'!S15</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC41" s="32">
         <f>'Preseason 1'!T15+'Preseason 2'!T15</f>
@@ -14414,11 +14581,11 @@
       </c>
       <c r="AE41" s="34">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF41" s="35">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG41" s="34">
         <f t="shared" si="15"/>
@@ -14450,9 +14617,9 @@
       <c r="S42" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="T42" t="e">
+      <c r="T42">
         <f>'Statistics WW'!J4</f>
-        <v>#DIV/0!</v>
+        <v>2</v>
       </c>
       <c r="V42" s="28"/>
       <c r="Z42" s="36" t="s">
@@ -14460,35 +14627,35 @@
       </c>
       <c r="AA42" s="32">
         <f>'Preseason 1'!R16+'Preseason 2'!R16</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AB42" s="32">
         <f>'Preseason 1'!S16+'Preseason 2'!S16</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC42" s="32">
         <f>'Preseason 1'!T16+'Preseason 2'!T16</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD42" s="32">
         <f>'Preseason 1'!U16+'Preseason 2'!U16</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE42" s="34">
         <f t="shared" si="13"/>
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="AF42" s="35">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG42" s="34">
         <f t="shared" si="15"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AH42" s="35">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AI42" s="36">
         <f>COUNTIF(Template!V16, "TRUE")</f>
@@ -14512,9 +14679,9 @@
       <c r="S43" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="T43" t="e">
+      <c r="T43">
         <f>'Statistics 5M'!J4</f>
-        <v>#DIV/0!</v>
+        <v>6</v>
       </c>
       <c r="V43" s="28"/>
       <c r="Z43" s="36" t="s">
@@ -14522,35 +14689,35 @@
       </c>
       <c r="AA43" s="32">
         <f>'Preseason 1'!R17+'Preseason 2'!R17</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AB43" s="32">
         <f>'Preseason 1'!S17+'Preseason 2'!S17</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AC43" s="32">
         <f>'Preseason 1'!T17+'Preseason 2'!T17</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD43" s="32">
         <f>'Preseason 1'!U17+'Preseason 2'!U17</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE43" s="34">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AF43" s="35">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AG43" s="34">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AH43" s="35">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AI43" s="36">
         <f>COUNTIF(Template!V17, "TRUE")</f>
@@ -14697,15 +14864,15 @@
       </c>
       <c r="U46" s="19">
         <f>SUM(Table1[Finishes])</f>
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="V46" s="18">
         <f>U46/AA6</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="W46" s="28">
         <f>U46/SUM($U$46:$U$48)</f>
-        <v>0.35294117647058826</v>
+        <v>0.51162790697674421</v>
       </c>
       <c r="Z46" s="36"/>
       <c r="AA46" s="35"/>
@@ -14735,15 +14902,15 @@
       </c>
       <c r="U47" s="19">
         <f>SUM(Table1[Midranges])</f>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="V47" s="18">
         <f>U47/AA6</f>
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="W47" s="28">
         <f>U47/SUM($U$46:$U$48)</f>
-        <v>0.41176470588235292</v>
+        <v>0.32558139534883723</v>
       </c>
       <c r="Z47" s="49" t="s">
         <v>126</v>
@@ -14781,15 +14948,15 @@
       </c>
       <c r="U48" s="19">
         <f>SUM(Table1[Threes])</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="V48" s="18">
         <f>U48/AA6</f>
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="W48" s="28">
         <f>U48/SUM($U$46:$U$48)</f>
-        <v>0.23529411764705882</v>
+        <v>0.16279069767441862</v>
       </c>
       <c r="Z48" s="29" t="s">
         <v>84</v>
@@ -14982,15 +15149,15 @@
       </c>
       <c r="U53" s="39">
         <f>'Statistics LG'!L42</f>
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="V53" s="39">
         <f>'Statistics LG'!O42</f>
-        <v>0.33333333333333331</v>
+        <v>0.38095238095238093</v>
       </c>
       <c r="W53" s="39">
         <f>AVERAGE(U53:V53)</f>
-        <v>0.66666666666666663</v>
+        <v>0.61904761904761907</v>
       </c>
       <c r="Z53" s="49" t="s">
         <v>57</v>
@@ -15024,7 +15191,7 @@
       </c>
       <c r="T54" s="39">
         <f>1-'Statistics LG'!L42</f>
-        <v>0</v>
+        <v>0.1428571428571429</v>
       </c>
       <c r="U54" s="42" t="s">
         <v>131</v>
@@ -15035,7 +15202,7 @@
       </c>
       <c r="W54" s="39">
         <f>AVERAGE(T54:V54)</f>
-        <v>0</v>
+        <v>7.1428571428571452E-2</v>
       </c>
       <c r="Z54" s="49" t="s">
         <v>60</v>
@@ -15069,7 +15236,7 @@
       </c>
       <c r="T55" s="39">
         <f>1-V53</f>
-        <v>0.66666666666666674</v>
+        <v>0.61904761904761907</v>
       </c>
       <c r="U55" s="39">
         <f>1-V54</f>
@@ -15080,7 +15247,7 @@
       </c>
       <c r="W55" s="39">
         <f>AVERAGE(T55:V55)</f>
-        <v>0.83333333333333337</v>
+        <v>0.80952380952380953</v>
       </c>
       <c r="Z55" s="36" t="s">
         <v>93</v>
@@ -15759,17 +15926,17 @@
         <f>'Statistics LG'!A5</f>
         <v>12-July</v>
       </c>
-      <c r="T77" t="e">
+      <c r="T77">
         <f>T76+'Statistics LG'!D5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U77" t="e">
+        <v>4</v>
+      </c>
+      <c r="U77">
         <f>U76+'Statistics WW'!D5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V77" t="e">
+        <v>2</v>
+      </c>
+      <c r="V77">
         <f>V76+'Statistics 5M'!D5</f>
-        <v>#DIV/0!</v>
+        <v>6</v>
       </c>
       <c r="Z77" s="49" t="s">
         <v>66</v>
@@ -15805,17 +15972,17 @@
         <f>'Statistics LG'!A6</f>
         <v>0</v>
       </c>
-      <c r="T78" s="17" t="e">
+      <c r="T78" s="17">
         <f>T77+'Statistics LG'!D6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U78" s="17" t="e">
+        <v>4</v>
+      </c>
+      <c r="U78" s="17">
         <f>U77+'Statistics WW'!D6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V78" s="17" t="e">
+        <v>2</v>
+      </c>
+      <c r="V78" s="17">
         <f>V77+'Statistics 5M'!D6</f>
-        <v>#DIV/0!</v>
+        <v>6</v>
       </c>
       <c r="Z78" s="49" t="s">
         <v>68</v>
@@ -15851,17 +16018,17 @@
         <f>'Statistics LG'!A7</f>
         <v>0</v>
       </c>
-      <c r="T79" s="17" t="e">
+      <c r="T79" s="17">
         <f>T78+'Statistics LG'!D7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U79" s="17" t="e">
+        <v>4</v>
+      </c>
+      <c r="U79" s="17">
         <f>U78+'Statistics WW'!D7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V79" s="17" t="e">
+        <v>2</v>
+      </c>
+      <c r="V79" s="17">
         <f>V78+'Statistics 5M'!D7</f>
-        <v>#DIV/0!</v>
+        <v>6</v>
       </c>
       <c r="Z79" s="49" t="s">
         <v>69</v>
@@ -15897,17 +16064,17 @@
         <f>'Statistics LG'!A8</f>
         <v>0</v>
       </c>
-      <c r="T80" s="17" t="e">
+      <c r="T80" s="17">
         <f>T79+'Statistics LG'!D8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U80" s="17" t="e">
+        <v>4</v>
+      </c>
+      <c r="U80" s="17">
         <f>U79+'Statistics WW'!D8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V80" s="17" t="e">
+        <v>2</v>
+      </c>
+      <c r="V80" s="17">
         <f>V79+'Statistics 5M'!D8</f>
-        <v>#DIV/0!</v>
+        <v>6</v>
       </c>
       <c r="Z80" s="36" t="s">
         <v>203</v>
@@ -15943,17 +16110,17 @@
         <f>'Statistics LG'!A9</f>
         <v>0</v>
       </c>
-      <c r="T81" s="17" t="e">
+      <c r="T81" s="17">
         <f>T80+'Statistics LG'!D9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U81" s="17" t="e">
+        <v>4</v>
+      </c>
+      <c r="U81" s="17">
         <f>U80+'Statistics WW'!D9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V81" s="17" t="e">
+        <v>2</v>
+      </c>
+      <c r="V81" s="17">
         <f>V80+'Statistics 5M'!D9</f>
-        <v>#DIV/0!</v>
+        <v>6</v>
       </c>
       <c r="Z81" s="36" t="s">
         <v>128</v>
@@ -15989,17 +16156,17 @@
         <f>'Statistics LG'!A10</f>
         <v>0</v>
       </c>
-      <c r="T82" s="17" t="e">
+      <c r="T82" s="17">
         <f>T81+'Statistics LG'!D10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U82" s="17" t="e">
+        <v>4</v>
+      </c>
+      <c r="U82" s="17">
         <f>U81+'Statistics WW'!D10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V82" s="17" t="e">
+        <v>2</v>
+      </c>
+      <c r="V82" s="17">
         <f>V81+'Statistics 5M'!D10</f>
-        <v>#DIV/0!</v>
+        <v>6</v>
       </c>
       <c r="Z82" s="36" t="s">
         <v>127</v>
@@ -16035,17 +16202,17 @@
         <f>'Statistics LG'!A11</f>
         <v>0</v>
       </c>
-      <c r="T83" s="17" t="e">
+      <c r="T83" s="17">
         <f>T82+'Statistics LG'!D11</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U83" s="17" t="e">
+        <v>4</v>
+      </c>
+      <c r="U83" s="17">
         <f>U82+'Statistics WW'!D11</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V83" s="17" t="e">
+        <v>2</v>
+      </c>
+      <c r="V83" s="17">
         <f>V82+'Statistics 5M'!D11</f>
-        <v>#DIV/0!</v>
+        <v>6</v>
       </c>
       <c r="Z83" s="36" t="s">
         <v>73</v>
@@ -16081,17 +16248,17 @@
         <f>'Statistics LG'!A12</f>
         <v>0</v>
       </c>
-      <c r="T84" s="17" t="e">
+      <c r="T84" s="17">
         <f>T83+'Statistics LG'!D12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U84" s="17" t="e">
+        <v>4</v>
+      </c>
+      <c r="U84" s="17">
         <f>U83+'Statistics WW'!D12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V84" s="17" t="e">
+        <v>2</v>
+      </c>
+      <c r="V84" s="17">
         <f>V83+'Statistics 5M'!D12</f>
-        <v>#DIV/0!</v>
+        <v>6</v>
       </c>
       <c r="Z84" s="36" t="s">
         <v>74</v>
@@ -16127,17 +16294,17 @@
         <f>'Statistics LG'!A13</f>
         <v>0</v>
       </c>
-      <c r="T85" s="17" t="e">
+      <c r="T85" s="17">
         <f>T84+'Statistics LG'!D13</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U85" s="17" t="e">
+        <v>4</v>
+      </c>
+      <c r="U85" s="17">
         <f>U84+'Statistics WW'!D13</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V85" s="17" t="e">
+        <v>2</v>
+      </c>
+      <c r="V85" s="17">
         <f>V84+'Statistics 5M'!D13</f>
-        <v>#DIV/0!</v>
+        <v>6</v>
       </c>
       <c r="Z85" s="49" t="s">
         <v>75</v>
@@ -16173,17 +16340,17 @@
         <f>'Statistics LG'!A14</f>
         <v>0</v>
       </c>
-      <c r="T86" s="17" t="e">
+      <c r="T86" s="17">
         <f>T85+'Statistics LG'!D14</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U86" s="17" t="e">
+        <v>4</v>
+      </c>
+      <c r="U86" s="17">
         <f>U85+'Statistics WW'!D14</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V86" s="17" t="e">
+        <v>2</v>
+      </c>
+      <c r="V86" s="17">
         <f>V85+'Statistics 5M'!D14</f>
-        <v>#DIV/0!</v>
+        <v>6</v>
       </c>
       <c r="Z86" s="68"/>
       <c r="AA86" s="32"/>
@@ -16215,17 +16382,17 @@
         <f>'Statistics LG'!A15</f>
         <v>0</v>
       </c>
-      <c r="T87" s="17" t="e">
+      <c r="T87" s="17">
         <f>T86+'Statistics LG'!D15</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U87" s="17" t="e">
+        <v>4</v>
+      </c>
+      <c r="U87" s="17">
         <f>U86+'Statistics WW'!D15</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V87" s="17" t="e">
+        <v>2</v>
+      </c>
+      <c r="V87" s="17">
         <f>V86+'Statistics 5M'!D15</f>
-        <v>#DIV/0!</v>
+        <v>6</v>
       </c>
       <c r="Z87" s="49" t="s">
         <v>168</v>
@@ -16265,17 +16432,17 @@
         <f>'Statistics LG'!A16</f>
         <v>0</v>
       </c>
-      <c r="T88" s="17" t="e">
+      <c r="T88" s="17">
         <f>T87+'Statistics LG'!D16</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U88" s="17" t="e">
+        <v>4</v>
+      </c>
+      <c r="U88" s="17">
         <f>U87+'Statistics WW'!D16</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V88" s="17" t="e">
+        <v>2</v>
+      </c>
+      <c r="V88" s="17">
         <f>V87+'Statistics 5M'!D16</f>
-        <v>#DIV/0!</v>
+        <v>6</v>
       </c>
       <c r="Z88" s="29" t="s">
         <v>84</v>
@@ -16347,17 +16514,17 @@
         <f>'Statistics LG'!A17</f>
         <v>0</v>
       </c>
-      <c r="T89" s="17" t="e">
+      <c r="T89" s="17">
         <f>T88+'Statistics LG'!D17</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U89" s="17" t="e">
+        <v>4</v>
+      </c>
+      <c r="U89" s="17">
         <f>U88+'Statistics WW'!D17</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V89" s="17" t="e">
+        <v>2</v>
+      </c>
+      <c r="V89" s="17">
         <f>V88+'Statistics 5M'!D17</f>
-        <v>#DIV/0!</v>
+        <v>6</v>
       </c>
       <c r="Z89" s="49" t="s">
         <v>45</v>
@@ -16393,17 +16560,17 @@
         <f>'Statistics LG'!A18</f>
         <v>0</v>
       </c>
-      <c r="T90" s="17" t="e">
+      <c r="T90" s="17">
         <f>T89+'Statistics LG'!D18</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U90" s="17" t="e">
+        <v>4</v>
+      </c>
+      <c r="U90" s="17">
         <f>U89+'Statistics WW'!D18</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V90" s="17" t="e">
+        <v>2</v>
+      </c>
+      <c r="V90" s="17">
         <f>V89+'Statistics 5M'!D18</f>
-        <v>#DIV/0!</v>
+        <v>6</v>
       </c>
       <c r="Z90" s="49" t="s">
         <v>49</v>
@@ -17996,30 +18163,30 @@
     <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
-  <phoneticPr fontId="21" type="noConversion"/>
+  <phoneticPr fontId="22" type="noConversion"/>
   <conditionalFormatting sqref="AO11:AO23">
-    <cfRule type="cellIs" dxfId="153" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="11" operator="lessThan">
       <formula>$AO$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="12" operator="greaterThan">
       <formula>$AO$6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM8:AM23">
-    <cfRule type="cellIs" dxfId="151" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U109:U118 W103:W108">
-    <cfRule type="cellIs" dxfId="149" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U109:U118 W103:W108">
-    <cfRule type="cellIs" dxfId="148" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18045,8 +18212,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AD1000"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M48" sqref="M48"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43:I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -18118,15 +18285,15 @@
       </c>
       <c r="H3" s="86">
         <f>SUM(B4:B40)</f>
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="I3" s="86">
         <f>SUM(C4:C40)</f>
-        <v>6</v>
-      </c>
-      <c r="J3" s="83" t="e">
+        <v>14</v>
+      </c>
+      <c r="J3" s="83">
         <f>SUM(D4:D40)</f>
-        <v>#DIV/0!</v>
+        <v>4</v>
       </c>
       <c r="L3" s="86" t="s">
         <v>88</v>
@@ -18219,35 +18386,35 @@
       </c>
       <c r="S4" s="103">
         <f>'Stats Global'!AA22</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="T4" s="103">
         <f>'Stats Global'!AB22</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U4" s="103">
         <f>'Stats Global'!AC22</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V4" s="103">
         <f>'Stats Global'!AD22</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="W4" s="103">
         <f>'Stats Global'!AE22</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X4" s="103">
         <f>'Stats Global'!AF22</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Y4" s="103">
         <f>'Stats Global'!AG22</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z4" s="103">
         <f>'Stats Global'!AH22</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AA4" s="103">
         <f>'Stats Global'!AJ22</f>
@@ -18261,36 +18428,40 @@
       </c>
       <c r="B5" s="88">
         <f>'Stats Global'!F6</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C5" s="88">
         <f>'Stats Global'!G6+'Stats Global'!H6</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="88" t="e">
+        <v>8</v>
+      </c>
+      <c r="D5" s="88">
         <f>'Stats Global'!O6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
+        <v>2</v>
+      </c>
+      <c r="E5" s="85" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="85" t="s">
+        <v>212</v>
+      </c>
       <c r="I5" s="86"/>
       <c r="J5" s="89"/>
       <c r="L5" s="90">
         <f>'Stats Global'!J6</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M5" s="90">
         <f>'Stats Global'!G6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" s="91"/>
       <c r="O5" s="90">
         <f>'Stats Global'!M6</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P5" s="90">
         <f>'Stats Global'!H6</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="R5" s="89" t="s">
         <v>46</v>
@@ -18375,35 +18546,35 @@
       </c>
       <c r="S6" s="103">
         <f>'Stats Global'!AA21</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T6" s="103">
         <f>'Stats Global'!AB21</f>
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="U6" s="103">
         <f>'Stats Global'!AC21</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V6" s="103">
         <f>'Stats Global'!AD21</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W6" s="103">
         <f>'Stats Global'!AE21</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X6" s="103">
         <f>'Stats Global'!AF21</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Y6" s="103">
         <f>'Stats Global'!AG21</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z6" s="103">
         <f>'Stats Global'!AH21</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AA6" s="103">
         <f>'Stats Global'!AJ21</f>
@@ -19837,36 +20008,36 @@
       </c>
       <c r="L41" s="107">
         <f>SUM(L4:L40)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M41" s="107">
         <f>SUM(M4:M40)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N41" s="89"/>
       <c r="O41" s="107">
         <f>SUM(O4:O40)</f>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="P41" s="107">
         <f>SUM(P4:P40)</f>
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="L42" s="98">
         <f>L41/(M41+L41)</f>
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="O42" s="98">
         <f>O41/(P41+O41)</f>
-        <v>0.33333333333333331</v>
+        <v>0.38095238095238093</v>
       </c>
     </row>
     <row r="43" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I43" s="99" t="str">
         <f>K43&amp;H3&amp;","&amp;I3&amp;"],"</f>
-        <v>"PartA":[5,6],</v>
+        <v>"PartA":[14,14],</v>
       </c>
       <c r="K43" s="81" t="s">
         <v>135</v>
@@ -19875,71 +20046,71 @@
         <v>139</v>
       </c>
       <c r="O43" s="100">
-        <f>ROUND(SUM('Stats Global'!AA8,'Stats Global'!AA9,'Stats Global'!AA16,'Stats Global'!AA21,'Stats Global'!AA22),1)</f>
-        <v>6</v>
+        <f>ROUND((SUM('Stats Global'!AA8,'Stats Global'!AA9,'Stats Global'!AA16,'Stats Global'!AA21,'Stats Global'!AA22))/'Stats Global'!AA6,1)</f>
+        <v>8.5</v>
       </c>
     </row>
     <row r="44" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I44" s="81" t="str">
         <f>K44&amp;M44&amp;","&amp;CHAR(34)&amp;N44&amp;CHAR(34)&amp;","&amp;M45&amp;","&amp;CHAR(34)&amp;N45&amp;CHAR(34)&amp;","&amp;M46&amp;","&amp;CHAR(34)&amp;N46&amp;CHAR(34)&amp;","&amp;M47&amp;","&amp;CHAR(34)&amp;N47&amp;CHAR(34)&amp;"],"</f>
-        <v>"PartB":[3,"William Kim",1,"William Kim",1,"Christopher Tomkinson",1,"William Kim"],</v>
+        <v>"PartB":[6,"Angus Walker",3,"Angus Walker",2,"Christopher Tomkinson",1,"Angus Walker"],</v>
       </c>
       <c r="K44" s="81" t="s">
         <v>136</v>
       </c>
       <c r="M44" s="101">
         <f>MAX(Table1114[Points])</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N44" s="81" t="str">
         <f>IF(M44&lt;&gt;0,IF(M44=S4,R4,IF(M44=S5,R5,IF(S6=M44,R6,IF(S7=M44,R7,R8)))),"N/A")</f>
-        <v>William Kim</v>
+        <v>Angus Walker</v>
       </c>
       <c r="O44" s="100">
-        <f>ROUND(SUM('Stats Global'!AC8,'Stats Global'!AC9,'Stats Global'!AC16,'Stats Global'!AC21,'Stats Global'!AC22),1)</f>
-        <v>2</v>
+        <f>ROUND(SUM('Stats Global'!AC8,'Stats Global'!AC9,'Stats Global'!AC16,'Stats Global'!AC21,'Stats Global'!AC22)/'Stats Global'!AA6,1)</f>
+        <v>3.5</v>
       </c>
     </row>
     <row r="45" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I45" s="81" t="str">
         <f>K45&amp;O43&amp;","&amp;O44&amp;","&amp;O45&amp;","&amp;O46&amp;","&amp;O47&amp;","&amp;O48&amp;"],"</f>
-        <v>"PartC":[6,2,2,1,2.5,3],</v>
+        <v>"PartC":[8.5,3.5,2,1.5,7,7],</v>
       </c>
       <c r="K45" s="81" t="s">
         <v>137</v>
       </c>
       <c r="M45" s="101">
         <f>MAX(Table1114[Finishes])</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N45" s="108" t="str">
         <f>IF(M45&lt;&gt;0,IF(M45=U4,R4,IF(M45=U5,R5,IF(U6=M45,R6,IF(U7=M45,R7,R8)))),"N/A")</f>
-        <v>William Kim</v>
+        <v>Angus Walker</v>
       </c>
       <c r="O45" s="100">
-        <f>ROUND(SUM('Stats Global'!AE8,'Stats Global'!AE9,'Stats Global'!AE16,'Stats Global'!AE21,'Stats Global'!AE22),1)</f>
+        <f>ROUND(SUM('Stats Global'!AE8,'Stats Global'!AE9,'Stats Global'!AE16,'Stats Global'!AE21,'Stats Global'!AE22)/'Stats Global'!AA6,1)</f>
         <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I46" s="81" t="str">
         <f>K46&amp;L41&amp;","&amp;M41&amp;","&amp;ROUND(L42*100,1)&amp;","&amp;O41&amp;","&amp;P41&amp;","&amp;ROUND(O42*100,1)&amp;"],"</f>
-        <v>"PartD":[2,0,100,3,6,33.3],</v>
+        <v>"PartD":[6,1,85.7,8,13,38.1],</v>
       </c>
       <c r="K46" s="81" t="s">
         <v>138</v>
       </c>
       <c r="M46" s="101">
         <f>MAX(Table1114[Midranges])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N46" s="108" t="str">
         <f>IF(M46&lt;&gt;0,IF(M46=W4,R4,IF(M46=W5,R5,IF(W6=M46,R6,IF(W7=M46,R7,R8)))),"N/A")</f>
         <v>Christopher Tomkinson</v>
       </c>
       <c r="O46" s="100">
-        <f>ROUND(SUM('Stats Global'!AG8,'Stats Global'!AG9,'Stats Global'!AG16,'Stats Global'!AG21,'Stats Global'!AG22),1)</f>
-        <v>1</v>
+        <f>ROUND(SUM('Stats Global'!AG8,'Stats Global'!AG9,'Stats Global'!AG16,'Stats Global'!AG21,'Stats Global'!AG22)/'Stats Global'!AA6,1)</f>
+        <v>1.5</v>
       </c>
     </row>
     <row r="47" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -19949,17 +20120,17 @@
       </c>
       <c r="N47" s="81" t="str">
         <f>IF(M47&lt;&gt;0,IF(M47=Y4,R4,IF(M47=Y5,R5,IF(Y6=M47,R6,IF(Y7=M47,R7,R8)))),"N/A")</f>
-        <v>William Kim</v>
+        <v>Angus Walker</v>
       </c>
       <c r="O47" s="81">
         <f>ROUND(H3/'Stats Global'!AA6,1)</f>
-        <v>2.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="O48" s="81">
         <f>ROUND(I3/'Stats Global'!AA6,1)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -20929,7 +21100,7 @@
   <dimension ref="A1:X1000"/>
   <sheetViews>
     <sheetView zoomScale="76" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+      <selection activeCell="J43" sqref="J43:J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -21044,15 +21215,15 @@
       </c>
       <c r="H4" s="86">
         <f>SUM(B4:B40)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" s="86">
         <f>SUM(C4:C40)</f>
-        <v>8</v>
-      </c>
-      <c r="J4" s="83" t="e">
+        <v>20</v>
+      </c>
+      <c r="J4" s="83">
         <f>SUM(D4:D40)</f>
-        <v>#DIV/0!</v>
+        <v>2</v>
       </c>
       <c r="L4" s="90">
         <f>'Stats Global'!N5</f>
@@ -21110,18 +21281,22 @@
       </c>
       <c r="B5" s="88">
         <f>'Stats Global'!I6</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C5" s="88">
         <f>'Stats Global'!J6+'Stats Global'!K6</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="88" t="e">
+        <v>12</v>
+      </c>
+      <c r="D5" s="88">
         <f>'Stats Global'!P6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
+        <v>1</v>
+      </c>
+      <c r="E5" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="85" t="s">
+        <v>52</v>
+      </c>
       <c r="J5" s="89"/>
       <c r="L5" s="90">
         <f>'Stats Global'!N6</f>
@@ -21129,7 +21304,7 @@
       </c>
       <c r="M5" s="90">
         <f>'Stats Global'!K6</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N5" s="91"/>
       <c r="O5" s="89" t="s">
@@ -21207,19 +21382,19 @@
       </c>
       <c r="P6" s="103">
         <f>'Stats Global'!AA13</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="103">
         <f>'Stats Global'!AB13</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R6" s="103">
         <f>'Stats Global'!AC13</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6" s="103">
         <f>'Stats Global'!AD13</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="T6" s="103">
         <f>'Stats Global'!AE13</f>
@@ -21277,11 +21452,11 @@
       </c>
       <c r="P7" s="103">
         <f>'Stats Global'!AA18</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q7" s="103">
         <f>'Stats Global'!AB18</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" s="103">
         <f>'Stats Global'!AC18</f>
@@ -21301,11 +21476,11 @@
       </c>
       <c r="V7" s="103">
         <f>'Stats Global'!AG18</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W7" s="103">
         <f>'Stats Global'!AH18</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="X7" s="103">
         <f>'Stats Global'!AJ18</f>
@@ -21449,7 +21624,7 @@
       </c>
       <c r="X9" s="127">
         <f>'Stats Global'!AJ15</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -22499,7 +22674,7 @@
       </c>
       <c r="M41" s="107">
         <f>SUM(M4:M40)</f>
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="N41" s="89"/>
       <c r="O41" s="89"/>
@@ -22515,7 +22690,7 @@
     <row r="43" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="J43" s="99" t="str">
         <f>L43&amp;H4&amp;","&amp;I4&amp;"],"</f>
-        <v>"PartA":[0,8],</v>
+        <v>"PartA":[2,20],</v>
       </c>
       <c r="K43" s="86"/>
       <c r="L43" s="81" t="s">
@@ -22525,56 +22700,56 @@
         <v>139</v>
       </c>
       <c r="P43" s="100">
-        <f>ROUND(SUM('Stats Global'!AA11,'Stats Global'!AA12,'Stats Global'!AA13,'Stats Global'!AA15,'Stats Global'!AA19,'Stats Global'!AA18,'Stats Global'!AA23),1)</f>
-        <v>0</v>
+        <f>ROUND(SUM('Stats Global'!AA11,'Stats Global'!AA12,'Stats Global'!AA13,'Stats Global'!AA15,'Stats Global'!AA19,'Stats Global'!AA18,'Stats Global'!AA23)/'Stats Global'!AA6,1)</f>
+        <v>1.5</v>
       </c>
     </row>
     <row r="44" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="J44" s="81" t="str">
         <f>L44&amp;N44&amp;","&amp;CHAR(34)&amp;O44&amp;CHAR(34)&amp;","&amp;N45&amp;","&amp;CHAR(34)&amp;O45&amp;CHAR(34)&amp;","&amp;N46&amp;","&amp;CHAR(34)&amp;O46&amp;CHAR(34)&amp;","&amp;N47&amp;","&amp;CHAR(34)&amp;O47&amp;CHAR(34)&amp;"],"</f>
-        <v>"PartB":[0,"N/A",0,"N/A",0,"N/A",0,"N/A"],</v>
+        <v>"PartB":[2,"Ryan Pattemore",1,"Lukas Johnston",0,"N/A",1,"Ryan Pattemore"],</v>
       </c>
       <c r="L44" s="81" t="s">
         <v>136</v>
       </c>
       <c r="N44" s="101">
         <f>MAX(Table1113[Points])</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O44" s="81" t="str">
         <f>IF(N44&lt;&gt;0,IF(N44=P4,O4,IF(N44=P5,O5,IF(P6=N44,O6,IF(P7=N44,O7,IF(P8=N44,O8,IF(P9=N44,O9,O10)))))),"N/A")</f>
-        <v>N/A</v>
+        <v>Ryan Pattemore</v>
       </c>
       <c r="P44" s="100">
-        <f>ROUND(SUM('Stats Global'!AC11,'Stats Global'!AC12,'Stats Global'!AC13,'Stats Global'!AC15,'Stats Global'!AC19,'Stats Global'!AC18,'Stats Global'!AC23),1)</f>
-        <v>0</v>
+        <f>ROUND(SUM('Stats Global'!AC11,'Stats Global'!AC12,'Stats Global'!AC13,'Stats Global'!AC15,'Stats Global'!AC19,'Stats Global'!AC18,'Stats Global'!AC23)/'Stats Global'!AA6,1)</f>
+        <v>0.5</v>
       </c>
     </row>
     <row r="45" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="J45" s="81" t="str">
         <f>L45&amp;P43&amp;","&amp;P44&amp;","&amp;P45&amp;","&amp;P46&amp;","&amp;P47&amp;","&amp;P48&amp;"],"</f>
-        <v>"PartC":[0,0,0,0,0,4],</v>
+        <v>"PartC":[1.5,0.5,0,0.5,1,10],</v>
       </c>
       <c r="L45" s="81" t="s">
         <v>137</v>
       </c>
       <c r="N45" s="101">
         <f>MAX(Table1113[Finishes])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O45" s="81" t="str">
         <f>IF(N45&lt;&gt;0,IF(N45=R4,O4,IF(N45=R5,O5,IF(R6=N45,O6,IF(R7=N45,O7,IF(R8=N45,O8,IF(R9=N45,O9,O10)))))),"N/A")</f>
-        <v>N/A</v>
+        <v>Lukas Johnston</v>
       </c>
       <c r="P45" s="100">
-        <f>ROUND(SUM('Stats Global'!AE11,'Stats Global'!AE12,'Stats Global'!AE13,'Stats Global'!AE15,'Stats Global'!AE19,'Stats Global'!AE18,'Stats Global'!AE23),1)</f>
+        <f>ROUND(SUM('Stats Global'!AE11,'Stats Global'!AE12,'Stats Global'!AE13,'Stats Global'!AE15,'Stats Global'!AE19,'Stats Global'!AE18,'Stats Global'!AE23)/'Stats Global'!AA6,1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="J46" s="81" t="str">
         <f>L46&amp;'Statistics LG'!M41&amp;","&amp;'Statistics LG'!L41&amp;","&amp;ROUND((1-'Statistics LG'!L42)*100,1)&amp;","&amp;L41&amp;","&amp;M41&amp;","&amp;ROUND(L42*100,1)&amp;"],"</f>
-        <v>"PartD":[0,2,0,0,6,0],</v>
+        <v>"PartD":[1,6,14.3,0,14,0],</v>
       </c>
       <c r="L46" s="81" t="s">
         <v>138</v>
@@ -22588,28 +22763,28 @@
         <v>N/A</v>
       </c>
       <c r="P46" s="100">
-        <f>ROUND(SUM('Stats Global'!AG11,'Stats Global'!AG12,'Stats Global'!AG13,'Stats Global'!AG15,'Stats Global'!AG19,'Stats Global'!AG18,'Stats Global'!AG23),1)</f>
-        <v>0</v>
+        <f>ROUND(SUM('Stats Global'!AG11,'Stats Global'!AG12,'Stats Global'!AG13,'Stats Global'!AG15,'Stats Global'!AG19,'Stats Global'!AG18,'Stats Global'!AG23)/'Stats Global'!AA6,1)</f>
+        <v>0.5</v>
       </c>
     </row>
     <row r="47" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="N47" s="101">
         <f>MAX(Table1113[Threes])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O47" s="108" t="str">
         <f>IF(N47&lt;&gt;0,IF(N47=V4,O4,IF(N47=V5,O5,IF(V6=N47,O6,IF(V7=N47,O7,IF(V8=N47,O8,IF(V9=N47,O9,O10)))))),"N/A")</f>
-        <v>N/A</v>
+        <v>Ryan Pattemore</v>
       </c>
       <c r="P47" s="81">
         <f>ROUND(H4/'Stats Global'!AA6,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P48" s="81">
         <f>ROUND(I4/'Stats Global'!AA6,1)</f>
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -23578,8 +23753,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" workbookViewId="0">
-      <selection activeCell="Q37" sqref="Q37"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32:K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -23672,15 +23847,15 @@
       </c>
       <c r="H4" s="86">
         <f>SUM(B4:B40)</f>
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I4" s="86">
         <f>SUM(C4:C40)</f>
-        <v>3</v>
-      </c>
-      <c r="J4" s="83" t="e">
+        <v>8</v>
+      </c>
+      <c r="J4" s="83">
         <f>SUM(D4:D40)</f>
-        <v>#DIV/0!</v>
+        <v>6</v>
       </c>
       <c r="K4" s="89"/>
       <c r="L4" s="109" t="s">
@@ -23724,45 +23899,49 @@
       </c>
       <c r="B5" s="88">
         <f>'Stats Global'!L6</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C5" s="88">
         <f>'Stats Global'!M6+'Stats Global'!N6</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="88" t="e">
+        <v>5</v>
+      </c>
+      <c r="D5" s="88">
         <f>'Stats Global'!Q6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
+        <v>3</v>
+      </c>
+      <c r="E5" s="85" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="85" t="s">
+        <v>50</v>
+      </c>
       <c r="K5" s="89"/>
       <c r="L5" s="89" t="s">
         <v>50</v>
       </c>
       <c r="M5" s="103">
         <f>'Stats Global'!AA17</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="N5" s="103">
         <f>'Stats Global'!AB17</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O5" s="103">
         <f>'Stats Global'!AC17</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" s="103">
         <f>'Stats Global'!AD17</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q5" s="103">
         <f>'Stats Global'!AE17</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="R5" s="103">
         <f>'Stats Global'!AF17</f>
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="S5" s="103">
         <f>'Stats Global'!AG17</f>
@@ -23807,19 +23986,19 @@
       </c>
       <c r="M6" s="103">
         <f>'Stats Global'!AA10</f>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="N6" s="103">
         <f>'Stats Global'!AB10</f>
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="O6" s="103">
         <f>'Stats Global'!AC10</f>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P6" s="103">
         <f>'Stats Global'!AD10</f>
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="Q6" s="103">
         <f>'Stats Global'!AE10</f>
@@ -23872,19 +24051,19 @@
       </c>
       <c r="M7" s="103">
         <f>'Stats Global'!AA20</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N7" s="103">
         <f>'Stats Global'!AB20</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O7" s="103">
         <f>'Stats Global'!AC20</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P7" s="103">
         <f>'Stats Global'!AD20</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="103">
         <f>'Stats Global'!AE20</f>
@@ -24784,7 +24963,7 @@
       <c r="J32" s="86"/>
       <c r="K32" s="99" t="str">
         <f>M32&amp;H4&amp;","&amp;I4&amp;"],"</f>
-        <v>"PartA":[12,3],</v>
+        <v>"PartA":[27,8],</v>
       </c>
       <c r="L32" s="86"/>
       <c r="M32" s="81" t="s">
@@ -24794,7 +24973,7 @@
         <v>139</v>
       </c>
       <c r="Q32" s="100">
-        <f>ROUND(SUM('Stats Global'!AA10,'Stats Global'!AA14,'Stats Global'!AA17,'Stats Global'!AA20,'Stats Global'!AA24),1)</f>
+        <f>ROUND(SUM('Stats Global'!AA10,'Stats Global'!AA14,'Stats Global'!AA17,'Stats Global'!AA20,'Stats Global'!AA24)/'Stats Global'!AA6,1)</f>
         <v>15</v>
       </c>
     </row>
@@ -24819,22 +24998,22 @@
       <c r="F33" s="85"/>
       <c r="K33" s="81" t="str">
         <f>M33&amp;O33&amp;","&amp;CHAR(34)&amp;P33&amp;CHAR(34)&amp;","&amp;O34&amp;","&amp;CHAR(34)&amp;P34&amp;CHAR(34)&amp;","&amp;O35&amp;","&amp;CHAR(34)&amp;P35&amp;CHAR(34)&amp;","&amp;O36&amp;","&amp;CHAR(34)&amp;P36&amp;CHAR(34)&amp;"],"</f>
-        <v>"PartB":[6,"Samuel McConaghy",3,"Alexander Galt",4,"Samuel McConaghy",1,"Samuel McConaghy"],</v>
+        <v>"PartB":[12,"Samuel McConaghy",10,"Alexander Galt",9,"Samuel McConaghy",1,"Samuel McConaghy"],</v>
       </c>
       <c r="M33" s="81" t="s">
         <v>136</v>
       </c>
       <c r="O33" s="101">
         <f>MAX(Table11[Points])</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="P33" s="81" t="str">
         <f>IF(O33&lt;&gt;0,IF(O33=M5,L5,IF(O33=M6,L6,IF(M7=O33,L7,IF(M8=O33,L8,L9)))),"N/A")</f>
         <v>Samuel McConaghy</v>
       </c>
       <c r="Q33" s="100">
-        <f>ROUND(SUM('Stats Global'!AC10,'Stats Global'!AC14,'Stats Global'!AC17,'Stats Global'!AC20,'Stats Global'!AC24),1)</f>
-        <v>4</v>
+        <f>ROUND(SUM('Stats Global'!AC10,'Stats Global'!AC14,'Stats Global'!AC17,'Stats Global'!AC20,'Stats Global'!AC24)/'Stats Global'!AA6,1)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -24858,21 +25037,21 @@
       <c r="F34" s="85"/>
       <c r="K34" s="81" t="str">
         <f>M34&amp;Q32&amp;","&amp;Q33&amp;","&amp;Q34&amp;","&amp;Q35&amp;","&amp;Q36&amp;","&amp;Q37&amp;"],"</f>
-        <v>"PartC":[15,4,5,3,6,1.5],</v>
+        <v>"PartC":[15,7,5,1.5,13.5,4],</v>
       </c>
       <c r="M34" s="81" t="s">
         <v>137</v>
       </c>
       <c r="O34" s="101">
         <f>MAX(Table11[Finishes])</f>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P34" s="81" t="str">
         <f>IF(O34&lt;&gt;0,IF(O34=O5,L5,IF(O34=O6,L6,IF(O7=O34,L7,IF(O8=O34,L8,L9)))),"N/A")</f>
         <v>Alexander Galt</v>
       </c>
       <c r="Q34" s="100">
-        <f>ROUND(SUM('Stats Global'!AE10,'Stats Global'!AE14,'Stats Global'!AE17,'Stats Global'!AE20,'Stats Global'!AE24),1)</f>
+        <f>ROUND(SUM('Stats Global'!AE10,'Stats Global'!AE14,'Stats Global'!AE17,'Stats Global'!AE20,'Stats Global'!AE24)/'Stats Global'!AA6,1)</f>
         <v>5</v>
       </c>
     </row>
@@ -24897,22 +25076,22 @@
       <c r="F35" s="85"/>
       <c r="K35" s="81" t="str">
         <f>M35&amp;'Statistics LG'!P41&amp;","&amp;'Statistics LG'!O41&amp;","&amp;ROUND((1-'Statistics LG'!O42)*100,1)&amp;","&amp;'Statistics WW'!M41&amp;","&amp;'Statistics WW'!L41&amp;","&amp;ROUND((1-'Statistics WW'!L42)*100,1)&amp;"],"</f>
-        <v>"PartD":[6,3,66.7,6,0,100],</v>
+        <v>"PartD":[13,8,61.9,14,0,100],</v>
       </c>
       <c r="M35" s="81" t="s">
         <v>138</v>
       </c>
       <c r="O35" s="101">
         <f>MAX(Table11[Midranges])</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="P35" s="81" t="str">
         <f>IF(O35&lt;&gt;0,IF(O35=Q5,L5,IF(O35=Q6,L6,IF(Q7=O35,L7,IF(Q8=O35,L8,L9)))),"N/A")</f>
         <v>Samuel McConaghy</v>
       </c>
       <c r="Q35" s="100">
-        <f>ROUND(SUM('Stats Global'!AG10,'Stats Global'!AG14,'Stats Global'!AG17,'Stats Global'!AG20,'Stats Global'!AG24),1)</f>
-        <v>3</v>
+        <f>ROUND(SUM('Stats Global'!AG10,'Stats Global'!AG14,'Stats Global'!AG17,'Stats Global'!AG20,'Stats Global'!AG24)/'Stats Global'!AA6,1)</f>
+        <v>1.5</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -24944,7 +25123,7 @@
       </c>
       <c r="Q36" s="81">
         <f>ROUND(H4/'Stats Global'!AA6,1)</f>
-        <v>6</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -24968,7 +25147,7 @@
       <c r="F37" s="85"/>
       <c r="Q37" s="81">
         <f>ROUND(I4/'Stats Global'!AA6,1)</f>
-        <v>1.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -26005,8 +26184,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="B1:AE1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43:Q45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -27667,7 +27846,7 @@
         <v>0</v>
       </c>
       <c r="D45" s="17">
-        <f>C45-E45</f>
+        <f>COUNT(B4:B42)-C45-E45</f>
         <v>0</v>
       </c>
       <c r="E45" s="17">
@@ -27675,7 +27854,7 @@
         <v>0</v>
       </c>
       <c r="F45" s="17">
-        <f>COUNT(X4:X39)</f>
+        <f>L3</f>
         <v>0</v>
       </c>
       <c r="G45" s="17">
@@ -27687,7 +27866,7 @@
         <v>0</v>
       </c>
       <c r="I45" s="17">
-        <f>COUNT(Y4:Y39)</f>
+        <f>L5</f>
         <v>0</v>
       </c>
       <c r="J45" s="17">
@@ -27699,7 +27878,7 @@
         <v>0</v>
       </c>
       <c r="L45" s="17">
-        <f>COUNT(Z4:Z39)</f>
+        <f>L4</f>
         <v>0</v>
       </c>
       <c r="M45" s="17">
@@ -28714,8 +28893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED843EDE-D888-4596-9691-75BE60D1C78B}">
   <dimension ref="B1:AE1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -28805,19 +28984,19 @@
       </c>
       <c r="L3" s="12">
         <f>COUNTIF(C3:C40, "Loose Gooses")</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M3" s="12">
         <f>COUNTIF(D3:D40, "Loose Gooses")</f>
-        <v>0</v>
-      </c>
-      <c r="N3" s="11" t="e">
+        <v>8</v>
+      </c>
+      <c r="N3" s="11">
         <f>L3/(L3+M3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O3" s="12" t="e">
+        <v>0.52941176470588236</v>
+      </c>
+      <c r="O3" s="12">
         <f>IF(AND(N3&gt;N4, N3&gt;N5), 3, IF(OR(N3&gt;N4, N3&gt;N5), 2, 1))</f>
-        <v>#DIV/0!</v>
+        <v>2</v>
       </c>
       <c r="Q3" s="2" t="s">
         <v>25</v>
@@ -28853,32 +29032,48 @@
       <c r="AB3" s="2"/>
     </row>
     <row r="4" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
+      <c r="B4" s="26">
+        <v>1</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="G4" s="26">
+        <v>1</v>
+      </c>
+      <c r="H4" s="26">
+        <v>1</v>
+      </c>
+      <c r="I4" s="26">
+        <v>1</v>
+      </c>
       <c r="K4" s="12" t="s">
         <v>110</v>
       </c>
       <c r="L4" s="12">
         <f>COUNTIF(C3:C40, "5 Musketeers")</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M4" s="12">
         <f>COUNTIF(D3:D40, "5 Musketeers")</f>
-        <v>0</v>
-      </c>
-      <c r="N4" s="11" t="e">
+        <v>6</v>
+      </c>
+      <c r="N4" s="11">
         <f t="shared" ref="N4:N5" si="4">L4/(L4+M4)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O4" s="12" t="e">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="O4" s="12">
         <f>IF(AND(N4&gt;N3, N4&gt;N5), 3, IF(OR(N4&gt;N3, N4&gt;N5), 2, 1))</f>
-        <v>#DIV/0!</v>
+        <v>3</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>28</v>
@@ -28912,48 +29107,64 @@
       </c>
       <c r="Z4" s="54" t="str">
         <f t="shared" ref="Z4:Z36" si="7">IF(AND(C4="5 Musketeers",D4="Loose Gooses"),"5M/LG", IF(AND($C4="5 Musketeers",$D4="Wet Willies"),"5M/WW", ""))</f>
-        <v/>
+        <v>5M/WW</v>
       </c>
       <c r="AB4" s="2"/>
     </row>
     <row r="5" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
+      <c r="B5" s="26">
+        <v>2</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="G5" s="26">
+        <v>2</v>
+      </c>
+      <c r="H5" s="26">
+        <v>1</v>
+      </c>
+      <c r="I5" s="26">
+        <v>1</v>
+      </c>
       <c r="K5" s="12" t="s">
         <v>109</v>
       </c>
       <c r="L5" s="12">
         <f>COUNTIF(C3:C40, "Wet Willies")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M5" s="12">
         <f>COUNTIF(D3:D40, "Wet Willies")</f>
-        <v>0</v>
-      </c>
-      <c r="N5" s="11" t="e">
+        <v>12</v>
+      </c>
+      <c r="N5" s="11">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O5" s="12" t="e">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="O5" s="12">
         <f>IF(AND(N5&gt;N4, N5&gt;N3), 3, IF(OR(N5&gt;N4, N5&gt;N3), 2, 1))</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="2" t="s">
         <v>30</v>
       </c>
       <c r="R5" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="S5" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="T5" s="10">
         <f t="shared" si="2"/>
@@ -28976,19 +29187,35 @@
       </c>
       <c r="Z5" s="54" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>5M/LG</v>
       </c>
       <c r="AB5" s="2"/>
     </row>
     <row r="6" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
+      <c r="B6" s="26">
+        <v>3</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="G6" s="26">
+        <v>3</v>
+      </c>
+      <c r="H6" s="26">
+        <v>2</v>
+      </c>
+      <c r="I6" s="26">
+        <v>2</v>
+      </c>
       <c r="Q6" s="2" t="s">
         <v>35</v>
       </c>
@@ -29021,19 +29248,35 @@
       </c>
       <c r="Z6" s="54" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>5M/WW</v>
       </c>
       <c r="AB6" s="2"/>
     </row>
     <row r="7" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
+      <c r="B7" s="26">
+        <v>4</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="G7" s="26">
+        <v>4</v>
+      </c>
+      <c r="H7" s="26">
+        <v>2</v>
+      </c>
+      <c r="I7" s="26">
+        <v>3</v>
+      </c>
       <c r="Q7" s="2" t="s">
         <v>37</v>
       </c>
@@ -29066,29 +29309,45 @@
       </c>
       <c r="Z7" s="54" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>5M/LG</v>
       </c>
       <c r="AB7" s="2"/>
     </row>
     <row r="8" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
+      <c r="B8" s="26">
+        <v>5</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" s="26">
+        <v>5</v>
+      </c>
+      <c r="H8" s="26">
+        <v>3</v>
+      </c>
+      <c r="I8" s="26">
+        <v>1</v>
+      </c>
       <c r="Q8" s="2" t="s">
         <v>42</v>
       </c>
       <c r="R8" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8" s="10">
         <f t="shared" si="2"/>
@@ -29111,19 +29370,35 @@
       </c>
       <c r="Z8" s="54" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>5M/WW</v>
       </c>
       <c r="AB8" s="2"/>
     </row>
     <row r="9" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
+      <c r="B9" s="26">
+        <v>6</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="G9" s="26">
+        <v>1</v>
+      </c>
+      <c r="H9" s="26">
+        <v>1</v>
+      </c>
+      <c r="I9" s="26">
+        <v>1</v>
+      </c>
       <c r="Q9" s="17" t="s">
         <v>115</v>
       </c>
@@ -29148,7 +29423,7 @@
       </c>
       <c r="X9" s="54" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>LG/5M</v>
       </c>
       <c r="Y9" s="54" t="str">
         <f t="shared" si="6"/>
@@ -29160,14 +29435,30 @@
       </c>
     </row>
     <row r="10" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
+      <c r="B10" s="26">
+        <v>7</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="G10" s="26">
+        <v>2</v>
+      </c>
+      <c r="H10" s="26">
+        <v>4</v>
+      </c>
+      <c r="I10" s="26">
+        <v>2</v>
+      </c>
       <c r="Q10" s="2" t="s">
         <v>44</v>
       </c>
@@ -29188,11 +29479,11 @@
         <v>0</v>
       </c>
       <c r="V10" s="27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X10" s="54" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>LG/WW</v>
       </c>
       <c r="Y10" s="54" t="str">
         <f t="shared" si="6"/>
@@ -29205,14 +29496,30 @@
       <c r="AB10" s="2"/>
     </row>
     <row r="11" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
+      <c r="B11" s="26">
+        <v>8</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="G11" s="26">
+        <v>1</v>
+      </c>
+      <c r="H11" s="26">
+        <v>1</v>
+      </c>
+      <c r="I11" s="26">
+        <v>1</v>
+      </c>
       <c r="Q11" s="2" t="s">
         <v>46</v>
       </c>
@@ -29245,33 +29552,49 @@
       </c>
       <c r="Z11" s="54" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>5M/LG</v>
       </c>
       <c r="AB11" s="2"/>
     </row>
     <row r="12" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
+      <c r="B12" s="26">
+        <v>9</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="G12" s="26">
+        <v>2</v>
+      </c>
+      <c r="H12" s="26">
+        <v>5</v>
+      </c>
+      <c r="I12" s="26">
+        <v>2</v>
+      </c>
       <c r="Q12" s="2" t="s">
         <v>50</v>
       </c>
       <c r="R12" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S12" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T12" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U12" s="10">
         <f t="shared" si="3"/>
@@ -29290,25 +29613,41 @@
       </c>
       <c r="Z12" s="54" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>5M/WW</v>
       </c>
       <c r="AB12" s="2"/>
     </row>
     <row r="13" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
+      <c r="B13" s="26">
+        <v>10</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="G13" s="26">
+        <v>1</v>
+      </c>
+      <c r="H13" s="26">
+        <v>1</v>
+      </c>
+      <c r="I13" s="26">
+        <v>1</v>
+      </c>
       <c r="Q13" s="2" t="s">
         <v>52</v>
       </c>
       <c r="R13" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S13" s="10">
         <f t="shared" si="1"/>
@@ -29320,14 +29659,14 @@
       </c>
       <c r="U13" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V13" s="27" t="b">
         <v>0</v>
       </c>
       <c r="X13" s="54" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>LG/5M</v>
       </c>
       <c r="Y13" s="54" t="str">
         <f t="shared" si="6"/>
@@ -29340,14 +29679,30 @@
       <c r="AB13" s="2"/>
     </row>
     <row r="14" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
+      <c r="B14" s="26">
+        <v>11</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="G14" s="26">
+        <v>2</v>
+      </c>
+      <c r="H14" s="26">
+        <v>6</v>
+      </c>
+      <c r="I14" s="26">
+        <v>2</v>
+      </c>
       <c r="Q14" s="2" t="s">
         <v>203</v>
       </c>
@@ -29372,7 +29727,7 @@
       </c>
       <c r="X14" s="54" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>LG/WW</v>
       </c>
       <c r="Y14" s="54" t="str">
         <f t="shared" si="6"/>
@@ -29385,24 +29740,40 @@
       <c r="AB14" s="2"/>
     </row>
     <row r="15" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
+      <c r="B15" s="26">
+        <v>12</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="G15" s="26">
+        <v>1</v>
+      </c>
+      <c r="H15" s="26">
+        <v>1</v>
+      </c>
+      <c r="I15" s="26">
+        <v>1</v>
+      </c>
       <c r="Q15" s="2" t="s">
         <v>55</v>
       </c>
       <c r="R15" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S15" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T15" s="10">
         <f t="shared" si="2"/>
@@ -29425,37 +29796,53 @@
       </c>
       <c r="Z15" s="54" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>5M/LG</v>
       </c>
       <c r="AB15" s="2"/>
     </row>
     <row r="16" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
+      <c r="B16" s="26">
+        <v>13</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="G16" s="26">
+        <v>2</v>
+      </c>
+      <c r="H16" s="26">
+        <v>7</v>
+      </c>
+      <c r="I16" s="26">
+        <v>1</v>
+      </c>
       <c r="Q16" s="2" t="s">
         <v>58</v>
       </c>
       <c r="R16" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S16" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T16" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U16" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V16" s="27" t="b">
         <v>0</v>
@@ -29470,37 +29857,53 @@
       </c>
       <c r="Z16" s="54" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>5M/WW</v>
       </c>
       <c r="AB16" s="2"/>
     </row>
     <row r="17" spans="2:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
+      <c r="B17" s="26">
+        <v>14</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="G17" s="26">
+        <v>3</v>
+      </c>
+      <c r="H17" s="26">
+        <v>2</v>
+      </c>
+      <c r="I17" s="26">
+        <v>1</v>
+      </c>
       <c r="Q17" s="2" t="s">
         <v>61</v>
       </c>
       <c r="R17" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S17" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T17" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U17" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V17" s="27" t="b">
         <v>0</v>
@@ -29515,19 +29918,35 @@
       </c>
       <c r="Z17" s="54" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>5M/LG</v>
       </c>
       <c r="AB17" s="2"/>
     </row>
     <row r="18" spans="2:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
+      <c r="B18" s="26">
+        <v>15</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="G18" s="26">
+        <v>4</v>
+      </c>
+      <c r="H18" s="26">
+        <v>8</v>
+      </c>
+      <c r="I18" s="26">
+        <v>1</v>
+      </c>
       <c r="Q18" s="2" t="s">
         <v>64</v>
       </c>
@@ -29560,19 +29979,35 @@
       </c>
       <c r="Z18" s="54" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>5M/WW</v>
       </c>
       <c r="AB18" s="2"/>
     </row>
     <row r="19" spans="2:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
+      <c r="B19" s="26">
+        <v>16</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="G19" s="26">
+        <v>5</v>
+      </c>
+      <c r="H19" s="26">
+        <v>3</v>
+      </c>
+      <c r="I19" s="26">
+        <v>2</v>
+      </c>
       <c r="Q19" s="2" t="s">
         <v>67</v>
       </c>
@@ -29605,18 +30040,34 @@
       </c>
       <c r="Z19" s="54" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>5M/LG</v>
       </c>
     </row>
     <row r="20" spans="2:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
+      <c r="B20" s="26">
+        <v>17</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="G20" s="26">
+        <v>6</v>
+      </c>
+      <c r="H20" s="26">
+        <v>9</v>
+      </c>
+      <c r="I20" s="26">
+        <v>1</v>
+      </c>
       <c r="X20" s="54" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -29627,18 +30078,34 @@
       </c>
       <c r="Z20" s="54" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>5M/WW</v>
       </c>
     </row>
     <row r="21" spans="2:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
+      <c r="B21" s="26">
+        <v>18</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="G21" s="26">
+        <v>7</v>
+      </c>
+      <c r="H21" s="26">
+        <v>4</v>
+      </c>
+      <c r="I21" s="26">
+        <v>1</v>
+      </c>
       <c r="X21" s="54" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -29649,17 +30116,34 @@
       </c>
       <c r="Z21" s="54" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>5M/LG</v>
       </c>
     </row>
     <row r="22" spans="2:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
+      <c r="B22" s="26">
+        <v>19</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="G22" s="26">
+        <v>1</v>
+      </c>
+      <c r="H22" s="26">
+        <v>1</v>
+      </c>
+      <c r="I22" s="26">
+        <v>1</v>
+      </c>
       <c r="X22" s="54" t="str">
         <f>IF(AND(C22="Loose Gooses",B45="Wet Willies"),"LG/WW", IF(AND(C22="Loose Gooses",B45="5 Musketeers"),"LG/5M", ""))</f>
         <v/>
@@ -29674,14 +30158,30 @@
       </c>
     </row>
     <row r="23" spans="2:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
+      <c r="B23" s="26">
+        <v>20</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="G23" s="26">
+        <v>2</v>
+      </c>
+      <c r="H23" s="26">
+        <v>5</v>
+      </c>
+      <c r="I23" s="26">
+        <v>1</v>
+      </c>
       <c r="Q23" s="2"/>
       <c r="R23" s="17" t="str">
         <f>IF($V3, CHAR(34)&amp;"Did not Play"&amp;CHAR(34), R3)&amp;","</f>
@@ -29705,7 +30205,7 @@
       </c>
       <c r="Y23" s="54" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>WW/LG</v>
       </c>
       <c r="Z23" s="54" t="str">
         <f t="shared" si="7"/>
@@ -29713,14 +30213,30 @@
       </c>
     </row>
     <row r="24" spans="2:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
+      <c r="B24" s="26">
+        <v>21</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="G24" s="26">
+        <v>1</v>
+      </c>
+      <c r="H24" s="26">
+        <v>1</v>
+      </c>
+      <c r="I24" s="26">
+        <v>1</v>
+      </c>
       <c r="R24" s="17" t="str">
         <f t="shared" ref="R24:U38" si="9">IF($V4, CHAR(34)&amp;"Did not Play"&amp;CHAR(34), R4)&amp;","</f>
         <v>0,</v>
@@ -29747,26 +30263,42 @@
       </c>
       <c r="Z24" s="54" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>5M/WW</v>
       </c>
     </row>
     <row r="25" spans="2:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
+      <c r="B25" s="26">
+        <v>22</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="F25" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="G25" s="26">
+        <v>1</v>
+      </c>
+      <c r="H25" s="26">
+        <v>1</v>
+      </c>
+      <c r="I25" s="26">
+        <v>1</v>
+      </c>
       <c r="Q25" s="7"/>
       <c r="R25" s="17" t="str">
         <f t="shared" si="9"/>
-        <v>0,</v>
+        <v>7,</v>
       </c>
       <c r="S25" s="17" t="str">
         <f t="shared" si="9"/>
-        <v>0,</v>
+        <v>7,</v>
       </c>
       <c r="T25" s="17" t="str">
         <f t="shared" si="9"/>
@@ -29778,7 +30310,7 @@
       </c>
       <c r="X25" s="54" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>LG/5M</v>
       </c>
       <c r="Y25" s="54" t="str">
         <f t="shared" si="6"/>
@@ -29790,14 +30322,30 @@
       </c>
     </row>
     <row r="26" spans="2:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
+      <c r="B26" s="26">
+        <v>23</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="F26" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="G26" s="26">
+        <v>2</v>
+      </c>
+      <c r="H26" s="26">
+        <v>2</v>
+      </c>
+      <c r="I26" s="26">
+        <v>1</v>
+      </c>
       <c r="Q26" s="13"/>
       <c r="R26" s="17" t="str">
         <f t="shared" si="9"/>
@@ -29817,7 +30365,7 @@
       </c>
       <c r="X26" s="54" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>LG/WW</v>
       </c>
       <c r="Y26" s="54" t="str">
         <f t="shared" si="6"/>
@@ -29829,14 +30377,30 @@
       </c>
     </row>
     <row r="27" spans="2:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
+      <c r="B27" s="26">
+        <v>24</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="G27" s="26">
+        <v>3</v>
+      </c>
+      <c r="H27" s="26">
+        <v>2</v>
+      </c>
+      <c r="I27" s="26">
+        <v>2</v>
+      </c>
       <c r="R27" s="17" t="str">
         <f t="shared" si="9"/>
         <v>0,</v>
@@ -29855,7 +30419,7 @@
       </c>
       <c r="X27" s="54" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>LG/5M</v>
       </c>
       <c r="Y27" s="54" t="str">
         <f t="shared" si="6"/>
@@ -29867,21 +30431,37 @@
       </c>
     </row>
     <row r="28" spans="2:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
+      <c r="B28" s="26">
+        <v>25</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="F28" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="G28" s="26">
+        <v>4</v>
+      </c>
+      <c r="H28" s="26">
+        <v>3</v>
+      </c>
+      <c r="I28" s="26">
+        <v>1</v>
+      </c>
       <c r="R28" s="17" t="str">
         <f t="shared" si="9"/>
-        <v>0,</v>
+        <v>1,</v>
       </c>
       <c r="S28" s="17" t="str">
         <f t="shared" si="9"/>
-        <v>0,</v>
+        <v>1,</v>
       </c>
       <c r="T28" s="17" t="str">
         <f t="shared" si="9"/>
@@ -29893,7 +30473,7 @@
       </c>
       <c r="X28" s="54" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>LG/WW</v>
       </c>
       <c r="Y28" s="54" t="str">
         <f t="shared" si="6"/>
@@ -29904,15 +30484,31 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="2:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B29" s="50"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="50"/>
-      <c r="I29" s="50"/>
+    <row r="29" spans="2:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="26">
+        <v>26</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="F29" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="G29" s="26">
+        <v>5</v>
+      </c>
+      <c r="H29" s="26">
+        <v>3</v>
+      </c>
+      <c r="I29" s="26">
+        <v>1</v>
+      </c>
       <c r="R29" s="17" t="str">
         <f t="shared" si="9"/>
         <v>0,</v>
@@ -29931,7 +30527,7 @@
       </c>
       <c r="X29" s="54" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>LG/5M</v>
       </c>
       <c r="Y29" s="54" t="str">
         <f t="shared" si="6"/>
@@ -29953,19 +30549,19 @@
       <c r="I30" s="26"/>
       <c r="R30" s="17" t="str">
         <f t="shared" si="9"/>
-        <v>"Did not Play",</v>
+        <v>0,</v>
       </c>
       <c r="S30" s="17" t="str">
         <f t="shared" si="9"/>
-        <v>"Did not Play",</v>
+        <v>0,</v>
       </c>
       <c r="T30" s="17" t="str">
         <f t="shared" si="9"/>
-        <v>"Did not Play",</v>
+        <v>0,</v>
       </c>
       <c r="U30" s="17" t="str">
         <f t="shared" si="9"/>
-        <v>"Did not Play",</v>
+        <v>0,</v>
       </c>
       <c r="X30" s="54" t="str">
         <f t="shared" si="5"/>
@@ -30029,15 +30625,15 @@
       <c r="I32" s="26"/>
       <c r="R32" s="17" t="str">
         <f t="shared" si="9"/>
-        <v>0,</v>
+        <v>6,</v>
       </c>
       <c r="S32" s="17" t="str">
         <f t="shared" si="9"/>
-        <v>0,</v>
+        <v>1,</v>
       </c>
       <c r="T32" s="17" t="str">
         <f t="shared" si="9"/>
-        <v>0,</v>
+        <v>5,</v>
       </c>
       <c r="U32" s="17" t="str">
         <f t="shared" si="9"/>
@@ -30067,7 +30663,7 @@
       <c r="I33" s="26"/>
       <c r="R33" s="17" t="str">
         <f t="shared" si="9"/>
-        <v>0,</v>
+        <v>2,</v>
       </c>
       <c r="S33" s="17" t="str">
         <f t="shared" si="9"/>
@@ -30079,7 +30675,7 @@
       </c>
       <c r="U33" s="17" t="str">
         <f t="shared" si="9"/>
-        <v>0,</v>
+        <v>1,</v>
       </c>
       <c r="X33" s="54" t="str">
         <f t="shared" si="5"/>
@@ -30135,11 +30731,11 @@
     <row r="35" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R35" s="17" t="str">
         <f t="shared" si="9"/>
-        <v>0,</v>
+        <v>2,</v>
       </c>
       <c r="S35" s="17" t="str">
         <f t="shared" si="9"/>
-        <v>0,</v>
+        <v>2,</v>
       </c>
       <c r="T35" s="17" t="str">
         <f t="shared" si="9"/>
@@ -30165,19 +30761,19 @@
     <row r="36" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R36" s="17" t="str">
         <f t="shared" si="9"/>
-        <v>0,</v>
+        <v>5,</v>
       </c>
       <c r="S36" s="17" t="str">
         <f t="shared" si="9"/>
-        <v>0,</v>
+        <v>2,</v>
       </c>
       <c r="T36" s="17" t="str">
         <f t="shared" si="9"/>
-        <v>0,</v>
+        <v>1,</v>
       </c>
       <c r="U36" s="17" t="str">
         <f t="shared" si="9"/>
-        <v>0,</v>
+        <v>1,</v>
       </c>
       <c r="X36" s="54" t="str">
         <f t="shared" si="5"/>
@@ -30195,19 +30791,19 @@
     <row r="37" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R37" s="17" t="str">
         <f t="shared" si="9"/>
-        <v>0,</v>
+        <v>6,</v>
       </c>
       <c r="S37" s="17" t="str">
         <f t="shared" si="9"/>
-        <v>0,</v>
+        <v>3,</v>
       </c>
       <c r="T37" s="17" t="str">
         <f t="shared" si="9"/>
-        <v>0,</v>
+        <v>1,</v>
       </c>
       <c r="U37" s="17" t="str">
         <f t="shared" si="9"/>
-        <v>0,</v>
+        <v>1,</v>
       </c>
       <c r="X37" s="54" t="str">
         <f>IF(AND(C37="Loose Gooses",D37="Wet Willies"),"LG/WW", IF(AND(C37="Loose Gooses",D37="5 Musketeers"),"LG/5M", ""))</f>
@@ -30373,85 +30969,85 @@
       </c>
       <c r="C45" s="17">
         <f>MAX(L3:L5)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D45" s="17">
-        <f>C45-E45</f>
-        <v>0</v>
+        <f>COUNT(B4:B42)-C45-E45</f>
+        <v>9</v>
       </c>
       <c r="E45" s="17">
         <f>MIN(L3:L5)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F45" s="17">
-        <f>COUNT(X4:X39)</f>
-        <v>0</v>
+        <f>L3</f>
+        <v>9</v>
       </c>
       <c r="G45" s="17">
         <f>COUNTIF(Y4:Y39, "WW/LG")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45" s="17">
         <f>COUNTIF(Z4:Z39, "5M/LG")</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I45" s="17">
-        <f>COUNT(Y4:Y39)</f>
-        <v>0</v>
+        <f>L5</f>
+        <v>2</v>
       </c>
       <c r="J45" s="17">
         <f>COUNTIF(X4:X39, "LG/WW")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K45" s="17">
         <f>COUNTIF(Z4:Z39, "5M/WW")</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L45" s="17">
-        <f>COUNT(Z4:Z39)</f>
-        <v>0</v>
+        <f>L4</f>
+        <v>15</v>
       </c>
       <c r="M45" s="17">
         <f>COUNTIF(X4:X39, "LG/5M")</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N45" s="17">
         <f>COUNTIF(Y4:Y39, "WW/5M")</f>
         <v>0</v>
       </c>
-      <c r="O45" s="17" t="e">
+      <c r="O45" s="17">
         <f>O3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P45" s="17" t="e">
+        <v>2</v>
+      </c>
+      <c r="P45" s="17">
         <f>O5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q45" s="17" t="e">
+        <v>1</v>
+      </c>
+      <c r="Q45" s="17">
         <f>O4</f>
-        <v>#DIV/0!</v>
+        <v>3</v>
       </c>
       <c r="T45" s="17" t="str">
         <f>CHAR(34)&amp;"Points"&amp;CHAR(34)&amp;":["&amp;R23&amp;R24&amp;R25&amp;R26&amp;R27&amp;R28&amp;R29&amp;R30&amp;R31&amp;R32&amp;R33&amp;R34&amp;R35&amp;R36&amp;R37&amp;R38&amp;R39&amp;"],"</f>
-        <v>"Points":[0,0,0,"Did not Play",0,0,0,"Did not Play",0,0,0,0,0,0,0,0,0],</v>
+        <v>"Points":[0,0,7,"Did not Play",0,1,0,0,0,6,2,0,2,5,6,0,0],</v>
       </c>
     </row>
     <row r="46" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="T46" s="17" t="str">
         <f>CHAR(34)&amp;"Finishes"&amp;CHAR(34)&amp;":["&amp;S23&amp;S24&amp;S25&amp;S26&amp;S27&amp;S28&amp;S29&amp;S30&amp;S31&amp;S32&amp;S33&amp;S34&amp;S35&amp;S36&amp;S37&amp;S38&amp;S39&amp;"],"</f>
-        <v>"Finishes":[0,0,0,"Did not Play",0,0,0,"Did not Play",0,0,0,0,0,0,0,0,0],</v>
+        <v>"Finishes":[0,0,7,"Did not Play",0,1,0,0,0,1,0,0,2,2,3,0,0],</v>
       </c>
     </row>
     <row r="47" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="T47" s="17" t="str">
         <f>CHAR(34)&amp;"Midrange"&amp;CHAR(34)&amp;":["&amp;T23&amp;T24&amp;T25&amp;T26&amp;T27&amp;T28&amp;T29&amp;T30&amp;T31&amp;T32&amp;T33&amp;T34&amp;T35&amp;T36&amp;T37&amp;T38&amp;T39&amp;"],"</f>
-        <v>"Midrange":[0,0,0,"Did not Play",0,0,0,"Did not Play",0,0,0,0,0,0,0,0,0],</v>
+        <v>"Midrange":[0,0,0,"Did not Play",0,0,0,0,0,5,0,0,0,1,1,0,0],</v>
       </c>
     </row>
     <row r="48" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="T48" s="17" t="str">
         <f>CHAR(34)&amp;"ThreePointers"&amp;CHAR(34)&amp;":["&amp;U23&amp;U24&amp;U25&amp;U26&amp;U27&amp;U28&amp;U29&amp;U30&amp;U31&amp;U32&amp;U33&amp;U34&amp;U35&amp;U36&amp;U37&amp;U38&amp;U39&amp;"]"</f>
-        <v>"ThreePointers":[0,0,0,"Did not Play",0,0,0,"Did not Play",0,0,0,0,0,0,0,0,0]</v>
+        <v>"ThreePointers":[0,0,0,"Did not Play",0,0,0,0,0,0,1,0,0,1,1,0,0]</v>
       </c>
     </row>
     <row r="49" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -31415,6 +32011,7 @@
     <mergeCell ref="T41:V42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -31422,8 +32019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03838906-0D06-4CE3-8060-96BC8217D4DC}">
   <dimension ref="B1:AE1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43:Q45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/Other Files/PastResults.xlsx
+++ b/Other Files/PastResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\011445\Documents\GitHub\LTBO\Other Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4327CDBA-2DF7-471C-A323-B94CEE23A6B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5ADDAE6-163F-4F46-880C-853388EC1A3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="2" xr2:uid="{1E3275F7-0219-46B7-B9B0-3246E28631A6}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{1E3275F7-0219-46B7-B9B0-3246E28631A6}"/>
   </bookViews>
   <sheets>
     <sheet name="SfW" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="215">
   <si>
     <t>Points</t>
   </si>
@@ -535,9 +535,6 @@
     <t>../Images/Logo.png</t>
   </si>
   <si>
-    <t>Sam J</t>
-  </si>
-  <si>
     <t>Avg T</t>
   </si>
   <si>
@@ -683,6 +680,9 @@
   </si>
   <si>
     <t>LTBO Photographer</t>
+  </si>
+  <si>
+    <t>Miles Morales</t>
   </si>
 </sst>
 </file>
@@ -1225,11 +1225,11 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1237,66 +1237,6 @@
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="154">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -4719,6 +4659,66 @@
         <bottom/>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -7045,38 +7045,38 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{598ECA3B-99B4-4CAB-8F81-5D711AA5A7FC}" name="Table1" displayName="Table1" ref="Z7:AJ24" totalsRowShown="0" headerRowDxfId="153" dataDxfId="151" headerRowBorderDxfId="152" tableBorderDxfId="150" totalsRowBorderDxfId="149">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{598ECA3B-99B4-4CAB-8F81-5D711AA5A7FC}" name="Table1" displayName="Table1" ref="Z7:AJ24" totalsRowShown="0" headerRowDxfId="147" dataDxfId="145" headerRowBorderDxfId="146" tableBorderDxfId="144" totalsRowBorderDxfId="143">
   <autoFilter ref="Z7:AJ24" xr:uid="{598ECA3B-99B4-4CAB-8F81-5D711AA5A7FC}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{9B036617-5450-4894-9268-827D2E0914FF}" name="Scoring" dataDxfId="148"/>
-    <tableColumn id="2" xr3:uid="{6662CE93-E9C4-47DE-9476-E46126825B0A}" name="Points" dataDxfId="147">
+    <tableColumn id="1" xr3:uid="{9B036617-5450-4894-9268-827D2E0914FF}" name="Scoring" dataDxfId="142"/>
+    <tableColumn id="2" xr3:uid="{6662CE93-E9C4-47DE-9476-E46126825B0A}" name="Points" dataDxfId="141">
       <calculatedColumnFormula>SUM(AA29,AL29,AA49,AL49,AA69,AL69,AA89,AL89)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{8FDDFCB0-2692-4EB0-948C-7B877263B55B}" name="Average" dataDxfId="146">
+    <tableColumn id="3" xr3:uid="{8FDDFCB0-2692-4EB0-948C-7B877263B55B}" name="Average" dataDxfId="140">
       <calculatedColumnFormula>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Points]]/($AA$6-Table1[[#This Row],[Missed Games]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{CC3F9B31-1857-48FB-A18B-CBC82C117BF4}" name="Finishes" dataDxfId="145">
+    <tableColumn id="4" xr3:uid="{CC3F9B31-1857-48FB-A18B-CBC82C117BF4}" name="Finishes" dataDxfId="139">
       <calculatedColumnFormula>SUM(AB29,AM29,AB49,AM49,AB69,AM69,AB89,AM89)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{5F324C66-956D-4EDC-870F-8EDE96C328C8}" name="Averages" dataDxfId="144">
+    <tableColumn id="5" xr3:uid="{5F324C66-956D-4EDC-870F-8EDE96C328C8}" name="Averages" dataDxfId="138">
       <calculatedColumnFormula>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Finishes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{80C6E15E-675D-4F58-AA26-27226F1CE373}" name="Midranges" dataDxfId="143">
+    <tableColumn id="6" xr3:uid="{80C6E15E-675D-4F58-AA26-27226F1CE373}" name="Midranges" dataDxfId="137">
       <calculatedColumnFormula>SUM(AC29,AN29,AC49,AN49,AC69,AN69,AC89,AN89)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{8E7E6B37-23A0-4556-8839-B9D7834E3E68}" name="Averages2" dataDxfId="142">
+    <tableColumn id="7" xr3:uid="{8E7E6B37-23A0-4556-8839-B9D7834E3E68}" name="Averages2" dataDxfId="136">
       <calculatedColumnFormula>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Midranges]]/($AA$6-Table1[[#This Row],[Missed Games]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{8B28715D-E310-4E1F-B9F0-F58F7C70E830}" name="Threes" dataDxfId="141">
+    <tableColumn id="8" xr3:uid="{8B28715D-E310-4E1F-B9F0-F58F7C70E830}" name="Threes" dataDxfId="135">
       <calculatedColumnFormula>SUM(AD29,AO29,AD49,AO49,AD69,AO69,AD89,AO89)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{E0C0BF1C-40E8-4137-8E0F-BB238D651DAE}" name="Averages3" dataDxfId="140">
+    <tableColumn id="9" xr3:uid="{E0C0BF1C-40E8-4137-8E0F-BB238D651DAE}" name="Averages3" dataDxfId="134">
       <calculatedColumnFormula>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Threes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{1C75F230-74E0-47EE-BF13-C22289FE0F87}" name="Team" dataDxfId="139">
+    <tableColumn id="10" xr3:uid="{1C75F230-74E0-47EE-BF13-C22289FE0F87}" name="Team" dataDxfId="133">
       <calculatedColumnFormula>SfW!C3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{E167D7FA-56F9-4571-B292-FF3869585F59}" name="Missed Games" dataDxfId="138">
+    <tableColumn id="11" xr3:uid="{E167D7FA-56F9-4571-B292-FF3869585F59}" name="Missed Games" dataDxfId="132">
       <calculatedColumnFormula>SUM(AI29,AT29,AI49,AT49,AI69,AT69,AI89,AT89)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7085,94 +7085,94 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{744FF78C-74B5-4798-AD3D-741E3ACB43CF}" name="Table1114" displayName="Table1114" ref="R3:AA8" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{744FF78C-74B5-4798-AD3D-741E3ACB43CF}" name="Table1114" displayName="Table1114" ref="R3:AA8" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
   <autoFilter ref="R3:AA8" xr:uid="{744FF78C-74B5-4798-AD3D-741E3ACB43CF}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{B3B5C08C-655A-460A-A171-B3B0C826FF04}" name="Name" dataDxfId="39"/>
-    <tableColumn id="2" xr3:uid="{427944B0-44CA-4325-A406-29F83026BA5E}" name="Points" dataDxfId="38">
+    <tableColumn id="1" xr3:uid="{B3B5C08C-655A-460A-A171-B3B0C826FF04}" name="Name" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{427944B0-44CA-4325-A406-29F83026BA5E}" name="Points" dataDxfId="32">
       <calculatedColumnFormula>'Stats Global'!AA22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{5E06D173-4DBE-4045-9072-0A0A77D19C84}" name="Average" dataDxfId="37"/>
-    <tableColumn id="4" xr3:uid="{E74131A4-1DCA-4A89-8989-A4CF80175582}" name="Finishes" dataDxfId="36"/>
-    <tableColumn id="5" xr3:uid="{FC3336D4-2CB5-4673-A345-7C9CCED7ADEE}" name="Averages" dataDxfId="35"/>
-    <tableColumn id="6" xr3:uid="{BD6313A7-5D92-4B66-9B85-7ABC12DE9691}" name="Midranges" dataDxfId="34"/>
-    <tableColumn id="7" xr3:uid="{6D0293BC-7E06-45CE-9D4B-FE4769DF9D9F}" name="Averages2" dataDxfId="33"/>
-    <tableColumn id="8" xr3:uid="{89C1C64B-DD66-482C-BCDE-8B912D2676EF}" name="Threes" dataDxfId="32"/>
-    <tableColumn id="9" xr3:uid="{7748B87C-1833-4BD6-9162-76373407E655}" name="Averages3" dataDxfId="31"/>
-    <tableColumn id="10" xr3:uid="{D870E191-A52F-442E-AA52-A42CFAD05573}" name="Missed Games" dataDxfId="30"/>
+    <tableColumn id="3" xr3:uid="{5E06D173-4DBE-4045-9072-0A0A77D19C84}" name="Average" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{E74131A4-1DCA-4A89-8989-A4CF80175582}" name="Finishes" dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{FC3336D4-2CB5-4673-A345-7C9CCED7ADEE}" name="Averages" dataDxfId="29"/>
+    <tableColumn id="6" xr3:uid="{BD6313A7-5D92-4B66-9B85-7ABC12DE9691}" name="Midranges" dataDxfId="28"/>
+    <tableColumn id="7" xr3:uid="{6D0293BC-7E06-45CE-9D4B-FE4769DF9D9F}" name="Averages2" dataDxfId="27"/>
+    <tableColumn id="8" xr3:uid="{89C1C64B-DD66-482C-BCDE-8B912D2676EF}" name="Threes" dataDxfId="26"/>
+    <tableColumn id="9" xr3:uid="{7748B87C-1833-4BD6-9162-76373407E655}" name="Averages3" dataDxfId="25"/>
+    <tableColumn id="10" xr3:uid="{D870E191-A52F-442E-AA52-A42CFAD05573}" name="Missed Games" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{54759C84-3153-4DC9-9240-E2749AA0D92B}" name="Table1113" displayName="Table1113" ref="O3:X10" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{54759C84-3153-4DC9-9240-E2749AA0D92B}" name="Table1113" displayName="Table1113" ref="O3:X10" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
   <autoFilter ref="O3:X10" xr:uid="{54759C84-3153-4DC9-9240-E2749AA0D92B}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{7790729E-C8E5-45C1-8784-25212A2654AA}" name="Name" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{52A67B2B-967C-4970-8D83-8F8E9CC61522}" name="Points" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{BA1FA2C8-AEC0-4644-83DB-5097750D7188}" name="Average" dataDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{4CF66F5D-BF10-4CBD-88FF-CCD38730E1CD}" name="Finishes" dataDxfId="24"/>
-    <tableColumn id="5" xr3:uid="{BC246D5B-7E78-41A6-B796-C93ED8E53DF9}" name="Averages" dataDxfId="23"/>
-    <tableColumn id="6" xr3:uid="{AB819419-CC06-4A40-8DED-E231125129C0}" name="Midranges" dataDxfId="22"/>
-    <tableColumn id="7" xr3:uid="{064AA562-C451-4362-805E-D12DC76C3530}" name="Averages2" dataDxfId="21"/>
-    <tableColumn id="8" xr3:uid="{BD0D8BAE-15E4-4B38-87FE-B682D7BAEE75}" name="Threes" dataDxfId="20"/>
-    <tableColumn id="9" xr3:uid="{541E391B-4B08-4E98-A63F-753C11193269}" name="Averages3" dataDxfId="19"/>
-    <tableColumn id="10" xr3:uid="{999BB5D2-D6FB-4EB9-A268-D62EA72F939D}" name="Missed Games" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{7790729E-C8E5-45C1-8784-25212A2654AA}" name="Name" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{52A67B2B-967C-4970-8D83-8F8E9CC61522}" name="Points" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{BA1FA2C8-AEC0-4644-83DB-5097750D7188}" name="Average" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{4CF66F5D-BF10-4CBD-88FF-CCD38730E1CD}" name="Finishes" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{BC246D5B-7E78-41A6-B796-C93ED8E53DF9}" name="Averages" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{AB819419-CC06-4A40-8DED-E231125129C0}" name="Midranges" dataDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{064AA562-C451-4362-805E-D12DC76C3530}" name="Averages2" dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{BD0D8BAE-15E4-4B38-87FE-B682D7BAEE75}" name="Threes" dataDxfId="14"/>
+    <tableColumn id="9" xr3:uid="{541E391B-4B08-4E98-A63F-753C11193269}" name="Averages3" dataDxfId="13"/>
+    <tableColumn id="10" xr3:uid="{999BB5D2-D6FB-4EB9-A268-D62EA72F939D}" name="Missed Games" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{C12CFC3F-7D59-4C0F-8D43-3F8ACD58C2BD}" name="Table11" displayName="Table11" ref="L4:U9" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{C12CFC3F-7D59-4C0F-8D43-3F8ACD58C2BD}" name="Table11" displayName="Table11" ref="L4:U9" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="L4:U9" xr:uid="{C12CFC3F-7D59-4C0F-8D43-3F8ACD58C2BD}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{CE15C23D-9493-4B21-9D40-1A25D210C18E}" name="Name" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{6BB170B1-AA38-4699-9B96-400D2947EE9C}" name="Points" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{EC8B6CBB-FCC9-416C-AEA6-738419DFE531}" name="Average" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{315DA055-9A43-468A-A501-1092626F523F}" name="Finishes" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{56B6FF4D-95D4-4550-88E4-C781ABDA83A6}" name="Averages" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{F7B5C0B8-FBE2-44B0-A372-112C7776FCCF}" name="Midranges" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{1A1C2126-FEB1-408F-8523-049E53028B4E}" name="Averages2" dataDxfId="9"/>
-    <tableColumn id="8" xr3:uid="{AE94036B-3777-4C1B-97D5-7BFA1037C0BF}" name="Threes" dataDxfId="8"/>
-    <tableColumn id="9" xr3:uid="{448B0903-7F66-40BA-809F-74ADBF397B45}" name="Averages3" dataDxfId="7"/>
-    <tableColumn id="10" xr3:uid="{E0CAC55D-8398-4928-A219-C01706996D48}" name="Missed Games" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{CE15C23D-9493-4B21-9D40-1A25D210C18E}" name="Name" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{6BB170B1-AA38-4699-9B96-400D2947EE9C}" name="Points" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{EC8B6CBB-FCC9-416C-AEA6-738419DFE531}" name="Average" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{315DA055-9A43-468A-A501-1092626F523F}" name="Finishes" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{56B6FF4D-95D4-4550-88E4-C781ABDA83A6}" name="Averages" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{F7B5C0B8-FBE2-44B0-A372-112C7776FCCF}" name="Midranges" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{1A1C2126-FEB1-408F-8523-049E53028B4E}" name="Averages2" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{AE94036B-3777-4C1B-97D5-7BFA1037C0BF}" name="Threes" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{448B0903-7F66-40BA-809F-74ADBF397B45}" name="Averages3" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{E0CAC55D-8398-4928-A219-C01706996D48}" name="Missed Games" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{84D0C431-52CF-4ABD-AA3E-D31975A289B1}" name="Table2" displayName="Table2" ref="Z28:AI45" totalsRowShown="0" headerRowDxfId="137" dataDxfId="136">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{84D0C431-52CF-4ABD-AA3E-D31975A289B1}" name="Table2" displayName="Table2" ref="Z28:AI45" totalsRowShown="0" headerRowDxfId="131" dataDxfId="130">
   <autoFilter ref="Z28:AI45" xr:uid="{84D0C431-52CF-4ABD-AA3E-D31975A289B1}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{4DB7A2B8-7BD8-4BD7-8F53-2A7873A4EAAE}" name="Scoring" dataDxfId="135"/>
-    <tableColumn id="2" xr3:uid="{BE8EBD49-660A-4C9F-970E-230EBB942EF1}" name="Points" dataDxfId="134">
+    <tableColumn id="1" xr3:uid="{4DB7A2B8-7BD8-4BD7-8F53-2A7873A4EAAE}" name="Scoring" dataDxfId="129"/>
+    <tableColumn id="2" xr3:uid="{BE8EBD49-660A-4C9F-970E-230EBB942EF1}" name="Points" dataDxfId="128">
       <calculatedColumnFormula>'Preseason 1'!R3+'Preseason 2'!R3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{C2C49EF0-4D8C-4F8C-8D19-CDD1481D9568}" name="Finishes" dataDxfId="133">
+    <tableColumn id="3" xr3:uid="{C2C49EF0-4D8C-4F8C-8D19-CDD1481D9568}" name="Finishes" dataDxfId="127">
       <calculatedColumnFormula>'Preseason 1'!S3+'Preseason 2'!S3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{7E789F8C-B8F3-4D6E-AB6C-C9454835B062}" name="Midranges" dataDxfId="132">
+    <tableColumn id="4" xr3:uid="{7E789F8C-B8F3-4D6E-AB6C-C9454835B062}" name="Midranges" dataDxfId="126">
       <calculatedColumnFormula>'Preseason 1'!T3+'Preseason 2'!T3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{18C990F2-A6D0-4F57-B96A-D00066DCC8D8}" name="Threes" dataDxfId="131">
+    <tableColumn id="5" xr3:uid="{18C990F2-A6D0-4F57-B96A-D00066DCC8D8}" name="Threes" dataDxfId="125">
       <calculatedColumnFormula>'Preseason 1'!U3+'Preseason 2'!U3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{40526534-76CA-42BA-A8B6-AB092D9CE18F}" name="Avg P" dataDxfId="130">
+    <tableColumn id="6" xr3:uid="{40526534-76CA-42BA-A8B6-AB092D9CE18F}" name="Avg P" dataDxfId="124">
       <calculatedColumnFormula>AA29/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{693AF117-21F6-4887-B78D-D59235BABA44}" name="Avg F" dataDxfId="129">
+    <tableColumn id="7" xr3:uid="{693AF117-21F6-4887-B78D-D59235BABA44}" name="Avg F" dataDxfId="123">
       <calculatedColumnFormula>AB29/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{02AC8FBF-EBB3-4AFC-BAC5-B773E33B7279}" name="Avg M" dataDxfId="128">
+    <tableColumn id="8" xr3:uid="{02AC8FBF-EBB3-4AFC-BAC5-B773E33B7279}" name="Avg M" dataDxfId="122">
       <calculatedColumnFormula>AC29/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{CCF75EB4-34C4-4D47-9D51-E8D85C07E38B}" name="Avg T" dataDxfId="127">
+    <tableColumn id="9" xr3:uid="{CCF75EB4-34C4-4D47-9D51-E8D85C07E38B}" name="Avg T" dataDxfId="121">
       <calculatedColumnFormula>AD29/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{1A786A5C-D0C2-4ABC-904C-983180542D5F}" name="Missed Games" dataDxfId="126">
+    <tableColumn id="10" xr3:uid="{1A786A5C-D0C2-4ABC-904C-983180542D5F}" name="Missed Games" dataDxfId="120">
       <calculatedColumnFormula>COUNTIF(Template!V3, "TRUE")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7181,35 +7181,35 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{46F39EBA-1E74-46F4-A6E5-473672128124}" name="Table211" displayName="Table211" ref="AK28:AT45" totalsRowShown="0" headerRowDxfId="125" dataDxfId="124">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{46F39EBA-1E74-46F4-A6E5-473672128124}" name="Table211" displayName="Table211" ref="AK28:AT45" totalsRowShown="0" headerRowDxfId="119" dataDxfId="118">
   <autoFilter ref="AK28:AT45" xr:uid="{46F39EBA-1E74-46F4-A6E5-473672128124}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{5D003608-C1C2-4694-9447-8632FB8D7348}" name="Scoring" dataDxfId="123"/>
-    <tableColumn id="2" xr3:uid="{D15F4085-CED5-4CDD-B43B-BF7EB59B45A3}" name="Points" dataDxfId="122">
+    <tableColumn id="1" xr3:uid="{5D003608-C1C2-4694-9447-8632FB8D7348}" name="Scoring" dataDxfId="117"/>
+    <tableColumn id="2" xr3:uid="{D15F4085-CED5-4CDD-B43B-BF7EB59B45A3}" name="Points" dataDxfId="116">
       <calculatedColumnFormula>Template!AC3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{2D436F37-54B6-4820-9145-F48B4EF9B294}" name="Finishes" dataDxfId="121">
+    <tableColumn id="3" xr3:uid="{2D436F37-54B6-4820-9145-F48B4EF9B294}" name="Finishes" dataDxfId="115">
       <calculatedColumnFormula>Template!AD3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{1D9B6A22-B682-47F3-B738-7C138F317A41}" name="Midranges" dataDxfId="120">
+    <tableColumn id="4" xr3:uid="{1D9B6A22-B682-47F3-B738-7C138F317A41}" name="Midranges" dataDxfId="114">
       <calculatedColumnFormula>Template!AE3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{9966C9A0-3872-44E9-BB39-05DE197EAA68}" name="Threes" dataDxfId="119">
+    <tableColumn id="5" xr3:uid="{9966C9A0-3872-44E9-BB39-05DE197EAA68}" name="Threes" dataDxfId="113">
       <calculatedColumnFormula>Template!AF3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{CC4AB646-735F-425F-8528-C5EFE7FE11DC}" name="Avg P" dataDxfId="118">
+    <tableColumn id="6" xr3:uid="{CC4AB646-735F-425F-8528-C5EFE7FE11DC}" name="Avg P" dataDxfId="112">
       <calculatedColumnFormula>AL29/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{F8D0247E-C6F7-467A-9F38-46084D44F8AB}" name="Avg F" dataDxfId="117">
+    <tableColumn id="7" xr3:uid="{F8D0247E-C6F7-467A-9F38-46084D44F8AB}" name="Avg F" dataDxfId="111">
       <calculatedColumnFormula>AM29/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{7CCF1C77-9DB0-4EB2-B7D0-FD0BDBEBFA0E}" name="Avg M" dataDxfId="116">
+    <tableColumn id="8" xr3:uid="{7CCF1C77-9DB0-4EB2-B7D0-FD0BDBEBFA0E}" name="Avg M" dataDxfId="110">
       <calculatedColumnFormula>AN29/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{582A1A4E-5383-4383-A480-735408867046}" name="Avg T" dataDxfId="115">
+    <tableColumn id="9" xr3:uid="{582A1A4E-5383-4383-A480-735408867046}" name="Avg T" dataDxfId="109">
       <calculatedColumnFormula>AO29/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{E547AEB5-F9BA-4C5F-8DCE-34B6A8FF303A}" name="Missed Games" dataDxfId="114">
+    <tableColumn id="10" xr3:uid="{E547AEB5-F9BA-4C5F-8DCE-34B6A8FF303A}" name="Missed Games" dataDxfId="108">
       <calculatedColumnFormula>COUNTIF(Template!AG3, "TRUE")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7218,35 +7218,35 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{D27C125F-71B2-44D9-9F7A-9BED67755DD3}" name="Table21123" displayName="Table21123" ref="Z48:AI65" totalsRowShown="0" headerRowDxfId="113" dataDxfId="112">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{D27C125F-71B2-44D9-9F7A-9BED67755DD3}" name="Table21123" displayName="Table21123" ref="Z48:AI65" totalsRowShown="0" headerRowDxfId="107" dataDxfId="106">
   <autoFilter ref="Z48:AI65" xr:uid="{D27C125F-71B2-44D9-9F7A-9BED67755DD3}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{0B0344E8-2677-4FAB-9B03-4745991FB5AE}" name="Scoring" dataDxfId="111"/>
-    <tableColumn id="2" xr3:uid="{58CA1107-8BB4-4A5D-BA00-31619C8D3973}" name="Points" dataDxfId="110">
+    <tableColumn id="1" xr3:uid="{0B0344E8-2677-4FAB-9B03-4745991FB5AE}" name="Scoring" dataDxfId="105"/>
+    <tableColumn id="2" xr3:uid="{58CA1107-8BB4-4A5D-BA00-31619C8D3973}" name="Points" dataDxfId="104">
       <calculatedColumnFormula>Template!R23</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{8090861E-1FDF-44F4-9DB6-BB814E32C754}" name="Finishes" dataDxfId="109">
+    <tableColumn id="3" xr3:uid="{8090861E-1FDF-44F4-9DB6-BB814E32C754}" name="Finishes" dataDxfId="103">
       <calculatedColumnFormula>Template!S23</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{972D0347-DAB3-4985-A738-E5D78740D498}" name="Midranges" dataDxfId="108">
+    <tableColumn id="4" xr3:uid="{972D0347-DAB3-4985-A738-E5D78740D498}" name="Midranges" dataDxfId="102">
       <calculatedColumnFormula>Template!T23</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{48F5F884-1753-4988-9056-632B5EB6BBCB}" name="Threes" dataDxfId="107">
+    <tableColumn id="5" xr3:uid="{48F5F884-1753-4988-9056-632B5EB6BBCB}" name="Threes" dataDxfId="101">
       <calculatedColumnFormula>Template!U23</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{6953B627-EA05-418F-A758-FD59263EA60D}" name="Avg P" dataDxfId="106">
+    <tableColumn id="6" xr3:uid="{6953B627-EA05-418F-A758-FD59263EA60D}" name="Avg P" dataDxfId="100">
       <calculatedColumnFormula>AA49/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{BE057C9C-5ECD-4AC2-A9C0-18C89CFB52BC}" name="Avg F" dataDxfId="105">
+    <tableColumn id="7" xr3:uid="{BE057C9C-5ECD-4AC2-A9C0-18C89CFB52BC}" name="Avg F" dataDxfId="99">
       <calculatedColumnFormula>AB49/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{0FDEBEE7-CD5E-4A44-A0AE-74F044F1FF46}" name="Avg M" dataDxfId="104">
+    <tableColumn id="8" xr3:uid="{0FDEBEE7-CD5E-4A44-A0AE-74F044F1FF46}" name="Avg M" dataDxfId="98">
       <calculatedColumnFormula>AC49/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{76975BB6-3677-41A8-BC24-7536B1D876D3}" name="Avg T" dataDxfId="103">
+    <tableColumn id="9" xr3:uid="{76975BB6-3677-41A8-BC24-7536B1D876D3}" name="Avg T" dataDxfId="97">
       <calculatedColumnFormula>AD49/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{E5ADB69B-3BA2-4019-8C83-8B02221F187E}" name="Missed Games" dataDxfId="102">
+    <tableColumn id="10" xr3:uid="{E5ADB69B-3BA2-4019-8C83-8B02221F187E}" name="Missed Games" dataDxfId="96">
       <calculatedColumnFormula>COUNTIF(Template!V23, "TRUE")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7255,35 +7255,35 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{22B89D2C-1B74-4036-A4ED-A5E61F1B3AAC}" name="Table21124" displayName="Table21124" ref="AK48:AT65" totalsRowShown="0" headerRowDxfId="101" dataDxfId="100">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{22B89D2C-1B74-4036-A4ED-A5E61F1B3AAC}" name="Table21124" displayName="Table21124" ref="AK48:AT65" totalsRowShown="0" headerRowDxfId="95" dataDxfId="94">
   <autoFilter ref="AK48:AT65" xr:uid="{22B89D2C-1B74-4036-A4ED-A5E61F1B3AAC}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{3D35891E-3654-497A-8DB2-BF0BD916CA29}" name="Scoring" dataDxfId="99"/>
-    <tableColumn id="2" xr3:uid="{54B5B6AF-372A-4E07-B4D6-DFC66F7E20C5}" name="Points" dataDxfId="98">
+    <tableColumn id="1" xr3:uid="{3D35891E-3654-497A-8DB2-BF0BD916CA29}" name="Scoring" dataDxfId="93"/>
+    <tableColumn id="2" xr3:uid="{54B5B6AF-372A-4E07-B4D6-DFC66F7E20C5}" name="Points" dataDxfId="92">
       <calculatedColumnFormula>Template!AC23</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{6CA15B41-F560-4B43-8836-163F5BB5689C}" name="Finishes" dataDxfId="97">
+    <tableColumn id="3" xr3:uid="{6CA15B41-F560-4B43-8836-163F5BB5689C}" name="Finishes" dataDxfId="91">
       <calculatedColumnFormula>Template!AD23</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{8FF05262-0051-44F7-966E-8D405318BA69}" name="Midranges" dataDxfId="96">
+    <tableColumn id="4" xr3:uid="{8FF05262-0051-44F7-966E-8D405318BA69}" name="Midranges" dataDxfId="90">
       <calculatedColumnFormula>Template!AE23</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{F0D843FC-7A93-4C9A-BCCF-E789F7811B3B}" name="Threes" dataDxfId="95">
+    <tableColumn id="5" xr3:uid="{F0D843FC-7A93-4C9A-BCCF-E789F7811B3B}" name="Threes" dataDxfId="89">
       <calculatedColumnFormula>Template!AF23</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{F0498F8A-F646-4C1F-A3CF-E89E73750FC1}" name="Avg P" dataDxfId="94">
+    <tableColumn id="6" xr3:uid="{F0498F8A-F646-4C1F-A3CF-E89E73750FC1}" name="Avg P" dataDxfId="88">
       <calculatedColumnFormula>AL49/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{A387BC88-F45C-4386-8503-EFEA33BDAC38}" name="Avg F" dataDxfId="93">
+    <tableColumn id="7" xr3:uid="{A387BC88-F45C-4386-8503-EFEA33BDAC38}" name="Avg F" dataDxfId="87">
       <calculatedColumnFormula>AM49/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{BEA82919-0828-4351-A01A-D72E13E63FAB}" name="Avg M" dataDxfId="92">
+    <tableColumn id="8" xr3:uid="{BEA82919-0828-4351-A01A-D72E13E63FAB}" name="Avg M" dataDxfId="86">
       <calculatedColumnFormula>AN49/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{ABEBCE01-BCA4-4342-966C-27301889B607}" name="Avg T" dataDxfId="91">
+    <tableColumn id="9" xr3:uid="{ABEBCE01-BCA4-4342-966C-27301889B607}" name="Avg T" dataDxfId="85">
       <calculatedColumnFormula>AO49/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{65E7A8E7-4C51-42E4-AB0F-B7FF6099D70A}" name="Missed Games" dataDxfId="90">
+    <tableColumn id="10" xr3:uid="{65E7A8E7-4C51-42E4-AB0F-B7FF6099D70A}" name="Missed Games" dataDxfId="84">
       <calculatedColumnFormula>COUNTIF(Template!AG23, "TRUE")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7292,35 +7292,35 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{18C7D514-96DE-4BA6-B019-3E860ED143EC}" name="Table21125" displayName="Table21125" ref="AK68:AT85" totalsRowShown="0" headerRowDxfId="89" dataDxfId="88">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{18C7D514-96DE-4BA6-B019-3E860ED143EC}" name="Table21125" displayName="Table21125" ref="AK68:AT85" totalsRowShown="0" headerRowDxfId="83" dataDxfId="82">
   <autoFilter ref="AK68:AT85" xr:uid="{18C7D514-96DE-4BA6-B019-3E860ED143EC}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{D144EF14-69FD-4E71-90C7-56F49F45FAE5}" name="Scoring" dataDxfId="87"/>
-    <tableColumn id="2" xr3:uid="{34D1D392-F3E0-4C36-9EED-849D5B1149E6}" name="Points" dataDxfId="86">
+    <tableColumn id="1" xr3:uid="{D144EF14-69FD-4E71-90C7-56F49F45FAE5}" name="Scoring" dataDxfId="81"/>
+    <tableColumn id="2" xr3:uid="{34D1D392-F3E0-4C36-9EED-849D5B1149E6}" name="Points" dataDxfId="80">
       <calculatedColumnFormula>Template!AC43</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{E91D98A2-80BD-4E5C-9036-2FCC8185369F}" name="Finishes" dataDxfId="85">
+    <tableColumn id="3" xr3:uid="{E91D98A2-80BD-4E5C-9036-2FCC8185369F}" name="Finishes" dataDxfId="79">
       <calculatedColumnFormula>Template!AD43</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{D2E5029E-4811-4E9B-9A2D-5F5F8F322B0D}" name="Midranges" dataDxfId="84">
+    <tableColumn id="4" xr3:uid="{D2E5029E-4811-4E9B-9A2D-5F5F8F322B0D}" name="Midranges" dataDxfId="78">
       <calculatedColumnFormula>Template!AE43</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{B3E76CEE-33DA-4B18-8DCE-8EBC7EE592D7}" name="Threes" dataDxfId="83">
+    <tableColumn id="5" xr3:uid="{B3E76CEE-33DA-4B18-8DCE-8EBC7EE592D7}" name="Threes" dataDxfId="77">
       <calculatedColumnFormula>Template!AF43</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{6ABE1879-8018-4498-A9A1-22CF831F0364}" name="Avg P" dataDxfId="82">
+    <tableColumn id="6" xr3:uid="{6ABE1879-8018-4498-A9A1-22CF831F0364}" name="Avg P" dataDxfId="76">
       <calculatedColumnFormula>AL69/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{8DA4DD79-8A2A-49E4-996F-C1ACCED3C565}" name="Avg F" dataDxfId="81">
+    <tableColumn id="7" xr3:uid="{8DA4DD79-8A2A-49E4-996F-C1ACCED3C565}" name="Avg F" dataDxfId="75">
       <calculatedColumnFormula>AM69/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{256EA4BC-BA61-49E2-969F-0786AA9AA6EA}" name="Avg M" dataDxfId="80">
+    <tableColumn id="8" xr3:uid="{256EA4BC-BA61-49E2-969F-0786AA9AA6EA}" name="Avg M" dataDxfId="74">
       <calculatedColumnFormula>AN69/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{0E5566B2-99EC-4B03-A074-8705C4EDA484}" name="Avg T" dataDxfId="79">
+    <tableColumn id="9" xr3:uid="{0E5566B2-99EC-4B03-A074-8705C4EDA484}" name="Avg T" dataDxfId="73">
       <calculatedColumnFormula>AO69/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{3E2357F0-493E-401D-AC75-9AAB260F684E}" name="Missed Games" dataDxfId="78">
+    <tableColumn id="10" xr3:uid="{3E2357F0-493E-401D-AC75-9AAB260F684E}" name="Missed Games" dataDxfId="72">
       <calculatedColumnFormula>COUNTIF(Template!AG43, "TRUE")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7329,35 +7329,35 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{F118BED8-7AAF-4E55-A61F-C75C69A64AAE}" name="Table21126" displayName="Table21126" ref="Z68:AI85" totalsRowShown="0" headerRowDxfId="77" dataDxfId="76">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{F118BED8-7AAF-4E55-A61F-C75C69A64AAE}" name="Table21126" displayName="Table21126" ref="Z68:AI85" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70">
   <autoFilter ref="Z68:AI85" xr:uid="{F118BED8-7AAF-4E55-A61F-C75C69A64AAE}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{7723929D-65B3-40BB-8FDD-C4533243706C}" name="Scoring" dataDxfId="75"/>
-    <tableColumn id="2" xr3:uid="{EC28DE3D-619E-4930-A3AF-7AD1BE1D4843}" name="Points" dataDxfId="74">
+    <tableColumn id="1" xr3:uid="{7723929D-65B3-40BB-8FDD-C4533243706C}" name="Scoring" dataDxfId="69"/>
+    <tableColumn id="2" xr3:uid="{EC28DE3D-619E-4930-A3AF-7AD1BE1D4843}" name="Points" dataDxfId="68">
       <calculatedColumnFormula>Template!R43</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{9537269D-8C1D-42B5-866F-D03CE61A8512}" name="Finishes" dataDxfId="73">
+    <tableColumn id="3" xr3:uid="{9537269D-8C1D-42B5-866F-D03CE61A8512}" name="Finishes" dataDxfId="67">
       <calculatedColumnFormula>Template!S43</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{AC590DDB-BE19-4A14-8B98-1E5E2430AA45}" name="Midranges" dataDxfId="72">
+    <tableColumn id="4" xr3:uid="{AC590DDB-BE19-4A14-8B98-1E5E2430AA45}" name="Midranges" dataDxfId="66">
       <calculatedColumnFormula>Template!T43</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C96D3ACD-F34D-477E-86DE-4650EE56BC94}" name="Threes" dataDxfId="71">
+    <tableColumn id="5" xr3:uid="{C96D3ACD-F34D-477E-86DE-4650EE56BC94}" name="Threes" dataDxfId="65">
       <calculatedColumnFormula>Template!U43</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{A43DE5E9-BB01-49FA-A204-66EE7BAA2E9F}" name="Avg P" dataDxfId="70">
+    <tableColumn id="6" xr3:uid="{A43DE5E9-BB01-49FA-A204-66EE7BAA2E9F}" name="Avg P" dataDxfId="64">
       <calculatedColumnFormula>AA69/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{C75A19FF-6041-45C2-BACB-E347F06B6329}" name="Avg F" dataDxfId="69">
+    <tableColumn id="7" xr3:uid="{C75A19FF-6041-45C2-BACB-E347F06B6329}" name="Avg F" dataDxfId="63">
       <calculatedColumnFormula>AB69/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00D3FCFC-C9C5-4C96-BE0E-8E1FDC95D07C}" name="Avg M" dataDxfId="68">
+    <tableColumn id="8" xr3:uid="{00D3FCFC-C9C5-4C96-BE0E-8E1FDC95D07C}" name="Avg M" dataDxfId="62">
       <calculatedColumnFormula>AC69/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{0448FF4E-9D2D-47F6-89B7-F17D36B05E8A}" name="Avg T" dataDxfId="67">
+    <tableColumn id="9" xr3:uid="{0448FF4E-9D2D-47F6-89B7-F17D36B05E8A}" name="Avg T" dataDxfId="61">
       <calculatedColumnFormula>AD69/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{D5BDFA2D-095B-44F8-8567-15B3B1520E5A}" name="Missed Games" dataDxfId="66">
+    <tableColumn id="10" xr3:uid="{D5BDFA2D-095B-44F8-8567-15B3B1520E5A}" name="Missed Games" dataDxfId="60">
       <calculatedColumnFormula>COUNTIF(Template!V43, "TRUE")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7366,35 +7366,35 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{BDD2E472-3925-41A7-BECD-3315E6E71ECC}" name="Table21127" displayName="Table21127" ref="Z88:AI105" totalsRowShown="0" headerRowDxfId="65" dataDxfId="64">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{BDD2E472-3925-41A7-BECD-3315E6E71ECC}" name="Table21127" displayName="Table21127" ref="Z88:AI105" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58">
   <autoFilter ref="Z88:AI105" xr:uid="{BDD2E472-3925-41A7-BECD-3315E6E71ECC}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{9DBD966D-620C-4B97-A502-29D00ABE150B}" name="Scoring" dataDxfId="63"/>
-    <tableColumn id="2" xr3:uid="{F8F81F0E-16B3-4472-9D90-A92149C763E4}" name="Points" dataDxfId="62">
+    <tableColumn id="1" xr3:uid="{9DBD966D-620C-4B97-A502-29D00ABE150B}" name="Scoring" dataDxfId="57"/>
+    <tableColumn id="2" xr3:uid="{F8F81F0E-16B3-4472-9D90-A92149C763E4}" name="Points" dataDxfId="56">
       <calculatedColumnFormula>Template!R63</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{09859CE1-290D-4977-B02C-46F4E5A6FDC2}" name="Finishes" dataDxfId="61">
+    <tableColumn id="3" xr3:uid="{09859CE1-290D-4977-B02C-46F4E5A6FDC2}" name="Finishes" dataDxfId="55">
       <calculatedColumnFormula>Template!S63</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{7D751A0E-2895-46DF-B5E2-5A8AA5531CD2}" name="Midranges" dataDxfId="60">
+    <tableColumn id="4" xr3:uid="{7D751A0E-2895-46DF-B5E2-5A8AA5531CD2}" name="Midranges" dataDxfId="54">
       <calculatedColumnFormula>Template!T63</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{591CDC71-B0EA-413B-B6C1-77884E7E50D4}" name="Threes" dataDxfId="59">
+    <tableColumn id="5" xr3:uid="{591CDC71-B0EA-413B-B6C1-77884E7E50D4}" name="Threes" dataDxfId="53">
       <calculatedColumnFormula>Template!U63</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{52ED768C-5557-42DC-9824-7A4D9B547153}" name="Avg P" dataDxfId="58">
+    <tableColumn id="6" xr3:uid="{52ED768C-5557-42DC-9824-7A4D9B547153}" name="Avg P" dataDxfId="52">
       <calculatedColumnFormula>AA89/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{FC79BE87-72E2-4F5E-83D6-CDCE645EB943}" name="Avg F" dataDxfId="57">
+    <tableColumn id="7" xr3:uid="{FC79BE87-72E2-4F5E-83D6-CDCE645EB943}" name="Avg F" dataDxfId="51">
       <calculatedColumnFormula>AB89/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{BA012C22-0D65-4C11-98A7-4F958703D04B}" name="Avg M" dataDxfId="56">
+    <tableColumn id="8" xr3:uid="{BA012C22-0D65-4C11-98A7-4F958703D04B}" name="Avg M" dataDxfId="50">
       <calculatedColumnFormula>AC89/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{63344F2B-5D94-417D-85E2-C2BFBACE3E7E}" name="Avg T" dataDxfId="55">
+    <tableColumn id="9" xr3:uid="{63344F2B-5D94-417D-85E2-C2BFBACE3E7E}" name="Avg T" dataDxfId="49">
       <calculatedColumnFormula>AD89/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{1AD5A604-8909-45B3-8E43-11D407451CEA}" name="Missed Games" dataDxfId="54">
+    <tableColumn id="10" xr3:uid="{1AD5A604-8909-45B3-8E43-11D407451CEA}" name="Missed Games" dataDxfId="48">
       <calculatedColumnFormula>COUNTIF(Template!V63, "TRUE")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7403,35 +7403,35 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{F9183685-60DE-4163-AA62-BE4F563EE570}" name="Table21128" displayName="Table21128" ref="AK88:AT105" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{F9183685-60DE-4163-AA62-BE4F563EE570}" name="Table21128" displayName="Table21128" ref="AK88:AT105" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
   <autoFilter ref="AK88:AT105" xr:uid="{F9183685-60DE-4163-AA62-BE4F563EE570}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{E62FBAA0-D6F6-4997-96C9-B6B13FAA9B6E}" name="Scoring" dataDxfId="51"/>
-    <tableColumn id="2" xr3:uid="{0A655F6F-9A21-4167-85B6-B9F7DC2070CA}" name="Points" dataDxfId="50">
+    <tableColumn id="1" xr3:uid="{E62FBAA0-D6F6-4997-96C9-B6B13FAA9B6E}" name="Scoring" dataDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{0A655F6F-9A21-4167-85B6-B9F7DC2070CA}" name="Points" dataDxfId="44">
       <calculatedColumnFormula>Template!AC63</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{460771D3-3BD8-4DA3-AF1B-1A0F98EF1499}" name="Finishes" dataDxfId="49">
+    <tableColumn id="3" xr3:uid="{460771D3-3BD8-4DA3-AF1B-1A0F98EF1499}" name="Finishes" dataDxfId="43">
       <calculatedColumnFormula>Template!AD63</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{3C08B2D7-823D-49C3-A627-A5848E664B2F}" name="Midranges" dataDxfId="48">
+    <tableColumn id="4" xr3:uid="{3C08B2D7-823D-49C3-A627-A5848E664B2F}" name="Midranges" dataDxfId="42">
       <calculatedColumnFormula>Template!AE63</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{E88F45FB-4C46-4674-86D5-74808E7E5368}" name="Threes" dataDxfId="47">
+    <tableColumn id="5" xr3:uid="{E88F45FB-4C46-4674-86D5-74808E7E5368}" name="Threes" dataDxfId="41">
       <calculatedColumnFormula>Template!AF63</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{0C0E8016-1E6E-4F25-9675-4EE061FFD0F7}" name="Avg P" dataDxfId="46">
+    <tableColumn id="6" xr3:uid="{0C0E8016-1E6E-4F25-9675-4EE061FFD0F7}" name="Avg P" dataDxfId="40">
       <calculatedColumnFormula>AL89/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{F7AC350B-AE4B-4912-B21D-16D99E2AE8BF}" name="Avg F" dataDxfId="45">
+    <tableColumn id="7" xr3:uid="{F7AC350B-AE4B-4912-B21D-16D99E2AE8BF}" name="Avg F" dataDxfId="39">
       <calculatedColumnFormula>AM89/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{F451E5CA-B9C4-4EFA-A647-CEDB2FB39550}" name="Avg M" dataDxfId="44">
+    <tableColumn id="8" xr3:uid="{F451E5CA-B9C4-4EFA-A647-CEDB2FB39550}" name="Avg M" dataDxfId="38">
       <calculatedColumnFormula>AN89/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{ED1D92B5-05F1-40CE-A89F-E6627FAB4A59}" name="Avg T" dataDxfId="43">
+    <tableColumn id="9" xr3:uid="{ED1D92B5-05F1-40CE-A89F-E6627FAB4A59}" name="Avg T" dataDxfId="37">
       <calculatedColumnFormula>AO89/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{48A4808A-3DE6-4644-83F5-C2AEDDFC3E5E}" name="Missed Games" dataDxfId="42">
+    <tableColumn id="10" xr3:uid="{48A4808A-3DE6-4644-83F5-C2AEDDFC3E5E}" name="Missed Games" dataDxfId="36">
       <calculatedColumnFormula>COUNTIF(Template!AG63, "TRUE")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7640,8 +7640,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:X1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="O45" sqref="O45"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="X17" sqref="X17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -7774,14 +7774,14 @@
         <v>0</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="U3" s="1" t="str">
         <f>IF(C3="5 Musketeers", $X$3, IF(C3="Loose Gooses", $X$4, IF(C3="Wet Willies", $X$5, $X$6)))</f>
         <v>../Images/LG_Final.png</v>
       </c>
       <c r="V3" s="1" t="str">
-        <f t="shared" ref="V3:V18" si="0">X$8&amp;X10&amp;".png"</f>
+        <f t="shared" ref="V3:V13" si="0">X$8&amp;X10&amp;".png"</f>
         <v>../Images/Players/Jasper.png</v>
       </c>
       <c r="X3" s="2" t="s">
@@ -7828,10 +7828,10 @@
         <v>0</v>
       </c>
       <c r="T4" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="U4" s="12" t="str">
-        <f t="shared" ref="U4:U18" si="1">IF(C4="5 Musketeers", $X$3, IF(C4="Loose Gooses", $X$4, IF(C4="Wet Willies", $X$5, $X$6)))</f>
+        <f t="shared" ref="U4:U13" si="1">IF(C4="5 Musketeers", $X$3, IF(C4="Loose Gooses", $X$4, IF(C4="Wet Willies", $X$5, $X$6)))</f>
         <v>../Images/LG_Final.png</v>
       </c>
       <c r="V4" s="1" t="str">
@@ -7894,7 +7894,7 @@
         <v>154</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="U5" s="12" t="str">
         <f t="shared" si="1"/>
@@ -7969,7 +7969,7 @@
         <v>40</v>
       </c>
       <c r="T6" s="105" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="U6" s="12" t="str">
         <f t="shared" si="1"/>
@@ -8035,7 +8035,7 @@
         <v>155</v>
       </c>
       <c r="T7" s="119" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="U7" s="12" t="str">
         <f t="shared" si="1"/>
@@ -8095,7 +8095,7 @@
         <v>156</v>
       </c>
       <c r="T8" s="120" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="U8" s="12" t="str">
         <f t="shared" si="1"/>
@@ -8149,10 +8149,13 @@
         <v>0</v>
       </c>
       <c r="L9" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="M9" s="17" t="s">
         <v>158</v>
       </c>
       <c r="T9" s="120" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="U9" s="12" t="str">
         <f t="shared" si="1"/>
@@ -8160,7 +8163,7 @@
       </c>
       <c r="V9" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>../Images/Players/Sam J.png</v>
+        <v>../Images/Players/SamJ.png</v>
       </c>
     </row>
     <row r="10" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -8224,7 +8227,7 @@
         <v>158</v>
       </c>
       <c r="T10" s="120" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="U10" s="12" t="str">
         <f t="shared" si="1"/>
@@ -8299,7 +8302,7 @@
         <v>159</v>
       </c>
       <c r="T11" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="U11" s="12" t="str">
         <f t="shared" si="1"/>
@@ -8368,7 +8371,7 @@
         <v>154</v>
       </c>
       <c r="T12" s="106" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="U12" s="12" t="str">
         <f t="shared" si="1"/>
@@ -8429,7 +8432,7 @@
       </c>
       <c r="N13" s="17"/>
       <c r="T13" s="121" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="U13" s="12" t="str">
         <f t="shared" si="1"/>
@@ -8445,9 +8448,9 @@
     </row>
     <row r="14" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C14" s="131" t="s">
+        <v>202</v>
+      </c>
+      <c r="C14" s="130" t="s">
         <v>31</v>
       </c>
       <c r="D14" s="8">
@@ -8483,7 +8486,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="17" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="17"/>
@@ -8492,15 +8495,15 @@
       <c r="Q14" s="17"/>
       <c r="R14" s="17"/>
       <c r="S14" s="17"/>
-      <c r="T14" s="132" t="s">
-        <v>200</v>
+      <c r="T14" s="131" t="s">
+        <v>199</v>
       </c>
       <c r="U14" s="12" t="str">
-        <f>IF(C14="5 Musketeers", $X$3, IF(C14="Loose Gooses", $X$4, IF(C14="Wet Willies", $X$5, $X$6)))</f>
+        <f t="shared" ref="U14:U19" si="2">IF(C14="5 Musketeers", $X$3, IF(C14="Loose Gooses", $X$4, IF(C14="Wet Willies", $X$5, $X$6)))</f>
         <v>../Images/WW_Final.png</v>
       </c>
       <c r="V14" s="12" t="str">
-        <f>X$8&amp;X21&amp;".png"</f>
+        <f t="shared" ref="V14:V19" si="3">X$8&amp;X21&amp;".png"</f>
         <v>../Images/Players/Will.png</v>
       </c>
       <c r="X14" s="2" t="s">
@@ -8565,14 +8568,14 @@
         <v>155</v>
       </c>
       <c r="T15" s="121" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="U15" s="12" t="str">
-        <f>IF(C15="5 Musketeers", $X$3, IF(C15="Loose Gooses", $X$4, IF(C15="Wet Willies", $X$5, $X$6)))</f>
+        <f t="shared" si="2"/>
         <v>../Images/5M_Final.png</v>
       </c>
       <c r="V15" s="1" t="str">
-        <f>X$8&amp;X22&amp;".png"</f>
+        <f t="shared" si="3"/>
         <v>../Images/Players/Nick.png</v>
       </c>
       <c r="X15" s="2" t="s">
@@ -8637,18 +8640,18 @@
         <v>158</v>
       </c>
       <c r="T16" s="121" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="U16" s="12" t="str">
-        <f>IF(C16="5 Musketeers", $X$3, IF(C16="Loose Gooses", $X$4, IF(C16="Wet Willies", $X$5, $X$6)))</f>
+        <f t="shared" si="2"/>
         <v>../Images/LG_Final.png</v>
       </c>
       <c r="V16" s="1" t="str">
-        <f>X$8&amp;X23&amp;".png"</f>
+        <f t="shared" si="3"/>
         <v>../Images/Players/Chris.png</v>
       </c>
       <c r="X16" s="17" t="s">
-        <v>165</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -8715,14 +8718,14 @@
         <v>158</v>
       </c>
       <c r="T17" s="105" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="U17" s="12" t="str">
-        <f>IF(C17="5 Musketeers", $X$3, IF(C17="Loose Gooses", $X$4, IF(C17="Wet Willies", $X$5, $X$6)))</f>
+        <f t="shared" si="2"/>
         <v>../Images/LG_Final.png</v>
       </c>
       <c r="V17" s="1" t="str">
-        <f>X$8&amp;X24&amp;".png"</f>
+        <f t="shared" si="3"/>
         <v>../Images/Players/Angus.png</v>
       </c>
       <c r="X17" s="2" t="s">
@@ -8778,14 +8781,14 @@
         <v>149</v>
       </c>
       <c r="T18" s="120" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="U18" s="12" t="str">
-        <f>IF(C18="5 Musketeers", $X$3, IF(C18="Loose Gooses", $X$4, IF(C18="Wet Willies", $X$5, $X$6)))</f>
+        <f t="shared" si="2"/>
         <v>../Images/WW_Final.png</v>
       </c>
       <c r="V18" s="1" t="str">
-        <f>X$8&amp;X25&amp;".png"</f>
+        <f t="shared" si="3"/>
         <v>../Images/Players/Willie.png</v>
       </c>
       <c r="X18" s="2" t="s">
@@ -8838,14 +8841,14 @@
         <v>158</v>
       </c>
       <c r="T19" s="120" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="U19" s="12" t="str">
-        <f>IF(C19="5 Musketeers", $X$3, IF(C19="Loose Gooses", $X$4, IF(C19="Wet Willies", $X$5, $X$6)))</f>
+        <f t="shared" si="2"/>
         <v>../Images/5M_Final.png</v>
       </c>
       <c r="V19" s="1" t="str">
-        <f>X$8&amp;X26&amp;".png"</f>
+        <f t="shared" si="3"/>
         <v>../Images/Players/Mitch.png</v>
       </c>
       <c r="X19" s="2" t="s">
@@ -8866,22 +8869,22 @@
     </row>
     <row r="21" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="X21" s="17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="22" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="B22" s="130" t="s">
+      <c r="B22" s="132" t="s">
         <v>119</v>
       </c>
-      <c r="C22" s="130"/>
+      <c r="C22" s="132"/>
       <c r="D22" s="104"/>
       <c r="X22" s="2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="23" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="B23" s="130"/>
-      <c r="C23" s="130"/>
+      <c r="B23" s="132"/>
+      <c r="C23" s="132"/>
       <c r="D23" s="104"/>
       <c r="X23" s="2" t="s">
         <v>71</v>
@@ -9165,7 +9168,7 @@
     <row r="35" spans="2:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B35" s="17" t="str">
         <f>L49&amp;":["&amp;L50&amp;L51&amp;L52&amp;L53&amp;L54&amp;L55&amp;L56&amp;L57&amp;L58&amp;L59&amp;L60&amp;L61&amp;L62&amp;L63&amp;L64&amp;L65&amp;L66&amp;"],"</f>
-        <v>"AccoladesOne":["","","All-Defence Team T1","All-Offence Team T1","Playmaker T1","MVP Runner Up T1","Champion T2","LTBO Manager","MVP T1","GM","Perimeter T1","LTBO Photographer","The Biggest Bird","MIP T1","LTBO CEO","Teammate T1","All-2nd-Defence Team T2"],</v>
+        <v>"AccoladesOne":["","","All-Defence Team T1","All-Offence Team T1","Playmaker T1","MVP Runner Up T1","Miles Morales","LTBO Manager","MVP T1","GM","Perimeter T1","LTBO Photographer","The Biggest Bird","MIP T1","LTBO CEO","Teammate T1","All-2nd-Defence Team T2"],</v>
       </c>
       <c r="C35" s="17"/>
       <c r="D35" s="17"/>
@@ -9191,7 +9194,7 @@
     <row r="36" spans="2:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B36" s="17" t="str">
         <f>M49&amp;":["&amp;M50&amp;M51&amp;M52&amp;M53&amp;M54&amp;M55&amp;M56&amp;M57&amp;M58&amp;M59&amp;M60&amp;M61&amp;M62&amp;M63&amp;M64&amp;M65&amp;M66&amp;"],"</f>
-        <v>"AccoladesTwo":["","","Champion T1","All-Defence Team T1","Thirdman T1","All-Offence Team T1","","Champion T1","All-Offence Team T1","All-Offence Team T1","Champion T1","","Champion T1","MIP T2","GM","Champion T1","Champion T2"],</v>
+        <v>"AccoladesTwo":["","","Champion T1","All-Defence Team T1","Thirdman T1","All-Offence Team T1","Champion T2","Champion T1","All-Offence Team T1","All-Offence Team T1","Champion T1","","Champion T1","MIP T2","GM","Champion T1","Champion T2"],</v>
       </c>
       <c r="C36" s="17"/>
       <c r="D36" s="17"/>
@@ -9425,7 +9428,7 @@
     <row r="45" spans="2:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B45" s="17" t="str">
         <f>V49&amp;":["&amp;V50&amp;V51&amp;V52&amp;V53&amp;V54&amp;V55&amp;V56&amp;V57&amp;V58&amp;V59&amp;V60&amp;V61&amp;V62&amp;V63&amp;V64&amp;V65&amp;V66&amp;"],"</f>
-        <v>"PlayerImage":["../Images/Players/Jasper.png","../Images/Players/Conor.png","../Images/Players/Alex.png","../Images/Players/Rudy.png","../Images/Players/Michael.png","../Images/Players/Lukas.png","../Images/Players/Sam J.png","../Images/Players/Clarrie.png","../Images/Players/Kimmy.png","../Images/Players/SamM.png","../Images/Players/Ryan.png","../Images/Players/Will.png","../Images/Players/Nick.png","../Images/Players/Chris.png","../Images/Players/Angus.png","../Images/Players/Willie.png","../Images/Players/Mitch.png"],</v>
+        <v>"PlayerImage":["../Images/Players/Jasper.png","../Images/Players/Conor.png","../Images/Players/Alex.png","../Images/Players/Rudy.png","../Images/Players/Michael.png","../Images/Players/Lukas.png","../Images/Players/SamJ.png","../Images/Players/Clarrie.png","../Images/Players/Kimmy.png","../Images/Players/SamM.png","../Images/Players/Ryan.png","../Images/Players/Will.png","../Images/Players/Nick.png","../Images/Players/Chris.png","../Images/Players/Angus.png","../Images/Players/Willie.png","../Images/Players/Mitch.png"],</v>
       </c>
       <c r="C45" s="17"/>
       <c r="D45" s="17"/>
@@ -9556,1424 +9559,1424 @@
         <v>"TT"</v>
       </c>
       <c r="L49" s="18" t="str">
-        <f>CHAR(34)&amp;L2&amp;CHAR(34)</f>
+        <f t="shared" ref="L49:V49" si="4">CHAR(34)&amp;L2&amp;CHAR(34)</f>
         <v>"AccoladesOne"</v>
       </c>
       <c r="M49" s="18" t="str">
-        <f>CHAR(34)&amp;M2&amp;CHAR(34)</f>
+        <f t="shared" si="4"/>
         <v>"AccoladesTwo"</v>
       </c>
       <c r="N49" s="18" t="str">
-        <f>CHAR(34)&amp;N2&amp;CHAR(34)</f>
+        <f t="shared" si="4"/>
         <v>"AccoladesThree"</v>
       </c>
       <c r="O49" s="18" t="str">
-        <f>CHAR(34)&amp;O2&amp;CHAR(34)</f>
+        <f t="shared" si="4"/>
         <v>"AccoladesFour"</v>
       </c>
       <c r="P49" s="18" t="str">
-        <f>CHAR(34)&amp;P2&amp;CHAR(34)</f>
+        <f t="shared" si="4"/>
         <v>"AccoladesFive"</v>
       </c>
       <c r="Q49" s="18" t="str">
-        <f>CHAR(34)&amp;Q2&amp;CHAR(34)</f>
+        <f t="shared" si="4"/>
         <v>"AccoladesSix"</v>
       </c>
       <c r="R49" s="18" t="str">
-        <f>CHAR(34)&amp;R2&amp;CHAR(34)</f>
+        <f t="shared" si="4"/>
         <v>"AccoladesSeven"</v>
       </c>
       <c r="S49" s="18" t="str">
-        <f>CHAR(34)&amp;S2&amp;CHAR(34)</f>
+        <f t="shared" si="4"/>
         <v>"AccoladesEight"</v>
       </c>
       <c r="T49" s="18" t="str">
-        <f>CHAR(34)&amp;T2&amp;CHAR(34)</f>
+        <f t="shared" si="4"/>
         <v>"History"</v>
       </c>
       <c r="U49" s="18" t="str">
-        <f>CHAR(34)&amp;U2&amp;CHAR(34)</f>
+        <f t="shared" si="4"/>
         <v>"TeamImage"</v>
       </c>
       <c r="V49" s="18" t="str">
-        <f>CHAR(34)&amp;V2&amp;CHAR(34)</f>
+        <f t="shared" si="4"/>
         <v>"PlayerImage"</v>
       </c>
       <c r="W49" s="17"/>
     </row>
     <row r="50" spans="2:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B50" s="18" t="str">
-        <f>CHAR(34)&amp;B3&amp;CHAR(34)&amp;","</f>
+        <f t="shared" ref="B50:C65" si="5">CHAR(34)&amp;B3&amp;CHAR(34)&amp;","</f>
         <v>"Jasper Collier",</v>
       </c>
       <c r="C50" s="18" t="str">
-        <f>CHAR(34)&amp;C3&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="5"/>
         <v>"Loose Gooses",</v>
       </c>
       <c r="D50" s="18" t="str">
-        <f>ROUND(D3,2)&amp;","</f>
+        <f t="shared" ref="D50:D65" si="6">ROUND(D3,2)&amp;","</f>
         <v>0,</v>
       </c>
       <c r="E50" s="18" t="str">
-        <f>E3&amp;","</f>
+        <f t="shared" ref="E50:E65" si="7">E3&amp;","</f>
         <v>0,</v>
       </c>
       <c r="F50" s="18" t="str">
-        <f>ROUND(F3,2)&amp;","</f>
+        <f t="shared" ref="F50:F65" si="8">ROUND(F3,2)&amp;","</f>
         <v>0,</v>
       </c>
       <c r="G50" s="18" t="str">
-        <f>G3&amp;","</f>
+        <f t="shared" ref="G50:G65" si="9">G3&amp;","</f>
         <v>0,</v>
       </c>
       <c r="H50" s="18" t="str">
-        <f>ROUND(H3,2)&amp;","</f>
+        <f t="shared" ref="H50:H65" si="10">ROUND(H3,2)&amp;","</f>
         <v>0,</v>
       </c>
       <c r="I50" s="18" t="str">
-        <f>I3&amp;","</f>
+        <f t="shared" ref="I50:I65" si="11">I3&amp;","</f>
         <v>0,</v>
       </c>
       <c r="J50" s="18" t="str">
-        <f>ROUND(J3,2)&amp;","</f>
+        <f t="shared" ref="J50:J65" si="12">ROUND(J3,2)&amp;","</f>
         <v>0,</v>
       </c>
       <c r="K50" s="18" t="str">
-        <f>K3&amp;","</f>
+        <f t="shared" ref="K50:K65" si="13">K3&amp;","</f>
         <v>0,</v>
       </c>
       <c r="L50" s="18" t="str">
-        <f>CHAR(34)&amp;L3&amp;CHAR(34)&amp;","</f>
+        <f t="shared" ref="L50:V50" si="14">CHAR(34)&amp;L3&amp;CHAR(34)&amp;","</f>
         <v>"",</v>
       </c>
       <c r="M50" s="18" t="str">
-        <f>CHAR(34)&amp;M3&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="14"/>
         <v>"",</v>
       </c>
       <c r="N50" s="18" t="str">
-        <f>CHAR(34)&amp;N3&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="14"/>
         <v>"",</v>
       </c>
       <c r="O50" s="18" t="str">
-        <f>CHAR(34)&amp;O3&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="14"/>
         <v>"",</v>
       </c>
       <c r="P50" s="18" t="str">
-        <f>CHAR(34)&amp;P3&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="14"/>
         <v>"",</v>
       </c>
       <c r="Q50" s="18" t="str">
-        <f>CHAR(34)&amp;Q3&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="14"/>
         <v>"",</v>
       </c>
       <c r="R50" s="18" t="str">
-        <f>CHAR(34)&amp;R3&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="14"/>
         <v>"",</v>
       </c>
       <c r="S50" s="18" t="str">
-        <f>CHAR(34)&amp;S3&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="14"/>
         <v>"",</v>
       </c>
       <c r="T50" s="18" t="str">
-        <f>CHAR(34)&amp;T3&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="14"/>
         <v>"Drafted by Loose Gooses",</v>
       </c>
       <c r="U50" s="18" t="str">
-        <f>CHAR(34)&amp;U3&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="14"/>
         <v>"../Images/LG_Final.png",</v>
       </c>
       <c r="V50" s="18" t="str">
-        <f>CHAR(34)&amp;V3&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="14"/>
         <v>"../Images/Players/Jasper.png",</v>
       </c>
     </row>
     <row r="51" spans="2:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B51" s="18" t="str">
-        <f>CHAR(34)&amp;B4&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="5"/>
         <v>"Conor Farrington",</v>
       </c>
       <c r="C51" s="18" t="str">
-        <f>CHAR(34)&amp;C4&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="5"/>
         <v>"Loose Gooses",</v>
       </c>
       <c r="D51" s="18" t="str">
-        <f>ROUND(D4,2)&amp;","</f>
+        <f t="shared" si="6"/>
         <v>1,</v>
       </c>
       <c r="E51" s="18" t="str">
-        <f>E4&amp;","</f>
+        <f t="shared" si="7"/>
         <v>2,</v>
       </c>
       <c r="F51" s="18" t="str">
-        <f>ROUND(F4,2)&amp;","</f>
+        <f t="shared" si="8"/>
         <v>0.5,</v>
       </c>
       <c r="G51" s="18" t="str">
-        <f>G4&amp;","</f>
+        <f t="shared" si="9"/>
         <v>1,</v>
       </c>
       <c r="H51" s="18" t="str">
-        <f>ROUND(H4,2)&amp;","</f>
+        <f t="shared" si="10"/>
         <v>0.5,</v>
       </c>
       <c r="I51" s="18" t="str">
-        <f>I4&amp;","</f>
+        <f t="shared" si="11"/>
         <v>1,</v>
       </c>
       <c r="J51" s="18" t="str">
-        <f>ROUND(J4,2)&amp;","</f>
+        <f t="shared" si="12"/>
         <v>0,</v>
       </c>
       <c r="K51" s="18" t="str">
-        <f>K4&amp;","</f>
+        <f t="shared" si="13"/>
         <v>0,</v>
       </c>
       <c r="L51" s="18" t="str">
-        <f>CHAR(34)&amp;L4&amp;CHAR(34)&amp;","</f>
+        <f t="shared" ref="L51:V51" si="15">CHAR(34)&amp;L4&amp;CHAR(34)&amp;","</f>
         <v>"",</v>
       </c>
       <c r="M51" s="18" t="str">
-        <f>CHAR(34)&amp;M4&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="15"/>
         <v>"",</v>
       </c>
       <c r="N51" s="18" t="str">
-        <f>CHAR(34)&amp;N4&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="15"/>
         <v>"",</v>
       </c>
       <c r="O51" s="18" t="str">
-        <f>CHAR(34)&amp;O4&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="15"/>
         <v>"",</v>
       </c>
       <c r="P51" s="18" t="str">
-        <f>CHAR(34)&amp;P4&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="15"/>
         <v>"",</v>
       </c>
       <c r="Q51" s="18" t="str">
-        <f>CHAR(34)&amp;Q4&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="15"/>
         <v>"",</v>
       </c>
       <c r="R51" s="18" t="str">
-        <f>CHAR(34)&amp;R4&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="15"/>
         <v>"",</v>
       </c>
       <c r="S51" s="18" t="str">
-        <f>CHAR(34)&amp;S4&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="15"/>
         <v>"",</v>
       </c>
       <c r="T51" s="18" t="str">
-        <f>CHAR(34)&amp;T4&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="15"/>
         <v>"Drafted by Loose Gooses",</v>
       </c>
       <c r="U51" s="18" t="str">
-        <f>CHAR(34)&amp;U4&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="15"/>
         <v>"../Images/LG_Final.png",</v>
       </c>
       <c r="V51" s="18" t="str">
-        <f>CHAR(34)&amp;V4&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="15"/>
         <v>"../Images/Players/Conor.png",</v>
       </c>
     </row>
     <row r="52" spans="2:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B52" s="18" t="str">
-        <f>CHAR(34)&amp;B5&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="5"/>
         <v>"Alexander Galt",</v>
       </c>
       <c r="C52" s="18" t="str">
-        <f>CHAR(34)&amp;C5&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="5"/>
         <v>"5 Musketeers",</v>
       </c>
       <c r="D52" s="18" t="str">
-        <f>ROUND(D5,2)&amp;","</f>
+        <f t="shared" si="6"/>
         <v>6,</v>
       </c>
       <c r="E52" s="18" t="str">
-        <f>E5&amp;","</f>
+        <f t="shared" si="7"/>
         <v>12,</v>
       </c>
       <c r="F52" s="18" t="str">
-        <f>ROUND(F5,2)&amp;","</f>
+        <f t="shared" si="8"/>
         <v>5,</v>
       </c>
       <c r="G52" s="18" t="str">
-        <f>G5&amp;","</f>
+        <f t="shared" si="9"/>
         <v>10,</v>
       </c>
       <c r="H52" s="18" t="str">
-        <f>ROUND(H5,2)&amp;","</f>
+        <f t="shared" si="10"/>
         <v>0,</v>
       </c>
       <c r="I52" s="18" t="str">
-        <f>I5&amp;","</f>
+        <f t="shared" si="11"/>
         <v>0,</v>
       </c>
       <c r="J52" s="18" t="str">
-        <f>ROUND(J5,2)&amp;","</f>
+        <f t="shared" si="12"/>
         <v>0.5,</v>
       </c>
       <c r="K52" s="18" t="str">
-        <f>K5&amp;","</f>
+        <f t="shared" si="13"/>
         <v>1,</v>
       </c>
       <c r="L52" s="18" t="str">
-        <f>CHAR(34)&amp;L5&amp;CHAR(34)&amp;","</f>
+        <f t="shared" ref="L52:V52" si="16">CHAR(34)&amp;L5&amp;CHAR(34)&amp;","</f>
         <v>"All-Defence Team T1",</v>
       </c>
       <c r="M52" s="18" t="str">
-        <f>CHAR(34)&amp;M5&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="16"/>
         <v>"Champion T1",</v>
       </c>
       <c r="N52" s="18" t="str">
-        <f>CHAR(34)&amp;N5&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="16"/>
         <v>"All-Offence Team T2",</v>
       </c>
       <c r="O52" s="18" t="str">
-        <f>CHAR(34)&amp;O5&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="16"/>
         <v>"All-Defence Team T2",</v>
       </c>
       <c r="P52" s="18" t="str">
-        <f>CHAR(34)&amp;P5&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="16"/>
         <v>"",</v>
       </c>
       <c r="Q52" s="18" t="str">
-        <f>CHAR(34)&amp;Q5&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="16"/>
         <v>"",</v>
       </c>
       <c r="R52" s="18" t="str">
-        <f>CHAR(34)&amp;R5&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="16"/>
         <v>"",</v>
       </c>
       <c r="S52" s="18" t="str">
-        <f>CHAR(34)&amp;S5&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="16"/>
         <v>"",</v>
       </c>
       <c r="T52" s="18" t="str">
-        <f>CHAR(34)&amp;T5&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="16"/>
         <v>"Retained by 5 Musketeers",</v>
       </c>
       <c r="U52" s="18" t="str">
-        <f>CHAR(34)&amp;U5&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="16"/>
         <v>"../Images/5M_Final.png",</v>
       </c>
       <c r="V52" s="18" t="str">
-        <f>CHAR(34)&amp;V5&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="16"/>
         <v>"../Images/Players/Alex.png",</v>
       </c>
     </row>
     <row r="53" spans="2:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B53" s="18" t="str">
-        <f>CHAR(34)&amp;B6&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="5"/>
         <v>"Rudy Hoschke",</v>
       </c>
       <c r="C53" s="18" t="str">
-        <f>CHAR(34)&amp;C6&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="5"/>
         <v>"Wet Willies",</v>
       </c>
       <c r="D53" s="18" t="str">
-        <f>ROUND(D6,2)&amp;","</f>
+        <f t="shared" si="6"/>
         <v>0,</v>
       </c>
       <c r="E53" s="18" t="str">
-        <f>E6&amp;","</f>
+        <f t="shared" si="7"/>
         <v>0,</v>
       </c>
       <c r="F53" s="18" t="str">
-        <f>ROUND(F6,2)&amp;","</f>
+        <f t="shared" si="8"/>
         <v>0,</v>
       </c>
       <c r="G53" s="18" t="str">
-        <f>G6&amp;","</f>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="H53" s="18" t="str">
-        <f>ROUND(H6,2)&amp;","</f>
+        <f t="shared" si="10"/>
         <v>0,</v>
       </c>
       <c r="I53" s="18" t="str">
-        <f>I6&amp;","</f>
+        <f t="shared" si="11"/>
         <v>0,</v>
       </c>
       <c r="J53" s="18" t="str">
-        <f>ROUND(J6,2)&amp;","</f>
+        <f t="shared" si="12"/>
         <v>0,</v>
       </c>
       <c r="K53" s="18" t="str">
-        <f>K6&amp;","</f>
+        <f t="shared" si="13"/>
         <v>0,</v>
       </c>
       <c r="L53" s="18" t="str">
-        <f>CHAR(34)&amp;L6&amp;CHAR(34)&amp;","</f>
+        <f t="shared" ref="L53:V53" si="17">CHAR(34)&amp;L6&amp;CHAR(34)&amp;","</f>
         <v>"All-Offence Team T1",</v>
       </c>
       <c r="M53" s="18" t="str">
-        <f>CHAR(34)&amp;M6&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="17"/>
         <v>"All-Defence Team T1",</v>
       </c>
       <c r="N53" s="18" t="str">
-        <f>CHAR(34)&amp;N6&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="17"/>
         <v>"Champion T1",</v>
       </c>
       <c r="O53" s="18" t="str">
-        <f>CHAR(34)&amp;O6&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="17"/>
         <v>"All-Offence Team T2",</v>
       </c>
       <c r="P53" s="18" t="str">
-        <f>CHAR(34)&amp;P6&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="17"/>
         <v>"All-Defence Team T2",</v>
       </c>
       <c r="Q53" s="18" t="str">
-        <f>CHAR(34)&amp;Q6&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="17"/>
         <v>"Scoring Champ T2",</v>
       </c>
       <c r="R53" s="18" t="str">
-        <f>CHAR(34)&amp;R6&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="17"/>
         <v>"GM",</v>
       </c>
       <c r="S53" s="18" t="str">
-        <f>CHAR(34)&amp;S6&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="17"/>
         <v>"",</v>
       </c>
       <c r="T53" s="18" t="str">
-        <f>CHAR(34)&amp;T6&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="17"/>
         <v>"GM of Wet Willies",</v>
       </c>
       <c r="U53" s="18" t="str">
-        <f>CHAR(34)&amp;U6&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="17"/>
         <v>"../Images/WW_Final.png",</v>
       </c>
       <c r="V53" s="18" t="str">
-        <f>CHAR(34)&amp;V6&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="17"/>
         <v>"../Images/Players/Rudy.png",</v>
       </c>
     </row>
     <row r="54" spans="2:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B54" s="18" t="str">
-        <f>CHAR(34)&amp;B7&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="5"/>
         <v>"Michael Iffland",</v>
       </c>
       <c r="C54" s="18" t="str">
-        <f>CHAR(34)&amp;C7&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="5"/>
         <v>"Wet Willies",</v>
       </c>
       <c r="D54" s="18" t="str">
-        <f>ROUND(D7,2)&amp;","</f>
+        <f t="shared" si="6"/>
         <v>0,</v>
       </c>
       <c r="E54" s="18" t="str">
-        <f>E7&amp;","</f>
+        <f t="shared" si="7"/>
         <v>0,</v>
       </c>
       <c r="F54" s="18" t="str">
-        <f>ROUND(F7,2)&amp;","</f>
+        <f t="shared" si="8"/>
         <v>0,</v>
       </c>
       <c r="G54" s="18" t="str">
-        <f>G7&amp;","</f>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="H54" s="18" t="str">
-        <f>ROUND(H7,2)&amp;","</f>
+        <f t="shared" si="10"/>
         <v>0,</v>
       </c>
       <c r="I54" s="18" t="str">
-        <f>I7&amp;","</f>
+        <f t="shared" si="11"/>
         <v>0,</v>
       </c>
       <c r="J54" s="18" t="str">
-        <f>ROUND(J7,2)&amp;","</f>
+        <f t="shared" si="12"/>
         <v>0,</v>
       </c>
       <c r="K54" s="18" t="str">
-        <f>K7&amp;","</f>
+        <f t="shared" si="13"/>
         <v>0,</v>
       </c>
       <c r="L54" s="18" t="str">
-        <f>CHAR(34)&amp;L7&amp;CHAR(34)&amp;","</f>
+        <f t="shared" ref="L54:V54" si="18">CHAR(34)&amp;L7&amp;CHAR(34)&amp;","</f>
         <v>"Playmaker T1",</v>
       </c>
       <c r="M54" s="18" t="str">
-        <f>CHAR(34)&amp;M7&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="18"/>
         <v>"Thirdman T1",</v>
       </c>
       <c r="N54" s="18" t="str">
-        <f>CHAR(34)&amp;N7&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="18"/>
         <v>"All-Offence Team T2",</v>
       </c>
       <c r="O54" s="18" t="str">
-        <f>CHAR(34)&amp;O7&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="18"/>
         <v>"All-2nd-Defence Team T2",</v>
       </c>
       <c r="P54" s="18" t="str">
-        <f>CHAR(34)&amp;P7&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="18"/>
         <v>"",</v>
       </c>
       <c r="Q54" s="18" t="str">
-        <f>CHAR(34)&amp;Q7&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="18"/>
         <v>"",</v>
       </c>
       <c r="R54" s="18" t="str">
-        <f>CHAR(34)&amp;R7&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="18"/>
         <v>"",</v>
       </c>
       <c r="S54" s="18" t="str">
-        <f>CHAR(34)&amp;S7&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="18"/>
         <v>"",</v>
       </c>
       <c r="T54" s="18" t="str">
-        <f>CHAR(34)&amp;T7&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="18"/>
         <v>"Retained by Wet Willies",</v>
       </c>
       <c r="U54" s="18" t="str">
-        <f>CHAR(34)&amp;U7&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="18"/>
         <v>"../Images/WW_Final.png",</v>
       </c>
       <c r="V54" s="18" t="str">
-        <f>CHAR(34)&amp;V7&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="18"/>
         <v>"../Images/Players/Michael.png",</v>
       </c>
     </row>
     <row r="55" spans="2:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B55" s="18" t="str">
-        <f>CHAR(34)&amp;B8&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="5"/>
         <v>"Lukas Johnston",</v>
       </c>
       <c r="C55" s="18" t="str">
-        <f>CHAR(34)&amp;C8&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="5"/>
         <v>"Wet Willies",</v>
       </c>
       <c r="D55" s="18" t="str">
-        <f>ROUND(D8,2)&amp;","</f>
+        <f t="shared" si="6"/>
         <v>0.5,</v>
       </c>
       <c r="E55" s="18" t="str">
-        <f>E8&amp;","</f>
+        <f t="shared" si="7"/>
         <v>1,</v>
       </c>
       <c r="F55" s="18" t="str">
-        <f>ROUND(F8,2)&amp;","</f>
+        <f t="shared" si="8"/>
         <v>0.5,</v>
       </c>
       <c r="G55" s="18" t="str">
-        <f>G8&amp;","</f>
+        <f t="shared" si="9"/>
         <v>1,</v>
       </c>
       <c r="H55" s="18" t="str">
-        <f>ROUND(H8,2)&amp;","</f>
+        <f t="shared" si="10"/>
         <v>0,</v>
       </c>
       <c r="I55" s="18" t="str">
-        <f>I8&amp;","</f>
+        <f t="shared" si="11"/>
         <v>0,</v>
       </c>
       <c r="J55" s="18" t="str">
-        <f>ROUND(J8,2)&amp;","</f>
+        <f t="shared" si="12"/>
         <v>0,</v>
       </c>
       <c r="K55" s="18" t="str">
-        <f>K8&amp;","</f>
+        <f t="shared" si="13"/>
         <v>0,</v>
       </c>
       <c r="L55" s="18" t="str">
-        <f>CHAR(34)&amp;L8&amp;CHAR(34)&amp;","</f>
+        <f t="shared" ref="L55:V55" si="19">CHAR(34)&amp;L8&amp;CHAR(34)&amp;","</f>
         <v>"MVP Runner Up T1",</v>
       </c>
       <c r="M55" s="18" t="str">
-        <f>CHAR(34)&amp;M8&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="19"/>
         <v>"All-Offence Team T1",</v>
       </c>
       <c r="N55" s="18" t="str">
-        <f>CHAR(34)&amp;N8&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="19"/>
         <v>"All-2nd-Offence Team T2",</v>
       </c>
       <c r="O55" s="18" t="str">
-        <f>CHAR(34)&amp;O8&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="19"/>
         <v>"",</v>
       </c>
       <c r="P55" s="18" t="str">
-        <f>CHAR(34)&amp;P8&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="19"/>
         <v>"",</v>
       </c>
       <c r="Q55" s="18" t="str">
-        <f>CHAR(34)&amp;Q8&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="19"/>
         <v>"",</v>
       </c>
       <c r="R55" s="18" t="str">
-        <f>CHAR(34)&amp;R8&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="19"/>
         <v>"",</v>
       </c>
       <c r="S55" s="18" t="str">
-        <f>CHAR(34)&amp;S8&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="19"/>
         <v>"",</v>
       </c>
       <c r="T55" s="18" t="str">
-        <f>CHAR(34)&amp;T8&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="19"/>
         <v>"Drafted by Wet Willies",</v>
       </c>
       <c r="U55" s="18" t="str">
-        <f>CHAR(34)&amp;U8&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="19"/>
         <v>"../Images/WW_Final.png",</v>
       </c>
       <c r="V55" s="18" t="str">
-        <f>CHAR(34)&amp;V8&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="19"/>
         <v>"../Images/Players/Lukas.png",</v>
       </c>
     </row>
     <row r="56" spans="2:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B56" s="18" t="str">
-        <f>CHAR(34)&amp;B9&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="5"/>
         <v>"Sam James",</v>
       </c>
       <c r="C56" s="18" t="str">
-        <f>CHAR(34)&amp;C9&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="5"/>
         <v>"5 Musketeers",</v>
       </c>
       <c r="D56" s="18" t="str">
-        <f>ROUND(D9,2)&amp;","</f>
+        <f t="shared" si="6"/>
         <v>1,</v>
       </c>
       <c r="E56" s="18" t="str">
-        <f>E9&amp;","</f>
+        <f t="shared" si="7"/>
         <v>2,</v>
       </c>
       <c r="F56" s="18" t="str">
-        <f>ROUND(F9,2)&amp;","</f>
+        <f t="shared" si="8"/>
         <v>0.5,</v>
       </c>
       <c r="G56" s="18" t="str">
-        <f>G9&amp;","</f>
+        <f t="shared" si="9"/>
         <v>1,</v>
       </c>
       <c r="H56" s="18" t="str">
-        <f>ROUND(H9,2)&amp;","</f>
+        <f t="shared" si="10"/>
         <v>0.5,</v>
       </c>
       <c r="I56" s="18" t="str">
-        <f>I9&amp;","</f>
+        <f t="shared" si="11"/>
         <v>1,</v>
       </c>
       <c r="J56" s="18" t="str">
-        <f>ROUND(J9,2)&amp;","</f>
+        <f t="shared" si="12"/>
         <v>0,</v>
       </c>
       <c r="K56" s="18" t="str">
-        <f>K9&amp;","</f>
+        <f t="shared" si="13"/>
         <v>0,</v>
       </c>
       <c r="L56" s="18" t="str">
-        <f>CHAR(34)&amp;L9&amp;CHAR(34)&amp;","</f>
+        <f t="shared" ref="L56:V56" si="20">CHAR(34)&amp;L9&amp;CHAR(34)&amp;","</f>
+        <v>"Miles Morales",</v>
+      </c>
+      <c r="M56" s="18" t="str">
+        <f t="shared" si="20"/>
         <v>"Champion T2",</v>
       </c>
-      <c r="M56" s="18" t="str">
-        <f>CHAR(34)&amp;M9&amp;CHAR(34)&amp;","</f>
+      <c r="N56" s="18" t="str">
+        <f t="shared" si="20"/>
         <v>"",</v>
       </c>
-      <c r="N56" s="18" t="str">
-        <f>CHAR(34)&amp;N9&amp;CHAR(34)&amp;","</f>
+      <c r="O56" s="18" t="str">
+        <f t="shared" si="20"/>
         <v>"",</v>
       </c>
-      <c r="O56" s="18" t="str">
-        <f>CHAR(34)&amp;O9&amp;CHAR(34)&amp;","</f>
+      <c r="P56" s="18" t="str">
+        <f t="shared" si="20"/>
         <v>"",</v>
       </c>
-      <c r="P56" s="18" t="str">
-        <f>CHAR(34)&amp;P9&amp;CHAR(34)&amp;","</f>
+      <c r="Q56" s="18" t="str">
+        <f t="shared" si="20"/>
         <v>"",</v>
       </c>
-      <c r="Q56" s="18" t="str">
-        <f>CHAR(34)&amp;Q9&amp;CHAR(34)&amp;","</f>
+      <c r="R56" s="18" t="str">
+        <f t="shared" si="20"/>
         <v>"",</v>
       </c>
-      <c r="R56" s="18" t="str">
-        <f>CHAR(34)&amp;R9&amp;CHAR(34)&amp;","</f>
+      <c r="S56" s="18" t="str">
+        <f t="shared" si="20"/>
         <v>"",</v>
       </c>
-      <c r="S56" s="18" t="str">
-        <f>CHAR(34)&amp;S9&amp;CHAR(34)&amp;","</f>
-        <v>"",</v>
-      </c>
       <c r="T56" s="18" t="str">
-        <f>CHAR(34)&amp;T9&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="20"/>
         <v>"Drafted by 5 Musketeers",</v>
       </c>
       <c r="U56" s="18" t="str">
-        <f>CHAR(34)&amp;U9&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="20"/>
         <v>"../Images/5M_Final.png",</v>
       </c>
       <c r="V56" s="18" t="str">
-        <f>CHAR(34)&amp;V9&amp;CHAR(34)&amp;","</f>
-        <v>"../Images/Players/Sam J.png",</v>
+        <f t="shared" si="20"/>
+        <v>"../Images/Players/SamJ.png",</v>
       </c>
     </row>
     <row r="57" spans="2:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B57" s="18" t="str">
-        <f>CHAR(34)&amp;B10&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="5"/>
         <v>"Clarrie Jones",</v>
       </c>
       <c r="C57" s="18" t="str">
-        <f>CHAR(34)&amp;C10&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="5"/>
         <v>"Wet Willies",</v>
       </c>
       <c r="D57" s="18" t="str">
-        <f>ROUND(D10,2)&amp;","</f>
+        <f t="shared" si="6"/>
         <v>0,</v>
       </c>
       <c r="E57" s="18" t="str">
-        <f>E10&amp;","</f>
+        <f t="shared" si="7"/>
         <v>0,</v>
       </c>
       <c r="F57" s="18" t="str">
-        <f>ROUND(F10,2)&amp;","</f>
+        <f t="shared" si="8"/>
         <v>0,</v>
       </c>
       <c r="G57" s="18" t="str">
-        <f>G10&amp;","</f>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="H57" s="18" t="str">
-        <f>ROUND(H10,2)&amp;","</f>
+        <f t="shared" si="10"/>
         <v>0,</v>
       </c>
       <c r="I57" s="18" t="str">
-        <f>I10&amp;","</f>
+        <f t="shared" si="11"/>
         <v>0,</v>
       </c>
       <c r="J57" s="18" t="str">
-        <f>ROUND(J10,2)&amp;","</f>
+        <f t="shared" si="12"/>
         <v>0,</v>
       </c>
       <c r="K57" s="18" t="str">
-        <f>K10&amp;","</f>
+        <f t="shared" si="13"/>
         <v>0,</v>
       </c>
       <c r="L57" s="18" t="str">
-        <f>CHAR(34)&amp;L10&amp;CHAR(34)&amp;","</f>
+        <f t="shared" ref="L57:V57" si="21">CHAR(34)&amp;L10&amp;CHAR(34)&amp;","</f>
         <v>"LTBO Manager",</v>
       </c>
       <c r="M57" s="18" t="str">
-        <f>CHAR(34)&amp;M10&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="21"/>
         <v>"Champion T1",</v>
       </c>
       <c r="N57" s="18" t="str">
-        <f>CHAR(34)&amp;N10&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="21"/>
         <v>"Finals MVP T1",</v>
       </c>
       <c r="O57" s="18" t="str">
-        <f>CHAR(34)&amp;O10&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="21"/>
         <v>"Fifthman T2",</v>
       </c>
       <c r="P57" s="18" t="str">
-        <f>CHAR(34)&amp;P10&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="21"/>
         <v>"All-2nd-Offence Team T2",</v>
       </c>
       <c r="Q57" s="18" t="str">
-        <f>CHAR(34)&amp;Q10&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="21"/>
         <v>"All-2nd-Defence Team T2",</v>
       </c>
       <c r="R57" s="18" t="str">
-        <f>CHAR(34)&amp;R10&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="21"/>
         <v>"Champion T2",</v>
       </c>
       <c r="S57" s="18" t="str">
-        <f>CHAR(34)&amp;S10&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="21"/>
         <v>"",</v>
       </c>
       <c r="T57" s="18" t="str">
-        <f>CHAR(34)&amp;T10&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="21"/>
         <v>"Out due to injury. Signed by Wet Willies",</v>
       </c>
       <c r="U57" s="18" t="str">
-        <f>CHAR(34)&amp;U10&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="21"/>
         <v>"../Images/WW_Final.png",</v>
       </c>
       <c r="V57" s="18" t="str">
-        <f>CHAR(34)&amp;V10&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="21"/>
         <v>"../Images/Players/Clarrie.png",</v>
       </c>
     </row>
     <row r="58" spans="2:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B58" s="18" t="str">
-        <f>CHAR(34)&amp;B11&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="5"/>
         <v>"William Kim",</v>
       </c>
       <c r="C58" s="18" t="str">
-        <f>CHAR(34)&amp;C11&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="5"/>
         <v>"Loose Gooses",</v>
       </c>
       <c r="D58" s="18" t="str">
-        <f>ROUND(D11,2)&amp;","</f>
+        <f t="shared" si="6"/>
         <v>1.5,</v>
       </c>
       <c r="E58" s="18" t="str">
-        <f>E11&amp;","</f>
+        <f t="shared" si="7"/>
         <v>3,</v>
       </c>
       <c r="F58" s="18" t="str">
-        <f>ROUND(F11,2)&amp;","</f>
+        <f t="shared" si="8"/>
         <v>0.5,</v>
       </c>
       <c r="G58" s="18" t="str">
-        <f>G11&amp;","</f>
+        <f t="shared" si="9"/>
         <v>1,</v>
       </c>
       <c r="H58" s="18" t="str">
-        <f>ROUND(H11,2)&amp;","</f>
+        <f t="shared" si="10"/>
         <v>0,</v>
       </c>
       <c r="I58" s="18" t="str">
-        <f>I11&amp;","</f>
+        <f t="shared" si="11"/>
         <v>0,</v>
       </c>
       <c r="J58" s="18" t="str">
-        <f>ROUND(J11,2)&amp;","</f>
+        <f t="shared" si="12"/>
         <v>0.5,</v>
       </c>
       <c r="K58" s="18" t="str">
-        <f>K11&amp;","</f>
+        <f t="shared" si="13"/>
         <v>1,</v>
       </c>
       <c r="L58" s="18" t="str">
-        <f>CHAR(34)&amp;L11&amp;CHAR(34)&amp;","</f>
+        <f t="shared" ref="L58:V58" si="22">CHAR(34)&amp;L11&amp;CHAR(34)&amp;","</f>
         <v>"MVP T1",</v>
       </c>
       <c r="M58" s="18" t="str">
-        <f>CHAR(34)&amp;M11&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="22"/>
         <v>"All-Offence Team T1",</v>
       </c>
       <c r="N58" s="18" t="str">
-        <f>CHAR(34)&amp;N11&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="22"/>
         <v>"All-Defence Team T1",</v>
       </c>
       <c r="O58" s="18" t="str">
-        <f>CHAR(34)&amp;O11&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="22"/>
         <v>"All-2nd-Offence Team T2",</v>
       </c>
       <c r="P58" s="18" t="str">
-        <f>CHAR(34)&amp;P11&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="22"/>
         <v>"All-Defence Team T2",</v>
       </c>
       <c r="Q58" s="18" t="str">
-        <f>CHAR(34)&amp;Q11&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="22"/>
         <v>"Champion T2",</v>
       </c>
       <c r="R58" s="18" t="str">
-        <f>CHAR(34)&amp;R11&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="22"/>
         <v>"Finals MVP T2",</v>
       </c>
       <c r="S58" s="18" t="str">
-        <f>CHAR(34)&amp;S11&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="22"/>
         <v>"",</v>
       </c>
       <c r="T58" s="18" t="str">
-        <f>CHAR(34)&amp;T11&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="22"/>
         <v>"Retained by Loose Gooses",</v>
       </c>
       <c r="U58" s="18" t="str">
-        <f>CHAR(34)&amp;U11&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="22"/>
         <v>"../Images/LG_Final.png",</v>
       </c>
       <c r="V58" s="18" t="str">
-        <f>CHAR(34)&amp;V11&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="22"/>
         <v>"../Images/Players/Kimmy.png",</v>
       </c>
     </row>
     <row r="59" spans="2:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B59" s="18" t="str">
-        <f>CHAR(34)&amp;B12&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="5"/>
         <v>"Samuel McConaghy",</v>
       </c>
       <c r="C59" s="18" t="str">
-        <f>CHAR(34)&amp;C12&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="5"/>
         <v>"5 Musketeers",</v>
       </c>
       <c r="D59" s="18" t="str">
-        <f>ROUND(D12,2)&amp;","</f>
+        <f t="shared" si="6"/>
         <v>6,</v>
       </c>
       <c r="E59" s="18" t="str">
-        <f>E12&amp;","</f>
+        <f t="shared" si="7"/>
         <v>12,</v>
       </c>
       <c r="F59" s="18" t="str">
-        <f>ROUND(F12,2)&amp;","</f>
+        <f t="shared" si="8"/>
         <v>0.5,</v>
       </c>
       <c r="G59" s="18" t="str">
-        <f>G12&amp;","</f>
+        <f t="shared" si="9"/>
         <v>1,</v>
       </c>
       <c r="H59" s="18" t="str">
-        <f>ROUND(H12,2)&amp;","</f>
+        <f t="shared" si="10"/>
         <v>4.5,</v>
       </c>
       <c r="I59" s="18" t="str">
-        <f>I12&amp;","</f>
+        <f t="shared" si="11"/>
         <v>9,</v>
       </c>
       <c r="J59" s="18" t="str">
-        <f>ROUND(J12,2)&amp;","</f>
+        <f t="shared" si="12"/>
         <v>0.5,</v>
       </c>
       <c r="K59" s="18" t="str">
-        <f>K12&amp;","</f>
+        <f t="shared" si="13"/>
         <v>1,</v>
       </c>
       <c r="L59" s="18" t="str">
-        <f>CHAR(34)&amp;L12&amp;CHAR(34)&amp;","</f>
+        <f t="shared" ref="L59:V59" si="23">CHAR(34)&amp;L12&amp;CHAR(34)&amp;","</f>
         <v>"GM",</v>
       </c>
       <c r="M59" s="18" t="str">
-        <f>CHAR(34)&amp;M12&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="23"/>
         <v>"All-Offence Team T1",</v>
       </c>
       <c r="N59" s="18" t="str">
-        <f>CHAR(34)&amp;N12&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="23"/>
         <v>"All-Defence Team T1",</v>
       </c>
       <c r="O59" s="18" t="str">
-        <f>CHAR(34)&amp;O12&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="23"/>
         <v>"All-Offence Team T2",</v>
       </c>
       <c r="P59" s="18" t="str">
-        <f>CHAR(34)&amp;P12&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="23"/>
         <v>"All-Defence Team T2",</v>
       </c>
       <c r="Q59" s="18" t="str">
-        <f>CHAR(34)&amp;Q12&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="23"/>
         <v>"",</v>
       </c>
       <c r="R59" s="18" t="str">
-        <f>CHAR(34)&amp;R12&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="23"/>
         <v>"",</v>
       </c>
       <c r="S59" s="18" t="str">
-        <f>CHAR(34)&amp;S12&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="23"/>
         <v>"",</v>
       </c>
       <c r="T59" s="18" t="str">
-        <f>CHAR(34)&amp;T12&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="23"/>
         <v>"GM of 5 Musketeers",</v>
       </c>
       <c r="U59" s="18" t="str">
-        <f>CHAR(34)&amp;U12&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="23"/>
         <v>"../Images/5M_Final.png",</v>
       </c>
       <c r="V59" s="18" t="str">
-        <f>CHAR(34)&amp;V12&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="23"/>
         <v>"../Images/Players/SamM.png",</v>
       </c>
     </row>
     <row r="60" spans="2:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B60" s="18" t="str">
-        <f>CHAR(34)&amp;B13&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="5"/>
         <v>"Ryan Pattemore",</v>
       </c>
       <c r="C60" s="18" t="str">
-        <f>CHAR(34)&amp;C13&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="5"/>
         <v>"Wet Willies",</v>
       </c>
       <c r="D60" s="18" t="str">
-        <f>ROUND(D13,2)&amp;","</f>
+        <f t="shared" si="6"/>
         <v>1,</v>
       </c>
       <c r="E60" s="18" t="str">
-        <f>E13&amp;","</f>
+        <f t="shared" si="7"/>
         <v>2,</v>
       </c>
       <c r="F60" s="18" t="str">
-        <f>ROUND(F13,2)&amp;","</f>
+        <f t="shared" si="8"/>
         <v>0,</v>
       </c>
       <c r="G60" s="18" t="str">
-        <f>G13&amp;","</f>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="H60" s="18" t="str">
-        <f>ROUND(H13,2)&amp;","</f>
+        <f t="shared" si="10"/>
         <v>0,</v>
       </c>
       <c r="I60" s="18" t="str">
-        <f>I13&amp;","</f>
+        <f t="shared" si="11"/>
         <v>0,</v>
       </c>
       <c r="J60" s="18" t="str">
-        <f>ROUND(J13,2)&amp;","</f>
+        <f t="shared" si="12"/>
         <v>0.5,</v>
       </c>
       <c r="K60" s="18" t="str">
-        <f>K13&amp;","</f>
+        <f t="shared" si="13"/>
         <v>1,</v>
       </c>
       <c r="L60" s="18" t="str">
-        <f>CHAR(34)&amp;L13&amp;CHAR(34)&amp;","</f>
+        <f t="shared" ref="L60:V60" si="24">CHAR(34)&amp;L13&amp;CHAR(34)&amp;","</f>
         <v>"Perimeter T1",</v>
       </c>
       <c r="M60" s="18" t="str">
-        <f>CHAR(34)&amp;M13&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="24"/>
         <v>"Champion T1",</v>
       </c>
       <c r="N60" s="18" t="str">
-        <f>CHAR(34)&amp;N13&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="24"/>
         <v>"",</v>
       </c>
       <c r="O60" s="18" t="str">
-        <f>CHAR(34)&amp;O13&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="24"/>
         <v>"",</v>
       </c>
       <c r="P60" s="18" t="str">
-        <f>CHAR(34)&amp;P13&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="24"/>
         <v>"",</v>
       </c>
       <c r="Q60" s="18" t="str">
-        <f>CHAR(34)&amp;Q13&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="24"/>
         <v>"",</v>
       </c>
       <c r="R60" s="18" t="str">
-        <f>CHAR(34)&amp;R13&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="24"/>
         <v>"",</v>
       </c>
       <c r="S60" s="18" t="str">
-        <f>CHAR(34)&amp;S13&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="24"/>
         <v>"",</v>
       </c>
       <c r="T60" s="18" t="str">
-        <f>CHAR(34)&amp;T13&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="24"/>
         <v>"Drafted by Wet Willies",</v>
       </c>
       <c r="U60" s="18" t="str">
-        <f>CHAR(34)&amp;U13&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="24"/>
         <v>"../Images/WW_Final.png",</v>
       </c>
       <c r="V60" s="18" t="str">
-        <f>CHAR(34)&amp;V13&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="24"/>
         <v>"../Images/Players/Ryan.png",</v>
       </c>
     </row>
     <row r="61" spans="2:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B61" s="18" t="str">
-        <f>CHAR(34)&amp;B14&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="5"/>
         <v>"William Scott",</v>
       </c>
       <c r="C61" s="18" t="str">
-        <f>CHAR(34)&amp;C14&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="5"/>
         <v>"Wet Willies",</v>
       </c>
       <c r="D61" s="18" t="str">
-        <f>ROUND(D14,2)&amp;","</f>
+        <f t="shared" si="6"/>
         <v>0,</v>
       </c>
       <c r="E61" s="18" t="str">
-        <f>E14&amp;","</f>
+        <f t="shared" si="7"/>
         <v>0,</v>
       </c>
       <c r="F61" s="18" t="str">
-        <f>ROUND(F14,2)&amp;","</f>
+        <f t="shared" si="8"/>
         <v>0,</v>
       </c>
       <c r="G61" s="18" t="str">
-        <f>G14&amp;","</f>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="H61" s="18" t="str">
-        <f>ROUND(H14,2)&amp;","</f>
+        <f t="shared" si="10"/>
         <v>0,</v>
       </c>
       <c r="I61" s="18" t="str">
-        <f>I14&amp;","</f>
+        <f t="shared" si="11"/>
         <v>0,</v>
       </c>
       <c r="J61" s="18" t="str">
-        <f>ROUND(J14,2)&amp;","</f>
+        <f t="shared" si="12"/>
         <v>0,</v>
       </c>
       <c r="K61" s="18" t="str">
-        <f>K14&amp;","</f>
+        <f t="shared" si="13"/>
         <v>0,</v>
       </c>
       <c r="L61" s="18" t="str">
-        <f>CHAR(34)&amp;L14&amp;CHAR(34)&amp;","</f>
+        <f t="shared" ref="L61:V61" si="25">CHAR(34)&amp;L14&amp;CHAR(34)&amp;","</f>
         <v>"LTBO Photographer",</v>
       </c>
       <c r="M61" s="18" t="str">
-        <f>CHAR(34)&amp;M14&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="25"/>
         <v>"",</v>
       </c>
       <c r="N61" s="18" t="str">
-        <f>CHAR(34)&amp;N14&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="25"/>
         <v>"",</v>
       </c>
       <c r="O61" s="18" t="str">
-        <f>CHAR(34)&amp;O14&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="25"/>
         <v>"",</v>
       </c>
       <c r="P61" s="18" t="str">
-        <f>CHAR(34)&amp;P14&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="25"/>
         <v>"",</v>
       </c>
       <c r="Q61" s="18" t="str">
-        <f>CHAR(34)&amp;Q14&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="25"/>
         <v>"",</v>
       </c>
       <c r="R61" s="18" t="str">
-        <f>CHAR(34)&amp;R14&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="25"/>
         <v>"",</v>
       </c>
       <c r="S61" s="18" t="str">
-        <f>CHAR(34)&amp;S14&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="25"/>
         <v>"",</v>
       </c>
       <c r="T61" s="18" t="str">
-        <f>CHAR(34)&amp;T14&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="25"/>
         <v>"Drafted by Wet Willies",</v>
       </c>
       <c r="U61" s="18" t="str">
-        <f>CHAR(34)&amp;U14&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="25"/>
         <v>"../Images/WW_Final.png",</v>
       </c>
       <c r="V61" s="18" t="str">
-        <f>CHAR(34)&amp;V14&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="25"/>
         <v>"../Images/Players/Will.png",</v>
       </c>
     </row>
     <row r="62" spans="2:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B62" s="18" t="str">
-        <f>CHAR(34)&amp;B15&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="5"/>
         <v>"Nicholas Szogi",</v>
       </c>
       <c r="C62" s="18" t="str">
-        <f>CHAR(34)&amp;C15&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="5"/>
         <v>"5 Musketeers",</v>
       </c>
       <c r="D62" s="18" t="str">
-        <f>ROUND(D15,2)&amp;","</f>
+        <f t="shared" si="6"/>
         <v>2,</v>
       </c>
       <c r="E62" s="18" t="str">
-        <f>E15&amp;","</f>
+        <f t="shared" si="7"/>
         <v>4,</v>
       </c>
       <c r="F62" s="18" t="str">
-        <f>ROUND(F15,2)&amp;","</f>
+        <f t="shared" si="8"/>
         <v>1,</v>
       </c>
       <c r="G62" s="18" t="str">
-        <f>G15&amp;","</f>
+        <f t="shared" si="9"/>
         <v>2,</v>
       </c>
       <c r="H62" s="18" t="str">
-        <f>ROUND(H15,2)&amp;","</f>
+        <f t="shared" si="10"/>
         <v>0,</v>
       </c>
       <c r="I62" s="18" t="str">
-        <f>I15&amp;","</f>
+        <f t="shared" si="11"/>
         <v>0,</v>
       </c>
       <c r="J62" s="18" t="str">
-        <f>ROUND(J15,2)&amp;","</f>
+        <f t="shared" si="12"/>
         <v>0.5,</v>
       </c>
       <c r="K62" s="18" t="str">
-        <f>K15&amp;","</f>
+        <f t="shared" si="13"/>
         <v>1,</v>
       </c>
       <c r="L62" s="18" t="str">
-        <f>CHAR(34)&amp;L15&amp;CHAR(34)&amp;","</f>
+        <f t="shared" ref="L62:V62" si="26">CHAR(34)&amp;L15&amp;CHAR(34)&amp;","</f>
         <v>"The Biggest Bird",</v>
       </c>
       <c r="M62" s="18" t="str">
-        <f>CHAR(34)&amp;M15&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="26"/>
         <v>"Champion T1",</v>
       </c>
       <c r="N62" s="18" t="str">
-        <f>CHAR(34)&amp;N15&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="26"/>
         <v>"MVP Runner Up T2",</v>
       </c>
       <c r="O62" s="18" t="str">
-        <f>CHAR(34)&amp;O15&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="26"/>
         <v>"X-Factor T2",</v>
       </c>
       <c r="P62" s="18" t="str">
-        <f>CHAR(34)&amp;P15&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="26"/>
         <v>"All-2nd-Offence Team T2",</v>
       </c>
       <c r="Q62" s="18" t="str">
-        <f>CHAR(34)&amp;Q15&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="26"/>
         <v>"All-2nd-Defence Team T2",</v>
       </c>
       <c r="R62" s="18" t="str">
-        <f>CHAR(34)&amp;R15&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="26"/>
         <v>"",</v>
       </c>
       <c r="S62" s="18" t="str">
-        <f>CHAR(34)&amp;S15&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="26"/>
         <v>"",</v>
       </c>
       <c r="T62" s="18" t="str">
-        <f>CHAR(34)&amp;T15&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="26"/>
         <v>"Drafted by 5 Musketeers",</v>
       </c>
       <c r="U62" s="18" t="str">
-        <f>CHAR(34)&amp;U15&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="26"/>
         <v>"../Images/5M_Final.png",</v>
       </c>
       <c r="V62" s="18" t="str">
-        <f>CHAR(34)&amp;V15&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="26"/>
         <v>"../Images/Players/Nick.png",</v>
       </c>
     </row>
     <row r="63" spans="2:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B63" s="18" t="str">
-        <f>CHAR(34)&amp;B16&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="5"/>
         <v>"Christopher Tomkinson",</v>
       </c>
       <c r="C63" s="18" t="str">
-        <f>CHAR(34)&amp;C16&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="5"/>
         <v>"Loose Gooses",</v>
       </c>
       <c r="D63" s="18" t="str">
-        <f>ROUND(D16,2)&amp;","</f>
+        <f t="shared" si="6"/>
         <v>3,</v>
       </c>
       <c r="E63" s="18" t="str">
-        <f>E16&amp;","</f>
+        <f t="shared" si="7"/>
         <v>6,</v>
       </c>
       <c r="F63" s="18" t="str">
-        <f>ROUND(F16,2)&amp;","</f>
+        <f t="shared" si="8"/>
         <v>1,</v>
       </c>
       <c r="G63" s="18" t="str">
-        <f>G16&amp;","</f>
+        <f t="shared" si="9"/>
         <v>2,</v>
       </c>
       <c r="H63" s="18" t="str">
-        <f>ROUND(H16,2)&amp;","</f>
+        <f t="shared" si="10"/>
         <v>1,</v>
       </c>
       <c r="I63" s="18" t="str">
-        <f>I16&amp;","</f>
+        <f t="shared" si="11"/>
         <v>2,</v>
       </c>
       <c r="J63" s="18" t="str">
-        <f>ROUND(J16,2)&amp;","</f>
+        <f t="shared" si="12"/>
         <v>0.5,</v>
       </c>
       <c r="K63" s="18" t="str">
-        <f>K16&amp;","</f>
+        <f t="shared" si="13"/>
         <v>1,</v>
       </c>
       <c r="L63" s="18" t="str">
-        <f>CHAR(34)&amp;L16&amp;CHAR(34)&amp;","</f>
+        <f t="shared" ref="L63:V63" si="27">CHAR(34)&amp;L16&amp;CHAR(34)&amp;","</f>
         <v>"MIP T1",</v>
       </c>
       <c r="M63" s="18" t="str">
-        <f>CHAR(34)&amp;M16&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="27"/>
         <v>"MIP T2",</v>
       </c>
       <c r="N63" s="18" t="str">
-        <f>CHAR(34)&amp;N16&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="27"/>
         <v>"MVP T2",</v>
       </c>
       <c r="O63" s="18" t="str">
-        <f>CHAR(34)&amp;O16&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="27"/>
         <v>"All-2nd-Offence Team T2",</v>
       </c>
       <c r="P63" s="18" t="str">
-        <f>CHAR(34)&amp;P16&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="27"/>
         <v>"All-2nd-Defence Team T2",</v>
       </c>
       <c r="Q63" s="18" t="str">
-        <f>CHAR(34)&amp;Q16&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="27"/>
         <v>"Champion T2",</v>
       </c>
       <c r="R63" s="18" t="str">
-        <f>CHAR(34)&amp;R16&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="27"/>
         <v>"",</v>
       </c>
       <c r="S63" s="18" t="str">
-        <f>CHAR(34)&amp;S16&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="27"/>
         <v>"",</v>
       </c>
       <c r="T63" s="18" t="str">
-        <f>CHAR(34)&amp;T16&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="27"/>
         <v>"Drafted by Loose Gooses",</v>
       </c>
       <c r="U63" s="18" t="str">
-        <f>CHAR(34)&amp;U16&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="27"/>
         <v>"../Images/LG_Final.png",</v>
       </c>
       <c r="V63" s="18" t="str">
-        <f>CHAR(34)&amp;V16&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="27"/>
         <v>"../Images/Players/Chris.png",</v>
       </c>
     </row>
     <row r="64" spans="2:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B64" s="18" t="str">
-        <f>CHAR(34)&amp;B17&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="5"/>
         <v>"Angus Walker",</v>
       </c>
       <c r="C64" s="18" t="str">
-        <f>CHAR(34)&amp;C17&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="5"/>
         <v>"Loose Gooses",</v>
       </c>
       <c r="D64" s="18" t="str">
-        <f>ROUND(D17,2)&amp;","</f>
+        <f t="shared" si="6"/>
         <v>3,</v>
       </c>
       <c r="E64" s="18" t="str">
-        <f>E17&amp;","</f>
+        <f t="shared" si="7"/>
         <v>6,</v>
       </c>
       <c r="F64" s="18" t="str">
-        <f>ROUND(F17,2)&amp;","</f>
+        <f t="shared" si="8"/>
         <v>1.5,</v>
       </c>
       <c r="G64" s="18" t="str">
-        <f>G17&amp;","</f>
+        <f t="shared" si="9"/>
         <v>3,</v>
       </c>
       <c r="H64" s="18" t="str">
-        <f>ROUND(H17,2)&amp;","</f>
+        <f t="shared" si="10"/>
         <v>0.5,</v>
       </c>
       <c r="I64" s="18" t="str">
-        <f>I17&amp;","</f>
+        <f t="shared" si="11"/>
         <v>1,</v>
       </c>
       <c r="J64" s="18" t="str">
-        <f>ROUND(J17,2)&amp;","</f>
+        <f t="shared" si="12"/>
         <v>0.5,</v>
       </c>
       <c r="K64" s="18" t="str">
-        <f>K17&amp;","</f>
+        <f t="shared" si="13"/>
         <v>1,</v>
       </c>
       <c r="L64" s="18" t="str">
-        <f>CHAR(34)&amp;L17&amp;CHAR(34)&amp;","</f>
+        <f t="shared" ref="L64:V64" si="28">CHAR(34)&amp;L17&amp;CHAR(34)&amp;","</f>
         <v>"LTBO CEO",</v>
       </c>
       <c r="M64" s="18" t="str">
-        <f>CHAR(34)&amp;M17&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="28"/>
         <v>"GM",</v>
       </c>
       <c r="N64" s="18" t="str">
-        <f>CHAR(34)&amp;N17&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="28"/>
         <v>"All-Offence Team T1",</v>
       </c>
       <c r="O64" s="18" t="str">
-        <f>CHAR(34)&amp;O17&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="28"/>
         <v>"All-Defence Team T1",</v>
       </c>
       <c r="P64" s="18" t="str">
-        <f>CHAR(34)&amp;P17&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="28"/>
         <v>"Scoring Champ T1",</v>
       </c>
       <c r="Q64" s="18" t="str">
-        <f>CHAR(34)&amp;Q17&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="28"/>
         <v>"All-Offence Team T2",</v>
       </c>
       <c r="R64" s="18" t="str">
-        <f>CHAR(34)&amp;R17&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="28"/>
         <v>"All-Defence Team T2",</v>
       </c>
       <c r="S64" s="18" t="str">
-        <f>CHAR(34)&amp;S17&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="28"/>
         <v>"Champion T2",</v>
       </c>
       <c r="T64" s="18" t="str">
-        <f>CHAR(34)&amp;T17&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="28"/>
         <v>"GM of Loose Gooses",</v>
       </c>
       <c r="U64" s="18" t="str">
-        <f>CHAR(34)&amp;U17&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="28"/>
         <v>"../Images/LG_Final.png",</v>
       </c>
       <c r="V64" s="18" t="str">
-        <f>CHAR(34)&amp;V17&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="28"/>
         <v>"../Images/Players/Angus.png",</v>
       </c>
     </row>
     <row r="65" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B65" s="18" t="str">
-        <f>CHAR(34)&amp;B18&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="5"/>
         <v>"Willie Weekes",</v>
       </c>
       <c r="C65" s="18" t="str">
-        <f>CHAR(34)&amp;C18&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="5"/>
         <v>"Wet Willies",</v>
       </c>
       <c r="D65" s="18" t="str">
-        <f>ROUND(D18,2)&amp;","</f>
+        <f t="shared" si="6"/>
         <v>0,</v>
       </c>
       <c r="E65" s="18" t="str">
-        <f>E18&amp;","</f>
+        <f t="shared" si="7"/>
         <v>0,</v>
       </c>
       <c r="F65" s="18" t="str">
-        <f>ROUND(F18,2)&amp;","</f>
+        <f t="shared" si="8"/>
         <v>0,</v>
       </c>
       <c r="G65" s="18" t="str">
-        <f>G18&amp;","</f>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="H65" s="18" t="str">
-        <f>ROUND(H18,2)&amp;","</f>
+        <f t="shared" si="10"/>
         <v>0,</v>
       </c>
       <c r="I65" s="18" t="str">
-        <f>I18&amp;","</f>
+        <f t="shared" si="11"/>
         <v>0,</v>
       </c>
       <c r="J65" s="18" t="str">
-        <f>ROUND(J18,2)&amp;","</f>
+        <f t="shared" si="12"/>
         <v>0,</v>
       </c>
       <c r="K65" s="18" t="str">
-        <f>K18&amp;","</f>
+        <f t="shared" si="13"/>
         <v>0,</v>
       </c>
       <c r="L65" s="18" t="str">
-        <f>CHAR(34)&amp;L18&amp;CHAR(34)&amp;","</f>
+        <f t="shared" ref="L65:V65" si="29">CHAR(34)&amp;L18&amp;CHAR(34)&amp;","</f>
         <v>"Teammate T1",</v>
       </c>
       <c r="M65" s="18" t="str">
-        <f>CHAR(34)&amp;M18&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="29"/>
         <v>"Champion T1",</v>
       </c>
       <c r="N65" s="18" t="str">
-        <f>CHAR(34)&amp;N18&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="29"/>
         <v>"Teammate T2",</v>
       </c>
       <c r="O65" s="18" t="str">
-        <f>CHAR(34)&amp;O18&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="29"/>
         <v>"",</v>
       </c>
       <c r="P65" s="18" t="str">
-        <f>CHAR(34)&amp;P18&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="29"/>
         <v>"",</v>
       </c>
       <c r="Q65" s="18" t="str">
-        <f>CHAR(34)&amp;Q18&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="29"/>
         <v>"",</v>
       </c>
       <c r="R65" s="18" t="str">
-        <f>CHAR(34)&amp;R18&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="29"/>
         <v>"",</v>
       </c>
       <c r="S65" s="18" t="str">
-        <f>CHAR(34)&amp;S18&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="29"/>
         <v>"",</v>
       </c>
       <c r="T65" s="18" t="str">
-        <f>CHAR(34)&amp;T18&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="29"/>
         <v>"Drafted by Wet Willies",</v>
       </c>
       <c r="U65" s="18" t="str">
-        <f>CHAR(34)&amp;U18&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="29"/>
         <v>"../Images/WW_Final.png",</v>
       </c>
       <c r="V65" s="18" t="str">
-        <f>CHAR(34)&amp;V18&amp;CHAR(34)&amp;","</f>
+        <f t="shared" si="29"/>
         <v>"../Images/Players/Willie.png",</v>
       </c>
     </row>
@@ -11019,47 +11022,47 @@
         <v>0</v>
       </c>
       <c r="L66" s="18" t="str">
-        <f>CHAR(34)&amp;L19&amp;CHAR(34)</f>
+        <f t="shared" ref="L66:V66" si="30">CHAR(34)&amp;L19&amp;CHAR(34)</f>
         <v>"All-2nd-Defence Team T2"</v>
       </c>
       <c r="M66" s="18" t="str">
-        <f>CHAR(34)&amp;M19&amp;CHAR(34)</f>
+        <f t="shared" si="30"/>
         <v>"Champion T2"</v>
       </c>
       <c r="N66" s="18" t="str">
-        <f>CHAR(34)&amp;N19&amp;CHAR(34)</f>
+        <f t="shared" si="30"/>
         <v>""</v>
       </c>
       <c r="O66" s="18" t="str">
-        <f>CHAR(34)&amp;O19&amp;CHAR(34)</f>
+        <f t="shared" si="30"/>
         <v>""</v>
       </c>
       <c r="P66" s="18" t="str">
-        <f>CHAR(34)&amp;P19&amp;CHAR(34)</f>
+        <f t="shared" si="30"/>
         <v>""</v>
       </c>
       <c r="Q66" s="18" t="str">
-        <f>CHAR(34)&amp;Q19&amp;CHAR(34)</f>
+        <f t="shared" si="30"/>
         <v>""</v>
       </c>
       <c r="R66" s="18" t="str">
-        <f>CHAR(34)&amp;R19&amp;CHAR(34)</f>
+        <f t="shared" si="30"/>
         <v>""</v>
       </c>
       <c r="S66" s="18" t="str">
-        <f>CHAR(34)&amp;S19&amp;CHAR(34)</f>
+        <f t="shared" si="30"/>
         <v>""</v>
       </c>
       <c r="T66" s="18" t="str">
-        <f>CHAR(34)&amp;T19&amp;CHAR(34)</f>
+        <f t="shared" si="30"/>
         <v>"Drafted by 5 Musketeers"</v>
       </c>
       <c r="U66" s="18" t="str">
-        <f>CHAR(34)&amp;U19&amp;CHAR(34)</f>
+        <f t="shared" si="30"/>
         <v>"../Images/5M_Final.png"</v>
       </c>
       <c r="V66" s="18" t="str">
-        <f>CHAR(34)&amp;V19&amp;CHAR(34)</f>
+        <f t="shared" si="30"/>
         <v>"../Images/Players/Mitch.png"</v>
       </c>
     </row>
@@ -12012,8 +12015,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:AT1000"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView topLeftCell="S1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AA8" sqref="AA8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -12064,40 +12067,40 @@
         <v>79</v>
       </c>
       <c r="F4" s="114" t="s">
+        <v>172</v>
+      </c>
+      <c r="G4" s="114" t="s">
+        <v>178</v>
+      </c>
+      <c r="H4" s="114" t="s">
+        <v>179</v>
+      </c>
+      <c r="I4" s="114" t="s">
         <v>173</v>
       </c>
-      <c r="G4" s="114" t="s">
-        <v>179</v>
-      </c>
-      <c r="H4" s="114" t="s">
+      <c r="J4" s="114" t="s">
         <v>180</v>
       </c>
-      <c r="I4" s="114" t="s">
+      <c r="K4" s="114" t="s">
+        <v>181</v>
+      </c>
+      <c r="L4" s="114" t="s">
         <v>174</v>
       </c>
-      <c r="J4" s="114" t="s">
-        <v>181</v>
-      </c>
-      <c r="K4" s="114" t="s">
+      <c r="M4" s="114" t="s">
         <v>182</v>
       </c>
-      <c r="L4" s="114" t="s">
+      <c r="N4" s="114" t="s">
+        <v>183</v>
+      </c>
+      <c r="O4" s="114" t="s">
         <v>175</v>
       </c>
-      <c r="M4" s="114" t="s">
-        <v>183</v>
-      </c>
-      <c r="N4" s="114" t="s">
-        <v>184</v>
-      </c>
-      <c r="O4" s="114" t="s">
+      <c r="P4" s="114" t="s">
         <v>176</v>
       </c>
-      <c r="P4" s="114" t="s">
+      <c r="Q4" s="114" t="s">
         <v>177</v>
-      </c>
-      <c r="Q4" s="114" t="s">
-        <v>178</v>
       </c>
       <c r="S4" s="3" t="s">
         <v>80</v>
@@ -12266,7 +12269,7 @@
         <v>1</v>
       </c>
       <c r="Z6" s="74" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AA6" s="1">
         <f>AA27+AA46+AA65+AL27+AL46+AL65+AA84+AL84</f>
@@ -13123,7 +13126,7 @@
       <c r="P19" s="117"/>
       <c r="Q19" s="117"/>
       <c r="Z19" s="122" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AA19" s="69">
         <f t="shared" ref="AA19" si="5">SUM(AA40,AL40,AA60,AL60,AA80,AL80,AA100,AL100)</f>
@@ -13571,7 +13574,7 @@
       <c r="P27" s="117"/>
       <c r="Q27" s="117"/>
       <c r="Z27" s="49" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AA27" s="1">
         <v>2</v>
@@ -13644,7 +13647,7 @@
         <v>123</v>
       </c>
       <c r="AH28" s="31" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AI28" s="75" t="s">
         <v>120</v>
@@ -13675,7 +13678,7 @@
         <v>123</v>
       </c>
       <c r="AS28" s="31" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AT28" s="75" t="s">
         <v>120</v>
@@ -13776,7 +13779,7 @@
       <c r="Q30" s="117"/>
       <c r="R30" s="3"/>
       <c r="S30" s="105" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Z30" s="49" t="s">
         <v>49</v>
@@ -13850,7 +13853,7 @@
       <c r="Q31" s="117"/>
       <c r="R31" s="3"/>
       <c r="S31" s="105" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Z31" s="49" t="s">
         <v>51</v>
@@ -13923,7 +13926,7 @@
       <c r="P32" s="117"/>
       <c r="Q32" s="117"/>
       <c r="S32" s="105" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="X32" s="19"/>
       <c r="Z32" s="49" t="s">
@@ -13996,7 +13999,7 @@
       <c r="P33" s="117"/>
       <c r="Q33" s="117"/>
       <c r="S33" s="105" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="Z33" s="49" t="s">
         <v>57</v>
@@ -14069,7 +14072,7 @@
       <c r="P34" s="117"/>
       <c r="Q34" s="117"/>
       <c r="S34" s="105" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Z34" s="49" t="s">
         <v>60</v>
@@ -14142,7 +14145,7 @@
       <c r="P35" s="117"/>
       <c r="Q35" s="117"/>
       <c r="S35" s="105" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Z35" s="36" t="s">
         <v>93</v>
@@ -14215,7 +14218,7 @@
       <c r="P36" s="117"/>
       <c r="Q36" s="117"/>
       <c r="S36" s="105" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Z36" s="49" t="s">
         <v>63</v>
@@ -14500,7 +14503,7 @@
         <v>116</v>
       </c>
       <c r="Z40" s="36" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AA40" s="32">
         <f>'Preseason 1'!R14+'Preseason 2'!R14</f>
@@ -14539,7 +14542,7 @@
       </c>
       <c r="AJ40" s="36"/>
       <c r="AK40" s="36" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AL40" s="32"/>
       <c r="AM40" s="32"/>
@@ -14983,7 +14986,7 @@
         <v>123</v>
       </c>
       <c r="AH48" s="31" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AI48" s="75" t="s">
         <v>120</v>
@@ -15014,7 +15017,7 @@
         <v>123</v>
       </c>
       <c r="AS48" s="31" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AT48" s="75" t="s">
         <v>120</v>
@@ -15387,7 +15390,7 @@
     </row>
     <row r="60" spans="19:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="Z60" s="36" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AA60" s="32"/>
       <c r="AB60" s="32"/>
@@ -15400,7 +15403,7 @@
       <c r="AI60" s="32"/>
       <c r="AJ60" s="36"/>
       <c r="AK60" s="36" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AL60" s="32"/>
       <c r="AM60" s="32"/>
@@ -15627,7 +15630,7 @@
         <v>123</v>
       </c>
       <c r="AH68" s="31" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AI68" s="75" t="s">
         <v>120</v>
@@ -15658,7 +15661,7 @@
         <v>123</v>
       </c>
       <c r="AS68" s="31" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AT68" s="75" t="s">
         <v>120</v>
@@ -16077,7 +16080,7 @@
         <v>6</v>
       </c>
       <c r="Z80" s="36" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AA80" s="32"/>
       <c r="AB80" s="32"/>
@@ -16090,7 +16093,7 @@
       <c r="AI80" s="32"/>
       <c r="AJ80" s="36"/>
       <c r="AK80" s="36" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AL80" s="32"/>
       <c r="AM80" s="32"/>
@@ -16395,7 +16398,7 @@
         <v>6</v>
       </c>
       <c r="Z87" s="49" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AA87" s="12">
         <v>0</v>
@@ -16410,7 +16413,7 @@
       <c r="AI87" s="3"/>
       <c r="AJ87" s="36"/>
       <c r="AK87" s="49" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AL87" s="12">
         <v>0</v>
@@ -16469,7 +16472,7 @@
         <v>123</v>
       </c>
       <c r="AH88" s="31" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AI88" s="75" t="s">
         <v>120</v>
@@ -16500,7 +16503,7 @@
         <v>123</v>
       </c>
       <c r="AS88" s="31" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AT88" s="75" t="s">
         <v>120</v>
@@ -16843,7 +16846,7 @@
     </row>
     <row r="100" spans="7:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="Z100" s="36" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AA100" s="32"/>
       <c r="AB100" s="32"/>
@@ -16856,7 +16859,7 @@
       <c r="AI100" s="32"/>
       <c r="AJ100" s="36"/>
       <c r="AK100" s="36" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AL100" s="32"/>
       <c r="AM100" s="32"/>
@@ -18165,28 +18168,28 @@
   </sheetData>
   <phoneticPr fontId="22" type="noConversion"/>
   <conditionalFormatting sqref="AO11:AO23">
-    <cfRule type="cellIs" dxfId="5" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="153" priority="11" operator="lessThan">
       <formula>$AO$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="152" priority="12" operator="greaterThan">
       <formula>$AO$6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM8:AM23">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="151" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="150" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U109:U118 W103:W108">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="149" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U109:U118 W103:W108">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="148" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18212,7 +18215,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AD1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="I43" sqref="I43:I46"/>
     </sheetView>
   </sheetViews>
@@ -18260,7 +18263,7 @@
         <v>87</v>
       </c>
       <c r="R2" s="108" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AA2" s="58"/>
     </row>
@@ -18361,7 +18364,7 @@
         <v>46</v>
       </c>
       <c r="F4" s="85" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J4" s="89"/>
       <c r="L4" s="90">
@@ -18442,7 +18445,7 @@
         <v>61</v>
       </c>
       <c r="F5" s="85" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I5" s="86"/>
       <c r="J5" s="89"/>
@@ -21120,7 +21123,7 @@
       </c>
       <c r="N2" s="58"/>
       <c r="O2" s="108" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="X2" s="58"/>
     </row>
@@ -21208,10 +21211,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="85" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F4" s="85" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H4" s="86">
         <f>SUM(B4:B40)</f>
@@ -21518,7 +21521,7 @@
       </c>
       <c r="N8" s="91"/>
       <c r="O8" s="89" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P8" s="103">
         <f>'Stats Global'!AA23</f>
@@ -21658,7 +21661,7 @@
       </c>
       <c r="N10" s="91"/>
       <c r="O10" s="89" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="P10" s="127">
         <f>'Stats Global'!AA19</f>
@@ -23815,7 +23818,7 @@
       </c>
       <c r="K3" s="83"/>
       <c r="L3" s="108" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="U3" s="58"/>
       <c r="V3" s="83"/>
@@ -26819,7 +26822,7 @@
       <c r="H14" s="26"/>
       <c r="I14" s="26"/>
       <c r="Q14" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="R14" s="9">
         <f t="shared" ref="R14:R19" si="8">COUNTIF($E$3:$E$40, Q14)+U14</f>
@@ -27761,25 +27764,25 @@
     <row r="41" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.9">
       <c r="R41" s="104"/>
       <c r="S41" s="104"/>
-      <c r="T41" s="130" t="s">
+      <c r="T41" s="132" t="s">
         <v>119</v>
       </c>
-      <c r="U41" s="130"/>
-      <c r="V41" s="130"/>
+      <c r="U41" s="132"/>
+      <c r="V41" s="132"/>
     </row>
     <row r="42" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.9">
       <c r="R42" s="104"/>
       <c r="S42" s="104"/>
-      <c r="T42" s="130"/>
-      <c r="U42" s="130"/>
-      <c r="V42" s="130"/>
+      <c r="T42" s="132"/>
+      <c r="U42" s="132"/>
+      <c r="V42" s="132"/>
     </row>
     <row r="43" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B43" s="17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="T43" s="74" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="44" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -27796,40 +27799,40 @@
         <v>79</v>
       </c>
       <c r="F44" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="G44" s="105" t="s">
+        <v>178</v>
+      </c>
+      <c r="H44" s="105" t="s">
+        <v>179</v>
+      </c>
+      <c r="I44" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="G44" s="105" t="s">
-        <v>179</v>
-      </c>
-      <c r="H44" s="105" t="s">
+      <c r="J44" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="I44" s="17" t="s">
+      <c r="K44" s="105" t="s">
+        <v>181</v>
+      </c>
+      <c r="L44" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="J44" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="K44" s="105" t="s">
+      <c r="M44" s="105" t="s">
         <v>182</v>
       </c>
-      <c r="L44" s="17" t="s">
+      <c r="N44" s="105" t="s">
+        <v>183</v>
+      </c>
+      <c r="O44" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="M44" s="105" t="s">
-        <v>183</v>
-      </c>
-      <c r="N44" s="105" t="s">
-        <v>184</v>
-      </c>
-      <c r="O44" s="17" t="s">
+      <c r="P44" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="P44" s="17" t="s">
+      <c r="Q44" s="17" t="s">
         <v>177</v>
-      </c>
-      <c r="Q44" s="17" t="s">
-        <v>178</v>
       </c>
       <c r="T44" s="17" t="str">
         <f>CHAR(34)&amp;"Date"&amp;CHAR(34)&amp;":["&amp;CHAR(34)&amp;""&amp;C2&amp;""&amp;CHAR(34)&amp;"],"</f>
@@ -27926,7 +27929,7 @@
     </row>
     <row r="49" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="T49" s="74" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="50" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -28915,7 +28918,7 @@
         <v>97</v>
       </c>
       <c r="C2" s="52" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>98</v>
@@ -29125,7 +29128,7 @@
         <v>30</v>
       </c>
       <c r="F5" s="26" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G5" s="26">
         <v>2</v>
@@ -29205,7 +29208,7 @@
         <v>30</v>
       </c>
       <c r="F6" s="26" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G6" s="26">
         <v>3</v>
@@ -29266,7 +29269,7 @@
         <v>30</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G7" s="26">
         <v>4</v>
@@ -29388,7 +29391,7 @@
         <v>61</v>
       </c>
       <c r="F9" s="26" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G9" s="26">
         <v>1</v>
@@ -29448,7 +29451,7 @@
         <v>61</v>
       </c>
       <c r="F10" s="26" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G10" s="26">
         <v>2</v>
@@ -29509,7 +29512,7 @@
         <v>30</v>
       </c>
       <c r="F11" s="26" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G11" s="26">
         <v>1</v>
@@ -29570,7 +29573,7 @@
         <v>30</v>
       </c>
       <c r="F12" s="26" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G12" s="26">
         <v>2</v>
@@ -29631,7 +29634,7 @@
         <v>58</v>
       </c>
       <c r="F13" s="26" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G13" s="26">
         <v>1</v>
@@ -29692,7 +29695,7 @@
         <v>58</v>
       </c>
       <c r="F14" s="26" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G14" s="26">
         <v>2</v>
@@ -29704,7 +29707,7 @@
         <v>2</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="R14" s="9">
         <f t="shared" si="0"/>
@@ -29753,7 +29756,7 @@
         <v>30</v>
       </c>
       <c r="F15" s="26" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G15" s="26">
         <v>1</v>
@@ -29814,7 +29817,7 @@
         <v>50</v>
       </c>
       <c r="F16" s="26" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G16" s="26">
         <v>2</v>
@@ -29875,7 +29878,7 @@
         <v>55</v>
       </c>
       <c r="F17" s="26" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G17" s="26">
         <v>3</v>
@@ -30057,7 +30060,7 @@
         <v>55</v>
       </c>
       <c r="F20" s="26" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G20" s="26">
         <v>6</v>
@@ -30133,7 +30136,7 @@
         <v>52</v>
       </c>
       <c r="F22" s="26" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G22" s="26">
         <v>1</v>
@@ -30171,7 +30174,7 @@
         <v>42</v>
       </c>
       <c r="F23" s="26" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G23" s="26">
         <v>2</v>
@@ -30226,7 +30229,7 @@
         <v>30</v>
       </c>
       <c r="F24" s="26" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G24" s="26">
         <v>1</v>
@@ -30280,7 +30283,7 @@
         <v>58</v>
       </c>
       <c r="F25" s="26" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G25" s="26">
         <v>1</v>
@@ -30335,7 +30338,7 @@
         <v>61</v>
       </c>
       <c r="F26" s="26" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G26" s="26">
         <v>2</v>
@@ -30498,7 +30501,7 @@
         <v>61</v>
       </c>
       <c r="F29" s="26" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G29" s="26">
         <v>5</v>
@@ -30887,25 +30890,25 @@
     <row r="41" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.9">
       <c r="R41" s="104"/>
       <c r="S41" s="104"/>
-      <c r="T41" s="130" t="s">
+      <c r="T41" s="132" t="s">
         <v>119</v>
       </c>
-      <c r="U41" s="130"/>
-      <c r="V41" s="130"/>
+      <c r="U41" s="132"/>
+      <c r="V41" s="132"/>
     </row>
     <row r="42" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.9">
       <c r="R42" s="104"/>
       <c r="S42" s="104"/>
-      <c r="T42" s="130"/>
-      <c r="U42" s="130"/>
-      <c r="V42" s="130"/>
+      <c r="T42" s="132"/>
+      <c r="U42" s="132"/>
+      <c r="V42" s="132"/>
     </row>
     <row r="43" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B43" s="17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="T43" s="74" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="44" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -30922,40 +30925,40 @@
         <v>79</v>
       </c>
       <c r="F44" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="G44" s="105" t="s">
+        <v>178</v>
+      </c>
+      <c r="H44" s="105" t="s">
+        <v>179</v>
+      </c>
+      <c r="I44" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="G44" s="105" t="s">
-        <v>179</v>
-      </c>
-      <c r="H44" s="105" t="s">
+      <c r="J44" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="I44" s="17" t="s">
+      <c r="K44" s="105" t="s">
+        <v>181</v>
+      </c>
+      <c r="L44" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="J44" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="K44" s="105" t="s">
+      <c r="M44" s="105" t="s">
         <v>182</v>
       </c>
-      <c r="L44" s="17" t="s">
+      <c r="N44" s="105" t="s">
+        <v>183</v>
+      </c>
+      <c r="O44" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="M44" s="105" t="s">
-        <v>183</v>
-      </c>
-      <c r="N44" s="105" t="s">
-        <v>184</v>
-      </c>
-      <c r="O44" s="17" t="s">
+      <c r="P44" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="P44" s="17" t="s">
+      <c r="Q44" s="17" t="s">
         <v>177</v>
-      </c>
-      <c r="Q44" s="17" t="s">
-        <v>178</v>
       </c>
       <c r="T44" s="17" t="str">
         <f>CHAR(34)&amp;"Date"&amp;CHAR(34)&amp;":["&amp;CHAR(34)&amp;""&amp;C2&amp;""&amp;CHAR(34)&amp;"],"</f>
@@ -31052,7 +31055,7 @@
     </row>
     <row r="49" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="T49" s="74" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="50" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -32041,7 +32044,7 @@
         <v>97</v>
       </c>
       <c r="C2" s="52" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>98</v>
@@ -32330,7 +32333,7 @@
         <v>30</v>
       </c>
       <c r="F6" s="26" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G6" s="26">
         <v>1</v>
@@ -32391,7 +32394,7 @@
         <v>50</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G7" s="26">
         <v>2</v>
@@ -32634,7 +32637,7 @@
         <v>30</v>
       </c>
       <c r="F11" s="26" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G11" s="26">
         <v>6</v>
@@ -32695,7 +32698,7 @@
         <v>30</v>
       </c>
       <c r="F12" s="26" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G12" s="26">
         <v>7</v>
@@ -32817,7 +32820,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="26" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G14" s="26">
         <v>9</v>
@@ -32829,7 +32832,7 @@
         <v>1</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="R14" s="9">
         <f t="shared" si="0"/>
@@ -32878,7 +32881,7 @@
         <v>115</v>
       </c>
       <c r="F15" s="26" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G15" s="26">
         <v>10</v>
@@ -32939,7 +32942,7 @@
         <v>46</v>
       </c>
       <c r="F16" s="26" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G16" s="26">
         <v>1</v>
@@ -33000,7 +33003,7 @@
         <v>46</v>
       </c>
       <c r="F17" s="26" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G17" s="26">
         <v>2</v>
@@ -33061,7 +33064,7 @@
         <v>30</v>
       </c>
       <c r="F18" s="26" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G18" s="26">
         <v>1</v>
@@ -33182,7 +33185,7 @@
         <v>28</v>
       </c>
       <c r="F20" s="26" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G20" s="26">
         <v>1</v>
@@ -33867,25 +33870,25 @@
     <row r="41" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.9">
       <c r="R41" s="104"/>
       <c r="S41" s="104"/>
-      <c r="T41" s="130" t="s">
+      <c r="T41" s="132" t="s">
         <v>119</v>
       </c>
-      <c r="U41" s="130"/>
-      <c r="V41" s="130"/>
+      <c r="U41" s="132"/>
+      <c r="V41" s="132"/>
     </row>
     <row r="42" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.9">
       <c r="R42" s="104"/>
       <c r="S42" s="104"/>
-      <c r="T42" s="130"/>
-      <c r="U42" s="130"/>
-      <c r="V42" s="130"/>
+      <c r="T42" s="132"/>
+      <c r="U42" s="132"/>
+      <c r="V42" s="132"/>
     </row>
     <row r="43" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B43" s="17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="T43" s="74" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="44" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -33902,40 +33905,40 @@
         <v>79</v>
       </c>
       <c r="F44" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="G44" s="105" t="s">
+        <v>178</v>
+      </c>
+      <c r="H44" s="105" t="s">
+        <v>179</v>
+      </c>
+      <c r="I44" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="G44" s="105" t="s">
-        <v>179</v>
-      </c>
-      <c r="H44" s="105" t="s">
+      <c r="J44" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="I44" s="17" t="s">
+      <c r="K44" s="105" t="s">
+        <v>181</v>
+      </c>
+      <c r="L44" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="J44" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="K44" s="105" t="s">
+      <c r="M44" s="105" t="s">
         <v>182</v>
       </c>
-      <c r="L44" s="17" t="s">
+      <c r="N44" s="105" t="s">
+        <v>183</v>
+      </c>
+      <c r="O44" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="M44" s="105" t="s">
-        <v>183</v>
-      </c>
-      <c r="N44" s="105" t="s">
-        <v>184</v>
-      </c>
-      <c r="O44" s="17" t="s">
+      <c r="P44" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="P44" s="17" t="s">
+      <c r="Q44" s="17" t="s">
         <v>177</v>
-      </c>
-      <c r="Q44" s="17" t="s">
-        <v>178</v>
       </c>
       <c r="T44" s="17" t="str">
         <f>CHAR(34)&amp;"Date"&amp;CHAR(34)&amp;":["&amp;CHAR(34)&amp;""&amp;C2&amp;""&amp;CHAR(34)&amp;"],"</f>
@@ -34032,7 +34035,7 @@
     </row>
     <row r="49" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="T49" s="74" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="50" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>

--- a/Other Files/PastResults.xlsx
+++ b/Other Files/PastResults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\011445\Documents\GitHub\LTBO\Other Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C27859-3092-4AB4-B02A-214F4B35C3F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF5A948F-9CE5-4A06-A061-DFDAB3A109E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="1" xr2:uid="{1E3275F7-0219-46B7-B9B0-3246E28631A6}"/>
   </bookViews>
@@ -1023,7 +1023,7 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1"/>
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1237,6 +1237,7 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1244,6 +1245,501 @@
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="154">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -4174,501 +4670,6 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -7053,38 +7054,38 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{598ECA3B-99B4-4CAB-8F81-5D711AA5A7FC}" name="Table1" displayName="Table1" ref="Z7:AJ24" totalsRowShown="0" headerRowDxfId="147" dataDxfId="145" headerRowBorderDxfId="146" tableBorderDxfId="144" totalsRowBorderDxfId="143">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{598ECA3B-99B4-4CAB-8F81-5D711AA5A7FC}" name="Table1" displayName="Table1" ref="Z7:AJ24" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" headerRowBorderDxfId="12" tableBorderDxfId="13" totalsRowBorderDxfId="11">
   <autoFilter ref="Z7:AJ24" xr:uid="{598ECA3B-99B4-4CAB-8F81-5D711AA5A7FC}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{9B036617-5450-4894-9268-827D2E0914FF}" name="Scoring" dataDxfId="142"/>
-    <tableColumn id="2" xr3:uid="{6662CE93-E9C4-47DE-9476-E46126825B0A}" name="Points" dataDxfId="141">
+    <tableColumn id="1" xr3:uid="{9B036617-5450-4894-9268-827D2E0914FF}" name="Scoring" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{6662CE93-E9C4-47DE-9476-E46126825B0A}" name="Points" dataDxfId="9">
       <calculatedColumnFormula>SUM(AA29,AL29,AA49,AL49,AA69,AL69,AA89,AL89)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{8FDDFCB0-2692-4EB0-948C-7B877263B55B}" name="Average" dataDxfId="140">
+    <tableColumn id="3" xr3:uid="{8FDDFCB0-2692-4EB0-948C-7B877263B55B}" name="Average" dataDxfId="8">
       <calculatedColumnFormula>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Points]]/($AA$6-Table1[[#This Row],[Missed Games]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{CC3F9B31-1857-48FB-A18B-CBC82C117BF4}" name="Finishes" dataDxfId="139">
+    <tableColumn id="4" xr3:uid="{CC3F9B31-1857-48FB-A18B-CBC82C117BF4}" name="Finishes" dataDxfId="7">
       <calculatedColumnFormula>SUM(AB29,AM29,AB49,AM49,AB69,AM69,AB89,AM89)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{5F324C66-956D-4EDC-870F-8EDE96C328C8}" name="Averages" dataDxfId="138">
+    <tableColumn id="5" xr3:uid="{5F324C66-956D-4EDC-870F-8EDE96C328C8}" name="Averages" dataDxfId="6">
       <calculatedColumnFormula>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Finishes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{80C6E15E-675D-4F58-AA26-27226F1CE373}" name="Midranges" dataDxfId="137">
+    <tableColumn id="6" xr3:uid="{80C6E15E-675D-4F58-AA26-27226F1CE373}" name="Midranges" dataDxfId="5">
       <calculatedColumnFormula>SUM(AC29,AN29,AC49,AN49,AC69,AN69,AC89,AN89)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{8E7E6B37-23A0-4556-8839-B9D7834E3E68}" name="Averages2" dataDxfId="136">
+    <tableColumn id="7" xr3:uid="{8E7E6B37-23A0-4556-8839-B9D7834E3E68}" name="Averages2" dataDxfId="4">
       <calculatedColumnFormula>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Midranges]]/($AA$6-Table1[[#This Row],[Missed Games]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{8B28715D-E310-4E1F-B9F0-F58F7C70E830}" name="Threes" dataDxfId="135">
+    <tableColumn id="8" xr3:uid="{8B28715D-E310-4E1F-B9F0-F58F7C70E830}" name="Threes" dataDxfId="3">
       <calculatedColumnFormula>SUM(AD29,AO29,AD49,AO49,AD69,AO69,AD89,AO89)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{E0C0BF1C-40E8-4137-8E0F-BB238D651DAE}" name="Averages3" dataDxfId="134">
+    <tableColumn id="9" xr3:uid="{E0C0BF1C-40E8-4137-8E0F-BB238D651DAE}" name="Averages3" dataDxfId="2">
       <calculatedColumnFormula>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Threes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{1C75F230-74E0-47EE-BF13-C22289FE0F87}" name="Team" dataDxfId="133">
+    <tableColumn id="10" xr3:uid="{1C75F230-74E0-47EE-BF13-C22289FE0F87}" name="Team" dataDxfId="1">
       <calculatedColumnFormula>SfW!C3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{E167D7FA-56F9-4571-B292-FF3869585F59}" name="Missed Games" dataDxfId="132">
+    <tableColumn id="11" xr3:uid="{E167D7FA-56F9-4571-B292-FF3869585F59}" name="Missed Games" dataDxfId="0">
       <calculatedColumnFormula>SUM(AI29,AT29,AI49,AT49,AI69,AT69,AI89,AT89)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7093,94 +7094,94 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{744FF78C-74B5-4798-AD3D-741E3ACB43CF}" name="Table1114" displayName="Table1114" ref="R3:AA8" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{744FF78C-74B5-4798-AD3D-741E3ACB43CF}" name="Table1114" displayName="Table1114" ref="R3:AA8" totalsRowShown="0" headerRowDxfId="51" dataDxfId="50">
   <autoFilter ref="R3:AA8" xr:uid="{744FF78C-74B5-4798-AD3D-741E3ACB43CF}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{B3B5C08C-655A-460A-A171-B3B0C826FF04}" name="Name" dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{427944B0-44CA-4325-A406-29F83026BA5E}" name="Points" dataDxfId="32">
+    <tableColumn id="1" xr3:uid="{B3B5C08C-655A-460A-A171-B3B0C826FF04}" name="Name" dataDxfId="49"/>
+    <tableColumn id="2" xr3:uid="{427944B0-44CA-4325-A406-29F83026BA5E}" name="Points" dataDxfId="48">
       <calculatedColumnFormula>'Stats Global'!AA22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{5E06D173-4DBE-4045-9072-0A0A77D19C84}" name="Average" dataDxfId="31"/>
-    <tableColumn id="4" xr3:uid="{E74131A4-1DCA-4A89-8989-A4CF80175582}" name="Finishes" dataDxfId="30"/>
-    <tableColumn id="5" xr3:uid="{FC3336D4-2CB5-4673-A345-7C9CCED7ADEE}" name="Averages" dataDxfId="29"/>
-    <tableColumn id="6" xr3:uid="{BD6313A7-5D92-4B66-9B85-7ABC12DE9691}" name="Midranges" dataDxfId="28"/>
-    <tableColumn id="7" xr3:uid="{6D0293BC-7E06-45CE-9D4B-FE4769DF9D9F}" name="Averages2" dataDxfId="27"/>
-    <tableColumn id="8" xr3:uid="{89C1C64B-DD66-482C-BCDE-8B912D2676EF}" name="Threes" dataDxfId="26"/>
-    <tableColumn id="9" xr3:uid="{7748B87C-1833-4BD6-9162-76373407E655}" name="Averages3" dataDxfId="25"/>
-    <tableColumn id="10" xr3:uid="{D870E191-A52F-442E-AA52-A42CFAD05573}" name="Missed Games" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{5E06D173-4DBE-4045-9072-0A0A77D19C84}" name="Average" dataDxfId="47"/>
+    <tableColumn id="4" xr3:uid="{E74131A4-1DCA-4A89-8989-A4CF80175582}" name="Finishes" dataDxfId="46"/>
+    <tableColumn id="5" xr3:uid="{FC3336D4-2CB5-4673-A345-7C9CCED7ADEE}" name="Averages" dataDxfId="45"/>
+    <tableColumn id="6" xr3:uid="{BD6313A7-5D92-4B66-9B85-7ABC12DE9691}" name="Midranges" dataDxfId="44"/>
+    <tableColumn id="7" xr3:uid="{6D0293BC-7E06-45CE-9D4B-FE4769DF9D9F}" name="Averages2" dataDxfId="43"/>
+    <tableColumn id="8" xr3:uid="{89C1C64B-DD66-482C-BCDE-8B912D2676EF}" name="Threes" dataDxfId="42"/>
+    <tableColumn id="9" xr3:uid="{7748B87C-1833-4BD6-9162-76373407E655}" name="Averages3" dataDxfId="41"/>
+    <tableColumn id="10" xr3:uid="{D870E191-A52F-442E-AA52-A42CFAD05573}" name="Missed Games" dataDxfId="40"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{54759C84-3153-4DC9-9240-E2749AA0D92B}" name="Table1113" displayName="Table1113" ref="O3:X10" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{54759C84-3153-4DC9-9240-E2749AA0D92B}" name="Table1113" displayName="Table1113" ref="O3:X10" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
   <autoFilter ref="O3:X10" xr:uid="{54759C84-3153-4DC9-9240-E2749AA0D92B}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{7790729E-C8E5-45C1-8784-25212A2654AA}" name="Name" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{52A67B2B-967C-4970-8D83-8F8E9CC61522}" name="Points" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{BA1FA2C8-AEC0-4644-83DB-5097750D7188}" name="Average" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{4CF66F5D-BF10-4CBD-88FF-CCD38730E1CD}" name="Finishes" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{BC246D5B-7E78-41A6-B796-C93ED8E53DF9}" name="Averages" dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{AB819419-CC06-4A40-8DED-E231125129C0}" name="Midranges" dataDxfId="16"/>
-    <tableColumn id="7" xr3:uid="{064AA562-C451-4362-805E-D12DC76C3530}" name="Averages2" dataDxfId="15"/>
-    <tableColumn id="8" xr3:uid="{BD0D8BAE-15E4-4B38-87FE-B682D7BAEE75}" name="Threes" dataDxfId="14"/>
-    <tableColumn id="9" xr3:uid="{541E391B-4B08-4E98-A63F-753C11193269}" name="Averages3" dataDxfId="13"/>
-    <tableColumn id="10" xr3:uid="{999BB5D2-D6FB-4EB9-A268-D62EA72F939D}" name="Missed Games" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{7790729E-C8E5-45C1-8784-25212A2654AA}" name="Name" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{52A67B2B-967C-4970-8D83-8F8E9CC61522}" name="Points" dataDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{BA1FA2C8-AEC0-4644-83DB-5097750D7188}" name="Average" dataDxfId="35"/>
+    <tableColumn id="4" xr3:uid="{4CF66F5D-BF10-4CBD-88FF-CCD38730E1CD}" name="Finishes" dataDxfId="34"/>
+    <tableColumn id="5" xr3:uid="{BC246D5B-7E78-41A6-B796-C93ED8E53DF9}" name="Averages" dataDxfId="33"/>
+    <tableColumn id="6" xr3:uid="{AB819419-CC06-4A40-8DED-E231125129C0}" name="Midranges" dataDxfId="32"/>
+    <tableColumn id="7" xr3:uid="{064AA562-C451-4362-805E-D12DC76C3530}" name="Averages2" dataDxfId="31"/>
+    <tableColumn id="8" xr3:uid="{BD0D8BAE-15E4-4B38-87FE-B682D7BAEE75}" name="Threes" dataDxfId="30"/>
+    <tableColumn id="9" xr3:uid="{541E391B-4B08-4E98-A63F-753C11193269}" name="Averages3" dataDxfId="29"/>
+    <tableColumn id="10" xr3:uid="{999BB5D2-D6FB-4EB9-A268-D62EA72F939D}" name="Missed Games" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{C12CFC3F-7D59-4C0F-8D43-3F8ACD58C2BD}" name="Table11" displayName="Table11" ref="L4:U9" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{C12CFC3F-7D59-4C0F-8D43-3F8ACD58C2BD}" name="Table11" displayName="Table11" ref="L4:U9" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
   <autoFilter ref="L4:U9" xr:uid="{C12CFC3F-7D59-4C0F-8D43-3F8ACD58C2BD}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{CE15C23D-9493-4B21-9D40-1A25D210C18E}" name="Name" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{6BB170B1-AA38-4699-9B96-400D2947EE9C}" name="Points" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{EC8B6CBB-FCC9-416C-AEA6-738419DFE531}" name="Average" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{315DA055-9A43-468A-A501-1092626F523F}" name="Finishes" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{56B6FF4D-95D4-4550-88E4-C781ABDA83A6}" name="Averages" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{F7B5C0B8-FBE2-44B0-A372-112C7776FCCF}" name="Midranges" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{1A1C2126-FEB1-408F-8523-049E53028B4E}" name="Averages2" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{AE94036B-3777-4C1B-97D5-7BFA1037C0BF}" name="Threes" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{448B0903-7F66-40BA-809F-74ADBF397B45}" name="Averages3" dataDxfId="1"/>
-    <tableColumn id="10" xr3:uid="{E0CAC55D-8398-4928-A219-C01706996D48}" name="Missed Games" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{CE15C23D-9493-4B21-9D40-1A25D210C18E}" name="Name" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{6BB170B1-AA38-4699-9B96-400D2947EE9C}" name="Points" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{EC8B6CBB-FCC9-416C-AEA6-738419DFE531}" name="Average" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{315DA055-9A43-468A-A501-1092626F523F}" name="Finishes" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{56B6FF4D-95D4-4550-88E4-C781ABDA83A6}" name="Averages" dataDxfId="21"/>
+    <tableColumn id="6" xr3:uid="{F7B5C0B8-FBE2-44B0-A372-112C7776FCCF}" name="Midranges" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{1A1C2126-FEB1-408F-8523-049E53028B4E}" name="Averages2" dataDxfId="19"/>
+    <tableColumn id="8" xr3:uid="{AE94036B-3777-4C1B-97D5-7BFA1037C0BF}" name="Threes" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{448B0903-7F66-40BA-809F-74ADBF397B45}" name="Averages3" dataDxfId="17"/>
+    <tableColumn id="10" xr3:uid="{E0CAC55D-8398-4928-A219-C01706996D48}" name="Missed Games" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{84D0C431-52CF-4ABD-AA3E-D31975A289B1}" name="Table2" displayName="Table2" ref="Z28:AI45" totalsRowShown="0" headerRowDxfId="131" dataDxfId="130">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{84D0C431-52CF-4ABD-AA3E-D31975A289B1}" name="Table2" displayName="Table2" ref="Z28:AI45" totalsRowShown="0" headerRowDxfId="147" dataDxfId="146">
   <autoFilter ref="Z28:AI45" xr:uid="{84D0C431-52CF-4ABD-AA3E-D31975A289B1}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{4DB7A2B8-7BD8-4BD7-8F53-2A7873A4EAAE}" name="Scoring" dataDxfId="129"/>
-    <tableColumn id="2" xr3:uid="{BE8EBD49-660A-4C9F-970E-230EBB942EF1}" name="Points" dataDxfId="128">
+    <tableColumn id="1" xr3:uid="{4DB7A2B8-7BD8-4BD7-8F53-2A7873A4EAAE}" name="Scoring" dataDxfId="145"/>
+    <tableColumn id="2" xr3:uid="{BE8EBD49-660A-4C9F-970E-230EBB942EF1}" name="Points" dataDxfId="144">
       <calculatedColumnFormula>'Preseason 1'!R3+'Preseason 2'!R3+'Preseason 3'!R3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{C2C49EF0-4D8C-4F8C-8D19-CDD1481D9568}" name="Finishes" dataDxfId="127">
+    <tableColumn id="3" xr3:uid="{C2C49EF0-4D8C-4F8C-8D19-CDD1481D9568}" name="Finishes" dataDxfId="143">
       <calculatedColumnFormula>'Preseason 1'!S3+'Preseason 2'!S3+'Preseason 3'!S3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{7E789F8C-B8F3-4D6E-AB6C-C9454835B062}" name="Midranges" dataDxfId="126">
+    <tableColumn id="4" xr3:uid="{7E789F8C-B8F3-4D6E-AB6C-C9454835B062}" name="Midranges" dataDxfId="142">
       <calculatedColumnFormula>'Preseason 1'!T3+'Preseason 2'!T3+'Preseason 3'!T3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{18C990F2-A6D0-4F57-B96A-D00066DCC8D8}" name="Threes" dataDxfId="125">
+    <tableColumn id="5" xr3:uid="{18C990F2-A6D0-4F57-B96A-D00066DCC8D8}" name="Threes" dataDxfId="141">
       <calculatedColumnFormula>'Preseason 1'!U3+'Preseason 2'!U3+'Preseason 3'!U3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{40526534-76CA-42BA-A8B6-AB092D9CE18F}" name="Avg P" dataDxfId="124">
+    <tableColumn id="6" xr3:uid="{40526534-76CA-42BA-A8B6-AB092D9CE18F}" name="Avg P" dataDxfId="140">
       <calculatedColumnFormula>AA29/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{693AF117-21F6-4887-B78D-D59235BABA44}" name="Avg F" dataDxfId="123">
+    <tableColumn id="7" xr3:uid="{693AF117-21F6-4887-B78D-D59235BABA44}" name="Avg F" dataDxfId="139">
       <calculatedColumnFormula>AB29/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{02AC8FBF-EBB3-4AFC-BAC5-B773E33B7279}" name="Avg M" dataDxfId="122">
+    <tableColumn id="8" xr3:uid="{02AC8FBF-EBB3-4AFC-BAC5-B773E33B7279}" name="Avg M" dataDxfId="138">
       <calculatedColumnFormula>AC29/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{CCF75EB4-34C4-4D47-9D51-E8D85C07E38B}" name="Avg T" dataDxfId="121">
+    <tableColumn id="9" xr3:uid="{CCF75EB4-34C4-4D47-9D51-E8D85C07E38B}" name="Avg T" dataDxfId="137">
       <calculatedColumnFormula>AD29/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{1A786A5C-D0C2-4ABC-904C-983180542D5F}" name="Missed Games" dataDxfId="120">
+    <tableColumn id="10" xr3:uid="{1A786A5C-D0C2-4ABC-904C-983180542D5F}" name="Missed Games" dataDxfId="136">
       <calculatedColumnFormula>COUNTIF('Preseason 1'!V3, "TRUE")+COUNTIF('Preseason 2'!V3, "TRUE")+COUNTIF('Preseason 3'!V3, "TRUE")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7189,35 +7190,35 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{46F39EBA-1E74-46F4-A6E5-473672128124}" name="Table211" displayName="Table211" ref="AK28:AT45" totalsRowShown="0" headerRowDxfId="119" dataDxfId="118">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{46F39EBA-1E74-46F4-A6E5-473672128124}" name="Table211" displayName="Table211" ref="AK28:AT45" totalsRowShown="0" headerRowDxfId="135" dataDxfId="134">
   <autoFilter ref="AK28:AT45" xr:uid="{46F39EBA-1E74-46F4-A6E5-473672128124}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{5D003608-C1C2-4694-9447-8632FB8D7348}" name="Scoring" dataDxfId="117"/>
-    <tableColumn id="2" xr3:uid="{D15F4085-CED5-4CDD-B43B-BF7EB59B45A3}" name="Points" dataDxfId="116">
+    <tableColumn id="1" xr3:uid="{5D003608-C1C2-4694-9447-8632FB8D7348}" name="Scoring" dataDxfId="133"/>
+    <tableColumn id="2" xr3:uid="{D15F4085-CED5-4CDD-B43B-BF7EB59B45A3}" name="Points" dataDxfId="132">
       <calculatedColumnFormula>Template!AC3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{2D436F37-54B6-4820-9145-F48B4EF9B294}" name="Finishes" dataDxfId="115">
+    <tableColumn id="3" xr3:uid="{2D436F37-54B6-4820-9145-F48B4EF9B294}" name="Finishes" dataDxfId="131">
       <calculatedColumnFormula>Template!AD3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{1D9B6A22-B682-47F3-B738-7C138F317A41}" name="Midranges" dataDxfId="114">
+    <tableColumn id="4" xr3:uid="{1D9B6A22-B682-47F3-B738-7C138F317A41}" name="Midranges" dataDxfId="130">
       <calculatedColumnFormula>Template!AE3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{9966C9A0-3872-44E9-BB39-05DE197EAA68}" name="Threes" dataDxfId="113">
+    <tableColumn id="5" xr3:uid="{9966C9A0-3872-44E9-BB39-05DE197EAA68}" name="Threes" dataDxfId="129">
       <calculatedColumnFormula>Template!AF3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{CC4AB646-735F-425F-8528-C5EFE7FE11DC}" name="Avg P" dataDxfId="112">
+    <tableColumn id="6" xr3:uid="{CC4AB646-735F-425F-8528-C5EFE7FE11DC}" name="Avg P" dataDxfId="128">
       <calculatedColumnFormula>AL29/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{F8D0247E-C6F7-467A-9F38-46084D44F8AB}" name="Avg F" dataDxfId="111">
+    <tableColumn id="7" xr3:uid="{F8D0247E-C6F7-467A-9F38-46084D44F8AB}" name="Avg F" dataDxfId="127">
       <calculatedColumnFormula>AM29/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{7CCF1C77-9DB0-4EB2-B7D0-FD0BDBEBFA0E}" name="Avg M" dataDxfId="110">
+    <tableColumn id="8" xr3:uid="{7CCF1C77-9DB0-4EB2-B7D0-FD0BDBEBFA0E}" name="Avg M" dataDxfId="126">
       <calculatedColumnFormula>AN29/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{582A1A4E-5383-4383-A480-735408867046}" name="Avg T" dataDxfId="109">
+    <tableColumn id="9" xr3:uid="{582A1A4E-5383-4383-A480-735408867046}" name="Avg T" dataDxfId="125">
       <calculatedColumnFormula>AO29/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{E547AEB5-F9BA-4C5F-8DCE-34B6A8FF303A}" name="Missed Games" dataDxfId="108">
+    <tableColumn id="10" xr3:uid="{E547AEB5-F9BA-4C5F-8DCE-34B6A8FF303A}" name="Missed Games" dataDxfId="124">
       <calculatedColumnFormula>COUNTIF(Template!AG3, "TRUE")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7226,35 +7227,35 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{D27C125F-71B2-44D9-9F7A-9BED67755DD3}" name="Table21123" displayName="Table21123" ref="Z48:AI65" totalsRowShown="0" headerRowDxfId="107" dataDxfId="106">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{D27C125F-71B2-44D9-9F7A-9BED67755DD3}" name="Table21123" displayName="Table21123" ref="Z48:AI65" totalsRowShown="0" headerRowDxfId="123" dataDxfId="122">
   <autoFilter ref="Z48:AI65" xr:uid="{D27C125F-71B2-44D9-9F7A-9BED67755DD3}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{0B0344E8-2677-4FAB-9B03-4745991FB5AE}" name="Scoring" dataDxfId="105"/>
-    <tableColumn id="2" xr3:uid="{58CA1107-8BB4-4A5D-BA00-31619C8D3973}" name="Points" dataDxfId="104">
+    <tableColumn id="1" xr3:uid="{0B0344E8-2677-4FAB-9B03-4745991FB5AE}" name="Scoring" dataDxfId="121"/>
+    <tableColumn id="2" xr3:uid="{58CA1107-8BB4-4A5D-BA00-31619C8D3973}" name="Points" dataDxfId="120">
       <calculatedColumnFormula>Template!R23</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{8090861E-1FDF-44F4-9DB6-BB814E32C754}" name="Finishes" dataDxfId="103">
+    <tableColumn id="3" xr3:uid="{8090861E-1FDF-44F4-9DB6-BB814E32C754}" name="Finishes" dataDxfId="119">
       <calculatedColumnFormula>Template!S23</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{972D0347-DAB3-4985-A738-E5D78740D498}" name="Midranges" dataDxfId="102">
+    <tableColumn id="4" xr3:uid="{972D0347-DAB3-4985-A738-E5D78740D498}" name="Midranges" dataDxfId="118">
       <calculatedColumnFormula>Template!T23</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{48F5F884-1753-4988-9056-632B5EB6BBCB}" name="Threes" dataDxfId="101">
+    <tableColumn id="5" xr3:uid="{48F5F884-1753-4988-9056-632B5EB6BBCB}" name="Threes" dataDxfId="117">
       <calculatedColumnFormula>Template!U23</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{6953B627-EA05-418F-A758-FD59263EA60D}" name="Avg P" dataDxfId="100">
+    <tableColumn id="6" xr3:uid="{6953B627-EA05-418F-A758-FD59263EA60D}" name="Avg P" dataDxfId="116">
       <calculatedColumnFormula>AA49/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{BE057C9C-5ECD-4AC2-A9C0-18C89CFB52BC}" name="Avg F" dataDxfId="99">
+    <tableColumn id="7" xr3:uid="{BE057C9C-5ECD-4AC2-A9C0-18C89CFB52BC}" name="Avg F" dataDxfId="115">
       <calculatedColumnFormula>AB49/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{0FDEBEE7-CD5E-4A44-A0AE-74F044F1FF46}" name="Avg M" dataDxfId="98">
+    <tableColumn id="8" xr3:uid="{0FDEBEE7-CD5E-4A44-A0AE-74F044F1FF46}" name="Avg M" dataDxfId="114">
       <calculatedColumnFormula>AC49/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{76975BB6-3677-41A8-BC24-7536B1D876D3}" name="Avg T" dataDxfId="97">
+    <tableColumn id="9" xr3:uid="{76975BB6-3677-41A8-BC24-7536B1D876D3}" name="Avg T" dataDxfId="113">
       <calculatedColumnFormula>AD49/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{E5ADB69B-3BA2-4019-8C83-8B02221F187E}" name="Missed Games" dataDxfId="96">
+    <tableColumn id="10" xr3:uid="{E5ADB69B-3BA2-4019-8C83-8B02221F187E}" name="Missed Games" dataDxfId="112">
       <calculatedColumnFormula>COUNTIF(Template!V23, "TRUE")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7263,35 +7264,35 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{22B89D2C-1B74-4036-A4ED-A5E61F1B3AAC}" name="Table21124" displayName="Table21124" ref="AK48:AT65" totalsRowShown="0" headerRowDxfId="95" dataDxfId="94">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{22B89D2C-1B74-4036-A4ED-A5E61F1B3AAC}" name="Table21124" displayName="Table21124" ref="AK48:AT65" totalsRowShown="0" headerRowDxfId="111" dataDxfId="110">
   <autoFilter ref="AK48:AT65" xr:uid="{22B89D2C-1B74-4036-A4ED-A5E61F1B3AAC}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{3D35891E-3654-497A-8DB2-BF0BD916CA29}" name="Scoring" dataDxfId="93"/>
-    <tableColumn id="2" xr3:uid="{54B5B6AF-372A-4E07-B4D6-DFC66F7E20C5}" name="Points" dataDxfId="92">
+    <tableColumn id="1" xr3:uid="{3D35891E-3654-497A-8DB2-BF0BD916CA29}" name="Scoring" dataDxfId="109"/>
+    <tableColumn id="2" xr3:uid="{54B5B6AF-372A-4E07-B4D6-DFC66F7E20C5}" name="Points" dataDxfId="108">
       <calculatedColumnFormula>Template!AC23</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{6CA15B41-F560-4B43-8836-163F5BB5689C}" name="Finishes" dataDxfId="91">
+    <tableColumn id="3" xr3:uid="{6CA15B41-F560-4B43-8836-163F5BB5689C}" name="Finishes" dataDxfId="107">
       <calculatedColumnFormula>Template!AD23</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{8FF05262-0051-44F7-966E-8D405318BA69}" name="Midranges" dataDxfId="90">
+    <tableColumn id="4" xr3:uid="{8FF05262-0051-44F7-966E-8D405318BA69}" name="Midranges" dataDxfId="106">
       <calculatedColumnFormula>Template!AE23</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{F0D843FC-7A93-4C9A-BCCF-E789F7811B3B}" name="Threes" dataDxfId="89">
+    <tableColumn id="5" xr3:uid="{F0D843FC-7A93-4C9A-BCCF-E789F7811B3B}" name="Threes" dataDxfId="105">
       <calculatedColumnFormula>Template!AF23</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{F0498F8A-F646-4C1F-A3CF-E89E73750FC1}" name="Avg P" dataDxfId="88">
+    <tableColumn id="6" xr3:uid="{F0498F8A-F646-4C1F-A3CF-E89E73750FC1}" name="Avg P" dataDxfId="104">
       <calculatedColumnFormula>AL49/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{A387BC88-F45C-4386-8503-EFEA33BDAC38}" name="Avg F" dataDxfId="87">
+    <tableColumn id="7" xr3:uid="{A387BC88-F45C-4386-8503-EFEA33BDAC38}" name="Avg F" dataDxfId="103">
       <calculatedColumnFormula>AM49/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{BEA82919-0828-4351-A01A-D72E13E63FAB}" name="Avg M" dataDxfId="86">
+    <tableColumn id="8" xr3:uid="{BEA82919-0828-4351-A01A-D72E13E63FAB}" name="Avg M" dataDxfId="102">
       <calculatedColumnFormula>AN49/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{ABEBCE01-BCA4-4342-966C-27301889B607}" name="Avg T" dataDxfId="85">
+    <tableColumn id="9" xr3:uid="{ABEBCE01-BCA4-4342-966C-27301889B607}" name="Avg T" dataDxfId="101">
       <calculatedColumnFormula>AO49/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{65E7A8E7-4C51-42E4-AB0F-B7FF6099D70A}" name="Missed Games" dataDxfId="84">
+    <tableColumn id="10" xr3:uid="{65E7A8E7-4C51-42E4-AB0F-B7FF6099D70A}" name="Missed Games" dataDxfId="100">
       <calculatedColumnFormula>COUNTIF(Template!AG23, "TRUE")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7300,35 +7301,35 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{18C7D514-96DE-4BA6-B019-3E860ED143EC}" name="Table21125" displayName="Table21125" ref="AK68:AT85" totalsRowShown="0" headerRowDxfId="83" dataDxfId="82">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{18C7D514-96DE-4BA6-B019-3E860ED143EC}" name="Table21125" displayName="Table21125" ref="AK68:AT85" totalsRowShown="0" headerRowDxfId="99" dataDxfId="98">
   <autoFilter ref="AK68:AT85" xr:uid="{18C7D514-96DE-4BA6-B019-3E860ED143EC}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{D144EF14-69FD-4E71-90C7-56F49F45FAE5}" name="Scoring" dataDxfId="81"/>
-    <tableColumn id="2" xr3:uid="{34D1D392-F3E0-4C36-9EED-849D5B1149E6}" name="Points" dataDxfId="80">
+    <tableColumn id="1" xr3:uid="{D144EF14-69FD-4E71-90C7-56F49F45FAE5}" name="Scoring" dataDxfId="97"/>
+    <tableColumn id="2" xr3:uid="{34D1D392-F3E0-4C36-9EED-849D5B1149E6}" name="Points" dataDxfId="96">
       <calculatedColumnFormula>Template!AC43</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{E91D98A2-80BD-4E5C-9036-2FCC8185369F}" name="Finishes" dataDxfId="79">
+    <tableColumn id="3" xr3:uid="{E91D98A2-80BD-4E5C-9036-2FCC8185369F}" name="Finishes" dataDxfId="95">
       <calculatedColumnFormula>Template!AD43</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{D2E5029E-4811-4E9B-9A2D-5F5F8F322B0D}" name="Midranges" dataDxfId="78">
+    <tableColumn id="4" xr3:uid="{D2E5029E-4811-4E9B-9A2D-5F5F8F322B0D}" name="Midranges" dataDxfId="94">
       <calculatedColumnFormula>Template!AE43</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{B3E76CEE-33DA-4B18-8DCE-8EBC7EE592D7}" name="Threes" dataDxfId="77">
+    <tableColumn id="5" xr3:uid="{B3E76CEE-33DA-4B18-8DCE-8EBC7EE592D7}" name="Threes" dataDxfId="93">
       <calculatedColumnFormula>Template!AF43</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{6ABE1879-8018-4498-A9A1-22CF831F0364}" name="Avg P" dataDxfId="76">
+    <tableColumn id="6" xr3:uid="{6ABE1879-8018-4498-A9A1-22CF831F0364}" name="Avg P" dataDxfId="92">
       <calculatedColumnFormula>AL69/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{8DA4DD79-8A2A-49E4-996F-C1ACCED3C565}" name="Avg F" dataDxfId="75">
+    <tableColumn id="7" xr3:uid="{8DA4DD79-8A2A-49E4-996F-C1ACCED3C565}" name="Avg F" dataDxfId="91">
       <calculatedColumnFormula>AM69/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{256EA4BC-BA61-49E2-969F-0786AA9AA6EA}" name="Avg M" dataDxfId="74">
+    <tableColumn id="8" xr3:uid="{256EA4BC-BA61-49E2-969F-0786AA9AA6EA}" name="Avg M" dataDxfId="90">
       <calculatedColumnFormula>AN69/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{0E5566B2-99EC-4B03-A074-8705C4EDA484}" name="Avg T" dataDxfId="73">
+    <tableColumn id="9" xr3:uid="{0E5566B2-99EC-4B03-A074-8705C4EDA484}" name="Avg T" dataDxfId="89">
       <calculatedColumnFormula>AO69/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{3E2357F0-493E-401D-AC75-9AAB260F684E}" name="Missed Games" dataDxfId="72">
+    <tableColumn id="10" xr3:uid="{3E2357F0-493E-401D-AC75-9AAB260F684E}" name="Missed Games" dataDxfId="88">
       <calculatedColumnFormula>COUNTIF(Template!AG43, "TRUE")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7337,35 +7338,35 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{F118BED8-7AAF-4E55-A61F-C75C69A64AAE}" name="Table21126" displayName="Table21126" ref="Z68:AI85" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{F118BED8-7AAF-4E55-A61F-C75C69A64AAE}" name="Table21126" displayName="Table21126" ref="Z68:AI85" totalsRowShown="0" headerRowDxfId="87" dataDxfId="86">
   <autoFilter ref="Z68:AI85" xr:uid="{F118BED8-7AAF-4E55-A61F-C75C69A64AAE}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{7723929D-65B3-40BB-8FDD-C4533243706C}" name="Scoring" dataDxfId="69"/>
-    <tableColumn id="2" xr3:uid="{EC28DE3D-619E-4930-A3AF-7AD1BE1D4843}" name="Points" dataDxfId="68">
+    <tableColumn id="1" xr3:uid="{7723929D-65B3-40BB-8FDD-C4533243706C}" name="Scoring" dataDxfId="85"/>
+    <tableColumn id="2" xr3:uid="{EC28DE3D-619E-4930-A3AF-7AD1BE1D4843}" name="Points" dataDxfId="84">
       <calculatedColumnFormula>Template!R43</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{9537269D-8C1D-42B5-866F-D03CE61A8512}" name="Finishes" dataDxfId="67">
+    <tableColumn id="3" xr3:uid="{9537269D-8C1D-42B5-866F-D03CE61A8512}" name="Finishes" dataDxfId="83">
       <calculatedColumnFormula>Template!S43</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{AC590DDB-BE19-4A14-8B98-1E5E2430AA45}" name="Midranges" dataDxfId="66">
+    <tableColumn id="4" xr3:uid="{AC590DDB-BE19-4A14-8B98-1E5E2430AA45}" name="Midranges" dataDxfId="82">
       <calculatedColumnFormula>Template!T43</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C96D3ACD-F34D-477E-86DE-4650EE56BC94}" name="Threes" dataDxfId="65">
+    <tableColumn id="5" xr3:uid="{C96D3ACD-F34D-477E-86DE-4650EE56BC94}" name="Threes" dataDxfId="81">
       <calculatedColumnFormula>Template!U43</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{A43DE5E9-BB01-49FA-A204-66EE7BAA2E9F}" name="Avg P" dataDxfId="64">
+    <tableColumn id="6" xr3:uid="{A43DE5E9-BB01-49FA-A204-66EE7BAA2E9F}" name="Avg P" dataDxfId="80">
       <calculatedColumnFormula>AA69/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{C75A19FF-6041-45C2-BACB-E347F06B6329}" name="Avg F" dataDxfId="63">
+    <tableColumn id="7" xr3:uid="{C75A19FF-6041-45C2-BACB-E347F06B6329}" name="Avg F" dataDxfId="79">
       <calculatedColumnFormula>AB69/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00D3FCFC-C9C5-4C96-BE0E-8E1FDC95D07C}" name="Avg M" dataDxfId="62">
+    <tableColumn id="8" xr3:uid="{00D3FCFC-C9C5-4C96-BE0E-8E1FDC95D07C}" name="Avg M" dataDxfId="78">
       <calculatedColumnFormula>AC69/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{0448FF4E-9D2D-47F6-89B7-F17D36B05E8A}" name="Avg T" dataDxfId="61">
+    <tableColumn id="9" xr3:uid="{0448FF4E-9D2D-47F6-89B7-F17D36B05E8A}" name="Avg T" dataDxfId="77">
       <calculatedColumnFormula>AD69/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{D5BDFA2D-095B-44F8-8567-15B3B1520E5A}" name="Missed Games" dataDxfId="60">
+    <tableColumn id="10" xr3:uid="{D5BDFA2D-095B-44F8-8567-15B3B1520E5A}" name="Missed Games" dataDxfId="76">
       <calculatedColumnFormula>COUNTIF(Template!V43, "TRUE")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7374,35 +7375,35 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{BDD2E472-3925-41A7-BECD-3315E6E71ECC}" name="Table21127" displayName="Table21127" ref="Z88:AI105" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{BDD2E472-3925-41A7-BECD-3315E6E71ECC}" name="Table21127" displayName="Table21127" ref="Z88:AI105" totalsRowShown="0" headerRowDxfId="75" dataDxfId="74">
   <autoFilter ref="Z88:AI105" xr:uid="{BDD2E472-3925-41A7-BECD-3315E6E71ECC}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{9DBD966D-620C-4B97-A502-29D00ABE150B}" name="Scoring" dataDxfId="57"/>
-    <tableColumn id="2" xr3:uid="{F8F81F0E-16B3-4472-9D90-A92149C763E4}" name="Points" dataDxfId="56">
+    <tableColumn id="1" xr3:uid="{9DBD966D-620C-4B97-A502-29D00ABE150B}" name="Scoring" dataDxfId="73"/>
+    <tableColumn id="2" xr3:uid="{F8F81F0E-16B3-4472-9D90-A92149C763E4}" name="Points" dataDxfId="72">
       <calculatedColumnFormula>Template!R63</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{09859CE1-290D-4977-B02C-46F4E5A6FDC2}" name="Finishes" dataDxfId="55">
+    <tableColumn id="3" xr3:uid="{09859CE1-290D-4977-B02C-46F4E5A6FDC2}" name="Finishes" dataDxfId="71">
       <calculatedColumnFormula>Template!S63</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{7D751A0E-2895-46DF-B5E2-5A8AA5531CD2}" name="Midranges" dataDxfId="54">
+    <tableColumn id="4" xr3:uid="{7D751A0E-2895-46DF-B5E2-5A8AA5531CD2}" name="Midranges" dataDxfId="70">
       <calculatedColumnFormula>Template!T63</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{591CDC71-B0EA-413B-B6C1-77884E7E50D4}" name="Threes" dataDxfId="53">
+    <tableColumn id="5" xr3:uid="{591CDC71-B0EA-413B-B6C1-77884E7E50D4}" name="Threes" dataDxfId="69">
       <calculatedColumnFormula>Template!U63</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{52ED768C-5557-42DC-9824-7A4D9B547153}" name="Avg P" dataDxfId="52">
+    <tableColumn id="6" xr3:uid="{52ED768C-5557-42DC-9824-7A4D9B547153}" name="Avg P" dataDxfId="68">
       <calculatedColumnFormula>AA89/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{FC79BE87-72E2-4F5E-83D6-CDCE645EB943}" name="Avg F" dataDxfId="51">
+    <tableColumn id="7" xr3:uid="{FC79BE87-72E2-4F5E-83D6-CDCE645EB943}" name="Avg F" dataDxfId="67">
       <calculatedColumnFormula>AB89/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{BA012C22-0D65-4C11-98A7-4F958703D04B}" name="Avg M" dataDxfId="50">
+    <tableColumn id="8" xr3:uid="{BA012C22-0D65-4C11-98A7-4F958703D04B}" name="Avg M" dataDxfId="66">
       <calculatedColumnFormula>AC89/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{63344F2B-5D94-417D-85E2-C2BFBACE3E7E}" name="Avg T" dataDxfId="49">
+    <tableColumn id="9" xr3:uid="{63344F2B-5D94-417D-85E2-C2BFBACE3E7E}" name="Avg T" dataDxfId="65">
       <calculatedColumnFormula>AD89/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{1AD5A604-8909-45B3-8E43-11D407451CEA}" name="Missed Games" dataDxfId="48">
+    <tableColumn id="10" xr3:uid="{1AD5A604-8909-45B3-8E43-11D407451CEA}" name="Missed Games" dataDxfId="64">
       <calculatedColumnFormula>COUNTIF(Template!V63, "TRUE")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7411,35 +7412,35 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{F9183685-60DE-4163-AA62-BE4F563EE570}" name="Table21128" displayName="Table21128" ref="AK88:AT105" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{F9183685-60DE-4163-AA62-BE4F563EE570}" name="Table21128" displayName="Table21128" ref="AK88:AT105" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62">
   <autoFilter ref="AK88:AT105" xr:uid="{F9183685-60DE-4163-AA62-BE4F563EE570}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{E62FBAA0-D6F6-4997-96C9-B6B13FAA9B6E}" name="Scoring" dataDxfId="45"/>
-    <tableColumn id="2" xr3:uid="{0A655F6F-9A21-4167-85B6-B9F7DC2070CA}" name="Points" dataDxfId="44">
+    <tableColumn id="1" xr3:uid="{E62FBAA0-D6F6-4997-96C9-B6B13FAA9B6E}" name="Scoring" dataDxfId="61"/>
+    <tableColumn id="2" xr3:uid="{0A655F6F-9A21-4167-85B6-B9F7DC2070CA}" name="Points" dataDxfId="60">
       <calculatedColumnFormula>Template!AC63</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{460771D3-3BD8-4DA3-AF1B-1A0F98EF1499}" name="Finishes" dataDxfId="43">
+    <tableColumn id="3" xr3:uid="{460771D3-3BD8-4DA3-AF1B-1A0F98EF1499}" name="Finishes" dataDxfId="59">
       <calculatedColumnFormula>Template!AD63</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{3C08B2D7-823D-49C3-A627-A5848E664B2F}" name="Midranges" dataDxfId="42">
+    <tableColumn id="4" xr3:uid="{3C08B2D7-823D-49C3-A627-A5848E664B2F}" name="Midranges" dataDxfId="58">
       <calculatedColumnFormula>Template!AE63</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{E88F45FB-4C46-4674-86D5-74808E7E5368}" name="Threes" dataDxfId="41">
+    <tableColumn id="5" xr3:uid="{E88F45FB-4C46-4674-86D5-74808E7E5368}" name="Threes" dataDxfId="57">
       <calculatedColumnFormula>Template!AF63</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{0C0E8016-1E6E-4F25-9675-4EE061FFD0F7}" name="Avg P" dataDxfId="40">
+    <tableColumn id="6" xr3:uid="{0C0E8016-1E6E-4F25-9675-4EE061FFD0F7}" name="Avg P" dataDxfId="56">
       <calculatedColumnFormula>AL89/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{F7AC350B-AE4B-4912-B21D-16D99E2AE8BF}" name="Avg F" dataDxfId="39">
+    <tableColumn id="7" xr3:uid="{F7AC350B-AE4B-4912-B21D-16D99E2AE8BF}" name="Avg F" dataDxfId="55">
       <calculatedColumnFormula>AM89/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{F451E5CA-B9C4-4EFA-A647-CEDB2FB39550}" name="Avg M" dataDxfId="38">
+    <tableColumn id="8" xr3:uid="{F451E5CA-B9C4-4EFA-A647-CEDB2FB39550}" name="Avg M" dataDxfId="54">
       <calculatedColumnFormula>AN89/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{ED1D92B5-05F1-40CE-A89F-E6627FAB4A59}" name="Avg T" dataDxfId="37">
+    <tableColumn id="9" xr3:uid="{ED1D92B5-05F1-40CE-A89F-E6627FAB4A59}" name="Avg T" dataDxfId="53">
       <calculatedColumnFormula>AO89/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{48A4808A-3DE6-4644-83F5-C2AEDDFC3E5E}" name="Missed Games" dataDxfId="36">
+    <tableColumn id="10" xr3:uid="{48A4808A-3DE6-4644-83F5-C2AEDDFC3E5E}" name="Missed Games" dataDxfId="52">
       <calculatedColumnFormula>COUNTIF(Template!AG63, "TRUE")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -12023,8 +12024,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:AT1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AI29" sqref="AI29"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AB25" sqref="AB25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -12246,7 +12247,7 @@
       </c>
       <c r="N6" s="128">
         <f>'Preseason 2'!N45</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" s="128">
         <f>'Preseason 2'!O45</f>
@@ -13584,7 +13585,10 @@
       <c r="O25" s="117"/>
       <c r="P25" s="117"/>
       <c r="Q25" s="117"/>
-      <c r="AB25" s="18"/>
+      <c r="AB25" s="18">
+        <f>AVERAGE(Table1[Average])</f>
+        <v>1.4411764705882353</v>
+      </c>
     </row>
     <row r="26" spans="2:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B26" s="117"/>
@@ -15260,11 +15264,11 @@
       </c>
       <c r="V54" s="39">
         <f>'Statistics WW'!L42</f>
-        <v>0.11764705882352941</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="W54" s="39">
         <f>AVERAGE(T54:V54)</f>
-        <v>0.17420814479638008</v>
+        <v>0.19871794871794868</v>
       </c>
       <c r="Z54" s="49" t="s">
         <v>60</v>
@@ -15302,14 +15306,14 @@
       </c>
       <c r="U55" s="39">
         <f>1-V54</f>
-        <v>0.88235294117647056</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="V55" s="42" t="s">
         <v>131</v>
       </c>
       <c r="W55" s="39">
         <f>AVERAGE(T55:V55)</f>
-        <v>0.70117647058823529</v>
+        <v>0.67666666666666675</v>
       </c>
       <c r="Z55" s="36" t="s">
         <v>93</v>
@@ -15339,7 +15343,7 @@
     </row>
     <row r="56" spans="19:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="V56" s="43"/>
-      <c r="W56" s="43"/>
+      <c r="W56" s="133"/>
       <c r="Z56" s="49" t="s">
         <v>63</v>
       </c>
@@ -18275,7 +18279,7 @@
   <dimension ref="A1:AD1000"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:F6"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -21166,7 +21170,7 @@
   <dimension ref="A1:X1000"/>
   <sheetViews>
     <sheetView zoomScale="76" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:F6"/>
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -21366,7 +21370,7 @@
       <c r="J5" s="89"/>
       <c r="L5" s="90">
         <f>'Stats Global'!N6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" s="90">
         <f>'Stats Global'!K6</f>
@@ -22740,7 +22744,7 @@
       </c>
       <c r="L41" s="107">
         <f>SUM(L4:L40)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M41" s="107">
         <f>SUM(M4:M40)</f>
@@ -22753,7 +22757,7 @@
     <row r="42" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="L42" s="98">
         <f>L41/(M41+L41)</f>
-        <v>0.11764705882352941</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="P42" s="58"/>
     </row>
@@ -22819,7 +22823,7 @@
     <row r="46" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="J46" s="81" t="str">
         <f>L46&amp;'Statistics LG'!M41&amp;","&amp;'Statistics LG'!L41&amp;","&amp;ROUND((1-'Statistics LG'!L42)*100,1)&amp;","&amp;L41&amp;","&amp;M41&amp;","&amp;ROUND(L42*100,1)&amp;"],"</f>
-        <v>"PartD":[3,10,23.1,2,15,11.8],</v>
+        <v>"PartD":[3,10,23.1,3,15,16.7],</v>
       </c>
       <c r="L46" s="81" t="s">
         <v>138</v>
@@ -23824,7 +23828,7 @@
   <dimension ref="A1:X1000"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -23921,7 +23925,7 @@
       </c>
       <c r="I4" s="86">
         <f>SUM(C4:C40)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J4" s="83">
         <f>SUM(D4:D40)</f>
@@ -23973,7 +23977,7 @@
       </c>
       <c r="C5" s="88">
         <f>'Stats Global'!M6+'Stats Global'!N6</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5" s="88">
         <f>'Stats Global'!Q6</f>
@@ -25037,7 +25041,7 @@
       <c r="J32" s="86"/>
       <c r="K32" s="99" t="str">
         <f>M32&amp;H4&amp;","&amp;I4&amp;"],"</f>
-        <v>"PartA":[28,14],</v>
+        <v>"PartA":[28,15],</v>
       </c>
       <c r="L32" s="86"/>
       <c r="M32" s="81" t="s">
@@ -25111,7 +25115,7 @@
       <c r="F34" s="85"/>
       <c r="K34" s="81" t="str">
         <f>M34&amp;Q32&amp;","&amp;Q33&amp;","&amp;Q34&amp;","&amp;Q35&amp;","&amp;Q36&amp;","&amp;Q37&amp;"],"</f>
-        <v>"PartC":[10.3,5,3.3,1,9.3,4.7],</v>
+        <v>"PartC":[10.3,5,3.3,1,9.3,5],</v>
       </c>
       <c r="M34" s="81" t="s">
         <v>137</v>
@@ -25150,7 +25154,7 @@
       <c r="F35" s="85"/>
       <c r="K35" s="81" t="str">
         <f>M35&amp;'Statistics LG'!P41&amp;","&amp;'Statistics LG'!O41&amp;","&amp;ROUND((1-'Statistics LG'!O42)*100,1)&amp;","&amp;'Statistics WW'!M41&amp;","&amp;'Statistics WW'!L41&amp;","&amp;ROUND((1-'Statistics WW'!L42)*100,1)&amp;"],"</f>
-        <v>"PartD":[13,12,52,15,2,88.2],</v>
+        <v>"PartD":[13,12,52,15,3,83.3],</v>
       </c>
       <c r="M35" s="81" t="s">
         <v>138</v>
@@ -25221,7 +25225,7 @@
       <c r="F37" s="85"/>
       <c r="Q37" s="81">
         <f>ROUND(I4/'Stats Global'!AA6,1)</f>
-        <v>4.7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -26259,7 +26263,7 @@
   <dimension ref="B1:AE1000"/>
   <sheetViews>
     <sheetView zoomScale="79" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+      <selection activeCell="T28" sqref="T28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -27140,15 +27144,15 @@
         <v>0</v>
       </c>
       <c r="X19" s="54" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="X19:X39" si="8">IF(AND(C19="Loose Gooses",D19="Wet Willies"),"LG/WW", IF(AND(C19="Loose Gooses",D19="5 Musketeers"),"LG/5M", ""))</f>
         <v/>
       </c>
       <c r="Y19" s="54" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="Y19:Y39" si="9">IF(AND(C19="Wet Willies",D19="Loose Gooses"),"WW/LG", IF(AND(C19="Wet Willies",D19="5 Musketeers"),"WW/5M", ""))</f>
         <v/>
       </c>
       <c r="Z19" s="54" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="Z19:Z39" si="10">IF(AND(C19="5 Musketeers",D19="Loose Gooses"),"5M/LG", IF(AND($C19="5 Musketeers",$D19="Wet Willies"),"5M/WW", ""))</f>
         <v/>
       </c>
     </row>
@@ -27162,15 +27166,15 @@
       <c r="H20" s="26"/>
       <c r="I20" s="26"/>
       <c r="X20" s="54" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="Y20" s="54" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Z20" s="54" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -27184,15 +27188,15 @@
       <c r="H21" s="26"/>
       <c r="I21" s="26"/>
       <c r="X21" s="54" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="Y21" s="54" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Z21" s="54" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -27206,15 +27210,15 @@
       <c r="H22" s="26"/>
       <c r="I22" s="26"/>
       <c r="X22" s="54" t="str">
-        <f>IF(AND(C22="Loose Gooses",B45="Wet Willies"),"LG/WW", IF(AND(C22="Loose Gooses",B45="5 Musketeers"),"LG/5M", ""))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="Y22" s="54" t="str">
-        <f>IF(AND(C22="Wet Willies",B45="Loose Gooses"),"WW/LG", IF(AND(C22="Wet Willies",B45="5 Musketeers"),"WW/5M", ""))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Z22" s="54" t="str">
-        <f>IF(AND(C22="5 Musketeers",B45="Loose Gooses"),"5M/LG", IF(AND($C22="5 Musketeers",$B45="Wet Willies"),"5M/WW", ""))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -27233,27 +27237,27 @@
         <v>0,</v>
       </c>
       <c r="S23" s="17" t="str">
-        <f t="shared" ref="S23:U23" si="8">IF($V3, CHAR(34)&amp;"Did not Play"&amp;CHAR(34), S3)&amp;","</f>
+        <f t="shared" ref="S23:U23" si="11">IF($V3, CHAR(34)&amp;"Did not Play"&amp;CHAR(34), S3)&amp;","</f>
         <v>0,</v>
       </c>
       <c r="T23" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v>0,</v>
+      </c>
+      <c r="U23" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v>0,</v>
+      </c>
+      <c r="X23" s="54" t="str">
         <f t="shared" si="8"/>
-        <v>0,</v>
-      </c>
-      <c r="U23" s="17" t="str">
-        <f t="shared" si="8"/>
-        <v>0,</v>
-      </c>
-      <c r="X23" s="54" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Y23" s="54" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Z23" s="54" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -27267,31 +27271,31 @@
       <c r="H24" s="26"/>
       <c r="I24" s="26"/>
       <c r="R24" s="17" t="str">
-        <f t="shared" ref="R24:U38" si="9">IF($V4, CHAR(34)&amp;"Did not Play"&amp;CHAR(34), R4)&amp;","</f>
+        <f t="shared" ref="R24:U38" si="12">IF($V4, CHAR(34)&amp;"Did not Play"&amp;CHAR(34), R4)&amp;","</f>
         <v>0,</v>
       </c>
       <c r="S24" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="T24" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="U24" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="X24" s="54" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Y24" s="54" t="str">
         <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="T24" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="U24" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="X24" s="54" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Y24" s="54" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
       <c r="Z24" s="54" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -27306,31 +27310,31 @@
       <c r="I25" s="26"/>
       <c r="Q25" s="7"/>
       <c r="R25" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="S25" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="T25" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="U25" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="X25" s="54" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Y25" s="54" t="str">
         <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="S25" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="T25" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="U25" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="X25" s="54" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Y25" s="54" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
       <c r="Z25" s="54" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -27345,31 +27349,31 @@
       <c r="I26" s="26"/>
       <c r="Q26" s="13"/>
       <c r="R26" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="S26" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="T26" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="U26" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="X26" s="54" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Y26" s="54" t="str">
         <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="S26" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="T26" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="U26" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="X26" s="54" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Y26" s="54" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
       <c r="Z26" s="54" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -27383,31 +27387,31 @@
       <c r="H27" s="26"/>
       <c r="I27" s="26"/>
       <c r="R27" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="S27" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="T27" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="U27" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="X27" s="54" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Y27" s="54" t="str">
         <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="S27" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="T27" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="U27" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="X27" s="54" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Y27" s="54" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
       <c r="Z27" s="54" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -27421,31 +27425,31 @@
       <c r="H28" s="26"/>
       <c r="I28" s="26"/>
       <c r="R28" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="S28" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="T28" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="U28" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="X28" s="54" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Y28" s="54" t="str">
         <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="S28" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="T28" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="U28" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="X28" s="54" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Y28" s="54" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
       <c r="Z28" s="54" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -27459,31 +27463,31 @@
       <c r="H29" s="26"/>
       <c r="I29" s="26"/>
       <c r="R29" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="S29" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="T29" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="U29" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="X29" s="54" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Y29" s="54" t="str">
         <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="S29" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="T29" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="U29" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="X29" s="54" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Y29" s="54" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
       <c r="Z29" s="54" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -27497,31 +27501,31 @@
       <c r="H30" s="26"/>
       <c r="I30" s="26"/>
       <c r="R30" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="S30" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="T30" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="U30" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="X30" s="54" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Y30" s="54" t="str">
         <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="S30" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="T30" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="U30" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="X30" s="54" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Y30" s="54" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
       <c r="Z30" s="54" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -27535,31 +27539,31 @@
       <c r="H31" s="26"/>
       <c r="I31" s="26"/>
       <c r="R31" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="S31" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="T31" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="U31" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="X31" s="54" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Y31" s="54" t="str">
         <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="S31" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="T31" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="U31" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="X31" s="54" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Y31" s="54" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
       <c r="Z31" s="54" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -27573,31 +27577,31 @@
       <c r="H32" s="26"/>
       <c r="I32" s="26"/>
       <c r="R32" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="S32" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="T32" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="U32" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="X32" s="54" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Y32" s="54" t="str">
         <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="S32" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="T32" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="U32" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="X32" s="54" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Y32" s="54" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
       <c r="Z32" s="54" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -27611,31 +27615,31 @@
       <c r="H33" s="26"/>
       <c r="I33" s="26"/>
       <c r="R33" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="S33" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="T33" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="U33" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="X33" s="54" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Y33" s="54" t="str">
         <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="S33" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="T33" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="U33" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="X33" s="54" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Y33" s="54" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
       <c r="Z33" s="54" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -27649,151 +27653,151 @@
       <c r="H34" s="26"/>
       <c r="I34" s="26"/>
       <c r="R34" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="S34" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="T34" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="U34" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="X34" s="54" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Y34" s="54" t="str">
         <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="S34" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="T34" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="U34" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="X34" s="54" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Y34" s="54" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
       <c r="Z34" s="54" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="35" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R35" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="S35" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="T35" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="U35" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="X35" s="54" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Y35" s="54" t="str">
         <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="S35" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="T35" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="U35" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="X35" s="54" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Y35" s="54" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
       <c r="Z35" s="54" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="36" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R36" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="S36" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="T36" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="U36" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="X36" s="54" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Y36" s="54" t="str">
         <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="S36" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="T36" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="U36" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="X36" s="54" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Y36" s="54" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
       <c r="Z36" s="54" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="37" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R37" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="S37" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="T37" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="U37" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="X37" s="54" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Y37" s="54" t="str">
         <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="S37" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="T37" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="U37" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="X37" s="54" t="str">
-        <f>IF(AND(C37="Loose Gooses",D37="Wet Willies"),"LG/WW", IF(AND(C37="Loose Gooses",D37="5 Musketeers"),"LG/5M", ""))</f>
         <v/>
       </c>
-      <c r="Y37" s="54" t="str">
-        <f>IF(AND(C37="Wet Willies",D37="Loose Gooses"),"WW/LG", IF(AND(C37="Wet Willies",D37="5 Musketeers"),"WW/5M", ""))</f>
-        <v/>
-      </c>
       <c r="Z37" s="54" t="str">
-        <f>IF(AND(C37="5 Musketeers",D37="Loose Gooses"),"5M/LG", IF(AND($C37="5 Musketeers",$D37="Wet Willies"),"5M/WW", ""))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="38" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R38" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="S38" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="T38" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="U38" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="X38" s="54" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Y38" s="54" t="str">
         <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="S38" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="T38" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="U38" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="X38" s="54" t="str">
-        <f>IF(AND(C38="Loose Gooses",D38="Wet Willies"),"LG/WW", IF(AND(C38="Loose Gooses",D38="5 Musketeers"),"LG/5M", ""))</f>
         <v/>
       </c>
-      <c r="Y38" s="54" t="str">
-        <f>IF(AND(C38="Wet Willies",D38="Loose Gooses"),"WW/LG", IF(AND(C38="Wet Willies",D38="5 Musketeers"),"WW/5M", ""))</f>
-        <v/>
-      </c>
       <c r="Z38" s="54" t="str">
-        <f>IF(AND(C38="5 Musketeers",D38="Loose Gooses"),"5M/LG", IF(AND($C38="5 Musketeers",$D38="Wet Willies"),"5M/WW", ""))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -27815,15 +27819,15 @@
         <v>0</v>
       </c>
       <c r="X39" s="54" t="str">
-        <f>IF(AND(C39="Loose Gooses",D39="Wet Willies"),"LG/WW", IF(AND(C39="Loose Gooses",D39="5 Musketeers"),"LG/5M", ""))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="Y39" s="54" t="str">
-        <f>IF(AND(C39="Wet Willies",D39="Loose Gooses"),"WW/LG", IF(AND(C39="Wet Willies",D39="5 Musketeers"),"WW/5M", ""))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Z39" s="54" t="str">
-        <f>IF(AND(C39="5 Musketeers",D39="Loose Gooses"),"5M/LG", IF(AND($C39="5 Musketeers",$D39="Wet Willies"),"5M/WW", ""))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -28969,7 +28973,7 @@
   <dimension ref="B1:AE1000"/>
   <sheetViews>
     <sheetView zoomScale="79" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+      <selection activeCell="X16" sqref="X16:Z39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -29968,15 +29972,15 @@
         <v>0</v>
       </c>
       <c r="X17" s="54" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="X17:X39" si="8">IF(AND(C17="Loose Gooses",D17="Wet Willies"),"LG/WW", IF(AND(C17="Loose Gooses",D17="5 Musketeers"),"LG/5M", ""))</f>
         <v/>
       </c>
       <c r="Y17" s="54" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="Y17:Y39" si="9">IF(AND(C17="Wet Willies",D17="Loose Gooses"),"WW/LG", IF(AND(C17="Wet Willies",D17="5 Musketeers"),"WW/5M", ""))</f>
         <v/>
       </c>
       <c r="Z17" s="54" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="Z17:Z39" si="10">IF(AND(C17="5 Musketeers",D17="Loose Gooses"),"5M/LG", IF(AND($C17="5 Musketeers",$D17="Wet Willies"),"5M/WW", ""))</f>
         <v/>
       </c>
       <c r="AB17" s="2"/>
@@ -30013,15 +30017,15 @@
         <v>0</v>
       </c>
       <c r="X18" s="54" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="Y18" s="54" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Z18" s="54" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AB18" s="2"/>
@@ -30058,15 +30062,15 @@
         <v>0</v>
       </c>
       <c r="X19" s="54" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="Y19" s="54" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Z19" s="54" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -30080,15 +30084,15 @@
       <c r="H20" s="26"/>
       <c r="I20" s="26"/>
       <c r="X20" s="54" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="Y20" s="54" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Z20" s="54" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -30102,15 +30106,15 @@
       <c r="H21" s="26"/>
       <c r="I21" s="26"/>
       <c r="X21" s="54" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="Y21" s="54" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Z21" s="54" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -30124,15 +30128,15 @@
       <c r="H22" s="26"/>
       <c r="I22" s="26"/>
       <c r="X22" s="54" t="str">
-        <f>IF(AND(C22="Loose Gooses",B45="Wet Willies"),"LG/WW", IF(AND(C22="Loose Gooses",B45="5 Musketeers"),"LG/5M", ""))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="Y22" s="54" t="str">
-        <f>IF(AND(C22="Wet Willies",B45="Loose Gooses"),"WW/LG", IF(AND(C22="Wet Willies",B45="5 Musketeers"),"WW/5M", ""))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Z22" s="54" t="str">
-        <f>IF(AND(C22="5 Musketeers",B45="Loose Gooses"),"5M/LG", IF(AND($C22="5 Musketeers",$B45="Wet Willies"),"5M/WW", ""))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -30151,27 +30155,27 @@
         <v>"Did not Play",</v>
       </c>
       <c r="S23" s="17" t="str">
-        <f t="shared" ref="S23:U23" si="8">IF($V3, CHAR(34)&amp;"Did not Play"&amp;CHAR(34), S3)&amp;","</f>
+        <f t="shared" ref="S23:U23" si="11">IF($V3, CHAR(34)&amp;"Did not Play"&amp;CHAR(34), S3)&amp;","</f>
         <v>"Did not Play",</v>
       </c>
       <c r="T23" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v>"Did not Play",</v>
+      </c>
+      <c r="U23" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v>"Did not Play",</v>
+      </c>
+      <c r="X23" s="54" t="str">
         <f t="shared" si="8"/>
-        <v>"Did not Play",</v>
-      </c>
-      <c r="U23" s="17" t="str">
-        <f t="shared" si="8"/>
-        <v>"Did not Play",</v>
-      </c>
-      <c r="X23" s="54" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Y23" s="54" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Z23" s="54" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -30185,31 +30189,31 @@
       <c r="H24" s="26"/>
       <c r="I24" s="26"/>
       <c r="R24" s="17" t="str">
-        <f t="shared" ref="R24:U38" si="9">IF($V4, CHAR(34)&amp;"Did not Play"&amp;CHAR(34), R4)&amp;","</f>
+        <f t="shared" ref="R24:U38" si="12">IF($V4, CHAR(34)&amp;"Did not Play"&amp;CHAR(34), R4)&amp;","</f>
         <v>0,</v>
       </c>
       <c r="S24" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="T24" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="U24" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="X24" s="54" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Y24" s="54" t="str">
         <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="T24" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="U24" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="X24" s="54" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Y24" s="54" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
       <c r="Z24" s="54" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -30224,31 +30228,31 @@
       <c r="I25" s="26"/>
       <c r="Q25" s="7"/>
       <c r="R25" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>"Did not Play",</v>
+      </c>
+      <c r="S25" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>"Did not Play",</v>
+      </c>
+      <c r="T25" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>"Did not Play",</v>
+      </c>
+      <c r="U25" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>"Did not Play",</v>
+      </c>
+      <c r="X25" s="54" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Y25" s="54" t="str">
         <f t="shared" si="9"/>
-        <v>"Did not Play",</v>
-      </c>
-      <c r="S25" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>"Did not Play",</v>
-      </c>
-      <c r="T25" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>"Did not Play",</v>
-      </c>
-      <c r="U25" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>"Did not Play",</v>
-      </c>
-      <c r="X25" s="54" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Y25" s="54" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
       <c r="Z25" s="54" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -30263,31 +30267,31 @@
       <c r="I26" s="26"/>
       <c r="Q26" s="13"/>
       <c r="R26" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>"Did not Play",</v>
+      </c>
+      <c r="S26" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>"Did not Play",</v>
+      </c>
+      <c r="T26" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>"Did not Play",</v>
+      </c>
+      <c r="U26" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>"Did not Play",</v>
+      </c>
+      <c r="X26" s="54" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Y26" s="54" t="str">
         <f t="shared" si="9"/>
-        <v>"Did not Play",</v>
-      </c>
-      <c r="S26" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>"Did not Play",</v>
-      </c>
-      <c r="T26" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>"Did not Play",</v>
-      </c>
-      <c r="U26" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>"Did not Play",</v>
-      </c>
-      <c r="X26" s="54" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Y26" s="54" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
       <c r="Z26" s="54" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -30301,31 +30305,31 @@
       <c r="H27" s="26"/>
       <c r="I27" s="26"/>
       <c r="R27" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>3,</v>
+      </c>
+      <c r="S27" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="T27" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>1,</v>
+      </c>
+      <c r="U27" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>1,</v>
+      </c>
+      <c r="X27" s="54" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Y27" s="54" t="str">
         <f t="shared" si="9"/>
-        <v>3,</v>
-      </c>
-      <c r="S27" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="T27" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>1,</v>
-      </c>
-      <c r="U27" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>1,</v>
-      </c>
-      <c r="X27" s="54" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Y27" s="54" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
       <c r="Z27" s="54" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -30339,31 +30343,31 @@
       <c r="H28" s="26"/>
       <c r="I28" s="26"/>
       <c r="R28" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="S28" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="T28" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="U28" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="X28" s="54" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Y28" s="54" t="str">
         <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="S28" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="T28" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="U28" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="X28" s="54" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Y28" s="54" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
       <c r="Z28" s="54" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -30377,31 +30381,31 @@
       <c r="H29" s="26"/>
       <c r="I29" s="26"/>
       <c r="R29" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="S29" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="T29" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="U29" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="X29" s="54" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Y29" s="54" t="str">
         <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="S29" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="T29" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="U29" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="X29" s="54" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Y29" s="54" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
       <c r="Z29" s="54" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -30415,31 +30419,31 @@
       <c r="H30" s="26"/>
       <c r="I30" s="26"/>
       <c r="R30" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>2,</v>
+      </c>
+      <c r="S30" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="T30" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="U30" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>1,</v>
+      </c>
+      <c r="X30" s="54" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Y30" s="54" t="str">
         <f t="shared" si="9"/>
-        <v>2,</v>
-      </c>
-      <c r="S30" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="T30" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="U30" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>1,</v>
-      </c>
-      <c r="X30" s="54" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Y30" s="54" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
       <c r="Z30" s="54" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -30453,31 +30457,31 @@
       <c r="H31" s="26"/>
       <c r="I31" s="26"/>
       <c r="R31" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>2,</v>
+      </c>
+      <c r="S31" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="T31" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>2,</v>
+      </c>
+      <c r="U31" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="X31" s="54" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Y31" s="54" t="str">
         <f t="shared" si="9"/>
-        <v>2,</v>
-      </c>
-      <c r="S31" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="T31" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>2,</v>
-      </c>
-      <c r="U31" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="X31" s="54" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Y31" s="54" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
       <c r="Z31" s="54" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -30491,31 +30495,31 @@
       <c r="H32" s="26"/>
       <c r="I32" s="26"/>
       <c r="R32" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="S32" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="T32" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="U32" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="X32" s="54" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Y32" s="54" t="str">
         <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="S32" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="T32" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="U32" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="X32" s="54" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Y32" s="54" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
       <c r="Z32" s="54" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -30529,31 +30533,31 @@
       <c r="H33" s="26"/>
       <c r="I33" s="26"/>
       <c r="R33" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="S33" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="T33" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="U33" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="X33" s="54" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Y33" s="54" t="str">
         <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="S33" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="T33" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="U33" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="X33" s="54" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Y33" s="54" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
       <c r="Z33" s="54" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -30567,151 +30571,151 @@
       <c r="H34" s="26"/>
       <c r="I34" s="26"/>
       <c r="R34" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>1,</v>
+      </c>
+      <c r="S34" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>1,</v>
+      </c>
+      <c r="T34" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="U34" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="X34" s="54" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Y34" s="54" t="str">
         <f t="shared" si="9"/>
-        <v>1,</v>
-      </c>
-      <c r="S34" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>1,</v>
-      </c>
-      <c r="T34" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="U34" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="X34" s="54" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Y34" s="54" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
       <c r="Z34" s="54" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="35" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R35" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>1,</v>
+      </c>
+      <c r="S35" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>1,</v>
+      </c>
+      <c r="T35" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="U35" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="X35" s="54" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Y35" s="54" t="str">
         <f t="shared" si="9"/>
-        <v>1,</v>
-      </c>
-      <c r="S35" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>1,</v>
-      </c>
-      <c r="T35" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="U35" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="X35" s="54" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Y35" s="54" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
       <c r="Z35" s="54" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="36" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R36" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>1,</v>
+      </c>
+      <c r="S36" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>1,</v>
+      </c>
+      <c r="T36" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="U36" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="X36" s="54" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Y36" s="54" t="str">
         <f t="shared" si="9"/>
-        <v>1,</v>
-      </c>
-      <c r="S36" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>1,</v>
-      </c>
-      <c r="T36" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="U36" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="X36" s="54" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Y36" s="54" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
       <c r="Z36" s="54" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="37" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R37" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>6,</v>
+      </c>
+      <c r="S37" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>3,</v>
+      </c>
+      <c r="T37" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>1,</v>
+      </c>
+      <c r="U37" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>1,</v>
+      </c>
+      <c r="X37" s="54" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Y37" s="54" t="str">
         <f t="shared" si="9"/>
-        <v>6,</v>
-      </c>
-      <c r="S37" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>3,</v>
-      </c>
-      <c r="T37" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>1,</v>
-      </c>
-      <c r="U37" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>1,</v>
-      </c>
-      <c r="X37" s="54" t="str">
-        <f>IF(AND(C37="Loose Gooses",D37="Wet Willies"),"LG/WW", IF(AND(C37="Loose Gooses",D37="5 Musketeers"),"LG/5M", ""))</f>
         <v/>
       </c>
-      <c r="Y37" s="54" t="str">
-        <f>IF(AND(C37="Wet Willies",D37="Loose Gooses"),"WW/LG", IF(AND(C37="Wet Willies",D37="5 Musketeers"),"WW/5M", ""))</f>
-        <v/>
-      </c>
       <c r="Z37" s="54" t="str">
-        <f>IF(AND(C37="5 Musketeers",D37="Loose Gooses"),"5M/LG", IF(AND($C37="5 Musketeers",$D37="Wet Willies"),"5M/WW", ""))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="38" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R38" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="S38" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="T38" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="U38" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="X38" s="54" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Y38" s="54" t="str">
         <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="S38" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="T38" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="U38" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="X38" s="54" t="str">
-        <f>IF(AND(C38="Loose Gooses",D38="Wet Willies"),"LG/WW", IF(AND(C38="Loose Gooses",D38="5 Musketeers"),"LG/5M", ""))</f>
         <v/>
       </c>
-      <c r="Y38" s="54" t="str">
-        <f>IF(AND(C38="Wet Willies",D38="Loose Gooses"),"WW/LG", IF(AND(C38="Wet Willies",D38="5 Musketeers"),"WW/5M", ""))</f>
-        <v/>
-      </c>
       <c r="Z38" s="54" t="str">
-        <f>IF(AND(C38="5 Musketeers",D38="Loose Gooses"),"5M/LG", IF(AND($C38="5 Musketeers",$D38="Wet Willies"),"5M/WW", ""))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -30733,15 +30737,15 @@
         <v>0</v>
       </c>
       <c r="X39" s="54" t="str">
-        <f>IF(AND(C39="Loose Gooses",D39="Wet Willies"),"LG/WW", IF(AND(C39="Loose Gooses",D39="5 Musketeers"),"LG/5M", ""))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="Y39" s="54" t="str">
-        <f>IF(AND(C39="Wet Willies",D39="Loose Gooses"),"WW/LG", IF(AND(C39="Wet Willies",D39="5 Musketeers"),"WW/5M", ""))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Z39" s="54" t="str">
-        <f>IF(AND(C39="5 Musketeers",D39="Loose Gooses"),"5M/LG", IF(AND($C39="5 Musketeers",$D39="Wet Willies"),"5M/WW", ""))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -31887,7 +31891,7 @@
   <dimension ref="B1:AE1000"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P27" sqref="A1:XFD1048576"/>
+      <selection activeCell="X20" sqref="X20:Z22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -33100,15 +33104,15 @@
         <v>1</v>
       </c>
       <c r="X21" s="54" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="X21:X22" si="8">IF(AND(C21="Loose Gooses",D21="Wet Willies"),"LG/WW", IF(AND(C21="Loose Gooses",D21="5 Musketeers"),"LG/5M", ""))</f>
         <v/>
       </c>
       <c r="Y21" s="54" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="Y21:Y22" si="9">IF(AND(C21="Wet Willies",D21="Loose Gooses"),"WW/LG", IF(AND(C21="Wet Willies",D21="5 Musketeers"),"WW/5M", ""))</f>
         <v/>
       </c>
       <c r="Z21" s="54" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="Z21:Z22" si="10">IF(AND(C21="5 Musketeers",D21="Loose Gooses"),"5M/LG", IF(AND($C21="5 Musketeers",$D21="Wet Willies"),"5M/WW", ""))</f>
         <v>5M/LG</v>
       </c>
     </row>
@@ -33138,15 +33142,15 @@
         <v>1</v>
       </c>
       <c r="X22" s="54" t="str">
-        <f>IF(AND(C22="Loose Gooses",B45="Wet Willies"),"LG/WW", IF(AND(C22="Loose Gooses",B45="5 Musketeers"),"LG/5M", ""))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="Y22" s="54" t="str">
-        <f>IF(AND(C22="Wet Willies",B45="Loose Gooses"),"WW/LG", IF(AND(C22="Wet Willies",B45="5 Musketeers"),"WW/5M", ""))</f>
-        <v/>
+        <f t="shared" si="9"/>
+        <v>WW/5M</v>
       </c>
       <c r="Z22" s="54" t="str">
-        <f>IF(AND(C22="5 Musketeers",B45="Loose Gooses"),"5M/LG", IF(AND($C22="5 Musketeers",$B45="Wet Willies"),"5M/WW", ""))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -33181,15 +33185,15 @@
         <v>0,</v>
       </c>
       <c r="S23" s="17" t="str">
-        <f t="shared" ref="S23:U23" si="8">IF($V3, CHAR(34)&amp;"Did not Play"&amp;CHAR(34), S3)&amp;","</f>
+        <f t="shared" ref="S23:U23" si="11">IF($V3, CHAR(34)&amp;"Did not Play"&amp;CHAR(34), S3)&amp;","</f>
         <v>0,</v>
       </c>
       <c r="T23" s="17" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0,</v>
       </c>
       <c r="U23" s="17" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0,</v>
       </c>
       <c r="X23" s="54" t="str">
@@ -33231,19 +33235,19 @@
         <v>1</v>
       </c>
       <c r="R24" s="17" t="str">
-        <f t="shared" ref="R24:U38" si="9">IF($V4, CHAR(34)&amp;"Did not Play"&amp;CHAR(34), R4)&amp;","</f>
+        <f t="shared" ref="R24:U38" si="12">IF($V4, CHAR(34)&amp;"Did not Play"&amp;CHAR(34), R4)&amp;","</f>
         <v>0,</v>
       </c>
       <c r="S24" s="17" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0,</v>
       </c>
       <c r="T24" s="17" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0,</v>
       </c>
       <c r="U24" s="17" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0,</v>
       </c>
       <c r="X24" s="54" t="str">
@@ -33286,19 +33290,19 @@
       </c>
       <c r="Q25" s="7"/>
       <c r="R25" s="17" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>7,</v>
       </c>
       <c r="S25" s="17" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>7,</v>
       </c>
       <c r="T25" s="17" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0,</v>
       </c>
       <c r="U25" s="17" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0,</v>
       </c>
       <c r="X25" s="54" t="str">
@@ -33341,19 +33345,19 @@
       </c>
       <c r="Q26" s="13"/>
       <c r="R26" s="17" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>"Did not Play",</v>
       </c>
       <c r="S26" s="17" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>"Did not Play",</v>
       </c>
       <c r="T26" s="17" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>"Did not Play",</v>
       </c>
       <c r="U26" s="17" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>"Did not Play",</v>
       </c>
       <c r="X26" s="54" t="str">
@@ -33395,19 +33399,19 @@
         <v>2</v>
       </c>
       <c r="R27" s="17" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0,</v>
       </c>
       <c r="S27" s="17" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0,</v>
       </c>
       <c r="T27" s="17" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0,</v>
       </c>
       <c r="U27" s="17" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0,</v>
       </c>
       <c r="X27" s="54" t="str">
@@ -33449,19 +33453,19 @@
         <v>1</v>
       </c>
       <c r="R28" s="17" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1,</v>
       </c>
       <c r="S28" s="17" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1,</v>
       </c>
       <c r="T28" s="17" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0,</v>
       </c>
       <c r="U28" s="17" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0,</v>
       </c>
       <c r="X28" s="54" t="str">
@@ -33503,19 +33507,19 @@
         <v>1</v>
       </c>
       <c r="R29" s="17" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0,</v>
       </c>
       <c r="S29" s="17" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0,</v>
       </c>
       <c r="T29" s="17" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0,</v>
       </c>
       <c r="U29" s="17" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0,</v>
       </c>
       <c r="X29" s="54" t="str">
@@ -33541,19 +33545,19 @@
       <c r="H30" s="26"/>
       <c r="I30" s="26"/>
       <c r="R30" s="17" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0,</v>
       </c>
       <c r="S30" s="17" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0,</v>
       </c>
       <c r="T30" s="17" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0,</v>
       </c>
       <c r="U30" s="17" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0,</v>
       </c>
       <c r="X30" s="54" t="str">
@@ -33579,19 +33583,19 @@
       <c r="H31" s="26"/>
       <c r="I31" s="26"/>
       <c r="R31" s="17" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0,</v>
       </c>
       <c r="S31" s="17" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0,</v>
       </c>
       <c r="T31" s="17" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0,</v>
       </c>
       <c r="U31" s="17" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0,</v>
       </c>
       <c r="X31" s="54" t="str">
@@ -33617,19 +33621,19 @@
       <c r="H32" s="26"/>
       <c r="I32" s="26"/>
       <c r="R32" s="17" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>6,</v>
       </c>
       <c r="S32" s="17" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1,</v>
       </c>
       <c r="T32" s="17" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>5,</v>
       </c>
       <c r="U32" s="17" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0,</v>
       </c>
       <c r="X32" s="54" t="str">
@@ -33655,19 +33659,19 @@
       <c r="H33" s="26"/>
       <c r="I33" s="26"/>
       <c r="R33" s="17" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2,</v>
       </c>
       <c r="S33" s="17" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0,</v>
       </c>
       <c r="T33" s="17" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0,</v>
       </c>
       <c r="U33" s="17" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1,</v>
       </c>
       <c r="X33" s="54" t="str">
@@ -33693,19 +33697,19 @@
       <c r="H34" s="26"/>
       <c r="I34" s="26"/>
       <c r="R34" s="17" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0,</v>
       </c>
       <c r="S34" s="17" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0,</v>
       </c>
       <c r="T34" s="17" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0,</v>
       </c>
       <c r="U34" s="17" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0,</v>
       </c>
       <c r="X34" s="54" t="str">
@@ -33723,19 +33727,19 @@
     </row>
     <row r="35" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R35" s="17" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2,</v>
       </c>
       <c r="S35" s="17" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2,</v>
       </c>
       <c r="T35" s="17" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0,</v>
       </c>
       <c r="U35" s="17" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0,</v>
       </c>
       <c r="X35" s="54" t="str">
@@ -33753,19 +33757,19 @@
     </row>
     <row r="36" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R36" s="17" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>5,</v>
       </c>
       <c r="S36" s="17" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2,</v>
       </c>
       <c r="T36" s="17" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1,</v>
       </c>
       <c r="U36" s="17" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1,</v>
       </c>
       <c r="X36" s="54" t="str">
@@ -33783,19 +33787,19 @@
     </row>
     <row r="37" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R37" s="17" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>6,</v>
       </c>
       <c r="S37" s="17" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>3,</v>
       </c>
       <c r="T37" s="17" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1,</v>
       </c>
       <c r="U37" s="17" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1,</v>
       </c>
       <c r="X37" s="54" t="str">
@@ -33813,19 +33817,19 @@
     </row>
     <row r="38" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R38" s="17" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0,</v>
       </c>
       <c r="S38" s="17" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0,</v>
       </c>
       <c r="T38" s="17" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0,</v>
       </c>
       <c r="U38" s="17" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0,</v>
       </c>
       <c r="X38" s="54" t="str">
@@ -34006,7 +34010,7 @@
       </c>
       <c r="N45" s="17">
         <f>COUNTIF(Y4:Y39, "WW/5M")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O45" s="17">
         <f>O3</f>
@@ -35012,8 +35016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03838906-0D06-4CE3-8060-96BC8217D4DC}">
   <dimension ref="B1:AE1000"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43:Q45"/>
+    <sheetView topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X20" sqref="X20:Z39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -36209,15 +36213,15 @@
       <c r="H21" s="26"/>
       <c r="I21" s="26"/>
       <c r="X21" s="54" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="X21:X39" si="8">IF(AND(C21="Loose Gooses",D21="Wet Willies"),"LG/WW", IF(AND(C21="Loose Gooses",D21="5 Musketeers"),"LG/5M", ""))</f>
         <v/>
       </c>
       <c r="Y21" s="54" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="Y21:Y39" si="9">IF(AND(C21="Wet Willies",D21="Loose Gooses"),"WW/LG", IF(AND(C21="Wet Willies",D21="5 Musketeers"),"WW/5M", ""))</f>
         <v/>
       </c>
       <c r="Z21" s="54" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="Z21:Z39" si="10">IF(AND(C21="5 Musketeers",D21="Loose Gooses"),"5M/LG", IF(AND($C21="5 Musketeers",$D21="Wet Willies"),"5M/WW", ""))</f>
         <v/>
       </c>
     </row>
@@ -36230,15 +36234,15 @@
       <c r="H22" s="26"/>
       <c r="I22" s="26"/>
       <c r="X22" s="54" t="str">
-        <f>IF(AND(C22="Loose Gooses",B45="Wet Willies"),"LG/WW", IF(AND(C22="Loose Gooses",B45="5 Musketeers"),"LG/5M", ""))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="Y22" s="54" t="str">
-        <f>IF(AND(C22="Wet Willies",B45="Loose Gooses"),"WW/LG", IF(AND(C22="Wet Willies",B45="5 Musketeers"),"WW/5M", ""))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Z22" s="54" t="str">
-        <f>IF(AND(C22="5 Musketeers",B45="Loose Gooses"),"5M/LG", IF(AND($C22="5 Musketeers",$B45="Wet Willies"),"5M/WW", ""))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -36257,27 +36261,27 @@
         <v>0,</v>
       </c>
       <c r="S23" s="17" t="str">
-        <f t="shared" ref="S23:U23" si="8">IF($V3, CHAR(34)&amp;"Did not Play"&amp;CHAR(34), S3)&amp;","</f>
+        <f t="shared" ref="S23:U23" si="11">IF($V3, CHAR(34)&amp;"Did not Play"&amp;CHAR(34), S3)&amp;","</f>
         <v>0,</v>
       </c>
       <c r="T23" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v>0,</v>
+      </c>
+      <c r="U23" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v>0,</v>
+      </c>
+      <c r="X23" s="54" t="str">
         <f t="shared" si="8"/>
-        <v>0,</v>
-      </c>
-      <c r="U23" s="17" t="str">
-        <f t="shared" si="8"/>
-        <v>0,</v>
-      </c>
-      <c r="X23" s="54" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Y23" s="54" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Z23" s="54" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -36291,31 +36295,31 @@
       <c r="H24" s="26"/>
       <c r="I24" s="26"/>
       <c r="R24" s="17" t="str">
-        <f t="shared" ref="R24:U38" si="9">IF($V4, CHAR(34)&amp;"Did not Play"&amp;CHAR(34), R4)&amp;","</f>
+        <f t="shared" ref="R24:U38" si="12">IF($V4, CHAR(34)&amp;"Did not Play"&amp;CHAR(34), R4)&amp;","</f>
         <v>2,</v>
       </c>
       <c r="S24" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>1,</v>
+      </c>
+      <c r="T24" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>1,</v>
+      </c>
+      <c r="U24" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="X24" s="54" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Y24" s="54" t="str">
         <f t="shared" si="9"/>
-        <v>1,</v>
-      </c>
-      <c r="T24" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>1,</v>
-      </c>
-      <c r="U24" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="X24" s="54" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Y24" s="54" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
       <c r="Z24" s="54" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -36330,31 +36334,31 @@
       <c r="I25" s="26"/>
       <c r="Q25" s="7"/>
       <c r="R25" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>5,</v>
+      </c>
+      <c r="S25" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>3,</v>
+      </c>
+      <c r="T25" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="U25" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>1,</v>
+      </c>
+      <c r="X25" s="54" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Y25" s="54" t="str">
         <f t="shared" si="9"/>
-        <v>5,</v>
-      </c>
-      <c r="S25" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>3,</v>
-      </c>
-      <c r="T25" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="U25" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>1,</v>
-      </c>
-      <c r="X25" s="54" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Y25" s="54" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
       <c r="Z25" s="54" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -36369,31 +36373,31 @@
       <c r="I26" s="26"/>
       <c r="Q26" s="13"/>
       <c r="R26" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>"Did not Play",</v>
+      </c>
+      <c r="S26" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>"Did not Play",</v>
+      </c>
+      <c r="T26" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>"Did not Play",</v>
+      </c>
+      <c r="U26" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>"Did not Play",</v>
+      </c>
+      <c r="X26" s="54" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Y26" s="54" t="str">
         <f t="shared" si="9"/>
-        <v>"Did not Play",</v>
-      </c>
-      <c r="S26" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>"Did not Play",</v>
-      </c>
-      <c r="T26" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>"Did not Play",</v>
-      </c>
-      <c r="U26" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>"Did not Play",</v>
-      </c>
-      <c r="X26" s="54" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Y26" s="54" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
       <c r="Z26" s="54" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -36407,31 +36411,31 @@
       <c r="H27" s="26"/>
       <c r="I27" s="26"/>
       <c r="R27" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="S27" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="T27" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="U27" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="X27" s="54" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Y27" s="54" t="str">
         <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="S27" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="T27" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="U27" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="X27" s="54" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Y27" s="54" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
       <c r="Z27" s="54" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -36445,31 +36449,31 @@
       <c r="H28" s="26"/>
       <c r="I28" s="26"/>
       <c r="R28" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="S28" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="T28" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="U28" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="X28" s="54" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Y28" s="54" t="str">
         <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="S28" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="T28" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="U28" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="X28" s="54" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Y28" s="54" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
       <c r="Z28" s="54" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -36483,31 +36487,31 @@
       <c r="H29" s="50"/>
       <c r="I29" s="50"/>
       <c r="R29" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>2,</v>
+      </c>
+      <c r="S29" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>1,</v>
+      </c>
+      <c r="T29" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>1,</v>
+      </c>
+      <c r="U29" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="X29" s="54" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Y29" s="54" t="str">
         <f t="shared" si="9"/>
-        <v>2,</v>
-      </c>
-      <c r="S29" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>1,</v>
-      </c>
-      <c r="T29" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>1,</v>
-      </c>
-      <c r="U29" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="X29" s="54" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Y29" s="54" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
       <c r="Z29" s="54" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -36521,31 +36525,31 @@
       <c r="H30" s="26"/>
       <c r="I30" s="26"/>
       <c r="R30" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>"Did not Play",</v>
+      </c>
+      <c r="S30" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>"Did not Play",</v>
+      </c>
+      <c r="T30" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>"Did not Play",</v>
+      </c>
+      <c r="U30" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>"Did not Play",</v>
+      </c>
+      <c r="X30" s="54" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Y30" s="54" t="str">
         <f t="shared" si="9"/>
-        <v>"Did not Play",</v>
-      </c>
-      <c r="S30" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>"Did not Play",</v>
-      </c>
-      <c r="T30" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>"Did not Play",</v>
-      </c>
-      <c r="U30" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>"Did not Play",</v>
-      </c>
-      <c r="X30" s="54" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Y30" s="54" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
       <c r="Z30" s="54" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -36559,31 +36563,31 @@
       <c r="H31" s="26"/>
       <c r="I31" s="26"/>
       <c r="R31" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>3,</v>
+      </c>
+      <c r="S31" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>1,</v>
+      </c>
+      <c r="T31" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="U31" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>1,</v>
+      </c>
+      <c r="X31" s="54" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Y31" s="54" t="str">
         <f t="shared" si="9"/>
-        <v>3,</v>
-      </c>
-      <c r="S31" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>1,</v>
-      </c>
-      <c r="T31" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="U31" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>1,</v>
-      </c>
-      <c r="X31" s="54" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Y31" s="54" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
       <c r="Z31" s="54" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -36597,31 +36601,31 @@
       <c r="H32" s="26"/>
       <c r="I32" s="26"/>
       <c r="R32" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>6,</v>
+      </c>
+      <c r="S32" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="T32" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>4,</v>
+      </c>
+      <c r="U32" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>1,</v>
+      </c>
+      <c r="X32" s="54" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Y32" s="54" t="str">
         <f t="shared" si="9"/>
-        <v>6,</v>
-      </c>
-      <c r="S32" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="T32" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>4,</v>
-      </c>
-      <c r="U32" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>1,</v>
-      </c>
-      <c r="X32" s="54" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Y32" s="54" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
       <c r="Z32" s="54" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -36635,31 +36639,31 @@
       <c r="H33" s="26"/>
       <c r="I33" s="26"/>
       <c r="R33" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="S33" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="T33" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="U33" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="X33" s="54" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Y33" s="54" t="str">
         <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="S33" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="T33" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="U33" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="X33" s="54" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Y33" s="54" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
       <c r="Z33" s="54" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -36673,151 +36677,151 @@
       <c r="H34" s="26"/>
       <c r="I34" s="26"/>
       <c r="R34" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>"Did not Play",</v>
+      </c>
+      <c r="S34" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>"Did not Play",</v>
+      </c>
+      <c r="T34" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>"Did not Play",</v>
+      </c>
+      <c r="U34" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>"Did not Play",</v>
+      </c>
+      <c r="X34" s="54" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Y34" s="54" t="str">
         <f t="shared" si="9"/>
-        <v>"Did not Play",</v>
-      </c>
-      <c r="S34" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>"Did not Play",</v>
-      </c>
-      <c r="T34" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>"Did not Play",</v>
-      </c>
-      <c r="U34" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>"Did not Play",</v>
-      </c>
-      <c r="X34" s="54" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Y34" s="54" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
       <c r="Z34" s="54" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="35" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R35" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>2,</v>
+      </c>
+      <c r="S35" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="T35" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="U35" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>1,</v>
+      </c>
+      <c r="X35" s="54" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Y35" s="54" t="str">
         <f t="shared" si="9"/>
-        <v>2,</v>
-      </c>
-      <c r="S35" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="T35" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="U35" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>1,</v>
-      </c>
-      <c r="X35" s="54" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Y35" s="54" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
       <c r="Z35" s="54" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="36" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R36" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>1,</v>
+      </c>
+      <c r="S36" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="T36" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>1,</v>
+      </c>
+      <c r="U36" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="X36" s="54" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Y36" s="54" t="str">
         <f t="shared" si="9"/>
-        <v>1,</v>
-      </c>
-      <c r="S36" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="T36" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>1,</v>
-      </c>
-      <c r="U36" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="X36" s="54" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Y36" s="54" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
       <c r="Z36" s="54" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="37" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R37" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="S37" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="T37" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="U37" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="X37" s="54" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Y37" s="54" t="str">
         <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="S37" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="T37" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="U37" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="X37" s="54" t="str">
-        <f>IF(AND(C37="Loose Gooses",D37="Wet Willies"),"LG/WW", IF(AND(C37="Loose Gooses",D37="5 Musketeers"),"LG/5M", ""))</f>
         <v/>
       </c>
-      <c r="Y37" s="54" t="str">
-        <f>IF(AND(C37="Wet Willies",D37="Loose Gooses"),"WW/LG", IF(AND(C37="Wet Willies",D37="5 Musketeers"),"WW/5M", ""))</f>
-        <v/>
-      </c>
       <c r="Z37" s="54" t="str">
-        <f>IF(AND(C37="5 Musketeers",D37="Loose Gooses"),"5M/LG", IF(AND($C37="5 Musketeers",$D37="Wet Willies"),"5M/WW", ""))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="38" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R38" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="S38" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="T38" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="U38" s="17" t="str">
+        <f t="shared" si="12"/>
+        <v>0,</v>
+      </c>
+      <c r="X38" s="54" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Y38" s="54" t="str">
         <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="S38" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="T38" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="U38" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v>0,</v>
-      </c>
-      <c r="X38" s="54" t="str">
-        <f>IF(AND(C38="Loose Gooses",D38="Wet Willies"),"LG/WW", IF(AND(C38="Loose Gooses",D38="5 Musketeers"),"LG/5M", ""))</f>
         <v/>
       </c>
-      <c r="Y38" s="54" t="str">
-        <f>IF(AND(C38="Wet Willies",D38="Loose Gooses"),"WW/LG", IF(AND(C38="Wet Willies",D38="5 Musketeers"),"WW/5M", ""))</f>
-        <v/>
-      </c>
       <c r="Z38" s="54" t="str">
-        <f>IF(AND(C38="5 Musketeers",D38="Loose Gooses"),"5M/LG", IF(AND($C38="5 Musketeers",$D38="Wet Willies"),"5M/WW", ""))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -36839,15 +36843,15 @@
         <v>0</v>
       </c>
       <c r="X39" s="54" t="str">
-        <f>IF(AND(C39="Loose Gooses",D39="Wet Willies"),"LG/WW", IF(AND(C39="Loose Gooses",D39="5 Musketeers"),"LG/5M", ""))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="Y39" s="54" t="str">
-        <f>IF(AND(C39="Wet Willies",D39="Loose Gooses"),"WW/LG", IF(AND(C39="Wet Willies",D39="5 Musketeers"),"WW/5M", ""))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Z39" s="54" t="str">
-        <f>IF(AND(C39="5 Musketeers",D39="Loose Gooses"),"5M/LG", IF(AND($C39="5 Musketeers",$D39="Wet Willies"),"5M/WW", ""))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>

--- a/Other Files/PastResults.xlsx
+++ b/Other Files/PastResults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\011445\Documents\GitHub\LTBO\Other Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF5A948F-9CE5-4A06-A061-DFDAB3A109E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A8DD61-4C1D-40E2-AEDD-2D190FFB55E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="1" xr2:uid="{1E3275F7-0219-46B7-B9B0-3246E28631A6}"/>
   </bookViews>
@@ -1023,7 +1023,7 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1"/>
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1234,10 +1234,13 @@
     <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1245,501 +1248,6 @@
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="154">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -4670,6 +4178,501 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -7054,38 +7057,38 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{598ECA3B-99B4-4CAB-8F81-5D711AA5A7FC}" name="Table1" displayName="Table1" ref="Z7:AJ24" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" headerRowBorderDxfId="12" tableBorderDxfId="13" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{598ECA3B-99B4-4CAB-8F81-5D711AA5A7FC}" name="Table1" displayName="Table1" ref="Z7:AJ24" totalsRowShown="0" headerRowDxfId="147" dataDxfId="145" headerRowBorderDxfId="146" tableBorderDxfId="144" totalsRowBorderDxfId="143">
   <autoFilter ref="Z7:AJ24" xr:uid="{598ECA3B-99B4-4CAB-8F81-5D711AA5A7FC}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{9B036617-5450-4894-9268-827D2E0914FF}" name="Scoring" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{6662CE93-E9C4-47DE-9476-E46126825B0A}" name="Points" dataDxfId="9">
+    <tableColumn id="1" xr3:uid="{9B036617-5450-4894-9268-827D2E0914FF}" name="Scoring" dataDxfId="142"/>
+    <tableColumn id="2" xr3:uid="{6662CE93-E9C4-47DE-9476-E46126825B0A}" name="Points" dataDxfId="141">
       <calculatedColumnFormula>SUM(AA29,AL29,AA49,AL49,AA69,AL69,AA89,AL89)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{8FDDFCB0-2692-4EB0-948C-7B877263B55B}" name="Average" dataDxfId="8">
+    <tableColumn id="3" xr3:uid="{8FDDFCB0-2692-4EB0-948C-7B877263B55B}" name="Average" dataDxfId="140">
       <calculatedColumnFormula>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Points]]/($AA$6-Table1[[#This Row],[Missed Games]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{CC3F9B31-1857-48FB-A18B-CBC82C117BF4}" name="Finishes" dataDxfId="7">
+    <tableColumn id="4" xr3:uid="{CC3F9B31-1857-48FB-A18B-CBC82C117BF4}" name="Finishes" dataDxfId="139">
       <calculatedColumnFormula>SUM(AB29,AM29,AB49,AM49,AB69,AM69,AB89,AM89)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{5F324C66-956D-4EDC-870F-8EDE96C328C8}" name="Averages" dataDxfId="6">
+    <tableColumn id="5" xr3:uid="{5F324C66-956D-4EDC-870F-8EDE96C328C8}" name="Averages" dataDxfId="138">
       <calculatedColumnFormula>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Finishes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{80C6E15E-675D-4F58-AA26-27226F1CE373}" name="Midranges" dataDxfId="5">
+    <tableColumn id="6" xr3:uid="{80C6E15E-675D-4F58-AA26-27226F1CE373}" name="Midranges" dataDxfId="137">
       <calculatedColumnFormula>SUM(AC29,AN29,AC49,AN49,AC69,AN69,AC89,AN89)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{8E7E6B37-23A0-4556-8839-B9D7834E3E68}" name="Averages2" dataDxfId="4">
+    <tableColumn id="7" xr3:uid="{8E7E6B37-23A0-4556-8839-B9D7834E3E68}" name="Averages2" dataDxfId="136">
       <calculatedColumnFormula>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Midranges]]/($AA$6-Table1[[#This Row],[Missed Games]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{8B28715D-E310-4E1F-B9F0-F58F7C70E830}" name="Threes" dataDxfId="3">
+    <tableColumn id="8" xr3:uid="{8B28715D-E310-4E1F-B9F0-F58F7C70E830}" name="Threes" dataDxfId="135">
       <calculatedColumnFormula>SUM(AD29,AO29,AD49,AO49,AD69,AO69,AD89,AO89)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{E0C0BF1C-40E8-4137-8E0F-BB238D651DAE}" name="Averages3" dataDxfId="2">
+    <tableColumn id="9" xr3:uid="{E0C0BF1C-40E8-4137-8E0F-BB238D651DAE}" name="Averages3" dataDxfId="134">
       <calculatedColumnFormula>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Threes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{1C75F230-74E0-47EE-BF13-C22289FE0F87}" name="Team" dataDxfId="1">
+    <tableColumn id="10" xr3:uid="{1C75F230-74E0-47EE-BF13-C22289FE0F87}" name="Team" dataDxfId="133">
       <calculatedColumnFormula>SfW!C3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{E167D7FA-56F9-4571-B292-FF3869585F59}" name="Missed Games" dataDxfId="0">
+    <tableColumn id="11" xr3:uid="{E167D7FA-56F9-4571-B292-FF3869585F59}" name="Missed Games" dataDxfId="132">
       <calculatedColumnFormula>SUM(AI29,AT29,AI49,AT49,AI69,AT69,AI89,AT89)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7094,94 +7097,94 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{744FF78C-74B5-4798-AD3D-741E3ACB43CF}" name="Table1114" displayName="Table1114" ref="R3:AA8" totalsRowShown="0" headerRowDxfId="51" dataDxfId="50">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{744FF78C-74B5-4798-AD3D-741E3ACB43CF}" name="Table1114" displayName="Table1114" ref="R3:AA8" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
   <autoFilter ref="R3:AA8" xr:uid="{744FF78C-74B5-4798-AD3D-741E3ACB43CF}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{B3B5C08C-655A-460A-A171-B3B0C826FF04}" name="Name" dataDxfId="49"/>
-    <tableColumn id="2" xr3:uid="{427944B0-44CA-4325-A406-29F83026BA5E}" name="Points" dataDxfId="48">
+    <tableColumn id="1" xr3:uid="{B3B5C08C-655A-460A-A171-B3B0C826FF04}" name="Name" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{427944B0-44CA-4325-A406-29F83026BA5E}" name="Points" dataDxfId="32">
       <calculatedColumnFormula>'Stats Global'!AA22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{5E06D173-4DBE-4045-9072-0A0A77D19C84}" name="Average" dataDxfId="47"/>
-    <tableColumn id="4" xr3:uid="{E74131A4-1DCA-4A89-8989-A4CF80175582}" name="Finishes" dataDxfId="46"/>
-    <tableColumn id="5" xr3:uid="{FC3336D4-2CB5-4673-A345-7C9CCED7ADEE}" name="Averages" dataDxfId="45"/>
-    <tableColumn id="6" xr3:uid="{BD6313A7-5D92-4B66-9B85-7ABC12DE9691}" name="Midranges" dataDxfId="44"/>
-    <tableColumn id="7" xr3:uid="{6D0293BC-7E06-45CE-9D4B-FE4769DF9D9F}" name="Averages2" dataDxfId="43"/>
-    <tableColumn id="8" xr3:uid="{89C1C64B-DD66-482C-BCDE-8B912D2676EF}" name="Threes" dataDxfId="42"/>
-    <tableColumn id="9" xr3:uid="{7748B87C-1833-4BD6-9162-76373407E655}" name="Averages3" dataDxfId="41"/>
-    <tableColumn id="10" xr3:uid="{D870E191-A52F-442E-AA52-A42CFAD05573}" name="Missed Games" dataDxfId="40"/>
+    <tableColumn id="3" xr3:uid="{5E06D173-4DBE-4045-9072-0A0A77D19C84}" name="Average" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{E74131A4-1DCA-4A89-8989-A4CF80175582}" name="Finishes" dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{FC3336D4-2CB5-4673-A345-7C9CCED7ADEE}" name="Averages" dataDxfId="29"/>
+    <tableColumn id="6" xr3:uid="{BD6313A7-5D92-4B66-9B85-7ABC12DE9691}" name="Midranges" dataDxfId="28"/>
+    <tableColumn id="7" xr3:uid="{6D0293BC-7E06-45CE-9D4B-FE4769DF9D9F}" name="Averages2" dataDxfId="27"/>
+    <tableColumn id="8" xr3:uid="{89C1C64B-DD66-482C-BCDE-8B912D2676EF}" name="Threes" dataDxfId="26"/>
+    <tableColumn id="9" xr3:uid="{7748B87C-1833-4BD6-9162-76373407E655}" name="Averages3" dataDxfId="25"/>
+    <tableColumn id="10" xr3:uid="{D870E191-A52F-442E-AA52-A42CFAD05573}" name="Missed Games" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{54759C84-3153-4DC9-9240-E2749AA0D92B}" name="Table1113" displayName="Table1113" ref="O3:X10" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{54759C84-3153-4DC9-9240-E2749AA0D92B}" name="Table1113" displayName="Table1113" ref="O3:X10" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
   <autoFilter ref="O3:X10" xr:uid="{54759C84-3153-4DC9-9240-E2749AA0D92B}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{7790729E-C8E5-45C1-8784-25212A2654AA}" name="Name" dataDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{52A67B2B-967C-4970-8D83-8F8E9CC61522}" name="Points" dataDxfId="36"/>
-    <tableColumn id="3" xr3:uid="{BA1FA2C8-AEC0-4644-83DB-5097750D7188}" name="Average" dataDxfId="35"/>
-    <tableColumn id="4" xr3:uid="{4CF66F5D-BF10-4CBD-88FF-CCD38730E1CD}" name="Finishes" dataDxfId="34"/>
-    <tableColumn id="5" xr3:uid="{BC246D5B-7E78-41A6-B796-C93ED8E53DF9}" name="Averages" dataDxfId="33"/>
-    <tableColumn id="6" xr3:uid="{AB819419-CC06-4A40-8DED-E231125129C0}" name="Midranges" dataDxfId="32"/>
-    <tableColumn id="7" xr3:uid="{064AA562-C451-4362-805E-D12DC76C3530}" name="Averages2" dataDxfId="31"/>
-    <tableColumn id="8" xr3:uid="{BD0D8BAE-15E4-4B38-87FE-B682D7BAEE75}" name="Threes" dataDxfId="30"/>
-    <tableColumn id="9" xr3:uid="{541E391B-4B08-4E98-A63F-753C11193269}" name="Averages3" dataDxfId="29"/>
-    <tableColumn id="10" xr3:uid="{999BB5D2-D6FB-4EB9-A268-D62EA72F939D}" name="Missed Games" dataDxfId="28"/>
+    <tableColumn id="1" xr3:uid="{7790729E-C8E5-45C1-8784-25212A2654AA}" name="Name" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{52A67B2B-967C-4970-8D83-8F8E9CC61522}" name="Points" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{BA1FA2C8-AEC0-4644-83DB-5097750D7188}" name="Average" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{4CF66F5D-BF10-4CBD-88FF-CCD38730E1CD}" name="Finishes" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{BC246D5B-7E78-41A6-B796-C93ED8E53DF9}" name="Averages" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{AB819419-CC06-4A40-8DED-E231125129C0}" name="Midranges" dataDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{064AA562-C451-4362-805E-D12DC76C3530}" name="Averages2" dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{BD0D8BAE-15E4-4B38-87FE-B682D7BAEE75}" name="Threes" dataDxfId="14"/>
+    <tableColumn id="9" xr3:uid="{541E391B-4B08-4E98-A63F-753C11193269}" name="Averages3" dataDxfId="13"/>
+    <tableColumn id="10" xr3:uid="{999BB5D2-D6FB-4EB9-A268-D62EA72F939D}" name="Missed Games" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{C12CFC3F-7D59-4C0F-8D43-3F8ACD58C2BD}" name="Table11" displayName="Table11" ref="L4:U9" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{C12CFC3F-7D59-4C0F-8D43-3F8ACD58C2BD}" name="Table11" displayName="Table11" ref="L4:U9" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="L4:U9" xr:uid="{C12CFC3F-7D59-4C0F-8D43-3F8ACD58C2BD}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{CE15C23D-9493-4B21-9D40-1A25D210C18E}" name="Name" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{6BB170B1-AA38-4699-9B96-400D2947EE9C}" name="Points" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{EC8B6CBB-FCC9-416C-AEA6-738419DFE531}" name="Average" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{315DA055-9A43-468A-A501-1092626F523F}" name="Finishes" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{56B6FF4D-95D4-4550-88E4-C781ABDA83A6}" name="Averages" dataDxfId="21"/>
-    <tableColumn id="6" xr3:uid="{F7B5C0B8-FBE2-44B0-A372-112C7776FCCF}" name="Midranges" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{1A1C2126-FEB1-408F-8523-049E53028B4E}" name="Averages2" dataDxfId="19"/>
-    <tableColumn id="8" xr3:uid="{AE94036B-3777-4C1B-97D5-7BFA1037C0BF}" name="Threes" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{448B0903-7F66-40BA-809F-74ADBF397B45}" name="Averages3" dataDxfId="17"/>
-    <tableColumn id="10" xr3:uid="{E0CAC55D-8398-4928-A219-C01706996D48}" name="Missed Games" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{CE15C23D-9493-4B21-9D40-1A25D210C18E}" name="Name" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{6BB170B1-AA38-4699-9B96-400D2947EE9C}" name="Points" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{EC8B6CBB-FCC9-416C-AEA6-738419DFE531}" name="Average" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{315DA055-9A43-468A-A501-1092626F523F}" name="Finishes" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{56B6FF4D-95D4-4550-88E4-C781ABDA83A6}" name="Averages" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{F7B5C0B8-FBE2-44B0-A372-112C7776FCCF}" name="Midranges" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{1A1C2126-FEB1-408F-8523-049E53028B4E}" name="Averages2" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{AE94036B-3777-4C1B-97D5-7BFA1037C0BF}" name="Threes" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{448B0903-7F66-40BA-809F-74ADBF397B45}" name="Averages3" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{E0CAC55D-8398-4928-A219-C01706996D48}" name="Missed Games" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{84D0C431-52CF-4ABD-AA3E-D31975A289B1}" name="Table2" displayName="Table2" ref="Z28:AI45" totalsRowShown="0" headerRowDxfId="147" dataDxfId="146">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{84D0C431-52CF-4ABD-AA3E-D31975A289B1}" name="Table2" displayName="Table2" ref="Z28:AI45" totalsRowShown="0" headerRowDxfId="131" dataDxfId="130">
   <autoFilter ref="Z28:AI45" xr:uid="{84D0C431-52CF-4ABD-AA3E-D31975A289B1}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{4DB7A2B8-7BD8-4BD7-8F53-2A7873A4EAAE}" name="Scoring" dataDxfId="145"/>
-    <tableColumn id="2" xr3:uid="{BE8EBD49-660A-4C9F-970E-230EBB942EF1}" name="Points" dataDxfId="144">
+    <tableColumn id="1" xr3:uid="{4DB7A2B8-7BD8-4BD7-8F53-2A7873A4EAAE}" name="Scoring" dataDxfId="129"/>
+    <tableColumn id="2" xr3:uid="{BE8EBD49-660A-4C9F-970E-230EBB942EF1}" name="Points" dataDxfId="128">
       <calculatedColumnFormula>'Preseason 1'!R3+'Preseason 2'!R3+'Preseason 3'!R3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{C2C49EF0-4D8C-4F8C-8D19-CDD1481D9568}" name="Finishes" dataDxfId="143">
+    <tableColumn id="3" xr3:uid="{C2C49EF0-4D8C-4F8C-8D19-CDD1481D9568}" name="Finishes" dataDxfId="127">
       <calculatedColumnFormula>'Preseason 1'!S3+'Preseason 2'!S3+'Preseason 3'!S3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{7E789F8C-B8F3-4D6E-AB6C-C9454835B062}" name="Midranges" dataDxfId="142">
+    <tableColumn id="4" xr3:uid="{7E789F8C-B8F3-4D6E-AB6C-C9454835B062}" name="Midranges" dataDxfId="126">
       <calculatedColumnFormula>'Preseason 1'!T3+'Preseason 2'!T3+'Preseason 3'!T3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{18C990F2-A6D0-4F57-B96A-D00066DCC8D8}" name="Threes" dataDxfId="141">
+    <tableColumn id="5" xr3:uid="{18C990F2-A6D0-4F57-B96A-D00066DCC8D8}" name="Threes" dataDxfId="125">
       <calculatedColumnFormula>'Preseason 1'!U3+'Preseason 2'!U3+'Preseason 3'!U3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{40526534-76CA-42BA-A8B6-AB092D9CE18F}" name="Avg P" dataDxfId="140">
+    <tableColumn id="6" xr3:uid="{40526534-76CA-42BA-A8B6-AB092D9CE18F}" name="Avg P" dataDxfId="124">
       <calculatedColumnFormula>AA29/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{693AF117-21F6-4887-B78D-D59235BABA44}" name="Avg F" dataDxfId="139">
+    <tableColumn id="7" xr3:uid="{693AF117-21F6-4887-B78D-D59235BABA44}" name="Avg F" dataDxfId="123">
       <calculatedColumnFormula>AB29/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{02AC8FBF-EBB3-4AFC-BAC5-B773E33B7279}" name="Avg M" dataDxfId="138">
+    <tableColumn id="8" xr3:uid="{02AC8FBF-EBB3-4AFC-BAC5-B773E33B7279}" name="Avg M" dataDxfId="122">
       <calculatedColumnFormula>AC29/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{CCF75EB4-34C4-4D47-9D51-E8D85C07E38B}" name="Avg T" dataDxfId="137">
+    <tableColumn id="9" xr3:uid="{CCF75EB4-34C4-4D47-9D51-E8D85C07E38B}" name="Avg T" dataDxfId="121">
       <calculatedColumnFormula>AD29/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{1A786A5C-D0C2-4ABC-904C-983180542D5F}" name="Missed Games" dataDxfId="136">
+    <tableColumn id="10" xr3:uid="{1A786A5C-D0C2-4ABC-904C-983180542D5F}" name="Missed Games" dataDxfId="120">
       <calculatedColumnFormula>COUNTIF('Preseason 1'!V3, "TRUE")+COUNTIF('Preseason 2'!V3, "TRUE")+COUNTIF('Preseason 3'!V3, "TRUE")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7190,35 +7193,35 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{46F39EBA-1E74-46F4-A6E5-473672128124}" name="Table211" displayName="Table211" ref="AK28:AT45" totalsRowShown="0" headerRowDxfId="135" dataDxfId="134">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{46F39EBA-1E74-46F4-A6E5-473672128124}" name="Table211" displayName="Table211" ref="AK28:AT45" totalsRowShown="0" headerRowDxfId="119" dataDxfId="118">
   <autoFilter ref="AK28:AT45" xr:uid="{46F39EBA-1E74-46F4-A6E5-473672128124}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{5D003608-C1C2-4694-9447-8632FB8D7348}" name="Scoring" dataDxfId="133"/>
-    <tableColumn id="2" xr3:uid="{D15F4085-CED5-4CDD-B43B-BF7EB59B45A3}" name="Points" dataDxfId="132">
+    <tableColumn id="1" xr3:uid="{5D003608-C1C2-4694-9447-8632FB8D7348}" name="Scoring" dataDxfId="117"/>
+    <tableColumn id="2" xr3:uid="{D15F4085-CED5-4CDD-B43B-BF7EB59B45A3}" name="Points" dataDxfId="116">
       <calculatedColumnFormula>Template!AC3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{2D436F37-54B6-4820-9145-F48B4EF9B294}" name="Finishes" dataDxfId="131">
+    <tableColumn id="3" xr3:uid="{2D436F37-54B6-4820-9145-F48B4EF9B294}" name="Finishes" dataDxfId="115">
       <calculatedColumnFormula>Template!AD3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{1D9B6A22-B682-47F3-B738-7C138F317A41}" name="Midranges" dataDxfId="130">
+    <tableColumn id="4" xr3:uid="{1D9B6A22-B682-47F3-B738-7C138F317A41}" name="Midranges" dataDxfId="114">
       <calculatedColumnFormula>Template!AE3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{9966C9A0-3872-44E9-BB39-05DE197EAA68}" name="Threes" dataDxfId="129">
+    <tableColumn id="5" xr3:uid="{9966C9A0-3872-44E9-BB39-05DE197EAA68}" name="Threes" dataDxfId="113">
       <calculatedColumnFormula>Template!AF3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{CC4AB646-735F-425F-8528-C5EFE7FE11DC}" name="Avg P" dataDxfId="128">
+    <tableColumn id="6" xr3:uid="{CC4AB646-735F-425F-8528-C5EFE7FE11DC}" name="Avg P" dataDxfId="112">
       <calculatedColumnFormula>AL29/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{F8D0247E-C6F7-467A-9F38-46084D44F8AB}" name="Avg F" dataDxfId="127">
+    <tableColumn id="7" xr3:uid="{F8D0247E-C6F7-467A-9F38-46084D44F8AB}" name="Avg F" dataDxfId="111">
       <calculatedColumnFormula>AM29/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{7CCF1C77-9DB0-4EB2-B7D0-FD0BDBEBFA0E}" name="Avg M" dataDxfId="126">
+    <tableColumn id="8" xr3:uid="{7CCF1C77-9DB0-4EB2-B7D0-FD0BDBEBFA0E}" name="Avg M" dataDxfId="110">
       <calculatedColumnFormula>AN29/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{582A1A4E-5383-4383-A480-735408867046}" name="Avg T" dataDxfId="125">
+    <tableColumn id="9" xr3:uid="{582A1A4E-5383-4383-A480-735408867046}" name="Avg T" dataDxfId="109">
       <calculatedColumnFormula>AO29/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{E547AEB5-F9BA-4C5F-8DCE-34B6A8FF303A}" name="Missed Games" dataDxfId="124">
+    <tableColumn id="10" xr3:uid="{E547AEB5-F9BA-4C5F-8DCE-34B6A8FF303A}" name="Missed Games" dataDxfId="108">
       <calculatedColumnFormula>COUNTIF(Template!AG3, "TRUE")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7227,35 +7230,35 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{D27C125F-71B2-44D9-9F7A-9BED67755DD3}" name="Table21123" displayName="Table21123" ref="Z48:AI65" totalsRowShown="0" headerRowDxfId="123" dataDxfId="122">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{D27C125F-71B2-44D9-9F7A-9BED67755DD3}" name="Table21123" displayName="Table21123" ref="Z48:AI65" totalsRowShown="0" headerRowDxfId="107" dataDxfId="106">
   <autoFilter ref="Z48:AI65" xr:uid="{D27C125F-71B2-44D9-9F7A-9BED67755DD3}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{0B0344E8-2677-4FAB-9B03-4745991FB5AE}" name="Scoring" dataDxfId="121"/>
-    <tableColumn id="2" xr3:uid="{58CA1107-8BB4-4A5D-BA00-31619C8D3973}" name="Points" dataDxfId="120">
+    <tableColumn id="1" xr3:uid="{0B0344E8-2677-4FAB-9B03-4745991FB5AE}" name="Scoring" dataDxfId="105"/>
+    <tableColumn id="2" xr3:uid="{58CA1107-8BB4-4A5D-BA00-31619C8D3973}" name="Points" dataDxfId="104">
       <calculatedColumnFormula>Template!R23</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{8090861E-1FDF-44F4-9DB6-BB814E32C754}" name="Finishes" dataDxfId="119">
+    <tableColumn id="3" xr3:uid="{8090861E-1FDF-44F4-9DB6-BB814E32C754}" name="Finishes" dataDxfId="103">
       <calculatedColumnFormula>Template!S23</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{972D0347-DAB3-4985-A738-E5D78740D498}" name="Midranges" dataDxfId="118">
+    <tableColumn id="4" xr3:uid="{972D0347-DAB3-4985-A738-E5D78740D498}" name="Midranges" dataDxfId="102">
       <calculatedColumnFormula>Template!T23</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{48F5F884-1753-4988-9056-632B5EB6BBCB}" name="Threes" dataDxfId="117">
+    <tableColumn id="5" xr3:uid="{48F5F884-1753-4988-9056-632B5EB6BBCB}" name="Threes" dataDxfId="101">
       <calculatedColumnFormula>Template!U23</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{6953B627-EA05-418F-A758-FD59263EA60D}" name="Avg P" dataDxfId="116">
+    <tableColumn id="6" xr3:uid="{6953B627-EA05-418F-A758-FD59263EA60D}" name="Avg P" dataDxfId="100">
       <calculatedColumnFormula>AA49/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{BE057C9C-5ECD-4AC2-A9C0-18C89CFB52BC}" name="Avg F" dataDxfId="115">
+    <tableColumn id="7" xr3:uid="{BE057C9C-5ECD-4AC2-A9C0-18C89CFB52BC}" name="Avg F" dataDxfId="99">
       <calculatedColumnFormula>AB49/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{0FDEBEE7-CD5E-4A44-A0AE-74F044F1FF46}" name="Avg M" dataDxfId="114">
+    <tableColumn id="8" xr3:uid="{0FDEBEE7-CD5E-4A44-A0AE-74F044F1FF46}" name="Avg M" dataDxfId="98">
       <calculatedColumnFormula>AC49/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{76975BB6-3677-41A8-BC24-7536B1D876D3}" name="Avg T" dataDxfId="113">
+    <tableColumn id="9" xr3:uid="{76975BB6-3677-41A8-BC24-7536B1D876D3}" name="Avg T" dataDxfId="97">
       <calculatedColumnFormula>AD49/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{E5ADB69B-3BA2-4019-8C83-8B02221F187E}" name="Missed Games" dataDxfId="112">
+    <tableColumn id="10" xr3:uid="{E5ADB69B-3BA2-4019-8C83-8B02221F187E}" name="Missed Games" dataDxfId="96">
       <calculatedColumnFormula>COUNTIF(Template!V23, "TRUE")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7264,35 +7267,35 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{22B89D2C-1B74-4036-A4ED-A5E61F1B3AAC}" name="Table21124" displayName="Table21124" ref="AK48:AT65" totalsRowShown="0" headerRowDxfId="111" dataDxfId="110">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{22B89D2C-1B74-4036-A4ED-A5E61F1B3AAC}" name="Table21124" displayName="Table21124" ref="AK48:AT65" totalsRowShown="0" headerRowDxfId="95" dataDxfId="94">
   <autoFilter ref="AK48:AT65" xr:uid="{22B89D2C-1B74-4036-A4ED-A5E61F1B3AAC}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{3D35891E-3654-497A-8DB2-BF0BD916CA29}" name="Scoring" dataDxfId="109"/>
-    <tableColumn id="2" xr3:uid="{54B5B6AF-372A-4E07-B4D6-DFC66F7E20C5}" name="Points" dataDxfId="108">
+    <tableColumn id="1" xr3:uid="{3D35891E-3654-497A-8DB2-BF0BD916CA29}" name="Scoring" dataDxfId="93"/>
+    <tableColumn id="2" xr3:uid="{54B5B6AF-372A-4E07-B4D6-DFC66F7E20C5}" name="Points" dataDxfId="92">
       <calculatedColumnFormula>Template!AC23</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{6CA15B41-F560-4B43-8836-163F5BB5689C}" name="Finishes" dataDxfId="107">
+    <tableColumn id="3" xr3:uid="{6CA15B41-F560-4B43-8836-163F5BB5689C}" name="Finishes" dataDxfId="91">
       <calculatedColumnFormula>Template!AD23</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{8FF05262-0051-44F7-966E-8D405318BA69}" name="Midranges" dataDxfId="106">
+    <tableColumn id="4" xr3:uid="{8FF05262-0051-44F7-966E-8D405318BA69}" name="Midranges" dataDxfId="90">
       <calculatedColumnFormula>Template!AE23</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{F0D843FC-7A93-4C9A-BCCF-E789F7811B3B}" name="Threes" dataDxfId="105">
+    <tableColumn id="5" xr3:uid="{F0D843FC-7A93-4C9A-BCCF-E789F7811B3B}" name="Threes" dataDxfId="89">
       <calculatedColumnFormula>Template!AF23</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{F0498F8A-F646-4C1F-A3CF-E89E73750FC1}" name="Avg P" dataDxfId="104">
+    <tableColumn id="6" xr3:uid="{F0498F8A-F646-4C1F-A3CF-E89E73750FC1}" name="Avg P" dataDxfId="88">
       <calculatedColumnFormula>AL49/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{A387BC88-F45C-4386-8503-EFEA33BDAC38}" name="Avg F" dataDxfId="103">
+    <tableColumn id="7" xr3:uid="{A387BC88-F45C-4386-8503-EFEA33BDAC38}" name="Avg F" dataDxfId="87">
       <calculatedColumnFormula>AM49/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{BEA82919-0828-4351-A01A-D72E13E63FAB}" name="Avg M" dataDxfId="102">
+    <tableColumn id="8" xr3:uid="{BEA82919-0828-4351-A01A-D72E13E63FAB}" name="Avg M" dataDxfId="86">
       <calculatedColumnFormula>AN49/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{ABEBCE01-BCA4-4342-966C-27301889B607}" name="Avg T" dataDxfId="101">
+    <tableColumn id="9" xr3:uid="{ABEBCE01-BCA4-4342-966C-27301889B607}" name="Avg T" dataDxfId="85">
       <calculatedColumnFormula>AO49/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{65E7A8E7-4C51-42E4-AB0F-B7FF6099D70A}" name="Missed Games" dataDxfId="100">
+    <tableColumn id="10" xr3:uid="{65E7A8E7-4C51-42E4-AB0F-B7FF6099D70A}" name="Missed Games" dataDxfId="84">
       <calculatedColumnFormula>COUNTIF(Template!AG23, "TRUE")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7301,35 +7304,35 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{18C7D514-96DE-4BA6-B019-3E860ED143EC}" name="Table21125" displayName="Table21125" ref="AK68:AT85" totalsRowShown="0" headerRowDxfId="99" dataDxfId="98">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{18C7D514-96DE-4BA6-B019-3E860ED143EC}" name="Table21125" displayName="Table21125" ref="AK68:AT85" totalsRowShown="0" headerRowDxfId="83" dataDxfId="82">
   <autoFilter ref="AK68:AT85" xr:uid="{18C7D514-96DE-4BA6-B019-3E860ED143EC}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{D144EF14-69FD-4E71-90C7-56F49F45FAE5}" name="Scoring" dataDxfId="97"/>
-    <tableColumn id="2" xr3:uid="{34D1D392-F3E0-4C36-9EED-849D5B1149E6}" name="Points" dataDxfId="96">
+    <tableColumn id="1" xr3:uid="{D144EF14-69FD-4E71-90C7-56F49F45FAE5}" name="Scoring" dataDxfId="81"/>
+    <tableColumn id="2" xr3:uid="{34D1D392-F3E0-4C36-9EED-849D5B1149E6}" name="Points" dataDxfId="80">
       <calculatedColumnFormula>Template!AC43</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{E91D98A2-80BD-4E5C-9036-2FCC8185369F}" name="Finishes" dataDxfId="95">
+    <tableColumn id="3" xr3:uid="{E91D98A2-80BD-4E5C-9036-2FCC8185369F}" name="Finishes" dataDxfId="79">
       <calculatedColumnFormula>Template!AD43</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{D2E5029E-4811-4E9B-9A2D-5F5F8F322B0D}" name="Midranges" dataDxfId="94">
+    <tableColumn id="4" xr3:uid="{D2E5029E-4811-4E9B-9A2D-5F5F8F322B0D}" name="Midranges" dataDxfId="78">
       <calculatedColumnFormula>Template!AE43</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{B3E76CEE-33DA-4B18-8DCE-8EBC7EE592D7}" name="Threes" dataDxfId="93">
+    <tableColumn id="5" xr3:uid="{B3E76CEE-33DA-4B18-8DCE-8EBC7EE592D7}" name="Threes" dataDxfId="77">
       <calculatedColumnFormula>Template!AF43</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{6ABE1879-8018-4498-A9A1-22CF831F0364}" name="Avg P" dataDxfId="92">
+    <tableColumn id="6" xr3:uid="{6ABE1879-8018-4498-A9A1-22CF831F0364}" name="Avg P" dataDxfId="76">
       <calculatedColumnFormula>AL69/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{8DA4DD79-8A2A-49E4-996F-C1ACCED3C565}" name="Avg F" dataDxfId="91">
+    <tableColumn id="7" xr3:uid="{8DA4DD79-8A2A-49E4-996F-C1ACCED3C565}" name="Avg F" dataDxfId="75">
       <calculatedColumnFormula>AM69/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{256EA4BC-BA61-49E2-969F-0786AA9AA6EA}" name="Avg M" dataDxfId="90">
+    <tableColumn id="8" xr3:uid="{256EA4BC-BA61-49E2-969F-0786AA9AA6EA}" name="Avg M" dataDxfId="74">
       <calculatedColumnFormula>AN69/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{0E5566B2-99EC-4B03-A074-8705C4EDA484}" name="Avg T" dataDxfId="89">
+    <tableColumn id="9" xr3:uid="{0E5566B2-99EC-4B03-A074-8705C4EDA484}" name="Avg T" dataDxfId="73">
       <calculatedColumnFormula>AO69/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{3E2357F0-493E-401D-AC75-9AAB260F684E}" name="Missed Games" dataDxfId="88">
+    <tableColumn id="10" xr3:uid="{3E2357F0-493E-401D-AC75-9AAB260F684E}" name="Missed Games" dataDxfId="72">
       <calculatedColumnFormula>COUNTIF(Template!AG43, "TRUE")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7338,35 +7341,35 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{F118BED8-7AAF-4E55-A61F-C75C69A64AAE}" name="Table21126" displayName="Table21126" ref="Z68:AI85" totalsRowShown="0" headerRowDxfId="87" dataDxfId="86">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{F118BED8-7AAF-4E55-A61F-C75C69A64AAE}" name="Table21126" displayName="Table21126" ref="Z68:AI85" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70">
   <autoFilter ref="Z68:AI85" xr:uid="{F118BED8-7AAF-4E55-A61F-C75C69A64AAE}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{7723929D-65B3-40BB-8FDD-C4533243706C}" name="Scoring" dataDxfId="85"/>
-    <tableColumn id="2" xr3:uid="{EC28DE3D-619E-4930-A3AF-7AD1BE1D4843}" name="Points" dataDxfId="84">
+    <tableColumn id="1" xr3:uid="{7723929D-65B3-40BB-8FDD-C4533243706C}" name="Scoring" dataDxfId="69"/>
+    <tableColumn id="2" xr3:uid="{EC28DE3D-619E-4930-A3AF-7AD1BE1D4843}" name="Points" dataDxfId="68">
       <calculatedColumnFormula>Template!R43</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{9537269D-8C1D-42B5-866F-D03CE61A8512}" name="Finishes" dataDxfId="83">
+    <tableColumn id="3" xr3:uid="{9537269D-8C1D-42B5-866F-D03CE61A8512}" name="Finishes" dataDxfId="67">
       <calculatedColumnFormula>Template!S43</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{AC590DDB-BE19-4A14-8B98-1E5E2430AA45}" name="Midranges" dataDxfId="82">
+    <tableColumn id="4" xr3:uid="{AC590DDB-BE19-4A14-8B98-1E5E2430AA45}" name="Midranges" dataDxfId="66">
       <calculatedColumnFormula>Template!T43</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C96D3ACD-F34D-477E-86DE-4650EE56BC94}" name="Threes" dataDxfId="81">
+    <tableColumn id="5" xr3:uid="{C96D3ACD-F34D-477E-86DE-4650EE56BC94}" name="Threes" dataDxfId="65">
       <calculatedColumnFormula>Template!U43</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{A43DE5E9-BB01-49FA-A204-66EE7BAA2E9F}" name="Avg P" dataDxfId="80">
+    <tableColumn id="6" xr3:uid="{A43DE5E9-BB01-49FA-A204-66EE7BAA2E9F}" name="Avg P" dataDxfId="64">
       <calculatedColumnFormula>AA69/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{C75A19FF-6041-45C2-BACB-E347F06B6329}" name="Avg F" dataDxfId="79">
+    <tableColumn id="7" xr3:uid="{C75A19FF-6041-45C2-BACB-E347F06B6329}" name="Avg F" dataDxfId="63">
       <calculatedColumnFormula>AB69/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00D3FCFC-C9C5-4C96-BE0E-8E1FDC95D07C}" name="Avg M" dataDxfId="78">
+    <tableColumn id="8" xr3:uid="{00D3FCFC-C9C5-4C96-BE0E-8E1FDC95D07C}" name="Avg M" dataDxfId="62">
       <calculatedColumnFormula>AC69/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{0448FF4E-9D2D-47F6-89B7-F17D36B05E8A}" name="Avg T" dataDxfId="77">
+    <tableColumn id="9" xr3:uid="{0448FF4E-9D2D-47F6-89B7-F17D36B05E8A}" name="Avg T" dataDxfId="61">
       <calculatedColumnFormula>AD69/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{D5BDFA2D-095B-44F8-8567-15B3B1520E5A}" name="Missed Games" dataDxfId="76">
+    <tableColumn id="10" xr3:uid="{D5BDFA2D-095B-44F8-8567-15B3B1520E5A}" name="Missed Games" dataDxfId="60">
       <calculatedColumnFormula>COUNTIF(Template!V43, "TRUE")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7375,35 +7378,35 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{BDD2E472-3925-41A7-BECD-3315E6E71ECC}" name="Table21127" displayName="Table21127" ref="Z88:AI105" totalsRowShown="0" headerRowDxfId="75" dataDxfId="74">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{BDD2E472-3925-41A7-BECD-3315E6E71ECC}" name="Table21127" displayName="Table21127" ref="Z88:AI105" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58">
   <autoFilter ref="Z88:AI105" xr:uid="{BDD2E472-3925-41A7-BECD-3315E6E71ECC}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{9DBD966D-620C-4B97-A502-29D00ABE150B}" name="Scoring" dataDxfId="73"/>
-    <tableColumn id="2" xr3:uid="{F8F81F0E-16B3-4472-9D90-A92149C763E4}" name="Points" dataDxfId="72">
+    <tableColumn id="1" xr3:uid="{9DBD966D-620C-4B97-A502-29D00ABE150B}" name="Scoring" dataDxfId="57"/>
+    <tableColumn id="2" xr3:uid="{F8F81F0E-16B3-4472-9D90-A92149C763E4}" name="Points" dataDxfId="56">
       <calculatedColumnFormula>Template!R63</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{09859CE1-290D-4977-B02C-46F4E5A6FDC2}" name="Finishes" dataDxfId="71">
+    <tableColumn id="3" xr3:uid="{09859CE1-290D-4977-B02C-46F4E5A6FDC2}" name="Finishes" dataDxfId="55">
       <calculatedColumnFormula>Template!S63</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{7D751A0E-2895-46DF-B5E2-5A8AA5531CD2}" name="Midranges" dataDxfId="70">
+    <tableColumn id="4" xr3:uid="{7D751A0E-2895-46DF-B5E2-5A8AA5531CD2}" name="Midranges" dataDxfId="54">
       <calculatedColumnFormula>Template!T63</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{591CDC71-B0EA-413B-B6C1-77884E7E50D4}" name="Threes" dataDxfId="69">
+    <tableColumn id="5" xr3:uid="{591CDC71-B0EA-413B-B6C1-77884E7E50D4}" name="Threes" dataDxfId="53">
       <calculatedColumnFormula>Template!U63</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{52ED768C-5557-42DC-9824-7A4D9B547153}" name="Avg P" dataDxfId="68">
+    <tableColumn id="6" xr3:uid="{52ED768C-5557-42DC-9824-7A4D9B547153}" name="Avg P" dataDxfId="52">
       <calculatedColumnFormula>AA89/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{FC79BE87-72E2-4F5E-83D6-CDCE645EB943}" name="Avg F" dataDxfId="67">
+    <tableColumn id="7" xr3:uid="{FC79BE87-72E2-4F5E-83D6-CDCE645EB943}" name="Avg F" dataDxfId="51">
       <calculatedColumnFormula>AB89/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{BA012C22-0D65-4C11-98A7-4F958703D04B}" name="Avg M" dataDxfId="66">
+    <tableColumn id="8" xr3:uid="{BA012C22-0D65-4C11-98A7-4F958703D04B}" name="Avg M" dataDxfId="50">
       <calculatedColumnFormula>AC89/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{63344F2B-5D94-417D-85E2-C2BFBACE3E7E}" name="Avg T" dataDxfId="65">
+    <tableColumn id="9" xr3:uid="{63344F2B-5D94-417D-85E2-C2BFBACE3E7E}" name="Avg T" dataDxfId="49">
       <calculatedColumnFormula>AD89/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{1AD5A604-8909-45B3-8E43-11D407451CEA}" name="Missed Games" dataDxfId="64">
+    <tableColumn id="10" xr3:uid="{1AD5A604-8909-45B3-8E43-11D407451CEA}" name="Missed Games" dataDxfId="48">
       <calculatedColumnFormula>COUNTIF(Template!V63, "TRUE")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7412,35 +7415,35 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{F9183685-60DE-4163-AA62-BE4F563EE570}" name="Table21128" displayName="Table21128" ref="AK88:AT105" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{F9183685-60DE-4163-AA62-BE4F563EE570}" name="Table21128" displayName="Table21128" ref="AK88:AT105" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
   <autoFilter ref="AK88:AT105" xr:uid="{F9183685-60DE-4163-AA62-BE4F563EE570}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{E62FBAA0-D6F6-4997-96C9-B6B13FAA9B6E}" name="Scoring" dataDxfId="61"/>
-    <tableColumn id="2" xr3:uid="{0A655F6F-9A21-4167-85B6-B9F7DC2070CA}" name="Points" dataDxfId="60">
+    <tableColumn id="1" xr3:uid="{E62FBAA0-D6F6-4997-96C9-B6B13FAA9B6E}" name="Scoring" dataDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{0A655F6F-9A21-4167-85B6-B9F7DC2070CA}" name="Points" dataDxfId="44">
       <calculatedColumnFormula>Template!AC63</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{460771D3-3BD8-4DA3-AF1B-1A0F98EF1499}" name="Finishes" dataDxfId="59">
+    <tableColumn id="3" xr3:uid="{460771D3-3BD8-4DA3-AF1B-1A0F98EF1499}" name="Finishes" dataDxfId="43">
       <calculatedColumnFormula>Template!AD63</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{3C08B2D7-823D-49C3-A627-A5848E664B2F}" name="Midranges" dataDxfId="58">
+    <tableColumn id="4" xr3:uid="{3C08B2D7-823D-49C3-A627-A5848E664B2F}" name="Midranges" dataDxfId="42">
       <calculatedColumnFormula>Template!AE63</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{E88F45FB-4C46-4674-86D5-74808E7E5368}" name="Threes" dataDxfId="57">
+    <tableColumn id="5" xr3:uid="{E88F45FB-4C46-4674-86D5-74808E7E5368}" name="Threes" dataDxfId="41">
       <calculatedColumnFormula>Template!AF63</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{0C0E8016-1E6E-4F25-9675-4EE061FFD0F7}" name="Avg P" dataDxfId="56">
+    <tableColumn id="6" xr3:uid="{0C0E8016-1E6E-4F25-9675-4EE061FFD0F7}" name="Avg P" dataDxfId="40">
       <calculatedColumnFormula>AL89/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{F7AC350B-AE4B-4912-B21D-16D99E2AE8BF}" name="Avg F" dataDxfId="55">
+    <tableColumn id="7" xr3:uid="{F7AC350B-AE4B-4912-B21D-16D99E2AE8BF}" name="Avg F" dataDxfId="39">
       <calculatedColumnFormula>AM89/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{F451E5CA-B9C4-4EFA-A647-CEDB2FB39550}" name="Avg M" dataDxfId="54">
+    <tableColumn id="8" xr3:uid="{F451E5CA-B9C4-4EFA-A647-CEDB2FB39550}" name="Avg M" dataDxfId="38">
       <calculatedColumnFormula>AN89/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{ED1D92B5-05F1-40CE-A89F-E6627FAB4A59}" name="Avg T" dataDxfId="53">
+    <tableColumn id="9" xr3:uid="{ED1D92B5-05F1-40CE-A89F-E6627FAB4A59}" name="Avg T" dataDxfId="37">
       <calculatedColumnFormula>AO89/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{48A4808A-3DE6-4644-83F5-C2AEDDFC3E5E}" name="Missed Games" dataDxfId="52">
+    <tableColumn id="10" xr3:uid="{48A4808A-3DE6-4644-83F5-C2AEDDFC3E5E}" name="Missed Games" dataDxfId="36">
       <calculatedColumnFormula>COUNTIF(Template!AG63, "TRUE")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8882,18 +8885,18 @@
       </c>
     </row>
     <row r="22" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="B22" s="132" t="s">
+      <c r="B22" s="133" t="s">
         <v>119</v>
       </c>
-      <c r="C22" s="132"/>
+      <c r="C22" s="133"/>
       <c r="D22" s="104"/>
       <c r="X22" s="2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="23" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="B23" s="132"/>
-      <c r="C23" s="132"/>
+      <c r="B23" s="133"/>
+      <c r="C23" s="133"/>
       <c r="D23" s="104"/>
       <c r="X23" s="2" t="s">
         <v>71</v>
@@ -12024,8 +12027,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:AT1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AB25" sqref="AB25"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AE22" sqref="AE22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -13585,10 +13588,7 @@
       <c r="O25" s="117"/>
       <c r="P25" s="117"/>
       <c r="Q25" s="117"/>
-      <c r="AB25" s="18">
-        <f>AVERAGE(Table1[Average])</f>
-        <v>1.4411764705882353</v>
-      </c>
+      <c r="AB25" s="18"/>
     </row>
     <row r="26" spans="2:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B26" s="117"/>
@@ -15343,7 +15343,7 @@
     </row>
     <row r="56" spans="19:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="V56" s="43"/>
-      <c r="W56" s="133"/>
+      <c r="W56" s="132"/>
       <c r="Z56" s="49" t="s">
         <v>63</v>
       </c>
@@ -18279,7 +18279,7 @@
   <dimension ref="A1:AD1000"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="P67" sqref="P67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -20072,6 +20072,10 @@
       </c>
     </row>
     <row r="41" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C41" s="134">
+        <f>SUM(B4:B40)/SUM(B4:C40)</f>
+        <v>0.57894736842105265</v>
+      </c>
       <c r="J41" s="89"/>
       <c r="K41" s="86" t="s">
         <v>94</v>
@@ -21170,7 +21174,7 @@
   <dimension ref="A1:X1000"/>
   <sheetViews>
     <sheetView zoomScale="76" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -22738,6 +22742,10 @@
       </c>
     </row>
     <row r="41" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C41" s="134">
+        <f>SUM(B4:B40)/SUM(B4:C40)</f>
+        <v>0.19354838709677419</v>
+      </c>
       <c r="J41" s="89"/>
       <c r="K41" s="81" t="s">
         <v>94</v>
@@ -23828,7 +23836,7 @@
   <dimension ref="A1:X1000"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -25288,7 +25296,12 @@
       <c r="E40" s="85"/>
       <c r="F40" s="85"/>
     </row>
-    <row r="41" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="41" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C41" s="134">
+        <f>SUM(B4:B40)/SUM(B4:C40)</f>
+        <v>0.65116279069767447</v>
+      </c>
+    </row>
     <row r="42" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="43" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="44" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -26451,15 +26464,15 @@
         <v>0</v>
       </c>
       <c r="X4" s="54" t="str">
-        <f t="shared" ref="X4:X36" si="5">IF(AND(C4="Loose Gooses",D4="Wet Willies"),"LG/WW", IF(AND(C4="Loose Gooses",D4="5 Musketeers"),"LG/5M", ""))</f>
+        <f t="shared" ref="X4:X18" si="5">IF(AND(C4="Loose Gooses",D4="Wet Willies"),"LG/WW", IF(AND(C4="Loose Gooses",D4="5 Musketeers"),"LG/5M", ""))</f>
         <v/>
       </c>
       <c r="Y4" s="54" t="str">
-        <f t="shared" ref="Y4:Y36" si="6">IF(AND(C4="Wet Willies",D4="Loose Gooses"),"WW/LG", IF(AND(C4="Wet Willies",D4="5 Musketeers"),"WW/5M", ""))</f>
+        <f t="shared" ref="Y4:Y18" si="6">IF(AND(C4="Wet Willies",D4="Loose Gooses"),"WW/LG", IF(AND(C4="Wet Willies",D4="5 Musketeers"),"WW/5M", ""))</f>
         <v/>
       </c>
       <c r="Z4" s="54" t="str">
-        <f t="shared" ref="Z4:Z36" si="7">IF(AND(C4="5 Musketeers",D4="Loose Gooses"),"5M/LG", IF(AND($C4="5 Musketeers",$D4="Wet Willies"),"5M/WW", ""))</f>
+        <f t="shared" ref="Z4:Z18" si="7">IF(AND(C4="5 Musketeers",D4="Loose Gooses"),"5M/LG", IF(AND($C4="5 Musketeers",$D4="Wet Willies"),"5M/WW", ""))</f>
         <v/>
       </c>
       <c r="AB4" s="2"/>
@@ -27840,18 +27853,18 @@
     <row r="41" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.9">
       <c r="R41" s="104"/>
       <c r="S41" s="104"/>
-      <c r="T41" s="132" t="s">
+      <c r="T41" s="133" t="s">
         <v>119</v>
       </c>
-      <c r="U41" s="132"/>
-      <c r="V41" s="132"/>
+      <c r="U41" s="133"/>
+      <c r="V41" s="133"/>
     </row>
     <row r="42" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.9">
       <c r="R42" s="104"/>
       <c r="S42" s="104"/>
-      <c r="T42" s="132"/>
-      <c r="U42" s="132"/>
-      <c r="V42" s="132"/>
+      <c r="T42" s="133"/>
+      <c r="U42" s="133"/>
+      <c r="V42" s="133"/>
     </row>
     <row r="43" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B43" s="17" t="s">
@@ -29177,15 +29190,15 @@
         <v>0</v>
       </c>
       <c r="X4" s="54" t="str">
-        <f t="shared" ref="X4:X36" si="5">IF(AND(C4="Loose Gooses",D4="Wet Willies"),"LG/WW", IF(AND(C4="Loose Gooses",D4="5 Musketeers"),"LG/5M", ""))</f>
+        <f t="shared" ref="X4:X16" si="5">IF(AND(C4="Loose Gooses",D4="Wet Willies"),"LG/WW", IF(AND(C4="Loose Gooses",D4="5 Musketeers"),"LG/5M", ""))</f>
         <v/>
       </c>
       <c r="Y4" s="54" t="str">
-        <f t="shared" ref="Y4:Y36" si="6">IF(AND(C4="Wet Willies",D4="Loose Gooses"),"WW/LG", IF(AND(C4="Wet Willies",D4="5 Musketeers"),"WW/5M", ""))</f>
+        <f t="shared" ref="Y4:Y16" si="6">IF(AND(C4="Wet Willies",D4="Loose Gooses"),"WW/LG", IF(AND(C4="Wet Willies",D4="5 Musketeers"),"WW/5M", ""))</f>
         <v>WW/5M</v>
       </c>
       <c r="Z4" s="54" t="str">
-        <f t="shared" ref="Z4:Z36" si="7">IF(AND(C4="5 Musketeers",D4="Loose Gooses"),"5M/LG", IF(AND($C4="5 Musketeers",$D4="Wet Willies"),"5M/WW", ""))</f>
+        <f t="shared" ref="Z4:Z16" si="7">IF(AND(C4="5 Musketeers",D4="Loose Gooses"),"5M/LG", IF(AND($C4="5 Musketeers",$D4="Wet Willies"),"5M/WW", ""))</f>
         <v/>
       </c>
       <c r="AB4" s="2"/>
@@ -30758,18 +30771,18 @@
     <row r="41" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.9">
       <c r="R41" s="104"/>
       <c r="S41" s="104"/>
-      <c r="T41" s="132" t="s">
+      <c r="T41" s="133" t="s">
         <v>119</v>
       </c>
-      <c r="U41" s="132"/>
-      <c r="V41" s="132"/>
+      <c r="U41" s="133"/>
+      <c r="V41" s="133"/>
     </row>
     <row r="42" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.9">
       <c r="R42" s="104"/>
       <c r="S42" s="104"/>
-      <c r="T42" s="132"/>
-      <c r="U42" s="132"/>
-      <c r="V42" s="132"/>
+      <c r="T42" s="133"/>
+      <c r="U42" s="133"/>
+      <c r="V42" s="133"/>
     </row>
     <row r="43" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B43" s="17" t="s">
@@ -33884,18 +33897,18 @@
     <row r="41" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.9">
       <c r="R41" s="104"/>
       <c r="S41" s="104"/>
-      <c r="T41" s="132" t="s">
+      <c r="T41" s="133" t="s">
         <v>119</v>
       </c>
-      <c r="U41" s="132"/>
-      <c r="V41" s="132"/>
+      <c r="U41" s="133"/>
+      <c r="V41" s="133"/>
     </row>
     <row r="42" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.9">
       <c r="R42" s="104"/>
       <c r="S42" s="104"/>
-      <c r="T42" s="132"/>
-      <c r="U42" s="132"/>
-      <c r="V42" s="132"/>
+      <c r="T42" s="133"/>
+      <c r="U42" s="133"/>
+      <c r="V42" s="133"/>
     </row>
     <row r="43" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B43" s="17" t="s">
@@ -35220,15 +35233,15 @@
         <v>0</v>
       </c>
       <c r="X4" s="54" t="str">
-        <f t="shared" ref="X4:X36" si="5">IF(AND(C4="Loose Gooses",D4="Wet Willies"),"LG/WW", IF(AND(C4="Loose Gooses",D4="5 Musketeers"),"LG/5M", ""))</f>
+        <f t="shared" ref="X4:X20" si="5">IF(AND(C4="Loose Gooses",D4="Wet Willies"),"LG/WW", IF(AND(C4="Loose Gooses",D4="5 Musketeers"),"LG/5M", ""))</f>
         <v>LG/5M</v>
       </c>
       <c r="Y4" s="54" t="str">
-        <f t="shared" ref="Y4:Y36" si="6">IF(AND(C4="Wet Willies",D4="Loose Gooses"),"WW/LG", IF(AND(C4="Wet Willies",D4="5 Musketeers"),"WW/5M", ""))</f>
+        <f t="shared" ref="Y4:Y20" si="6">IF(AND(C4="Wet Willies",D4="Loose Gooses"),"WW/LG", IF(AND(C4="Wet Willies",D4="5 Musketeers"),"WW/5M", ""))</f>
         <v/>
       </c>
       <c r="Z4" s="54" t="str">
-        <f t="shared" ref="Z4:Z36" si="7">IF(AND(C4="5 Musketeers",D4="Loose Gooses"),"5M/LG", IF(AND($C4="5 Musketeers",$D4="Wet Willies"),"5M/WW", ""))</f>
+        <f t="shared" ref="Z4:Z20" si="7">IF(AND(C4="5 Musketeers",D4="Loose Gooses"),"5M/LG", IF(AND($C4="5 Musketeers",$D4="Wet Willies"),"5M/WW", ""))</f>
         <v/>
       </c>
       <c r="AB4" s="2"/>
@@ -36864,18 +36877,18 @@
     <row r="41" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.9">
       <c r="R41" s="104"/>
       <c r="S41" s="104"/>
-      <c r="T41" s="132" t="s">
+      <c r="T41" s="133" t="s">
         <v>119</v>
       </c>
-      <c r="U41" s="132"/>
-      <c r="V41" s="132"/>
+      <c r="U41" s="133"/>
+      <c r="V41" s="133"/>
     </row>
     <row r="42" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.9">
       <c r="R42" s="104"/>
       <c r="S42" s="104"/>
-      <c r="T42" s="132"/>
-      <c r="U42" s="132"/>
-      <c r="V42" s="132"/>
+      <c r="T42" s="133"/>
+      <c r="U42" s="133"/>
+      <c r="V42" s="133"/>
     </row>
     <row r="43" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B43" s="17" t="s">

--- a/Other Files/PastResults.xlsx
+++ b/Other Files/PastResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\011445\Documents\GitHub\LTBO\Other Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1561EF3-3272-4C31-B92C-398A94048075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD0DDF8-9CCB-4DBF-B897-E153225EFB6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="1" xr2:uid="{1E3275F7-0219-46B7-B9B0-3246E28631A6}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="4" xr2:uid="{1E3275F7-0219-46B7-B9B0-3246E28631A6}"/>
   </bookViews>
   <sheets>
     <sheet name="SfW" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1276" uniqueCount="222">
   <si>
     <t>Points</t>
   </si>
@@ -1288,306 +1288,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="20" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="10" fontId="20" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{E4ED72E7-E964-4884-BAF1-D3A03BDB6523}"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="164">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="150">
     <dxf>
       <font>
         <b val="0"/>
@@ -4018,6 +3733,31 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -4067,6 +3807,106 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -4891,6 +4731,26 @@
         <bottom/>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -5114,13 +4974,13 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2.4615384615384617</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.92307692307692313</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.61538461538461542</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5454,40 +5314,40 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5658,40 +5518,40 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5862,40 +5722,40 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7217,38 +7077,38 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{598ECA3B-99B4-4CAB-8F81-5D711AA5A7FC}" name="Table1" displayName="Table1" ref="Z7:AJ24" totalsRowShown="0" headerRowDxfId="163" dataDxfId="161" headerRowBorderDxfId="162" tableBorderDxfId="160" totalsRowBorderDxfId="159">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{598ECA3B-99B4-4CAB-8F81-5D711AA5A7FC}" name="Table1" displayName="Table1" ref="Z7:AJ24" totalsRowShown="0" headerRowDxfId="147" dataDxfId="145" headerRowBorderDxfId="146" tableBorderDxfId="144" totalsRowBorderDxfId="143">
   <autoFilter ref="Z7:AJ24" xr:uid="{598ECA3B-99B4-4CAB-8F81-5D711AA5A7FC}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{9B036617-5450-4894-9268-827D2E0914FF}" name="Scoring" dataDxfId="158"/>
-    <tableColumn id="2" xr3:uid="{6662CE93-E9C4-47DE-9476-E46126825B0A}" name="Points" dataDxfId="157">
+    <tableColumn id="1" xr3:uid="{9B036617-5450-4894-9268-827D2E0914FF}" name="Scoring" dataDxfId="142"/>
+    <tableColumn id="2" xr3:uid="{6662CE93-E9C4-47DE-9476-E46126825B0A}" name="Points" dataDxfId="141">
       <calculatedColumnFormula>SUM(AL29,AA49,AL49,AA69,AL69,AA89,AL89)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{8FDDFCB0-2692-4EB0-948C-7B877263B55B}" name="Average" dataDxfId="156">
+    <tableColumn id="3" xr3:uid="{8FDDFCB0-2692-4EB0-948C-7B877263B55B}" name="Average" dataDxfId="140">
       <calculatedColumnFormula>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Points]]/($AA$6-Table1[[#This Row],[Missed Games]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{CC3F9B31-1857-48FB-A18B-CBC82C117BF4}" name="Finishes" dataDxfId="155">
+    <tableColumn id="4" xr3:uid="{CC3F9B31-1857-48FB-A18B-CBC82C117BF4}" name="Finishes" dataDxfId="139">
       <calculatedColumnFormula>SUM(AM29,AB49,AM49,AB69,AM69,AB89,AM89)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{5F324C66-956D-4EDC-870F-8EDE96C328C8}" name="Averages" dataDxfId="154">
+    <tableColumn id="5" xr3:uid="{5F324C66-956D-4EDC-870F-8EDE96C328C8}" name="Averages" dataDxfId="138">
       <calculatedColumnFormula>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Finishes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{80C6E15E-675D-4F58-AA26-27226F1CE373}" name="Midranges" dataDxfId="153">
+    <tableColumn id="6" xr3:uid="{80C6E15E-675D-4F58-AA26-27226F1CE373}" name="Midranges" dataDxfId="137">
       <calculatedColumnFormula>SUM(AN29,AC49,AN49,AC69,AN69,AC89,AN89)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{8E7E6B37-23A0-4556-8839-B9D7834E3E68}" name="Averages2" dataDxfId="152">
+    <tableColumn id="7" xr3:uid="{8E7E6B37-23A0-4556-8839-B9D7834E3E68}" name="Averages2" dataDxfId="136">
       <calculatedColumnFormula>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Midranges]]/($AA$6-Table1[[#This Row],[Missed Games]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{8B28715D-E310-4E1F-B9F0-F58F7C70E830}" name="Threes" dataDxfId="151">
+    <tableColumn id="8" xr3:uid="{8B28715D-E310-4E1F-B9F0-F58F7C70E830}" name="Threes" dataDxfId="135">
       <calculatedColumnFormula>SUM(AO29,AD49,AO49,AD69,AO69,AD89,AO89)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{E0C0BF1C-40E8-4137-8E0F-BB238D651DAE}" name="Averages3" dataDxfId="150">
+    <tableColumn id="9" xr3:uid="{E0C0BF1C-40E8-4137-8E0F-BB238D651DAE}" name="Averages3" dataDxfId="134">
       <calculatedColumnFormula>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Threes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{1C75F230-74E0-47EE-BF13-C22289FE0F87}" name="Team" dataDxfId="149">
+    <tableColumn id="10" xr3:uid="{1C75F230-74E0-47EE-BF13-C22289FE0F87}" name="Team" dataDxfId="133">
       <calculatedColumnFormula>SfW!C3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{E167D7FA-56F9-4571-B292-FF3869585F59}" name="Missed Games" dataDxfId="148">
+    <tableColumn id="11" xr3:uid="{E167D7FA-56F9-4571-B292-FF3869585F59}" name="Missed Games" dataDxfId="132">
       <calculatedColumnFormula>SUM(AT29,AI49,AT49,AI69,AT69,AI89,AT89)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7257,94 +7117,94 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{744FF78C-74B5-4798-AD3D-741E3ACB43CF}" name="Table1114" displayName="Table1114" ref="R3:AA8" totalsRowShown="0" headerRowDxfId="56" dataDxfId="55">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{744FF78C-74B5-4798-AD3D-741E3ACB43CF}" name="Table1114" displayName="Table1114" ref="R3:AA8" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
   <autoFilter ref="R3:AA8" xr:uid="{744FF78C-74B5-4798-AD3D-741E3ACB43CF}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{B3B5C08C-655A-460A-A171-B3B0C826FF04}" name="Name" dataDxfId="54"/>
-    <tableColumn id="2" xr3:uid="{427944B0-44CA-4325-A406-29F83026BA5E}" name="Points" dataDxfId="53">
+    <tableColumn id="1" xr3:uid="{B3B5C08C-655A-460A-A171-B3B0C826FF04}" name="Name" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{427944B0-44CA-4325-A406-29F83026BA5E}" name="Points" dataDxfId="32">
       <calculatedColumnFormula>'Stats Global'!AA22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{5E06D173-4DBE-4045-9072-0A0A77D19C84}" name="Average" dataDxfId="52"/>
-    <tableColumn id="4" xr3:uid="{E74131A4-1DCA-4A89-8989-A4CF80175582}" name="Finishes" dataDxfId="51"/>
-    <tableColumn id="5" xr3:uid="{FC3336D4-2CB5-4673-A345-7C9CCED7ADEE}" name="Averages" dataDxfId="50"/>
-    <tableColumn id="6" xr3:uid="{BD6313A7-5D92-4B66-9B85-7ABC12DE9691}" name="Midranges" dataDxfId="49"/>
-    <tableColumn id="7" xr3:uid="{6D0293BC-7E06-45CE-9D4B-FE4769DF9D9F}" name="Averages2" dataDxfId="48"/>
-    <tableColumn id="8" xr3:uid="{89C1C64B-DD66-482C-BCDE-8B912D2676EF}" name="Threes" dataDxfId="47"/>
-    <tableColumn id="9" xr3:uid="{7748B87C-1833-4BD6-9162-76373407E655}" name="Averages3" dataDxfId="46"/>
-    <tableColumn id="10" xr3:uid="{D870E191-A52F-442E-AA52-A42CFAD05573}" name="Missed Games" dataDxfId="45"/>
+    <tableColumn id="3" xr3:uid="{5E06D173-4DBE-4045-9072-0A0A77D19C84}" name="Average" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{E74131A4-1DCA-4A89-8989-A4CF80175582}" name="Finishes" dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{FC3336D4-2CB5-4673-A345-7C9CCED7ADEE}" name="Averages" dataDxfId="29"/>
+    <tableColumn id="6" xr3:uid="{BD6313A7-5D92-4B66-9B85-7ABC12DE9691}" name="Midranges" dataDxfId="28"/>
+    <tableColumn id="7" xr3:uid="{6D0293BC-7E06-45CE-9D4B-FE4769DF9D9F}" name="Averages2" dataDxfId="27"/>
+    <tableColumn id="8" xr3:uid="{89C1C64B-DD66-482C-BCDE-8B912D2676EF}" name="Threes" dataDxfId="26"/>
+    <tableColumn id="9" xr3:uid="{7748B87C-1833-4BD6-9162-76373407E655}" name="Averages3" dataDxfId="25"/>
+    <tableColumn id="10" xr3:uid="{D870E191-A52F-442E-AA52-A42CFAD05573}" name="Missed Games" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{54759C84-3153-4DC9-9240-E2749AA0D92B}" name="Table1113" displayName="Table1113" ref="O3:X10" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{54759C84-3153-4DC9-9240-E2749AA0D92B}" name="Table1113" displayName="Table1113" ref="O3:X10" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
   <autoFilter ref="O3:X10" xr:uid="{54759C84-3153-4DC9-9240-E2749AA0D92B}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{7790729E-C8E5-45C1-8784-25212A2654AA}" name="Name" dataDxfId="42"/>
-    <tableColumn id="2" xr3:uid="{52A67B2B-967C-4970-8D83-8F8E9CC61522}" name="Points" dataDxfId="41"/>
-    <tableColumn id="3" xr3:uid="{BA1FA2C8-AEC0-4644-83DB-5097750D7188}" name="Average" dataDxfId="40"/>
-    <tableColumn id="4" xr3:uid="{4CF66F5D-BF10-4CBD-88FF-CCD38730E1CD}" name="Finishes" dataDxfId="39"/>
-    <tableColumn id="5" xr3:uid="{BC246D5B-7E78-41A6-B796-C93ED8E53DF9}" name="Averages" dataDxfId="38"/>
-    <tableColumn id="6" xr3:uid="{AB819419-CC06-4A40-8DED-E231125129C0}" name="Midranges" dataDxfId="37"/>
-    <tableColumn id="7" xr3:uid="{064AA562-C451-4362-805E-D12DC76C3530}" name="Averages2" dataDxfId="36"/>
-    <tableColumn id="8" xr3:uid="{BD0D8BAE-15E4-4B38-87FE-B682D7BAEE75}" name="Threes" dataDxfId="35"/>
-    <tableColumn id="9" xr3:uid="{541E391B-4B08-4E98-A63F-753C11193269}" name="Averages3" dataDxfId="34"/>
-    <tableColumn id="10" xr3:uid="{999BB5D2-D6FB-4EB9-A268-D62EA72F939D}" name="Missed Games" dataDxfId="33"/>
+    <tableColumn id="1" xr3:uid="{7790729E-C8E5-45C1-8784-25212A2654AA}" name="Name" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{52A67B2B-967C-4970-8D83-8F8E9CC61522}" name="Points" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{BA1FA2C8-AEC0-4644-83DB-5097750D7188}" name="Average" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{4CF66F5D-BF10-4CBD-88FF-CCD38730E1CD}" name="Finishes" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{BC246D5B-7E78-41A6-B796-C93ED8E53DF9}" name="Averages" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{AB819419-CC06-4A40-8DED-E231125129C0}" name="Midranges" dataDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{064AA562-C451-4362-805E-D12DC76C3530}" name="Averages2" dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{BD0D8BAE-15E4-4B38-87FE-B682D7BAEE75}" name="Threes" dataDxfId="14"/>
+    <tableColumn id="9" xr3:uid="{541E391B-4B08-4E98-A63F-753C11193269}" name="Averages3" dataDxfId="13"/>
+    <tableColumn id="10" xr3:uid="{999BB5D2-D6FB-4EB9-A268-D62EA72F939D}" name="Missed Games" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{C12CFC3F-7D59-4C0F-8D43-3F8ACD58C2BD}" name="Table11" displayName="Table11" ref="L4:U9" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{C12CFC3F-7D59-4C0F-8D43-3F8ACD58C2BD}" name="Table11" displayName="Table11" ref="L4:U9" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="L4:U9" xr:uid="{C12CFC3F-7D59-4C0F-8D43-3F8ACD58C2BD}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{CE15C23D-9493-4B21-9D40-1A25D210C18E}" name="Name" dataDxfId="30"/>
-    <tableColumn id="2" xr3:uid="{6BB170B1-AA38-4699-9B96-400D2947EE9C}" name="Points" dataDxfId="29"/>
-    <tableColumn id="3" xr3:uid="{EC8B6CBB-FCC9-416C-AEA6-738419DFE531}" name="Average" dataDxfId="28"/>
-    <tableColumn id="4" xr3:uid="{315DA055-9A43-468A-A501-1092626F523F}" name="Finishes" dataDxfId="27"/>
-    <tableColumn id="5" xr3:uid="{56B6FF4D-95D4-4550-88E4-C781ABDA83A6}" name="Averages" dataDxfId="26"/>
-    <tableColumn id="6" xr3:uid="{F7B5C0B8-FBE2-44B0-A372-112C7776FCCF}" name="Midranges" dataDxfId="25"/>
-    <tableColumn id="7" xr3:uid="{1A1C2126-FEB1-408F-8523-049E53028B4E}" name="Averages2" dataDxfId="24"/>
-    <tableColumn id="8" xr3:uid="{AE94036B-3777-4C1B-97D5-7BFA1037C0BF}" name="Threes" dataDxfId="23"/>
-    <tableColumn id="9" xr3:uid="{448B0903-7F66-40BA-809F-74ADBF397B45}" name="Averages3" dataDxfId="22"/>
-    <tableColumn id="10" xr3:uid="{E0CAC55D-8398-4928-A219-C01706996D48}" name="Missed Games" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{CE15C23D-9493-4B21-9D40-1A25D210C18E}" name="Name" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{6BB170B1-AA38-4699-9B96-400D2947EE9C}" name="Points" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{EC8B6CBB-FCC9-416C-AEA6-738419DFE531}" name="Average" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{315DA055-9A43-468A-A501-1092626F523F}" name="Finishes" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{56B6FF4D-95D4-4550-88E4-C781ABDA83A6}" name="Averages" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{F7B5C0B8-FBE2-44B0-A372-112C7776FCCF}" name="Midranges" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{1A1C2126-FEB1-408F-8523-049E53028B4E}" name="Averages2" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{AE94036B-3777-4C1B-97D5-7BFA1037C0BF}" name="Threes" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{448B0903-7F66-40BA-809F-74ADBF397B45}" name="Averages3" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{E0CAC55D-8398-4928-A219-C01706996D48}" name="Missed Games" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{84D0C431-52CF-4ABD-AA3E-D31975A289B1}" name="Table2" displayName="Table2" ref="Z28:AI45" totalsRowShown="0" headerRowDxfId="147" dataDxfId="146">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{84D0C431-52CF-4ABD-AA3E-D31975A289B1}" name="Table2" displayName="Table2" ref="Z28:AI45" totalsRowShown="0" headerRowDxfId="131" dataDxfId="130">
   <autoFilter ref="Z28:AI45" xr:uid="{84D0C431-52CF-4ABD-AA3E-D31975A289B1}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{4DB7A2B8-7BD8-4BD7-8F53-2A7873A4EAAE}" name="Scoring" dataDxfId="145"/>
-    <tableColumn id="2" xr3:uid="{BE8EBD49-660A-4C9F-970E-230EBB942EF1}" name="Points" dataDxfId="144">
+    <tableColumn id="1" xr3:uid="{4DB7A2B8-7BD8-4BD7-8F53-2A7873A4EAAE}" name="Scoring" dataDxfId="129"/>
+    <tableColumn id="2" xr3:uid="{BE8EBD49-660A-4C9F-970E-230EBB942EF1}" name="Points" dataDxfId="128">
       <calculatedColumnFormula>'Preseason 1'!R3+'Preseason 2'!R3+'Preseason 3'!R3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{C2C49EF0-4D8C-4F8C-8D19-CDD1481D9568}" name="Finishes" dataDxfId="143">
+    <tableColumn id="3" xr3:uid="{C2C49EF0-4D8C-4F8C-8D19-CDD1481D9568}" name="Finishes" dataDxfId="127">
       <calculatedColumnFormula>'Preseason 1'!S3+'Preseason 2'!S3+'Preseason 3'!S3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{7E789F8C-B8F3-4D6E-AB6C-C9454835B062}" name="Midranges" dataDxfId="142">
+    <tableColumn id="4" xr3:uid="{7E789F8C-B8F3-4D6E-AB6C-C9454835B062}" name="Midranges" dataDxfId="126">
       <calculatedColumnFormula>'Preseason 1'!T3+'Preseason 2'!T3+'Preseason 3'!T3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{18C990F2-A6D0-4F57-B96A-D00066DCC8D8}" name="Threes" dataDxfId="141">
+    <tableColumn id="5" xr3:uid="{18C990F2-A6D0-4F57-B96A-D00066DCC8D8}" name="Threes" dataDxfId="125">
       <calculatedColumnFormula>'Preseason 1'!U3+'Preseason 2'!U3+'Preseason 3'!U3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{40526534-76CA-42BA-A8B6-AB092D9CE18F}" name="Avg P" dataDxfId="140">
+    <tableColumn id="6" xr3:uid="{40526534-76CA-42BA-A8B6-AB092D9CE18F}" name="Avg P" dataDxfId="124">
       <calculatedColumnFormula>AA29/($AA$27-Table2[[#This Row],[Missed Games]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{693AF117-21F6-4887-B78D-D59235BABA44}" name="Avg F" dataDxfId="139">
+    <tableColumn id="7" xr3:uid="{693AF117-21F6-4887-B78D-D59235BABA44}" name="Avg F" dataDxfId="123">
       <calculatedColumnFormula>AB29/($AA$27-Table2[[#This Row],[Missed Games]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{02AC8FBF-EBB3-4AFC-BAC5-B773E33B7279}" name="Avg M" dataDxfId="138">
+    <tableColumn id="8" xr3:uid="{02AC8FBF-EBB3-4AFC-BAC5-B773E33B7279}" name="Avg M" dataDxfId="122">
       <calculatedColumnFormula>AC29/($AA$27-Table2[[#This Row],[Missed Games]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{CCF75EB4-34C4-4D47-9D51-E8D85C07E38B}" name="Avg T" dataDxfId="137">
+    <tableColumn id="9" xr3:uid="{CCF75EB4-34C4-4D47-9D51-E8D85C07E38B}" name="Avg T" dataDxfId="121">
       <calculatedColumnFormula>AD29/($AA$27-Table2[[#This Row],[Missed Games]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{1A786A5C-D0C2-4ABC-904C-983180542D5F}" name="Missed Games" dataDxfId="136">
+    <tableColumn id="10" xr3:uid="{1A786A5C-D0C2-4ABC-904C-983180542D5F}" name="Missed Games" dataDxfId="120">
       <calculatedColumnFormula>COUNTIF('Preseason 1'!V3, "TRUE")+COUNTIF('Preseason 2'!V3, "TRUE")+COUNTIF('Preseason 3'!V3, "TRUE")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7353,35 +7213,35 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{46F39EBA-1E74-46F4-A6E5-473672128124}" name="Table211" displayName="Table211" ref="AK28:AT45" totalsRowShown="0" headerRowDxfId="135" dataDxfId="134">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{46F39EBA-1E74-46F4-A6E5-473672128124}" name="Table211" displayName="Table211" ref="AK28:AT45" totalsRowShown="0" headerRowDxfId="119" dataDxfId="118">
   <autoFilter ref="AK28:AT45" xr:uid="{46F39EBA-1E74-46F4-A6E5-473672128124}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{5D003608-C1C2-4694-9447-8632FB8D7348}" name="Scoring" dataDxfId="133"/>
-    <tableColumn id="2" xr3:uid="{D15F4085-CED5-4CDD-B43B-BF7EB59B45A3}" name="Points" dataDxfId="20">
+    <tableColumn id="1" xr3:uid="{5D003608-C1C2-4694-9447-8632FB8D7348}" name="Scoring" dataDxfId="117"/>
+    <tableColumn id="2" xr3:uid="{D15F4085-CED5-4CDD-B43B-BF7EB59B45A3}" name="Points" dataDxfId="116">
       <calculatedColumnFormula>'1707'!R3+'1807'!R3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{2D436F37-54B6-4820-9145-F48B4EF9B294}" name="Finishes" dataDxfId="19">
+    <tableColumn id="3" xr3:uid="{2D436F37-54B6-4820-9145-F48B4EF9B294}" name="Finishes" dataDxfId="115">
       <calculatedColumnFormula>'1707'!S3+'1807'!S3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{1D9B6A22-B682-47F3-B738-7C138F317A41}" name="Midranges" dataDxfId="18">
+    <tableColumn id="4" xr3:uid="{1D9B6A22-B682-47F3-B738-7C138F317A41}" name="Midranges" dataDxfId="114">
       <calculatedColumnFormula>'1707'!T3+'1807'!T3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{9966C9A0-3872-44E9-BB39-05DE197EAA68}" name="Threes" dataDxfId="17">
+    <tableColumn id="5" xr3:uid="{9966C9A0-3872-44E9-BB39-05DE197EAA68}" name="Threes" dataDxfId="113">
       <calculatedColumnFormula>'1707'!U3+'1807'!U3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{CC4AB646-735F-425F-8528-C5EFE7FE11DC}" name="Avg P" dataDxfId="132">
+    <tableColumn id="6" xr3:uid="{CC4AB646-735F-425F-8528-C5EFE7FE11DC}" name="Avg P" dataDxfId="112">
       <calculatedColumnFormula>AL29/($AA$27-Table211[[#This Row],[Missed Games]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{F8D0247E-C6F7-467A-9F38-46084D44F8AB}" name="Avg F" dataDxfId="131">
+    <tableColumn id="7" xr3:uid="{F8D0247E-C6F7-467A-9F38-46084D44F8AB}" name="Avg F" dataDxfId="111">
       <calculatedColumnFormula>AM29/($AA$27-Table211[[#This Row],[Missed Games]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{7CCF1C77-9DB0-4EB2-B7D0-FD0BDBEBFA0E}" name="Avg M" dataDxfId="130">
+    <tableColumn id="8" xr3:uid="{7CCF1C77-9DB0-4EB2-B7D0-FD0BDBEBFA0E}" name="Avg M" dataDxfId="110">
       <calculatedColumnFormula>AN29/($AA$27-Table211[[#This Row],[Missed Games]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{582A1A4E-5383-4383-A480-735408867046}" name="Avg T" dataDxfId="129">
+    <tableColumn id="9" xr3:uid="{582A1A4E-5383-4383-A480-735408867046}" name="Avg T" dataDxfId="109">
       <calculatedColumnFormula>AO29/($AA$27-Table211[[#This Row],[Missed Games]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{E547AEB5-F9BA-4C5F-8DCE-34B6A8FF303A}" name="Missed Games" dataDxfId="16">
+    <tableColumn id="10" xr3:uid="{E547AEB5-F9BA-4C5F-8DCE-34B6A8FF303A}" name="Missed Games" dataDxfId="108">
       <calculatedColumnFormula>COUNTIF('1707'!V3, "TRUE")+COUNTIF('1807'!V3, "TRUE")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7390,35 +7250,35 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{D27C125F-71B2-44D9-9F7A-9BED67755DD3}" name="Table21123" displayName="Table21123" ref="Z48:AI65" totalsRowShown="0" headerRowDxfId="128" dataDxfId="127">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{D27C125F-71B2-44D9-9F7A-9BED67755DD3}" name="Table21123" displayName="Table21123" ref="Z48:AI65" totalsRowShown="0" headerRowDxfId="107" dataDxfId="106">
   <autoFilter ref="Z48:AI65" xr:uid="{D27C125F-71B2-44D9-9F7A-9BED67755DD3}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{0B0344E8-2677-4FAB-9B03-4745991FB5AE}" name="Scoring" dataDxfId="126"/>
-    <tableColumn id="2" xr3:uid="{58CA1107-8BB4-4A5D-BA00-31619C8D3973}" name="Points" dataDxfId="125">
+    <tableColumn id="1" xr3:uid="{0B0344E8-2677-4FAB-9B03-4745991FB5AE}" name="Scoring" dataDxfId="105"/>
+    <tableColumn id="2" xr3:uid="{58CA1107-8BB4-4A5D-BA00-31619C8D3973}" name="Points" dataDxfId="104">
       <calculatedColumnFormula>Template!R23</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{8090861E-1FDF-44F4-9DB6-BB814E32C754}" name="Finishes" dataDxfId="124">
+    <tableColumn id="3" xr3:uid="{8090861E-1FDF-44F4-9DB6-BB814E32C754}" name="Finishes" dataDxfId="103">
       <calculatedColumnFormula>Template!S23</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{972D0347-DAB3-4985-A738-E5D78740D498}" name="Midranges" dataDxfId="123">
+    <tableColumn id="4" xr3:uid="{972D0347-DAB3-4985-A738-E5D78740D498}" name="Midranges" dataDxfId="102">
       <calculatedColumnFormula>Template!T23</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{48F5F884-1753-4988-9056-632B5EB6BBCB}" name="Threes" dataDxfId="122">
+    <tableColumn id="5" xr3:uid="{48F5F884-1753-4988-9056-632B5EB6BBCB}" name="Threes" dataDxfId="101">
       <calculatedColumnFormula>Template!U23</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{6953B627-EA05-418F-A758-FD59263EA60D}" name="Avg P" dataDxfId="121">
+    <tableColumn id="6" xr3:uid="{6953B627-EA05-418F-A758-FD59263EA60D}" name="Avg P" dataDxfId="100">
       <calculatedColumnFormula>AA49/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{BE057C9C-5ECD-4AC2-A9C0-18C89CFB52BC}" name="Avg F" dataDxfId="120">
+    <tableColumn id="7" xr3:uid="{BE057C9C-5ECD-4AC2-A9C0-18C89CFB52BC}" name="Avg F" dataDxfId="99">
       <calculatedColumnFormula>AB49/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{0FDEBEE7-CD5E-4A44-A0AE-74F044F1FF46}" name="Avg M" dataDxfId="119">
+    <tableColumn id="8" xr3:uid="{0FDEBEE7-CD5E-4A44-A0AE-74F044F1FF46}" name="Avg M" dataDxfId="98">
       <calculatedColumnFormula>AC49/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{76975BB6-3677-41A8-BC24-7536B1D876D3}" name="Avg T" dataDxfId="118">
+    <tableColumn id="9" xr3:uid="{76975BB6-3677-41A8-BC24-7536B1D876D3}" name="Avg T" dataDxfId="97">
       <calculatedColumnFormula>AD49/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{E5ADB69B-3BA2-4019-8C83-8B02221F187E}" name="Missed Games" dataDxfId="117">
+    <tableColumn id="10" xr3:uid="{E5ADB69B-3BA2-4019-8C83-8B02221F187E}" name="Missed Games" dataDxfId="96">
       <calculatedColumnFormula>COUNTIF(Template!V23, "TRUE")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7427,35 +7287,35 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{22B89D2C-1B74-4036-A4ED-A5E61F1B3AAC}" name="Table21124" displayName="Table21124" ref="AK48:AT65" totalsRowShown="0" headerRowDxfId="116" dataDxfId="115">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{22B89D2C-1B74-4036-A4ED-A5E61F1B3AAC}" name="Table21124" displayName="Table21124" ref="AK48:AT65" totalsRowShown="0" headerRowDxfId="95" dataDxfId="94">
   <autoFilter ref="AK48:AT65" xr:uid="{22B89D2C-1B74-4036-A4ED-A5E61F1B3AAC}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{3D35891E-3654-497A-8DB2-BF0BD916CA29}" name="Scoring" dataDxfId="114"/>
-    <tableColumn id="2" xr3:uid="{54B5B6AF-372A-4E07-B4D6-DFC66F7E20C5}" name="Points" dataDxfId="113">
+    <tableColumn id="1" xr3:uid="{3D35891E-3654-497A-8DB2-BF0BD916CA29}" name="Scoring" dataDxfId="93"/>
+    <tableColumn id="2" xr3:uid="{54B5B6AF-372A-4E07-B4D6-DFC66F7E20C5}" name="Points" dataDxfId="92">
       <calculatedColumnFormula>Template!AC23</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{6CA15B41-F560-4B43-8836-163F5BB5689C}" name="Finishes" dataDxfId="112">
+    <tableColumn id="3" xr3:uid="{6CA15B41-F560-4B43-8836-163F5BB5689C}" name="Finishes" dataDxfId="91">
       <calculatedColumnFormula>Template!AD23</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{8FF05262-0051-44F7-966E-8D405318BA69}" name="Midranges" dataDxfId="111">
+    <tableColumn id="4" xr3:uid="{8FF05262-0051-44F7-966E-8D405318BA69}" name="Midranges" dataDxfId="90">
       <calculatedColumnFormula>Template!AE23</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{F0D843FC-7A93-4C9A-BCCF-E789F7811B3B}" name="Threes" dataDxfId="110">
+    <tableColumn id="5" xr3:uid="{F0D843FC-7A93-4C9A-BCCF-E789F7811B3B}" name="Threes" dataDxfId="89">
       <calculatedColumnFormula>Template!AF23</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{F0498F8A-F646-4C1F-A3CF-E89E73750FC1}" name="Avg P" dataDxfId="109">
+    <tableColumn id="6" xr3:uid="{F0498F8A-F646-4C1F-A3CF-E89E73750FC1}" name="Avg P" dataDxfId="88">
       <calculatedColumnFormula>AL49/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{A387BC88-F45C-4386-8503-EFEA33BDAC38}" name="Avg F" dataDxfId="108">
+    <tableColumn id="7" xr3:uid="{A387BC88-F45C-4386-8503-EFEA33BDAC38}" name="Avg F" dataDxfId="87">
       <calculatedColumnFormula>AM49/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{BEA82919-0828-4351-A01A-D72E13E63FAB}" name="Avg M" dataDxfId="107">
+    <tableColumn id="8" xr3:uid="{BEA82919-0828-4351-A01A-D72E13E63FAB}" name="Avg M" dataDxfId="86">
       <calculatedColumnFormula>AN49/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{ABEBCE01-BCA4-4342-966C-27301889B607}" name="Avg T" dataDxfId="106">
+    <tableColumn id="9" xr3:uid="{ABEBCE01-BCA4-4342-966C-27301889B607}" name="Avg T" dataDxfId="85">
       <calculatedColumnFormula>AO49/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{65E7A8E7-4C51-42E4-AB0F-B7FF6099D70A}" name="Missed Games" dataDxfId="105">
+    <tableColumn id="10" xr3:uid="{65E7A8E7-4C51-42E4-AB0F-B7FF6099D70A}" name="Missed Games" dataDxfId="84">
       <calculatedColumnFormula>COUNTIF(Template!AG23, "TRUE")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7464,35 +7324,35 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{18C7D514-96DE-4BA6-B019-3E860ED143EC}" name="Table21125" displayName="Table21125" ref="AK68:AT85" totalsRowShown="0" headerRowDxfId="104" dataDxfId="103">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{18C7D514-96DE-4BA6-B019-3E860ED143EC}" name="Table21125" displayName="Table21125" ref="AK68:AT85" totalsRowShown="0" headerRowDxfId="83" dataDxfId="82">
   <autoFilter ref="AK68:AT85" xr:uid="{18C7D514-96DE-4BA6-B019-3E860ED143EC}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{D144EF14-69FD-4E71-90C7-56F49F45FAE5}" name="Scoring" dataDxfId="102"/>
-    <tableColumn id="2" xr3:uid="{34D1D392-F3E0-4C36-9EED-849D5B1149E6}" name="Points" dataDxfId="101">
+    <tableColumn id="1" xr3:uid="{D144EF14-69FD-4E71-90C7-56F49F45FAE5}" name="Scoring" dataDxfId="81"/>
+    <tableColumn id="2" xr3:uid="{34D1D392-F3E0-4C36-9EED-849D5B1149E6}" name="Points" dataDxfId="80">
       <calculatedColumnFormula>Template!AC43</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{E91D98A2-80BD-4E5C-9036-2FCC8185369F}" name="Finishes" dataDxfId="100">
+    <tableColumn id="3" xr3:uid="{E91D98A2-80BD-4E5C-9036-2FCC8185369F}" name="Finishes" dataDxfId="79">
       <calculatedColumnFormula>Template!AD43</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{D2E5029E-4811-4E9B-9A2D-5F5F8F322B0D}" name="Midranges" dataDxfId="99">
+    <tableColumn id="4" xr3:uid="{D2E5029E-4811-4E9B-9A2D-5F5F8F322B0D}" name="Midranges" dataDxfId="78">
       <calculatedColumnFormula>Template!AE43</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{B3E76CEE-33DA-4B18-8DCE-8EBC7EE592D7}" name="Threes" dataDxfId="98">
+    <tableColumn id="5" xr3:uid="{B3E76CEE-33DA-4B18-8DCE-8EBC7EE592D7}" name="Threes" dataDxfId="77">
       <calculatedColumnFormula>Template!AF43</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{6ABE1879-8018-4498-A9A1-22CF831F0364}" name="Avg P" dataDxfId="97">
+    <tableColumn id="6" xr3:uid="{6ABE1879-8018-4498-A9A1-22CF831F0364}" name="Avg P" dataDxfId="76">
       <calculatedColumnFormula>AL69/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{8DA4DD79-8A2A-49E4-996F-C1ACCED3C565}" name="Avg F" dataDxfId="96">
+    <tableColumn id="7" xr3:uid="{8DA4DD79-8A2A-49E4-996F-C1ACCED3C565}" name="Avg F" dataDxfId="75">
       <calculatedColumnFormula>AM69/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{256EA4BC-BA61-49E2-969F-0786AA9AA6EA}" name="Avg M" dataDxfId="95">
+    <tableColumn id="8" xr3:uid="{256EA4BC-BA61-49E2-969F-0786AA9AA6EA}" name="Avg M" dataDxfId="74">
       <calculatedColumnFormula>AN69/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{0E5566B2-99EC-4B03-A074-8705C4EDA484}" name="Avg T" dataDxfId="94">
+    <tableColumn id="9" xr3:uid="{0E5566B2-99EC-4B03-A074-8705C4EDA484}" name="Avg T" dataDxfId="73">
       <calculatedColumnFormula>AO69/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{3E2357F0-493E-401D-AC75-9AAB260F684E}" name="Missed Games" dataDxfId="93">
+    <tableColumn id="10" xr3:uid="{3E2357F0-493E-401D-AC75-9AAB260F684E}" name="Missed Games" dataDxfId="72">
       <calculatedColumnFormula>COUNTIF(Template!AG43, "TRUE")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7501,35 +7361,35 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{F118BED8-7AAF-4E55-A61F-C75C69A64AAE}" name="Table21126" displayName="Table21126" ref="Z68:AI85" totalsRowShown="0" headerRowDxfId="92" dataDxfId="91">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{F118BED8-7AAF-4E55-A61F-C75C69A64AAE}" name="Table21126" displayName="Table21126" ref="Z68:AI85" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70">
   <autoFilter ref="Z68:AI85" xr:uid="{F118BED8-7AAF-4E55-A61F-C75C69A64AAE}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{7723929D-65B3-40BB-8FDD-C4533243706C}" name="Scoring" dataDxfId="90"/>
-    <tableColumn id="2" xr3:uid="{EC28DE3D-619E-4930-A3AF-7AD1BE1D4843}" name="Points" dataDxfId="89">
+    <tableColumn id="1" xr3:uid="{7723929D-65B3-40BB-8FDD-C4533243706C}" name="Scoring" dataDxfId="69"/>
+    <tableColumn id="2" xr3:uid="{EC28DE3D-619E-4930-A3AF-7AD1BE1D4843}" name="Points" dataDxfId="68">
       <calculatedColumnFormula>Template!R43</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{9537269D-8C1D-42B5-866F-D03CE61A8512}" name="Finishes" dataDxfId="88">
+    <tableColumn id="3" xr3:uid="{9537269D-8C1D-42B5-866F-D03CE61A8512}" name="Finishes" dataDxfId="67">
       <calculatedColumnFormula>Template!S43</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{AC590DDB-BE19-4A14-8B98-1E5E2430AA45}" name="Midranges" dataDxfId="87">
+    <tableColumn id="4" xr3:uid="{AC590DDB-BE19-4A14-8B98-1E5E2430AA45}" name="Midranges" dataDxfId="66">
       <calculatedColumnFormula>Template!T43</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C96D3ACD-F34D-477E-86DE-4650EE56BC94}" name="Threes" dataDxfId="86">
+    <tableColumn id="5" xr3:uid="{C96D3ACD-F34D-477E-86DE-4650EE56BC94}" name="Threes" dataDxfId="65">
       <calculatedColumnFormula>Template!U43</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{A43DE5E9-BB01-49FA-A204-66EE7BAA2E9F}" name="Avg P" dataDxfId="85">
+    <tableColumn id="6" xr3:uid="{A43DE5E9-BB01-49FA-A204-66EE7BAA2E9F}" name="Avg P" dataDxfId="64">
       <calculatedColumnFormula>AA69/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{C75A19FF-6041-45C2-BACB-E347F06B6329}" name="Avg F" dataDxfId="84">
+    <tableColumn id="7" xr3:uid="{C75A19FF-6041-45C2-BACB-E347F06B6329}" name="Avg F" dataDxfId="63">
       <calculatedColumnFormula>AB69/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00D3FCFC-C9C5-4C96-BE0E-8E1FDC95D07C}" name="Avg M" dataDxfId="83">
+    <tableColumn id="8" xr3:uid="{00D3FCFC-C9C5-4C96-BE0E-8E1FDC95D07C}" name="Avg M" dataDxfId="62">
       <calculatedColumnFormula>AC69/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{0448FF4E-9D2D-47F6-89B7-F17D36B05E8A}" name="Avg T" dataDxfId="82">
+    <tableColumn id="9" xr3:uid="{0448FF4E-9D2D-47F6-89B7-F17D36B05E8A}" name="Avg T" dataDxfId="61">
       <calculatedColumnFormula>AD69/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{D5BDFA2D-095B-44F8-8567-15B3B1520E5A}" name="Missed Games" dataDxfId="81">
+    <tableColumn id="10" xr3:uid="{D5BDFA2D-095B-44F8-8567-15B3B1520E5A}" name="Missed Games" dataDxfId="60">
       <calculatedColumnFormula>COUNTIF(Template!V43, "TRUE")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7538,35 +7398,35 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{BDD2E472-3925-41A7-BECD-3315E6E71ECC}" name="Table21127" displayName="Table21127" ref="Z88:AI105" totalsRowShown="0" headerRowDxfId="80" dataDxfId="79">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{BDD2E472-3925-41A7-BECD-3315E6E71ECC}" name="Table21127" displayName="Table21127" ref="Z88:AI105" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58">
   <autoFilter ref="Z88:AI105" xr:uid="{BDD2E472-3925-41A7-BECD-3315E6E71ECC}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{9DBD966D-620C-4B97-A502-29D00ABE150B}" name="Scoring" dataDxfId="78"/>
-    <tableColumn id="2" xr3:uid="{F8F81F0E-16B3-4472-9D90-A92149C763E4}" name="Points" dataDxfId="77">
+    <tableColumn id="1" xr3:uid="{9DBD966D-620C-4B97-A502-29D00ABE150B}" name="Scoring" dataDxfId="57"/>
+    <tableColumn id="2" xr3:uid="{F8F81F0E-16B3-4472-9D90-A92149C763E4}" name="Points" dataDxfId="56">
       <calculatedColumnFormula>Template!R63</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{09859CE1-290D-4977-B02C-46F4E5A6FDC2}" name="Finishes" dataDxfId="76">
+    <tableColumn id="3" xr3:uid="{09859CE1-290D-4977-B02C-46F4E5A6FDC2}" name="Finishes" dataDxfId="55">
       <calculatedColumnFormula>Template!S63</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{7D751A0E-2895-46DF-B5E2-5A8AA5531CD2}" name="Midranges" dataDxfId="75">
+    <tableColumn id="4" xr3:uid="{7D751A0E-2895-46DF-B5E2-5A8AA5531CD2}" name="Midranges" dataDxfId="54">
       <calculatedColumnFormula>Template!T63</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{591CDC71-B0EA-413B-B6C1-77884E7E50D4}" name="Threes" dataDxfId="74">
+    <tableColumn id="5" xr3:uid="{591CDC71-B0EA-413B-B6C1-77884E7E50D4}" name="Threes" dataDxfId="53">
       <calculatedColumnFormula>Template!U63</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{52ED768C-5557-42DC-9824-7A4D9B547153}" name="Avg P" dataDxfId="73">
+    <tableColumn id="6" xr3:uid="{52ED768C-5557-42DC-9824-7A4D9B547153}" name="Avg P" dataDxfId="52">
       <calculatedColumnFormula>AA89/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{FC79BE87-72E2-4F5E-83D6-CDCE645EB943}" name="Avg F" dataDxfId="72">
+    <tableColumn id="7" xr3:uid="{FC79BE87-72E2-4F5E-83D6-CDCE645EB943}" name="Avg F" dataDxfId="51">
       <calculatedColumnFormula>AB89/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{BA012C22-0D65-4C11-98A7-4F958703D04B}" name="Avg M" dataDxfId="71">
+    <tableColumn id="8" xr3:uid="{BA012C22-0D65-4C11-98A7-4F958703D04B}" name="Avg M" dataDxfId="50">
       <calculatedColumnFormula>AC89/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{63344F2B-5D94-417D-85E2-C2BFBACE3E7E}" name="Avg T" dataDxfId="70">
+    <tableColumn id="9" xr3:uid="{63344F2B-5D94-417D-85E2-C2BFBACE3E7E}" name="Avg T" dataDxfId="49">
       <calculatedColumnFormula>AD89/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{1AD5A604-8909-45B3-8E43-11D407451CEA}" name="Missed Games" dataDxfId="69">
+    <tableColumn id="10" xr3:uid="{1AD5A604-8909-45B3-8E43-11D407451CEA}" name="Missed Games" dataDxfId="48">
       <calculatedColumnFormula>COUNTIF(Template!V63, "TRUE")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7575,35 +7435,35 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{F9183685-60DE-4163-AA62-BE4F563EE570}" name="Table21128" displayName="Table21128" ref="AK88:AT105" totalsRowShown="0" headerRowDxfId="68" dataDxfId="67">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{F9183685-60DE-4163-AA62-BE4F563EE570}" name="Table21128" displayName="Table21128" ref="AK88:AT105" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
   <autoFilter ref="AK88:AT105" xr:uid="{F9183685-60DE-4163-AA62-BE4F563EE570}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{E62FBAA0-D6F6-4997-96C9-B6B13FAA9B6E}" name="Scoring" dataDxfId="66"/>
-    <tableColumn id="2" xr3:uid="{0A655F6F-9A21-4167-85B6-B9F7DC2070CA}" name="Points" dataDxfId="65">
+    <tableColumn id="1" xr3:uid="{E62FBAA0-D6F6-4997-96C9-B6B13FAA9B6E}" name="Scoring" dataDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{0A655F6F-9A21-4167-85B6-B9F7DC2070CA}" name="Points" dataDxfId="44">
       <calculatedColumnFormula>Template!AC63</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{460771D3-3BD8-4DA3-AF1B-1A0F98EF1499}" name="Finishes" dataDxfId="64">
+    <tableColumn id="3" xr3:uid="{460771D3-3BD8-4DA3-AF1B-1A0F98EF1499}" name="Finishes" dataDxfId="43">
       <calculatedColumnFormula>Template!AD63</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{3C08B2D7-823D-49C3-A627-A5848E664B2F}" name="Midranges" dataDxfId="63">
+    <tableColumn id="4" xr3:uid="{3C08B2D7-823D-49C3-A627-A5848E664B2F}" name="Midranges" dataDxfId="42">
       <calculatedColumnFormula>Template!AE63</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{E88F45FB-4C46-4674-86D5-74808E7E5368}" name="Threes" dataDxfId="62">
+    <tableColumn id="5" xr3:uid="{E88F45FB-4C46-4674-86D5-74808E7E5368}" name="Threes" dataDxfId="41">
       <calculatedColumnFormula>Template!AF63</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{0C0E8016-1E6E-4F25-9675-4EE061FFD0F7}" name="Avg P" dataDxfId="61">
+    <tableColumn id="6" xr3:uid="{0C0E8016-1E6E-4F25-9675-4EE061FFD0F7}" name="Avg P" dataDxfId="40">
       <calculatedColumnFormula>AL89/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{F7AC350B-AE4B-4912-B21D-16D99E2AE8BF}" name="Avg F" dataDxfId="60">
+    <tableColumn id="7" xr3:uid="{F7AC350B-AE4B-4912-B21D-16D99E2AE8BF}" name="Avg F" dataDxfId="39">
       <calculatedColumnFormula>AM89/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{F451E5CA-B9C4-4EFA-A647-CEDB2FB39550}" name="Avg M" dataDxfId="59">
+    <tableColumn id="8" xr3:uid="{F451E5CA-B9C4-4EFA-A647-CEDB2FB39550}" name="Avg M" dataDxfId="38">
       <calculatedColumnFormula>AN89/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{ED1D92B5-05F1-40CE-A89F-E6627FAB4A59}" name="Avg T" dataDxfId="58">
+    <tableColumn id="9" xr3:uid="{ED1D92B5-05F1-40CE-A89F-E6627FAB4A59}" name="Avg T" dataDxfId="37">
       <calculatedColumnFormula>AO89/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{48A4808A-3DE6-4644-83F5-C2AEDDFC3E5E}" name="Missed Games" dataDxfId="57">
+    <tableColumn id="10" xr3:uid="{48A4808A-3DE6-4644-83F5-C2AEDDFC3E5E}" name="Missed Games" dataDxfId="36">
       <calculatedColumnFormula>COUNTIF(Template!AG63, "TRUE")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7813,7 +7673,7 @@
   <dimension ref="B1:X1000"/>
   <sheetViews>
     <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="E94" sqref="E94"/>
+      <selection activeCell="B27" sqref="B27:B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -7969,19 +7829,19 @@
       </c>
       <c r="D4" s="8">
         <f>'Stats Global'!AB9</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E4" s="12">
         <f>'Stats Global'!AA9</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F4" s="8">
         <f>'Stats Global'!AD9</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G4" s="12">
         <f>'Stats Global'!AC9</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H4" s="8">
         <f>'Stats Global'!AF9</f>
@@ -8422,19 +8282,19 @@
       </c>
       <c r="D11" s="8">
         <f>'Stats Global'!AB16</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" s="12">
         <f>'Stats Global'!AA16</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="8">
         <f>'Stats Global'!AD16</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="12">
         <f>'Stats Global'!AC16</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="8">
         <f>'Stats Global'!AF16</f>
@@ -8497,11 +8357,11 @@
       </c>
       <c r="D12" s="8">
         <f>'Stats Global'!AB17</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E12" s="12">
         <f>'Stats Global'!AA17</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F12" s="8">
         <f>'Stats Global'!AD17</f>
@@ -8513,19 +8373,19 @@
       </c>
       <c r="H12" s="8">
         <f>'Stats Global'!AF17</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="12">
         <f>'Stats Global'!AE17</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" s="8">
         <f>'Stats Global'!AH17</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" s="12">
         <f>'Stats Global'!AG17</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>40</v>
@@ -8566,11 +8426,11 @@
       </c>
       <c r="D13" s="8">
         <f>'Stats Global'!AB18</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E13" s="12">
         <f>'Stats Global'!AA18</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F13" s="8">
         <f>'Stats Global'!AD18</f>
@@ -8582,11 +8442,11 @@
       </c>
       <c r="H13" s="8">
         <f>'Stats Global'!AF18</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" s="12">
         <f>'Stats Global'!AE18</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J13" s="8">
         <f>'Stats Global'!AH18</f>
@@ -8691,19 +8551,19 @@
       </c>
       <c r="D15" s="8">
         <f>'Stats Global'!AB20</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" s="12">
         <f>'Stats Global'!AA20</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" s="8">
         <f>'Stats Global'!AD20</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="12">
         <f>'Stats Global'!AC20</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="8">
         <f>'Stats Global'!AF20</f>
@@ -8763,11 +8623,11 @@
       </c>
       <c r="D16" s="8">
         <f>'Stats Global'!AB21</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="12">
         <f>'Stats Global'!AA21</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="8">
         <f>'Stats Global'!AD21</f>
@@ -8779,11 +8639,11 @@
       </c>
       <c r="H16" s="8">
         <f>'Stats Global'!AF21</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="12">
         <f>'Stats Global'!AE21</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" s="8">
         <f>'Stats Global'!AH21</f>
@@ -8835,19 +8695,19 @@
       </c>
       <c r="D17" s="8">
         <f>'Stats Global'!AB22</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E17" s="12">
         <f>'Stats Global'!AA22</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F17" s="8">
         <f>'Stats Global'!AD22</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G17" s="12">
         <f>'Stats Global'!AC22</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H17" s="8">
         <f>'Stats Global'!AF22</f>
@@ -8859,11 +8719,11 @@
       </c>
       <c r="J17" s="8">
         <f>'Stats Global'!AH22</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" s="12">
         <f>'Stats Global'!AG22</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>162</v>
@@ -9045,18 +8905,18 @@
       </c>
     </row>
     <row r="22" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="B22" s="140" t="s">
+      <c r="B22" s="142" t="s">
         <v>119</v>
       </c>
-      <c r="C22" s="140"/>
+      <c r="C22" s="142"/>
       <c r="D22" s="104"/>
       <c r="X22" s="2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="23" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="B23" s="140"/>
-      <c r="C23" s="140"/>
+      <c r="B23" s="142"/>
+      <c r="C23" s="142"/>
       <c r="D23" s="104"/>
       <c r="X23" s="2" t="s">
         <v>71</v>
@@ -9132,7 +8992,7 @@
     <row r="27" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B27" s="18" t="str">
         <f>D49&amp;":["&amp;D50&amp;D51&amp;D52&amp;D53&amp;D54&amp;D55&amp;D56&amp;D57&amp;D58&amp;D59&amp;D60&amp;D61&amp;D62&amp;D63&amp;D64&amp;D65&amp;D66&amp;"],"</f>
-        <v>"PPG":[0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0],</v>
+        <v>"PPG":[0,2,0,0,0,0,0,0,1,3,2,0,1,1,5,0,0],</v>
       </c>
       <c r="C27" s="17"/>
       <c r="D27" s="17"/>
@@ -9158,7 +9018,7 @@
     <row r="28" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B28" s="17" t="str">
         <f>E49&amp;":["&amp;E50&amp;E51&amp;E52&amp;E53&amp;E54&amp;E55&amp;E56&amp;E57&amp;E58&amp;E59&amp;E60&amp;E61&amp;E62&amp;E63&amp;E64&amp;E65&amp;E66&amp;"],"</f>
-        <v>"TP":[0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0],</v>
+        <v>"TP":[0,2,0,0,0,0,0,0,1,3,2,0,1,1,5,0,0],</v>
       </c>
       <c r="C28" s="17"/>
       <c r="D28" s="17"/>
@@ -9184,7 +9044,7 @@
     <row r="29" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B29" s="17" t="str">
         <f>F49&amp;":["&amp;F50&amp;F51&amp;F52&amp;F53&amp;F54&amp;F55&amp;F56&amp;F57&amp;F58&amp;F59&amp;F60&amp;F61&amp;F62&amp;F63&amp;F64&amp;F65&amp;F66&amp;"],"</f>
-        <v>"FPG":[0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0],</v>
+        <v>"FPG":[0,2,0,0,0,0,0,0,1,0,0,0,1,0,3,0,0],</v>
       </c>
       <c r="C29" s="17"/>
       <c r="D29" s="17"/>
@@ -9210,7 +9070,7 @@
     <row r="30" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B30" s="17" t="str">
         <f>G49&amp;":["&amp;G50&amp;G51&amp;G52&amp;G53&amp;G54&amp;G55&amp;G56&amp;G57&amp;G58&amp;G59&amp;G60&amp;G61&amp;G62&amp;G63&amp;G64&amp;G65&amp;G66&amp;"],"</f>
-        <v>"TF":[0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0],</v>
+        <v>"TF":[0,2,0,0,0,0,0,0,1,0,0,0,1,0,3,0,0],</v>
       </c>
       <c r="C30" s="17"/>
       <c r="D30" s="17"/>
@@ -9236,7 +9096,7 @@
     <row r="31" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B31" s="17" t="str">
         <f>H49&amp;":["&amp;H50&amp;H51&amp;H52&amp;H53&amp;H54&amp;H55&amp;H56&amp;H57&amp;H58&amp;H59&amp;H60&amp;H61&amp;H62&amp;H63&amp;H64&amp;H65&amp;H66&amp;"],"</f>
-        <v>"MPG":[0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0],</v>
+        <v>"MPG":[0,0,0,0,0,0,0,0,0,1,2,0,0,1,0,0,0],</v>
       </c>
       <c r="C31" s="17"/>
       <c r="D31" s="17"/>
@@ -9262,7 +9122,7 @@
     <row r="32" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B32" s="17" t="str">
         <f>I49&amp;":["&amp;I50&amp;I51&amp;I52&amp;I53&amp;I54&amp;I55&amp;I56&amp;I57&amp;I58&amp;I59&amp;I60&amp;I61&amp;I62&amp;I63&amp;I64&amp;I65&amp;I66&amp;"],"</f>
-        <v>"TM":[0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0],</v>
+        <v>"TM":[0,0,0,0,0,0,0,0,0,1,2,0,0,1,0,0,0],</v>
       </c>
       <c r="C32" s="17"/>
       <c r="D32" s="17"/>
@@ -9288,7 +9148,7 @@
     <row r="33" spans="2:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B33" s="17" t="str">
         <f>J49&amp;":["&amp;J50&amp;J51&amp;J52&amp;J53&amp;J54&amp;J55&amp;J56&amp;J57&amp;J58&amp;J59&amp;J60&amp;J61&amp;J62&amp;J63&amp;J64&amp;J65&amp;J66&amp;"],"</f>
-        <v>"TPG":[0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0],</v>
+        <v>"TPG":[0,0,0,0,0,0,0,0,0,1,0,0,0,0,1,0,0],</v>
       </c>
       <c r="C33" s="17"/>
       <c r="D33" s="17"/>
@@ -9314,7 +9174,7 @@
     <row r="34" spans="2:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B34" s="17" t="str">
         <f>K49&amp;":["&amp;K50&amp;K51&amp;K52&amp;K53&amp;K54&amp;K55&amp;K56&amp;K57&amp;K58&amp;K59&amp;K60&amp;K61&amp;K62&amp;K63&amp;K64&amp;K65&amp;K66&amp;"],"</f>
-        <v>"TT":[0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0],</v>
+        <v>"TT":[0,0,0,0,0,0,0,0,0,1,0,0,0,0,1,0,0],</v>
       </c>
       <c r="C34" s="17"/>
       <c r="D34" s="17"/>
@@ -9873,19 +9733,19 @@
       </c>
       <c r="D51" s="18" t="str">
         <f t="shared" si="6"/>
-        <v>0,</v>
+        <v>2,</v>
       </c>
       <c r="E51" s="18" t="str">
         <f t="shared" si="7"/>
-        <v>0,</v>
+        <v>2,</v>
       </c>
       <c r="F51" s="18" t="str">
         <f t="shared" si="8"/>
-        <v>0,</v>
+        <v>2,</v>
       </c>
       <c r="G51" s="18" t="str">
         <f t="shared" si="9"/>
-        <v>0,</v>
+        <v>2,</v>
       </c>
       <c r="H51" s="18" t="str">
         <f t="shared" si="10"/>
@@ -10475,19 +10335,19 @@
       </c>
       <c r="D58" s="18" t="str">
         <f t="shared" si="6"/>
-        <v>0,</v>
+        <v>1,</v>
       </c>
       <c r="E58" s="18" t="str">
         <f t="shared" si="7"/>
-        <v>0,</v>
+        <v>1,</v>
       </c>
       <c r="F58" s="18" t="str">
         <f t="shared" si="8"/>
-        <v>0,</v>
+        <v>1,</v>
       </c>
       <c r="G58" s="18" t="str">
         <f t="shared" si="9"/>
-        <v>0,</v>
+        <v>1,</v>
       </c>
       <c r="H58" s="18" t="str">
         <f t="shared" si="10"/>
@@ -10561,11 +10421,11 @@
       </c>
       <c r="D59" s="18" t="str">
         <f t="shared" si="6"/>
-        <v>0,</v>
+        <v>3,</v>
       </c>
       <c r="E59" s="18" t="str">
         <f t="shared" si="7"/>
-        <v>0,</v>
+        <v>3,</v>
       </c>
       <c r="F59" s="18" t="str">
         <f t="shared" si="8"/>
@@ -10577,19 +10437,19 @@
       </c>
       <c r="H59" s="18" t="str">
         <f t="shared" si="10"/>
-        <v>0,</v>
+        <v>1,</v>
       </c>
       <c r="I59" s="18" t="str">
         <f t="shared" si="11"/>
-        <v>0,</v>
+        <v>1,</v>
       </c>
       <c r="J59" s="18" t="str">
         <f t="shared" si="12"/>
-        <v>0,</v>
+        <v>1,</v>
       </c>
       <c r="K59" s="18" t="str">
         <f t="shared" si="13"/>
-        <v>0,</v>
+        <v>1,</v>
       </c>
       <c r="L59" s="18" t="str">
         <f t="shared" ref="L59:V59" si="23">CHAR(34)&amp;L12&amp;CHAR(34)&amp;","</f>
@@ -10647,11 +10507,11 @@
       </c>
       <c r="D60" s="18" t="str">
         <f t="shared" si="6"/>
-        <v>0,</v>
+        <v>2,</v>
       </c>
       <c r="E60" s="18" t="str">
         <f t="shared" si="7"/>
-        <v>0,</v>
+        <v>2,</v>
       </c>
       <c r="F60" s="18" t="str">
         <f t="shared" si="8"/>
@@ -10663,11 +10523,11 @@
       </c>
       <c r="H60" s="18" t="str">
         <f t="shared" si="10"/>
-        <v>0,</v>
+        <v>2,</v>
       </c>
       <c r="I60" s="18" t="str">
         <f t="shared" si="11"/>
-        <v>0,</v>
+        <v>2,</v>
       </c>
       <c r="J60" s="18" t="str">
         <f t="shared" si="12"/>
@@ -10819,19 +10679,19 @@
       </c>
       <c r="D62" s="18" t="str">
         <f t="shared" si="6"/>
-        <v>0,</v>
+        <v>1,</v>
       </c>
       <c r="E62" s="18" t="str">
         <f t="shared" si="7"/>
-        <v>0,</v>
+        <v>1,</v>
       </c>
       <c r="F62" s="18" t="str">
         <f t="shared" si="8"/>
-        <v>0,</v>
+        <v>1,</v>
       </c>
       <c r="G62" s="18" t="str">
         <f t="shared" si="9"/>
-        <v>0,</v>
+        <v>1,</v>
       </c>
       <c r="H62" s="18" t="str">
         <f t="shared" si="10"/>
@@ -10905,11 +10765,11 @@
       </c>
       <c r="D63" s="18" t="str">
         <f t="shared" si="6"/>
-        <v>0,</v>
+        <v>1,</v>
       </c>
       <c r="E63" s="18" t="str">
         <f t="shared" si="7"/>
-        <v>0,</v>
+        <v>1,</v>
       </c>
       <c r="F63" s="18" t="str">
         <f t="shared" si="8"/>
@@ -10921,11 +10781,11 @@
       </c>
       <c r="H63" s="18" t="str">
         <f t="shared" si="10"/>
-        <v>0,</v>
+        <v>1,</v>
       </c>
       <c r="I63" s="18" t="str">
         <f t="shared" si="11"/>
-        <v>0,</v>
+        <v>1,</v>
       </c>
       <c r="J63" s="18" t="str">
         <f t="shared" si="12"/>
@@ -10991,19 +10851,19 @@
       </c>
       <c r="D64" s="18" t="str">
         <f t="shared" si="6"/>
-        <v>0,</v>
+        <v>5,</v>
       </c>
       <c r="E64" s="18" t="str">
         <f t="shared" si="7"/>
-        <v>0,</v>
+        <v>5,</v>
       </c>
       <c r="F64" s="18" t="str">
         <f t="shared" si="8"/>
-        <v>0,</v>
+        <v>3,</v>
       </c>
       <c r="G64" s="18" t="str">
         <f t="shared" si="9"/>
-        <v>0,</v>
+        <v>3,</v>
       </c>
       <c r="H64" s="18" t="str">
         <f t="shared" si="10"/>
@@ -11015,11 +10875,11 @@
       </c>
       <c r="J64" s="18" t="str">
         <f t="shared" si="12"/>
-        <v>0,</v>
+        <v>1,</v>
       </c>
       <c r="K64" s="18" t="str">
         <f t="shared" si="13"/>
-        <v>0,</v>
+        <v>1,</v>
       </c>
       <c r="L64" s="18" t="str">
         <f t="shared" ref="L64:V64" si="28">CHAR(34)&amp;L17&amp;CHAR(34)&amp;","</f>
@@ -14180,18 +14040,18 @@
     <row r="41" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.9">
       <c r="R41" s="104"/>
       <c r="S41" s="104"/>
-      <c r="T41" s="140" t="s">
+      <c r="T41" s="142" t="s">
         <v>119</v>
       </c>
-      <c r="U41" s="140"/>
-      <c r="V41" s="140"/>
+      <c r="U41" s="142"/>
+      <c r="V41" s="142"/>
     </row>
     <row r="42" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.9">
       <c r="R42" s="104"/>
       <c r="S42" s="104"/>
-      <c r="T42" s="140"/>
-      <c r="U42" s="140"/>
-      <c r="V42" s="140"/>
+      <c r="T42" s="142"/>
+      <c r="U42" s="142"/>
+      <c r="V42" s="142"/>
     </row>
     <row r="43" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B43" s="17" t="s">
@@ -17160,18 +17020,18 @@
     <row r="41" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.9">
       <c r="R41" s="104"/>
       <c r="S41" s="104"/>
-      <c r="T41" s="140" t="s">
+      <c r="T41" s="142" t="s">
         <v>119</v>
       </c>
-      <c r="U41" s="140"/>
-      <c r="V41" s="140"/>
+      <c r="U41" s="142"/>
+      <c r="V41" s="142"/>
     </row>
     <row r="42" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.9">
       <c r="R42" s="104"/>
       <c r="S42" s="104"/>
-      <c r="T42" s="140"/>
-      <c r="U42" s="140"/>
-      <c r="V42" s="140"/>
+      <c r="T42" s="142"/>
+      <c r="U42" s="142"/>
+      <c r="V42" s="142"/>
     </row>
     <row r="43" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B43" s="17" t="s">
@@ -18293,7 +18153,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:AT1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="V1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AB8" sqref="AB8"/>
     </sheetView>
   </sheetViews>
@@ -18532,19 +18392,19 @@
       </c>
       <c r="S6" s="5">
         <f>SUM(C8:E40)/COUNT(C5:C40)</f>
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="T6" s="134">
         <f>AVERAGE(C8:C40)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="U6" s="134">
         <f t="shared" ref="U6:V6" si="0">AVERAGE(D8:D40)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V6" s="134">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z6" s="74" t="s">
         <v>167</v>
@@ -18632,17 +18492,17 @@
       <c r="S7" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="T7" s="6" t="e">
+      <c r="T7" s="6">
         <f>T6/$S$6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U7" s="6" t="e">
+        <v>2.4615384615384617</v>
+      </c>
+      <c r="U7" s="6">
         <f>U6/$S$6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V7" s="6" t="e">
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="V7" s="6">
         <f>V6/$S$6</f>
-        <v>#DIV/0!</v>
+        <v>0.61538461538461542</v>
       </c>
       <c r="Z7" s="21" t="s">
         <v>84</v>
@@ -18697,19 +18557,19 @@
       </c>
       <c r="C8" s="128">
         <f>'1707'!C45</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D8" s="128">
         <f>'1707'!D45</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E8" s="128">
         <f>'1707'!E45</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F8" s="128">
         <f>'1707'!F45</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G8" s="128">
         <f>'1707'!G45</f>
@@ -18717,15 +18577,15 @@
       </c>
       <c r="H8" s="128">
         <f>'1707'!H45</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I8" s="128">
         <f>'1707'!I45</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J8" s="128">
         <f>'1707'!J45</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K8" s="128">
         <f>'1707'!K45</f>
@@ -18733,27 +18593,27 @@
       </c>
       <c r="L8" s="128">
         <f>'1707'!L45</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M8" s="128">
         <f>'1707'!M45</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N8" s="128">
         <f>'1707'!N45</f>
-        <v>0</v>
-      </c>
-      <c r="O8" s="128" t="e">
+        <v>2</v>
+      </c>
+      <c r="O8" s="128">
         <f>'1707'!O45</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P8" s="128" t="e">
+        <v>3</v>
+      </c>
+      <c r="P8" s="128">
         <f>'1707'!P45</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q8" s="128" t="e">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="128">
         <f>'1707'!Q45</f>
-        <v>#DIV/0!</v>
+        <v>2</v>
       </c>
       <c r="Z8" s="68" t="s">
         <v>45</v>
@@ -18799,14 +18659,14 @@
         <v>0</v>
       </c>
       <c r="AK8" s="67"/>
-      <c r="AL8" s="143" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM8" s="142">
+      <c r="AL8" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="140">
         <f>AVERAGE(Table1[Average])</f>
-        <v>0</v>
-      </c>
-      <c r="AN8" s="142">
+        <v>0.88235294117647056</v>
+      </c>
+      <c r="AN8" s="140">
         <f>MEDIAN(Table1[Average])</f>
         <v>0</v>
       </c>
@@ -18838,19 +18698,19 @@
       </c>
       <c r="AA9" s="69">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB9" s="70">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Points]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC9" s="71">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD9" s="72">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Finishes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE9" s="71">
         <f t="shared" si="3"/>
@@ -18877,14 +18737,14 @@
         <v>0</v>
       </c>
       <c r="AK9" s="67"/>
-      <c r="AL9" s="143" t="s">
+      <c r="AL9" s="141" t="s">
         <v>1</v>
       </c>
-      <c r="AM9" s="142">
+      <c r="AM9" s="140">
         <f>AVERAGE(Table1[Finishes])</f>
-        <v>0</v>
-      </c>
-      <c r="AN9" s="142">
+        <v>0.41176470588235292</v>
+      </c>
+      <c r="AN9" s="140">
         <f>MEDIAN(Table1[Finishes])</f>
         <v>0</v>
       </c>
@@ -18955,14 +18815,14 @@
         <v>1</v>
       </c>
       <c r="AK10" s="67"/>
-      <c r="AL10" s="143" t="s">
+      <c r="AL10" s="141" t="s">
         <v>220</v>
       </c>
-      <c r="AM10" s="142">
+      <c r="AM10" s="140">
         <f>AVERAGE(Table1[Midranges])</f>
-        <v>0</v>
-      </c>
-      <c r="AN10" s="142">
+        <v>0.23529411764705882</v>
+      </c>
+      <c r="AN10" s="140">
         <f>MEDIAN(Table1[Midranges])</f>
         <v>0</v>
       </c>
@@ -19033,14 +18893,14 @@
         <v>1</v>
       </c>
       <c r="AK11" s="67"/>
-      <c r="AL11" s="143" t="s">
+      <c r="AL11" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="AM11" s="142">
+      <c r="AM11" s="140">
         <f>AVERAGE(Table1[Threes])</f>
-        <v>0</v>
-      </c>
-      <c r="AN11" s="142">
+        <v>0.11764705882352941</v>
+      </c>
+      <c r="AN11" s="140">
         <f>MEDIAN(Table1[Threes])</f>
         <v>0</v>
       </c>
@@ -19175,7 +19035,7 @@
       </c>
       <c r="AJ13" s="73">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK13" s="67"/>
       <c r="AL13" s="67"/>
@@ -19343,19 +19203,19 @@
       </c>
       <c r="AA16" s="69">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB16" s="70">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Points]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC16" s="71">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD16" s="72">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Finishes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE16" s="71">
         <f t="shared" si="3"/>
@@ -19411,11 +19271,11 @@
       </c>
       <c r="AA17" s="69">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB17" s="70">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Points]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AC17" s="71">
         <f t="shared" si="2"/>
@@ -19427,19 +19287,19 @@
       </c>
       <c r="AE17" s="71">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF17" s="72">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Midranges]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG17" s="71">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH17" s="72">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Threes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI17" s="68" t="str">
         <f>SfW!C12</f>
@@ -19479,11 +19339,11 @@
       </c>
       <c r="AA18" s="69">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB18" s="70">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Points]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC18" s="71">
         <f t="shared" si="2"/>
@@ -19495,11 +19355,11 @@
       </c>
       <c r="AE18" s="71">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF18" s="72">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Midranges]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG18" s="71">
         <f t="shared" si="4"/>
@@ -19614,19 +19474,19 @@
       </c>
       <c r="AA20" s="69">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB20" s="70">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Points]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC20" s="71">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD20" s="125">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Finishes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE20" s="71">
         <f t="shared" si="3"/>
@@ -19682,11 +19542,11 @@
       </c>
       <c r="AA21" s="69">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB21" s="70">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Points]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC21" s="71">
         <f t="shared" si="2"/>
@@ -19698,11 +19558,11 @@
       </c>
       <c r="AE21" s="71">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF21" s="125">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Midranges]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG21" s="71">
         <f t="shared" si="4"/>
@@ -19750,19 +19610,19 @@
       </c>
       <c r="AA22" s="69">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AB22" s="70">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Points]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AC22" s="71">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD22" s="125">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Finishes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE22" s="71">
         <f t="shared" si="3"/>
@@ -19774,11 +19634,11 @@
       </c>
       <c r="AG22" s="71">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH22" s="125">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Threes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI22" s="122" t="str">
         <f>SfW!C17</f>
@@ -19921,7 +19781,7 @@
       </c>
       <c r="AJ24" s="73">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL24" s="45"/>
       <c r="AM24" s="46"/>
@@ -20270,11 +20130,11 @@
       </c>
       <c r="AL30" s="32">
         <f>'1707'!R4+'1807'!R4</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM30" s="32">
         <f>'1707'!S4+'1807'!S4</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN30" s="32">
         <f>'1707'!T4+'1807'!T4</f>
@@ -20286,11 +20146,11 @@
       </c>
       <c r="AP30" s="32">
         <f>AL30/($AA$27-Table211[[#This Row],[Missed Games]])</f>
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AQ30" s="32">
         <f>AM30/($AA$27-Table211[[#This Row],[Missed Games]])</f>
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AR30" s="32">
         <f>AN30/($AA$27-Table211[[#This Row],[Missed Games]])</f>
@@ -20704,7 +20564,7 @@
       </c>
       <c r="AT34" s="32">
         <f>COUNTIF('1707'!V8, "TRUE")+COUNTIF('1807'!V8, "TRUE")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="2:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -20969,11 +20829,11 @@
       </c>
       <c r="AL37" s="32">
         <f>'1707'!R11+'1807'!R11</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM37" s="32">
         <f>'1707'!S11+'1807'!S11</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN37" s="32">
         <f>'1707'!T11+'1807'!T11</f>
@@ -20985,11 +20845,11 @@
       </c>
       <c r="AP37" s="32">
         <f>AL37/($AA$27-Table211[[#This Row],[Missed Games]])</f>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AQ37" s="32">
         <f>AM37/($AA$27-Table211[[#This Row],[Missed Games]])</f>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AR37" s="32">
         <f>AN37/($AA$27-Table211[[#This Row],[Missed Games]])</f>
@@ -21066,7 +20926,7 @@
       </c>
       <c r="AL38" s="32">
         <f>'1707'!R12+'1807'!R12</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AM38" s="32">
         <f>'1707'!S12+'1807'!S12</f>
@@ -21074,15 +20934,15 @@
       </c>
       <c r="AN38" s="32">
         <f>'1707'!T12+'1807'!T12</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO38" s="32">
         <f>'1707'!U12+'1807'!U12</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP38" s="32">
         <f>AL38/($AA$27-Table211[[#This Row],[Missed Games]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ38" s="32">
         <f>AM38/($AA$27-Table211[[#This Row],[Missed Games]])</f>
@@ -21090,11 +20950,11 @@
       </c>
       <c r="AR38" s="32">
         <f>AN38/($AA$27-Table211[[#This Row],[Missed Games]])</f>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AS38" s="32">
         <f>AO38/($AA$27-Table211[[#This Row],[Missed Games]])</f>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AT38" s="32">
         <f>COUNTIF('1707'!V12, "TRUE")+COUNTIF('1807'!V12, "TRUE")</f>
@@ -21163,7 +21023,7 @@
       </c>
       <c r="AL39" s="32">
         <f>'1707'!R13+'1807'!R13</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM39" s="32">
         <f>'1707'!S13+'1807'!S13</f>
@@ -21171,7 +21031,7 @@
       </c>
       <c r="AN39" s="32">
         <f>'1707'!T13+'1807'!T13</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO39" s="32">
         <f>'1707'!U13+'1807'!U13</f>
@@ -21179,7 +21039,7 @@
       </c>
       <c r="AP39" s="32">
         <f>AL39/($AA$27-Table211[[#This Row],[Missed Games]])</f>
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AQ39" s="32">
         <f>AM39/($AA$27-Table211[[#This Row],[Missed Games]])</f>
@@ -21187,7 +21047,7 @@
       </c>
       <c r="AR39" s="32">
         <f>AN39/($AA$27-Table211[[#This Row],[Missed Games]])</f>
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AS39" s="32">
         <f>AO39/($AA$27-Table211[[#This Row],[Missed Games]])</f>
@@ -21302,9 +21162,9 @@
       <c r="S41" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="T41" t="e">
+      <c r="T41">
         <f>'Statistics LG'!J3</f>
-        <v>#DIV/0!</v>
+        <v>3</v>
       </c>
       <c r="V41" s="28"/>
       <c r="Z41" s="36" t="s">
@@ -21352,11 +21212,11 @@
       </c>
       <c r="AL41" s="32">
         <f>'1707'!R15+'1807'!R15</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM41" s="32">
         <f>'1707'!S15+'1807'!S15</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN41" s="32">
         <f>'1707'!T15+'1807'!T15</f>
@@ -21368,11 +21228,11 @@
       </c>
       <c r="AP41" s="32">
         <f>AL41/($AA$27-Table211[[#This Row],[Missed Games]])</f>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AQ41" s="32">
         <f>AM41/($AA$27-Table211[[#This Row],[Missed Games]])</f>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AR41" s="32">
         <f>AN41/($AA$27-Table211[[#This Row],[Missed Games]])</f>
@@ -21391,9 +21251,9 @@
       <c r="S42" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="T42" t="e">
+      <c r="T42">
         <f>'Statistics WW'!J4</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="V42" s="28"/>
       <c r="Z42" s="36" t="s">
@@ -21441,7 +21301,7 @@
       </c>
       <c r="AL42" s="32">
         <f>'1707'!R16+'1807'!R16</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM42" s="32">
         <f>'1707'!S16+'1807'!S16</f>
@@ -21449,7 +21309,7 @@
       </c>
       <c r="AN42" s="32">
         <f>'1707'!T16+'1807'!T16</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO42" s="32">
         <f>'1707'!U16+'1807'!U16</f>
@@ -21457,7 +21317,7 @@
       </c>
       <c r="AP42" s="32">
         <f>AL42/($AA$27-Table211[[#This Row],[Missed Games]])</f>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AQ42" s="32">
         <f>AM42/($AA$27-Table211[[#This Row],[Missed Games]])</f>
@@ -21465,7 +21325,7 @@
       </c>
       <c r="AR42" s="32">
         <f>AN42/($AA$27-Table211[[#This Row],[Missed Games]])</f>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AS42" s="32">
         <f>AO42/($AA$27-Table211[[#This Row],[Missed Games]])</f>
@@ -21480,9 +21340,9 @@
       <c r="S43" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="T43" t="e">
+      <c r="T43">
         <f>'Statistics 5M'!J4</f>
-        <v>#DIV/0!</v>
+        <v>2</v>
       </c>
       <c r="V43" s="28"/>
       <c r="Z43" s="36" t="s">
@@ -21530,11 +21390,11 @@
       </c>
       <c r="AL43" s="32">
         <f>'1707'!R17+'1807'!R17</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AM43" s="32">
         <f>'1707'!S17+'1807'!S17</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AN43" s="32">
         <f>'1707'!T17+'1807'!T17</f>
@@ -21542,15 +21402,15 @@
       </c>
       <c r="AO43" s="32">
         <f>'1707'!U17+'1807'!U17</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP43" s="32">
         <f>AL43/($AA$27-Table211[[#This Row],[Missed Games]])</f>
-        <v>0</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="AQ43" s="32">
         <f>AM43/($AA$27-Table211[[#This Row],[Missed Games]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR43" s="32">
         <f>AN43/($AA$27-Table211[[#This Row],[Missed Games]])</f>
@@ -21558,7 +21418,7 @@
       </c>
       <c r="AS43" s="32">
         <f>AO43/($AA$27-Table211[[#This Row],[Missed Games]])</f>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AT43" s="32">
         <f>COUNTIF('1707'!V17, "TRUE")+COUNTIF('1807'!V17, "TRUE")</f>
@@ -21737,7 +21597,7 @@
       </c>
       <c r="AT45" s="32">
         <f>COUNTIF('1707'!V19, "TRUE")+COUNTIF('1807'!V19, "TRUE")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="2:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -21746,15 +21606,15 @@
       </c>
       <c r="U46" s="19">
         <f>SUM(Table1[Finishes])</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V46" s="18">
         <f>U46/AA6</f>
-        <v>0</v>
-      </c>
-      <c r="W46" s="28" t="e">
+        <v>7</v>
+      </c>
+      <c r="W46" s="28">
         <f>U46/SUM($U$46:$U$48)</f>
-        <v>#DIV/0!</v>
+        <v>0.53846153846153844</v>
       </c>
       <c r="Z46" s="36"/>
       <c r="AA46" s="35"/>
@@ -21784,15 +21644,15 @@
       </c>
       <c r="U47" s="19">
         <f>SUM(Table1[Midranges])</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V47" s="18">
         <f>U47/AA6</f>
-        <v>0</v>
-      </c>
-      <c r="W47" s="28" t="e">
+        <v>4</v>
+      </c>
+      <c r="W47" s="28">
         <f>U47/SUM($U$46:$U$48)</f>
-        <v>#DIV/0!</v>
+        <v>0.30769230769230771</v>
       </c>
       <c r="Z47" s="49" t="s">
         <v>126</v>
@@ -21830,15 +21690,15 @@
       </c>
       <c r="U48" s="19">
         <f>SUM(Table1[Threes])</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V48" s="18">
         <f>U48/AA6</f>
-        <v>0</v>
-      </c>
-      <c r="W48" s="28" t="e">
+        <v>2</v>
+      </c>
+      <c r="W48" s="28">
         <f>U48/SUM($U$46:$U$48)</f>
-        <v>#DIV/0!</v>
+        <v>0.15384615384615385</v>
       </c>
       <c r="Z48" s="29" t="s">
         <v>84</v>
@@ -22029,17 +21889,17 @@
       <c r="T53" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="U53" s="39" t="e">
+      <c r="U53" s="39">
         <f>'Statistics LG'!L42</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V53" s="39" t="e">
+        <v>1</v>
+      </c>
+      <c r="V53" s="39">
         <f>'Statistics LG'!O42</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W53" s="39" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="W53" s="39">
         <f>AVERAGE(U53:V53)</f>
-        <v>#DIV/0!</v>
+        <v>0.75</v>
       </c>
       <c r="Z53" s="49" t="s">
         <v>57</v>
@@ -22071,20 +21931,20 @@
       <c r="S54" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="T54" s="39" t="e">
+      <c r="T54" s="39">
         <f>1-'Statistics LG'!L42</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="U54" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="V54" s="39" t="e">
+      <c r="V54" s="39">
         <f>'Statistics WW'!L42</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W54" s="39" t="e">
+        <v>1</v>
+      </c>
+      <c r="W54" s="39">
         <f>AVERAGE(T54:V54)</f>
-        <v>#DIV/0!</v>
+        <v>0.5</v>
       </c>
       <c r="Z54" s="49" t="s">
         <v>60</v>
@@ -22116,20 +21976,20 @@
       <c r="S55" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="T55" s="39" t="e">
+      <c r="T55" s="39">
         <f>1-V53</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U55" s="39" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="U55" s="39">
         <f>1-V54</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="V55" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="W55" s="39" t="e">
+      <c r="W55" s="39">
         <f>AVERAGE(T55:V55)</f>
-        <v>#DIV/0!</v>
+        <v>0.25</v>
       </c>
       <c r="Z55" s="36" t="s">
         <v>93</v>
@@ -22900,17 +22760,17 @@
         <f>'Statistics LG'!A7</f>
         <v>17-July</v>
       </c>
-      <c r="T79" s="17" t="e">
+      <c r="T79" s="17">
         <f>T78+'Statistics LG'!D7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U79" s="17" t="e">
+        <v>10</v>
+      </c>
+      <c r="U79" s="17">
         <f>U78+'Statistics WW'!D7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V79" s="17" t="e">
+        <v>5</v>
+      </c>
+      <c r="V79" s="17">
         <f>V78+'Statistics 5M'!D7</f>
-        <v>#DIV/0!</v>
+        <v>9</v>
       </c>
       <c r="Z79" s="49" t="s">
         <v>69</v>
@@ -22946,17 +22806,17 @@
         <f>'Statistics LG'!A8</f>
         <v>0</v>
       </c>
-      <c r="T80" s="17" t="e">
+      <c r="T80" s="17">
         <f>T79+'Statistics LG'!D8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U80" s="17" t="e">
+        <v>10</v>
+      </c>
+      <c r="U80" s="17">
         <f>U79+'Statistics WW'!D8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V80" s="17" t="e">
+        <v>5</v>
+      </c>
+      <c r="V80" s="17">
         <f>V79+'Statistics 5M'!D8</f>
-        <v>#DIV/0!</v>
+        <v>9</v>
       </c>
       <c r="Z80" s="36" t="s">
         <v>201</v>
@@ -22992,17 +22852,17 @@
         <f>'Statistics LG'!A9</f>
         <v>0</v>
       </c>
-      <c r="T81" s="17" t="e">
+      <c r="T81" s="17">
         <f>T80+'Statistics LG'!D9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U81" s="17" t="e">
+        <v>10</v>
+      </c>
+      <c r="U81" s="17">
         <f>U80+'Statistics WW'!D9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V81" s="17" t="e">
+        <v>5</v>
+      </c>
+      <c r="V81" s="17">
         <f>V80+'Statistics 5M'!D9</f>
-        <v>#DIV/0!</v>
+        <v>9</v>
       </c>
       <c r="Z81" s="36" t="s">
         <v>128</v>
@@ -23038,17 +22898,17 @@
         <f>'Statistics LG'!A10</f>
         <v>0</v>
       </c>
-      <c r="T82" s="17" t="e">
+      <c r="T82" s="17">
         <f>T81+'Statistics LG'!D10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U82" s="17" t="e">
+        <v>10</v>
+      </c>
+      <c r="U82" s="17">
         <f>U81+'Statistics WW'!D10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V82" s="17" t="e">
+        <v>5</v>
+      </c>
+      <c r="V82" s="17">
         <f>V81+'Statistics 5M'!D10</f>
-        <v>#DIV/0!</v>
+        <v>9</v>
       </c>
       <c r="Z82" s="36" t="s">
         <v>127</v>
@@ -23084,17 +22944,17 @@
         <f>'Statistics LG'!A11</f>
         <v>0</v>
       </c>
-      <c r="T83" s="17" t="e">
+      <c r="T83" s="17">
         <f>T82+'Statistics LG'!D11</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U83" s="17" t="e">
+        <v>10</v>
+      </c>
+      <c r="U83" s="17">
         <f>U82+'Statistics WW'!D11</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V83" s="17" t="e">
+        <v>5</v>
+      </c>
+      <c r="V83" s="17">
         <f>V82+'Statistics 5M'!D11</f>
-        <v>#DIV/0!</v>
+        <v>9</v>
       </c>
       <c r="Z83" s="36" t="s">
         <v>73</v>
@@ -23130,17 +22990,17 @@
         <f>'Statistics LG'!A12</f>
         <v>0</v>
       </c>
-      <c r="T84" s="17" t="e">
+      <c r="T84" s="17">
         <f>T83+'Statistics LG'!D12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U84" s="17" t="e">
+        <v>10</v>
+      </c>
+      <c r="U84" s="17">
         <f>U83+'Statistics WW'!D12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V84" s="17" t="e">
+        <v>5</v>
+      </c>
+      <c r="V84" s="17">
         <f>V83+'Statistics 5M'!D12</f>
-        <v>#DIV/0!</v>
+        <v>9</v>
       </c>
       <c r="Z84" s="36" t="s">
         <v>74</v>
@@ -23176,17 +23036,17 @@
         <f>'Statistics LG'!A13</f>
         <v>0</v>
       </c>
-      <c r="T85" s="17" t="e">
+      <c r="T85" s="17">
         <f>T84+'Statistics LG'!D13</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U85" s="17" t="e">
+        <v>10</v>
+      </c>
+      <c r="U85" s="17">
         <f>U84+'Statistics WW'!D13</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V85" s="17" t="e">
+        <v>5</v>
+      </c>
+      <c r="V85" s="17">
         <f>V84+'Statistics 5M'!D13</f>
-        <v>#DIV/0!</v>
+        <v>9</v>
       </c>
       <c r="Z85" s="49" t="s">
         <v>75</v>
@@ -23222,17 +23082,17 @@
         <f>'Statistics LG'!A14</f>
         <v>0</v>
       </c>
-      <c r="T86" s="17" t="e">
+      <c r="T86" s="17">
         <f>T85+'Statistics LG'!D14</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U86" s="17" t="e">
+        <v>10</v>
+      </c>
+      <c r="U86" s="17">
         <f>U85+'Statistics WW'!D14</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V86" s="17" t="e">
+        <v>5</v>
+      </c>
+      <c r="V86" s="17">
         <f>V85+'Statistics 5M'!D14</f>
-        <v>#DIV/0!</v>
+        <v>9</v>
       </c>
       <c r="Z86" s="68"/>
       <c r="AA86" s="32"/>
@@ -23264,17 +23124,17 @@
         <f>'Statistics LG'!A15</f>
         <v>0</v>
       </c>
-      <c r="T87" s="17" t="e">
+      <c r="T87" s="17">
         <f>T86+'Statistics LG'!D15</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U87" s="17" t="e">
+        <v>10</v>
+      </c>
+      <c r="U87" s="17">
         <f>U86+'Statistics WW'!D15</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V87" s="17" t="e">
+        <v>5</v>
+      </c>
+      <c r="V87" s="17">
         <f>V86+'Statistics 5M'!D15</f>
-        <v>#DIV/0!</v>
+        <v>9</v>
       </c>
       <c r="Z87" s="49" t="s">
         <v>166</v>
@@ -23314,17 +23174,17 @@
         <f>'Statistics LG'!A16</f>
         <v>0</v>
       </c>
-      <c r="T88" s="17" t="e">
+      <c r="T88" s="17">
         <f>T87+'Statistics LG'!D16</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U88" s="17" t="e">
+        <v>10</v>
+      </c>
+      <c r="U88" s="17">
         <f>U87+'Statistics WW'!D16</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V88" s="17" t="e">
+        <v>5</v>
+      </c>
+      <c r="V88" s="17">
         <f>V87+'Statistics 5M'!D16</f>
-        <v>#DIV/0!</v>
+        <v>9</v>
       </c>
       <c r="Z88" s="29" t="s">
         <v>84</v>
@@ -23396,17 +23256,17 @@
         <f>'Statistics LG'!A17</f>
         <v>0</v>
       </c>
-      <c r="T89" s="17" t="e">
+      <c r="T89" s="17">
         <f>T88+'Statistics LG'!D17</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U89" s="17" t="e">
+        <v>10</v>
+      </c>
+      <c r="U89" s="17">
         <f>U88+'Statistics WW'!D17</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V89" s="17" t="e">
+        <v>5</v>
+      </c>
+      <c r="V89" s="17">
         <f>V88+'Statistics 5M'!D17</f>
-        <v>#DIV/0!</v>
+        <v>9</v>
       </c>
       <c r="Z89" s="49" t="s">
         <v>45</v>
@@ -23442,17 +23302,17 @@
         <f>'Statistics LG'!A18</f>
         <v>0</v>
       </c>
-      <c r="T90" s="17" t="e">
+      <c r="T90" s="17">
         <f>T89+'Statistics LG'!D18</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U90" s="17" t="e">
+        <v>10</v>
+      </c>
+      <c r="U90" s="17">
         <f>U89+'Statistics WW'!D18</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V90" s="17" t="e">
+        <v>5</v>
+      </c>
+      <c r="V90" s="17">
         <f>V89+'Statistics 5M'!D18</f>
-        <v>#DIV/0!</v>
+        <v>9</v>
       </c>
       <c r="Z90" s="49" t="s">
         <v>49</v>
@@ -25047,12 +24907,12 @@
   </sheetData>
   <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="U109:U118 W103:W108">
-    <cfRule type="cellIs" dxfId="11" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="149" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U109:U118 W103:W108">
-    <cfRule type="cellIs" dxfId="10" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="148" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25079,7 +24939,7 @@
   <dimension ref="A1:AD1000"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="P42" sqref="P42"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -25151,15 +25011,15 @@
       </c>
       <c r="H3" s="86">
         <f>SUM(B7:B40)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I3" s="86">
         <f>SUM(C7:C40)</f>
-        <v>0</v>
-      </c>
-      <c r="J3" s="83" t="e">
+        <v>3</v>
+      </c>
+      <c r="J3" s="83">
         <f>SUM(D7:D40)</f>
-        <v>#DIV/0!</v>
+        <v>3</v>
       </c>
       <c r="L3" s="86" t="s">
         <v>88</v>
@@ -25252,19 +25112,19 @@
       </c>
       <c r="S4" s="103">
         <f>'Stats Global'!AA22</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T4" s="103">
         <f>'Stats Global'!AB22</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U4" s="103">
         <f>'Stats Global'!AC22</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V4" s="103">
         <f>'Stats Global'!AD22</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W4" s="103">
         <f>'Stats Global'!AE22</f>
@@ -25276,11 +25136,11 @@
       </c>
       <c r="Y4" s="103">
         <f>'Stats Global'!AG22</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z4" s="103">
         <f>'Stats Global'!AH22</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA4" s="103">
         <f>'Stats Global'!AJ22</f>
@@ -25334,19 +25194,19 @@
       </c>
       <c r="S5" s="103">
         <f>'Stats Global'!AA16</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5" s="103">
         <f>'Stats Global'!AB16</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U5" s="103">
         <f>'Stats Global'!AC16</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V5" s="103">
         <f>'Stats Global'!AD16</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W5" s="103">
         <f>'Stats Global'!AE16</f>
@@ -25416,11 +25276,11 @@
       </c>
       <c r="S6" s="103">
         <f>'Stats Global'!AA21</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6" s="103">
         <f>'Stats Global'!AB21</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U6" s="103">
         <f>'Stats Global'!AC21</f>
@@ -25432,11 +25292,11 @@
       </c>
       <c r="W6" s="103">
         <f>'Stats Global'!AE21</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X6" s="103">
         <f>'Stats Global'!AF21</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y6" s="103">
         <f>'Stats Global'!AG21</f>
@@ -25458,23 +25318,27 @@
       </c>
       <c r="B7" s="88">
         <f>'Stats Global'!F8</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C7" s="88">
         <f>'Stats Global'!G8+'Stats Global'!H8</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="88" t="e">
+        <v>3</v>
+      </c>
+      <c r="D7" s="88">
         <f>'Stats Global'!O8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E7" s="85"/>
-      <c r="F7" s="85"/>
+        <v>3</v>
+      </c>
+      <c r="E7" s="85" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="85" t="s">
+        <v>61</v>
+      </c>
       <c r="I7" s="86"/>
       <c r="J7" s="89"/>
       <c r="L7" s="90">
         <f>'Stats Global'!J8</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M7" s="90">
         <f>'Stats Global'!G8</f>
@@ -25483,11 +25347,11 @@
       <c r="N7" s="91"/>
       <c r="O7" s="90">
         <f>'Stats Global'!M8</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P7" s="90">
         <f>'Stats Global'!H8</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R7" s="89" t="s">
         <v>25</v>
@@ -25572,19 +25436,19 @@
       </c>
       <c r="S8" s="103">
         <f>'Stats Global'!AA9</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T8" s="103">
         <f>'Stats Global'!AB9</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U8" s="103">
         <f>'Stats Global'!AC9</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V8" s="103">
         <f>'Stats Global'!AD9</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W8" s="103">
         <f>'Stats Global'!AE9</f>
@@ -26872,9 +26736,9 @@
       </c>
     </row>
     <row r="41" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C41" s="132" t="e">
+      <c r="C41" s="132">
         <f>SUM(B7:B40)/SUM(B7:C40)</f>
-        <v>#DIV/0!</v>
+        <v>0.72727272727272729</v>
       </c>
       <c r="J41" s="89"/>
       <c r="K41" s="86" t="s">
@@ -26882,7 +26746,7 @@
       </c>
       <c r="L41" s="107">
         <f>SUM(L7:L40)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M41" s="107">
         <f>SUM(M7:M40)</f>
@@ -26891,27 +26755,27 @@
       <c r="N41" s="89"/>
       <c r="O41" s="107">
         <f>SUM(O7:O40)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P41" s="107">
         <f>SUM(P7:P40)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="L42" s="98" t="e">
+      <c r="L42" s="98">
         <f>L41/(M41+L41)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O42" s="98" t="e">
+        <v>1</v>
+      </c>
+      <c r="O42" s="98">
         <f>O41/(P41+O41)</f>
-        <v>#DIV/0!</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="43" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I43" s="99" t="str">
         <f>K43&amp;H3&amp;","&amp;I3&amp;"],"</f>
-        <v>"PartA":[0,0],</v>
+        <v>"PartA":[8,3],</v>
       </c>
       <c r="K43" s="81" t="s">
         <v>135</v>
@@ -26921,90 +26785,90 @@
       </c>
       <c r="O43" s="100">
         <f>ROUND((SUM('Stats Global'!AA8,'Stats Global'!AA9,'Stats Global'!AA16,'Stats Global'!AA21,'Stats Global'!AA22))/'Stats Global'!AA6,1)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I44" s="81" t="str">
         <f>K44&amp;M44&amp;","&amp;CHAR(34)&amp;N44&amp;CHAR(34)&amp;","&amp;M45&amp;","&amp;CHAR(34)&amp;N45&amp;CHAR(34)&amp;","&amp;M46&amp;","&amp;CHAR(34)&amp;N46&amp;CHAR(34)&amp;","&amp;M47&amp;","&amp;CHAR(34)&amp;N47&amp;CHAR(34)&amp;"],"</f>
-        <v>"PartB":[0,"N/A",0,"N/A",0,"N/A",0,"N/A"],</v>
+        <v>"PartB":[5,"Angus Walker",3,"Angus Walker",1,"Christopher Tomkinson",1,"Angus Walker"],</v>
       </c>
       <c r="K44" s="81" t="s">
         <v>136</v>
       </c>
       <c r="M44" s="101">
         <f>MAX(Table1114[Points])</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N44" s="81" t="str">
         <f>IF(M44&lt;&gt;0,IF(M44=S4,R4,IF(M44=S5,R5,IF(S6=M44,R6,IF(S7=M44,R7,R8)))),"N/A")</f>
-        <v>N/A</v>
+        <v>Angus Walker</v>
       </c>
       <c r="O44" s="100">
         <f>ROUND(SUM('Stats Global'!AC8,'Stats Global'!AC9,'Stats Global'!AC16,'Stats Global'!AC21,'Stats Global'!AC22)/'Stats Global'!AA6,1)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I45" s="81" t="str">
         <f>K45&amp;O43&amp;","&amp;O44&amp;","&amp;O45&amp;","&amp;O46&amp;","&amp;O47&amp;","&amp;O48&amp;"],"</f>
-        <v>"PartC":[0,0,0,0,0,0],</v>
+        <v>"PartC":[9,6,1,1,8,3],</v>
       </c>
       <c r="K45" s="81" t="s">
         <v>137</v>
       </c>
       <c r="M45" s="101">
         <f>MAX(Table1114[Finishes])</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N45" s="108" t="str">
         <f>IF(M45&lt;&gt;0,IF(M45=U4,R4,IF(M45=U5,R5,IF(U6=M45,R6,IF(U7=M45,R7,R8)))),"N/A")</f>
-        <v>N/A</v>
+        <v>Angus Walker</v>
       </c>
       <c r="O45" s="100">
         <f>ROUND(SUM('Stats Global'!AE8,'Stats Global'!AE9,'Stats Global'!AE16,'Stats Global'!AE21,'Stats Global'!AE22)/'Stats Global'!AA6,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I46" s="81" t="e">
+      <c r="I46" s="81" t="str">
         <f>K46&amp;L41&amp;","&amp;M41&amp;","&amp;ROUND(L42*100,1)&amp;","&amp;O41&amp;","&amp;P41&amp;","&amp;ROUND(O42*100,1)&amp;"],"</f>
-        <v>#DIV/0!</v>
+        <v>"PartD":[5,0,100,3,3,50],</v>
       </c>
       <c r="K46" s="81" t="s">
         <v>138</v>
       </c>
       <c r="M46" s="101">
         <f>MAX(Table1114[Midranges])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N46" s="108" t="str">
         <f>IF(M46&lt;&gt;0,IF(M46=W4,R4,IF(M46=W5,R5,IF(W6=M46,R6,IF(W7=M46,R7,R8)))),"N/A")</f>
-        <v>N/A</v>
+        <v>Christopher Tomkinson</v>
       </c>
       <c r="O46" s="100">
         <f>ROUND(SUM('Stats Global'!AG8,'Stats Global'!AG9,'Stats Global'!AG16,'Stats Global'!AG21,'Stats Global'!AG22)/'Stats Global'!AA6,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="M47" s="101">
         <f>MAX(Table1114[Threes])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N47" s="81" t="str">
         <f>IF(M47&lt;&gt;0,IF(M47=Y4,R4,IF(M47=Y5,R5,IF(Y6=M47,R6,IF(Y7=M47,R7,R8)))),"N/A")</f>
-        <v>N/A</v>
+        <v>Angus Walker</v>
       </c>
       <c r="O47" s="81">
         <f>ROUND(H3/'Stats Global'!AA6,1)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="O48" s="81">
         <f>ROUND(I3/'Stats Global'!AA6,1)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -27974,7 +27838,7 @@
   <dimension ref="A1:X1000"/>
   <sheetViews>
     <sheetView zoomScale="76" workbookViewId="0">
-      <selection activeCell="M42" sqref="M42"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -28089,15 +27953,15 @@
       </c>
       <c r="H4" s="86">
         <f>SUM(B7:B40)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" s="86">
         <f>SUM(C7:C40)</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="83" t="e">
+        <v>5</v>
+      </c>
+      <c r="J4" s="83">
         <f>SUM(D7:D40)</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="L4" s="138">
         <f>'Stats Global'!N5</f>
@@ -28292,7 +28156,7 @@
       </c>
       <c r="X6" s="103">
         <f>'Stats Global'!AJ13</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -28302,23 +28166,27 @@
       </c>
       <c r="B7" s="88">
         <f>'Stats Global'!I8</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C7" s="88">
         <f>'Stats Global'!J8+'Stats Global'!K8</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="88" t="e">
+        <v>5</v>
+      </c>
+      <c r="D7" s="88">
         <f>'Stats Global'!P8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E7" s="85"/>
-      <c r="F7" s="85"/>
+        <v>1</v>
+      </c>
+      <c r="E7" s="85" t="s">
+        <v>208</v>
+      </c>
+      <c r="F7" s="85" t="s">
+        <v>52</v>
+      </c>
       <c r="I7" s="86"/>
       <c r="J7" s="89"/>
       <c r="L7" s="90">
         <f>'Stats Global'!N8</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M7" s="90">
         <f>'Stats Global'!K8</f>
@@ -28330,11 +28198,11 @@
       </c>
       <c r="P7" s="103">
         <f>'Stats Global'!AA18</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q7" s="103">
         <f>'Stats Global'!AB18</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R7" s="103">
         <f>'Stats Global'!AC18</f>
@@ -28346,11 +28214,11 @@
       </c>
       <c r="T7" s="103">
         <f>'Stats Global'!AE18</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U7" s="103">
         <f>'Stats Global'!AF18</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V7" s="103">
         <f>'Stats Global'!AG18</f>
@@ -29542,9 +29410,9 @@
       </c>
     </row>
     <row r="41" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C41" s="132" t="e">
+      <c r="C41" s="132">
         <f>SUM(B7:B40)/SUM(B7:C40)</f>
-        <v>#DIV/0!</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="J41" s="89"/>
       <c r="K41" s="81" t="s">
@@ -29552,7 +29420,7 @@
       </c>
       <c r="L41" s="107">
         <f>SUM(L7:L40)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M41" s="107">
         <f>SUM(M7:M40)</f>
@@ -29563,16 +29431,16 @@
       <c r="P41" s="58"/>
     </row>
     <row r="42" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="L42" s="98" t="e">
+      <c r="L42" s="98">
         <f>L41/(M41+L41)</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="P42" s="58"/>
     </row>
     <row r="43" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="J43" s="99" t="str">
         <f>L43&amp;H4&amp;","&amp;I4&amp;"],"</f>
-        <v>"PartA":[0,0],</v>
+        <v>"PartA":[2,5],</v>
       </c>
       <c r="K43" s="86"/>
       <c r="L43" s="81" t="s">
@@ -29583,24 +29451,24 @@
       </c>
       <c r="P43" s="100">
         <f>ROUND(SUM('Stats Global'!AA11,'Stats Global'!AA12,'Stats Global'!AA13,'Stats Global'!AA15,'Stats Global'!AA19,'Stats Global'!AA18,'Stats Global'!AA23)/'Stats Global'!AA6,1)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="J44" s="81" t="str">
         <f>L44&amp;N44&amp;","&amp;CHAR(34)&amp;O44&amp;CHAR(34)&amp;","&amp;N45&amp;","&amp;CHAR(34)&amp;O45&amp;CHAR(34)&amp;","&amp;N46&amp;","&amp;CHAR(34)&amp;O46&amp;CHAR(34)&amp;","&amp;N47&amp;","&amp;CHAR(34)&amp;O47&amp;CHAR(34)&amp;"],"</f>
-        <v>"PartB":[0,"N/A",0,"N/A",0,"N/A",0,"N/A"],</v>
+        <v>"PartB":[2,"Ryan Pattemore",0,"N/A",2,"Ryan Pattemore",0,"N/A"],</v>
       </c>
       <c r="L44" s="81" t="s">
         <v>136</v>
       </c>
       <c r="N44" s="101">
         <f>MAX(Table1113[Points])</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O44" s="81" t="str">
         <f>IF(N44&lt;&gt;0,IF(N44=P4,O4,IF(N44=P5,O5,IF(P6=N44,O6,IF(P7=N44,O7,IF(P8=N44,O8,IF(P9=N44,O9,O10)))))),"N/A")</f>
-        <v>N/A</v>
+        <v>Ryan Pattemore</v>
       </c>
       <c r="P44" s="100">
         <f>ROUND(SUM('Stats Global'!AC11,'Stats Global'!AC12,'Stats Global'!AC13,'Stats Global'!AC15,'Stats Global'!AC19,'Stats Global'!AC18,'Stats Global'!AC23)/'Stats Global'!AA6,1)</f>
@@ -29610,7 +29478,7 @@
     <row r="45" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="J45" s="81" t="str">
         <f>L45&amp;P43&amp;","&amp;P44&amp;","&amp;P45&amp;","&amp;P46&amp;","&amp;P47&amp;","&amp;P48&amp;"],"</f>
-        <v>"PartC":[0,0,0,0,0,0],</v>
+        <v>"PartC":[2,0,2,0,2,5],</v>
       </c>
       <c r="L45" s="81" t="s">
         <v>137</v>
@@ -29625,24 +29493,24 @@
       </c>
       <c r="P45" s="100">
         <f>ROUND(SUM('Stats Global'!AE11,'Stats Global'!AE12,'Stats Global'!AE13,'Stats Global'!AE15,'Stats Global'!AE19,'Stats Global'!AE18,'Stats Global'!AE23)/'Stats Global'!AA6,1)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="J46" s="81" t="e">
+      <c r="J46" s="81" t="str">
         <f>L46&amp;'Statistics LG'!M41&amp;","&amp;'Statistics LG'!L41&amp;","&amp;ROUND((1-'Statistics LG'!L42)*100,1)&amp;","&amp;L41&amp;","&amp;M41&amp;","&amp;ROUND(L42*100,1)&amp;"],"</f>
-        <v>#DIV/0!</v>
+        <v>"PartD":[0,5,0,2,0,100],</v>
       </c>
       <c r="L46" s="81" t="s">
         <v>138</v>
       </c>
       <c r="N46" s="101">
         <f>MAX(Table1113[Midranges])</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O46" s="81" t="str">
         <f>IF(N46&lt;&gt;0,IF(N46=T4,O4,IF(N46=T5,O5,IF(T6=N46,O6,IF(T7=N46,O7,IF(T8=N46,O8,IF(T9=N46,O9,O10)))))),"N/A")</f>
-        <v>N/A</v>
+        <v>Ryan Pattemore</v>
       </c>
       <c r="P46" s="100">
         <f>ROUND(SUM('Stats Global'!AG11,'Stats Global'!AG12,'Stats Global'!AG13,'Stats Global'!AG15,'Stats Global'!AG19,'Stats Global'!AG18,'Stats Global'!AG23)/'Stats Global'!AA6,1)</f>
@@ -29660,13 +29528,13 @@
       </c>
       <c r="P47" s="81">
         <f>ROUND(H4/'Stats Global'!AA6,1)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P48" s="81">
         <f>ROUND(I4/'Stats Global'!AA6,1)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -30635,8 +30503,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -30729,15 +30597,15 @@
       </c>
       <c r="H4" s="86">
         <f>SUM(B7:B40)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I4" s="86">
         <f>SUM(C7:C40)</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="83" t="e">
+        <v>5</v>
+      </c>
+      <c r="J4" s="83">
         <f>SUM(D7:D40)</f>
-        <v>#DIV/0!</v>
+        <v>2</v>
       </c>
       <c r="K4" s="89"/>
       <c r="L4" s="109" t="s">
@@ -30803,11 +30671,11 @@
       </c>
       <c r="M5" s="103">
         <f>'Stats Global'!AA17</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N5" s="103">
         <f>'Stats Global'!AB17</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O5" s="103">
         <f>'Stats Global'!AC17</f>
@@ -30819,19 +30687,19 @@
       </c>
       <c r="Q5" s="103">
         <f>'Stats Global'!AE17</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" s="103">
         <f>'Stats Global'!AF17</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S5" s="103">
         <f>'Stats Global'!AG17</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5" s="103">
         <f>'Stats Global'!AH17</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U5" s="103">
         <f>'Stats Global'!AJ17</f>
@@ -30917,18 +30785,22 @@
       </c>
       <c r="B7" s="88">
         <f>'Stats Global'!L8</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C7" s="88">
         <f>'Stats Global'!M8+'Stats Global'!N8</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="88" t="e">
+        <v>5</v>
+      </c>
+      <c r="D7" s="88">
         <f>'Stats Global'!Q8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E7" s="85"/>
-      <c r="F7" s="85"/>
+        <v>2</v>
+      </c>
+      <c r="E7" s="85" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="85" t="s">
+        <v>208</v>
+      </c>
       <c r="H7" s="86"/>
       <c r="I7" s="102"/>
       <c r="K7" s="89"/>
@@ -30937,19 +30809,19 @@
       </c>
       <c r="M7" s="103">
         <f>'Stats Global'!AA20</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" s="103">
         <f>'Stats Global'!AB20</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7" s="103">
         <f>'Stats Global'!AC20</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" s="103">
         <f>'Stats Global'!AD20</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="103">
         <f>'Stats Global'!AE20</f>
@@ -31099,7 +30971,7 @@
       </c>
       <c r="U9" s="103">
         <f>'Stats Global'!AJ24</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V9" s="89"/>
       <c r="W9" s="89"/>
@@ -31849,7 +31721,7 @@
       <c r="J32" s="86"/>
       <c r="K32" s="99" t="str">
         <f>M32&amp;H4&amp;","&amp;I4&amp;"],"</f>
-        <v>"PartA":[0,0],</v>
+        <v>"PartA":[3,5],</v>
       </c>
       <c r="L32" s="86"/>
       <c r="M32" s="81" t="s">
@@ -31860,7 +31732,7 @@
       </c>
       <c r="Q32" s="100">
         <f>ROUND(SUM('Stats Global'!AA10,'Stats Global'!AA14,'Stats Global'!AA17,'Stats Global'!AA20,'Stats Global'!AA24)/'Stats Global'!AA6,1)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -31884,22 +31756,22 @@
       <c r="F33" s="85"/>
       <c r="K33" s="81" t="str">
         <f>M33&amp;O33&amp;","&amp;CHAR(34)&amp;P33&amp;CHAR(34)&amp;","&amp;O34&amp;","&amp;CHAR(34)&amp;P34&amp;CHAR(34)&amp;","&amp;O35&amp;","&amp;CHAR(34)&amp;P35&amp;CHAR(34)&amp;","&amp;O36&amp;","&amp;CHAR(34)&amp;P36&amp;CHAR(34)&amp;"],"</f>
-        <v>"PartB":[0,"N/A",0,"N/A",0,"N/A",0,"N/A"],</v>
+        <v>"PartB":[3,"Samuel McConaghy",1,"Nicholas Szogi",1,"Samuel McConaghy",1,"Samuel McConaghy"],</v>
       </c>
       <c r="M33" s="81" t="s">
         <v>136</v>
       </c>
       <c r="O33" s="101">
         <f>MAX(Table11[Points])</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P33" s="81" t="str">
         <f>IF(O33&lt;&gt;0,IF(O33=M5,L5,IF(O33=M6,L6,IF(M7=O33,L7,IF(M8=O33,L8,L9)))),"N/A")</f>
-        <v>N/A</v>
+        <v>Samuel McConaghy</v>
       </c>
       <c r="Q33" s="100">
         <f>ROUND(SUM('Stats Global'!AC10,'Stats Global'!AC14,'Stats Global'!AC17,'Stats Global'!AC20,'Stats Global'!AC24)/'Stats Global'!AA6,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -31923,22 +31795,22 @@
       <c r="F34" s="85"/>
       <c r="K34" s="81" t="str">
         <f>M34&amp;Q32&amp;","&amp;Q33&amp;","&amp;Q34&amp;","&amp;Q35&amp;","&amp;Q36&amp;","&amp;Q37&amp;"],"</f>
-        <v>"PartC":[0,0,0,0,0,0],</v>
+        <v>"PartC":[4,1,1,1,3,5],</v>
       </c>
       <c r="M34" s="81" t="s">
         <v>137</v>
       </c>
       <c r="O34" s="101">
         <f>MAX(Table11[Finishes])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P34" s="81" t="str">
         <f>IF(O34&lt;&gt;0,IF(O34=O5,L5,IF(O34=O6,L6,IF(O7=O34,L7,IF(O8=O34,L8,L9)))),"N/A")</f>
-        <v>N/A</v>
+        <v>Nicholas Szogi</v>
       </c>
       <c r="Q34" s="100">
         <f>ROUND(SUM('Stats Global'!AE10,'Stats Global'!AE14,'Stats Global'!AE17,'Stats Global'!AE20,'Stats Global'!AE24)/'Stats Global'!AA6,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -31960,24 +31832,24 @@
       </c>
       <c r="E35" s="85"/>
       <c r="F35" s="85"/>
-      <c r="K35" s="81" t="e">
+      <c r="K35" s="81" t="str">
         <f>M35&amp;'Statistics LG'!P41&amp;","&amp;'Statistics LG'!O41&amp;","&amp;ROUND((1-'Statistics LG'!O42)*100,1)&amp;","&amp;'Statistics WW'!M41&amp;","&amp;'Statistics WW'!L41&amp;","&amp;ROUND((1-'Statistics WW'!L42)*100,1)&amp;"],"</f>
-        <v>#DIV/0!</v>
+        <v>"PartD":[3,3,50,0,2,0],</v>
       </c>
       <c r="M35" s="81" t="s">
         <v>138</v>
       </c>
       <c r="O35" s="101">
         <f>MAX(Table11[Midranges])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P35" s="81" t="str">
         <f>IF(O35&lt;&gt;0,IF(O35=Q5,L5,IF(O35=Q6,L6,IF(Q7=O35,L7,IF(Q8=O35,L8,L9)))),"N/A")</f>
-        <v>N/A</v>
+        <v>Samuel McConaghy</v>
       </c>
       <c r="Q35" s="100">
         <f>ROUND(SUM('Stats Global'!AG10,'Stats Global'!AG14,'Stats Global'!AG17,'Stats Global'!AG20,'Stats Global'!AG24)/'Stats Global'!AA6,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -32001,15 +31873,15 @@
       <c r="F36" s="85"/>
       <c r="O36" s="101">
         <f>MAX(Table11[Threes])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P36" s="81" t="str">
         <f>IF(O36&lt;&gt;0,IF(O36=S5,L5,IF(O36=S6,L6,IF(S7=O36,L7,IF(S8=O36,L8,L9)))),"N/A")</f>
-        <v>N/A</v>
+        <v>Samuel McConaghy</v>
       </c>
       <c r="Q36" s="81">
         <f>ROUND(H4/'Stats Global'!AA6,1)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -32033,7 +31905,7 @@
       <c r="F37" s="85"/>
       <c r="Q37" s="81">
         <f>ROUND(I4/'Stats Global'!AA6,1)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -32097,9 +31969,9 @@
       <c r="F40" s="85"/>
     </row>
     <row r="41" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C41" s="132" t="e">
+      <c r="C41" s="132">
         <f>SUM(B7:B40)/SUM(B7:C40)</f>
-        <v>#DIV/0!</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="42" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -34653,18 +34525,18 @@
     <row r="41" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.9">
       <c r="R41" s="104"/>
       <c r="S41" s="104"/>
-      <c r="T41" s="140" t="s">
+      <c r="T41" s="142" t="s">
         <v>119</v>
       </c>
-      <c r="U41" s="140"/>
-      <c r="V41" s="140"/>
+      <c r="U41" s="142"/>
+      <c r="V41" s="142"/>
     </row>
     <row r="42" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.9">
       <c r="R42" s="104"/>
       <c r="S42" s="104"/>
-      <c r="T42" s="140"/>
-      <c r="U42" s="140"/>
-      <c r="V42" s="140"/>
+      <c r="T42" s="142"/>
+      <c r="U42" s="142"/>
+      <c r="V42" s="142"/>
     </row>
     <row r="43" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B43" s="17" t="s">
@@ -37363,18 +37235,18 @@
     <row r="41" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.9">
       <c r="R41" s="104"/>
       <c r="S41" s="104"/>
-      <c r="T41" s="140" t="s">
+      <c r="T41" s="142" t="s">
         <v>119</v>
       </c>
-      <c r="U41" s="140"/>
-      <c r="V41" s="140"/>
+      <c r="U41" s="142"/>
+      <c r="V41" s="142"/>
     </row>
     <row r="42" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.9">
       <c r="R42" s="104"/>
       <c r="S42" s="104"/>
-      <c r="T42" s="140"/>
-      <c r="U42" s="140"/>
-      <c r="V42" s="140"/>
+      <c r="T42" s="142"/>
+      <c r="U42" s="142"/>
+      <c r="V42" s="142"/>
     </row>
     <row r="43" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B43" s="17" t="s">
@@ -38496,7 +38368,7 @@
   <dimension ref="B1:AE1000"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="V10" sqref="V10"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -38552,11 +38424,11 @@
       <c r="V2" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="X2" s="141" t="s">
+      <c r="X2" s="143" t="s">
         <v>219</v>
       </c>
-      <c r="Y2" s="141"/>
-      <c r="Z2" s="141"/>
+      <c r="Y2" s="143"/>
+      <c r="Z2" s="143"/>
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
       <c r="AE2" s="2"/>
@@ -38591,19 +38463,19 @@
       </c>
       <c r="L3" s="12">
         <f>COUNTIF(C3:C40, "Loose Gooses")</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M3" s="12">
         <f>COUNTIF(D3:D40, "Loose Gooses")</f>
-        <v>0</v>
-      </c>
-      <c r="N3" s="11" t="e">
+        <v>3</v>
+      </c>
+      <c r="N3" s="11">
         <f>L3/(L3+M3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O3" s="12" t="e">
+        <v>0.72727272727272729</v>
+      </c>
+      <c r="O3" s="12">
         <f>IF(AND(N3&gt;N4, N3&gt;N5), 3, IF(OR(N3&gt;N4, N3&gt;N5), 2, 1))</f>
-        <v>#DIV/0!</v>
+        <v>3</v>
       </c>
       <c r="Q3" s="2" t="s">
         <v>25</v>
@@ -38639,43 +38511,59 @@
       <c r="AB3" s="2"/>
     </row>
     <row r="4" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
+      <c r="B4" s="26">
+        <v>1</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="G4" s="26">
+        <v>1</v>
+      </c>
+      <c r="H4" s="26">
+        <v>1</v>
+      </c>
+      <c r="I4" s="26">
+        <v>1</v>
+      </c>
       <c r="K4" s="12" t="s">
         <v>110</v>
       </c>
       <c r="L4" s="12">
         <f>COUNTIF(C3:C40, "5 Musketeers")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M4" s="12">
         <f>COUNTIF(D3:D40, "5 Musketeers")</f>
-        <v>0</v>
-      </c>
-      <c r="N4" s="11" t="e">
+        <v>5</v>
+      </c>
+      <c r="N4" s="11">
         <f t="shared" ref="N4:N5" si="4">L4/(L4+M4)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O4" s="12" t="e">
+        <v>0.375</v>
+      </c>
+      <c r="O4" s="12">
         <f>IF(AND(N4&gt;N3, N4&gt;N5), 3, IF(OR(N4&gt;N3, N4&gt;N5), 2, 1))</f>
-        <v>#DIV/0!</v>
+        <v>2</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>28</v>
       </c>
       <c r="R4" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S4" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T4" s="10">
         <f t="shared" si="2"/>
@@ -38690,7 +38578,7 @@
       </c>
       <c r="X4" s="54" t="str">
         <f t="shared" ref="X4:X39" si="5">IF(AND(C4="Loose Gooses",D4="Wet Willies"),"LG/WW", IF(AND(C4="Loose Gooses",D4="5 Musketeers"),"LG/5M", ""))</f>
-        <v/>
+        <v>LG/5M</v>
       </c>
       <c r="Y4" s="54" t="str">
         <f t="shared" ref="Y4:Y39" si="6">IF(AND(C4="Wet Willies",D4="Loose Gooses"),"WW/LG", IF(AND(C4="Wet Willies",D4="5 Musketeers"),"WW/5M", ""))</f>
@@ -38703,32 +38591,48 @@
       <c r="AB4" s="2"/>
     </row>
     <row r="5" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
+      <c r="B5" s="26">
+        <v>2</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="G5" s="26">
+        <v>2</v>
+      </c>
+      <c r="H5" s="26">
+        <v>1</v>
+      </c>
+      <c r="I5" s="26">
+        <v>1</v>
+      </c>
       <c r="K5" s="12" t="s">
         <v>109</v>
       </c>
       <c r="L5" s="12">
         <f>COUNTIF(C3:C40, "Wet Willies")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M5" s="12">
         <f>COUNTIF(D3:D40, "Wet Willies")</f>
-        <v>0</v>
-      </c>
-      <c r="N5" s="11" t="e">
+        <v>5</v>
+      </c>
+      <c r="N5" s="11">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O5" s="12" t="e">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="O5" s="12">
         <f>IF(AND(N5&gt;N4, N5&gt;N3), 3, IF(OR(N5&gt;N4, N5&gt;N3), 2, 1))</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="2" t="s">
         <v>30</v>
@@ -38754,7 +38658,7 @@
       </c>
       <c r="X5" s="54" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>LG/WW</v>
       </c>
       <c r="Y5" s="54" t="str">
         <f t="shared" si="6"/>
@@ -38767,14 +38671,30 @@
       <c r="AB5" s="2"/>
     </row>
     <row r="6" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
+      <c r="B6" s="26">
+        <v>3</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="G6" s="26">
+        <v>1</v>
+      </c>
+      <c r="H6" s="26">
+        <v>1</v>
+      </c>
+      <c r="I6" s="26">
+        <v>1</v>
+      </c>
       <c r="Q6" s="2" t="s">
         <v>35</v>
       </c>
@@ -38807,19 +38727,35 @@
       </c>
       <c r="Z6" s="54" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>5M/LG</v>
       </c>
       <c r="AB6" s="2"/>
     </row>
     <row r="7" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
+      <c r="B7" s="26">
+        <v>4</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="G7" s="26">
+        <v>1</v>
+      </c>
+      <c r="H7" s="26">
+        <v>1</v>
+      </c>
+      <c r="I7" s="26">
+        <v>1</v>
+      </c>
       <c r="Q7" s="2" t="s">
         <v>37</v>
       </c>
@@ -38848,7 +38784,7 @@
       </c>
       <c r="Y7" s="54" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>WW/5M</v>
       </c>
       <c r="Z7" s="54" t="str">
         <f t="shared" si="7"/>
@@ -38857,14 +38793,30 @@
       <c r="AB7" s="2"/>
     </row>
     <row r="8" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
+      <c r="B8" s="26">
+        <v>5</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" s="26">
+        <v>1</v>
+      </c>
+      <c r="H8" s="26">
+        <v>1</v>
+      </c>
+      <c r="I8" s="26">
+        <v>1</v>
+      </c>
       <c r="Q8" s="2" t="s">
         <v>42</v>
       </c>
@@ -38885,11 +38837,11 @@
         <v>0</v>
       </c>
       <c r="V8" s="27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X8" s="54" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>LG/WW</v>
       </c>
       <c r="Y8" s="54" t="str">
         <f t="shared" si="6"/>
@@ -38902,14 +38854,30 @@
       <c r="AB8" s="2"/>
     </row>
     <row r="9" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
+      <c r="B9" s="26">
+        <v>6</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="G9" s="26">
+        <v>1</v>
+      </c>
+      <c r="H9" s="26">
+        <v>1</v>
+      </c>
+      <c r="I9" s="26">
+        <v>1</v>
+      </c>
       <c r="Q9" s="17" t="s">
         <v>115</v>
       </c>
@@ -38942,18 +38910,34 @@
       </c>
       <c r="Z9" s="54" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>5M/LG</v>
       </c>
     </row>
     <row r="10" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
+      <c r="B10" s="26">
+        <v>7</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" s="26">
+        <v>1</v>
+      </c>
+      <c r="H10" s="26">
+        <v>1</v>
+      </c>
+      <c r="I10" s="26">
+        <v>1</v>
+      </c>
       <c r="Q10" s="2" t="s">
         <v>44</v>
       </c>
@@ -38982,7 +38966,7 @@
       </c>
       <c r="Y10" s="54" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>WW/5M</v>
       </c>
       <c r="Z10" s="54" t="str">
         <f t="shared" si="7"/>
@@ -38991,24 +38975,40 @@
       <c r="AB10" s="2"/>
     </row>
     <row r="11" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
+      <c r="B11" s="26">
+        <v>8</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="G11" s="26">
+        <v>1</v>
+      </c>
+      <c r="H11" s="26">
+        <v>1</v>
+      </c>
+      <c r="I11" s="26">
+        <v>1</v>
+      </c>
       <c r="Q11" s="2" t="s">
         <v>46</v>
       </c>
       <c r="R11" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S11" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T11" s="10">
         <f t="shared" si="2"/>
@@ -39023,7 +39023,7 @@
       </c>
       <c r="X11" s="54" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>LG/WW</v>
       </c>
       <c r="Y11" s="54" t="str">
         <f t="shared" si="6"/>
@@ -39036,20 +39036,36 @@
       <c r="AB11" s="2"/>
     </row>
     <row r="12" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
+      <c r="B12" s="26">
+        <v>9</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="G12" s="26">
+        <v>2</v>
+      </c>
+      <c r="H12" s="26">
+        <v>2</v>
+      </c>
+      <c r="I12" s="26">
+        <v>2</v>
+      </c>
       <c r="Q12" s="2" t="s">
         <v>50</v>
       </c>
       <c r="R12" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S12" s="10">
         <f t="shared" si="1"/>
@@ -39057,18 +39073,18 @@
       </c>
       <c r="T12" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U12" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V12" s="27" t="b">
         <v>0</v>
       </c>
       <c r="X12" s="54" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>LG/5M</v>
       </c>
       <c r="Y12" s="54" t="str">
         <f t="shared" si="6"/>
@@ -39081,20 +39097,36 @@
       <c r="AB12" s="2"/>
     </row>
     <row r="13" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
+      <c r="B13" s="26">
+        <v>10</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="G13" s="26">
+        <v>3</v>
+      </c>
+      <c r="H13" s="26">
+        <v>2</v>
+      </c>
+      <c r="I13" s="26">
+        <v>1</v>
+      </c>
       <c r="Q13" s="2" t="s">
         <v>52</v>
       </c>
       <c r="R13" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S13" s="10">
         <f t="shared" si="1"/>
@@ -39102,7 +39134,7 @@
       </c>
       <c r="T13" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U13" s="10">
         <f t="shared" si="3"/>
@@ -39113,7 +39145,7 @@
       </c>
       <c r="X13" s="54" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>LG/WW</v>
       </c>
       <c r="Y13" s="54" t="str">
         <f t="shared" si="6"/>
@@ -39126,14 +39158,30 @@
       <c r="AB13" s="2"/>
     </row>
     <row r="14" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
+      <c r="B14" s="26">
+        <v>11</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="G14" s="26">
+        <v>4</v>
+      </c>
+      <c r="H14" s="26">
+        <v>3</v>
+      </c>
+      <c r="I14" s="26">
+        <v>1</v>
+      </c>
       <c r="Q14" s="2" t="s">
         <v>201</v>
       </c>
@@ -39158,7 +39206,7 @@
       </c>
       <c r="X14" s="54" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>LG/5M</v>
       </c>
       <c r="Y14" s="54" t="str">
         <f t="shared" si="6"/>
@@ -39171,24 +39219,40 @@
       <c r="AB14" s="2"/>
     </row>
     <row r="15" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
+      <c r="B15" s="26">
+        <v>12</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="G15" s="26">
+        <v>5</v>
+      </c>
+      <c r="H15" s="26">
+        <v>3</v>
+      </c>
+      <c r="I15" s="26">
+        <v>1</v>
+      </c>
       <c r="Q15" s="2" t="s">
         <v>55</v>
       </c>
       <c r="R15" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S15" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15" s="10">
         <f t="shared" si="2"/>
@@ -39203,7 +39267,7 @@
       </c>
       <c r="X15" s="54" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>LG/WW</v>
       </c>
       <c r="Y15" s="54" t="str">
         <f t="shared" si="6"/>
@@ -39216,20 +39280,36 @@
       <c r="AB15" s="2"/>
     </row>
     <row r="16" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
+      <c r="B16" s="26">
+        <v>13</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="G16" s="26">
+        <v>1</v>
+      </c>
+      <c r="H16" s="26">
+        <v>1</v>
+      </c>
+      <c r="I16" s="26">
+        <v>1</v>
+      </c>
       <c r="Q16" s="2" t="s">
         <v>58</v>
       </c>
       <c r="R16" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S16" s="10">
         <f t="shared" si="1"/>
@@ -39237,7 +39317,7 @@
       </c>
       <c r="T16" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U16" s="10">
         <f t="shared" si="3"/>
@@ -39256,7 +39336,7 @@
       </c>
       <c r="Z16" s="54" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>5M/LG</v>
       </c>
       <c r="AB16" s="2"/>
     </row>
@@ -39274,11 +39354,11 @@
       </c>
       <c r="R17" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S17" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T17" s="10">
         <f t="shared" si="2"/>
@@ -39286,7 +39366,7 @@
       </c>
       <c r="U17" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V17" s="27" t="b">
         <v>0</v>
@@ -39379,7 +39459,7 @@
         <v>0</v>
       </c>
       <c r="V19" s="27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X19" s="54" t="str">
         <f t="shared" si="5"/>
@@ -39510,11 +39590,11 @@
       <c r="I24" s="26"/>
       <c r="R24" s="17" t="str">
         <f t="shared" ref="R24:U38" si="9">IF($V4, CHAR(34)&amp;"Did not Play"&amp;CHAR(34), R4)&amp;","</f>
-        <v>0,</v>
+        <v>2,</v>
       </c>
       <c r="S24" s="17" t="str">
         <f t="shared" si="9"/>
-        <v>0,</v>
+        <v>2,</v>
       </c>
       <c r="T24" s="17" t="str">
         <f t="shared" si="9"/>
@@ -39664,19 +39744,19 @@
       <c r="I28" s="26"/>
       <c r="R28" s="17" t="str">
         <f t="shared" si="9"/>
-        <v>0,</v>
+        <v>"Did not Play",</v>
       </c>
       <c r="S28" s="17" t="str">
         <f t="shared" si="9"/>
-        <v>0,</v>
+        <v>"Did not Play",</v>
       </c>
       <c r="T28" s="17" t="str">
         <f t="shared" si="9"/>
-        <v>0,</v>
+        <v>"Did not Play",</v>
       </c>
       <c r="U28" s="17" t="str">
         <f t="shared" si="9"/>
-        <v>0,</v>
+        <v>"Did not Play",</v>
       </c>
       <c r="X28" s="54" t="str">
         <f t="shared" si="5"/>
@@ -39778,11 +39858,11 @@
       <c r="I31" s="26"/>
       <c r="R31" s="17" t="str">
         <f t="shared" si="9"/>
-        <v>0,</v>
+        <v>1,</v>
       </c>
       <c r="S31" s="17" t="str">
         <f t="shared" si="9"/>
-        <v>0,</v>
+        <v>1,</v>
       </c>
       <c r="T31" s="17" t="str">
         <f t="shared" si="9"/>
@@ -39816,7 +39896,7 @@
       <c r="I32" s="26"/>
       <c r="R32" s="17" t="str">
         <f t="shared" si="9"/>
-        <v>0,</v>
+        <v>3,</v>
       </c>
       <c r="S32" s="17" t="str">
         <f t="shared" si="9"/>
@@ -39824,11 +39904,11 @@
       </c>
       <c r="T32" s="17" t="str">
         <f t="shared" si="9"/>
-        <v>0,</v>
+        <v>1,</v>
       </c>
       <c r="U32" s="17" t="str">
         <f t="shared" si="9"/>
-        <v>0,</v>
+        <v>1,</v>
       </c>
       <c r="X32" s="54" t="str">
         <f t="shared" si="5"/>
@@ -39854,7 +39934,7 @@
       <c r="I33" s="26"/>
       <c r="R33" s="17" t="str">
         <f t="shared" si="9"/>
-        <v>0,</v>
+        <v>2,</v>
       </c>
       <c r="S33" s="17" t="str">
         <f t="shared" si="9"/>
@@ -39862,7 +39942,7 @@
       </c>
       <c r="T33" s="17" t="str">
         <f t="shared" si="9"/>
-        <v>0,</v>
+        <v>2,</v>
       </c>
       <c r="U33" s="17" t="str">
         <f t="shared" si="9"/>
@@ -39930,11 +40010,11 @@
       <c r="I35" s="26"/>
       <c r="R35" s="17" t="str">
         <f t="shared" si="9"/>
-        <v>0,</v>
+        <v>1,</v>
       </c>
       <c r="S35" s="17" t="str">
         <f t="shared" si="9"/>
-        <v>0,</v>
+        <v>1,</v>
       </c>
       <c r="T35" s="17" t="str">
         <f t="shared" si="9"/>
@@ -39968,7 +40048,7 @@
       <c r="I36" s="26"/>
       <c r="R36" s="17" t="str">
         <f t="shared" si="9"/>
-        <v>0,</v>
+        <v>1,</v>
       </c>
       <c r="S36" s="17" t="str">
         <f t="shared" si="9"/>
@@ -39976,7 +40056,7 @@
       </c>
       <c r="T36" s="17" t="str">
         <f t="shared" si="9"/>
-        <v>0,</v>
+        <v>1,</v>
       </c>
       <c r="U36" s="17" t="str">
         <f t="shared" si="9"/>
@@ -40006,11 +40086,11 @@
       <c r="I37" s="26"/>
       <c r="R37" s="17" t="str">
         <f t="shared" si="9"/>
-        <v>0,</v>
+        <v>5,</v>
       </c>
       <c r="S37" s="17" t="str">
         <f t="shared" si="9"/>
-        <v>0,</v>
+        <v>3,</v>
       </c>
       <c r="T37" s="17" t="str">
         <f t="shared" si="9"/>
@@ -40018,7 +40098,7 @@
       </c>
       <c r="U37" s="17" t="str">
         <f t="shared" si="9"/>
-        <v>0,</v>
+        <v>1,</v>
       </c>
       <c r="X37" s="54" t="str">
         <f t="shared" si="5"/>
@@ -40080,21 +40160,21 @@
       <c r="G39" s="26"/>
       <c r="H39" s="26"/>
       <c r="I39" s="26"/>
-      <c r="R39" s="17">
+      <c r="R39" s="17" t="str">
         <f>IF($V19, CHAR(34)&amp;"Did not Play"&amp;CHAR(34), R19)</f>
-        <v>0</v>
-      </c>
-      <c r="S39" s="17">
+        <v>"Did not Play"</v>
+      </c>
+      <c r="S39" s="17" t="str">
         <f>IF($V19, CHAR(34)&amp;"Did not Play"&amp;CHAR(34), S19)</f>
-        <v>0</v>
-      </c>
-      <c r="T39" s="17">
+        <v>"Did not Play"</v>
+      </c>
+      <c r="T39" s="17" t="str">
         <f>IF($V19, CHAR(34)&amp;"Did not Play"&amp;CHAR(34), T19)</f>
-        <v>0</v>
-      </c>
-      <c r="U39" s="17">
+        <v>"Did not Play"</v>
+      </c>
+      <c r="U39" s="17" t="str">
         <f>IF($V19, CHAR(34)&amp;"Did not Play"&amp;CHAR(34), U19)</f>
-        <v>0</v>
+        <v>"Did not Play"</v>
       </c>
       <c r="X39" s="54" t="str">
         <f t="shared" si="5"/>
@@ -40133,11 +40213,11 @@
       <c r="I41" s="26"/>
       <c r="R41" s="104"/>
       <c r="S41" s="104"/>
-      <c r="T41" s="140" t="s">
+      <c r="T41" s="142" t="s">
         <v>119</v>
       </c>
-      <c r="U41" s="140"/>
-      <c r="V41" s="140"/>
+      <c r="U41" s="142"/>
+      <c r="V41" s="142"/>
     </row>
     <row r="42" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.9">
       <c r="B42" s="26"/>
@@ -40150,9 +40230,9 @@
       <c r="I42" s="26"/>
       <c r="R42" s="104"/>
       <c r="S42" s="104"/>
-      <c r="T42" s="140"/>
-      <c r="U42" s="140"/>
-      <c r="V42" s="140"/>
+      <c r="T42" s="142"/>
+      <c r="U42" s="142"/>
+      <c r="V42" s="142"/>
     </row>
     <row r="43" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B43" s="17" t="s">
@@ -40223,19 +40303,19 @@
       </c>
       <c r="C45" s="17">
         <f>MAX(L3:L5)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D45" s="17">
         <f>COUNT(B4:B42)-C45-E45</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E45" s="17">
         <f>MIN(L3:L5)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F45" s="17">
         <f>L3</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G45" s="17">
         <f>COUNTIF(Y4:Y39, "WW/LG")</f>
@@ -40243,15 +40323,15 @@
       </c>
       <c r="H45" s="17">
         <f>COUNTIF(Z4:Z39, "5M/LG")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I45" s="17">
         <f>L5</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J45" s="17">
         <f>COUNTIF(X4:X39, "LG/WW")</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K45" s="17">
         <f>COUNTIF(Z4:Z39, "5M/WW")</f>
@@ -40259,49 +40339,49 @@
       </c>
       <c r="L45" s="17">
         <f>L4</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M45" s="17">
         <f>COUNTIF(X4:X39, "LG/5M")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N45" s="17">
         <f>COUNTIF(Y4:Y39, "WW/5M")</f>
-        <v>0</v>
-      </c>
-      <c r="O45" s="17" t="e">
+        <v>2</v>
+      </c>
+      <c r="O45" s="17">
         <f>O3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P45" s="17" t="e">
+        <v>3</v>
+      </c>
+      <c r="P45" s="17">
         <f>O5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q45" s="17" t="e">
+        <v>1</v>
+      </c>
+      <c r="Q45" s="17">
         <f>O4</f>
-        <v>#DIV/0!</v>
+        <v>2</v>
       </c>
       <c r="T45" s="17" t="str">
         <f>CHAR(34)&amp;"Points"&amp;CHAR(34)&amp;":["&amp;R23&amp;R24&amp;R25&amp;R26&amp;R27&amp;R28&amp;R29&amp;R30&amp;R31&amp;R32&amp;R33&amp;R34&amp;R35&amp;R36&amp;R37&amp;R38&amp;R39&amp;"],"</f>
-        <v>"Points":[0,0,"Did not Play","Did not Play",0,0,0,"Did not Play",0,0,0,0,0,0,0,0,0],</v>
+        <v>"Points":[0,2,"Did not Play","Did not Play",0,"Did not Play",0,"Did not Play",1,3,2,0,1,1,5,0,"Did not Play"],</v>
       </c>
     </row>
     <row r="46" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="T46" s="17" t="str">
         <f>CHAR(34)&amp;"Finishes"&amp;CHAR(34)&amp;":["&amp;S23&amp;S24&amp;S25&amp;S26&amp;S27&amp;S28&amp;S29&amp;S30&amp;S31&amp;S32&amp;S33&amp;S34&amp;S35&amp;S36&amp;S37&amp;S38&amp;S39&amp;"],"</f>
-        <v>"Finishes":[0,0,"Did not Play","Did not Play",0,0,0,"Did not Play",0,0,0,0,0,0,0,0,0],</v>
+        <v>"Finishes":[0,2,"Did not Play","Did not Play",0,"Did not Play",0,"Did not Play",1,0,0,0,1,0,3,0,"Did not Play"],</v>
       </c>
     </row>
     <row r="47" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="T47" s="17" t="str">
         <f>CHAR(34)&amp;"Midrange"&amp;CHAR(34)&amp;":["&amp;T23&amp;T24&amp;T25&amp;T26&amp;T27&amp;T28&amp;T29&amp;T30&amp;T31&amp;T32&amp;T33&amp;T34&amp;T35&amp;T36&amp;T37&amp;T38&amp;T39&amp;"],"</f>
-        <v>"Midrange":[0,0,"Did not Play","Did not Play",0,0,0,"Did not Play",0,0,0,0,0,0,0,0,0],</v>
+        <v>"Midrange":[0,0,"Did not Play","Did not Play",0,"Did not Play",0,"Did not Play",0,1,2,0,0,1,0,0,"Did not Play"],</v>
       </c>
     </row>
     <row r="48" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="T48" s="17" t="str">
         <f>CHAR(34)&amp;"ThreePointers"&amp;CHAR(34)&amp;":["&amp;U23&amp;U24&amp;U25&amp;U26&amp;U27&amp;U28&amp;U29&amp;U30&amp;U31&amp;U32&amp;U33&amp;U34&amp;U35&amp;U36&amp;U37&amp;U38&amp;U39&amp;"]"</f>
-        <v>"ThreePointers":[0,0,"Did not Play","Did not Play",0,0,0,"Did not Play",0,0,0,0,0,0,0,0,0]</v>
+        <v>"ThreePointers":[0,0,"Did not Play","Did not Play",0,"Did not Play",0,"Did not Play",0,1,0,0,0,0,1,0,"Did not Play"]</v>
       </c>
     </row>
     <row r="49" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -43060,18 +43140,18 @@
     <row r="41" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.9">
       <c r="R41" s="104"/>
       <c r="S41" s="104"/>
-      <c r="T41" s="140" t="s">
+      <c r="T41" s="142" t="s">
         <v>119</v>
       </c>
-      <c r="U41" s="140"/>
-      <c r="V41" s="140"/>
+      <c r="U41" s="142"/>
+      <c r="V41" s="142"/>
     </row>
     <row r="42" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.9">
       <c r="R42" s="104"/>
       <c r="S42" s="104"/>
-      <c r="T42" s="140"/>
-      <c r="U42" s="140"/>
-      <c r="V42" s="140"/>
+      <c r="T42" s="142"/>
+      <c r="U42" s="142"/>
+      <c r="V42" s="142"/>
     </row>
     <row r="43" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B43" s="17" t="s">

--- a/Other Files/PastResults.xlsx
+++ b/Other Files/PastResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\011445\Documents\GitHub\LTBO\Other Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD0DDF8-9CCB-4DBF-B897-E153225EFB6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51E30113-96C3-4D85-AEA0-E606ED9BCDBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="4" xr2:uid="{1E3275F7-0219-46B7-B9B0-3246E28631A6}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" firstSheet="1" activeTab="1" xr2:uid="{1E3275F7-0219-46B7-B9B0-3246E28631A6}"/>
   </bookViews>
   <sheets>
     <sheet name="SfW" sheetId="2" r:id="rId1"/>
@@ -4974,13 +4974,13 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2.4615384615384617</c:v>
+                  <c:v>0.61538461538461542</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.92307692307692313</c:v>
+                  <c:v>0.23076923076923078</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.61538461538461542</c:v>
+                  <c:v>0.15384615384615385</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18153,8 +18153,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:AT1000"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AB8" sqref="AB8"/>
+    <sheetView tabSelected="1" topLeftCell="J7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AJ45" sqref="AJ45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -18391,8 +18391,8 @@
         <v>3</v>
       </c>
       <c r="S6" s="5">
-        <f>SUM(C8:E40)/COUNT(C5:C40)</f>
-        <v>3.25</v>
+        <f>SUM(C8:E40)/COUNT(C8:C40)</f>
+        <v>13</v>
       </c>
       <c r="T6" s="134">
         <f>AVERAGE(C8:C40)</f>
@@ -18494,15 +18494,15 @@
       </c>
       <c r="T7" s="6">
         <f>T6/$S$6</f>
-        <v>2.4615384615384617</v>
+        <v>0.61538461538461542</v>
       </c>
       <c r="U7" s="6">
         <f>U6/$S$6</f>
-        <v>0.92307692307692313</v>
+        <v>0.23076923076923078</v>
       </c>
       <c r="V7" s="6">
         <f>V6/$S$6</f>
-        <v>0.61538461538461542</v>
+        <v>0.15384615384615385</v>
       </c>
       <c r="Z7" s="21" t="s">
         <v>84</v>
@@ -30503,7 +30503,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>

--- a/Other Files/PastResults.xlsx
+++ b/Other Files/PastResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\011445\Documents\GitHub\LTBO\Other Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51E30113-96C3-4D85-AEA0-E606ED9BCDBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA5A2330-1DCB-48D3-B352-BDD5CE0190A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" firstSheet="1" activeTab="1" xr2:uid="{1E3275F7-0219-46B7-B9B0-3246E28631A6}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" firstSheet="1" activeTab="6" xr2:uid="{1E3275F7-0219-46B7-B9B0-3246E28631A6}"/>
   </bookViews>
   <sheets>
     <sheet name="SfW" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1276" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="225">
   <si>
     <t>Points</t>
   </si>
@@ -708,6 +708,15 @@
   <si>
     <t>League</t>
   </si>
+  <si>
+    <t>Rebounds</t>
+  </si>
+  <si>
+    <t>Assists</t>
+  </si>
+  <si>
+    <t>Steals</t>
+  </si>
 </sst>
 </file>
 
@@ -717,11 +726,18 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1056,26 +1072,26 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1"/>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1"/>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="16" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1083,50 +1099,50 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="16" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1137,63 +1153,66 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="16" fontId="16" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="17" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1205,19 +1224,16 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1226,76 +1242,77 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="16" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="16" fontId="16" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="17" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="16" fontId="16" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="17" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="10" fontId="20" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="21" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1303,6 +1320,26 @@
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="150">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -4731,26 +4768,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -7077,38 +7094,38 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{598ECA3B-99B4-4CAB-8F81-5D711AA5A7FC}" name="Table1" displayName="Table1" ref="Z7:AJ24" totalsRowShown="0" headerRowDxfId="147" dataDxfId="145" headerRowBorderDxfId="146" tableBorderDxfId="144" totalsRowBorderDxfId="143">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{598ECA3B-99B4-4CAB-8F81-5D711AA5A7FC}" name="Table1" displayName="Table1" ref="Z7:AJ24" totalsRowShown="0" headerRowDxfId="149" dataDxfId="147" headerRowBorderDxfId="148" tableBorderDxfId="146" totalsRowBorderDxfId="145">
   <autoFilter ref="Z7:AJ24" xr:uid="{598ECA3B-99B4-4CAB-8F81-5D711AA5A7FC}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{9B036617-5450-4894-9268-827D2E0914FF}" name="Scoring" dataDxfId="142"/>
-    <tableColumn id="2" xr3:uid="{6662CE93-E9C4-47DE-9476-E46126825B0A}" name="Points" dataDxfId="141">
+    <tableColumn id="1" xr3:uid="{9B036617-5450-4894-9268-827D2E0914FF}" name="Scoring" dataDxfId="144"/>
+    <tableColumn id="2" xr3:uid="{6662CE93-E9C4-47DE-9476-E46126825B0A}" name="Points" dataDxfId="143">
       <calculatedColumnFormula>SUM(AL29,AA49,AL49,AA69,AL69,AA89,AL89)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{8FDDFCB0-2692-4EB0-948C-7B877263B55B}" name="Average" dataDxfId="140">
+    <tableColumn id="3" xr3:uid="{8FDDFCB0-2692-4EB0-948C-7B877263B55B}" name="Average" dataDxfId="142">
       <calculatedColumnFormula>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Points]]/($AA$6-Table1[[#This Row],[Missed Games]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{CC3F9B31-1857-48FB-A18B-CBC82C117BF4}" name="Finishes" dataDxfId="139">
+    <tableColumn id="4" xr3:uid="{CC3F9B31-1857-48FB-A18B-CBC82C117BF4}" name="Finishes" dataDxfId="141">
       <calculatedColumnFormula>SUM(AM29,AB49,AM49,AB69,AM69,AB89,AM89)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{5F324C66-956D-4EDC-870F-8EDE96C328C8}" name="Averages" dataDxfId="138">
+    <tableColumn id="5" xr3:uid="{5F324C66-956D-4EDC-870F-8EDE96C328C8}" name="Averages" dataDxfId="140">
       <calculatedColumnFormula>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Finishes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{80C6E15E-675D-4F58-AA26-27226F1CE373}" name="Midranges" dataDxfId="137">
+    <tableColumn id="6" xr3:uid="{80C6E15E-675D-4F58-AA26-27226F1CE373}" name="Midranges" dataDxfId="139">
       <calculatedColumnFormula>SUM(AN29,AC49,AN49,AC69,AN69,AC89,AN89)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{8E7E6B37-23A0-4556-8839-B9D7834E3E68}" name="Averages2" dataDxfId="136">
+    <tableColumn id="7" xr3:uid="{8E7E6B37-23A0-4556-8839-B9D7834E3E68}" name="Averages2" dataDxfId="138">
       <calculatedColumnFormula>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Midranges]]/($AA$6-Table1[[#This Row],[Missed Games]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{8B28715D-E310-4E1F-B9F0-F58F7C70E830}" name="Threes" dataDxfId="135">
+    <tableColumn id="8" xr3:uid="{8B28715D-E310-4E1F-B9F0-F58F7C70E830}" name="Threes" dataDxfId="137">
       <calculatedColumnFormula>SUM(AO29,AD49,AO49,AD69,AO69,AD89,AO89)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{E0C0BF1C-40E8-4137-8E0F-BB238D651DAE}" name="Averages3" dataDxfId="134">
+    <tableColumn id="9" xr3:uid="{E0C0BF1C-40E8-4137-8E0F-BB238D651DAE}" name="Averages3" dataDxfId="136">
       <calculatedColumnFormula>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Threes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{1C75F230-74E0-47EE-BF13-C22289FE0F87}" name="Team" dataDxfId="133">
+    <tableColumn id="10" xr3:uid="{1C75F230-74E0-47EE-BF13-C22289FE0F87}" name="Team" dataDxfId="135">
       <calculatedColumnFormula>SfW!C3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{E167D7FA-56F9-4571-B292-FF3869585F59}" name="Missed Games" dataDxfId="132">
+    <tableColumn id="11" xr3:uid="{E167D7FA-56F9-4571-B292-FF3869585F59}" name="Missed Games" dataDxfId="134">
       <calculatedColumnFormula>SUM(AT29,AI49,AT49,AI69,AT69,AI89,AT89)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7117,94 +7134,94 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{744FF78C-74B5-4798-AD3D-741E3ACB43CF}" name="Table1114" displayName="Table1114" ref="R3:AA8" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{744FF78C-74B5-4798-AD3D-741E3ACB43CF}" name="Table1114" displayName="Table1114" ref="R3:AA8" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
   <autoFilter ref="R3:AA8" xr:uid="{744FF78C-74B5-4798-AD3D-741E3ACB43CF}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{B3B5C08C-655A-460A-A171-B3B0C826FF04}" name="Name" dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{427944B0-44CA-4325-A406-29F83026BA5E}" name="Points" dataDxfId="32">
+    <tableColumn id="1" xr3:uid="{B3B5C08C-655A-460A-A171-B3B0C826FF04}" name="Name" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{427944B0-44CA-4325-A406-29F83026BA5E}" name="Points" dataDxfId="34">
       <calculatedColumnFormula>'Stats Global'!AA22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{5E06D173-4DBE-4045-9072-0A0A77D19C84}" name="Average" dataDxfId="31"/>
-    <tableColumn id="4" xr3:uid="{E74131A4-1DCA-4A89-8989-A4CF80175582}" name="Finishes" dataDxfId="30"/>
-    <tableColumn id="5" xr3:uid="{FC3336D4-2CB5-4673-A345-7C9CCED7ADEE}" name="Averages" dataDxfId="29"/>
-    <tableColumn id="6" xr3:uid="{BD6313A7-5D92-4B66-9B85-7ABC12DE9691}" name="Midranges" dataDxfId="28"/>
-    <tableColumn id="7" xr3:uid="{6D0293BC-7E06-45CE-9D4B-FE4769DF9D9F}" name="Averages2" dataDxfId="27"/>
-    <tableColumn id="8" xr3:uid="{89C1C64B-DD66-482C-BCDE-8B912D2676EF}" name="Threes" dataDxfId="26"/>
-    <tableColumn id="9" xr3:uid="{7748B87C-1833-4BD6-9162-76373407E655}" name="Averages3" dataDxfId="25"/>
-    <tableColumn id="10" xr3:uid="{D870E191-A52F-442E-AA52-A42CFAD05573}" name="Missed Games" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{5E06D173-4DBE-4045-9072-0A0A77D19C84}" name="Average" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{E74131A4-1DCA-4A89-8989-A4CF80175582}" name="Finishes" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{FC3336D4-2CB5-4673-A345-7C9CCED7ADEE}" name="Averages" dataDxfId="31"/>
+    <tableColumn id="6" xr3:uid="{BD6313A7-5D92-4B66-9B85-7ABC12DE9691}" name="Midranges" dataDxfId="30"/>
+    <tableColumn id="7" xr3:uid="{6D0293BC-7E06-45CE-9D4B-FE4769DF9D9F}" name="Averages2" dataDxfId="29"/>
+    <tableColumn id="8" xr3:uid="{89C1C64B-DD66-482C-BCDE-8B912D2676EF}" name="Threes" dataDxfId="28"/>
+    <tableColumn id="9" xr3:uid="{7748B87C-1833-4BD6-9162-76373407E655}" name="Averages3" dataDxfId="27"/>
+    <tableColumn id="10" xr3:uid="{D870E191-A52F-442E-AA52-A42CFAD05573}" name="Missed Games" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{54759C84-3153-4DC9-9240-E2749AA0D92B}" name="Table1113" displayName="Table1113" ref="O3:X10" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{54759C84-3153-4DC9-9240-E2749AA0D92B}" name="Table1113" displayName="Table1113" ref="O3:X10" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
   <autoFilter ref="O3:X10" xr:uid="{54759C84-3153-4DC9-9240-E2749AA0D92B}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{7790729E-C8E5-45C1-8784-25212A2654AA}" name="Name" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{52A67B2B-967C-4970-8D83-8F8E9CC61522}" name="Points" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{BA1FA2C8-AEC0-4644-83DB-5097750D7188}" name="Average" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{4CF66F5D-BF10-4CBD-88FF-CCD38730E1CD}" name="Finishes" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{BC246D5B-7E78-41A6-B796-C93ED8E53DF9}" name="Averages" dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{AB819419-CC06-4A40-8DED-E231125129C0}" name="Midranges" dataDxfId="16"/>
-    <tableColumn id="7" xr3:uid="{064AA562-C451-4362-805E-D12DC76C3530}" name="Averages2" dataDxfId="15"/>
-    <tableColumn id="8" xr3:uid="{BD0D8BAE-15E4-4B38-87FE-B682D7BAEE75}" name="Threes" dataDxfId="14"/>
-    <tableColumn id="9" xr3:uid="{541E391B-4B08-4E98-A63F-753C11193269}" name="Averages3" dataDxfId="13"/>
-    <tableColumn id="10" xr3:uid="{999BB5D2-D6FB-4EB9-A268-D62EA72F939D}" name="Missed Games" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{7790729E-C8E5-45C1-8784-25212A2654AA}" name="Name" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{52A67B2B-967C-4970-8D83-8F8E9CC61522}" name="Points" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{BA1FA2C8-AEC0-4644-83DB-5097750D7188}" name="Average" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{4CF66F5D-BF10-4CBD-88FF-CCD38730E1CD}" name="Finishes" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{BC246D5B-7E78-41A6-B796-C93ED8E53DF9}" name="Averages" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{AB819419-CC06-4A40-8DED-E231125129C0}" name="Midranges" dataDxfId="18"/>
+    <tableColumn id="7" xr3:uid="{064AA562-C451-4362-805E-D12DC76C3530}" name="Averages2" dataDxfId="17"/>
+    <tableColumn id="8" xr3:uid="{BD0D8BAE-15E4-4B38-87FE-B682D7BAEE75}" name="Threes" dataDxfId="16"/>
+    <tableColumn id="9" xr3:uid="{541E391B-4B08-4E98-A63F-753C11193269}" name="Averages3" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{999BB5D2-D6FB-4EB9-A268-D62EA72F939D}" name="Missed Games" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{C12CFC3F-7D59-4C0F-8D43-3F8ACD58C2BD}" name="Table11" displayName="Table11" ref="L4:U9" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{C12CFC3F-7D59-4C0F-8D43-3F8ACD58C2BD}" name="Table11" displayName="Table11" ref="L4:U9" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="L4:U9" xr:uid="{C12CFC3F-7D59-4C0F-8D43-3F8ACD58C2BD}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{CE15C23D-9493-4B21-9D40-1A25D210C18E}" name="Name" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{6BB170B1-AA38-4699-9B96-400D2947EE9C}" name="Points" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{EC8B6CBB-FCC9-416C-AEA6-738419DFE531}" name="Average" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{315DA055-9A43-468A-A501-1092626F523F}" name="Finishes" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{56B6FF4D-95D4-4550-88E4-C781ABDA83A6}" name="Averages" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{F7B5C0B8-FBE2-44B0-A372-112C7776FCCF}" name="Midranges" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{1A1C2126-FEB1-408F-8523-049E53028B4E}" name="Averages2" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{AE94036B-3777-4C1B-97D5-7BFA1037C0BF}" name="Threes" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{448B0903-7F66-40BA-809F-74ADBF397B45}" name="Averages3" dataDxfId="1"/>
-    <tableColumn id="10" xr3:uid="{E0CAC55D-8398-4928-A219-C01706996D48}" name="Missed Games" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{CE15C23D-9493-4B21-9D40-1A25D210C18E}" name="Name" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{6BB170B1-AA38-4699-9B96-400D2947EE9C}" name="Points" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{EC8B6CBB-FCC9-416C-AEA6-738419DFE531}" name="Average" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{315DA055-9A43-468A-A501-1092626F523F}" name="Finishes" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{56B6FF4D-95D4-4550-88E4-C781ABDA83A6}" name="Averages" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{F7B5C0B8-FBE2-44B0-A372-112C7776FCCF}" name="Midranges" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{1A1C2126-FEB1-408F-8523-049E53028B4E}" name="Averages2" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{AE94036B-3777-4C1B-97D5-7BFA1037C0BF}" name="Threes" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{448B0903-7F66-40BA-809F-74ADBF397B45}" name="Averages3" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{E0CAC55D-8398-4928-A219-C01706996D48}" name="Missed Games" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{84D0C431-52CF-4ABD-AA3E-D31975A289B1}" name="Table2" displayName="Table2" ref="Z28:AI45" totalsRowShown="0" headerRowDxfId="131" dataDxfId="130">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{84D0C431-52CF-4ABD-AA3E-D31975A289B1}" name="Table2" displayName="Table2" ref="Z28:AI45" totalsRowShown="0" headerRowDxfId="133" dataDxfId="132">
   <autoFilter ref="Z28:AI45" xr:uid="{84D0C431-52CF-4ABD-AA3E-D31975A289B1}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{4DB7A2B8-7BD8-4BD7-8F53-2A7873A4EAAE}" name="Scoring" dataDxfId="129"/>
-    <tableColumn id="2" xr3:uid="{BE8EBD49-660A-4C9F-970E-230EBB942EF1}" name="Points" dataDxfId="128">
+    <tableColumn id="1" xr3:uid="{4DB7A2B8-7BD8-4BD7-8F53-2A7873A4EAAE}" name="Scoring" dataDxfId="131"/>
+    <tableColumn id="2" xr3:uid="{BE8EBD49-660A-4C9F-970E-230EBB942EF1}" name="Points" dataDxfId="130">
       <calculatedColumnFormula>'Preseason 1'!R3+'Preseason 2'!R3+'Preseason 3'!R3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{C2C49EF0-4D8C-4F8C-8D19-CDD1481D9568}" name="Finishes" dataDxfId="127">
+    <tableColumn id="3" xr3:uid="{C2C49EF0-4D8C-4F8C-8D19-CDD1481D9568}" name="Finishes" dataDxfId="129">
       <calculatedColumnFormula>'Preseason 1'!S3+'Preseason 2'!S3+'Preseason 3'!S3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{7E789F8C-B8F3-4D6E-AB6C-C9454835B062}" name="Midranges" dataDxfId="126">
+    <tableColumn id="4" xr3:uid="{7E789F8C-B8F3-4D6E-AB6C-C9454835B062}" name="Midranges" dataDxfId="128">
       <calculatedColumnFormula>'Preseason 1'!T3+'Preseason 2'!T3+'Preseason 3'!T3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{18C990F2-A6D0-4F57-B96A-D00066DCC8D8}" name="Threes" dataDxfId="125">
+    <tableColumn id="5" xr3:uid="{18C990F2-A6D0-4F57-B96A-D00066DCC8D8}" name="Threes" dataDxfId="127">
       <calculatedColumnFormula>'Preseason 1'!U3+'Preseason 2'!U3+'Preseason 3'!U3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{40526534-76CA-42BA-A8B6-AB092D9CE18F}" name="Avg P" dataDxfId="124">
+    <tableColumn id="6" xr3:uid="{40526534-76CA-42BA-A8B6-AB092D9CE18F}" name="Avg P" dataDxfId="126">
       <calculatedColumnFormula>AA29/($AA$27-Table2[[#This Row],[Missed Games]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{693AF117-21F6-4887-B78D-D59235BABA44}" name="Avg F" dataDxfId="123">
+    <tableColumn id="7" xr3:uid="{693AF117-21F6-4887-B78D-D59235BABA44}" name="Avg F" dataDxfId="125">
       <calculatedColumnFormula>AB29/($AA$27-Table2[[#This Row],[Missed Games]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{02AC8FBF-EBB3-4AFC-BAC5-B773E33B7279}" name="Avg M" dataDxfId="122">
+    <tableColumn id="8" xr3:uid="{02AC8FBF-EBB3-4AFC-BAC5-B773E33B7279}" name="Avg M" dataDxfId="124">
       <calculatedColumnFormula>AC29/($AA$27-Table2[[#This Row],[Missed Games]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{CCF75EB4-34C4-4D47-9D51-E8D85C07E38B}" name="Avg T" dataDxfId="121">
+    <tableColumn id="9" xr3:uid="{CCF75EB4-34C4-4D47-9D51-E8D85C07E38B}" name="Avg T" dataDxfId="123">
       <calculatedColumnFormula>AD29/($AA$27-Table2[[#This Row],[Missed Games]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{1A786A5C-D0C2-4ABC-904C-983180542D5F}" name="Missed Games" dataDxfId="120">
+    <tableColumn id="10" xr3:uid="{1A786A5C-D0C2-4ABC-904C-983180542D5F}" name="Missed Games" dataDxfId="122">
       <calculatedColumnFormula>COUNTIF('Preseason 1'!V3, "TRUE")+COUNTIF('Preseason 2'!V3, "TRUE")+COUNTIF('Preseason 3'!V3, "TRUE")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7213,35 +7230,35 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{46F39EBA-1E74-46F4-A6E5-473672128124}" name="Table211" displayName="Table211" ref="AK28:AT45" totalsRowShown="0" headerRowDxfId="119" dataDxfId="118">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{46F39EBA-1E74-46F4-A6E5-473672128124}" name="Table211" displayName="Table211" ref="AK28:AT45" totalsRowShown="0" headerRowDxfId="121" dataDxfId="120">
   <autoFilter ref="AK28:AT45" xr:uid="{46F39EBA-1E74-46F4-A6E5-473672128124}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{5D003608-C1C2-4694-9447-8632FB8D7348}" name="Scoring" dataDxfId="117"/>
-    <tableColumn id="2" xr3:uid="{D15F4085-CED5-4CDD-B43B-BF7EB59B45A3}" name="Points" dataDxfId="116">
+    <tableColumn id="1" xr3:uid="{5D003608-C1C2-4694-9447-8632FB8D7348}" name="Scoring" dataDxfId="119"/>
+    <tableColumn id="2" xr3:uid="{D15F4085-CED5-4CDD-B43B-BF7EB59B45A3}" name="Points" dataDxfId="118">
       <calculatedColumnFormula>'1707'!R3+'1807'!R3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{2D436F37-54B6-4820-9145-F48B4EF9B294}" name="Finishes" dataDxfId="115">
+    <tableColumn id="3" xr3:uid="{2D436F37-54B6-4820-9145-F48B4EF9B294}" name="Finishes" dataDxfId="117">
       <calculatedColumnFormula>'1707'!S3+'1807'!S3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{1D9B6A22-B682-47F3-B738-7C138F317A41}" name="Midranges" dataDxfId="114">
+    <tableColumn id="4" xr3:uid="{1D9B6A22-B682-47F3-B738-7C138F317A41}" name="Midranges" dataDxfId="116">
       <calculatedColumnFormula>'1707'!T3+'1807'!T3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{9966C9A0-3872-44E9-BB39-05DE197EAA68}" name="Threes" dataDxfId="113">
+    <tableColumn id="5" xr3:uid="{9966C9A0-3872-44E9-BB39-05DE197EAA68}" name="Threes" dataDxfId="115">
       <calculatedColumnFormula>'1707'!U3+'1807'!U3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{CC4AB646-735F-425F-8528-C5EFE7FE11DC}" name="Avg P" dataDxfId="112">
+    <tableColumn id="6" xr3:uid="{CC4AB646-735F-425F-8528-C5EFE7FE11DC}" name="Avg P" dataDxfId="114">
       <calculatedColumnFormula>AL29/($AA$27-Table211[[#This Row],[Missed Games]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{F8D0247E-C6F7-467A-9F38-46084D44F8AB}" name="Avg F" dataDxfId="111">
+    <tableColumn id="7" xr3:uid="{F8D0247E-C6F7-467A-9F38-46084D44F8AB}" name="Avg F" dataDxfId="113">
       <calculatedColumnFormula>AM29/($AA$27-Table211[[#This Row],[Missed Games]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{7CCF1C77-9DB0-4EB2-B7D0-FD0BDBEBFA0E}" name="Avg M" dataDxfId="110">
+    <tableColumn id="8" xr3:uid="{7CCF1C77-9DB0-4EB2-B7D0-FD0BDBEBFA0E}" name="Avg M" dataDxfId="112">
       <calculatedColumnFormula>AN29/($AA$27-Table211[[#This Row],[Missed Games]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{582A1A4E-5383-4383-A480-735408867046}" name="Avg T" dataDxfId="109">
+    <tableColumn id="9" xr3:uid="{582A1A4E-5383-4383-A480-735408867046}" name="Avg T" dataDxfId="111">
       <calculatedColumnFormula>AO29/($AA$27-Table211[[#This Row],[Missed Games]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{E547AEB5-F9BA-4C5F-8DCE-34B6A8FF303A}" name="Missed Games" dataDxfId="108">
+    <tableColumn id="10" xr3:uid="{E547AEB5-F9BA-4C5F-8DCE-34B6A8FF303A}" name="Missed Games" dataDxfId="110">
       <calculatedColumnFormula>COUNTIF('1707'!V3, "TRUE")+COUNTIF('1807'!V3, "TRUE")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7250,35 +7267,35 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{D27C125F-71B2-44D9-9F7A-9BED67755DD3}" name="Table21123" displayName="Table21123" ref="Z48:AI65" totalsRowShown="0" headerRowDxfId="107" dataDxfId="106">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{D27C125F-71B2-44D9-9F7A-9BED67755DD3}" name="Table21123" displayName="Table21123" ref="Z48:AI65" totalsRowShown="0" headerRowDxfId="109" dataDxfId="108">
   <autoFilter ref="Z48:AI65" xr:uid="{D27C125F-71B2-44D9-9F7A-9BED67755DD3}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{0B0344E8-2677-4FAB-9B03-4745991FB5AE}" name="Scoring" dataDxfId="105"/>
-    <tableColumn id="2" xr3:uid="{58CA1107-8BB4-4A5D-BA00-31619C8D3973}" name="Points" dataDxfId="104">
+    <tableColumn id="1" xr3:uid="{0B0344E8-2677-4FAB-9B03-4745991FB5AE}" name="Scoring" dataDxfId="107"/>
+    <tableColumn id="2" xr3:uid="{58CA1107-8BB4-4A5D-BA00-31619C8D3973}" name="Points" dataDxfId="106">
       <calculatedColumnFormula>Template!R23</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{8090861E-1FDF-44F4-9DB6-BB814E32C754}" name="Finishes" dataDxfId="103">
+    <tableColumn id="3" xr3:uid="{8090861E-1FDF-44F4-9DB6-BB814E32C754}" name="Finishes" dataDxfId="105">
       <calculatedColumnFormula>Template!S23</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{972D0347-DAB3-4985-A738-E5D78740D498}" name="Midranges" dataDxfId="102">
+    <tableColumn id="4" xr3:uid="{972D0347-DAB3-4985-A738-E5D78740D498}" name="Midranges" dataDxfId="104">
       <calculatedColumnFormula>Template!T23</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{48F5F884-1753-4988-9056-632B5EB6BBCB}" name="Threes" dataDxfId="101">
+    <tableColumn id="5" xr3:uid="{48F5F884-1753-4988-9056-632B5EB6BBCB}" name="Threes" dataDxfId="103">
       <calculatedColumnFormula>Template!U23</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{6953B627-EA05-418F-A758-FD59263EA60D}" name="Avg P" dataDxfId="100">
+    <tableColumn id="6" xr3:uid="{6953B627-EA05-418F-A758-FD59263EA60D}" name="Avg P" dataDxfId="102">
       <calculatedColumnFormula>AA49/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{BE057C9C-5ECD-4AC2-A9C0-18C89CFB52BC}" name="Avg F" dataDxfId="99">
+    <tableColumn id="7" xr3:uid="{BE057C9C-5ECD-4AC2-A9C0-18C89CFB52BC}" name="Avg F" dataDxfId="101">
       <calculatedColumnFormula>AB49/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{0FDEBEE7-CD5E-4A44-A0AE-74F044F1FF46}" name="Avg M" dataDxfId="98">
+    <tableColumn id="8" xr3:uid="{0FDEBEE7-CD5E-4A44-A0AE-74F044F1FF46}" name="Avg M" dataDxfId="100">
       <calculatedColumnFormula>AC49/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{76975BB6-3677-41A8-BC24-7536B1D876D3}" name="Avg T" dataDxfId="97">
+    <tableColumn id="9" xr3:uid="{76975BB6-3677-41A8-BC24-7536B1D876D3}" name="Avg T" dataDxfId="99">
       <calculatedColumnFormula>AD49/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{E5ADB69B-3BA2-4019-8C83-8B02221F187E}" name="Missed Games" dataDxfId="96">
+    <tableColumn id="10" xr3:uid="{E5ADB69B-3BA2-4019-8C83-8B02221F187E}" name="Missed Games" dataDxfId="98">
       <calculatedColumnFormula>COUNTIF(Template!V23, "TRUE")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7287,35 +7304,35 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{22B89D2C-1B74-4036-A4ED-A5E61F1B3AAC}" name="Table21124" displayName="Table21124" ref="AK48:AT65" totalsRowShown="0" headerRowDxfId="95" dataDxfId="94">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{22B89D2C-1B74-4036-A4ED-A5E61F1B3AAC}" name="Table21124" displayName="Table21124" ref="AK48:AT65" totalsRowShown="0" headerRowDxfId="97" dataDxfId="96">
   <autoFilter ref="AK48:AT65" xr:uid="{22B89D2C-1B74-4036-A4ED-A5E61F1B3AAC}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{3D35891E-3654-497A-8DB2-BF0BD916CA29}" name="Scoring" dataDxfId="93"/>
-    <tableColumn id="2" xr3:uid="{54B5B6AF-372A-4E07-B4D6-DFC66F7E20C5}" name="Points" dataDxfId="92">
+    <tableColumn id="1" xr3:uid="{3D35891E-3654-497A-8DB2-BF0BD916CA29}" name="Scoring" dataDxfId="95"/>
+    <tableColumn id="2" xr3:uid="{54B5B6AF-372A-4E07-B4D6-DFC66F7E20C5}" name="Points" dataDxfId="94">
       <calculatedColumnFormula>Template!AC23</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{6CA15B41-F560-4B43-8836-163F5BB5689C}" name="Finishes" dataDxfId="91">
+    <tableColumn id="3" xr3:uid="{6CA15B41-F560-4B43-8836-163F5BB5689C}" name="Finishes" dataDxfId="93">
       <calculatedColumnFormula>Template!AD23</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{8FF05262-0051-44F7-966E-8D405318BA69}" name="Midranges" dataDxfId="90">
+    <tableColumn id="4" xr3:uid="{8FF05262-0051-44F7-966E-8D405318BA69}" name="Midranges" dataDxfId="92">
       <calculatedColumnFormula>Template!AE23</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{F0D843FC-7A93-4C9A-BCCF-E789F7811B3B}" name="Threes" dataDxfId="89">
+    <tableColumn id="5" xr3:uid="{F0D843FC-7A93-4C9A-BCCF-E789F7811B3B}" name="Threes" dataDxfId="91">
       <calculatedColumnFormula>Template!AF23</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{F0498F8A-F646-4C1F-A3CF-E89E73750FC1}" name="Avg P" dataDxfId="88">
+    <tableColumn id="6" xr3:uid="{F0498F8A-F646-4C1F-A3CF-E89E73750FC1}" name="Avg P" dataDxfId="90">
       <calculatedColumnFormula>AL49/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{A387BC88-F45C-4386-8503-EFEA33BDAC38}" name="Avg F" dataDxfId="87">
+    <tableColumn id="7" xr3:uid="{A387BC88-F45C-4386-8503-EFEA33BDAC38}" name="Avg F" dataDxfId="89">
       <calculatedColumnFormula>AM49/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{BEA82919-0828-4351-A01A-D72E13E63FAB}" name="Avg M" dataDxfId="86">
+    <tableColumn id="8" xr3:uid="{BEA82919-0828-4351-A01A-D72E13E63FAB}" name="Avg M" dataDxfId="88">
       <calculatedColumnFormula>AN49/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{ABEBCE01-BCA4-4342-966C-27301889B607}" name="Avg T" dataDxfId="85">
+    <tableColumn id="9" xr3:uid="{ABEBCE01-BCA4-4342-966C-27301889B607}" name="Avg T" dataDxfId="87">
       <calculatedColumnFormula>AO49/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{65E7A8E7-4C51-42E4-AB0F-B7FF6099D70A}" name="Missed Games" dataDxfId="84">
+    <tableColumn id="10" xr3:uid="{65E7A8E7-4C51-42E4-AB0F-B7FF6099D70A}" name="Missed Games" dataDxfId="86">
       <calculatedColumnFormula>COUNTIF(Template!AG23, "TRUE")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7324,35 +7341,35 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{18C7D514-96DE-4BA6-B019-3E860ED143EC}" name="Table21125" displayName="Table21125" ref="AK68:AT85" totalsRowShown="0" headerRowDxfId="83" dataDxfId="82">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{18C7D514-96DE-4BA6-B019-3E860ED143EC}" name="Table21125" displayName="Table21125" ref="AK68:AT85" totalsRowShown="0" headerRowDxfId="85" dataDxfId="84">
   <autoFilter ref="AK68:AT85" xr:uid="{18C7D514-96DE-4BA6-B019-3E860ED143EC}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{D144EF14-69FD-4E71-90C7-56F49F45FAE5}" name="Scoring" dataDxfId="81"/>
-    <tableColumn id="2" xr3:uid="{34D1D392-F3E0-4C36-9EED-849D5B1149E6}" name="Points" dataDxfId="80">
+    <tableColumn id="1" xr3:uid="{D144EF14-69FD-4E71-90C7-56F49F45FAE5}" name="Scoring" dataDxfId="83"/>
+    <tableColumn id="2" xr3:uid="{34D1D392-F3E0-4C36-9EED-849D5B1149E6}" name="Points" dataDxfId="82">
       <calculatedColumnFormula>Template!AC43</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{E91D98A2-80BD-4E5C-9036-2FCC8185369F}" name="Finishes" dataDxfId="79">
+    <tableColumn id="3" xr3:uid="{E91D98A2-80BD-4E5C-9036-2FCC8185369F}" name="Finishes" dataDxfId="81">
       <calculatedColumnFormula>Template!AD43</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{D2E5029E-4811-4E9B-9A2D-5F5F8F322B0D}" name="Midranges" dataDxfId="78">
+    <tableColumn id="4" xr3:uid="{D2E5029E-4811-4E9B-9A2D-5F5F8F322B0D}" name="Midranges" dataDxfId="80">
       <calculatedColumnFormula>Template!AE43</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{B3E76CEE-33DA-4B18-8DCE-8EBC7EE592D7}" name="Threes" dataDxfId="77">
+    <tableColumn id="5" xr3:uid="{B3E76CEE-33DA-4B18-8DCE-8EBC7EE592D7}" name="Threes" dataDxfId="79">
       <calculatedColumnFormula>Template!AF43</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{6ABE1879-8018-4498-A9A1-22CF831F0364}" name="Avg P" dataDxfId="76">
+    <tableColumn id="6" xr3:uid="{6ABE1879-8018-4498-A9A1-22CF831F0364}" name="Avg P" dataDxfId="78">
       <calculatedColumnFormula>AL69/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{8DA4DD79-8A2A-49E4-996F-C1ACCED3C565}" name="Avg F" dataDxfId="75">
+    <tableColumn id="7" xr3:uid="{8DA4DD79-8A2A-49E4-996F-C1ACCED3C565}" name="Avg F" dataDxfId="77">
       <calculatedColumnFormula>AM69/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{256EA4BC-BA61-49E2-969F-0786AA9AA6EA}" name="Avg M" dataDxfId="74">
+    <tableColumn id="8" xr3:uid="{256EA4BC-BA61-49E2-969F-0786AA9AA6EA}" name="Avg M" dataDxfId="76">
       <calculatedColumnFormula>AN69/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{0E5566B2-99EC-4B03-A074-8705C4EDA484}" name="Avg T" dataDxfId="73">
+    <tableColumn id="9" xr3:uid="{0E5566B2-99EC-4B03-A074-8705C4EDA484}" name="Avg T" dataDxfId="75">
       <calculatedColumnFormula>AO69/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{3E2357F0-493E-401D-AC75-9AAB260F684E}" name="Missed Games" dataDxfId="72">
+    <tableColumn id="10" xr3:uid="{3E2357F0-493E-401D-AC75-9AAB260F684E}" name="Missed Games" dataDxfId="74">
       <calculatedColumnFormula>COUNTIF(Template!AG43, "TRUE")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7361,35 +7378,35 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{F118BED8-7AAF-4E55-A61F-C75C69A64AAE}" name="Table21126" displayName="Table21126" ref="Z68:AI85" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{F118BED8-7AAF-4E55-A61F-C75C69A64AAE}" name="Table21126" displayName="Table21126" ref="Z68:AI85" totalsRowShown="0" headerRowDxfId="73" dataDxfId="72">
   <autoFilter ref="Z68:AI85" xr:uid="{F118BED8-7AAF-4E55-A61F-C75C69A64AAE}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{7723929D-65B3-40BB-8FDD-C4533243706C}" name="Scoring" dataDxfId="69"/>
-    <tableColumn id="2" xr3:uid="{EC28DE3D-619E-4930-A3AF-7AD1BE1D4843}" name="Points" dataDxfId="68">
+    <tableColumn id="1" xr3:uid="{7723929D-65B3-40BB-8FDD-C4533243706C}" name="Scoring" dataDxfId="71"/>
+    <tableColumn id="2" xr3:uid="{EC28DE3D-619E-4930-A3AF-7AD1BE1D4843}" name="Points" dataDxfId="70">
       <calculatedColumnFormula>Template!R43</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{9537269D-8C1D-42B5-866F-D03CE61A8512}" name="Finishes" dataDxfId="67">
+    <tableColumn id="3" xr3:uid="{9537269D-8C1D-42B5-866F-D03CE61A8512}" name="Finishes" dataDxfId="69">
       <calculatedColumnFormula>Template!S43</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{AC590DDB-BE19-4A14-8B98-1E5E2430AA45}" name="Midranges" dataDxfId="66">
+    <tableColumn id="4" xr3:uid="{AC590DDB-BE19-4A14-8B98-1E5E2430AA45}" name="Midranges" dataDxfId="68">
       <calculatedColumnFormula>Template!T43</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C96D3ACD-F34D-477E-86DE-4650EE56BC94}" name="Threes" dataDxfId="65">
+    <tableColumn id="5" xr3:uid="{C96D3ACD-F34D-477E-86DE-4650EE56BC94}" name="Threes" dataDxfId="67">
       <calculatedColumnFormula>Template!U43</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{A43DE5E9-BB01-49FA-A204-66EE7BAA2E9F}" name="Avg P" dataDxfId="64">
+    <tableColumn id="6" xr3:uid="{A43DE5E9-BB01-49FA-A204-66EE7BAA2E9F}" name="Avg P" dataDxfId="66">
       <calculatedColumnFormula>AA69/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{C75A19FF-6041-45C2-BACB-E347F06B6329}" name="Avg F" dataDxfId="63">
+    <tableColumn id="7" xr3:uid="{C75A19FF-6041-45C2-BACB-E347F06B6329}" name="Avg F" dataDxfId="65">
       <calculatedColumnFormula>AB69/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00D3FCFC-C9C5-4C96-BE0E-8E1FDC95D07C}" name="Avg M" dataDxfId="62">
+    <tableColumn id="8" xr3:uid="{00D3FCFC-C9C5-4C96-BE0E-8E1FDC95D07C}" name="Avg M" dataDxfId="64">
       <calculatedColumnFormula>AC69/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{0448FF4E-9D2D-47F6-89B7-F17D36B05E8A}" name="Avg T" dataDxfId="61">
+    <tableColumn id="9" xr3:uid="{0448FF4E-9D2D-47F6-89B7-F17D36B05E8A}" name="Avg T" dataDxfId="63">
       <calculatedColumnFormula>AD69/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{D5BDFA2D-095B-44F8-8567-15B3B1520E5A}" name="Missed Games" dataDxfId="60">
+    <tableColumn id="10" xr3:uid="{D5BDFA2D-095B-44F8-8567-15B3B1520E5A}" name="Missed Games" dataDxfId="62">
       <calculatedColumnFormula>COUNTIF(Template!V43, "TRUE")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7398,35 +7415,35 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{BDD2E472-3925-41A7-BECD-3315E6E71ECC}" name="Table21127" displayName="Table21127" ref="Z88:AI105" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{BDD2E472-3925-41A7-BECD-3315E6E71ECC}" name="Table21127" displayName="Table21127" ref="Z88:AI105" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60">
   <autoFilter ref="Z88:AI105" xr:uid="{BDD2E472-3925-41A7-BECD-3315E6E71ECC}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{9DBD966D-620C-4B97-A502-29D00ABE150B}" name="Scoring" dataDxfId="57"/>
-    <tableColumn id="2" xr3:uid="{F8F81F0E-16B3-4472-9D90-A92149C763E4}" name="Points" dataDxfId="56">
+    <tableColumn id="1" xr3:uid="{9DBD966D-620C-4B97-A502-29D00ABE150B}" name="Scoring" dataDxfId="59"/>
+    <tableColumn id="2" xr3:uid="{F8F81F0E-16B3-4472-9D90-A92149C763E4}" name="Points" dataDxfId="58">
       <calculatedColumnFormula>Template!R63</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{09859CE1-290D-4977-B02C-46F4E5A6FDC2}" name="Finishes" dataDxfId="55">
+    <tableColumn id="3" xr3:uid="{09859CE1-290D-4977-B02C-46F4E5A6FDC2}" name="Finishes" dataDxfId="57">
       <calculatedColumnFormula>Template!S63</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{7D751A0E-2895-46DF-B5E2-5A8AA5531CD2}" name="Midranges" dataDxfId="54">
+    <tableColumn id="4" xr3:uid="{7D751A0E-2895-46DF-B5E2-5A8AA5531CD2}" name="Midranges" dataDxfId="56">
       <calculatedColumnFormula>Template!T63</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{591CDC71-B0EA-413B-B6C1-77884E7E50D4}" name="Threes" dataDxfId="53">
+    <tableColumn id="5" xr3:uid="{591CDC71-B0EA-413B-B6C1-77884E7E50D4}" name="Threes" dataDxfId="55">
       <calculatedColumnFormula>Template!U63</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{52ED768C-5557-42DC-9824-7A4D9B547153}" name="Avg P" dataDxfId="52">
+    <tableColumn id="6" xr3:uid="{52ED768C-5557-42DC-9824-7A4D9B547153}" name="Avg P" dataDxfId="54">
       <calculatedColumnFormula>AA89/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{FC79BE87-72E2-4F5E-83D6-CDCE645EB943}" name="Avg F" dataDxfId="51">
+    <tableColumn id="7" xr3:uid="{FC79BE87-72E2-4F5E-83D6-CDCE645EB943}" name="Avg F" dataDxfId="53">
       <calculatedColumnFormula>AB89/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{BA012C22-0D65-4C11-98A7-4F958703D04B}" name="Avg M" dataDxfId="50">
+    <tableColumn id="8" xr3:uid="{BA012C22-0D65-4C11-98A7-4F958703D04B}" name="Avg M" dataDxfId="52">
       <calculatedColumnFormula>AC89/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{63344F2B-5D94-417D-85E2-C2BFBACE3E7E}" name="Avg T" dataDxfId="49">
+    <tableColumn id="9" xr3:uid="{63344F2B-5D94-417D-85E2-C2BFBACE3E7E}" name="Avg T" dataDxfId="51">
       <calculatedColumnFormula>AD89/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{1AD5A604-8909-45B3-8E43-11D407451CEA}" name="Missed Games" dataDxfId="48">
+    <tableColumn id="10" xr3:uid="{1AD5A604-8909-45B3-8E43-11D407451CEA}" name="Missed Games" dataDxfId="50">
       <calculatedColumnFormula>COUNTIF(Template!V63, "TRUE")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7435,35 +7452,35 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{F9183685-60DE-4163-AA62-BE4F563EE570}" name="Table21128" displayName="Table21128" ref="AK88:AT105" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{F9183685-60DE-4163-AA62-BE4F563EE570}" name="Table21128" displayName="Table21128" ref="AK88:AT105" totalsRowShown="0" headerRowDxfId="49" dataDxfId="48">
   <autoFilter ref="AK88:AT105" xr:uid="{F9183685-60DE-4163-AA62-BE4F563EE570}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{E62FBAA0-D6F6-4997-96C9-B6B13FAA9B6E}" name="Scoring" dataDxfId="45"/>
-    <tableColumn id="2" xr3:uid="{0A655F6F-9A21-4167-85B6-B9F7DC2070CA}" name="Points" dataDxfId="44">
+    <tableColumn id="1" xr3:uid="{E62FBAA0-D6F6-4997-96C9-B6B13FAA9B6E}" name="Scoring" dataDxfId="47"/>
+    <tableColumn id="2" xr3:uid="{0A655F6F-9A21-4167-85B6-B9F7DC2070CA}" name="Points" dataDxfId="46">
       <calculatedColumnFormula>Template!AC63</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{460771D3-3BD8-4DA3-AF1B-1A0F98EF1499}" name="Finishes" dataDxfId="43">
+    <tableColumn id="3" xr3:uid="{460771D3-3BD8-4DA3-AF1B-1A0F98EF1499}" name="Finishes" dataDxfId="45">
       <calculatedColumnFormula>Template!AD63</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{3C08B2D7-823D-49C3-A627-A5848E664B2F}" name="Midranges" dataDxfId="42">
+    <tableColumn id="4" xr3:uid="{3C08B2D7-823D-49C3-A627-A5848E664B2F}" name="Midranges" dataDxfId="44">
       <calculatedColumnFormula>Template!AE63</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{E88F45FB-4C46-4674-86D5-74808E7E5368}" name="Threes" dataDxfId="41">
+    <tableColumn id="5" xr3:uid="{E88F45FB-4C46-4674-86D5-74808E7E5368}" name="Threes" dataDxfId="43">
       <calculatedColumnFormula>Template!AF63</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{0C0E8016-1E6E-4F25-9675-4EE061FFD0F7}" name="Avg P" dataDxfId="40">
+    <tableColumn id="6" xr3:uid="{0C0E8016-1E6E-4F25-9675-4EE061FFD0F7}" name="Avg P" dataDxfId="42">
       <calculatedColumnFormula>AL89/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{F7AC350B-AE4B-4912-B21D-16D99E2AE8BF}" name="Avg F" dataDxfId="39">
+    <tableColumn id="7" xr3:uid="{F7AC350B-AE4B-4912-B21D-16D99E2AE8BF}" name="Avg F" dataDxfId="41">
       <calculatedColumnFormula>AM89/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{F451E5CA-B9C4-4EFA-A647-CEDB2FB39550}" name="Avg M" dataDxfId="38">
+    <tableColumn id="8" xr3:uid="{F451E5CA-B9C4-4EFA-A647-CEDB2FB39550}" name="Avg M" dataDxfId="40">
       <calculatedColumnFormula>AN89/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{ED1D92B5-05F1-40CE-A89F-E6627FAB4A59}" name="Avg T" dataDxfId="37">
+    <tableColumn id="9" xr3:uid="{ED1D92B5-05F1-40CE-A89F-E6627FAB4A59}" name="Avg T" dataDxfId="39">
       <calculatedColumnFormula>AO89/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{48A4808A-3DE6-4644-83F5-C2AEDDFC3E5E}" name="Missed Games" dataDxfId="36">
+    <tableColumn id="10" xr3:uid="{48A4808A-3DE6-4644-83F5-C2AEDDFC3E5E}" name="Missed Games" dataDxfId="38">
       <calculatedColumnFormula>COUNTIF(Template!AG63, "TRUE")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -12036,7 +12053,7 @@
   <mergeCells count="1">
     <mergeCell ref="B22:C23"/>
   </mergeCells>
-  <phoneticPr fontId="23" type="noConversion"/>
+  <phoneticPr fontId="24" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
@@ -18153,7 +18170,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:AT1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="J7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AJ45" sqref="AJ45"/>
     </sheetView>
   </sheetViews>
@@ -18812,7 +18829,7 @@
       </c>
       <c r="AJ10" s="73">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK10" s="67"/>
       <c r="AL10" s="141" t="s">
@@ -18890,7 +18907,7 @@
       </c>
       <c r="AJ11" s="73">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK11" s="67"/>
       <c r="AL11" s="141" t="s">
@@ -19171,7 +19188,7 @@
       </c>
       <c r="AJ15" s="73">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK15" s="67"/>
       <c r="AL15" s="67"/>
@@ -20263,7 +20280,7 @@
       </c>
       <c r="AT31" s="32">
         <f>COUNTIF('1707'!V5, "TRUE")+COUNTIF('1807'!V5, "TRUE")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="2:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -20364,7 +20381,7 @@
       </c>
       <c r="AT32" s="32">
         <f>COUNTIF('1707'!V6, "TRUE")+COUNTIF('1807'!V6, "TRUE")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="2:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -20764,7 +20781,7 @@
       </c>
       <c r="AT36" s="32">
         <f>COUNTIF('1707'!V10, "TRUE")+COUNTIF('1807'!V10, "TRUE")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="2:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -24905,14 +24922,14 @@
     <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
-  <phoneticPr fontId="23" type="noConversion"/>
+  <phoneticPr fontId="24" type="noConversion"/>
   <conditionalFormatting sqref="U109:U118 W103:W108">
-    <cfRule type="cellIs" dxfId="149" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U109:U118 W103:W108">
-    <cfRule type="cellIs" dxfId="148" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28009,7 +28026,7 @@
       </c>
       <c r="X4" s="103">
         <f>'Stats Global'!AJ11</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -28370,7 +28387,7 @@
       </c>
       <c r="X9" s="127">
         <f>'Stats Global'!AJ15</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -30772,7 +30789,7 @@
       </c>
       <c r="U6" s="103">
         <f>'Stats Global'!AJ10</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V6" s="89"/>
       <c r="W6" s="89"/>
@@ -35657,8 +35674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34091F1A-4A23-4996-9948-1508C0A56F45}">
   <dimension ref="B1:AE1000"/>
   <sheetViews>
-    <sheetView zoomScale="79" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
+      <selection activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -35907,7 +35924,7 @@
         <v>0</v>
       </c>
       <c r="V5" s="27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X5" s="54" t="str">
         <f t="shared" si="5"/>
@@ -35952,7 +35969,7 @@
         <v>0</v>
       </c>
       <c r="V6" s="27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X6" s="54" t="str">
         <f t="shared" si="5"/>
@@ -36131,7 +36148,7 @@
         <v>0</v>
       </c>
       <c r="V10" s="27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X10" s="54" t="str">
         <f t="shared" si="5"/>
@@ -36706,19 +36723,19 @@
       <c r="Q25" s="7"/>
       <c r="R25" s="17" t="str">
         <f t="shared" si="9"/>
-        <v>0,</v>
+        <v>"Did not Play",</v>
       </c>
       <c r="S25" s="17" t="str">
         <f t="shared" si="9"/>
-        <v>0,</v>
+        <v>"Did not Play",</v>
       </c>
       <c r="T25" s="17" t="str">
         <f t="shared" si="9"/>
-        <v>0,</v>
+        <v>"Did not Play",</v>
       </c>
       <c r="U25" s="17" t="str">
         <f t="shared" si="9"/>
-        <v>0,</v>
+        <v>"Did not Play",</v>
       </c>
       <c r="X25" s="54" t="str">
         <f t="shared" si="5"/>
@@ -36745,19 +36762,19 @@
       <c r="Q26" s="13"/>
       <c r="R26" s="17" t="str">
         <f t="shared" si="9"/>
-        <v>0,</v>
+        <v>"Did not Play",</v>
       </c>
       <c r="S26" s="17" t="str">
         <f t="shared" si="9"/>
-        <v>0,</v>
+        <v>"Did not Play",</v>
       </c>
       <c r="T26" s="17" t="str">
         <f t="shared" si="9"/>
-        <v>0,</v>
+        <v>"Did not Play",</v>
       </c>
       <c r="U26" s="17" t="str">
         <f t="shared" si="9"/>
-        <v>0,</v>
+        <v>"Did not Play",</v>
       </c>
       <c r="X26" s="54" t="str">
         <f t="shared" si="5"/>
@@ -36897,19 +36914,19 @@
       <c r="I30" s="26"/>
       <c r="R30" s="17" t="str">
         <f t="shared" si="9"/>
-        <v>0,</v>
+        <v>"Did not Play",</v>
       </c>
       <c r="S30" s="17" t="str">
         <f t="shared" si="9"/>
-        <v>0,</v>
+        <v>"Did not Play",</v>
       </c>
       <c r="T30" s="17" t="str">
         <f t="shared" si="9"/>
-        <v>0,</v>
+        <v>"Did not Play",</v>
       </c>
       <c r="U30" s="17" t="str">
         <f t="shared" si="9"/>
-        <v>0,</v>
+        <v>"Did not Play",</v>
       </c>
       <c r="X30" s="54" t="str">
         <f t="shared" si="5"/>
@@ -37377,25 +37394,25 @@
       </c>
       <c r="T45" s="17" t="str">
         <f>CHAR(34)&amp;"Points"&amp;CHAR(34)&amp;":["&amp;R23&amp;R24&amp;R25&amp;R26&amp;R27&amp;R28&amp;R29&amp;R30&amp;R31&amp;R32&amp;R33&amp;R34&amp;R35&amp;R36&amp;R37&amp;R38&amp;R39&amp;"],"</f>
-        <v>"Points":[0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0],</v>
+        <v>"Points":[0,0,"Did not Play","Did not Play",0,0,0,"Did not Play",0,0,0,0,0,0,0,0,0],</v>
       </c>
     </row>
     <row r="46" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="T46" s="17" t="str">
         <f>CHAR(34)&amp;"Finishes"&amp;CHAR(34)&amp;":["&amp;S23&amp;S24&amp;S25&amp;S26&amp;S27&amp;S28&amp;S29&amp;S30&amp;S31&amp;S32&amp;S33&amp;S34&amp;S35&amp;S36&amp;S37&amp;S38&amp;S39&amp;"],"</f>
-        <v>"Finishes":[0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0],</v>
+        <v>"Finishes":[0,0,"Did not Play","Did not Play",0,0,0,"Did not Play",0,0,0,0,0,0,0,0,0],</v>
       </c>
     </row>
     <row r="47" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="T47" s="17" t="str">
         <f>CHAR(34)&amp;"Midrange"&amp;CHAR(34)&amp;":["&amp;T23&amp;T24&amp;T25&amp;T26&amp;T27&amp;T28&amp;T29&amp;T30&amp;T31&amp;T32&amp;T33&amp;T34&amp;T35&amp;T36&amp;T37&amp;T38&amp;T39&amp;"],"</f>
-        <v>"Midrange":[0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0],</v>
+        <v>"Midrange":[0,0,"Did not Play","Did not Play",0,0,0,"Did not Play",0,0,0,0,0,0,0,0,0],</v>
       </c>
     </row>
     <row r="48" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="T48" s="17" t="str">
         <f>CHAR(34)&amp;"ThreePointers"&amp;CHAR(34)&amp;":["&amp;U23&amp;U24&amp;U25&amp;U26&amp;U27&amp;U28&amp;U29&amp;U30&amp;U31&amp;U32&amp;U33&amp;U34&amp;U35&amp;U36&amp;U37&amp;U38&amp;U39&amp;"]"</f>
-        <v>"ThreePointers":[0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0]</v>
+        <v>"ThreePointers":[0,0,"Did not Play","Did not Play",0,0,0,"Did not Play",0,0,0,0,0,0,0,0,0]</v>
       </c>
     </row>
     <row r="49" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -38367,8 +38384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{857575DD-F31E-49E8-BC03-D21655A8AEBE}">
   <dimension ref="B1:AE1000"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AE15" sqref="AE15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -38509,6 +38526,15 @@
         <v>110</v>
       </c>
       <c r="AB3" s="2"/>
+      <c r="AC3" s="144" t="s">
+        <v>222</v>
+      </c>
+      <c r="AD3" s="144" t="s">
+        <v>223</v>
+      </c>
+      <c r="AE3" s="144" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="4" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="26">
@@ -38588,7 +38614,18 @@
         <f t="shared" ref="Z4:Z39" si="7">IF(AND(C4="5 Musketeers",D4="Loose Gooses"),"5M/LG", IF(AND($C4="5 Musketeers",$D4="Wet Willies"),"5M/WW", ""))</f>
         <v/>
       </c>
-      <c r="AB4" s="2"/>
+      <c r="AB4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC4" s="17">
+        <v>2</v>
+      </c>
+      <c r="AD4" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="17">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B5" s="26">
@@ -38668,7 +38705,18 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AB5" s="2"/>
+      <c r="AB5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC5" s="17">
+        <v>4</v>
+      </c>
+      <c r="AD5" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="17">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="26">
@@ -38729,7 +38777,9 @@
         <f t="shared" si="7"/>
         <v>5M/LG</v>
       </c>
-      <c r="AB6" s="2"/>
+      <c r="AB6" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="7" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="26">
@@ -38790,7 +38840,9 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AB7" s="2"/>
+      <c r="AB7" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="26">
@@ -38851,7 +38903,18 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AB8" s="2"/>
+      <c r="AB8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC8" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="17">
+        <v>1</v>
+      </c>
+      <c r="AE8" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="26">
@@ -38912,6 +38975,9 @@
         <f t="shared" si="7"/>
         <v>5M/LG</v>
       </c>
+      <c r="AB9" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="10" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="26">
@@ -38972,7 +39038,12 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AB10" s="2"/>
+      <c r="AB10" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC10" s="17">
+        <v>5</v>
+      </c>
     </row>
     <row r="11" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="26">
@@ -39033,7 +39104,9 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AB11" s="2"/>
+      <c r="AB11" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="12" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="26">
@@ -39094,7 +39167,18 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AB12" s="2"/>
+      <c r="AB12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC12" s="17">
+        <v>5</v>
+      </c>
+      <c r="AD12" s="17">
+        <v>1</v>
+      </c>
+      <c r="AE12" s="17">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B13" s="26">
@@ -39155,7 +39239,12 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AB13" s="2"/>
+      <c r="AB13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC13" s="17">
+        <v>6</v>
+      </c>
     </row>
     <row r="14" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="26">
@@ -39216,7 +39305,18 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AB14" s="2"/>
+      <c r="AB14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC14" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="26">
@@ -39277,7 +39377,18 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AB15" s="2"/>
+      <c r="AB15" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="AC15" s="17">
+        <v>2</v>
+      </c>
+      <c r="AD15" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="17">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="26">
@@ -39338,9 +39449,20 @@
         <f t="shared" si="7"/>
         <v>5M/LG</v>
       </c>
-      <c r="AB16" s="2"/>
-    </row>
-    <row r="17" spans="2:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AB16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC16" s="17">
+        <v>6</v>
+      </c>
+      <c r="AD16" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B17" s="26"/>
       <c r="C17" s="26"/>
       <c r="D17" s="26"/>
@@ -39383,9 +39505,20 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AB17" s="2"/>
-    </row>
-    <row r="18" spans="2:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AB17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC17" s="17">
+        <v>2</v>
+      </c>
+      <c r="AD17" s="17">
+        <v>1</v>
+      </c>
+      <c r="AE17" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B18" s="26"/>
       <c r="C18" s="26"/>
       <c r="D18" s="26"/>
@@ -39428,9 +39561,20 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AB18" s="2"/>
-    </row>
-    <row r="19" spans="2:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AB18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC18" s="17">
+        <v>2</v>
+      </c>
+      <c r="AD18" s="17">
+        <v>3</v>
+      </c>
+      <c r="AE18" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B19" s="26"/>
       <c r="C19" s="26"/>
       <c r="D19" s="26"/>
@@ -39473,8 +39617,20 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-    </row>
-    <row r="20" spans="2:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AB19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC19" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B20" s="26"/>
       <c r="C20" s="26"/>
       <c r="D20" s="26"/>
@@ -39495,8 +39651,11 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-    </row>
-    <row r="21" spans="2:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AB20" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B21" s="26"/>
       <c r="C21" s="26"/>
       <c r="D21" s="26"/>
@@ -39518,7 +39677,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="2:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B22" s="26"/>
       <c r="C22" s="26"/>
       <c r="D22" s="26"/>
@@ -39540,7 +39699,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="2:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B23" s="26"/>
       <c r="C23" s="26"/>
       <c r="D23" s="26"/>
@@ -39579,7 +39738,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="2:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B24" s="26"/>
       <c r="C24" s="26"/>
       <c r="D24" s="26"/>
@@ -39617,7 +39776,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="2:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B25" s="26"/>
       <c r="C25" s="26"/>
       <c r="D25" s="26"/>
@@ -39656,7 +39815,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="2:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B26" s="26"/>
       <c r="C26" s="26"/>
       <c r="D26" s="26"/>
@@ -39695,7 +39854,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="2:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B27" s="26"/>
       <c r="C27" s="26"/>
       <c r="D27" s="26"/>
@@ -39733,7 +39892,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="2:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B28" s="26"/>
       <c r="C28" s="26"/>
       <c r="D28" s="26"/>
@@ -39771,7 +39930,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="2:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B29" s="26"/>
       <c r="C29" s="26"/>
       <c r="D29" s="26"/>
@@ -39809,7 +39968,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="2:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B30" s="26"/>
       <c r="C30" s="26"/>
       <c r="D30" s="26"/>
@@ -39847,7 +40006,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="2:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B31" s="26"/>
       <c r="C31" s="26"/>
       <c r="D31" s="26"/>
@@ -39885,7 +40044,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="2:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B32" s="26"/>
       <c r="C32" s="26"/>
       <c r="D32" s="26"/>

--- a/Other Files/PastResults.xlsx
+++ b/Other Files/PastResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\011445\Documents\GitHub\LTBO\Other Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA5A2330-1DCB-48D3-B352-BDD5CE0190A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7004C1C3-35B0-4506-BF1C-CEBCDEC04092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" firstSheet="1" activeTab="6" xr2:uid="{1E3275F7-0219-46B7-B9B0-3246E28631A6}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" firstSheet="1" activeTab="1" xr2:uid="{1E3275F7-0219-46B7-B9B0-3246E28631A6}"/>
   </bookViews>
   <sheets>
     <sheet name="SfW" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="225">
   <si>
     <t>Points</t>
   </si>
@@ -1306,13 +1306,13 @@
     <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="21" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1320,26 +1320,6 @@
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="150">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -4768,6 +4748,26 @@
         <bottom/>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -4991,13 +4991,13 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.61538461538461542</c:v>
+                  <c:v>0.7407407407407407</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.23076923076923078</c:v>
+                  <c:v>0.14814814814814814</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.15384615384615385</c:v>
+                  <c:v>0.1111111111111111</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5334,37 +5334,37 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>10</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5538,37 +5538,37 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5742,37 +5742,37 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7094,38 +7094,38 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{598ECA3B-99B4-4CAB-8F81-5D711AA5A7FC}" name="Table1" displayName="Table1" ref="Z7:AJ24" totalsRowShown="0" headerRowDxfId="149" dataDxfId="147" headerRowBorderDxfId="148" tableBorderDxfId="146" totalsRowBorderDxfId="145">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{598ECA3B-99B4-4CAB-8F81-5D711AA5A7FC}" name="Table1" displayName="Table1" ref="Z7:AJ24" totalsRowShown="0" headerRowDxfId="147" dataDxfId="145" headerRowBorderDxfId="146" tableBorderDxfId="144" totalsRowBorderDxfId="143">
   <autoFilter ref="Z7:AJ24" xr:uid="{598ECA3B-99B4-4CAB-8F81-5D711AA5A7FC}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{9B036617-5450-4894-9268-827D2E0914FF}" name="Scoring" dataDxfId="144"/>
-    <tableColumn id="2" xr3:uid="{6662CE93-E9C4-47DE-9476-E46126825B0A}" name="Points" dataDxfId="143">
+    <tableColumn id="1" xr3:uid="{9B036617-5450-4894-9268-827D2E0914FF}" name="Scoring" dataDxfId="142"/>
+    <tableColumn id="2" xr3:uid="{6662CE93-E9C4-47DE-9476-E46126825B0A}" name="Points" dataDxfId="141">
       <calculatedColumnFormula>SUM(AL29,AA49,AL49,AA69,AL69,AA89,AL89)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{8FDDFCB0-2692-4EB0-948C-7B877263B55B}" name="Average" dataDxfId="142">
+    <tableColumn id="3" xr3:uid="{8FDDFCB0-2692-4EB0-948C-7B877263B55B}" name="Average" dataDxfId="140">
       <calculatedColumnFormula>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Points]]/($AA$6-Table1[[#This Row],[Missed Games]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{CC3F9B31-1857-48FB-A18B-CBC82C117BF4}" name="Finishes" dataDxfId="141">
+    <tableColumn id="4" xr3:uid="{CC3F9B31-1857-48FB-A18B-CBC82C117BF4}" name="Finishes" dataDxfId="139">
       <calculatedColumnFormula>SUM(AM29,AB49,AM49,AB69,AM69,AB89,AM89)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{5F324C66-956D-4EDC-870F-8EDE96C328C8}" name="Averages" dataDxfId="140">
+    <tableColumn id="5" xr3:uid="{5F324C66-956D-4EDC-870F-8EDE96C328C8}" name="Averages" dataDxfId="138">
       <calculatedColumnFormula>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Finishes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{80C6E15E-675D-4F58-AA26-27226F1CE373}" name="Midranges" dataDxfId="139">
+    <tableColumn id="6" xr3:uid="{80C6E15E-675D-4F58-AA26-27226F1CE373}" name="Midranges" dataDxfId="137">
       <calculatedColumnFormula>SUM(AN29,AC49,AN49,AC69,AN69,AC89,AN89)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{8E7E6B37-23A0-4556-8839-B9D7834E3E68}" name="Averages2" dataDxfId="138">
+    <tableColumn id="7" xr3:uid="{8E7E6B37-23A0-4556-8839-B9D7834E3E68}" name="Averages2" dataDxfId="136">
       <calculatedColumnFormula>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Midranges]]/($AA$6-Table1[[#This Row],[Missed Games]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{8B28715D-E310-4E1F-B9F0-F58F7C70E830}" name="Threes" dataDxfId="137">
+    <tableColumn id="8" xr3:uid="{8B28715D-E310-4E1F-B9F0-F58F7C70E830}" name="Threes" dataDxfId="135">
       <calculatedColumnFormula>SUM(AO29,AD49,AO49,AD69,AO69,AD89,AO89)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{E0C0BF1C-40E8-4137-8E0F-BB238D651DAE}" name="Averages3" dataDxfId="136">
+    <tableColumn id="9" xr3:uid="{E0C0BF1C-40E8-4137-8E0F-BB238D651DAE}" name="Averages3" dataDxfId="134">
       <calculatedColumnFormula>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Threes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{1C75F230-74E0-47EE-BF13-C22289FE0F87}" name="Team" dataDxfId="135">
+    <tableColumn id="10" xr3:uid="{1C75F230-74E0-47EE-BF13-C22289FE0F87}" name="Team" dataDxfId="133">
       <calculatedColumnFormula>SfW!C3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{E167D7FA-56F9-4571-B292-FF3869585F59}" name="Missed Games" dataDxfId="134">
+    <tableColumn id="11" xr3:uid="{E167D7FA-56F9-4571-B292-FF3869585F59}" name="Missed Games" dataDxfId="132">
       <calculatedColumnFormula>SUM(AT29,AI49,AT49,AI69,AT69,AI89,AT89)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7134,94 +7134,94 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{744FF78C-74B5-4798-AD3D-741E3ACB43CF}" name="Table1114" displayName="Table1114" ref="R3:AA8" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{744FF78C-74B5-4798-AD3D-741E3ACB43CF}" name="Table1114" displayName="Table1114" ref="R3:AA8" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
   <autoFilter ref="R3:AA8" xr:uid="{744FF78C-74B5-4798-AD3D-741E3ACB43CF}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{B3B5C08C-655A-460A-A171-B3B0C826FF04}" name="Name" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{427944B0-44CA-4325-A406-29F83026BA5E}" name="Points" dataDxfId="34">
+    <tableColumn id="1" xr3:uid="{B3B5C08C-655A-460A-A171-B3B0C826FF04}" name="Name" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{427944B0-44CA-4325-A406-29F83026BA5E}" name="Points" dataDxfId="32">
       <calculatedColumnFormula>'Stats Global'!AA22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{5E06D173-4DBE-4045-9072-0A0A77D19C84}" name="Average" dataDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{E74131A4-1DCA-4A89-8989-A4CF80175582}" name="Finishes" dataDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{FC3336D4-2CB5-4673-A345-7C9CCED7ADEE}" name="Averages" dataDxfId="31"/>
-    <tableColumn id="6" xr3:uid="{BD6313A7-5D92-4B66-9B85-7ABC12DE9691}" name="Midranges" dataDxfId="30"/>
-    <tableColumn id="7" xr3:uid="{6D0293BC-7E06-45CE-9D4B-FE4769DF9D9F}" name="Averages2" dataDxfId="29"/>
-    <tableColumn id="8" xr3:uid="{89C1C64B-DD66-482C-BCDE-8B912D2676EF}" name="Threes" dataDxfId="28"/>
-    <tableColumn id="9" xr3:uid="{7748B87C-1833-4BD6-9162-76373407E655}" name="Averages3" dataDxfId="27"/>
-    <tableColumn id="10" xr3:uid="{D870E191-A52F-442E-AA52-A42CFAD05573}" name="Missed Games" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{5E06D173-4DBE-4045-9072-0A0A77D19C84}" name="Average" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{E74131A4-1DCA-4A89-8989-A4CF80175582}" name="Finishes" dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{FC3336D4-2CB5-4673-A345-7C9CCED7ADEE}" name="Averages" dataDxfId="29"/>
+    <tableColumn id="6" xr3:uid="{BD6313A7-5D92-4B66-9B85-7ABC12DE9691}" name="Midranges" dataDxfId="28"/>
+    <tableColumn id="7" xr3:uid="{6D0293BC-7E06-45CE-9D4B-FE4769DF9D9F}" name="Averages2" dataDxfId="27"/>
+    <tableColumn id="8" xr3:uid="{89C1C64B-DD66-482C-BCDE-8B912D2676EF}" name="Threes" dataDxfId="26"/>
+    <tableColumn id="9" xr3:uid="{7748B87C-1833-4BD6-9162-76373407E655}" name="Averages3" dataDxfId="25"/>
+    <tableColumn id="10" xr3:uid="{D870E191-A52F-442E-AA52-A42CFAD05573}" name="Missed Games" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{54759C84-3153-4DC9-9240-E2749AA0D92B}" name="Table1113" displayName="Table1113" ref="O3:X10" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{54759C84-3153-4DC9-9240-E2749AA0D92B}" name="Table1113" displayName="Table1113" ref="O3:X10" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
   <autoFilter ref="O3:X10" xr:uid="{54759C84-3153-4DC9-9240-E2749AA0D92B}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{7790729E-C8E5-45C1-8784-25212A2654AA}" name="Name" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{52A67B2B-967C-4970-8D83-8F8E9CC61522}" name="Points" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{BA1FA2C8-AEC0-4644-83DB-5097750D7188}" name="Average" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{4CF66F5D-BF10-4CBD-88FF-CCD38730E1CD}" name="Finishes" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{BC246D5B-7E78-41A6-B796-C93ED8E53DF9}" name="Averages" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{AB819419-CC06-4A40-8DED-E231125129C0}" name="Midranges" dataDxfId="18"/>
-    <tableColumn id="7" xr3:uid="{064AA562-C451-4362-805E-D12DC76C3530}" name="Averages2" dataDxfId="17"/>
-    <tableColumn id="8" xr3:uid="{BD0D8BAE-15E4-4B38-87FE-B682D7BAEE75}" name="Threes" dataDxfId="16"/>
-    <tableColumn id="9" xr3:uid="{541E391B-4B08-4E98-A63F-753C11193269}" name="Averages3" dataDxfId="15"/>
-    <tableColumn id="10" xr3:uid="{999BB5D2-D6FB-4EB9-A268-D62EA72F939D}" name="Missed Games" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{7790729E-C8E5-45C1-8784-25212A2654AA}" name="Name" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{52A67B2B-967C-4970-8D83-8F8E9CC61522}" name="Points" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{BA1FA2C8-AEC0-4644-83DB-5097750D7188}" name="Average" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{4CF66F5D-BF10-4CBD-88FF-CCD38730E1CD}" name="Finishes" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{BC246D5B-7E78-41A6-B796-C93ED8E53DF9}" name="Averages" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{AB819419-CC06-4A40-8DED-E231125129C0}" name="Midranges" dataDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{064AA562-C451-4362-805E-D12DC76C3530}" name="Averages2" dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{BD0D8BAE-15E4-4B38-87FE-B682D7BAEE75}" name="Threes" dataDxfId="14"/>
+    <tableColumn id="9" xr3:uid="{541E391B-4B08-4E98-A63F-753C11193269}" name="Averages3" dataDxfId="13"/>
+    <tableColumn id="10" xr3:uid="{999BB5D2-D6FB-4EB9-A268-D62EA72F939D}" name="Missed Games" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{C12CFC3F-7D59-4C0F-8D43-3F8ACD58C2BD}" name="Table11" displayName="Table11" ref="L4:U9" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{C12CFC3F-7D59-4C0F-8D43-3F8ACD58C2BD}" name="Table11" displayName="Table11" ref="L4:U9" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="L4:U9" xr:uid="{C12CFC3F-7D59-4C0F-8D43-3F8ACD58C2BD}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{CE15C23D-9493-4B21-9D40-1A25D210C18E}" name="Name" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{6BB170B1-AA38-4699-9B96-400D2947EE9C}" name="Points" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{EC8B6CBB-FCC9-416C-AEA6-738419DFE531}" name="Average" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{315DA055-9A43-468A-A501-1092626F523F}" name="Finishes" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{56B6FF4D-95D4-4550-88E4-C781ABDA83A6}" name="Averages" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{F7B5C0B8-FBE2-44B0-A372-112C7776FCCF}" name="Midranges" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{1A1C2126-FEB1-408F-8523-049E53028B4E}" name="Averages2" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{AE94036B-3777-4C1B-97D5-7BFA1037C0BF}" name="Threes" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{448B0903-7F66-40BA-809F-74ADBF397B45}" name="Averages3" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{E0CAC55D-8398-4928-A219-C01706996D48}" name="Missed Games" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{CE15C23D-9493-4B21-9D40-1A25D210C18E}" name="Name" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{6BB170B1-AA38-4699-9B96-400D2947EE9C}" name="Points" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{EC8B6CBB-FCC9-416C-AEA6-738419DFE531}" name="Average" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{315DA055-9A43-468A-A501-1092626F523F}" name="Finishes" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{56B6FF4D-95D4-4550-88E4-C781ABDA83A6}" name="Averages" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{F7B5C0B8-FBE2-44B0-A372-112C7776FCCF}" name="Midranges" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{1A1C2126-FEB1-408F-8523-049E53028B4E}" name="Averages2" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{AE94036B-3777-4C1B-97D5-7BFA1037C0BF}" name="Threes" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{448B0903-7F66-40BA-809F-74ADBF397B45}" name="Averages3" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{E0CAC55D-8398-4928-A219-C01706996D48}" name="Missed Games" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{84D0C431-52CF-4ABD-AA3E-D31975A289B1}" name="Table2" displayName="Table2" ref="Z28:AI45" totalsRowShown="0" headerRowDxfId="133" dataDxfId="132">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{84D0C431-52CF-4ABD-AA3E-D31975A289B1}" name="Table2" displayName="Table2" ref="Z28:AI45" totalsRowShown="0" headerRowDxfId="131" dataDxfId="130">
   <autoFilter ref="Z28:AI45" xr:uid="{84D0C431-52CF-4ABD-AA3E-D31975A289B1}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{4DB7A2B8-7BD8-4BD7-8F53-2A7873A4EAAE}" name="Scoring" dataDxfId="131"/>
-    <tableColumn id="2" xr3:uid="{BE8EBD49-660A-4C9F-970E-230EBB942EF1}" name="Points" dataDxfId="130">
+    <tableColumn id="1" xr3:uid="{4DB7A2B8-7BD8-4BD7-8F53-2A7873A4EAAE}" name="Scoring" dataDxfId="129"/>
+    <tableColumn id="2" xr3:uid="{BE8EBD49-660A-4C9F-970E-230EBB942EF1}" name="Points" dataDxfId="128">
       <calculatedColumnFormula>'Preseason 1'!R3+'Preseason 2'!R3+'Preseason 3'!R3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{C2C49EF0-4D8C-4F8C-8D19-CDD1481D9568}" name="Finishes" dataDxfId="129">
+    <tableColumn id="3" xr3:uid="{C2C49EF0-4D8C-4F8C-8D19-CDD1481D9568}" name="Finishes" dataDxfId="127">
       <calculatedColumnFormula>'Preseason 1'!S3+'Preseason 2'!S3+'Preseason 3'!S3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{7E789F8C-B8F3-4D6E-AB6C-C9454835B062}" name="Midranges" dataDxfId="128">
+    <tableColumn id="4" xr3:uid="{7E789F8C-B8F3-4D6E-AB6C-C9454835B062}" name="Midranges" dataDxfId="126">
       <calculatedColumnFormula>'Preseason 1'!T3+'Preseason 2'!T3+'Preseason 3'!T3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{18C990F2-A6D0-4F57-B96A-D00066DCC8D8}" name="Threes" dataDxfId="127">
+    <tableColumn id="5" xr3:uid="{18C990F2-A6D0-4F57-B96A-D00066DCC8D8}" name="Threes" dataDxfId="125">
       <calculatedColumnFormula>'Preseason 1'!U3+'Preseason 2'!U3+'Preseason 3'!U3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{40526534-76CA-42BA-A8B6-AB092D9CE18F}" name="Avg P" dataDxfId="126">
+    <tableColumn id="6" xr3:uid="{40526534-76CA-42BA-A8B6-AB092D9CE18F}" name="Avg P" dataDxfId="124">
       <calculatedColumnFormula>AA29/($AA$27-Table2[[#This Row],[Missed Games]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{693AF117-21F6-4887-B78D-D59235BABA44}" name="Avg F" dataDxfId="125">
+    <tableColumn id="7" xr3:uid="{693AF117-21F6-4887-B78D-D59235BABA44}" name="Avg F" dataDxfId="123">
       <calculatedColumnFormula>AB29/($AA$27-Table2[[#This Row],[Missed Games]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{02AC8FBF-EBB3-4AFC-BAC5-B773E33B7279}" name="Avg M" dataDxfId="124">
+    <tableColumn id="8" xr3:uid="{02AC8FBF-EBB3-4AFC-BAC5-B773E33B7279}" name="Avg M" dataDxfId="122">
       <calculatedColumnFormula>AC29/($AA$27-Table2[[#This Row],[Missed Games]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{CCF75EB4-34C4-4D47-9D51-E8D85C07E38B}" name="Avg T" dataDxfId="123">
+    <tableColumn id="9" xr3:uid="{CCF75EB4-34C4-4D47-9D51-E8D85C07E38B}" name="Avg T" dataDxfId="121">
       <calculatedColumnFormula>AD29/($AA$27-Table2[[#This Row],[Missed Games]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{1A786A5C-D0C2-4ABC-904C-983180542D5F}" name="Missed Games" dataDxfId="122">
+    <tableColumn id="10" xr3:uid="{1A786A5C-D0C2-4ABC-904C-983180542D5F}" name="Missed Games" dataDxfId="120">
       <calculatedColumnFormula>COUNTIF('Preseason 1'!V3, "TRUE")+COUNTIF('Preseason 2'!V3, "TRUE")+COUNTIF('Preseason 3'!V3, "TRUE")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7230,35 +7230,35 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{46F39EBA-1E74-46F4-A6E5-473672128124}" name="Table211" displayName="Table211" ref="AK28:AT45" totalsRowShown="0" headerRowDxfId="121" dataDxfId="120">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{46F39EBA-1E74-46F4-A6E5-473672128124}" name="Table211" displayName="Table211" ref="AK28:AT45" totalsRowShown="0" headerRowDxfId="119" dataDxfId="118">
   <autoFilter ref="AK28:AT45" xr:uid="{46F39EBA-1E74-46F4-A6E5-473672128124}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{5D003608-C1C2-4694-9447-8632FB8D7348}" name="Scoring" dataDxfId="119"/>
-    <tableColumn id="2" xr3:uid="{D15F4085-CED5-4CDD-B43B-BF7EB59B45A3}" name="Points" dataDxfId="118">
+    <tableColumn id="1" xr3:uid="{5D003608-C1C2-4694-9447-8632FB8D7348}" name="Scoring" dataDxfId="117"/>
+    <tableColumn id="2" xr3:uid="{D15F4085-CED5-4CDD-B43B-BF7EB59B45A3}" name="Points" dataDxfId="116">
       <calculatedColumnFormula>'1707'!R3+'1807'!R3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{2D436F37-54B6-4820-9145-F48B4EF9B294}" name="Finishes" dataDxfId="117">
+    <tableColumn id="3" xr3:uid="{2D436F37-54B6-4820-9145-F48B4EF9B294}" name="Finishes" dataDxfId="115">
       <calculatedColumnFormula>'1707'!S3+'1807'!S3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{1D9B6A22-B682-47F3-B738-7C138F317A41}" name="Midranges" dataDxfId="116">
+    <tableColumn id="4" xr3:uid="{1D9B6A22-B682-47F3-B738-7C138F317A41}" name="Midranges" dataDxfId="114">
       <calculatedColumnFormula>'1707'!T3+'1807'!T3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{9966C9A0-3872-44E9-BB39-05DE197EAA68}" name="Threes" dataDxfId="115">
+    <tableColumn id="5" xr3:uid="{9966C9A0-3872-44E9-BB39-05DE197EAA68}" name="Threes" dataDxfId="113">
       <calculatedColumnFormula>'1707'!U3+'1807'!U3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{CC4AB646-735F-425F-8528-C5EFE7FE11DC}" name="Avg P" dataDxfId="114">
+    <tableColumn id="6" xr3:uid="{CC4AB646-735F-425F-8528-C5EFE7FE11DC}" name="Avg P" dataDxfId="112">
       <calculatedColumnFormula>AL29/($AA$27-Table211[[#This Row],[Missed Games]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{F8D0247E-C6F7-467A-9F38-46084D44F8AB}" name="Avg F" dataDxfId="113">
+    <tableColumn id="7" xr3:uid="{F8D0247E-C6F7-467A-9F38-46084D44F8AB}" name="Avg F" dataDxfId="111">
       <calculatedColumnFormula>AM29/($AA$27-Table211[[#This Row],[Missed Games]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{7CCF1C77-9DB0-4EB2-B7D0-FD0BDBEBFA0E}" name="Avg M" dataDxfId="112">
+    <tableColumn id="8" xr3:uid="{7CCF1C77-9DB0-4EB2-B7D0-FD0BDBEBFA0E}" name="Avg M" dataDxfId="110">
       <calculatedColumnFormula>AN29/($AA$27-Table211[[#This Row],[Missed Games]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{582A1A4E-5383-4383-A480-735408867046}" name="Avg T" dataDxfId="111">
+    <tableColumn id="9" xr3:uid="{582A1A4E-5383-4383-A480-735408867046}" name="Avg T" dataDxfId="109">
       <calculatedColumnFormula>AO29/($AA$27-Table211[[#This Row],[Missed Games]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{E547AEB5-F9BA-4C5F-8DCE-34B6A8FF303A}" name="Missed Games" dataDxfId="110">
+    <tableColumn id="10" xr3:uid="{E547AEB5-F9BA-4C5F-8DCE-34B6A8FF303A}" name="Missed Games" dataDxfId="108">
       <calculatedColumnFormula>COUNTIF('1707'!V3, "TRUE")+COUNTIF('1807'!V3, "TRUE")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7267,35 +7267,35 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{D27C125F-71B2-44D9-9F7A-9BED67755DD3}" name="Table21123" displayName="Table21123" ref="Z48:AI65" totalsRowShown="0" headerRowDxfId="109" dataDxfId="108">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{D27C125F-71B2-44D9-9F7A-9BED67755DD3}" name="Table21123" displayName="Table21123" ref="Z48:AI65" totalsRowShown="0" headerRowDxfId="107" dataDxfId="106">
   <autoFilter ref="Z48:AI65" xr:uid="{D27C125F-71B2-44D9-9F7A-9BED67755DD3}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{0B0344E8-2677-4FAB-9B03-4745991FB5AE}" name="Scoring" dataDxfId="107"/>
-    <tableColumn id="2" xr3:uid="{58CA1107-8BB4-4A5D-BA00-31619C8D3973}" name="Points" dataDxfId="106">
+    <tableColumn id="1" xr3:uid="{0B0344E8-2677-4FAB-9B03-4745991FB5AE}" name="Scoring" dataDxfId="105"/>
+    <tableColumn id="2" xr3:uid="{58CA1107-8BB4-4A5D-BA00-31619C8D3973}" name="Points" dataDxfId="104">
       <calculatedColumnFormula>Template!R23</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{8090861E-1FDF-44F4-9DB6-BB814E32C754}" name="Finishes" dataDxfId="105">
+    <tableColumn id="3" xr3:uid="{8090861E-1FDF-44F4-9DB6-BB814E32C754}" name="Finishes" dataDxfId="103">
       <calculatedColumnFormula>Template!S23</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{972D0347-DAB3-4985-A738-E5D78740D498}" name="Midranges" dataDxfId="104">
+    <tableColumn id="4" xr3:uid="{972D0347-DAB3-4985-A738-E5D78740D498}" name="Midranges" dataDxfId="102">
       <calculatedColumnFormula>Template!T23</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{48F5F884-1753-4988-9056-632B5EB6BBCB}" name="Threes" dataDxfId="103">
+    <tableColumn id="5" xr3:uid="{48F5F884-1753-4988-9056-632B5EB6BBCB}" name="Threes" dataDxfId="101">
       <calculatedColumnFormula>Template!U23</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{6953B627-EA05-418F-A758-FD59263EA60D}" name="Avg P" dataDxfId="102">
+    <tableColumn id="6" xr3:uid="{6953B627-EA05-418F-A758-FD59263EA60D}" name="Avg P" dataDxfId="100">
       <calculatedColumnFormula>AA49/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{BE057C9C-5ECD-4AC2-A9C0-18C89CFB52BC}" name="Avg F" dataDxfId="101">
+    <tableColumn id="7" xr3:uid="{BE057C9C-5ECD-4AC2-A9C0-18C89CFB52BC}" name="Avg F" dataDxfId="99">
       <calculatedColumnFormula>AB49/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{0FDEBEE7-CD5E-4A44-A0AE-74F044F1FF46}" name="Avg M" dataDxfId="100">
+    <tableColumn id="8" xr3:uid="{0FDEBEE7-CD5E-4A44-A0AE-74F044F1FF46}" name="Avg M" dataDxfId="98">
       <calculatedColumnFormula>AC49/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{76975BB6-3677-41A8-BC24-7536B1D876D3}" name="Avg T" dataDxfId="99">
+    <tableColumn id="9" xr3:uid="{76975BB6-3677-41A8-BC24-7536B1D876D3}" name="Avg T" dataDxfId="97">
       <calculatedColumnFormula>AD49/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{E5ADB69B-3BA2-4019-8C83-8B02221F187E}" name="Missed Games" dataDxfId="98">
+    <tableColumn id="10" xr3:uid="{E5ADB69B-3BA2-4019-8C83-8B02221F187E}" name="Missed Games" dataDxfId="96">
       <calculatedColumnFormula>COUNTIF(Template!V23, "TRUE")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7304,35 +7304,35 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{22B89D2C-1B74-4036-A4ED-A5E61F1B3AAC}" name="Table21124" displayName="Table21124" ref="AK48:AT65" totalsRowShown="0" headerRowDxfId="97" dataDxfId="96">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{22B89D2C-1B74-4036-A4ED-A5E61F1B3AAC}" name="Table21124" displayName="Table21124" ref="AK48:AT65" totalsRowShown="0" headerRowDxfId="95" dataDxfId="94">
   <autoFilter ref="AK48:AT65" xr:uid="{22B89D2C-1B74-4036-A4ED-A5E61F1B3AAC}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{3D35891E-3654-497A-8DB2-BF0BD916CA29}" name="Scoring" dataDxfId="95"/>
-    <tableColumn id="2" xr3:uid="{54B5B6AF-372A-4E07-B4D6-DFC66F7E20C5}" name="Points" dataDxfId="94">
+    <tableColumn id="1" xr3:uid="{3D35891E-3654-497A-8DB2-BF0BD916CA29}" name="Scoring" dataDxfId="93"/>
+    <tableColumn id="2" xr3:uid="{54B5B6AF-372A-4E07-B4D6-DFC66F7E20C5}" name="Points" dataDxfId="92">
       <calculatedColumnFormula>Template!AC23</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{6CA15B41-F560-4B43-8836-163F5BB5689C}" name="Finishes" dataDxfId="93">
+    <tableColumn id="3" xr3:uid="{6CA15B41-F560-4B43-8836-163F5BB5689C}" name="Finishes" dataDxfId="91">
       <calculatedColumnFormula>Template!AD23</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{8FF05262-0051-44F7-966E-8D405318BA69}" name="Midranges" dataDxfId="92">
+    <tableColumn id="4" xr3:uid="{8FF05262-0051-44F7-966E-8D405318BA69}" name="Midranges" dataDxfId="90">
       <calculatedColumnFormula>Template!AE23</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{F0D843FC-7A93-4C9A-BCCF-E789F7811B3B}" name="Threes" dataDxfId="91">
+    <tableColumn id="5" xr3:uid="{F0D843FC-7A93-4C9A-BCCF-E789F7811B3B}" name="Threes" dataDxfId="89">
       <calculatedColumnFormula>Template!AF23</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{F0498F8A-F646-4C1F-A3CF-E89E73750FC1}" name="Avg P" dataDxfId="90">
+    <tableColumn id="6" xr3:uid="{F0498F8A-F646-4C1F-A3CF-E89E73750FC1}" name="Avg P" dataDxfId="88">
       <calculatedColumnFormula>AL49/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{A387BC88-F45C-4386-8503-EFEA33BDAC38}" name="Avg F" dataDxfId="89">
+    <tableColumn id="7" xr3:uid="{A387BC88-F45C-4386-8503-EFEA33BDAC38}" name="Avg F" dataDxfId="87">
       <calculatedColumnFormula>AM49/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{BEA82919-0828-4351-A01A-D72E13E63FAB}" name="Avg M" dataDxfId="88">
+    <tableColumn id="8" xr3:uid="{BEA82919-0828-4351-A01A-D72E13E63FAB}" name="Avg M" dataDxfId="86">
       <calculatedColumnFormula>AN49/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{ABEBCE01-BCA4-4342-966C-27301889B607}" name="Avg T" dataDxfId="87">
+    <tableColumn id="9" xr3:uid="{ABEBCE01-BCA4-4342-966C-27301889B607}" name="Avg T" dataDxfId="85">
       <calculatedColumnFormula>AO49/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{65E7A8E7-4C51-42E4-AB0F-B7FF6099D70A}" name="Missed Games" dataDxfId="86">
+    <tableColumn id="10" xr3:uid="{65E7A8E7-4C51-42E4-AB0F-B7FF6099D70A}" name="Missed Games" dataDxfId="84">
       <calculatedColumnFormula>COUNTIF(Template!AG23, "TRUE")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7341,35 +7341,35 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{18C7D514-96DE-4BA6-B019-3E860ED143EC}" name="Table21125" displayName="Table21125" ref="AK68:AT85" totalsRowShown="0" headerRowDxfId="85" dataDxfId="84">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{18C7D514-96DE-4BA6-B019-3E860ED143EC}" name="Table21125" displayName="Table21125" ref="AK68:AT85" totalsRowShown="0" headerRowDxfId="83" dataDxfId="82">
   <autoFilter ref="AK68:AT85" xr:uid="{18C7D514-96DE-4BA6-B019-3E860ED143EC}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{D144EF14-69FD-4E71-90C7-56F49F45FAE5}" name="Scoring" dataDxfId="83"/>
-    <tableColumn id="2" xr3:uid="{34D1D392-F3E0-4C36-9EED-849D5B1149E6}" name="Points" dataDxfId="82">
+    <tableColumn id="1" xr3:uid="{D144EF14-69FD-4E71-90C7-56F49F45FAE5}" name="Scoring" dataDxfId="81"/>
+    <tableColumn id="2" xr3:uid="{34D1D392-F3E0-4C36-9EED-849D5B1149E6}" name="Points" dataDxfId="80">
       <calculatedColumnFormula>Template!AC43</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{E91D98A2-80BD-4E5C-9036-2FCC8185369F}" name="Finishes" dataDxfId="81">
+    <tableColumn id="3" xr3:uid="{E91D98A2-80BD-4E5C-9036-2FCC8185369F}" name="Finishes" dataDxfId="79">
       <calculatedColumnFormula>Template!AD43</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{D2E5029E-4811-4E9B-9A2D-5F5F8F322B0D}" name="Midranges" dataDxfId="80">
+    <tableColumn id="4" xr3:uid="{D2E5029E-4811-4E9B-9A2D-5F5F8F322B0D}" name="Midranges" dataDxfId="78">
       <calculatedColumnFormula>Template!AE43</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{B3E76CEE-33DA-4B18-8DCE-8EBC7EE592D7}" name="Threes" dataDxfId="79">
+    <tableColumn id="5" xr3:uid="{B3E76CEE-33DA-4B18-8DCE-8EBC7EE592D7}" name="Threes" dataDxfId="77">
       <calculatedColumnFormula>Template!AF43</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{6ABE1879-8018-4498-A9A1-22CF831F0364}" name="Avg P" dataDxfId="78">
+    <tableColumn id="6" xr3:uid="{6ABE1879-8018-4498-A9A1-22CF831F0364}" name="Avg P" dataDxfId="76">
       <calculatedColumnFormula>AL69/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{8DA4DD79-8A2A-49E4-996F-C1ACCED3C565}" name="Avg F" dataDxfId="77">
+    <tableColumn id="7" xr3:uid="{8DA4DD79-8A2A-49E4-996F-C1ACCED3C565}" name="Avg F" dataDxfId="75">
       <calculatedColumnFormula>AM69/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{256EA4BC-BA61-49E2-969F-0786AA9AA6EA}" name="Avg M" dataDxfId="76">
+    <tableColumn id="8" xr3:uid="{256EA4BC-BA61-49E2-969F-0786AA9AA6EA}" name="Avg M" dataDxfId="74">
       <calculatedColumnFormula>AN69/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{0E5566B2-99EC-4B03-A074-8705C4EDA484}" name="Avg T" dataDxfId="75">
+    <tableColumn id="9" xr3:uid="{0E5566B2-99EC-4B03-A074-8705C4EDA484}" name="Avg T" dataDxfId="73">
       <calculatedColumnFormula>AO69/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{3E2357F0-493E-401D-AC75-9AAB260F684E}" name="Missed Games" dataDxfId="74">
+    <tableColumn id="10" xr3:uid="{3E2357F0-493E-401D-AC75-9AAB260F684E}" name="Missed Games" dataDxfId="72">
       <calculatedColumnFormula>COUNTIF(Template!AG43, "TRUE")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7378,35 +7378,35 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{F118BED8-7AAF-4E55-A61F-C75C69A64AAE}" name="Table21126" displayName="Table21126" ref="Z68:AI85" totalsRowShown="0" headerRowDxfId="73" dataDxfId="72">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{F118BED8-7AAF-4E55-A61F-C75C69A64AAE}" name="Table21126" displayName="Table21126" ref="Z68:AI85" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70">
   <autoFilter ref="Z68:AI85" xr:uid="{F118BED8-7AAF-4E55-A61F-C75C69A64AAE}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{7723929D-65B3-40BB-8FDD-C4533243706C}" name="Scoring" dataDxfId="71"/>
-    <tableColumn id="2" xr3:uid="{EC28DE3D-619E-4930-A3AF-7AD1BE1D4843}" name="Points" dataDxfId="70">
+    <tableColumn id="1" xr3:uid="{7723929D-65B3-40BB-8FDD-C4533243706C}" name="Scoring" dataDxfId="69"/>
+    <tableColumn id="2" xr3:uid="{EC28DE3D-619E-4930-A3AF-7AD1BE1D4843}" name="Points" dataDxfId="68">
       <calculatedColumnFormula>Template!R43</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{9537269D-8C1D-42B5-866F-D03CE61A8512}" name="Finishes" dataDxfId="69">
+    <tableColumn id="3" xr3:uid="{9537269D-8C1D-42B5-866F-D03CE61A8512}" name="Finishes" dataDxfId="67">
       <calculatedColumnFormula>Template!S43</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{AC590DDB-BE19-4A14-8B98-1E5E2430AA45}" name="Midranges" dataDxfId="68">
+    <tableColumn id="4" xr3:uid="{AC590DDB-BE19-4A14-8B98-1E5E2430AA45}" name="Midranges" dataDxfId="66">
       <calculatedColumnFormula>Template!T43</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C96D3ACD-F34D-477E-86DE-4650EE56BC94}" name="Threes" dataDxfId="67">
+    <tableColumn id="5" xr3:uid="{C96D3ACD-F34D-477E-86DE-4650EE56BC94}" name="Threes" dataDxfId="65">
       <calculatedColumnFormula>Template!U43</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{A43DE5E9-BB01-49FA-A204-66EE7BAA2E9F}" name="Avg P" dataDxfId="66">
+    <tableColumn id="6" xr3:uid="{A43DE5E9-BB01-49FA-A204-66EE7BAA2E9F}" name="Avg P" dataDxfId="64">
       <calculatedColumnFormula>AA69/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{C75A19FF-6041-45C2-BACB-E347F06B6329}" name="Avg F" dataDxfId="65">
+    <tableColumn id="7" xr3:uid="{C75A19FF-6041-45C2-BACB-E347F06B6329}" name="Avg F" dataDxfId="63">
       <calculatedColumnFormula>AB69/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00D3FCFC-C9C5-4C96-BE0E-8E1FDC95D07C}" name="Avg M" dataDxfId="64">
+    <tableColumn id="8" xr3:uid="{00D3FCFC-C9C5-4C96-BE0E-8E1FDC95D07C}" name="Avg M" dataDxfId="62">
       <calculatedColumnFormula>AC69/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{0448FF4E-9D2D-47F6-89B7-F17D36B05E8A}" name="Avg T" dataDxfId="63">
+    <tableColumn id="9" xr3:uid="{0448FF4E-9D2D-47F6-89B7-F17D36B05E8A}" name="Avg T" dataDxfId="61">
       <calculatedColumnFormula>AD69/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{D5BDFA2D-095B-44F8-8567-15B3B1520E5A}" name="Missed Games" dataDxfId="62">
+    <tableColumn id="10" xr3:uid="{D5BDFA2D-095B-44F8-8567-15B3B1520E5A}" name="Missed Games" dataDxfId="60">
       <calculatedColumnFormula>COUNTIF(Template!V43, "TRUE")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7415,35 +7415,35 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{BDD2E472-3925-41A7-BECD-3315E6E71ECC}" name="Table21127" displayName="Table21127" ref="Z88:AI105" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{BDD2E472-3925-41A7-BECD-3315E6E71ECC}" name="Table21127" displayName="Table21127" ref="Z88:AI105" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58">
   <autoFilter ref="Z88:AI105" xr:uid="{BDD2E472-3925-41A7-BECD-3315E6E71ECC}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{9DBD966D-620C-4B97-A502-29D00ABE150B}" name="Scoring" dataDxfId="59"/>
-    <tableColumn id="2" xr3:uid="{F8F81F0E-16B3-4472-9D90-A92149C763E4}" name="Points" dataDxfId="58">
+    <tableColumn id="1" xr3:uid="{9DBD966D-620C-4B97-A502-29D00ABE150B}" name="Scoring" dataDxfId="57"/>
+    <tableColumn id="2" xr3:uid="{F8F81F0E-16B3-4472-9D90-A92149C763E4}" name="Points" dataDxfId="56">
       <calculatedColumnFormula>Template!R63</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{09859CE1-290D-4977-B02C-46F4E5A6FDC2}" name="Finishes" dataDxfId="57">
+    <tableColumn id="3" xr3:uid="{09859CE1-290D-4977-B02C-46F4E5A6FDC2}" name="Finishes" dataDxfId="55">
       <calculatedColumnFormula>Template!S63</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{7D751A0E-2895-46DF-B5E2-5A8AA5531CD2}" name="Midranges" dataDxfId="56">
+    <tableColumn id="4" xr3:uid="{7D751A0E-2895-46DF-B5E2-5A8AA5531CD2}" name="Midranges" dataDxfId="54">
       <calculatedColumnFormula>Template!T63</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{591CDC71-B0EA-413B-B6C1-77884E7E50D4}" name="Threes" dataDxfId="55">
+    <tableColumn id="5" xr3:uid="{591CDC71-B0EA-413B-B6C1-77884E7E50D4}" name="Threes" dataDxfId="53">
       <calculatedColumnFormula>Template!U63</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{52ED768C-5557-42DC-9824-7A4D9B547153}" name="Avg P" dataDxfId="54">
+    <tableColumn id="6" xr3:uid="{52ED768C-5557-42DC-9824-7A4D9B547153}" name="Avg P" dataDxfId="52">
       <calculatedColumnFormula>AA89/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{FC79BE87-72E2-4F5E-83D6-CDCE645EB943}" name="Avg F" dataDxfId="53">
+    <tableColumn id="7" xr3:uid="{FC79BE87-72E2-4F5E-83D6-CDCE645EB943}" name="Avg F" dataDxfId="51">
       <calculatedColumnFormula>AB89/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{BA012C22-0D65-4C11-98A7-4F958703D04B}" name="Avg M" dataDxfId="52">
+    <tableColumn id="8" xr3:uid="{BA012C22-0D65-4C11-98A7-4F958703D04B}" name="Avg M" dataDxfId="50">
       <calculatedColumnFormula>AC89/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{63344F2B-5D94-417D-85E2-C2BFBACE3E7E}" name="Avg T" dataDxfId="51">
+    <tableColumn id="9" xr3:uid="{63344F2B-5D94-417D-85E2-C2BFBACE3E7E}" name="Avg T" dataDxfId="49">
       <calculatedColumnFormula>AD89/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{1AD5A604-8909-45B3-8E43-11D407451CEA}" name="Missed Games" dataDxfId="50">
+    <tableColumn id="10" xr3:uid="{1AD5A604-8909-45B3-8E43-11D407451CEA}" name="Missed Games" dataDxfId="48">
       <calculatedColumnFormula>COUNTIF(Template!V63, "TRUE")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7452,35 +7452,35 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{F9183685-60DE-4163-AA62-BE4F563EE570}" name="Table21128" displayName="Table21128" ref="AK88:AT105" totalsRowShown="0" headerRowDxfId="49" dataDxfId="48">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{F9183685-60DE-4163-AA62-BE4F563EE570}" name="Table21128" displayName="Table21128" ref="AK88:AT105" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
   <autoFilter ref="AK88:AT105" xr:uid="{F9183685-60DE-4163-AA62-BE4F563EE570}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{E62FBAA0-D6F6-4997-96C9-B6B13FAA9B6E}" name="Scoring" dataDxfId="47"/>
-    <tableColumn id="2" xr3:uid="{0A655F6F-9A21-4167-85B6-B9F7DC2070CA}" name="Points" dataDxfId="46">
+    <tableColumn id="1" xr3:uid="{E62FBAA0-D6F6-4997-96C9-B6B13FAA9B6E}" name="Scoring" dataDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{0A655F6F-9A21-4167-85B6-B9F7DC2070CA}" name="Points" dataDxfId="44">
       <calculatedColumnFormula>Template!AC63</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{460771D3-3BD8-4DA3-AF1B-1A0F98EF1499}" name="Finishes" dataDxfId="45">
+    <tableColumn id="3" xr3:uid="{460771D3-3BD8-4DA3-AF1B-1A0F98EF1499}" name="Finishes" dataDxfId="43">
       <calculatedColumnFormula>Template!AD63</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{3C08B2D7-823D-49C3-A627-A5848E664B2F}" name="Midranges" dataDxfId="44">
+    <tableColumn id="4" xr3:uid="{3C08B2D7-823D-49C3-A627-A5848E664B2F}" name="Midranges" dataDxfId="42">
       <calculatedColumnFormula>Template!AE63</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{E88F45FB-4C46-4674-86D5-74808E7E5368}" name="Threes" dataDxfId="43">
+    <tableColumn id="5" xr3:uid="{E88F45FB-4C46-4674-86D5-74808E7E5368}" name="Threes" dataDxfId="41">
       <calculatedColumnFormula>Template!AF63</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{0C0E8016-1E6E-4F25-9675-4EE061FFD0F7}" name="Avg P" dataDxfId="42">
+    <tableColumn id="6" xr3:uid="{0C0E8016-1E6E-4F25-9675-4EE061FFD0F7}" name="Avg P" dataDxfId="40">
       <calculatedColumnFormula>AL89/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{F7AC350B-AE4B-4912-B21D-16D99E2AE8BF}" name="Avg F" dataDxfId="41">
+    <tableColumn id="7" xr3:uid="{F7AC350B-AE4B-4912-B21D-16D99E2AE8BF}" name="Avg F" dataDxfId="39">
       <calculatedColumnFormula>AM89/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{F451E5CA-B9C4-4EFA-A647-CEDB2FB39550}" name="Avg M" dataDxfId="40">
+    <tableColumn id="8" xr3:uid="{F451E5CA-B9C4-4EFA-A647-CEDB2FB39550}" name="Avg M" dataDxfId="38">
       <calculatedColumnFormula>AN89/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{ED1D92B5-05F1-40CE-A89F-E6627FAB4A59}" name="Avg T" dataDxfId="39">
+    <tableColumn id="9" xr3:uid="{ED1D92B5-05F1-40CE-A89F-E6627FAB4A59}" name="Avg T" dataDxfId="37">
       <calculatedColumnFormula>AO89/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{48A4808A-3DE6-4644-83F5-C2AEDDFC3E5E}" name="Missed Games" dataDxfId="38">
+    <tableColumn id="10" xr3:uid="{48A4808A-3DE6-4644-83F5-C2AEDDFC3E5E}" name="Missed Games" dataDxfId="36">
       <calculatedColumnFormula>COUNTIF(Template!AG63, "TRUE")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7792,11 +7792,11 @@
       </c>
       <c r="D3" s="8">
         <f>'Stats Global'!AB8</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E3" s="1">
         <f>'Stats Global'!AA8</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="8">
         <f>'Stats Global'!AD8</f>
@@ -7808,11 +7808,11 @@
       </c>
       <c r="H3" s="8">
         <f>'Stats Global'!AF8</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I3" s="12">
         <f>'Stats Global'!AE8</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="8">
         <f>'Stats Global'!AH8</f>
@@ -7846,19 +7846,19 @@
       </c>
       <c r="D4" s="8">
         <f>'Stats Global'!AB9</f>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E4" s="12">
         <f>'Stats Global'!AA9</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4" s="8">
         <f>'Stats Global'!AD9</f>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="G4" s="12">
         <f>'Stats Global'!AC9</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H4" s="8">
         <f>'Stats Global'!AF9</f>
@@ -8299,15 +8299,15 @@
       </c>
       <c r="D11" s="8">
         <f>'Stats Global'!AB16</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11" s="12">
         <f>'Stats Global'!AA16</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F11" s="8">
         <f>'Stats Global'!AD16</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G11" s="12">
         <f>'Stats Global'!AC16</f>
@@ -8315,19 +8315,19 @@
       </c>
       <c r="H11" s="8">
         <f>'Stats Global'!AF16</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I11" s="12">
         <f>'Stats Global'!AE16</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" s="8">
         <f>'Stats Global'!AH16</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K11" s="12">
         <f>'Stats Global'!AG16</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>48</v>
@@ -8374,11 +8374,11 @@
       </c>
       <c r="D12" s="8">
         <f>'Stats Global'!AB17</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E12" s="12">
         <f>'Stats Global'!AA17</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F12" s="8">
         <f>'Stats Global'!AD17</f>
@@ -8394,11 +8394,11 @@
       </c>
       <c r="I12" s="12">
         <f>'Stats Global'!AE17</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J12" s="8">
         <f>'Stats Global'!AH17</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K12" s="12">
         <f>'Stats Global'!AG17</f>
@@ -8443,11 +8443,11 @@
       </c>
       <c r="D13" s="8">
         <f>'Stats Global'!AB18</f>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E13" s="12">
         <f>'Stats Global'!AA18</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13" s="8">
         <f>'Stats Global'!AD18</f>
@@ -8459,11 +8459,11 @@
       </c>
       <c r="H13" s="8">
         <f>'Stats Global'!AF18</f>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="I13" s="12">
         <f>'Stats Global'!AE18</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J13" s="8">
         <f>'Stats Global'!AH18</f>
@@ -8568,7 +8568,7 @@
       </c>
       <c r="D15" s="8">
         <f>'Stats Global'!AB20</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E15" s="12">
         <f>'Stats Global'!AA20</f>
@@ -8576,7 +8576,7 @@
       </c>
       <c r="F15" s="8">
         <f>'Stats Global'!AD20</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G15" s="12">
         <f>'Stats Global'!AC20</f>
@@ -8640,19 +8640,19 @@
       </c>
       <c r="D16" s="8">
         <f>'Stats Global'!AB21</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16" s="12">
         <f>'Stats Global'!AA21</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F16" s="8">
         <f>'Stats Global'!AD21</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="12">
         <f>'Stats Global'!AC21</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H16" s="8">
         <f>'Stats Global'!AF21</f>
@@ -8660,7 +8660,7 @@
       </c>
       <c r="I16" s="12">
         <f>'Stats Global'!AE21</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J16" s="8">
         <f>'Stats Global'!AH21</f>
@@ -8712,27 +8712,27 @@
       </c>
       <c r="D17" s="8">
         <f>'Stats Global'!AB22</f>
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="E17" s="12">
         <f>'Stats Global'!AA22</f>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F17" s="8">
         <f>'Stats Global'!AD22</f>
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="G17" s="12">
         <f>'Stats Global'!AC22</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H17" s="8">
         <f>'Stats Global'!AF22</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="12">
         <f>'Stats Global'!AE22</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17" s="8">
         <f>'Stats Global'!AH22</f>
@@ -8740,7 +8740,7 @@
       </c>
       <c r="K17" s="12">
         <f>'Stats Global'!AG22</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>162</v>
@@ -8922,18 +8922,18 @@
       </c>
     </row>
     <row r="22" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="B22" s="142" t="s">
+      <c r="B22" s="143" t="s">
         <v>119</v>
       </c>
-      <c r="C22" s="142"/>
+      <c r="C22" s="143"/>
       <c r="D22" s="104"/>
       <c r="X22" s="2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="23" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="B23" s="142"/>
-      <c r="C23" s="142"/>
+      <c r="B23" s="143"/>
+      <c r="C23" s="143"/>
       <c r="D23" s="104"/>
       <c r="X23" s="2" t="s">
         <v>71</v>
@@ -9009,7 +9009,7 @@
     <row r="27" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B27" s="18" t="str">
         <f>D49&amp;":["&amp;D50&amp;D51&amp;D52&amp;D53&amp;D54&amp;D55&amp;D56&amp;D57&amp;D58&amp;D59&amp;D60&amp;D61&amp;D62&amp;D63&amp;D64&amp;D65&amp;D66&amp;"],"</f>
-        <v>"PPG":[0,2,0,0,0,0,0,0,1,3,2,0,1,1,5,0,0],</v>
+        <v>"PPG":[0.5,1.5,0,0,0,0,0,0,2,2,1.5,0,0.5,2,5.5,0,0],</v>
       </c>
       <c r="C27" s="17"/>
       <c r="D27" s="17"/>
@@ -9035,7 +9035,7 @@
     <row r="28" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B28" s="17" t="str">
         <f>E49&amp;":["&amp;E50&amp;E51&amp;E52&amp;E53&amp;E54&amp;E55&amp;E56&amp;E57&amp;E58&amp;E59&amp;E60&amp;E61&amp;E62&amp;E63&amp;E64&amp;E65&amp;E66&amp;"],"</f>
-        <v>"TP":[0,2,0,0,0,0,0,0,1,3,2,0,1,1,5,0,0],</v>
+        <v>"TP":[1,3,0,0,0,0,0,0,4,4,3,0,1,4,11,0,0],</v>
       </c>
       <c r="C28" s="17"/>
       <c r="D28" s="17"/>
@@ -9061,7 +9061,7 @@
     <row r="29" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B29" s="17" t="str">
         <f>F49&amp;":["&amp;F50&amp;F51&amp;F52&amp;F53&amp;F54&amp;F55&amp;F56&amp;F57&amp;F58&amp;F59&amp;F60&amp;F61&amp;F62&amp;F63&amp;F64&amp;F65&amp;F66&amp;"],"</f>
-        <v>"FPG":[0,2,0,0,0,0,0,0,1,0,0,0,1,0,3,0,0],</v>
+        <v>"FPG":[0,1.5,0,0,0,0,0,0,0.5,0,0,0,0.5,1,2.5,0,0],</v>
       </c>
       <c r="C29" s="17"/>
       <c r="D29" s="17"/>
@@ -9087,7 +9087,7 @@
     <row r="30" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B30" s="17" t="str">
         <f>G49&amp;":["&amp;G50&amp;G51&amp;G52&amp;G53&amp;G54&amp;G55&amp;G56&amp;G57&amp;G58&amp;G59&amp;G60&amp;G61&amp;G62&amp;G63&amp;G64&amp;G65&amp;G66&amp;"],"</f>
-        <v>"TF":[0,2,0,0,0,0,0,0,1,0,0,0,1,0,3,0,0],</v>
+        <v>"TF":[0,3,0,0,0,0,0,0,1,0,0,0,1,2,5,0,0],</v>
       </c>
       <c r="C30" s="17"/>
       <c r="D30" s="17"/>
@@ -9113,7 +9113,7 @@
     <row r="31" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B31" s="17" t="str">
         <f>H49&amp;":["&amp;H50&amp;H51&amp;H52&amp;H53&amp;H54&amp;H55&amp;H56&amp;H57&amp;H58&amp;H59&amp;H60&amp;H61&amp;H62&amp;H63&amp;H64&amp;H65&amp;H66&amp;"],"</f>
-        <v>"MPG":[0,0,0,0,0,0,0,0,0,1,2,0,0,1,0,0,0],</v>
+        <v>"MPG":[0.5,0,0,0,0,0,0,0,0.5,1,1.5,0,0,1,1,0,0],</v>
       </c>
       <c r="C31" s="17"/>
       <c r="D31" s="17"/>
@@ -9139,7 +9139,7 @@
     <row r="32" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B32" s="17" t="str">
         <f>I49&amp;":["&amp;I50&amp;I51&amp;I52&amp;I53&amp;I54&amp;I55&amp;I56&amp;I57&amp;I58&amp;I59&amp;I60&amp;I61&amp;I62&amp;I63&amp;I64&amp;I65&amp;I66&amp;"],"</f>
-        <v>"TM":[0,0,0,0,0,0,0,0,0,1,2,0,0,1,0,0,0],</v>
+        <v>"TM":[1,0,0,0,0,0,0,0,1,2,3,0,0,2,2,0,0],</v>
       </c>
       <c r="C32" s="17"/>
       <c r="D32" s="17"/>
@@ -9165,7 +9165,7 @@
     <row r="33" spans="2:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B33" s="17" t="str">
         <f>J49&amp;":["&amp;J50&amp;J51&amp;J52&amp;J53&amp;J54&amp;J55&amp;J56&amp;J57&amp;J58&amp;J59&amp;J60&amp;J61&amp;J62&amp;J63&amp;J64&amp;J65&amp;J66&amp;"],"</f>
-        <v>"TPG":[0,0,0,0,0,0,0,0,0,1,0,0,0,0,1,0,0],</v>
+        <v>"TPG":[0,0,0,0,0,0,0,0,0.5,0.5,0,0,0,0,1,0,0],</v>
       </c>
       <c r="C33" s="17"/>
       <c r="D33" s="17"/>
@@ -9191,7 +9191,7 @@
     <row r="34" spans="2:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B34" s="17" t="str">
         <f>K49&amp;":["&amp;K50&amp;K51&amp;K52&amp;K53&amp;K54&amp;K55&amp;K56&amp;K57&amp;K58&amp;K59&amp;K60&amp;K61&amp;K62&amp;K63&amp;K64&amp;K65&amp;K66&amp;"],"</f>
-        <v>"TT":[0,0,0,0,0,0,0,0,0,1,0,0,0,0,1,0,0],</v>
+        <v>"TT":[0,0,0,0,0,0,0,0,1,1,0,0,0,0,2,0,0],</v>
       </c>
       <c r="C34" s="17"/>
       <c r="D34" s="17"/>
@@ -9664,11 +9664,11 @@
       </c>
       <c r="D50" s="18" t="str">
         <f t="shared" ref="D50:D65" si="6">ROUND(D3,2)&amp;","</f>
-        <v>0,</v>
+        <v>0.5,</v>
       </c>
       <c r="E50" s="18" t="str">
         <f t="shared" ref="E50:E65" si="7">E3&amp;","</f>
-        <v>0,</v>
+        <v>1,</v>
       </c>
       <c r="F50" s="18" t="str">
         <f t="shared" ref="F50:F65" si="8">ROUND(F3,2)&amp;","</f>
@@ -9680,11 +9680,11 @@
       </c>
       <c r="H50" s="18" t="str">
         <f t="shared" ref="H50:H65" si="10">ROUND(H3,2)&amp;","</f>
-        <v>0,</v>
+        <v>0.5,</v>
       </c>
       <c r="I50" s="18" t="str">
         <f t="shared" ref="I50:I65" si="11">I3&amp;","</f>
-        <v>0,</v>
+        <v>1,</v>
       </c>
       <c r="J50" s="18" t="str">
         <f t="shared" ref="J50:J65" si="12">ROUND(J3,2)&amp;","</f>
@@ -9750,19 +9750,19 @@
       </c>
       <c r="D51" s="18" t="str">
         <f t="shared" si="6"/>
-        <v>2,</v>
+        <v>1.5,</v>
       </c>
       <c r="E51" s="18" t="str">
         <f t="shared" si="7"/>
-        <v>2,</v>
+        <v>3,</v>
       </c>
       <c r="F51" s="18" t="str">
         <f t="shared" si="8"/>
-        <v>2,</v>
+        <v>1.5,</v>
       </c>
       <c r="G51" s="18" t="str">
         <f t="shared" si="9"/>
-        <v>2,</v>
+        <v>3,</v>
       </c>
       <c r="H51" s="18" t="str">
         <f t="shared" si="10"/>
@@ -10352,15 +10352,15 @@
       </c>
       <c r="D58" s="18" t="str">
         <f t="shared" si="6"/>
-        <v>1,</v>
+        <v>2,</v>
       </c>
       <c r="E58" s="18" t="str">
         <f t="shared" si="7"/>
-        <v>1,</v>
+        <v>4,</v>
       </c>
       <c r="F58" s="18" t="str">
         <f t="shared" si="8"/>
-        <v>1,</v>
+        <v>0.5,</v>
       </c>
       <c r="G58" s="18" t="str">
         <f t="shared" si="9"/>
@@ -10368,19 +10368,19 @@
       </c>
       <c r="H58" s="18" t="str">
         <f t="shared" si="10"/>
-        <v>0,</v>
+        <v>0.5,</v>
       </c>
       <c r="I58" s="18" t="str">
         <f t="shared" si="11"/>
-        <v>0,</v>
+        <v>1,</v>
       </c>
       <c r="J58" s="18" t="str">
         <f t="shared" si="12"/>
-        <v>0,</v>
+        <v>0.5,</v>
       </c>
       <c r="K58" s="18" t="str">
         <f t="shared" si="13"/>
-        <v>0,</v>
+        <v>1,</v>
       </c>
       <c r="L58" s="18" t="str">
         <f t="shared" ref="L58:V58" si="22">CHAR(34)&amp;L11&amp;CHAR(34)&amp;","</f>
@@ -10438,11 +10438,11 @@
       </c>
       <c r="D59" s="18" t="str">
         <f t="shared" si="6"/>
-        <v>3,</v>
+        <v>2,</v>
       </c>
       <c r="E59" s="18" t="str">
         <f t="shared" si="7"/>
-        <v>3,</v>
+        <v>4,</v>
       </c>
       <c r="F59" s="18" t="str">
         <f t="shared" si="8"/>
@@ -10458,11 +10458,11 @@
       </c>
       <c r="I59" s="18" t="str">
         <f t="shared" si="11"/>
-        <v>1,</v>
+        <v>2,</v>
       </c>
       <c r="J59" s="18" t="str">
         <f t="shared" si="12"/>
-        <v>1,</v>
+        <v>0.5,</v>
       </c>
       <c r="K59" s="18" t="str">
         <f t="shared" si="13"/>
@@ -10524,11 +10524,11 @@
       </c>
       <c r="D60" s="18" t="str">
         <f t="shared" si="6"/>
-        <v>2,</v>
+        <v>1.5,</v>
       </c>
       <c r="E60" s="18" t="str">
         <f t="shared" si="7"/>
-        <v>2,</v>
+        <v>3,</v>
       </c>
       <c r="F60" s="18" t="str">
         <f t="shared" si="8"/>
@@ -10540,11 +10540,11 @@
       </c>
       <c r="H60" s="18" t="str">
         <f t="shared" si="10"/>
-        <v>2,</v>
+        <v>1.5,</v>
       </c>
       <c r="I60" s="18" t="str">
         <f t="shared" si="11"/>
-        <v>2,</v>
+        <v>3,</v>
       </c>
       <c r="J60" s="18" t="str">
         <f t="shared" si="12"/>
@@ -10696,7 +10696,7 @@
       </c>
       <c r="D62" s="18" t="str">
         <f t="shared" si="6"/>
-        <v>1,</v>
+        <v>0.5,</v>
       </c>
       <c r="E62" s="18" t="str">
         <f t="shared" si="7"/>
@@ -10704,7 +10704,7 @@
       </c>
       <c r="F62" s="18" t="str">
         <f t="shared" si="8"/>
-        <v>1,</v>
+        <v>0.5,</v>
       </c>
       <c r="G62" s="18" t="str">
         <f t="shared" si="9"/>
@@ -10782,19 +10782,19 @@
       </c>
       <c r="D63" s="18" t="str">
         <f t="shared" si="6"/>
-        <v>1,</v>
+        <v>2,</v>
       </c>
       <c r="E63" s="18" t="str">
         <f t="shared" si="7"/>
-        <v>1,</v>
+        <v>4,</v>
       </c>
       <c r="F63" s="18" t="str">
         <f t="shared" si="8"/>
-        <v>0,</v>
+        <v>1,</v>
       </c>
       <c r="G63" s="18" t="str">
         <f t="shared" si="9"/>
-        <v>0,</v>
+        <v>2,</v>
       </c>
       <c r="H63" s="18" t="str">
         <f t="shared" si="10"/>
@@ -10802,7 +10802,7 @@
       </c>
       <c r="I63" s="18" t="str">
         <f t="shared" si="11"/>
-        <v>1,</v>
+        <v>2,</v>
       </c>
       <c r="J63" s="18" t="str">
         <f t="shared" si="12"/>
@@ -10868,27 +10868,27 @@
       </c>
       <c r="D64" s="18" t="str">
         <f t="shared" si="6"/>
-        <v>5,</v>
+        <v>5.5,</v>
       </c>
       <c r="E64" s="18" t="str">
         <f t="shared" si="7"/>
-        <v>5,</v>
+        <v>11,</v>
       </c>
       <c r="F64" s="18" t="str">
         <f t="shared" si="8"/>
-        <v>3,</v>
+        <v>2.5,</v>
       </c>
       <c r="G64" s="18" t="str">
         <f t="shared" si="9"/>
-        <v>3,</v>
+        <v>5,</v>
       </c>
       <c r="H64" s="18" t="str">
         <f t="shared" si="10"/>
-        <v>0,</v>
+        <v>1,</v>
       </c>
       <c r="I64" s="18" t="str">
         <f t="shared" si="11"/>
-        <v>0,</v>
+        <v>2,</v>
       </c>
       <c r="J64" s="18" t="str">
         <f t="shared" si="12"/>
@@ -10896,7 +10896,7 @@
       </c>
       <c r="K64" s="18" t="str">
         <f t="shared" si="13"/>
-        <v>1,</v>
+        <v>2,</v>
       </c>
       <c r="L64" s="18" t="str">
         <f t="shared" ref="L64:V64" si="28">CHAR(34)&amp;L17&amp;CHAR(34)&amp;","</f>
@@ -14057,18 +14057,18 @@
     <row r="41" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.9">
       <c r="R41" s="104"/>
       <c r="S41" s="104"/>
-      <c r="T41" s="142" t="s">
+      <c r="T41" s="143" t="s">
         <v>119</v>
       </c>
-      <c r="U41" s="142"/>
-      <c r="V41" s="142"/>
+      <c r="U41" s="143"/>
+      <c r="V41" s="143"/>
     </row>
     <row r="42" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.9">
       <c r="R42" s="104"/>
       <c r="S42" s="104"/>
-      <c r="T42" s="142"/>
-      <c r="U42" s="142"/>
-      <c r="V42" s="142"/>
+      <c r="T42" s="143"/>
+      <c r="U42" s="143"/>
+      <c r="V42" s="143"/>
     </row>
     <row r="43" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B43" s="17" t="s">
@@ -17037,18 +17037,18 @@
     <row r="41" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.9">
       <c r="R41" s="104"/>
       <c r="S41" s="104"/>
-      <c r="T41" s="142" t="s">
+      <c r="T41" s="143" t="s">
         <v>119</v>
       </c>
-      <c r="U41" s="142"/>
-      <c r="V41" s="142"/>
+      <c r="U41" s="143"/>
+      <c r="V41" s="143"/>
     </row>
     <row r="42" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.9">
       <c r="R42" s="104"/>
       <c r="S42" s="104"/>
-      <c r="T42" s="142"/>
-      <c r="U42" s="142"/>
-      <c r="V42" s="142"/>
+      <c r="T42" s="143"/>
+      <c r="U42" s="143"/>
+      <c r="V42" s="143"/>
     </row>
     <row r="43" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B43" s="17" t="s">
@@ -18170,8 +18170,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:AT1000"/>
   <sheetViews>
-    <sheetView topLeftCell="J7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AJ45" sqref="AJ45"/>
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AL28" sqref="AL28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -18409,26 +18409,26 @@
       </c>
       <c r="S6" s="5">
         <f>SUM(C8:E40)/COUNT(C8:C40)</f>
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="T6" s="134">
         <f>AVERAGE(C8:C40)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="U6" s="134">
         <f t="shared" ref="U6:V6" si="0">AVERAGE(D8:D40)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V6" s="134">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="Z6" s="74" t="s">
         <v>167</v>
       </c>
       <c r="AA6" s="9">
         <f>AA46+AA65+AL27+AL46+AL65+AA84+AL84</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK6" s="30"/>
       <c r="AL6" s="30"/>
@@ -18511,15 +18511,15 @@
       </c>
       <c r="T7" s="6">
         <f>T6/$S$6</f>
-        <v>0.61538461538461542</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="U7" s="6">
         <f>U6/$S$6</f>
-        <v>0.23076923076923078</v>
+        <v>0.14814814814814814</v>
       </c>
       <c r="V7" s="6">
         <f>V6/$S$6</f>
-        <v>0.15384615384615385</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="Z7" s="21" t="s">
         <v>84</v>
@@ -18637,11 +18637,11 @@
       </c>
       <c r="AA8" s="69">
         <f t="shared" ref="AA8:AA24" si="1">SUM(AL29,AA49,AL49,AA69,AL69,AA89,AL89)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB8" s="70">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Points]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AC8" s="71">
         <f t="shared" ref="AC8:AC24" si="2">SUM(AM29,AB49,AM49,AB69,AM69,AB89,AM89)</f>
@@ -18653,11 +18653,11 @@
       </c>
       <c r="AE8" s="71">
         <f t="shared" ref="AE8:AE24" si="3">SUM(AN29,AC49,AN49,AC69,AN69,AC89,AN89)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF8" s="72">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Midranges]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AG8" s="71">
         <f t="shared" ref="AG8:AG24" si="4">SUM(AO29,AD49,AO49,AD69,AO69,AD89,AO89)</f>
@@ -18681,7 +18681,7 @@
       </c>
       <c r="AM8" s="140">
         <f>AVERAGE(Table1[Average])</f>
-        <v>0.88235294117647056</v>
+        <v>0.91176470588235292</v>
       </c>
       <c r="AN8" s="140">
         <f>MEDIAN(Table1[Average])</f>
@@ -18694,40 +18694,88 @@
       <c r="AT8" s="40"/>
     </row>
     <row r="9" spans="2:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="115"/>
-      <c r="C9" s="116"/>
-      <c r="D9" s="116"/>
-      <c r="E9" s="116"/>
-      <c r="F9" s="116"/>
-      <c r="G9" s="117"/>
-      <c r="H9" s="117"/>
-      <c r="I9" s="117"/>
-      <c r="J9" s="117"/>
-      <c r="K9" s="117"/>
-      <c r="L9" s="117"/>
-      <c r="M9" s="117"/>
-      <c r="N9" s="117"/>
-      <c r="O9" s="117"/>
-      <c r="P9" s="117"/>
-      <c r="Q9" s="117"/>
+      <c r="B9" s="128" t="str">
+        <f>'1807'!B45</f>
+        <v>18-July</v>
+      </c>
+      <c r="C9" s="128">
+        <f>'1807'!C45</f>
+        <v>12</v>
+      </c>
+      <c r="D9" s="128">
+        <f>'1807'!D45</f>
+        <v>1</v>
+      </c>
+      <c r="E9" s="128">
+        <f>'1807'!E45</f>
+        <v>1</v>
+      </c>
+      <c r="F9" s="128">
+        <f>'1807'!F45</f>
+        <v>12</v>
+      </c>
+      <c r="G9" s="128">
+        <f>'1807'!G45</f>
+        <v>1</v>
+      </c>
+      <c r="H9" s="128">
+        <f>'1807'!H45</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="128">
+        <f>'1807'!I45</f>
+        <v>1</v>
+      </c>
+      <c r="J9" s="128">
+        <f>'1807'!J45</f>
+        <v>6</v>
+      </c>
+      <c r="K9" s="128">
+        <f>'1807'!K45</f>
+        <v>1</v>
+      </c>
+      <c r="L9" s="128">
+        <f>'1807'!L45</f>
+        <v>1</v>
+      </c>
+      <c r="M9" s="128">
+        <f>'1807'!M45</f>
+        <v>6</v>
+      </c>
+      <c r="N9" s="128">
+        <f>'1807'!N45</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="128">
+        <f>'1807'!O45</f>
+        <v>3</v>
+      </c>
+      <c r="P9" s="128">
+        <f>'1807'!P45</f>
+        <v>1</v>
+      </c>
+      <c r="Q9" s="128">
+        <f>'1807'!Q45</f>
+        <v>2</v>
+      </c>
       <c r="Z9" s="68" t="s">
         <v>49</v>
       </c>
       <c r="AA9" s="69">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB9" s="70">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Points]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AC9" s="71">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD9" s="72">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Finishes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AE9" s="71">
         <f t="shared" si="3"/>
@@ -18759,7 +18807,7 @@
       </c>
       <c r="AM9" s="140">
         <f>AVERAGE(Table1[Finishes])</f>
-        <v>0.41176470588235292</v>
+        <v>0.70588235294117652</v>
       </c>
       <c r="AN9" s="140">
         <f>MEDIAN(Table1[Finishes])</f>
@@ -18837,7 +18885,7 @@
       </c>
       <c r="AM10" s="140">
         <f>AVERAGE(Table1[Midranges])</f>
-        <v>0.23529411764705882</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="AN10" s="140">
         <f>MEDIAN(Table1[Midranges])</f>
@@ -18915,7 +18963,7 @@
       </c>
       <c r="AM11" s="140">
         <f>AVERAGE(Table1[Threes])</f>
-        <v>0.11764705882352941</v>
+        <v>0.23529411764705882</v>
       </c>
       <c r="AN11" s="140">
         <f>MEDIAN(Table1[Threes])</f>
@@ -19220,11 +19268,11 @@
       </c>
       <c r="AA16" s="69">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AB16" s="70">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Points]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC16" s="71">
         <f t="shared" si="2"/>
@@ -19232,23 +19280,23 @@
       </c>
       <c r="AD16" s="72">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Finishes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AE16" s="71">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF16" s="72">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Midranges]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AG16" s="71">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH16" s="72">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Threes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AI16" s="68" t="str">
         <f>SfW!C11</f>
@@ -19288,11 +19336,11 @@
       </c>
       <c r="AA17" s="69">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB17" s="70">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Points]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC17" s="71">
         <f t="shared" si="2"/>
@@ -19304,7 +19352,7 @@
       </c>
       <c r="AE17" s="71">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF17" s="72">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Midranges]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
@@ -19316,7 +19364,7 @@
       </c>
       <c r="AH17" s="72">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Threes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AI17" s="68" t="str">
         <f>SfW!C12</f>
@@ -19356,11 +19404,11 @@
       </c>
       <c r="AA18" s="69">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB18" s="70">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Points]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AC18" s="71">
         <f t="shared" si="2"/>
@@ -19372,11 +19420,11 @@
       </c>
       <c r="AE18" s="71">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF18" s="72">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Midranges]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AG18" s="71">
         <f t="shared" si="4"/>
@@ -19459,7 +19507,7 @@
       </c>
       <c r="AJ19" s="73">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK19" s="67"/>
       <c r="AL19" s="67"/>
@@ -19495,7 +19543,7 @@
       </c>
       <c r="AB20" s="70">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Points]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AC20" s="71">
         <f t="shared" si="2"/>
@@ -19503,7 +19551,7 @@
       </c>
       <c r="AD20" s="125">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Finishes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AE20" s="71">
         <f t="shared" si="3"/>
@@ -19559,23 +19607,23 @@
       </c>
       <c r="AA21" s="69">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AB21" s="70">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Points]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC21" s="71">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD21" s="125">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Finishes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE21" s="71">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF21" s="125">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Midranges]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
@@ -19627,31 +19675,31 @@
       </c>
       <c r="AA22" s="69">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AB22" s="70">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Points]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AC22" s="71">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AD22" s="125">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Finishes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AE22" s="71">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF22" s="125">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Midranges]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG22" s="71">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH22" s="125">
         <f>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Threes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</f>
@@ -19798,7 +19846,7 @@
       </c>
       <c r="AJ24" s="73">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL24" s="45"/>
       <c r="AM24" s="46"/>
@@ -19878,7 +19926,7 @@
         <v>125</v>
       </c>
       <c r="AL27" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM27" s="17"/>
       <c r="AN27" s="17"/>
@@ -20046,7 +20094,7 @@
       </c>
       <c r="AL29" s="32">
         <f>'1707'!R3+'1807'!R3</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM29" s="32">
         <f>'1707'!S3+'1807'!S3</f>
@@ -20054,7 +20102,7 @@
       </c>
       <c r="AN29" s="32">
         <f>'1707'!T3+'1807'!T3</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO29" s="32">
         <f>'1707'!U3+'1807'!U3</f>
@@ -20062,7 +20110,7 @@
       </c>
       <c r="AP29" s="34">
         <f>AL29/($AA$27-Table211[[#This Row],[Missed Games]])</f>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AQ29" s="34">
         <f>AM29/($AA$27-Table211[[#This Row],[Missed Games]])</f>
@@ -20070,7 +20118,7 @@
       </c>
       <c r="AR29" s="34">
         <f>AN29/($AA$27-Table211[[#This Row],[Missed Games]])</f>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AS29" s="34">
         <f>AO29/($AA$27-Table211[[#This Row],[Missed Games]])</f>
@@ -20147,11 +20195,11 @@
       </c>
       <c r="AL30" s="32">
         <f>'1707'!R4+'1807'!R4</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AM30" s="32">
         <f>'1707'!S4+'1807'!S4</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN30" s="32">
         <f>'1707'!T4+'1807'!T4</f>
@@ -20163,11 +20211,11 @@
       </c>
       <c r="AP30" s="32">
         <f>AL30/($AA$27-Table211[[#This Row],[Missed Games]])</f>
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="AQ30" s="32">
         <f>AM30/($AA$27-Table211[[#This Row],[Missed Games]])</f>
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="AR30" s="32">
         <f>AN30/($AA$27-Table211[[#This Row],[Missed Games]])</f>
@@ -20846,7 +20894,7 @@
       </c>
       <c r="AL37" s="32">
         <f>'1707'!R11+'1807'!R11</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AM37" s="32">
         <f>'1707'!S11+'1807'!S11</f>
@@ -20854,15 +20902,15 @@
       </c>
       <c r="AN37" s="32">
         <f>'1707'!T11+'1807'!T11</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO37" s="32">
         <f>'1707'!U11+'1807'!U11</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP37" s="32">
         <f>AL37/($AA$27-Table211[[#This Row],[Missed Games]])</f>
-        <v>0.33333333333333331</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="AQ37" s="32">
         <f>AM37/($AA$27-Table211[[#This Row],[Missed Games]])</f>
@@ -20870,11 +20918,11 @@
       </c>
       <c r="AR37" s="32">
         <f>AN37/($AA$27-Table211[[#This Row],[Missed Games]])</f>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AS37" s="32">
         <f>AO37/($AA$27-Table211[[#This Row],[Missed Games]])</f>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AT37" s="32">
         <f>COUNTIF('1707'!V11, "TRUE")+COUNTIF('1807'!V11, "TRUE")</f>
@@ -20943,7 +20991,7 @@
       </c>
       <c r="AL38" s="32">
         <f>'1707'!R12+'1807'!R12</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AM38" s="32">
         <f>'1707'!S12+'1807'!S12</f>
@@ -20951,7 +20999,7 @@
       </c>
       <c r="AN38" s="32">
         <f>'1707'!T12+'1807'!T12</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO38" s="32">
         <f>'1707'!U12+'1807'!U12</f>
@@ -20959,7 +21007,7 @@
       </c>
       <c r="AP38" s="32">
         <f>AL38/($AA$27-Table211[[#This Row],[Missed Games]])</f>
-        <v>1</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="AQ38" s="32">
         <f>AM38/($AA$27-Table211[[#This Row],[Missed Games]])</f>
@@ -20967,7 +21015,7 @@
       </c>
       <c r="AR38" s="32">
         <f>AN38/($AA$27-Table211[[#This Row],[Missed Games]])</f>
-        <v>0.33333333333333331</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AS38" s="32">
         <f>AO38/($AA$27-Table211[[#This Row],[Missed Games]])</f>
@@ -21040,7 +21088,7 @@
       </c>
       <c r="AL39" s="32">
         <f>'1707'!R13+'1807'!R13</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AM39" s="32">
         <f>'1707'!S13+'1807'!S13</f>
@@ -21048,7 +21096,7 @@
       </c>
       <c r="AN39" s="32">
         <f>'1707'!T13+'1807'!T13</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO39" s="32">
         <f>'1707'!U13+'1807'!U13</f>
@@ -21056,7 +21104,7 @@
       </c>
       <c r="AP39" s="32">
         <f>AL39/($AA$27-Table211[[#This Row],[Missed Games]])</f>
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="AQ39" s="32">
         <f>AM39/($AA$27-Table211[[#This Row],[Missed Games]])</f>
@@ -21064,7 +21112,7 @@
       </c>
       <c r="AR39" s="32">
         <f>AN39/($AA$27-Table211[[#This Row],[Missed Games]])</f>
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="AS39" s="32">
         <f>AO39/($AA$27-Table211[[#This Row],[Missed Games]])</f>
@@ -21172,7 +21220,7 @@
       </c>
       <c r="AT40" s="32">
         <f>COUNTIF('1707'!V14, "TRUE")+COUNTIF('1807'!V14, "TRUE")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="2:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -21181,7 +21229,7 @@
       </c>
       <c r="T41">
         <f>'Statistics LG'!J3</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="V41" s="28"/>
       <c r="Z41" s="36" t="s">
@@ -21270,7 +21318,7 @@
       </c>
       <c r="T42">
         <f>'Statistics WW'!J4</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V42" s="28"/>
       <c r="Z42" s="36" t="s">
@@ -21318,15 +21366,15 @@
       </c>
       <c r="AL42" s="32">
         <f>'1707'!R16+'1807'!R16</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AM42" s="32">
         <f>'1707'!S16+'1807'!S16</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN42" s="32">
         <f>'1707'!T16+'1807'!T16</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO42" s="32">
         <f>'1707'!U16+'1807'!U16</f>
@@ -21334,15 +21382,15 @@
       </c>
       <c r="AP42" s="32">
         <f>AL42/($AA$27-Table211[[#This Row],[Missed Games]])</f>
-        <v>0.33333333333333331</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="AQ42" s="32">
         <f>AM42/($AA$27-Table211[[#This Row],[Missed Games]])</f>
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AR42" s="32">
         <f>AN42/($AA$27-Table211[[#This Row],[Missed Games]])</f>
-        <v>0.33333333333333331</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AS42" s="32">
         <f>AO42/($AA$27-Table211[[#This Row],[Missed Games]])</f>
@@ -21359,7 +21407,7 @@
       </c>
       <c r="T43">
         <f>'Statistics 5M'!J4</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V43" s="28"/>
       <c r="Z43" s="36" t="s">
@@ -21407,35 +21455,35 @@
       </c>
       <c r="AL43" s="32">
         <f>'1707'!R17+'1807'!R17</f>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AM43" s="32">
         <f>'1707'!S17+'1807'!S17</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AN43" s="32">
         <f>'1707'!T17+'1807'!T17</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO43" s="32">
         <f>'1707'!U17+'1807'!U17</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP43" s="32">
         <f>AL43/($AA$27-Table211[[#This Row],[Missed Games]])</f>
-        <v>1.6666666666666667</v>
+        <v>3.6666666666666665</v>
       </c>
       <c r="AQ43" s="32">
         <f>AM43/($AA$27-Table211[[#This Row],[Missed Games]])</f>
-        <v>1</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="AR43" s="32">
         <f>AN43/($AA$27-Table211[[#This Row],[Missed Games]])</f>
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AS43" s="32">
         <f>AO43/($AA$27-Table211[[#This Row],[Missed Games]])</f>
-        <v>0.33333333333333331</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AT43" s="32">
         <f>COUNTIF('1707'!V17, "TRUE")+COUNTIF('1807'!V17, "TRUE")</f>
@@ -21614,7 +21662,7 @@
       </c>
       <c r="AT45" s="32">
         <f>COUNTIF('1707'!V19, "TRUE")+COUNTIF('1807'!V19, "TRUE")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="2:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -21623,15 +21671,15 @@
       </c>
       <c r="U46" s="19">
         <f>SUM(Table1[Finishes])</f>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="V46" s="18">
         <f>U46/AA6</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="W46" s="28">
         <f>U46/SUM($U$46:$U$48)</f>
-        <v>0.53846153846153844</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="Z46" s="36"/>
       <c r="AA46" s="35"/>
@@ -21661,15 +21709,15 @@
       </c>
       <c r="U47" s="19">
         <f>SUM(Table1[Midranges])</f>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="V47" s="18">
         <f>U47/AA6</f>
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="W47" s="28">
         <f>U47/SUM($U$46:$U$48)</f>
-        <v>0.30769230769230771</v>
+        <v>0.40740740740740738</v>
       </c>
       <c r="Z47" s="49" t="s">
         <v>126</v>
@@ -21707,7 +21755,7 @@
       </c>
       <c r="U48" s="19">
         <f>SUM(Table1[Threes])</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V48" s="18">
         <f>U48/AA6</f>
@@ -21715,7 +21763,7 @@
       </c>
       <c r="W48" s="28">
         <f>U48/SUM($U$46:$U$48)</f>
-        <v>0.15384615384615385</v>
+        <v>0.14814814814814814</v>
       </c>
       <c r="Z48" s="29" t="s">
         <v>84</v>
@@ -21908,15 +21956,15 @@
       </c>
       <c r="U53" s="39">
         <f>'Statistics LG'!L42</f>
-        <v>1</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="V53" s="39">
         <f>'Statistics LG'!O42</f>
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="W53" s="39">
         <f>AVERAGE(U53:V53)</f>
-        <v>0.75</v>
+        <v>0.83333333333333326</v>
       </c>
       <c r="Z53" s="49" t="s">
         <v>57</v>
@@ -21950,18 +21998,18 @@
       </c>
       <c r="T54" s="39">
         <f>1-'Statistics LG'!L42</f>
-        <v>0</v>
+        <v>8.333333333333337E-2</v>
       </c>
       <c r="U54" s="42" t="s">
         <v>131</v>
       </c>
       <c r="V54" s="39">
         <f>'Statistics WW'!L42</f>
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="W54" s="39">
         <f>AVERAGE(T54:V54)</f>
-        <v>0.5</v>
+        <v>0.375</v>
       </c>
       <c r="Z54" s="49" t="s">
         <v>60</v>
@@ -21995,18 +22043,18 @@
       </c>
       <c r="T55" s="39">
         <f>1-V53</f>
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="U55" s="39">
         <f>1-V54</f>
-        <v>0</v>
+        <v>0.33333333333333337</v>
       </c>
       <c r="V55" s="42" t="s">
         <v>131</v>
       </c>
       <c r="W55" s="39">
         <f>AVERAGE(T55:V55)</f>
-        <v>0.25</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="Z55" s="36" t="s">
         <v>93</v>
@@ -22819,21 +22867,21 @@
       <c r="R80" s="17">
         <v>5</v>
       </c>
-      <c r="S80" s="48">
+      <c r="S80" s="48" t="str">
         <f>'Statistics LG'!A8</f>
-        <v>0</v>
+        <v>18-July</v>
       </c>
       <c r="T80" s="17">
         <f>T79+'Statistics LG'!D8</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="U80" s="17">
         <f>U79+'Statistics WW'!D8</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V80" s="17">
         <f>V79+'Statistics 5M'!D8</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Z80" s="36" t="s">
         <v>201</v>
@@ -22871,15 +22919,15 @@
       </c>
       <c r="T81" s="17">
         <f>T80+'Statistics LG'!D9</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="U81" s="17">
         <f>U80+'Statistics WW'!D9</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V81" s="17">
         <f>V80+'Statistics 5M'!D9</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Z81" s="36" t="s">
         <v>128</v>
@@ -22917,15 +22965,15 @@
       </c>
       <c r="T82" s="17">
         <f>T81+'Statistics LG'!D10</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="U82" s="17">
         <f>U81+'Statistics WW'!D10</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V82" s="17">
         <f>V81+'Statistics 5M'!D10</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Z82" s="36" t="s">
         <v>127</v>
@@ -22963,15 +23011,15 @@
       </c>
       <c r="T83" s="17">
         <f>T82+'Statistics LG'!D11</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="U83" s="17">
         <f>U82+'Statistics WW'!D11</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V83" s="17">
         <f>V82+'Statistics 5M'!D11</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Z83" s="36" t="s">
         <v>73</v>
@@ -23009,15 +23057,15 @@
       </c>
       <c r="T84" s="17">
         <f>T83+'Statistics LG'!D12</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="U84" s="17">
         <f>U83+'Statistics WW'!D12</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V84" s="17">
         <f>V83+'Statistics 5M'!D12</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Z84" s="36" t="s">
         <v>74</v>
@@ -23055,15 +23103,15 @@
       </c>
       <c r="T85" s="17">
         <f>T84+'Statistics LG'!D13</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="U85" s="17">
         <f>U84+'Statistics WW'!D13</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V85" s="17">
         <f>V84+'Statistics 5M'!D13</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Z85" s="49" t="s">
         <v>75</v>
@@ -23101,15 +23149,15 @@
       </c>
       <c r="T86" s="17">
         <f>T85+'Statistics LG'!D14</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="U86" s="17">
         <f>U85+'Statistics WW'!D14</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V86" s="17">
         <f>V85+'Statistics 5M'!D14</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Z86" s="68"/>
       <c r="AA86" s="32"/>
@@ -23143,15 +23191,15 @@
       </c>
       <c r="T87" s="17">
         <f>T86+'Statistics LG'!D15</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="U87" s="17">
         <f>U86+'Statistics WW'!D15</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V87" s="17">
         <f>V86+'Statistics 5M'!D15</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Z87" s="49" t="s">
         <v>166</v>
@@ -23193,15 +23241,15 @@
       </c>
       <c r="T88" s="17">
         <f>T87+'Statistics LG'!D16</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="U88" s="17">
         <f>U87+'Statistics WW'!D16</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V88" s="17">
         <f>V87+'Statistics 5M'!D16</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Z88" s="29" t="s">
         <v>84</v>
@@ -23275,15 +23323,15 @@
       </c>
       <c r="T89" s="17">
         <f>T88+'Statistics LG'!D17</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="U89" s="17">
         <f>U88+'Statistics WW'!D17</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V89" s="17">
         <f>V88+'Statistics 5M'!D17</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Z89" s="49" t="s">
         <v>45</v>
@@ -23321,15 +23369,15 @@
       </c>
       <c r="T90" s="17">
         <f>T89+'Statistics LG'!D18</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="U90" s="17">
         <f>U89+'Statistics WW'!D18</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V90" s="17">
         <f>V89+'Statistics 5M'!D18</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Z90" s="49" t="s">
         <v>49</v>
@@ -24924,12 +24972,12 @@
   </sheetData>
   <phoneticPr fontId="24" type="noConversion"/>
   <conditionalFormatting sqref="U109:U118 W103:W108">
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="149" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U109:U118 W103:W108">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="148" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25028,15 +25076,15 @@
       </c>
       <c r="H3" s="86">
         <f>SUM(B7:B40)</f>
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="I3" s="86">
         <f>SUM(C7:C40)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J3" s="83">
         <f>SUM(D7:D40)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L3" s="86" t="s">
         <v>88</v>
@@ -25129,31 +25177,31 @@
       </c>
       <c r="S4" s="103">
         <f>'Stats Global'!AA22</f>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="T4" s="103">
         <f>'Stats Global'!AB22</f>
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="U4" s="103">
         <f>'Stats Global'!AC22</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V4" s="103">
         <f>'Stats Global'!AD22</f>
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="W4" s="103">
         <f>'Stats Global'!AE22</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X4" s="103">
         <f>'Stats Global'!AF22</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y4" s="103">
         <f>'Stats Global'!AG22</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z4" s="103">
         <f>'Stats Global'!AH22</f>
@@ -25211,11 +25259,11 @@
       </c>
       <c r="S5" s="103">
         <f>'Stats Global'!AA16</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T5" s="103">
         <f>'Stats Global'!AB16</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U5" s="103">
         <f>'Stats Global'!AC16</f>
@@ -25223,23 +25271,23 @@
       </c>
       <c r="V5" s="103">
         <f>'Stats Global'!AD16</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="W5" s="103">
         <f>'Stats Global'!AE16</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X5" s="103">
         <f>'Stats Global'!AF16</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Y5" s="103">
         <f>'Stats Global'!AG16</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z5" s="103">
         <f>'Stats Global'!AH16</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AA5" s="103">
         <f>'Stats Global'!AJ16</f>
@@ -25293,23 +25341,23 @@
       </c>
       <c r="S6" s="103">
         <f>'Stats Global'!AA21</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T6" s="103">
         <f>'Stats Global'!AB21</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U6" s="103">
         <f>'Stats Global'!AC21</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V6" s="103">
         <f>'Stats Global'!AD21</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W6" s="103">
         <f>'Stats Global'!AE21</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X6" s="103">
         <f>'Stats Global'!AF21</f>
@@ -25375,11 +25423,11 @@
       </c>
       <c r="S7" s="103">
         <f>'Stats Global'!AA8</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7" s="103">
         <f>'Stats Global'!AB8</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="U7" s="103">
         <f>'Stats Global'!AC8</f>
@@ -25391,11 +25439,11 @@
       </c>
       <c r="W7" s="103">
         <f>'Stats Global'!AE8</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X7" s="103">
         <f>'Stats Global'!AF8</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Y7" s="103">
         <f>'Stats Global'!AG8</f>
@@ -25411,21 +25459,21 @@
       </c>
     </row>
     <row r="8" spans="1:30" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="80">
+      <c r="A8" s="80" t="str">
         <f>'Stats Global'!B9</f>
-        <v>0</v>
+        <v>18-July</v>
       </c>
       <c r="B8" s="88">
         <f>'Stats Global'!F9</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C8" s="88">
         <f>'Stats Global'!G9+'Stats Global'!H9</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="88">
         <f>'Stats Global'!O9</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E8" s="85"/>
       <c r="F8" s="85"/>
@@ -25433,16 +25481,16 @@
       <c r="J8" s="89"/>
       <c r="L8" s="90">
         <f>'Stats Global'!J9</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M8" s="90">
         <f>'Stats Global'!G9</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" s="91"/>
       <c r="O8" s="90">
         <f>'Stats Global'!M9</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P8" s="90">
         <f>'Stats Global'!H9</f>
@@ -25453,19 +25501,19 @@
       </c>
       <c r="S8" s="103">
         <f>'Stats Global'!AA9</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T8" s="103">
         <f>'Stats Global'!AB9</f>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="U8" s="103">
         <f>'Stats Global'!AC9</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V8" s="103">
         <f>'Stats Global'!AD9</f>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="W8" s="103">
         <f>'Stats Global'!AE9</f>
@@ -26755,7 +26803,7 @@
     <row r="41" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C41" s="132">
         <f>SUM(B7:B40)/SUM(B7:C40)</f>
-        <v>0.72727272727272729</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="J41" s="89"/>
       <c r="K41" s="86" t="s">
@@ -26763,16 +26811,16 @@
       </c>
       <c r="L41" s="107">
         <f>SUM(L7:L40)</f>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M41" s="107">
         <f>SUM(M7:M40)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N41" s="89"/>
       <c r="O41" s="107">
         <f>SUM(O7:O40)</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="P41" s="107">
         <f>SUM(P7:P40)</f>
@@ -26782,17 +26830,17 @@
     <row r="42" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="L42" s="98">
         <f>L41/(M41+L41)</f>
-        <v>1</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="O42" s="98">
         <f>O41/(P41+O41)</f>
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="43" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I43" s="99" t="str">
         <f>K43&amp;H3&amp;","&amp;I3&amp;"],"</f>
-        <v>"PartA":[8,3],</v>
+        <v>"PartA":[20,4],</v>
       </c>
       <c r="K43" s="81" t="s">
         <v>135</v>
@@ -26802,20 +26850,20 @@
       </c>
       <c r="O43" s="100">
         <f>ROUND((SUM('Stats Global'!AA8,'Stats Global'!AA9,'Stats Global'!AA16,'Stats Global'!AA21,'Stats Global'!AA22))/'Stats Global'!AA6,1)</f>
-        <v>9</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="44" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I44" s="81" t="str">
         <f>K44&amp;M44&amp;","&amp;CHAR(34)&amp;N44&amp;CHAR(34)&amp;","&amp;M45&amp;","&amp;CHAR(34)&amp;N45&amp;CHAR(34)&amp;","&amp;M46&amp;","&amp;CHAR(34)&amp;N46&amp;CHAR(34)&amp;","&amp;M47&amp;","&amp;CHAR(34)&amp;N47&amp;CHAR(34)&amp;"],"</f>
-        <v>"PartB":[5,"Angus Walker",3,"Angus Walker",1,"Christopher Tomkinson",1,"Angus Walker"],</v>
+        <v>"PartB":[11,"Angus Walker",5,"Angus Walker",2,"Angus Walker",2,"Angus Walker"],</v>
       </c>
       <c r="K44" s="81" t="s">
         <v>136</v>
       </c>
       <c r="M44" s="101">
         <f>MAX(Table1114[Points])</f>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N44" s="81" t="str">
         <f>IF(M44&lt;&gt;0,IF(M44=S4,R4,IF(M44=S5,R5,IF(S6=M44,R6,IF(S7=M44,R7,R8)))),"N/A")</f>
@@ -26823,20 +26871,20 @@
       </c>
       <c r="O44" s="100">
         <f>ROUND(SUM('Stats Global'!AC8,'Stats Global'!AC9,'Stats Global'!AC16,'Stats Global'!AC21,'Stats Global'!AC22)/'Stats Global'!AA6,1)</f>
-        <v>6</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="45" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I45" s="81" t="str">
         <f>K45&amp;O43&amp;","&amp;O44&amp;","&amp;O45&amp;","&amp;O46&amp;","&amp;O47&amp;","&amp;O48&amp;"],"</f>
-        <v>"PartC":[9,6,1,1,8,3],</v>
+        <v>"PartC":[11.5,5.5,3,1.5,10,2],</v>
       </c>
       <c r="K45" s="81" t="s">
         <v>137</v>
       </c>
       <c r="M45" s="101">
         <f>MAX(Table1114[Finishes])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N45" s="108" t="str">
         <f>IF(M45&lt;&gt;0,IF(M45=U4,R4,IF(M45=U5,R5,IF(U6=M45,R6,IF(U7=M45,R7,R8)))),"N/A")</f>
@@ -26844,34 +26892,34 @@
       </c>
       <c r="O45" s="100">
         <f>ROUND(SUM('Stats Global'!AE8,'Stats Global'!AE9,'Stats Global'!AE16,'Stats Global'!AE21,'Stats Global'!AE22)/'Stats Global'!AA6,1)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I46" s="81" t="str">
         <f>K46&amp;L41&amp;","&amp;M41&amp;","&amp;ROUND(L42*100,1)&amp;","&amp;O41&amp;","&amp;P41&amp;","&amp;ROUND(O42*100,1)&amp;"],"</f>
-        <v>"PartD":[5,0,100,3,3,50],</v>
+        <v>"PartD":[11,1,91.7,9,3,75],</v>
       </c>
       <c r="K46" s="81" t="s">
         <v>138</v>
       </c>
       <c r="M46" s="101">
         <f>MAX(Table1114[Midranges])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N46" s="108" t="str">
         <f>IF(M46&lt;&gt;0,IF(M46=W4,R4,IF(M46=W5,R5,IF(W6=M46,R6,IF(W7=M46,R7,R8)))),"N/A")</f>
-        <v>Christopher Tomkinson</v>
+        <v>Angus Walker</v>
       </c>
       <c r="O46" s="100">
         <f>ROUND(SUM('Stats Global'!AG8,'Stats Global'!AG9,'Stats Global'!AG16,'Stats Global'!AG21,'Stats Global'!AG22)/'Stats Global'!AA6,1)</f>
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="47" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="M47" s="101">
         <f>MAX(Table1114[Threes])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N47" s="81" t="str">
         <f>IF(M47&lt;&gt;0,IF(M47=Y4,R4,IF(M47=Y5,R5,IF(Y6=M47,R6,IF(Y7=M47,R7,R8)))),"N/A")</f>
@@ -26879,13 +26927,13 @@
       </c>
       <c r="O47" s="81">
         <f>ROUND(H3/'Stats Global'!AA6,1)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="O48" s="81">
         <f>ROUND(I3/'Stats Global'!AA6,1)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -27970,15 +28018,15 @@
       </c>
       <c r="H4" s="86">
         <f>SUM(B7:B40)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I4" s="86">
         <f>SUM(C7:C40)</f>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="J4" s="83">
         <f>SUM(D7:D40)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4" s="138">
         <f>'Stats Global'!N5</f>
@@ -28215,11 +28263,11 @@
       </c>
       <c r="P7" s="103">
         <f>'Stats Global'!AA18</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q7" s="103">
         <f>'Stats Global'!AB18</f>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="R7" s="103">
         <f>'Stats Global'!AC18</f>
@@ -28231,11 +28279,11 @@
       </c>
       <c r="T7" s="103">
         <f>'Stats Global'!AE18</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U7" s="103">
         <f>'Stats Global'!AF18</f>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="V7" s="103">
         <f>'Stats Global'!AG18</f>
@@ -28251,21 +28299,21 @@
       </c>
     </row>
     <row r="8" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="80">
+      <c r="A8" s="80" t="str">
         <f>'Stats Global'!B9</f>
-        <v>0</v>
+        <v>18-July</v>
       </c>
       <c r="B8" s="88">
         <f>'Stats Global'!I9</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" s="88">
         <f>'Stats Global'!J9+'Stats Global'!K9</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D8" s="88">
         <f>'Stats Global'!P9</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="85"/>
       <c r="F8" s="85"/>
@@ -28277,7 +28325,7 @@
       </c>
       <c r="M8" s="90">
         <f>'Stats Global'!K9</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" s="91"/>
       <c r="O8" s="89" t="s">
@@ -28457,7 +28505,7 @@
       </c>
       <c r="X10" s="127">
         <f>'Stats Global'!AJ19</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -29429,7 +29477,7 @@
     <row r="41" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C41" s="132">
         <f>SUM(B7:B40)/SUM(B7:C40)</f>
-        <v>0.2857142857142857</v>
+        <v>0.2</v>
       </c>
       <c r="J41" s="89"/>
       <c r="K41" s="81" t="s">
@@ -29441,7 +29489,7 @@
       </c>
       <c r="M41" s="107">
         <f>SUM(M7:M40)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N41" s="89"/>
       <c r="O41" s="89"/>
@@ -29450,14 +29498,14 @@
     <row r="42" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="L42" s="98">
         <f>L41/(M41+L41)</f>
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="P42" s="58"/>
     </row>
     <row r="43" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="J43" s="99" t="str">
         <f>L43&amp;H4&amp;","&amp;I4&amp;"],"</f>
-        <v>"PartA":[2,5],</v>
+        <v>"PartA":[3,12],</v>
       </c>
       <c r="K43" s="86"/>
       <c r="L43" s="81" t="s">
@@ -29468,20 +29516,20 @@
       </c>
       <c r="P43" s="100">
         <f>ROUND(SUM('Stats Global'!AA11,'Stats Global'!AA12,'Stats Global'!AA13,'Stats Global'!AA15,'Stats Global'!AA19,'Stats Global'!AA18,'Stats Global'!AA23)/'Stats Global'!AA6,1)</f>
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="44" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="J44" s="81" t="str">
         <f>L44&amp;N44&amp;","&amp;CHAR(34)&amp;O44&amp;CHAR(34)&amp;","&amp;N45&amp;","&amp;CHAR(34)&amp;O45&amp;CHAR(34)&amp;","&amp;N46&amp;","&amp;CHAR(34)&amp;O46&amp;CHAR(34)&amp;","&amp;N47&amp;","&amp;CHAR(34)&amp;O47&amp;CHAR(34)&amp;"],"</f>
-        <v>"PartB":[2,"Ryan Pattemore",0,"N/A",2,"Ryan Pattemore",0,"N/A"],</v>
+        <v>"PartB":[3,"Ryan Pattemore",0,"N/A",3,"Ryan Pattemore",0,"N/A"],</v>
       </c>
       <c r="L44" s="81" t="s">
         <v>136</v>
       </c>
       <c r="N44" s="101">
         <f>MAX(Table1113[Points])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O44" s="81" t="str">
         <f>IF(N44&lt;&gt;0,IF(N44=P4,O4,IF(N44=P5,O5,IF(P6=N44,O6,IF(P7=N44,O7,IF(P8=N44,O8,IF(P9=N44,O9,O10)))))),"N/A")</f>
@@ -29495,7 +29543,7 @@
     <row r="45" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="J45" s="81" t="str">
         <f>L45&amp;P43&amp;","&amp;P44&amp;","&amp;P45&amp;","&amp;P46&amp;","&amp;P47&amp;","&amp;P48&amp;"],"</f>
-        <v>"PartC":[2,0,2,0,2,5],</v>
+        <v>"PartC":[1.5,0,1.5,0,1.5,6],</v>
       </c>
       <c r="L45" s="81" t="s">
         <v>137</v>
@@ -29510,20 +29558,20 @@
       </c>
       <c r="P45" s="100">
         <f>ROUND(SUM('Stats Global'!AE11,'Stats Global'!AE12,'Stats Global'!AE13,'Stats Global'!AE15,'Stats Global'!AE19,'Stats Global'!AE18,'Stats Global'!AE23)/'Stats Global'!AA6,1)</f>
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="46" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="J46" s="81" t="str">
         <f>L46&amp;'Statistics LG'!M41&amp;","&amp;'Statistics LG'!L41&amp;","&amp;ROUND((1-'Statistics LG'!L42)*100,1)&amp;","&amp;L41&amp;","&amp;M41&amp;","&amp;ROUND(L42*100,1)&amp;"],"</f>
-        <v>"PartD":[0,5,0,2,0,100],</v>
+        <v>"PartD":[1,11,8.3,2,1,66.7],</v>
       </c>
       <c r="L46" s="81" t="s">
         <v>138</v>
       </c>
       <c r="N46" s="101">
         <f>MAX(Table1113[Midranges])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O46" s="81" t="str">
         <f>IF(N46&lt;&gt;0,IF(N46=T4,O4,IF(N46=T5,O5,IF(T6=N46,O6,IF(T7=N46,O7,IF(T8=N46,O8,IF(T9=N46,O9,O10)))))),"N/A")</f>
@@ -29545,13 +29593,13 @@
       </c>
       <c r="P47" s="81">
         <f>ROUND(H4/'Stats Global'!AA6,1)</f>
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="48" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="P48" s="81">
         <f>ROUND(I4/'Stats Global'!AA6,1)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -30614,15 +30662,15 @@
       </c>
       <c r="H4" s="86">
         <f>SUM(B7:B40)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I4" s="86">
         <f>SUM(C7:C40)</f>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J4" s="83">
         <f>SUM(D7:D40)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K4" s="89"/>
       <c r="L4" s="109" t="s">
@@ -30688,11 +30736,11 @@
       </c>
       <c r="M5" s="103">
         <f>'Stats Global'!AA17</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N5" s="103">
         <f>'Stats Global'!AB17</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O5" s="103">
         <f>'Stats Global'!AC17</f>
@@ -30704,7 +30752,7 @@
       </c>
       <c r="Q5" s="103">
         <f>'Stats Global'!AE17</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R5" s="103">
         <f>'Stats Global'!AF17</f>
@@ -30716,7 +30764,7 @@
       </c>
       <c r="T5" s="103">
         <f>'Stats Global'!AH17</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="U5" s="103">
         <f>'Stats Global'!AJ17</f>
@@ -30830,7 +30878,7 @@
       </c>
       <c r="N7" s="103">
         <f>'Stats Global'!AB20</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O7" s="103">
         <f>'Stats Global'!AC20</f>
@@ -30838,7 +30886,7 @@
       </c>
       <c r="P7" s="103">
         <f>'Stats Global'!AD20</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Q7" s="103">
         <f>'Stats Global'!AE20</f>
@@ -30865,21 +30913,21 @@
       <c r="X7" s="89"/>
     </row>
     <row r="8" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="80">
+      <c r="A8" s="80" t="str">
         <f>'Stats Global'!B9</f>
-        <v>0</v>
+        <v>18-July</v>
       </c>
       <c r="B8" s="88">
         <f>'Stats Global'!L9</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" s="88">
         <f>'Stats Global'!M9+'Stats Global'!N9</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D8" s="88">
         <f>'Stats Global'!Q9</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E8" s="85"/>
       <c r="F8" s="85"/>
@@ -30988,7 +31036,7 @@
       </c>
       <c r="U9" s="103">
         <f>'Stats Global'!AJ24</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V9" s="89"/>
       <c r="W9" s="89"/>
@@ -31738,7 +31786,7 @@
       <c r="J32" s="86"/>
       <c r="K32" s="99" t="str">
         <f>M32&amp;H4&amp;","&amp;I4&amp;"],"</f>
-        <v>"PartA":[3,5],</v>
+        <v>"PartA":[4,11],</v>
       </c>
       <c r="L32" s="86"/>
       <c r="M32" s="81" t="s">
@@ -31749,7 +31797,7 @@
       </c>
       <c r="Q32" s="100">
         <f>ROUND(SUM('Stats Global'!AA10,'Stats Global'!AA14,'Stats Global'!AA17,'Stats Global'!AA20,'Stats Global'!AA24)/'Stats Global'!AA6,1)</f>
-        <v>4</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -31773,14 +31821,14 @@
       <c r="F33" s="85"/>
       <c r="K33" s="81" t="str">
         <f>M33&amp;O33&amp;","&amp;CHAR(34)&amp;P33&amp;CHAR(34)&amp;","&amp;O34&amp;","&amp;CHAR(34)&amp;P34&amp;CHAR(34)&amp;","&amp;O35&amp;","&amp;CHAR(34)&amp;P35&amp;CHAR(34)&amp;","&amp;O36&amp;","&amp;CHAR(34)&amp;P36&amp;CHAR(34)&amp;"],"</f>
-        <v>"PartB":[3,"Samuel McConaghy",1,"Nicholas Szogi",1,"Samuel McConaghy",1,"Samuel McConaghy"],</v>
+        <v>"PartB":[4,"Samuel McConaghy",1,"Nicholas Szogi",2,"Samuel McConaghy",1,"Samuel McConaghy"],</v>
       </c>
       <c r="M33" s="81" t="s">
         <v>136</v>
       </c>
       <c r="O33" s="101">
         <f>MAX(Table11[Points])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P33" s="81" t="str">
         <f>IF(O33&lt;&gt;0,IF(O33=M5,L5,IF(O33=M6,L6,IF(M7=O33,L7,IF(M8=O33,L8,L9)))),"N/A")</f>
@@ -31788,7 +31836,7 @@
       </c>
       <c r="Q33" s="100">
         <f>ROUND(SUM('Stats Global'!AC10,'Stats Global'!AC14,'Stats Global'!AC17,'Stats Global'!AC20,'Stats Global'!AC24)/'Stats Global'!AA6,1)</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="34" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -31812,7 +31860,7 @@
       <c r="F34" s="85"/>
       <c r="K34" s="81" t="str">
         <f>M34&amp;Q32&amp;","&amp;Q33&amp;","&amp;Q34&amp;","&amp;Q35&amp;","&amp;Q36&amp;","&amp;Q37&amp;"],"</f>
-        <v>"PartC":[4,1,1,1,3,5],</v>
+        <v>"PartC":[2.5,0.5,1,0.5,2,5.5],</v>
       </c>
       <c r="M34" s="81" t="s">
         <v>137</v>
@@ -31851,14 +31899,14 @@
       <c r="F35" s="85"/>
       <c r="K35" s="81" t="str">
         <f>M35&amp;'Statistics LG'!P41&amp;","&amp;'Statistics LG'!O41&amp;","&amp;ROUND((1-'Statistics LG'!O42)*100,1)&amp;","&amp;'Statistics WW'!M41&amp;","&amp;'Statistics WW'!L41&amp;","&amp;ROUND((1-'Statistics WW'!L42)*100,1)&amp;"],"</f>
-        <v>"PartD":[3,3,50,0,2,0],</v>
+        <v>"PartD":[3,9,25,1,2,33.3],</v>
       </c>
       <c r="M35" s="81" t="s">
         <v>138</v>
       </c>
       <c r="O35" s="101">
         <f>MAX(Table11[Midranges])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P35" s="81" t="str">
         <f>IF(O35&lt;&gt;0,IF(O35=Q5,L5,IF(O35=Q6,L6,IF(Q7=O35,L7,IF(Q8=O35,L8,L9)))),"N/A")</f>
@@ -31866,7 +31914,7 @@
       </c>
       <c r="Q35" s="100">
         <f>ROUND(SUM('Stats Global'!AG10,'Stats Global'!AG14,'Stats Global'!AG17,'Stats Global'!AG20,'Stats Global'!AG24)/'Stats Global'!AA6,1)</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -31898,7 +31946,7 @@
       </c>
       <c r="Q36" s="81">
         <f>ROUND(H4/'Stats Global'!AA6,1)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -31922,7 +31970,7 @@
       <c r="F37" s="85"/>
       <c r="Q37" s="81">
         <f>ROUND(I4/'Stats Global'!AA6,1)</f>
-        <v>5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -31988,7 +32036,7 @@
     <row r="41" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C41" s="132">
         <f>SUM(B7:B40)/SUM(B7:C40)</f>
-        <v>0.375</v>
+        <v>0.26666666666666666</v>
       </c>
     </row>
     <row r="42" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -34542,18 +34590,18 @@
     <row r="41" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.9">
       <c r="R41" s="104"/>
       <c r="S41" s="104"/>
-      <c r="T41" s="142" t="s">
+      <c r="T41" s="143" t="s">
         <v>119</v>
       </c>
-      <c r="U41" s="142"/>
-      <c r="V41" s="142"/>
+      <c r="U41" s="143"/>
+      <c r="V41" s="143"/>
     </row>
     <row r="42" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.9">
       <c r="R42" s="104"/>
       <c r="S42" s="104"/>
-      <c r="T42" s="142"/>
-      <c r="U42" s="142"/>
-      <c r="V42" s="142"/>
+      <c r="T42" s="143"/>
+      <c r="U42" s="143"/>
+      <c r="V42" s="143"/>
     </row>
     <row r="43" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B43" s="17" t="s">
@@ -35674,8 +35722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34091F1A-4A23-4996-9948-1508C0A56F45}">
   <dimension ref="B1:AE1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
-      <selection activeCell="V11" sqref="V11"/>
+    <sheetView zoomScale="79" workbookViewId="0">
+      <selection activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -35765,26 +35813,26 @@
       </c>
       <c r="L3" s="12">
         <f>COUNTIF(C3:C40, "Loose Gooses")</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="M3" s="12">
         <f>COUNTIF(D3:D40, "Loose Gooses")</f>
-        <v>0</v>
-      </c>
-      <c r="N3" s="11" t="e">
+        <v>1</v>
+      </c>
+      <c r="N3" s="11">
         <f>L3/(L3+M3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O3" s="12" t="e">
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="O3" s="12">
         <f>IF(AND(N3&gt;N4, N3&gt;N5), 3, IF(OR(N3&gt;N4, N3&gt;N5), 2, 1))</f>
-        <v>#DIV/0!</v>
+        <v>3</v>
       </c>
       <c r="Q3" s="2" t="s">
         <v>25</v>
       </c>
       <c r="R3" s="9">
         <f t="shared" ref="R3:R19" si="0">COUNTIF($E$3:$E$40, Q3)+U3</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S3" s="10">
         <f t="shared" ref="S3:S19" si="1">COUNTIFS($E$3:$E$40, $Q3,$F$3:$F$40,"Finish")</f>
@@ -35792,7 +35840,7 @@
       </c>
       <c r="T3" s="10">
         <f t="shared" ref="T3:T19" si="2">COUNTIFS($E$3:$E$40, $Q3,$F$3:$F$40,"Midrange")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U3" s="10">
         <f t="shared" ref="U3:U19" si="3">COUNTIFS($E$3:$E$40, $Q3,$F$3:$F$40,"Three Pointer")</f>
@@ -35813,43 +35861,59 @@
       <c r="AB3" s="2"/>
     </row>
     <row r="4" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
+      <c r="B4" s="26">
+        <v>1</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="G4" s="26">
+        <v>1</v>
+      </c>
+      <c r="H4" s="26">
+        <v>1</v>
+      </c>
+      <c r="I4" s="26">
+        <v>1</v>
+      </c>
       <c r="K4" s="12" t="s">
         <v>110</v>
       </c>
       <c r="L4" s="12">
         <f>COUNTIF(C3:C40, "5 Musketeers")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" s="12">
         <f>COUNTIF(D3:D40, "5 Musketeers")</f>
-        <v>0</v>
-      </c>
-      <c r="N4" s="11" t="e">
+        <v>6</v>
+      </c>
+      <c r="N4" s="11">
         <f t="shared" ref="N4:N5" si="4">L4/(L4+M4)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O4" s="12" t="e">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="O4" s="12">
         <f>IF(AND(N4&gt;N3, N4&gt;N5), 3, IF(OR(N4&gt;N3, N4&gt;N5), 2, 1))</f>
-        <v>#DIV/0!</v>
+        <v>2</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>28</v>
       </c>
       <c r="R4" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S4" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T4" s="10">
         <f t="shared" si="2"/>
@@ -35864,7 +35928,7 @@
       </c>
       <c r="X4" s="54" t="str">
         <f t="shared" ref="X4:X39" si="5">IF(AND(C4="Loose Gooses",D4="Wet Willies"),"LG/WW", IF(AND(C4="Loose Gooses",D4="5 Musketeers"),"LG/5M", ""))</f>
-        <v/>
+        <v>LG/WW</v>
       </c>
       <c r="Y4" s="54" t="str">
         <f t="shared" ref="Y4:Y39" si="6">IF(AND(C4="Wet Willies",D4="Loose Gooses"),"WW/LG", IF(AND(C4="Wet Willies",D4="5 Musketeers"),"WW/5M", ""))</f>
@@ -35877,32 +35941,48 @@
       <c r="AB4" s="2"/>
     </row>
     <row r="5" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
+      <c r="B5" s="26">
+        <v>2</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="G5" s="26">
+        <v>2</v>
+      </c>
+      <c r="H5" s="26">
+        <v>1</v>
+      </c>
+      <c r="I5" s="26">
+        <v>1</v>
+      </c>
       <c r="K5" s="12" t="s">
         <v>109</v>
       </c>
       <c r="L5" s="12">
         <f>COUNTIF(C3:C40, "Wet Willies")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" s="12">
         <f>COUNTIF(D3:D40, "Wet Willies")</f>
-        <v>0</v>
-      </c>
-      <c r="N5" s="11" t="e">
+        <v>7</v>
+      </c>
+      <c r="N5" s="11">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O5" s="12" t="e">
+        <v>0.125</v>
+      </c>
+      <c r="O5" s="12">
         <f>IF(AND(N5&gt;N4, N5&gt;N3), 3, IF(OR(N5&gt;N4, N5&gt;N3), 2, 1))</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="2" t="s">
         <v>30</v>
@@ -35928,7 +36008,7 @@
       </c>
       <c r="X5" s="54" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>LG/5M</v>
       </c>
       <c r="Y5" s="54" t="str">
         <f t="shared" si="6"/>
@@ -35941,14 +36021,30 @@
       <c r="AB5" s="2"/>
     </row>
     <row r="6" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
+      <c r="B6" s="26">
+        <v>3</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="G6" s="26">
+        <v>3</v>
+      </c>
+      <c r="H6" s="26">
+        <v>2</v>
+      </c>
+      <c r="I6" s="26">
+        <v>2</v>
+      </c>
       <c r="Q6" s="2" t="s">
         <v>35</v>
       </c>
@@ -35973,7 +36069,7 @@
       </c>
       <c r="X6" s="54" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>LG/WW</v>
       </c>
       <c r="Y6" s="54" t="str">
         <f t="shared" si="6"/>
@@ -35986,14 +36082,30 @@
       <c r="AB6" s="2"/>
     </row>
     <row r="7" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
+      <c r="B7" s="26">
+        <v>4</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="G7" s="26">
+        <v>4</v>
+      </c>
+      <c r="H7" s="26">
+        <v>2</v>
+      </c>
+      <c r="I7" s="26">
+        <v>3</v>
+      </c>
       <c r="Q7" s="2" t="s">
         <v>37</v>
       </c>
@@ -36018,7 +36130,7 @@
       </c>
       <c r="X7" s="54" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>LG/5M</v>
       </c>
       <c r="Y7" s="54" t="str">
         <f t="shared" si="6"/>
@@ -36031,14 +36143,30 @@
       <c r="AB7" s="2"/>
     </row>
     <row r="8" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
+      <c r="B8" s="26">
+        <v>5</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" s="26">
+        <v>1</v>
+      </c>
+      <c r="H8" s="26">
+        <v>1</v>
+      </c>
+      <c r="I8" s="26">
+        <v>1</v>
+      </c>
       <c r="Q8" s="2" t="s">
         <v>42</v>
       </c>
@@ -36067,7 +36195,7 @@
       </c>
       <c r="Y8" s="54" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>WW/LG</v>
       </c>
       <c r="Z8" s="54" t="str">
         <f t="shared" si="7"/>
@@ -36076,14 +36204,30 @@
       <c r="AB8" s="2"/>
     </row>
     <row r="9" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
+      <c r="B9" s="26">
+        <v>6</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" s="26">
+        <v>1</v>
+      </c>
+      <c r="H9" s="26">
+        <v>1</v>
+      </c>
+      <c r="I9" s="26">
+        <v>1</v>
+      </c>
       <c r="Q9" s="17" t="s">
         <v>115</v>
       </c>
@@ -36116,18 +36260,34 @@
       </c>
       <c r="Z9" s="54" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>5M/WW</v>
       </c>
     </row>
     <row r="10" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
+      <c r="B10" s="26">
+        <v>7</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" s="26">
+        <v>1</v>
+      </c>
+      <c r="H10" s="26">
+        <v>1</v>
+      </c>
+      <c r="I10" s="26">
+        <v>1</v>
+      </c>
       <c r="Q10" s="2" t="s">
         <v>44</v>
       </c>
@@ -36152,7 +36312,7 @@
       </c>
       <c r="X10" s="54" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>LG/5M</v>
       </c>
       <c r="Y10" s="54" t="str">
         <f t="shared" si="6"/>
@@ -36165,20 +36325,36 @@
       <c r="AB10" s="2"/>
     </row>
     <row r="11" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
+      <c r="B11" s="26">
+        <v>8</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="G11" s="26">
+        <v>2</v>
+      </c>
+      <c r="H11" s="26">
+        <v>2</v>
+      </c>
+      <c r="I11" s="26">
+        <v>1</v>
+      </c>
       <c r="Q11" s="2" t="s">
         <v>46</v>
       </c>
       <c r="R11" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S11" s="10">
         <f t="shared" si="1"/>
@@ -36186,18 +36362,18 @@
       </c>
       <c r="T11" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U11" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V11" s="27" t="b">
         <v>0</v>
       </c>
       <c r="X11" s="54" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>LG/WW</v>
       </c>
       <c r="Y11" s="54" t="str">
         <f t="shared" si="6"/>
@@ -36210,20 +36386,36 @@
       <c r="AB11" s="2"/>
     </row>
     <row r="12" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
+      <c r="B12" s="26">
+        <v>9</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="G12" s="26">
+        <v>3</v>
+      </c>
+      <c r="H12" s="26">
+        <v>2</v>
+      </c>
+      <c r="I12" s="26">
+        <v>1</v>
+      </c>
       <c r="Q12" s="2" t="s">
         <v>50</v>
       </c>
       <c r="R12" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S12" s="10">
         <f t="shared" si="1"/>
@@ -36231,7 +36423,7 @@
       </c>
       <c r="T12" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U12" s="10">
         <f t="shared" si="3"/>
@@ -36242,7 +36434,7 @@
       </c>
       <c r="X12" s="54" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>LG/5M</v>
       </c>
       <c r="Y12" s="54" t="str">
         <f t="shared" si="6"/>
@@ -36255,20 +36447,36 @@
       <c r="AB12" s="2"/>
     </row>
     <row r="13" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
+      <c r="B13" s="26">
+        <v>10</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="G13" s="26">
+        <v>4</v>
+      </c>
+      <c r="H13" s="26">
+        <v>3</v>
+      </c>
+      <c r="I13" s="26">
+        <v>1</v>
+      </c>
       <c r="Q13" s="2" t="s">
         <v>52</v>
       </c>
       <c r="R13" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S13" s="10">
         <f t="shared" si="1"/>
@@ -36276,7 +36484,7 @@
       </c>
       <c r="T13" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U13" s="10">
         <f t="shared" si="3"/>
@@ -36287,7 +36495,7 @@
       </c>
       <c r="X13" s="54" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>LG/WW</v>
       </c>
       <c r="Y13" s="54" t="str">
         <f t="shared" si="6"/>
@@ -36300,14 +36508,30 @@
       <c r="AB13" s="2"/>
     </row>
     <row r="14" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
+      <c r="B14" s="26">
+        <v>11</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="G14" s="26">
+        <v>5</v>
+      </c>
+      <c r="H14" s="26">
+        <v>3</v>
+      </c>
+      <c r="I14" s="26">
+        <v>2</v>
+      </c>
       <c r="Q14" s="2" t="s">
         <v>201</v>
       </c>
@@ -36328,11 +36552,11 @@
         <v>0</v>
       </c>
       <c r="V14" s="27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X14" s="54" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>LG/5M</v>
       </c>
       <c r="Y14" s="54" t="str">
         <f t="shared" si="6"/>
@@ -36345,14 +36569,30 @@
       <c r="AB14" s="2"/>
     </row>
     <row r="15" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
+      <c r="B15" s="26">
+        <v>12</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="G15" s="26">
+        <v>6</v>
+      </c>
+      <c r="H15" s="26">
+        <v>4</v>
+      </c>
+      <c r="I15" s="26">
+        <v>1</v>
+      </c>
       <c r="Q15" s="2" t="s">
         <v>55</v>
       </c>
@@ -36377,7 +36617,7 @@
       </c>
       <c r="X15" s="54" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>LG/WW</v>
       </c>
       <c r="Y15" s="54" t="str">
         <f t="shared" si="6"/>
@@ -36390,28 +36630,44 @@
       <c r="AB15" s="2"/>
     </row>
     <row r="16" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
+      <c r="B16" s="26">
+        <v>13</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="G16" s="26">
+        <v>7</v>
+      </c>
+      <c r="H16" s="26">
+        <v>4</v>
+      </c>
+      <c r="I16" s="26">
+        <v>1</v>
+      </c>
       <c r="Q16" s="2" t="s">
         <v>58</v>
       </c>
       <c r="R16" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S16" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T16" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U16" s="10">
         <f t="shared" si="3"/>
@@ -36422,7 +36678,7 @@
       </c>
       <c r="X16" s="54" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>LG/5M</v>
       </c>
       <c r="Y16" s="54" t="str">
         <f t="shared" si="6"/>
@@ -36435,39 +36691,55 @@
       <c r="AB16" s="2"/>
     </row>
     <row r="17" spans="2:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
+      <c r="B17" s="26">
+        <v>14</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="G17" s="26">
+        <v>8</v>
+      </c>
+      <c r="H17" s="26">
+        <v>5</v>
+      </c>
+      <c r="I17" s="26">
+        <v>1</v>
+      </c>
       <c r="Q17" s="2" t="s">
         <v>61</v>
       </c>
       <c r="R17" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S17" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T17" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U17" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V17" s="27" t="b">
         <v>0</v>
       </c>
       <c r="X17" s="54" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>LG/WW</v>
       </c>
       <c r="Y17" s="54" t="str">
         <f t="shared" si="6"/>
@@ -36553,7 +36825,7 @@
         <v>0</v>
       </c>
       <c r="V19" s="27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X19" s="54" t="str">
         <f t="shared" si="5"/>
@@ -36646,7 +36918,7 @@
       <c r="Q23" s="2"/>
       <c r="R23" s="17" t="str">
         <f>IF($V3, CHAR(34)&amp;"Did not Play"&amp;CHAR(34), R3)&amp;","</f>
-        <v>0,</v>
+        <v>1,</v>
       </c>
       <c r="S23" s="17" t="str">
         <f t="shared" ref="S23:U23" si="8">IF($V3, CHAR(34)&amp;"Did not Play"&amp;CHAR(34), S3)&amp;","</f>
@@ -36654,7 +36926,7 @@
       </c>
       <c r="T23" s="17" t="str">
         <f t="shared" si="8"/>
-        <v>0,</v>
+        <v>1,</v>
       </c>
       <c r="U23" s="17" t="str">
         <f t="shared" si="8"/>
@@ -36684,11 +36956,11 @@
       <c r="I24" s="26"/>
       <c r="R24" s="17" t="str">
         <f t="shared" ref="R24:U38" si="9">IF($V4, CHAR(34)&amp;"Did not Play"&amp;CHAR(34), R4)&amp;","</f>
-        <v>0,</v>
+        <v>1,</v>
       </c>
       <c r="S24" s="17" t="str">
         <f t="shared" si="9"/>
-        <v>0,</v>
+        <v>1,</v>
       </c>
       <c r="T24" s="17" t="str">
         <f t="shared" si="9"/>
@@ -36952,7 +37224,7 @@
       <c r="I31" s="26"/>
       <c r="R31" s="17" t="str">
         <f t="shared" si="9"/>
-        <v>0,</v>
+        <v>3,</v>
       </c>
       <c r="S31" s="17" t="str">
         <f t="shared" si="9"/>
@@ -36960,11 +37232,11 @@
       </c>
       <c r="T31" s="17" t="str">
         <f t="shared" si="9"/>
-        <v>0,</v>
+        <v>1,</v>
       </c>
       <c r="U31" s="17" t="str">
         <f t="shared" si="9"/>
-        <v>0,</v>
+        <v>1,</v>
       </c>
       <c r="X31" s="54" t="str">
         <f t="shared" si="5"/>
@@ -36990,7 +37262,7 @@
       <c r="I32" s="26"/>
       <c r="R32" s="17" t="str">
         <f t="shared" si="9"/>
-        <v>0,</v>
+        <v>1,</v>
       </c>
       <c r="S32" s="17" t="str">
         <f t="shared" si="9"/>
@@ -36998,7 +37270,7 @@
       </c>
       <c r="T32" s="17" t="str">
         <f t="shared" si="9"/>
-        <v>0,</v>
+        <v>1,</v>
       </c>
       <c r="U32" s="17" t="str">
         <f t="shared" si="9"/>
@@ -37028,7 +37300,7 @@
       <c r="I33" s="26"/>
       <c r="R33" s="17" t="str">
         <f t="shared" si="9"/>
-        <v>0,</v>
+        <v>1,</v>
       </c>
       <c r="S33" s="17" t="str">
         <f t="shared" si="9"/>
@@ -37036,7 +37308,7 @@
       </c>
       <c r="T33" s="17" t="str">
         <f t="shared" si="9"/>
-        <v>0,</v>
+        <v>1,</v>
       </c>
       <c r="U33" s="17" t="str">
         <f t="shared" si="9"/>
@@ -37066,19 +37338,19 @@
       <c r="I34" s="26"/>
       <c r="R34" s="17" t="str">
         <f t="shared" si="9"/>
-        <v>0,</v>
+        <v>"Did not Play",</v>
       </c>
       <c r="S34" s="17" t="str">
         <f t="shared" si="9"/>
-        <v>0,</v>
+        <v>"Did not Play",</v>
       </c>
       <c r="T34" s="17" t="str">
         <f t="shared" si="9"/>
-        <v>0,</v>
+        <v>"Did not Play",</v>
       </c>
       <c r="U34" s="17" t="str">
         <f t="shared" si="9"/>
-        <v>0,</v>
+        <v>"Did not Play",</v>
       </c>
       <c r="X34" s="54" t="str">
         <f t="shared" si="5"/>
@@ -37126,15 +37398,15 @@
     <row r="36" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R36" s="17" t="str">
         <f t="shared" si="9"/>
-        <v>0,</v>
+        <v>3,</v>
       </c>
       <c r="S36" s="17" t="str">
         <f t="shared" si="9"/>
-        <v>0,</v>
+        <v>2,</v>
       </c>
       <c r="T36" s="17" t="str">
         <f t="shared" si="9"/>
-        <v>0,</v>
+        <v>1,</v>
       </c>
       <c r="U36" s="17" t="str">
         <f t="shared" si="9"/>
@@ -37156,19 +37428,19 @@
     <row r="37" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R37" s="17" t="str">
         <f t="shared" si="9"/>
-        <v>0,</v>
+        <v>6,</v>
       </c>
       <c r="S37" s="17" t="str">
         <f t="shared" si="9"/>
-        <v>0,</v>
+        <v>2,</v>
       </c>
       <c r="T37" s="17" t="str">
         <f t="shared" si="9"/>
-        <v>0,</v>
+        <v>2,</v>
       </c>
       <c r="U37" s="17" t="str">
         <f t="shared" si="9"/>
-        <v>0,</v>
+        <v>1,</v>
       </c>
       <c r="X37" s="54" t="str">
         <f t="shared" si="5"/>
@@ -37214,21 +37486,21 @@
       </c>
     </row>
     <row r="39" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="R39" s="17">
+      <c r="R39" s="17" t="str">
         <f>IF($V19, CHAR(34)&amp;"Did not Play"&amp;CHAR(34), R19)</f>
-        <v>0</v>
-      </c>
-      <c r="S39" s="17">
+        <v>"Did not Play"</v>
+      </c>
+      <c r="S39" s="17" t="str">
         <f>IF($V19, CHAR(34)&amp;"Did not Play"&amp;CHAR(34), S19)</f>
-        <v>0</v>
-      </c>
-      <c r="T39" s="17">
+        <v>"Did not Play"</v>
+      </c>
+      <c r="T39" s="17" t="str">
         <f>IF($V19, CHAR(34)&amp;"Did not Play"&amp;CHAR(34), T19)</f>
-        <v>0</v>
-      </c>
-      <c r="U39" s="17">
+        <v>"Did not Play"</v>
+      </c>
+      <c r="U39" s="17" t="str">
         <f>IF($V19, CHAR(34)&amp;"Did not Play"&amp;CHAR(34), U19)</f>
-        <v>0</v>
+        <v>"Did not Play"</v>
       </c>
       <c r="X39" s="54" t="str">
         <f t="shared" si="5"/>
@@ -37252,18 +37524,18 @@
     <row r="41" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.9">
       <c r="R41" s="104"/>
       <c r="S41" s="104"/>
-      <c r="T41" s="142" t="s">
+      <c r="T41" s="143" t="s">
         <v>119</v>
       </c>
-      <c r="U41" s="142"/>
-      <c r="V41" s="142"/>
+      <c r="U41" s="143"/>
+      <c r="V41" s="143"/>
     </row>
     <row r="42" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.9">
       <c r="R42" s="104"/>
       <c r="S42" s="104"/>
-      <c r="T42" s="142"/>
-      <c r="U42" s="142"/>
-      <c r="V42" s="142"/>
+      <c r="T42" s="143"/>
+      <c r="U42" s="143"/>
+      <c r="V42" s="143"/>
     </row>
     <row r="43" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B43" s="17" t="s">
@@ -37334,23 +37606,23 @@
       </c>
       <c r="C45" s="17">
         <f>MAX(L3:L5)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D45" s="17">
         <f>COUNT(B4:B42)-C45-E45</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45" s="17">
         <f>MIN(L3:L5)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45" s="17">
         <f>L3</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G45" s="17">
         <f>COUNTIF(Y4:Y39, "WW/LG")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45" s="17">
         <f>COUNTIF(Z4:Z39, "5M/LG")</f>
@@ -37358,61 +37630,61 @@
       </c>
       <c r="I45" s="17">
         <f>L5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" s="17">
         <f>COUNTIF(X4:X39, "LG/WW")</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K45" s="17">
         <f>COUNTIF(Z4:Z39, "5M/WW")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L45" s="17">
         <f>L4</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M45" s="17">
         <f>COUNTIF(X4:X39, "LG/5M")</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N45" s="17">
         <f>COUNTIF(Y4:Y39, "WW/5M")</f>
         <v>0</v>
       </c>
-      <c r="O45" s="17" t="e">
+      <c r="O45" s="17">
         <f>O3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P45" s="17" t="e">
+        <v>3</v>
+      </c>
+      <c r="P45" s="17">
         <f>O5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q45" s="17" t="e">
+        <v>1</v>
+      </c>
+      <c r="Q45" s="17">
         <f>O4</f>
-        <v>#DIV/0!</v>
+        <v>2</v>
       </c>
       <c r="T45" s="17" t="str">
         <f>CHAR(34)&amp;"Points"&amp;CHAR(34)&amp;":["&amp;R23&amp;R24&amp;R25&amp;R26&amp;R27&amp;R28&amp;R29&amp;R30&amp;R31&amp;R32&amp;R33&amp;R34&amp;R35&amp;R36&amp;R37&amp;R38&amp;R39&amp;"],"</f>
-        <v>"Points":[0,0,"Did not Play","Did not Play",0,0,0,"Did not Play",0,0,0,0,0,0,0,0,0],</v>
+        <v>"Points":[1,1,"Did not Play","Did not Play",0,0,0,"Did not Play",3,1,1,"Did not Play",0,3,6,0,"Did not Play"],</v>
       </c>
     </row>
     <row r="46" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="T46" s="17" t="str">
         <f>CHAR(34)&amp;"Finishes"&amp;CHAR(34)&amp;":["&amp;S23&amp;S24&amp;S25&amp;S26&amp;S27&amp;S28&amp;S29&amp;S30&amp;S31&amp;S32&amp;S33&amp;S34&amp;S35&amp;S36&amp;S37&amp;S38&amp;S39&amp;"],"</f>
-        <v>"Finishes":[0,0,"Did not Play","Did not Play",0,0,0,"Did not Play",0,0,0,0,0,0,0,0,0],</v>
+        <v>"Finishes":[0,1,"Did not Play","Did not Play",0,0,0,"Did not Play",0,0,0,"Did not Play",0,2,2,0,"Did not Play"],</v>
       </c>
     </row>
     <row r="47" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="T47" s="17" t="str">
         <f>CHAR(34)&amp;"Midrange"&amp;CHAR(34)&amp;":["&amp;T23&amp;T24&amp;T25&amp;T26&amp;T27&amp;T28&amp;T29&amp;T30&amp;T31&amp;T32&amp;T33&amp;T34&amp;T35&amp;T36&amp;T37&amp;T38&amp;T39&amp;"],"</f>
-        <v>"Midrange":[0,0,"Did not Play","Did not Play",0,0,0,"Did not Play",0,0,0,0,0,0,0,0,0],</v>
+        <v>"Midrange":[1,0,"Did not Play","Did not Play",0,0,0,"Did not Play",1,1,1,"Did not Play",0,1,2,0,"Did not Play"],</v>
       </c>
     </row>
     <row r="48" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="T48" s="17" t="str">
         <f>CHAR(34)&amp;"ThreePointers"&amp;CHAR(34)&amp;":["&amp;U23&amp;U24&amp;U25&amp;U26&amp;U27&amp;U28&amp;U29&amp;U30&amp;U31&amp;U32&amp;U33&amp;U34&amp;U35&amp;U36&amp;U37&amp;U38&amp;U39&amp;"]"</f>
-        <v>"ThreePointers":[0,0,"Did not Play","Did not Play",0,0,0,"Did not Play",0,0,0,0,0,0,0,0,0]</v>
+        <v>"ThreePointers":[0,0,"Did not Play","Did not Play",0,0,0,"Did not Play",1,0,0,"Did not Play",0,0,1,0,"Did not Play"]</v>
       </c>
     </row>
     <row r="49" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -38441,11 +38713,11 @@
       <c r="V2" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="X2" s="143" t="s">
+      <c r="X2" s="144" t="s">
         <v>219</v>
       </c>
-      <c r="Y2" s="143"/>
-      <c r="Z2" s="143"/>
+      <c r="Y2" s="144"/>
+      <c r="Z2" s="144"/>
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
       <c r="AE2" s="2"/>
@@ -38526,13 +38798,13 @@
         <v>110</v>
       </c>
       <c r="AB3" s="2"/>
-      <c r="AC3" s="144" t="s">
+      <c r="AC3" s="142" t="s">
         <v>222</v>
       </c>
-      <c r="AD3" s="144" t="s">
+      <c r="AD3" s="142" t="s">
         <v>223</v>
       </c>
-      <c r="AE3" s="144" t="s">
+      <c r="AE3" s="142" t="s">
         <v>224</v>
       </c>
     </row>
@@ -40372,11 +40644,11 @@
       <c r="I41" s="26"/>
       <c r="R41" s="104"/>
       <c r="S41" s="104"/>
-      <c r="T41" s="142" t="s">
+      <c r="T41" s="143" t="s">
         <v>119</v>
       </c>
-      <c r="U41" s="142"/>
-      <c r="V41" s="142"/>
+      <c r="U41" s="143"/>
+      <c r="V41" s="143"/>
     </row>
     <row r="42" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.9">
       <c r="B42" s="26"/>
@@ -40389,9 +40661,9 @@
       <c r="I42" s="26"/>
       <c r="R42" s="104"/>
       <c r="S42" s="104"/>
-      <c r="T42" s="142"/>
-      <c r="U42" s="142"/>
-      <c r="V42" s="142"/>
+      <c r="T42" s="143"/>
+      <c r="U42" s="143"/>
+      <c r="V42" s="143"/>
     </row>
     <row r="43" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B43" s="17" t="s">
@@ -43299,18 +43571,18 @@
     <row r="41" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.9">
       <c r="R41" s="104"/>
       <c r="S41" s="104"/>
-      <c r="T41" s="142" t="s">
+      <c r="T41" s="143" t="s">
         <v>119</v>
       </c>
-      <c r="U41" s="142"/>
-      <c r="V41" s="142"/>
+      <c r="U41" s="143"/>
+      <c r="V41" s="143"/>
     </row>
     <row r="42" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.9">
       <c r="R42" s="104"/>
       <c r="S42" s="104"/>
-      <c r="T42" s="142"/>
-      <c r="U42" s="142"/>
-      <c r="V42" s="142"/>
+      <c r="T42" s="143"/>
+      <c r="U42" s="143"/>
+      <c r="V42" s="143"/>
     </row>
     <row r="43" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B43" s="17" t="s">

--- a/Other Files/PastResults.xlsx
+++ b/Other Files/PastResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\011445\Documents\GitHub\LTBO\Other Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7004C1C3-35B0-4506-BF1C-CEBCDEC04092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{297DD496-BEAE-4B80-96B9-56A858FF2C6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" firstSheet="1" activeTab="1" xr2:uid="{1E3275F7-0219-46B7-B9B0-3246E28631A6}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="6" xr2:uid="{1E3275F7-0219-46B7-B9B0-3246E28631A6}"/>
   </bookViews>
   <sheets>
     <sheet name="SfW" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1378" uniqueCount="226">
   <si>
     <t>Points</t>
   </si>
@@ -717,6 +717,9 @@
   <si>
     <t>Steals</t>
   </si>
+  <si>
+    <t>Christopher Tomkinson, William Kim</t>
+  </si>
 </sst>
 </file>
 
@@ -726,11 +729,18 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -939,6 +949,27 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF5B5B"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF008273"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF8B21"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1072,26 +1103,26 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1"/>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1"/>
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="16" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1099,50 +1130,50 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="16" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1153,63 +1184,66 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="17" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="16" fontId="17" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="18" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1221,19 +1255,16 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1242,76 +1273,88 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="16" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="16" fontId="17" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="18" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="16" fontId="17" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="18" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="10" fontId="21" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="22" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1320,6 +1363,26 @@
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="150">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -4748,26 +4811,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -7094,38 +7137,38 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{598ECA3B-99B4-4CAB-8F81-5D711AA5A7FC}" name="Table1" displayName="Table1" ref="Z7:AJ24" totalsRowShown="0" headerRowDxfId="147" dataDxfId="145" headerRowBorderDxfId="146" tableBorderDxfId="144" totalsRowBorderDxfId="143">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{598ECA3B-99B4-4CAB-8F81-5D711AA5A7FC}" name="Table1" displayName="Table1" ref="Z7:AJ24" totalsRowShown="0" headerRowDxfId="149" dataDxfId="147" headerRowBorderDxfId="148" tableBorderDxfId="146" totalsRowBorderDxfId="145">
   <autoFilter ref="Z7:AJ24" xr:uid="{598ECA3B-99B4-4CAB-8F81-5D711AA5A7FC}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{9B036617-5450-4894-9268-827D2E0914FF}" name="Scoring" dataDxfId="142"/>
-    <tableColumn id="2" xr3:uid="{6662CE93-E9C4-47DE-9476-E46126825B0A}" name="Points" dataDxfId="141">
+    <tableColumn id="1" xr3:uid="{9B036617-5450-4894-9268-827D2E0914FF}" name="Scoring" dataDxfId="144"/>
+    <tableColumn id="2" xr3:uid="{6662CE93-E9C4-47DE-9476-E46126825B0A}" name="Points" dataDxfId="143">
       <calculatedColumnFormula>SUM(AL29,AA49,AL49,AA69,AL69,AA89,AL89)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{8FDDFCB0-2692-4EB0-948C-7B877263B55B}" name="Average" dataDxfId="140">
+    <tableColumn id="3" xr3:uid="{8FDDFCB0-2692-4EB0-948C-7B877263B55B}" name="Average" dataDxfId="142">
       <calculatedColumnFormula>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Points]]/($AA$6-Table1[[#This Row],[Missed Games]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{CC3F9B31-1857-48FB-A18B-CBC82C117BF4}" name="Finishes" dataDxfId="139">
+    <tableColumn id="4" xr3:uid="{CC3F9B31-1857-48FB-A18B-CBC82C117BF4}" name="Finishes" dataDxfId="141">
       <calculatedColumnFormula>SUM(AM29,AB49,AM49,AB69,AM69,AB89,AM89)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{5F324C66-956D-4EDC-870F-8EDE96C328C8}" name="Averages" dataDxfId="138">
+    <tableColumn id="5" xr3:uid="{5F324C66-956D-4EDC-870F-8EDE96C328C8}" name="Averages" dataDxfId="140">
       <calculatedColumnFormula>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Finishes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{80C6E15E-675D-4F58-AA26-27226F1CE373}" name="Midranges" dataDxfId="137">
+    <tableColumn id="6" xr3:uid="{80C6E15E-675D-4F58-AA26-27226F1CE373}" name="Midranges" dataDxfId="139">
       <calculatedColumnFormula>SUM(AN29,AC49,AN49,AC69,AN69,AC89,AN89)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{8E7E6B37-23A0-4556-8839-B9D7834E3E68}" name="Averages2" dataDxfId="136">
+    <tableColumn id="7" xr3:uid="{8E7E6B37-23A0-4556-8839-B9D7834E3E68}" name="Averages2" dataDxfId="138">
       <calculatedColumnFormula>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Midranges]]/($AA$6-Table1[[#This Row],[Missed Games]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{8B28715D-E310-4E1F-B9F0-F58F7C70E830}" name="Threes" dataDxfId="135">
+    <tableColumn id="8" xr3:uid="{8B28715D-E310-4E1F-B9F0-F58F7C70E830}" name="Threes" dataDxfId="137">
       <calculatedColumnFormula>SUM(AO29,AD49,AO49,AD69,AO69,AD89,AO89)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{E0C0BF1C-40E8-4137-8E0F-BB238D651DAE}" name="Averages3" dataDxfId="134">
+    <tableColumn id="9" xr3:uid="{E0C0BF1C-40E8-4137-8E0F-BB238D651DAE}" name="Averages3" dataDxfId="136">
       <calculatedColumnFormula>IF($AA$6-Table1[[#This Row],[Missed Games]]=0, 0,Table1[[#This Row],[Threes]]/($AA$6-Table1[[#This Row],[Missed Games]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{1C75F230-74E0-47EE-BF13-C22289FE0F87}" name="Team" dataDxfId="133">
+    <tableColumn id="10" xr3:uid="{1C75F230-74E0-47EE-BF13-C22289FE0F87}" name="Team" dataDxfId="135">
       <calculatedColumnFormula>SfW!C3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{E167D7FA-56F9-4571-B292-FF3869585F59}" name="Missed Games" dataDxfId="132">
+    <tableColumn id="11" xr3:uid="{E167D7FA-56F9-4571-B292-FF3869585F59}" name="Missed Games" dataDxfId="134">
       <calculatedColumnFormula>SUM(AT29,AI49,AT49,AI69,AT69,AI89,AT89)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7134,94 +7177,94 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{744FF78C-74B5-4798-AD3D-741E3ACB43CF}" name="Table1114" displayName="Table1114" ref="R3:AA8" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{744FF78C-74B5-4798-AD3D-741E3ACB43CF}" name="Table1114" displayName="Table1114" ref="R3:AA8" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
   <autoFilter ref="R3:AA8" xr:uid="{744FF78C-74B5-4798-AD3D-741E3ACB43CF}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{B3B5C08C-655A-460A-A171-B3B0C826FF04}" name="Name" dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{427944B0-44CA-4325-A406-29F83026BA5E}" name="Points" dataDxfId="32">
+    <tableColumn id="1" xr3:uid="{B3B5C08C-655A-460A-A171-B3B0C826FF04}" name="Name" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{427944B0-44CA-4325-A406-29F83026BA5E}" name="Points" dataDxfId="34">
       <calculatedColumnFormula>'Stats Global'!AA22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{5E06D173-4DBE-4045-9072-0A0A77D19C84}" name="Average" dataDxfId="31"/>
-    <tableColumn id="4" xr3:uid="{E74131A4-1DCA-4A89-8989-A4CF80175582}" name="Finishes" dataDxfId="30"/>
-    <tableColumn id="5" xr3:uid="{FC3336D4-2CB5-4673-A345-7C9CCED7ADEE}" name="Averages" dataDxfId="29"/>
-    <tableColumn id="6" xr3:uid="{BD6313A7-5D92-4B66-9B85-7ABC12DE9691}" name="Midranges" dataDxfId="28"/>
-    <tableColumn id="7" xr3:uid="{6D0293BC-7E06-45CE-9D4B-FE4769DF9D9F}" name="Averages2" dataDxfId="27"/>
-    <tableColumn id="8" xr3:uid="{89C1C64B-DD66-482C-BCDE-8B912D2676EF}" name="Threes" dataDxfId="26"/>
-    <tableColumn id="9" xr3:uid="{7748B87C-1833-4BD6-9162-76373407E655}" name="Averages3" dataDxfId="25"/>
-    <tableColumn id="10" xr3:uid="{D870E191-A52F-442E-AA52-A42CFAD05573}" name="Missed Games" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{5E06D173-4DBE-4045-9072-0A0A77D19C84}" name="Average" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{E74131A4-1DCA-4A89-8989-A4CF80175582}" name="Finishes" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{FC3336D4-2CB5-4673-A345-7C9CCED7ADEE}" name="Averages" dataDxfId="31"/>
+    <tableColumn id="6" xr3:uid="{BD6313A7-5D92-4B66-9B85-7ABC12DE9691}" name="Midranges" dataDxfId="30"/>
+    <tableColumn id="7" xr3:uid="{6D0293BC-7E06-45CE-9D4B-FE4769DF9D9F}" name="Averages2" dataDxfId="29"/>
+    <tableColumn id="8" xr3:uid="{89C1C64B-DD66-482C-BCDE-8B912D2676EF}" name="Threes" dataDxfId="28"/>
+    <tableColumn id="9" xr3:uid="{7748B87C-1833-4BD6-9162-76373407E655}" name="Averages3" dataDxfId="27"/>
+    <tableColumn id="10" xr3:uid="{D870E191-A52F-442E-AA52-A42CFAD05573}" name="Missed Games" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{54759C84-3153-4DC9-9240-E2749AA0D92B}" name="Table1113" displayName="Table1113" ref="O3:X10" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{54759C84-3153-4DC9-9240-E2749AA0D92B}" name="Table1113" displayName="Table1113" ref="O3:X10" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
   <autoFilter ref="O3:X10" xr:uid="{54759C84-3153-4DC9-9240-E2749AA0D92B}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{7790729E-C8E5-45C1-8784-25212A2654AA}" name="Name" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{52A67B2B-967C-4970-8D83-8F8E9CC61522}" name="Points" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{BA1FA2C8-AEC0-4644-83DB-5097750D7188}" name="Average" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{4CF66F5D-BF10-4CBD-88FF-CCD38730E1CD}" name="Finishes" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{BC246D5B-7E78-41A6-B796-C93ED8E53DF9}" name="Averages" dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{AB819419-CC06-4A40-8DED-E231125129C0}" name="Midranges" dataDxfId="16"/>
-    <tableColumn id="7" xr3:uid="{064AA562-C451-4362-805E-D12DC76C3530}" name="Averages2" dataDxfId="15"/>
-    <tableColumn id="8" xr3:uid="{BD0D8BAE-15E4-4B38-87FE-B682D7BAEE75}" name="Threes" dataDxfId="14"/>
-    <tableColumn id="9" xr3:uid="{541E391B-4B08-4E98-A63F-753C11193269}" name="Averages3" dataDxfId="13"/>
-    <tableColumn id="10" xr3:uid="{999BB5D2-D6FB-4EB9-A268-D62EA72F939D}" name="Missed Games" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{7790729E-C8E5-45C1-8784-25212A2654AA}" name="Name" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{52A67B2B-967C-4970-8D83-8F8E9CC61522}" name="Points" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{BA1FA2C8-AEC0-4644-83DB-5097750D7188}" name="Average" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{4CF66F5D-BF10-4CBD-88FF-CCD38730E1CD}" name="Finishes" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{BC246D5B-7E78-41A6-B796-C93ED8E53DF9}" name="Averages" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{AB819419-CC06-4A40-8DED-E231125129C0}" name="Midranges" dataDxfId="18"/>
+    <tableColumn id="7" xr3:uid="{064AA562-C451-4362-805E-D12DC76C3530}" name="Averages2" dataDxfId="17"/>
+    <tableColumn id="8" xr3:uid="{BD0D8BAE-15E4-4B38-87FE-B682D7BAEE75}" name="Threes" dataDxfId="16"/>
+    <tableColumn id="9" xr3:uid="{541E391B-4B08-4E98-A63F-753C11193269}" name="Averages3" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{999BB5D2-D6FB-4EB9-A268-D62EA72F939D}" name="Missed Games" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{C12CFC3F-7D59-4C0F-8D43-3F8ACD58C2BD}" name="Table11" displayName="Table11" ref="L4:U9" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{C12CFC3F-7D59-4C0F-8D43-3F8ACD58C2BD}" name="Table11" displayName="Table11" ref="L4:U9" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="L4:U9" xr:uid="{C12CFC3F-7D59-4C0F-8D43-3F8ACD58C2BD}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{CE15C23D-9493-4B21-9D40-1A25D210C18E}" name="Name" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{6BB170B1-AA38-4699-9B96-400D2947EE9C}" name="Points" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{EC8B6CBB-FCC9-416C-AEA6-738419DFE531}" name="Average" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{315DA055-9A43-468A-A501-1092626F523F}" name="Finishes" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{56B6FF4D-95D4-4550-88E4-C781ABDA83A6}" name="Averages" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{F7B5C0B8-FBE2-44B0-A372-112C7776FCCF}" name="Midranges" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{1A1C2126-FEB1-408F-8523-049E53028B4E}" name="Averages2" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{AE94036B-3777-4C1B-97D5-7BFA1037C0BF}" name="Threes" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{448B0903-7F66-40BA-809F-74ADBF397B45}" name="Averages3" dataDxfId="1"/>
-    <tableColumn id="10" xr3:uid="{E0CAC55D-8398-4928-A219-C01706996D48}" name="Missed Games" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{CE15C23D-9493-4B21-9D40-1A25D210C18E}" name="Name" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{6BB170B1-AA38-4699-9B96-400D2947EE9C}" name="Points" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{EC8B6CBB-FCC9-416C-AEA6-738419DFE531}" name="Average" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{315DA055-9A43-468A-A501-1092626F523F}" name="Finishes" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{56B6FF4D-95D4-4550-88E4-C781ABDA83A6}" name="Averages" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{F7B5C0B8-FBE2-44B0-A372-112C7776FCCF}" name="Midranges" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{1A1C2126-FEB1-408F-8523-049E53028B4E}" name="Averages2" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{AE94036B-3777-4C1B-97D5-7BFA1037C0BF}" name="Threes" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{448B0903-7F66-40BA-809F-74ADBF397B45}" name="Averages3" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{E0CAC55D-8398-4928-A219-C01706996D48}" name="Missed Games" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{84D0C431-52CF-4ABD-AA3E-D31975A289B1}" name="Table2" displayName="Table2" ref="Z28:AI45" totalsRowShown="0" headerRowDxfId="131" dataDxfId="130">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{84D0C431-52CF-4ABD-AA3E-D31975A289B1}" name="Table2" displayName="Table2" ref="Z28:AI45" totalsRowShown="0" headerRowDxfId="133" dataDxfId="132">
   <autoFilter ref="Z28:AI45" xr:uid="{84D0C431-52CF-4ABD-AA3E-D31975A289B1}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{4DB7A2B8-7BD8-4BD7-8F53-2A7873A4EAAE}" name="Scoring" dataDxfId="129"/>
-    <tableColumn id="2" xr3:uid="{BE8EBD49-660A-4C9F-970E-230EBB942EF1}" name="Points" dataDxfId="128">
+    <tableColumn id="1" xr3:uid="{4DB7A2B8-7BD8-4BD7-8F53-2A7873A4EAAE}" name="Scoring" dataDxfId="131"/>
+    <tableColumn id="2" xr3:uid="{BE8EBD49-660A-4C9F-970E-230EBB942EF1}" name="Points" dataDxfId="130">
       <calculatedColumnFormula>'Preseason 1'!R3+'Preseason 2'!R3+'Preseason 3'!R3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{C2C49EF0-4D8C-4F8C-8D19-CDD1481D9568}" name="Finishes" dataDxfId="127">
+    <tableColumn id="3" xr3:uid="{C2C49EF0-4D8C-4F8C-8D19-CDD1481D9568}" name="Finishes" dataDxfId="129">
       <calculatedColumnFormula>'Preseason 1'!S3+'Preseason 2'!S3+'Preseason 3'!S3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{7E789F8C-B8F3-4D6E-AB6C-C9454835B062}" name="Midranges" dataDxfId="126">
+    <tableColumn id="4" xr3:uid="{7E789F8C-B8F3-4D6E-AB6C-C9454835B062}" name="Midranges" dataDxfId="128">
       <calculatedColumnFormula>'Preseason 1'!T3+'Preseason 2'!T3+'Preseason 3'!T3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{18C990F2-A6D0-4F57-B96A-D00066DCC8D8}" name="Threes" dataDxfId="125">
+    <tableColumn id="5" xr3:uid="{18C990F2-A6D0-4F57-B96A-D00066DCC8D8}" name="Threes" dataDxfId="127">
       <calculatedColumnFormula>'Preseason 1'!U3+'Preseason 2'!U3+'Preseason 3'!U3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{40526534-76CA-42BA-A8B6-AB092D9CE18F}" name="Avg P" dataDxfId="124">
+    <tableColumn id="6" xr3:uid="{40526534-76CA-42BA-A8B6-AB092D9CE18F}" name="Avg P" dataDxfId="126">
       <calculatedColumnFormula>AA29/($AA$27-Table2[[#This Row],[Missed Games]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{693AF117-21F6-4887-B78D-D59235BABA44}" name="Avg F" dataDxfId="123">
+    <tableColumn id="7" xr3:uid="{693AF117-21F6-4887-B78D-D59235BABA44}" name="Avg F" dataDxfId="125">
       <calculatedColumnFormula>AB29/($AA$27-Table2[[#This Row],[Missed Games]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{02AC8FBF-EBB3-4AFC-BAC5-B773E33B7279}" name="Avg M" dataDxfId="122">
+    <tableColumn id="8" xr3:uid="{02AC8FBF-EBB3-4AFC-BAC5-B773E33B7279}" name="Avg M" dataDxfId="124">
       <calculatedColumnFormula>AC29/($AA$27-Table2[[#This Row],[Missed Games]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{CCF75EB4-34C4-4D47-9D51-E8D85C07E38B}" name="Avg T" dataDxfId="121">
+    <tableColumn id="9" xr3:uid="{CCF75EB4-34C4-4D47-9D51-E8D85C07E38B}" name="Avg T" dataDxfId="123">
       <calculatedColumnFormula>AD29/($AA$27-Table2[[#This Row],[Missed Games]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{1A786A5C-D0C2-4ABC-904C-983180542D5F}" name="Missed Games" dataDxfId="120">
+    <tableColumn id="10" xr3:uid="{1A786A5C-D0C2-4ABC-904C-983180542D5F}" name="Missed Games" dataDxfId="122">
       <calculatedColumnFormula>COUNTIF('Preseason 1'!V3, "TRUE")+COUNTIF('Preseason 2'!V3, "TRUE")+COUNTIF('Preseason 3'!V3, "TRUE")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7230,35 +7273,35 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{46F39EBA-1E74-46F4-A6E5-473672128124}" name="Table211" displayName="Table211" ref="AK28:AT45" totalsRowShown="0" headerRowDxfId="119" dataDxfId="118">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{46F39EBA-1E74-46F4-A6E5-473672128124}" name="Table211" displayName="Table211" ref="AK28:AT45" totalsRowShown="0" headerRowDxfId="121" dataDxfId="120">
   <autoFilter ref="AK28:AT45" xr:uid="{46F39EBA-1E74-46F4-A6E5-473672128124}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{5D003608-C1C2-4694-9447-8632FB8D7348}" name="Scoring" dataDxfId="117"/>
-    <tableColumn id="2" xr3:uid="{D15F4085-CED5-4CDD-B43B-BF7EB59B45A3}" name="Points" dataDxfId="116">
+    <tableColumn id="1" xr3:uid="{5D003608-C1C2-4694-9447-8632FB8D7348}" name="Scoring" dataDxfId="119"/>
+    <tableColumn id="2" xr3:uid="{D15F4085-CED5-4CDD-B43B-BF7EB59B45A3}" name="Points" dataDxfId="118">
       <calculatedColumnFormula>'1707'!R3+'1807'!R3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{2D436F37-54B6-4820-9145-F48B4EF9B294}" name="Finishes" dataDxfId="115">
+    <tableColumn id="3" xr3:uid="{2D436F37-54B6-4820-9145-F48B4EF9B294}" name="Finishes" dataDxfId="117">
       <calculatedColumnFormula>'1707'!S3+'1807'!S3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{1D9B6A22-B682-47F3-B738-7C138F317A41}" name="Midranges" dataDxfId="114">
+    <tableColumn id="4" xr3:uid="{1D9B6A22-B682-47F3-B738-7C138F317A41}" name="Midranges" dataDxfId="116">
       <calculatedColumnFormula>'1707'!T3+'1807'!T3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{9966C9A0-3872-44E9-BB39-05DE197EAA68}" name="Threes" dataDxfId="113">
+    <tableColumn id="5" xr3:uid="{9966C9A0-3872-44E9-BB39-05DE197EAA68}" name="Threes" dataDxfId="115">
       <calculatedColumnFormula>'1707'!U3+'1807'!U3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{CC4AB646-735F-425F-8528-C5EFE7FE11DC}" name="Avg P" dataDxfId="112">
+    <tableColumn id="6" xr3:uid="{CC4AB646-735F-425F-8528-C5EFE7FE11DC}" name="Avg P" dataDxfId="114">
       <calculatedColumnFormula>AL29/($AA$27-Table211[[#This Row],[Missed Games]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{F8D0247E-C6F7-467A-9F38-46084D44F8AB}" name="Avg F" dataDxfId="111">
+    <tableColumn id="7" xr3:uid="{F8D0247E-C6F7-467A-9F38-46084D44F8AB}" name="Avg F" dataDxfId="113">
       <calculatedColumnFormula>AM29/($AA$27-Table211[[#This Row],[Missed Games]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{7CCF1C77-9DB0-4EB2-B7D0-FD0BDBEBFA0E}" name="Avg M" dataDxfId="110">
+    <tableColumn id="8" xr3:uid="{7CCF1C77-9DB0-4EB2-B7D0-FD0BDBEBFA0E}" name="Avg M" dataDxfId="112">
       <calculatedColumnFormula>AN29/($AA$27-Table211[[#This Row],[Missed Games]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{582A1A4E-5383-4383-A480-735408867046}" name="Avg T" dataDxfId="109">
+    <tableColumn id="9" xr3:uid="{582A1A4E-5383-4383-A480-735408867046}" name="Avg T" dataDxfId="111">
       <calculatedColumnFormula>AO29/($AA$27-Table211[[#This Row],[Missed Games]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{E547AEB5-F9BA-4C5F-8DCE-34B6A8FF303A}" name="Missed Games" dataDxfId="108">
+    <tableColumn id="10" xr3:uid="{E547AEB5-F9BA-4C5F-8DCE-34B6A8FF303A}" name="Missed Games" dataDxfId="110">
       <calculatedColumnFormula>COUNTIF('1707'!V3, "TRUE")+COUNTIF('1807'!V3, "TRUE")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7267,35 +7310,35 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{D27C125F-71B2-44D9-9F7A-9BED67755DD3}" name="Table21123" displayName="Table21123" ref="Z48:AI65" totalsRowShown="0" headerRowDxfId="107" dataDxfId="106">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{D27C125F-71B2-44D9-9F7A-9BED67755DD3}" name="Table21123" displayName="Table21123" ref="Z48:AI65" totalsRowShown="0" headerRowDxfId="109" dataDxfId="108">
   <autoFilter ref="Z48:AI65" xr:uid="{D27C125F-71B2-44D9-9F7A-9BED67755DD3}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{0B0344E8-2677-4FAB-9B03-4745991FB5AE}" name="Scoring" dataDxfId="105"/>
-    <tableColumn id="2" xr3:uid="{58CA1107-8BB4-4A5D-BA00-31619C8D3973}" name="Points" dataDxfId="104">
+    <tableColumn id="1" xr3:uid="{0B0344E8-2677-4FAB-9B03-4745991FB5AE}" name="Scoring" dataDxfId="107"/>
+    <tableColumn id="2" xr3:uid="{58CA1107-8BB4-4A5D-BA00-31619C8D3973}" name="Points" dataDxfId="106">
       <calculatedColumnFormula>Template!R23</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{8090861E-1FDF-44F4-9DB6-BB814E32C754}" name="Finishes" dataDxfId="103">
+    <tableColumn id="3" xr3:uid="{8090861E-1FDF-44F4-9DB6-BB814E32C754}" name="Finishes" dataDxfId="105">
       <calculatedColumnFormula>Template!S23</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{972D0347-DAB3-4985-A738-E5D78740D498}" name="Midranges" dataDxfId="102">
+    <tableColumn id="4" xr3:uid="{972D0347-DAB3-4985-A738-E5D78740D498}" name="Midranges" dataDxfId="104">
       <calculatedColumnFormula>Template!T23</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{48F5F884-1753-4988-9056-632B5EB6BBCB}" name="Threes" dataDxfId="101">
+    <tableColumn id="5" xr3:uid="{48F5F884-1753-4988-9056-632B5EB6BBCB}" name="Threes" dataDxfId="103">
       <calculatedColumnFormula>Template!U23</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{6953B627-EA05-418F-A758-FD59263EA60D}" name="Avg P" dataDxfId="100">
+    <tableColumn id="6" xr3:uid="{6953B627-EA05-418F-A758-FD59263EA60D}" name="Avg P" dataDxfId="102">
       <calculatedColumnFormula>AA49/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{BE057C9C-5ECD-4AC2-A9C0-18C89CFB52BC}" name="Avg F" dataDxfId="99">
+    <tableColumn id="7" xr3:uid="{BE057C9C-5ECD-4AC2-A9C0-18C89CFB52BC}" name="Avg F" dataDxfId="101">
       <calculatedColumnFormula>AB49/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{0FDEBEE7-CD5E-4A44-A0AE-74F044F1FF46}" name="Avg M" dataDxfId="98">
+    <tableColumn id="8" xr3:uid="{0FDEBEE7-CD5E-4A44-A0AE-74F044F1FF46}" name="Avg M" dataDxfId="100">
       <calculatedColumnFormula>AC49/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{76975BB6-3677-41A8-BC24-7536B1D876D3}" name="Avg T" dataDxfId="97">
+    <tableColumn id="9" xr3:uid="{76975BB6-3677-41A8-BC24-7536B1D876D3}" name="Avg T" dataDxfId="99">
       <calculatedColumnFormula>AD49/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{E5ADB69B-3BA2-4019-8C83-8B02221F187E}" name="Missed Games" dataDxfId="96">
+    <tableColumn id="10" xr3:uid="{E5ADB69B-3BA2-4019-8C83-8B02221F187E}" name="Missed Games" dataDxfId="98">
       <calculatedColumnFormula>COUNTIF(Template!V23, "TRUE")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7304,35 +7347,35 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{22B89D2C-1B74-4036-A4ED-A5E61F1B3AAC}" name="Table21124" displayName="Table21124" ref="AK48:AT65" totalsRowShown="0" headerRowDxfId="95" dataDxfId="94">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{22B89D2C-1B74-4036-A4ED-A5E61F1B3AAC}" name="Table21124" displayName="Table21124" ref="AK48:AT65" totalsRowShown="0" headerRowDxfId="97" dataDxfId="96">
   <autoFilter ref="AK48:AT65" xr:uid="{22B89D2C-1B74-4036-A4ED-A5E61F1B3AAC}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{3D35891E-3654-497A-8DB2-BF0BD916CA29}" name="Scoring" dataDxfId="93"/>
-    <tableColumn id="2" xr3:uid="{54B5B6AF-372A-4E07-B4D6-DFC66F7E20C5}" name="Points" dataDxfId="92">
+    <tableColumn id="1" xr3:uid="{3D35891E-3654-497A-8DB2-BF0BD916CA29}" name="Scoring" dataDxfId="95"/>
+    <tableColumn id="2" xr3:uid="{54B5B6AF-372A-4E07-B4D6-DFC66F7E20C5}" name="Points" dataDxfId="94">
       <calculatedColumnFormula>Template!AC23</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{6CA15B41-F560-4B43-8836-163F5BB5689C}" name="Finishes" dataDxfId="91">
+    <tableColumn id="3" xr3:uid="{6CA15B41-F560-4B43-8836-163F5BB5689C}" name="Finishes" dataDxfId="93">
       <calculatedColumnFormula>Template!AD23</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{8FF05262-0051-44F7-966E-8D405318BA69}" name="Midranges" dataDxfId="90">
+    <tableColumn id="4" xr3:uid="{8FF05262-0051-44F7-966E-8D405318BA69}" name="Midranges" dataDxfId="92">
       <calculatedColumnFormula>Template!AE23</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{F0D843FC-7A93-4C9A-BCCF-E789F7811B3B}" name="Threes" dataDxfId="89">
+    <tableColumn id="5" xr3:uid="{F0D843FC-7A93-4C9A-BCCF-E789F7811B3B}" name="Threes" dataDxfId="91">
       <calculatedColumnFormula>Template!AF23</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{F0498F8A-F646-4C1F-A3CF-E89E73750FC1}" name="Avg P" dataDxfId="88">
+    <tableColumn id="6" xr3:uid="{F0498F8A-F646-4C1F-A3CF-E89E73750FC1}" name="Avg P" dataDxfId="90">
       <calculatedColumnFormula>AL49/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{A387BC88-F45C-4386-8503-EFEA33BDAC38}" name="Avg F" dataDxfId="87">
+    <tableColumn id="7" xr3:uid="{A387BC88-F45C-4386-8503-EFEA33BDAC38}" name="Avg F" dataDxfId="89">
       <calculatedColumnFormula>AM49/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{BEA82919-0828-4351-A01A-D72E13E63FAB}" name="Avg M" dataDxfId="86">
+    <tableColumn id="8" xr3:uid="{BEA82919-0828-4351-A01A-D72E13E63FAB}" name="Avg M" dataDxfId="88">
       <calculatedColumnFormula>AN49/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{ABEBCE01-BCA4-4342-966C-27301889B607}" name="Avg T" dataDxfId="85">
+    <tableColumn id="9" xr3:uid="{ABEBCE01-BCA4-4342-966C-27301889B607}" name="Avg T" dataDxfId="87">
       <calculatedColumnFormula>AO49/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{65E7A8E7-4C51-42E4-AB0F-B7FF6099D70A}" name="Missed Games" dataDxfId="84">
+    <tableColumn id="10" xr3:uid="{65E7A8E7-4C51-42E4-AB0F-B7FF6099D70A}" name="Missed Games" dataDxfId="86">
       <calculatedColumnFormula>COUNTIF(Template!AG23, "TRUE")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7341,35 +7384,35 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{18C7D514-96DE-4BA6-B019-3E860ED143EC}" name="Table21125" displayName="Table21125" ref="AK68:AT85" totalsRowShown="0" headerRowDxfId="83" dataDxfId="82">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{18C7D514-96DE-4BA6-B019-3E860ED143EC}" name="Table21125" displayName="Table21125" ref="AK68:AT85" totalsRowShown="0" headerRowDxfId="85" dataDxfId="84">
   <autoFilter ref="AK68:AT85" xr:uid="{18C7D514-96DE-4BA6-B019-3E860ED143EC}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{D144EF14-69FD-4E71-90C7-56F49F45FAE5}" name="Scoring" dataDxfId="81"/>
-    <tableColumn id="2" xr3:uid="{34D1D392-F3E0-4C36-9EED-849D5B1149E6}" name="Points" dataDxfId="80">
+    <tableColumn id="1" xr3:uid="{D144EF14-69FD-4E71-90C7-56F49F45FAE5}" name="Scoring" dataDxfId="83"/>
+    <tableColumn id="2" xr3:uid="{34D1D392-F3E0-4C36-9EED-849D5B1149E6}" name="Points" dataDxfId="82">
       <calculatedColumnFormula>Template!AC43</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{E91D98A2-80BD-4E5C-9036-2FCC8185369F}" name="Finishes" dataDxfId="79">
+    <tableColumn id="3" xr3:uid="{E91D98A2-80BD-4E5C-9036-2FCC8185369F}" name="Finishes" dataDxfId="81">
       <calculatedColumnFormula>Template!AD43</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{D2E5029E-4811-4E9B-9A2D-5F5F8F322B0D}" name="Midranges" dataDxfId="78">
+    <tableColumn id="4" xr3:uid="{D2E5029E-4811-4E9B-9A2D-5F5F8F322B0D}" name="Midranges" dataDxfId="80">
       <calculatedColumnFormula>Template!AE43</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{B3E76CEE-33DA-4B18-8DCE-8EBC7EE592D7}" name="Threes" dataDxfId="77">
+    <tableColumn id="5" xr3:uid="{B3E76CEE-33DA-4B18-8DCE-8EBC7EE592D7}" name="Threes" dataDxfId="79">
       <calculatedColumnFormula>Template!AF43</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{6ABE1879-8018-4498-A9A1-22CF831F0364}" name="Avg P" dataDxfId="76">
+    <tableColumn id="6" xr3:uid="{6ABE1879-8018-4498-A9A1-22CF831F0364}" name="Avg P" dataDxfId="78">
       <calculatedColumnFormula>AL69/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{8DA4DD79-8A2A-49E4-996F-C1ACCED3C565}" name="Avg F" dataDxfId="75">
+    <tableColumn id="7" xr3:uid="{8DA4DD79-8A2A-49E4-996F-C1ACCED3C565}" name="Avg F" dataDxfId="77">
       <calculatedColumnFormula>AM69/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{256EA4BC-BA61-49E2-969F-0786AA9AA6EA}" name="Avg M" dataDxfId="74">
+    <tableColumn id="8" xr3:uid="{256EA4BC-BA61-49E2-969F-0786AA9AA6EA}" name="Avg M" dataDxfId="76">
       <calculatedColumnFormula>AN69/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{0E5566B2-99EC-4B03-A074-8705C4EDA484}" name="Avg T" dataDxfId="73">
+    <tableColumn id="9" xr3:uid="{0E5566B2-99EC-4B03-A074-8705C4EDA484}" name="Avg T" dataDxfId="75">
       <calculatedColumnFormula>AO69/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{3E2357F0-493E-401D-AC75-9AAB260F684E}" name="Missed Games" dataDxfId="72">
+    <tableColumn id="10" xr3:uid="{3E2357F0-493E-401D-AC75-9AAB260F684E}" name="Missed Games" dataDxfId="74">
       <calculatedColumnFormula>COUNTIF(Template!AG43, "TRUE")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7378,35 +7421,35 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{F118BED8-7AAF-4E55-A61F-C75C69A64AAE}" name="Table21126" displayName="Table21126" ref="Z68:AI85" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{F118BED8-7AAF-4E55-A61F-C75C69A64AAE}" name="Table21126" displayName="Table21126" ref="Z68:AI85" totalsRowShown="0" headerRowDxfId="73" dataDxfId="72">
   <autoFilter ref="Z68:AI85" xr:uid="{F118BED8-7AAF-4E55-A61F-C75C69A64AAE}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{7723929D-65B3-40BB-8FDD-C4533243706C}" name="Scoring" dataDxfId="69"/>
-    <tableColumn id="2" xr3:uid="{EC28DE3D-619E-4930-A3AF-7AD1BE1D4843}" name="Points" dataDxfId="68">
+    <tableColumn id="1" xr3:uid="{7723929D-65B3-40BB-8FDD-C4533243706C}" name="Scoring" dataDxfId="71"/>
+    <tableColumn id="2" xr3:uid="{EC28DE3D-619E-4930-A3AF-7AD1BE1D4843}" name="Points" dataDxfId="70">
       <calculatedColumnFormula>Template!R43</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{9537269D-8C1D-42B5-866F-D03CE61A8512}" name="Finishes" dataDxfId="67">
+    <tableColumn id="3" xr3:uid="{9537269D-8C1D-42B5-866F-D03CE61A8512}" name="Finishes" dataDxfId="69">
       <calculatedColumnFormula>Template!S43</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{AC590DDB-BE19-4A14-8B98-1E5E2430AA45}" name="Midranges" dataDxfId="66">
+    <tableColumn id="4" xr3:uid="{AC590DDB-BE19-4A14-8B98-1E5E2430AA45}" name="Midranges" dataDxfId="68">
       <calculatedColumnFormula>Template!T43</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C96D3ACD-F34D-477E-86DE-4650EE56BC94}" name="Threes" dataDxfId="65">
+    <tableColumn id="5" xr3:uid="{C96D3ACD-F34D-477E-86DE-4650EE56BC94}" name="Threes" dataDxfId="67">
       <calculatedColumnFormula>Template!U43</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{A43DE5E9-BB01-49FA-A204-66EE7BAA2E9F}" name="Avg P" dataDxfId="64">
+    <tableColumn id="6" xr3:uid="{A43DE5E9-BB01-49FA-A204-66EE7BAA2E9F}" name="Avg P" dataDxfId="66">
       <calculatedColumnFormula>AA69/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{C75A19FF-6041-45C2-BACB-E347F06B6329}" name="Avg F" dataDxfId="63">
+    <tableColumn id="7" xr3:uid="{C75A19FF-6041-45C2-BACB-E347F06B6329}" name="Avg F" dataDxfId="65">
       <calculatedColumnFormula>AB69/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00D3FCFC-C9C5-4C96-BE0E-8E1FDC95D07C}" name="Avg M" dataDxfId="62">
+    <tableColumn id="8" xr3:uid="{00D3FCFC-C9C5-4C96-BE0E-8E1FDC95D07C}" name="Avg M" dataDxfId="64">
       <calculatedColumnFormula>AC69/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{0448FF4E-9D2D-47F6-89B7-F17D36B05E8A}" name="Avg T" dataDxfId="61">
+    <tableColumn id="9" xr3:uid="{0448FF4E-9D2D-47F6-89B7-F17D36B05E8A}" name="Avg T" dataDxfId="63">
       <calculatedColumnFormula>AD69/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{D5BDFA2D-095B-44F8-8567-15B3B1520E5A}" name="Missed Games" dataDxfId="60">
+    <tableColumn id="10" xr3:uid="{D5BDFA2D-095B-44F8-8567-15B3B1520E5A}" name="Missed Games" dataDxfId="62">
       <calculatedColumnFormula>COUNTIF(Template!V43, "TRUE")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7415,35 +7458,35 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{BDD2E472-3925-41A7-BECD-3315E6E71ECC}" name="Table21127" displayName="Table21127" ref="Z88:AI105" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{BDD2E472-3925-41A7-BECD-3315E6E71ECC}" name="Table21127" displayName="Table21127" ref="Z88:AI105" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60">
   <autoFilter ref="Z88:AI105" xr:uid="{BDD2E472-3925-41A7-BECD-3315E6E71ECC}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{9DBD966D-620C-4B97-A502-29D00ABE150B}" name="Scoring" dataDxfId="57"/>
-    <tableColumn id="2" xr3:uid="{F8F81F0E-16B3-4472-9D90-A92149C763E4}" name="Points" dataDxfId="56">
+    <tableColumn id="1" xr3:uid="{9DBD966D-620C-4B97-A502-29D00ABE150B}" name="Scoring" dataDxfId="59"/>
+    <tableColumn id="2" xr3:uid="{F8F81F0E-16B3-4472-9D90-A92149C763E4}" name="Points" dataDxfId="58">
       <calculatedColumnFormula>Template!R63</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{09859CE1-290D-4977-B02C-46F4E5A6FDC2}" name="Finishes" dataDxfId="55">
+    <tableColumn id="3" xr3:uid="{09859CE1-290D-4977-B02C-46F4E5A6FDC2}" name="Finishes" dataDxfId="57">
       <calculatedColumnFormula>Template!S63</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{7D751A0E-2895-46DF-B5E2-5A8AA5531CD2}" name="Midranges" dataDxfId="54">
+    <tableColumn id="4" xr3:uid="{7D751A0E-2895-46DF-B5E2-5A8AA5531CD2}" name="Midranges" dataDxfId="56">
       <calculatedColumnFormula>Template!T63</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{591CDC71-B0EA-413B-B6C1-77884E7E50D4}" name="Threes" dataDxfId="53">
+    <tableColumn id="5" xr3:uid="{591CDC71-B0EA-413B-B6C1-77884E7E50D4}" name="Threes" dataDxfId="55">
       <calculatedColumnFormula>Template!U63</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{52ED768C-5557-42DC-9824-7A4D9B547153}" name="Avg P" dataDxfId="52">
+    <tableColumn id="6" xr3:uid="{52ED768C-5557-42DC-9824-7A4D9B547153}" name="Avg P" dataDxfId="54">
       <calculatedColumnFormula>AA89/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{FC79BE87-72E2-4F5E-83D6-CDCE645EB943}" name="Avg F" dataDxfId="51">
+    <tableColumn id="7" xr3:uid="{FC79BE87-72E2-4F5E-83D6-CDCE645EB943}" name="Avg F" dataDxfId="53">
       <calculatedColumnFormula>AB89/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{BA012C22-0D65-4C11-98A7-4F958703D04B}" name="Avg M" dataDxfId="50">
+    <tableColumn id="8" xr3:uid="{BA012C22-0D65-4C11-98A7-4F958703D04B}" name="Avg M" dataDxfId="52">
       <calculatedColumnFormula>AC89/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{63344F2B-5D94-417D-85E2-C2BFBACE3E7E}" name="Avg T" dataDxfId="49">
+    <tableColumn id="9" xr3:uid="{63344F2B-5D94-417D-85E2-C2BFBACE3E7E}" name="Avg T" dataDxfId="51">
       <calculatedColumnFormula>AD89/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{1AD5A604-8909-45B3-8E43-11D407451CEA}" name="Missed Games" dataDxfId="48">
+    <tableColumn id="10" xr3:uid="{1AD5A604-8909-45B3-8E43-11D407451CEA}" name="Missed Games" dataDxfId="50">
       <calculatedColumnFormula>COUNTIF(Template!V63, "TRUE")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7452,35 +7495,35 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{F9183685-60DE-4163-AA62-BE4F563EE570}" name="Table21128" displayName="Table21128" ref="AK88:AT105" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{F9183685-60DE-4163-AA62-BE4F563EE570}" name="Table21128" displayName="Table21128" ref="AK88:AT105" totalsRowShown="0" headerRowDxfId="49" dataDxfId="48">
   <autoFilter ref="AK88:AT105" xr:uid="{F9183685-60DE-4163-AA62-BE4F563EE570}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{E62FBAA0-D6F6-4997-96C9-B6B13FAA9B6E}" name="Scoring" dataDxfId="45"/>
-    <tableColumn id="2" xr3:uid="{0A655F6F-9A21-4167-85B6-B9F7DC2070CA}" name="Points" dataDxfId="44">
+    <tableColumn id="1" xr3:uid="{E62FBAA0-D6F6-4997-96C9-B6B13FAA9B6E}" name="Scoring" dataDxfId="47"/>
+    <tableColumn id="2" xr3:uid="{0A655F6F-9A21-4167-85B6-B9F7DC2070CA}" name="Points" dataDxfId="46">
       <calculatedColumnFormula>Template!AC63</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{460771D3-3BD8-4DA3-AF1B-1A0F98EF1499}" name="Finishes" dataDxfId="43">
+    <tableColumn id="3" xr3:uid="{460771D3-3BD8-4DA3-AF1B-1A0F98EF1499}" name="Finishes" dataDxfId="45">
       <calculatedColumnFormula>Template!AD63</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{3C08B2D7-823D-49C3-A627-A5848E664B2F}" name="Midranges" dataDxfId="42">
+    <tableColumn id="4" xr3:uid="{3C08B2D7-823D-49C3-A627-A5848E664B2F}" name="Midranges" dataDxfId="44">
       <calculatedColumnFormula>Template!AE63</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{E88F45FB-4C46-4674-86D5-74808E7E5368}" name="Threes" dataDxfId="41">
+    <tableColumn id="5" xr3:uid="{E88F45FB-4C46-4674-86D5-74808E7E5368}" name="Threes" dataDxfId="43">
       <calculatedColumnFormula>Template!AF63</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{0C0E8016-1E6E-4F25-9675-4EE061FFD0F7}" name="Avg P" dataDxfId="40">
+    <tableColumn id="6" xr3:uid="{0C0E8016-1E6E-4F25-9675-4EE061FFD0F7}" name="Avg P" dataDxfId="42">
       <calculatedColumnFormula>AL89/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{F7AC350B-AE4B-4912-B21D-16D99E2AE8BF}" name="Avg F" dataDxfId="39">
+    <tableColumn id="7" xr3:uid="{F7AC350B-AE4B-4912-B21D-16D99E2AE8BF}" name="Avg F" dataDxfId="41">
       <calculatedColumnFormula>AM89/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{F451E5CA-B9C4-4EFA-A647-CEDB2FB39550}" name="Avg M" dataDxfId="38">
+    <tableColumn id="8" xr3:uid="{F451E5CA-B9C4-4EFA-A647-CEDB2FB39550}" name="Avg M" dataDxfId="40">
       <calculatedColumnFormula>AN89/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{ED1D92B5-05F1-40CE-A89F-E6627FAB4A59}" name="Avg T" dataDxfId="37">
+    <tableColumn id="9" xr3:uid="{ED1D92B5-05F1-40CE-A89F-E6627FAB4A59}" name="Avg T" dataDxfId="39">
       <calculatedColumnFormula>AO89/$AA$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{48A4808A-3DE6-4644-83F5-C2AEDDFC3E5E}" name="Missed Games" dataDxfId="36">
+    <tableColumn id="10" xr3:uid="{48A4808A-3DE6-4644-83F5-C2AEDDFC3E5E}" name="Missed Games" dataDxfId="38">
       <calculatedColumnFormula>COUNTIF(Template!AG63, "TRUE")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -12053,7 +12096,7 @@
   <mergeCells count="1">
     <mergeCell ref="B22:C23"/>
   </mergeCells>
-  <phoneticPr fontId="24" type="noConversion"/>
+  <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
@@ -18170,7 +18213,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:AT1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AL28" sqref="AL28"/>
     </sheetView>
   </sheetViews>
@@ -24970,14 +25013,14 @@
     <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
-  <phoneticPr fontId="24" type="noConversion"/>
+  <phoneticPr fontId="25" type="noConversion"/>
   <conditionalFormatting sqref="U109:U118 W103:W108">
-    <cfRule type="cellIs" dxfId="149" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U109:U118 W103:W108">
-    <cfRule type="cellIs" dxfId="148" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25004,7 +25047,7 @@
   <dimension ref="A1:AD1000"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="I43" sqref="I43:I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -25475,8 +25518,12 @@
         <f>'Stats Global'!O9</f>
         <v>3</v>
       </c>
-      <c r="E8" s="85"/>
-      <c r="F8" s="85"/>
+      <c r="E8" s="85" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="85" t="s">
+        <v>225</v>
+      </c>
       <c r="I8" s="86"/>
       <c r="J8" s="89"/>
       <c r="L8" s="90">
@@ -27903,7 +27950,7 @@
   <dimension ref="A1:X1000"/>
   <sheetViews>
     <sheetView zoomScale="76" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A3" sqref="A3:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -28315,8 +28362,12 @@
         <f>'Stats Global'!P9</f>
         <v>1</v>
       </c>
-      <c r="E8" s="85"/>
-      <c r="F8" s="85"/>
+      <c r="E8" s="85" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="85" t="s">
+        <v>208</v>
+      </c>
       <c r="I8" s="86"/>
       <c r="J8" s="89"/>
       <c r="L8" s="90">
@@ -30569,7 +30620,7 @@
   <dimension ref="A1:X1000"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="A3" sqref="A3:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -30929,8 +30980,12 @@
         <f>'Stats Global'!Q9</f>
         <v>2</v>
       </c>
-      <c r="E8" s="85"/>
-      <c r="F8" s="85"/>
+      <c r="E8" s="85" t="s">
+        <v>208</v>
+      </c>
+      <c r="F8" s="85" t="s">
+        <v>50</v>
+      </c>
       <c r="H8" s="86"/>
       <c r="I8" s="102"/>
       <c r="K8" s="89"/>
@@ -35722,8 +35777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34091F1A-4A23-4996-9948-1508C0A56F45}">
   <dimension ref="B1:AE1000"/>
   <sheetViews>
-    <sheetView zoomScale="79" workbookViewId="0">
-      <selection activeCell="N37" sqref="N37"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="79" workbookViewId="0">
+      <selection activeCell="AB21" sqref="AB21:AE38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -35779,9 +35834,6 @@
       <c r="V2" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="AC2" s="2"/>
-      <c r="AD2" s="2"/>
-      <c r="AE2" s="2"/>
     </row>
     <row r="3" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="15" t="s">
@@ -35859,6 +35911,15 @@
         <v>110</v>
       </c>
       <c r="AB3" s="2"/>
+      <c r="AC3" s="142" t="s">
+        <v>222</v>
+      </c>
+      <c r="AD3" s="142" t="s">
+        <v>223</v>
+      </c>
+      <c r="AE3" s="142" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="4" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="26">
@@ -35938,7 +35999,18 @@
         <f t="shared" ref="Z4:Z39" si="7">IF(AND(C4="5 Musketeers",D4="Loose Gooses"),"5M/LG", IF(AND($C4="5 Musketeers",$D4="Wet Willies"),"5M/WW", ""))</f>
         <v/>
       </c>
-      <c r="AB4" s="2"/>
+      <c r="AB4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC4" s="17">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="17">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="17">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B5" s="26">
@@ -36018,7 +36090,15 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AB5" s="2"/>
+      <c r="AB5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC5" s="17">
+        <v>2</v>
+      </c>
+      <c r="AE5" s="17">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="26">
@@ -36079,7 +36159,9 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AB6" s="2"/>
+      <c r="AB6" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="7" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="26">
@@ -36140,7 +36222,9 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AB7" s="2"/>
+      <c r="AB7" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="26">
@@ -36201,7 +36285,12 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AB8" s="2"/>
+      <c r="AB8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC8" s="17">
+        <v>4</v>
+      </c>
     </row>
     <row r="9" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="26">
@@ -36262,6 +36351,15 @@
         <f t="shared" si="7"/>
         <v>5M/WW</v>
       </c>
+      <c r="AB9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC9" s="17">
+        <v>2</v>
+      </c>
+      <c r="AD9" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="26">
@@ -36322,7 +36420,9 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AB10" s="2"/>
+      <c r="AB10" s="17" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="11" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="26">
@@ -36383,7 +36483,9 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AB11" s="2"/>
+      <c r="AB11" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="12" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="26">
@@ -36444,7 +36546,18 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AB12" s="2"/>
+      <c r="AB12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC12" s="17">
+        <v>4</v>
+      </c>
+      <c r="AD12" s="17">
+        <v>2</v>
+      </c>
+      <c r="AE12" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B13" s="26">
@@ -36505,7 +36618,12 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AB13" s="2"/>
+      <c r="AB13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC13" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="26">
@@ -36566,7 +36684,15 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AB14" s="2"/>
+      <c r="AB14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC14" s="17">
+        <v>1</v>
+      </c>
+      <c r="AE14" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="26">
@@ -36627,7 +36753,9 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AB15" s="2"/>
+      <c r="AB15" s="2" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="16" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="26">
@@ -36688,9 +36816,11 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AB16" s="2"/>
-    </row>
-    <row r="17" spans="2:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AB16" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B17" s="26">
         <v>14</v>
       </c>
@@ -36749,9 +36879,17 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AB17" s="2"/>
-    </row>
-    <row r="18" spans="2:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AB17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC17" s="17">
+        <v>4</v>
+      </c>
+      <c r="AD17" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B18" s="26"/>
       <c r="C18" s="26"/>
       <c r="D18" s="26"/>
@@ -36794,9 +36932,20 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AB18" s="2"/>
-    </row>
-    <row r="19" spans="2:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AB18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC18" s="17">
+        <v>3</v>
+      </c>
+      <c r="AD18" s="17">
+        <v>3</v>
+      </c>
+      <c r="AE18" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B19" s="26"/>
       <c r="C19" s="26"/>
       <c r="D19" s="26"/>
@@ -36839,8 +36988,14 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-    </row>
-    <row r="20" spans="2:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AB19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC19" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B20" s="26"/>
       <c r="C20" s="26"/>
       <c r="D20" s="26"/>
@@ -36861,8 +37016,11 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-    </row>
-    <row r="21" spans="2:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AB20" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B21" s="26"/>
       <c r="C21" s="26"/>
       <c r="D21" s="26"/>
@@ -36883,8 +37041,12 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-    </row>
-    <row r="22" spans="2:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AB21" s="145"/>
+      <c r="AC21" s="145"/>
+      <c r="AD21" s="145"/>
+      <c r="AE21" s="145"/>
+    </row>
+    <row r="22" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B22" s="26"/>
       <c r="C22" s="26"/>
       <c r="D22" s="26"/>
@@ -36905,8 +37067,12 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-    </row>
-    <row r="23" spans="2:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AB22" s="146"/>
+      <c r="AC22" s="145"/>
+      <c r="AD22" s="145"/>
+      <c r="AE22" s="145"/>
+    </row>
+    <row r="23" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B23" s="26"/>
       <c r="C23" s="26"/>
       <c r="D23" s="26"/>
@@ -36944,8 +37110,12 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-    </row>
-    <row r="24" spans="2:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AB23" s="146"/>
+      <c r="AC23" s="145"/>
+      <c r="AD23" s="145"/>
+      <c r="AE23" s="145"/>
+    </row>
+    <row r="24" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B24" s="26"/>
       <c r="C24" s="26"/>
       <c r="D24" s="26"/>
@@ -36982,8 +37152,12 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-    </row>
-    <row r="25" spans="2:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AB24" s="146"/>
+      <c r="AC24" s="145"/>
+      <c r="AD24" s="145"/>
+      <c r="AE24" s="145"/>
+    </row>
+    <row r="25" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B25" s="26"/>
       <c r="C25" s="26"/>
       <c r="D25" s="26"/>
@@ -37021,8 +37195,12 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-    </row>
-    <row r="26" spans="2:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AB25" s="146"/>
+      <c r="AC25" s="145"/>
+      <c r="AD25" s="145"/>
+      <c r="AE25" s="145"/>
+    </row>
+    <row r="26" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B26" s="26"/>
       <c r="C26" s="26"/>
       <c r="D26" s="26"/>
@@ -37060,8 +37238,12 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-    </row>
-    <row r="27" spans="2:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AB26" s="146"/>
+      <c r="AC26" s="145"/>
+      <c r="AD26" s="145"/>
+      <c r="AE26" s="145"/>
+    </row>
+    <row r="27" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B27" s="26"/>
       <c r="C27" s="26"/>
       <c r="D27" s="26"/>
@@ -37098,8 +37280,12 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-    </row>
-    <row r="28" spans="2:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AB27" s="147"/>
+      <c r="AC27" s="145"/>
+      <c r="AD27" s="145"/>
+      <c r="AE27" s="145"/>
+    </row>
+    <row r="28" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B28" s="26"/>
       <c r="C28" s="26"/>
       <c r="D28" s="26"/>
@@ -37136,8 +37322,12 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-    </row>
-    <row r="29" spans="2:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AB28" s="147"/>
+      <c r="AC28" s="145"/>
+      <c r="AD28" s="145"/>
+      <c r="AE28" s="145"/>
+    </row>
+    <row r="29" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B29" s="26"/>
       <c r="C29" s="26"/>
       <c r="D29" s="26"/>
@@ -37174,8 +37364,12 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-    </row>
-    <row r="30" spans="2:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AB29" s="147"/>
+      <c r="AC29" s="145"/>
+      <c r="AD29" s="145"/>
+      <c r="AE29" s="145"/>
+    </row>
+    <row r="30" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B30" s="26"/>
       <c r="C30" s="26"/>
       <c r="D30" s="26"/>
@@ -37212,8 +37406,12 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-    </row>
-    <row r="31" spans="2:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AB30" s="147"/>
+      <c r="AC30" s="145"/>
+      <c r="AD30" s="145"/>
+      <c r="AE30" s="145"/>
+    </row>
+    <row r="31" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B31" s="26"/>
       <c r="C31" s="26"/>
       <c r="D31" s="26"/>
@@ -37250,8 +37448,12 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-    </row>
-    <row r="32" spans="2:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AB31" s="147"/>
+      <c r="AC31" s="145"/>
+      <c r="AD31" s="145"/>
+      <c r="AE31" s="145"/>
+    </row>
+    <row r="32" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B32" s="26"/>
       <c r="C32" s="26"/>
       <c r="D32" s="26"/>
@@ -37288,8 +37490,12 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-    </row>
-    <row r="33" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AB32" s="148"/>
+      <c r="AC32" s="145"/>
+      <c r="AD32" s="145"/>
+      <c r="AE32" s="145"/>
+    </row>
+    <row r="33" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B33" s="26"/>
       <c r="C33" s="26"/>
       <c r="D33" s="26"/>
@@ -37326,8 +37532,12 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-    </row>
-    <row r="34" spans="2:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AB33" s="148"/>
+      <c r="AC33" s="145"/>
+      <c r="AD33" s="145"/>
+      <c